--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcz5chn\Documents\Projects\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -394,32 +394,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -469,7 +469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44189</v>
       </c>
@@ -519,7 +519,7 @@
         <v>341.29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44190</v>
       </c>
@@ -569,7 +569,7 @@
         <v>341.29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44193</v>
       </c>
@@ -619,7 +619,7 @@
         <v>341.42</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44194</v>
       </c>
@@ -669,7 +669,7 @@
         <v>341.79</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44195</v>
       </c>
@@ -719,7 +719,7 @@
         <v>341.9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44196</v>
       </c>
@@ -769,7 +769,7 @@
         <v>341.99</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44197</v>
       </c>
@@ -819,7 +819,7 @@
         <v>341.99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44200</v>
       </c>
@@ -869,7 +869,7 @@
         <v>340.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44201</v>
       </c>
@@ -919,7 +919,7 @@
         <v>341.21</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44202</v>
       </c>
@@ -969,7 +969,7 @@
         <v>341.71</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44203</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>341.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44204</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>341.91</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44207</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>342.46</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44208</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>342.75</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44209</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>342.71</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44210</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>342.55</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44211</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>342.9</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44214</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>342.9</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44215</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>343.72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44216</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>343.34</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44217</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>343.78</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44218</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>344.12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44221</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>344.65</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44222</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>345.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44223</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>346.49</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44224</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>346.56</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44225</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>347.42</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44228</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>346.91</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44229</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>346.34</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44230</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>346.25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44231</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>346.06</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44232</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>346.16</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44235</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>346.13</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44236</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>346.28</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44237</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>346.53</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44238</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>347.36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44239</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44242</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>348.1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44243</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>348.89</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44244</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>349.44</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44245</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>349.44</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44246</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>350.1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44249</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>350.45</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44250</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>350.79</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44251</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>350.25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44252</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>347.56</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44253</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>348.93</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44256</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>349.2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44257</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44258</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>350.15</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44259</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>348.97</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44260</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>349.39</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44263</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>350.05</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44264</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>349.76</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44265</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>349.65</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44266</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>349.15</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44267</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>349.42</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44270</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>349.38</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44271</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>349.54</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44272</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>349.63</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44273</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>348.15</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44274</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>349.6</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44277</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>349.68</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44278</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>349.81</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44279</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>350.19</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44280</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>350.56</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44281</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>349.66</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44284</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>350.36</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44285</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>350.61</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44286</v>
       </c>
@@ -3967,6 +3967,3256 @@
       </c>
       <c r="P71">
         <v>350.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B72">
+        <v>8335.9089999999997</v>
+      </c>
+      <c r="C72">
+        <v>8575.74</v>
+      </c>
+      <c r="D72">
+        <v>346.89</v>
+      </c>
+      <c r="E72">
+        <v>4906.5200000000004</v>
+      </c>
+      <c r="F72">
+        <v>189.63</v>
+      </c>
+      <c r="G72">
+        <v>120.7552</v>
+      </c>
+      <c r="H72">
+        <v>173.5</v>
+      </c>
+      <c r="I72">
+        <v>113.489</v>
+      </c>
+      <c r="J72">
+        <v>113.9833</v>
+      </c>
+      <c r="K72">
+        <v>864.88</v>
+      </c>
+      <c r="L72">
+        <v>1116.8499999999999</v>
+      </c>
+      <c r="M72">
+        <v>298.89229999999998</v>
+      </c>
+      <c r="N72">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="O72">
+        <v>381.4</v>
+      </c>
+      <c r="P72">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B73">
+        <v>8335.9089999999997</v>
+      </c>
+      <c r="C73">
+        <v>8575.74</v>
+      </c>
+      <c r="D73">
+        <v>347.18</v>
+      </c>
+      <c r="E73">
+        <v>4887.8900000000003</v>
+      </c>
+      <c r="F73">
+        <v>188.29</v>
+      </c>
+      <c r="G73">
+        <v>120.7552</v>
+      </c>
+      <c r="H73">
+        <v>173.5</v>
+      </c>
+      <c r="I73">
+        <v>113.489</v>
+      </c>
+      <c r="J73">
+        <v>113.9833</v>
+      </c>
+      <c r="K73">
+        <v>864.88</v>
+      </c>
+      <c r="L73">
+        <v>1116.8499999999999</v>
+      </c>
+      <c r="M73">
+        <v>298.89229999999998</v>
+      </c>
+      <c r="N73">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="O73">
+        <v>381.4</v>
+      </c>
+      <c r="P73">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B74">
+        <v>8457.3970000000008</v>
+      </c>
+      <c r="C74">
+        <v>8575.74</v>
+      </c>
+      <c r="D74">
+        <v>350.52</v>
+      </c>
+      <c r="E74">
+        <v>4889.01</v>
+      </c>
+      <c r="F74">
+        <v>188.6</v>
+      </c>
+      <c r="G74">
+        <v>121.0033</v>
+      </c>
+      <c r="H74">
+        <v>173.6</v>
+      </c>
+      <c r="I74">
+        <v>113.4701</v>
+      </c>
+      <c r="J74">
+        <v>113.9593</v>
+      </c>
+      <c r="K74">
+        <v>862.82</v>
+      </c>
+      <c r="L74">
+        <v>1116.3800000000001</v>
+      </c>
+      <c r="M74">
+        <v>298.58440000000002</v>
+      </c>
+      <c r="N74">
+        <v>293.14</v>
+      </c>
+      <c r="O74">
+        <v>380.72</v>
+      </c>
+      <c r="P74">
+        <v>349.91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B75">
+        <v>8449.5419999999995</v>
+      </c>
+      <c r="C75">
+        <v>8634.7000000000007</v>
+      </c>
+      <c r="D75">
+        <v>351.16</v>
+      </c>
+      <c r="E75">
+        <v>4913.8</v>
+      </c>
+      <c r="F75">
+        <v>190.16</v>
+      </c>
+      <c r="G75">
+        <v>120.9764</v>
+      </c>
+      <c r="H75">
+        <v>173.58</v>
+      </c>
+      <c r="I75">
+        <v>113.47020000000001</v>
+      </c>
+      <c r="J75">
+        <v>113.95399999999999</v>
+      </c>
+      <c r="K75">
+        <v>862.9</v>
+      </c>
+      <c r="L75">
+        <v>1112.81</v>
+      </c>
+      <c r="M75">
+        <v>298.44839999999999</v>
+      </c>
+      <c r="N75">
+        <v>293.32</v>
+      </c>
+      <c r="O75">
+        <v>380.76</v>
+      </c>
+      <c r="P75">
+        <v>350.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B76">
+        <v>8462.1749999999993</v>
+      </c>
+      <c r="C76">
+        <v>8605.0300000000007</v>
+      </c>
+      <c r="D76">
+        <v>351.42</v>
+      </c>
+      <c r="E76">
+        <v>4890.3100000000004</v>
+      </c>
+      <c r="F76">
+        <v>188.39</v>
+      </c>
+      <c r="G76">
+        <v>120.81229999999999</v>
+      </c>
+      <c r="H76">
+        <v>173.59</v>
+      </c>
+      <c r="I76">
+        <v>113.45950000000001</v>
+      </c>
+      <c r="J76">
+        <v>113.94880000000001</v>
+      </c>
+      <c r="K76">
+        <v>862.91</v>
+      </c>
+      <c r="L76">
+        <v>1113.53</v>
+      </c>
+      <c r="M76">
+        <v>298.52859999999998</v>
+      </c>
+      <c r="N76">
+        <v>293.44</v>
+      </c>
+      <c r="O76">
+        <v>381.02</v>
+      </c>
+      <c r="P76">
+        <v>350.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B77">
+        <v>8499.85</v>
+      </c>
+      <c r="C77">
+        <v>8650.83</v>
+      </c>
+      <c r="D77">
+        <v>353.16</v>
+      </c>
+      <c r="E77">
+        <v>4921.3999999999996</v>
+      </c>
+      <c r="F77">
+        <v>190.36</v>
+      </c>
+      <c r="G77">
+        <v>120.8325</v>
+      </c>
+      <c r="H77">
+        <v>173.7</v>
+      </c>
+      <c r="I77">
+        <v>113.4415</v>
+      </c>
+      <c r="J77">
+        <v>113.9301</v>
+      </c>
+      <c r="K77">
+        <v>862.4</v>
+      </c>
+      <c r="L77">
+        <v>1112.8</v>
+      </c>
+      <c r="M77">
+        <v>298.34910000000002</v>
+      </c>
+      <c r="N77">
+        <v>293.5</v>
+      </c>
+      <c r="O77">
+        <v>381.18</v>
+      </c>
+      <c r="P77">
+        <v>350.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B78">
+        <v>8565.5730000000003</v>
+      </c>
+      <c r="C78">
+        <v>8653.02</v>
+      </c>
+      <c r="D78">
+        <v>354.27</v>
+      </c>
+      <c r="E78">
+        <v>4908.43</v>
+      </c>
+      <c r="F78">
+        <v>189.6</v>
+      </c>
+      <c r="G78">
+        <v>121.0616</v>
+      </c>
+      <c r="H78">
+        <v>173.8</v>
+      </c>
+      <c r="I78">
+        <v>113.44240000000001</v>
+      </c>
+      <c r="J78">
+        <v>113.9335</v>
+      </c>
+      <c r="K78">
+        <v>861.46</v>
+      </c>
+      <c r="L78">
+        <v>1110.94</v>
+      </c>
+      <c r="M78">
+        <v>298.18029999999999</v>
+      </c>
+      <c r="N78">
+        <v>293.33</v>
+      </c>
+      <c r="O78">
+        <v>381.03</v>
+      </c>
+      <c r="P78">
+        <v>350.36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B79">
+        <v>8564.0300000000007</v>
+      </c>
+      <c r="C79">
+        <v>8616.17</v>
+      </c>
+      <c r="D79">
+        <v>353.7</v>
+      </c>
+      <c r="E79">
+        <v>4909.63</v>
+      </c>
+      <c r="F79">
+        <v>189.6</v>
+      </c>
+      <c r="G79">
+        <v>121.0535</v>
+      </c>
+      <c r="H79">
+        <v>173.71</v>
+      </c>
+      <c r="I79">
+        <v>113.44070000000001</v>
+      </c>
+      <c r="J79">
+        <v>113.9335</v>
+      </c>
+      <c r="K79">
+        <v>861.58</v>
+      </c>
+      <c r="L79">
+        <v>1111.6500000000001</v>
+      </c>
+      <c r="M79">
+        <v>297.95429999999999</v>
+      </c>
+      <c r="N79">
+        <v>293.8</v>
+      </c>
+      <c r="O79">
+        <v>381.15</v>
+      </c>
+      <c r="P79">
+        <v>350.69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B80">
+        <v>8592.2459999999992</v>
+      </c>
+      <c r="C80">
+        <v>8627.25</v>
+      </c>
+      <c r="D80">
+        <v>354.92</v>
+      </c>
+      <c r="E80">
+        <v>4933.3500000000004</v>
+      </c>
+      <c r="F80">
+        <v>191.2</v>
+      </c>
+      <c r="G80">
+        <v>121.1113</v>
+      </c>
+      <c r="H80">
+        <v>173.78</v>
+      </c>
+      <c r="I80">
+        <v>113.4277</v>
+      </c>
+      <c r="J80">
+        <v>113.9072</v>
+      </c>
+      <c r="K80">
+        <v>861.32</v>
+      </c>
+      <c r="L80">
+        <v>1113.1099999999999</v>
+      </c>
+      <c r="M80">
+        <v>297.9178</v>
+      </c>
+      <c r="N80">
+        <v>293.94</v>
+      </c>
+      <c r="O80">
+        <v>381.22</v>
+      </c>
+      <c r="P80">
+        <v>350.83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B81">
+        <v>8558.1560000000009</v>
+      </c>
+      <c r="C81">
+        <v>8647.4599999999991</v>
+      </c>
+      <c r="D81">
+        <v>354.88</v>
+      </c>
+      <c r="E81">
+        <v>4929.9799999999996</v>
+      </c>
+      <c r="F81">
+        <v>190.48</v>
+      </c>
+      <c r="G81">
+        <v>121.0989</v>
+      </c>
+      <c r="H81">
+        <v>173.71</v>
+      </c>
+      <c r="I81">
+        <v>113.4306</v>
+      </c>
+      <c r="J81">
+        <v>113.9105</v>
+      </c>
+      <c r="K81">
+        <v>861.62</v>
+      </c>
+      <c r="L81">
+        <v>1114.24</v>
+      </c>
+      <c r="M81">
+        <v>297.99560000000002</v>
+      </c>
+      <c r="N81">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="O81">
+        <v>381.37</v>
+      </c>
+      <c r="P81">
+        <v>351.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B82">
+        <v>8653.2870000000003</v>
+      </c>
+      <c r="C82">
+        <v>8684.76</v>
+      </c>
+      <c r="D82">
+        <v>358.06</v>
+      </c>
+      <c r="E82">
+        <v>4984.13</v>
+      </c>
+      <c r="F82">
+        <v>194.52</v>
+      </c>
+      <c r="G82">
+        <v>121.33199999999999</v>
+      </c>
+      <c r="H82">
+        <v>173.9</v>
+      </c>
+      <c r="I82">
+        <v>113.4161</v>
+      </c>
+      <c r="J82">
+        <v>113.89870000000001</v>
+      </c>
+      <c r="K82">
+        <v>860.41</v>
+      </c>
+      <c r="L82">
+        <v>1113.18</v>
+      </c>
+      <c r="M82">
+        <v>298.1583</v>
+      </c>
+      <c r="N82">
+        <v>293.64</v>
+      </c>
+      <c r="O82">
+        <v>380.9</v>
+      </c>
+      <c r="P82">
+        <v>350.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B83">
+        <v>8684.5059999999994</v>
+      </c>
+      <c r="C83">
+        <v>8771.83</v>
+      </c>
+      <c r="D83">
+        <v>359.56</v>
+      </c>
+      <c r="E83">
+        <v>4942.8999999999996</v>
+      </c>
+      <c r="F83">
+        <v>192.71</v>
+      </c>
+      <c r="G83">
+        <v>121.4357</v>
+      </c>
+      <c r="H83">
+        <v>173.82</v>
+      </c>
+      <c r="I83">
+        <v>113.40219999999999</v>
+      </c>
+      <c r="J83">
+        <v>113.8879</v>
+      </c>
+      <c r="K83">
+        <v>860.13</v>
+      </c>
+      <c r="L83">
+        <v>1110.25</v>
+      </c>
+      <c r="M83">
+        <v>297.96129999999999</v>
+      </c>
+      <c r="N83">
+        <v>293.72000000000003</v>
+      </c>
+      <c r="O83">
+        <v>381.24</v>
+      </c>
+      <c r="P83">
+        <v>350.88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B84">
+        <v>8638.4210000000003</v>
+      </c>
+      <c r="C84">
+        <v>8746.0400000000009</v>
+      </c>
+      <c r="D84">
+        <v>358.62</v>
+      </c>
+      <c r="E84">
+        <v>4919.93</v>
+      </c>
+      <c r="F84">
+        <v>191.98</v>
+      </c>
+      <c r="G84">
+        <v>121.39319999999999</v>
+      </c>
+      <c r="H84">
+        <v>173.77</v>
+      </c>
+      <c r="I84">
+        <v>113.43219999999999</v>
+      </c>
+      <c r="J84">
+        <v>113.90219999999999</v>
+      </c>
+      <c r="K84">
+        <v>860.61</v>
+      </c>
+      <c r="L84">
+        <v>1110.76</v>
+      </c>
+      <c r="M84">
+        <v>298.1379</v>
+      </c>
+      <c r="N84">
+        <v>293.68</v>
+      </c>
+      <c r="O84">
+        <v>381.4</v>
+      </c>
+      <c r="P84">
+        <v>351.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B85">
+        <v>8579.9470000000001</v>
+      </c>
+      <c r="C85">
+        <v>8578.0400000000009</v>
+      </c>
+      <c r="D85">
+        <v>355.61</v>
+      </c>
+      <c r="E85">
+        <v>4931.4399999999996</v>
+      </c>
+      <c r="F85">
+        <v>193.07</v>
+      </c>
+      <c r="G85">
+        <v>121.31489999999999</v>
+      </c>
+      <c r="H85">
+        <v>173.61</v>
+      </c>
+      <c r="I85">
+        <v>113.4479</v>
+      </c>
+      <c r="J85">
+        <v>113.935</v>
+      </c>
+      <c r="K85">
+        <v>861.29</v>
+      </c>
+      <c r="L85">
+        <v>1111.06</v>
+      </c>
+      <c r="M85">
+        <v>297.75510000000003</v>
+      </c>
+      <c r="N85">
+        <v>293.27</v>
+      </c>
+      <c r="O85">
+        <v>380.47</v>
+      </c>
+      <c r="P85">
+        <v>350.79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B86">
+        <v>8659.7990000000009</v>
+      </c>
+      <c r="C86">
+        <v>8656.2900000000009</v>
+      </c>
+      <c r="D86">
+        <v>357.08</v>
+      </c>
+      <c r="E86">
+        <v>4942.47</v>
+      </c>
+      <c r="F86">
+        <v>193.54</v>
+      </c>
+      <c r="G86">
+        <v>121.32429999999999</v>
+      </c>
+      <c r="H86">
+        <v>173.89</v>
+      </c>
+      <c r="I86">
+        <v>113.32210000000001</v>
+      </c>
+      <c r="J86">
+        <v>113.8466</v>
+      </c>
+      <c r="K86">
+        <v>860.26</v>
+      </c>
+      <c r="L86">
+        <v>1109.55</v>
+      </c>
+      <c r="M86">
+        <v>298.09469999999999</v>
+      </c>
+      <c r="N86">
+        <v>293.02</v>
+      </c>
+      <c r="O86">
+        <v>380.55</v>
+      </c>
+      <c r="P86">
+        <v>350.16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B87">
+        <v>8580.7309999999998</v>
+      </c>
+      <c r="C87">
+        <v>8739.86</v>
+      </c>
+      <c r="D87">
+        <v>356.3</v>
+      </c>
+      <c r="E87">
+        <v>4960.1000000000004</v>
+      </c>
+      <c r="F87">
+        <v>194.63</v>
+      </c>
+      <c r="G87">
+        <v>121.39100000000001</v>
+      </c>
+      <c r="H87">
+        <v>173.85</v>
+      </c>
+      <c r="I87">
+        <v>113.337</v>
+      </c>
+      <c r="J87">
+        <v>113.84180000000001</v>
+      </c>
+      <c r="K87">
+        <v>861.16</v>
+      </c>
+      <c r="L87">
+        <v>1108.73</v>
+      </c>
+      <c r="M87">
+        <v>298.94110000000001</v>
+      </c>
+      <c r="N87">
+        <v>292.91000000000003</v>
+      </c>
+      <c r="O87">
+        <v>380.1</v>
+      </c>
+      <c r="P87">
+        <v>349.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B88">
+        <v>8674.7960000000003</v>
+      </c>
+      <c r="C88">
+        <v>8736.68</v>
+      </c>
+      <c r="D88">
+        <v>359.06</v>
+      </c>
+      <c r="E88">
+        <v>4961.5200000000004</v>
+      </c>
+      <c r="F88">
+        <v>194.13</v>
+      </c>
+      <c r="G88">
+        <v>121.4926</v>
+      </c>
+      <c r="H88">
+        <v>173.94</v>
+      </c>
+      <c r="I88">
+        <v>113.2437</v>
+      </c>
+      <c r="J88">
+        <v>113.76909999999999</v>
+      </c>
+      <c r="K88">
+        <v>860</v>
+      </c>
+      <c r="L88">
+        <v>1106.18</v>
+      </c>
+      <c r="M88">
+        <v>299.935</v>
+      </c>
+      <c r="N88">
+        <v>291.97000000000003</v>
+      </c>
+      <c r="O88">
+        <v>379.43</v>
+      </c>
+      <c r="P88">
+        <v>349.34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B89">
+        <v>8690.2569999999996</v>
+      </c>
+      <c r="C89">
+        <v>8752.98</v>
+      </c>
+      <c r="D89">
+        <v>360.39</v>
+      </c>
+      <c r="E89">
+        <v>4960.92</v>
+      </c>
+      <c r="F89">
+        <v>193.85</v>
+      </c>
+      <c r="G89">
+        <v>121.5487</v>
+      </c>
+      <c r="H89">
+        <v>173.77</v>
+      </c>
+      <c r="I89">
+        <v>113.2484</v>
+      </c>
+      <c r="J89">
+        <v>113.7435</v>
+      </c>
+      <c r="K89">
+        <v>859.84</v>
+      </c>
+      <c r="L89">
+        <v>1105.49</v>
+      </c>
+      <c r="M89">
+        <v>299.76490000000001</v>
+      </c>
+      <c r="N89">
+        <v>292.11</v>
+      </c>
+      <c r="O89">
+        <v>379.6</v>
+      </c>
+      <c r="P89">
+        <v>349.56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B90">
+        <v>8688.4519999999993</v>
+      </c>
+      <c r="C90">
+        <v>8735.7099999999991</v>
+      </c>
+      <c r="D90">
+        <v>360.01</v>
+      </c>
+      <c r="E90">
+        <v>4928.96</v>
+      </c>
+      <c r="F90">
+        <v>191.72</v>
+      </c>
+      <c r="G90">
+        <v>121.5352</v>
+      </c>
+      <c r="H90">
+        <v>173.74</v>
+      </c>
+      <c r="I90">
+        <v>113.2137</v>
+      </c>
+      <c r="J90">
+        <v>113.7321</v>
+      </c>
+      <c r="K90">
+        <v>859.95</v>
+      </c>
+      <c r="L90">
+        <v>1104.2</v>
+      </c>
+      <c r="M90">
+        <v>299.67090000000002</v>
+      </c>
+      <c r="N90">
+        <v>292.27</v>
+      </c>
+      <c r="O90">
+        <v>379.63</v>
+      </c>
+      <c r="P90">
+        <v>349.81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B91">
+        <v>8681.1659999999993</v>
+      </c>
+      <c r="C91">
+        <v>8746.7800000000007</v>
+      </c>
+      <c r="D91">
+        <v>360.13</v>
+      </c>
+      <c r="E91">
+        <v>4928.79</v>
+      </c>
+      <c r="F91">
+        <v>191.81</v>
+      </c>
+      <c r="G91">
+        <v>121.4949</v>
+      </c>
+      <c r="H91">
+        <v>173.87</v>
+      </c>
+      <c r="I91">
+        <v>113.2032</v>
+      </c>
+      <c r="J91">
+        <v>113.7062</v>
+      </c>
+      <c r="K91">
+        <v>860.11</v>
+      </c>
+      <c r="L91">
+        <v>1101.9100000000001</v>
+      </c>
+      <c r="M91">
+        <v>299.71129999999999</v>
+      </c>
+      <c r="N91">
+        <v>292.45</v>
+      </c>
+      <c r="O91">
+        <v>379.95</v>
+      </c>
+      <c r="P91">
+        <v>349.94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B92">
+        <v>8740.3490000000002</v>
+      </c>
+      <c r="C92">
+        <v>8710.86</v>
+      </c>
+      <c r="D92">
+        <v>361.36</v>
+      </c>
+      <c r="E92">
+        <v>4917.3599999999997</v>
+      </c>
+      <c r="F92">
+        <v>191.06</v>
+      </c>
+      <c r="G92">
+        <v>121.63590000000001</v>
+      </c>
+      <c r="H92">
+        <v>173.93</v>
+      </c>
+      <c r="I92">
+        <v>113.2081</v>
+      </c>
+      <c r="J92">
+        <v>113.6996</v>
+      </c>
+      <c r="K92">
+        <v>859.29</v>
+      </c>
+      <c r="L92">
+        <v>1099.8499999999999</v>
+      </c>
+      <c r="M92">
+        <v>299.65230000000003</v>
+      </c>
+      <c r="N92">
+        <v>292.45999999999998</v>
+      </c>
+      <c r="O92">
+        <v>379.94</v>
+      </c>
+      <c r="P92">
+        <v>349.79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B93">
+        <v>8678.1610000000001</v>
+      </c>
+      <c r="C93">
+        <v>8670.31</v>
+      </c>
+      <c r="D93">
+        <v>358.21</v>
+      </c>
+      <c r="E93">
+        <v>4926.78</v>
+      </c>
+      <c r="F93">
+        <v>191.75</v>
+      </c>
+      <c r="G93">
+        <v>121.5433</v>
+      </c>
+      <c r="H93">
+        <v>173.97</v>
+      </c>
+      <c r="I93">
+        <v>113.2397</v>
+      </c>
+      <c r="J93">
+        <v>113.7281</v>
+      </c>
+      <c r="K93">
+        <v>859.95</v>
+      </c>
+      <c r="L93">
+        <v>1096.8</v>
+      </c>
+      <c r="M93">
+        <v>299.80110000000002</v>
+      </c>
+      <c r="N93">
+        <v>292.62</v>
+      </c>
+      <c r="O93">
+        <v>380.03</v>
+      </c>
+      <c r="P93">
+        <v>349.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B94">
+        <v>8702.0249999999996</v>
+      </c>
+      <c r="C94">
+        <v>8727.89</v>
+      </c>
+      <c r="D94">
+        <v>358.98</v>
+      </c>
+      <c r="E94">
+        <v>4935.8100000000004</v>
+      </c>
+      <c r="F94">
+        <v>191.72</v>
+      </c>
+      <c r="G94">
+        <v>121.5368</v>
+      </c>
+      <c r="H94">
+        <v>173.88</v>
+      </c>
+      <c r="I94">
+        <v>113.1788</v>
+      </c>
+      <c r="J94">
+        <v>113.6776</v>
+      </c>
+      <c r="K94">
+        <v>859.69</v>
+      </c>
+      <c r="L94">
+        <v>1095</v>
+      </c>
+      <c r="M94">
+        <v>300.09649999999999</v>
+      </c>
+      <c r="N94">
+        <v>292.94</v>
+      </c>
+      <c r="O94">
+        <v>380.17</v>
+      </c>
+      <c r="P94">
+        <v>350.29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B95">
+        <v>8643.9130000000005</v>
+      </c>
+      <c r="C95">
+        <v>8565</v>
+      </c>
+      <c r="D95">
+        <v>356.08</v>
+      </c>
+      <c r="E95">
+        <v>4952.1899999999996</v>
+      </c>
+      <c r="F95">
+        <v>193.34</v>
+      </c>
+      <c r="G95">
+        <v>121.5112</v>
+      </c>
+      <c r="H95">
+        <v>173.77</v>
+      </c>
+      <c r="I95">
+        <v>113.3082</v>
+      </c>
+      <c r="J95">
+        <v>113.7818</v>
+      </c>
+      <c r="K95">
+        <v>860.3</v>
+      </c>
+      <c r="L95">
+        <v>1102.18</v>
+      </c>
+      <c r="M95">
+        <v>300.33010000000002</v>
+      </c>
+      <c r="N95">
+        <v>291.69</v>
+      </c>
+      <c r="O95">
+        <v>378.3</v>
+      </c>
+      <c r="P95">
+        <v>348.92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B96">
+        <v>8650.0380000000005</v>
+      </c>
+      <c r="C96">
+        <v>8743.33</v>
+      </c>
+      <c r="D96">
+        <v>357.13</v>
+      </c>
+      <c r="E96">
+        <v>4961.95</v>
+      </c>
+      <c r="F96">
+        <v>193.77</v>
+      </c>
+      <c r="G96">
+        <v>121.366</v>
+      </c>
+      <c r="H96">
+        <v>173.71</v>
+      </c>
+      <c r="I96">
+        <v>112.9803</v>
+      </c>
+      <c r="J96">
+        <v>113.5692</v>
+      </c>
+      <c r="K96">
+        <v>860.31</v>
+      </c>
+      <c r="L96">
+        <v>1099.48</v>
+      </c>
+      <c r="M96">
+        <v>300.50110000000001</v>
+      </c>
+      <c r="N96">
+        <v>292.02</v>
+      </c>
+      <c r="O96">
+        <v>378.71</v>
+      </c>
+      <c r="P96">
+        <v>349.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B97">
+        <v>8722.0360000000001</v>
+      </c>
+      <c r="C97">
+        <v>8744.7000000000007</v>
+      </c>
+      <c r="D97">
+        <v>359.51</v>
+      </c>
+      <c r="E97">
+        <v>4972.8100000000004</v>
+      </c>
+      <c r="F97">
+        <v>194.09</v>
+      </c>
+      <c r="G97">
+        <v>121.4905</v>
+      </c>
+      <c r="H97">
+        <v>173.88</v>
+      </c>
+      <c r="I97">
+        <v>112.9833</v>
+      </c>
+      <c r="J97">
+        <v>113.61450000000001</v>
+      </c>
+      <c r="K97">
+        <v>859.12</v>
+      </c>
+      <c r="L97">
+        <v>1100.8900000000001</v>
+      </c>
+      <c r="M97">
+        <v>300.02409999999998</v>
+      </c>
+      <c r="N97">
+        <v>291.99</v>
+      </c>
+      <c r="O97">
+        <v>378.88</v>
+      </c>
+      <c r="P97">
+        <v>349.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B98">
+        <v>8787.8150000000005</v>
+      </c>
+      <c r="C98">
+        <v>8830.2900000000009</v>
+      </c>
+      <c r="D98">
+        <v>362.74</v>
+      </c>
+      <c r="E98">
+        <v>4964.7</v>
+      </c>
+      <c r="F98">
+        <v>192.85</v>
+      </c>
+      <c r="G98">
+        <v>121.4953</v>
+      </c>
+      <c r="H98">
+        <v>173.98</v>
+      </c>
+      <c r="I98">
+        <v>112.8158</v>
+      </c>
+      <c r="J98">
+        <v>113.37779999999999</v>
+      </c>
+      <c r="K98">
+        <v>858.24</v>
+      </c>
+      <c r="L98">
+        <v>1098.17</v>
+      </c>
+      <c r="M98">
+        <v>299.40910000000002</v>
+      </c>
+      <c r="N98">
+        <v>291.69</v>
+      </c>
+      <c r="O98">
+        <v>378.7</v>
+      </c>
+      <c r="P98">
+        <v>349.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B99">
+        <v>8696.2939999999999</v>
+      </c>
+      <c r="C99">
+        <v>8814.3799999999992</v>
+      </c>
+      <c r="D99">
+        <v>360.82</v>
+      </c>
+      <c r="E99">
+        <v>4930.2299999999996</v>
+      </c>
+      <c r="F99">
+        <v>190.24</v>
+      </c>
+      <c r="G99">
+        <v>121.4025</v>
+      </c>
+      <c r="H99">
+        <v>173.78</v>
+      </c>
+      <c r="I99">
+        <v>112.7985</v>
+      </c>
+      <c r="J99">
+        <v>113.33240000000001</v>
+      </c>
+      <c r="K99">
+        <v>859.37</v>
+      </c>
+      <c r="L99">
+        <v>1103.03</v>
+      </c>
+      <c r="M99">
+        <v>300.23509999999999</v>
+      </c>
+      <c r="N99">
+        <v>291.23</v>
+      </c>
+      <c r="O99">
+        <v>378.73</v>
+      </c>
+      <c r="P99">
+        <v>348.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B100">
+        <v>8620.9789999999994</v>
+      </c>
+      <c r="C100">
+        <v>8645.06</v>
+      </c>
+      <c r="D100">
+        <v>356.71</v>
+      </c>
+      <c r="E100">
+        <v>4896.78</v>
+      </c>
+      <c r="F100">
+        <v>188.75</v>
+      </c>
+      <c r="G100">
+        <v>121.5484</v>
+      </c>
+      <c r="H100">
+        <v>173.97</v>
+      </c>
+      <c r="I100">
+        <v>112.94199999999999</v>
+      </c>
+      <c r="J100">
+        <v>113.43470000000001</v>
+      </c>
+      <c r="K100">
+        <v>860.1</v>
+      </c>
+      <c r="L100">
+        <v>1102.3900000000001</v>
+      </c>
+      <c r="M100">
+        <v>299.27280000000002</v>
+      </c>
+      <c r="N100">
+        <v>290.89</v>
+      </c>
+      <c r="O100">
+        <v>377.64</v>
+      </c>
+      <c r="P100">
+        <v>349.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B101">
+        <v>8437.2350000000006</v>
+      </c>
+      <c r="C101">
+        <v>8648.0400000000009</v>
+      </c>
+      <c r="D101">
+        <v>350.78</v>
+      </c>
+      <c r="E101">
+        <v>4858.63</v>
+      </c>
+      <c r="F101">
+        <v>186.25</v>
+      </c>
+      <c r="G101">
+        <v>122.12909999999999</v>
+      </c>
+      <c r="H101">
+        <v>174.44</v>
+      </c>
+      <c r="I101">
+        <v>113.8556</v>
+      </c>
+      <c r="J101">
+        <v>114.1996</v>
+      </c>
+      <c r="K101">
+        <v>862.52</v>
+      </c>
+      <c r="L101">
+        <v>1102.8599999999999</v>
+      </c>
+      <c r="M101">
+        <v>296.9699</v>
+      </c>
+      <c r="N101">
+        <v>290.93</v>
+      </c>
+      <c r="O101">
+        <v>376.52</v>
+      </c>
+      <c r="P101">
+        <v>351.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B102">
+        <v>8541.3860000000004</v>
+      </c>
+      <c r="C102">
+        <v>8666.07</v>
+      </c>
+      <c r="D102">
+        <v>351.76</v>
+      </c>
+      <c r="E102">
+        <v>4871.3100000000004</v>
+      </c>
+      <c r="F102">
+        <v>186.39</v>
+      </c>
+      <c r="G102">
+        <v>121.53619999999999</v>
+      </c>
+      <c r="H102">
+        <v>174.04</v>
+      </c>
+      <c r="I102">
+        <v>111.74290000000001</v>
+      </c>
+      <c r="J102">
+        <v>113.09569999999999</v>
+      </c>
+      <c r="K102">
+        <v>860.98</v>
+      </c>
+      <c r="L102">
+        <v>1102.82</v>
+      </c>
+      <c r="M102">
+        <v>300.01900000000001</v>
+      </c>
+      <c r="N102">
+        <v>290.23</v>
+      </c>
+      <c r="O102">
+        <v>376.11</v>
+      </c>
+      <c r="P102">
+        <v>349.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B103">
+        <v>8669.49</v>
+      </c>
+      <c r="C103">
+        <v>8808.57</v>
+      </c>
+      <c r="D103">
+        <v>357.19</v>
+      </c>
+      <c r="E103">
+        <v>4912.92</v>
+      </c>
+      <c r="F103">
+        <v>188.68</v>
+      </c>
+      <c r="G103">
+        <v>121.49120000000001</v>
+      </c>
+      <c r="H103">
+        <v>173.95</v>
+      </c>
+      <c r="I103">
+        <v>110.4988</v>
+      </c>
+      <c r="J103">
+        <v>111.7259</v>
+      </c>
+      <c r="K103">
+        <v>859.02</v>
+      </c>
+      <c r="L103">
+        <v>1101.06</v>
+      </c>
+      <c r="M103">
+        <v>297.88369999999998</v>
+      </c>
+      <c r="N103">
+        <v>289.48</v>
+      </c>
+      <c r="O103">
+        <v>376.39</v>
+      </c>
+      <c r="P103">
+        <v>350.15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B104">
+        <v>8647.5689999999995</v>
+      </c>
+      <c r="C104">
+        <v>8788.17</v>
+      </c>
+      <c r="D104">
+        <v>356.86</v>
+      </c>
+      <c r="E104">
+        <v>4910.83</v>
+      </c>
+      <c r="F104">
+        <v>188.19</v>
+      </c>
+      <c r="G104">
+        <v>121.755</v>
+      </c>
+      <c r="H104">
+        <v>173.94</v>
+      </c>
+      <c r="I104">
+        <v>110.59059999999999</v>
+      </c>
+      <c r="J104">
+        <v>111.7753</v>
+      </c>
+      <c r="K104">
+        <v>859.34</v>
+      </c>
+      <c r="L104">
+        <v>1101.79</v>
+      </c>
+      <c r="M104">
+        <v>298.36360000000002</v>
+      </c>
+      <c r="N104">
+        <v>289.66000000000003</v>
+      </c>
+      <c r="O104">
+        <v>376.78</v>
+      </c>
+      <c r="P104">
+        <v>350.52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B105">
+        <v>8574.9779999999992</v>
+      </c>
+      <c r="C105">
+        <v>8784.8799999999992</v>
+      </c>
+      <c r="D105">
+        <v>357.05</v>
+      </c>
+      <c r="E105">
+        <v>4898.68</v>
+      </c>
+      <c r="F105">
+        <v>187.54</v>
+      </c>
+      <c r="G105">
+        <v>121.7811</v>
+      </c>
+      <c r="H105">
+        <v>173.83</v>
+      </c>
+      <c r="I105">
+        <v>110.43089999999999</v>
+      </c>
+      <c r="J105">
+        <v>111.6026</v>
+      </c>
+      <c r="K105">
+        <v>860.53</v>
+      </c>
+      <c r="L105">
+        <v>1098.98</v>
+      </c>
+      <c r="M105">
+        <v>297.73919999999998</v>
+      </c>
+      <c r="N105">
+        <v>289.82</v>
+      </c>
+      <c r="O105">
+        <v>376.65</v>
+      </c>
+      <c r="P105">
+        <v>350.98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B106">
+        <v>8550.9449999999997</v>
+      </c>
+      <c r="C106">
+        <v>8634.43</v>
+      </c>
+      <c r="D106">
+        <v>355</v>
+      </c>
+      <c r="E106">
+        <v>4877.21</v>
+      </c>
+      <c r="F106">
+        <v>187.1</v>
+      </c>
+      <c r="G106">
+        <v>121.7508</v>
+      </c>
+      <c r="H106">
+        <v>174.02</v>
+      </c>
+      <c r="I106">
+        <v>110.7838</v>
+      </c>
+      <c r="J106">
+        <v>112.0804</v>
+      </c>
+      <c r="K106">
+        <v>860.36</v>
+      </c>
+      <c r="L106">
+        <v>1100.67</v>
+      </c>
+      <c r="M106">
+        <v>297.1465</v>
+      </c>
+      <c r="N106">
+        <v>289.44</v>
+      </c>
+      <c r="O106">
+        <v>376.13</v>
+      </c>
+      <c r="P106">
+        <v>350.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B107">
+        <v>8641.98</v>
+      </c>
+      <c r="C107">
+        <v>8774.26</v>
+      </c>
+      <c r="D107">
+        <v>358.44</v>
+      </c>
+      <c r="E107">
+        <v>4915.72</v>
+      </c>
+      <c r="F107">
+        <v>189.07</v>
+      </c>
+      <c r="G107">
+        <v>121.85380000000001</v>
+      </c>
+      <c r="H107">
+        <v>174.17</v>
+      </c>
+      <c r="I107">
+        <v>109.98099999999999</v>
+      </c>
+      <c r="J107">
+        <v>110.8154</v>
+      </c>
+      <c r="K107">
+        <v>858.66</v>
+      </c>
+      <c r="L107">
+        <v>1098.52</v>
+      </c>
+      <c r="M107">
+        <v>297.82990000000001</v>
+      </c>
+      <c r="N107">
+        <v>289.14999999999998</v>
+      </c>
+      <c r="O107">
+        <v>375.94</v>
+      </c>
+      <c r="P107">
+        <v>350.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B108">
+        <v>8635.5460000000003</v>
+      </c>
+      <c r="C108">
+        <v>8831.01</v>
+      </c>
+      <c r="D108">
+        <v>358.57</v>
+      </c>
+      <c r="E108">
+        <v>4930.88</v>
+      </c>
+      <c r="F108">
+        <v>189.89</v>
+      </c>
+      <c r="G108">
+        <v>121.7799</v>
+      </c>
+      <c r="H108">
+        <v>174.07</v>
+      </c>
+      <c r="I108">
+        <v>109.8492</v>
+      </c>
+      <c r="J108">
+        <v>110.6514</v>
+      </c>
+      <c r="K108">
+        <v>858.93</v>
+      </c>
+      <c r="L108">
+        <v>1097.6099999999999</v>
+      </c>
+      <c r="M108">
+        <v>297.65839999999997</v>
+      </c>
+      <c r="N108">
+        <v>289.16000000000003</v>
+      </c>
+      <c r="O108">
+        <v>376.09</v>
+      </c>
+      <c r="P108">
+        <v>350.36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B109">
+        <v>8721.9989999999998</v>
+      </c>
+      <c r="C109">
+        <v>8860.27</v>
+      </c>
+      <c r="D109">
+        <v>360.99</v>
+      </c>
+      <c r="E109">
+        <v>4949.04</v>
+      </c>
+      <c r="F109">
+        <v>190.75</v>
+      </c>
+      <c r="G109">
+        <v>121.6478</v>
+      </c>
+      <c r="H109">
+        <v>174.26</v>
+      </c>
+      <c r="I109">
+        <v>109.69110000000001</v>
+      </c>
+      <c r="J109">
+        <v>110.52030000000001</v>
+      </c>
+      <c r="K109">
+        <v>857.68</v>
+      </c>
+      <c r="L109">
+        <v>1097.1300000000001</v>
+      </c>
+      <c r="M109">
+        <v>297.41410000000002</v>
+      </c>
+      <c r="N109">
+        <v>289.20999999999998</v>
+      </c>
+      <c r="O109">
+        <v>375.44</v>
+      </c>
+      <c r="P109">
+        <v>349.98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B110">
+        <v>8703.59</v>
+      </c>
+      <c r="C110">
+        <v>8861.2999999999993</v>
+      </c>
+      <c r="D110">
+        <v>361.56</v>
+      </c>
+      <c r="E110">
+        <v>4987.17</v>
+      </c>
+      <c r="F110">
+        <v>193.17</v>
+      </c>
+      <c r="G110">
+        <v>121.5958</v>
+      </c>
+      <c r="H110">
+        <v>174.24</v>
+      </c>
+      <c r="I110">
+        <v>109.69759999999999</v>
+      </c>
+      <c r="J110">
+        <v>110.5187</v>
+      </c>
+      <c r="K110">
+        <v>858.07</v>
+      </c>
+      <c r="L110">
+        <v>1096.52</v>
+      </c>
+      <c r="M110">
+        <v>297.38499999999999</v>
+      </c>
+      <c r="N110">
+        <v>289.31</v>
+      </c>
+      <c r="O110">
+        <v>375.32</v>
+      </c>
+      <c r="P110">
+        <v>350.15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B111">
+        <v>8720.0390000000007</v>
+      </c>
+      <c r="C111">
+        <v>8851.7000000000007</v>
+      </c>
+      <c r="D111">
+        <v>362.21</v>
+      </c>
+      <c r="E111">
+        <v>4980.7299999999996</v>
+      </c>
+      <c r="F111">
+        <v>192.81</v>
+      </c>
+      <c r="G111">
+        <v>121.3578</v>
+      </c>
+      <c r="H111">
+        <v>174.13</v>
+      </c>
+      <c r="I111">
+        <v>109.6078</v>
+      </c>
+      <c r="J111">
+        <v>110.4577</v>
+      </c>
+      <c r="K111">
+        <v>858.11</v>
+      </c>
+      <c r="L111">
+        <v>1096.71</v>
+      </c>
+      <c r="M111">
+        <v>297.65289999999999</v>
+      </c>
+      <c r="N111">
+        <v>289.39</v>
+      </c>
+      <c r="O111">
+        <v>375.63</v>
+      </c>
+      <c r="P111">
+        <v>350.06</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B112">
+        <v>8730.9680000000008</v>
+      </c>
+      <c r="C112">
+        <v>8868.24</v>
+      </c>
+      <c r="D112">
+        <v>362.45</v>
+      </c>
+      <c r="E112">
+        <v>4964.47</v>
+      </c>
+      <c r="F112">
+        <v>191.73</v>
+      </c>
+      <c r="G112">
+        <v>121.1572</v>
+      </c>
+      <c r="H112">
+        <v>173.95</v>
+      </c>
+      <c r="I112">
+        <v>109.5603</v>
+      </c>
+      <c r="J112">
+        <v>110.3869</v>
+      </c>
+      <c r="K112">
+        <v>858.11</v>
+      </c>
+      <c r="L112">
+        <v>1097.3399999999999</v>
+      </c>
+      <c r="M112">
+        <v>298.15820000000002</v>
+      </c>
+      <c r="N112">
+        <v>289.5</v>
+      </c>
+      <c r="O112">
+        <v>375.82</v>
+      </c>
+      <c r="P112">
+        <v>350.26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B113">
+        <v>8738.7720000000008</v>
+      </c>
+      <c r="C113">
+        <v>8937.7999999999993</v>
+      </c>
+      <c r="D113">
+        <v>363.62</v>
+      </c>
+      <c r="E113">
+        <v>4980.32</v>
+      </c>
+      <c r="F113">
+        <v>192.76</v>
+      </c>
+      <c r="G113">
+        <v>121.0762</v>
+      </c>
+      <c r="H113">
+        <v>174.13</v>
+      </c>
+      <c r="I113">
+        <v>109.55719999999999</v>
+      </c>
+      <c r="J113">
+        <v>110.3798</v>
+      </c>
+      <c r="K113">
+        <v>858</v>
+      </c>
+      <c r="L113">
+        <v>1095.49</v>
+      </c>
+      <c r="M113">
+        <v>297.73309999999998</v>
+      </c>
+      <c r="N113">
+        <v>289.54000000000002</v>
+      </c>
+      <c r="O113">
+        <v>375.89</v>
+      </c>
+      <c r="P113">
+        <v>350.59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B114">
+        <v>8738.7720000000008</v>
+      </c>
+      <c r="C114">
+        <v>8869.85</v>
+      </c>
+      <c r="D114">
+        <v>363.79</v>
+      </c>
+      <c r="E114">
+        <v>4980.32</v>
+      </c>
+      <c r="F114">
+        <v>192.76</v>
+      </c>
+      <c r="G114">
+        <v>121.0762</v>
+      </c>
+      <c r="H114">
+        <v>174.13</v>
+      </c>
+      <c r="I114">
+        <v>109.55719999999999</v>
+      </c>
+      <c r="J114">
+        <v>110.3798</v>
+      </c>
+      <c r="K114">
+        <v>858</v>
+      </c>
+      <c r="L114">
+        <v>1095.49</v>
+      </c>
+      <c r="M114">
+        <v>297.73309999999998</v>
+      </c>
+      <c r="N114">
+        <v>289.54000000000002</v>
+      </c>
+      <c r="O114">
+        <v>375.89</v>
+      </c>
+      <c r="P114">
+        <v>350.59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B115">
+        <v>8734.7440000000006</v>
+      </c>
+      <c r="C115">
+        <v>8940.76</v>
+      </c>
+      <c r="D115">
+        <v>364.97</v>
+      </c>
+      <c r="E115">
+        <v>4962.33</v>
+      </c>
+      <c r="F115">
+        <v>191.29</v>
+      </c>
+      <c r="G115">
+        <v>121.2259</v>
+      </c>
+      <c r="H115">
+        <v>174.33</v>
+      </c>
+      <c r="I115">
+        <v>109.569</v>
+      </c>
+      <c r="J115">
+        <v>110.3884</v>
+      </c>
+      <c r="K115">
+        <v>858.07</v>
+      </c>
+      <c r="L115">
+        <v>1096.01</v>
+      </c>
+      <c r="M115">
+        <v>297.89109999999999</v>
+      </c>
+      <c r="N115">
+        <v>290.05</v>
+      </c>
+      <c r="O115">
+        <v>376.09</v>
+      </c>
+      <c r="P115">
+        <v>351.06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B116">
+        <v>8748.2970000000005</v>
+      </c>
+      <c r="C116">
+        <v>8978.9</v>
+      </c>
+      <c r="D116">
+        <v>365.34</v>
+      </c>
+      <c r="E116">
+        <v>4972.57</v>
+      </c>
+      <c r="F116">
+        <v>191.72</v>
+      </c>
+      <c r="G116">
+        <v>121.3348</v>
+      </c>
+      <c r="H116">
+        <v>174.39</v>
+      </c>
+      <c r="I116">
+        <v>109.5534</v>
+      </c>
+      <c r="J116">
+        <v>110.3857</v>
+      </c>
+      <c r="K116">
+        <v>857.95</v>
+      </c>
+      <c r="L116">
+        <v>1096.53</v>
+      </c>
+      <c r="M116">
+        <v>297.83429999999998</v>
+      </c>
+      <c r="N116">
+        <v>290.44</v>
+      </c>
+      <c r="O116">
+        <v>376.63</v>
+      </c>
+      <c r="P116">
+        <v>351.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B117">
+        <v>8717.973</v>
+      </c>
+      <c r="C117">
+        <v>8958.57</v>
+      </c>
+      <c r="D117">
+        <v>363.82</v>
+      </c>
+      <c r="E117">
+        <v>4954.05</v>
+      </c>
+      <c r="F117">
+        <v>190.93</v>
+      </c>
+      <c r="G117">
+        <v>121.4174</v>
+      </c>
+      <c r="H117">
+        <v>174.34</v>
+      </c>
+      <c r="I117">
+        <v>109.5641</v>
+      </c>
+      <c r="J117">
+        <v>110.3939</v>
+      </c>
+      <c r="K117">
+        <v>858.45</v>
+      </c>
+      <c r="L117">
+        <v>1097.44</v>
+      </c>
+      <c r="M117">
+        <v>297.91300000000001</v>
+      </c>
+      <c r="N117">
+        <v>290.56</v>
+      </c>
+      <c r="O117">
+        <v>376.64</v>
+      </c>
+      <c r="P117">
+        <v>350.66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B118">
+        <v>8795.0759999999991</v>
+      </c>
+      <c r="C118">
+        <v>8980.83</v>
+      </c>
+      <c r="D118">
+        <v>366.36</v>
+      </c>
+      <c r="E118">
+        <v>5005.07</v>
+      </c>
+      <c r="F118">
+        <v>194.28</v>
+      </c>
+      <c r="G118">
+        <v>121.4074</v>
+      </c>
+      <c r="H118">
+        <v>174.29</v>
+      </c>
+      <c r="I118">
+        <v>109.4988</v>
+      </c>
+      <c r="J118">
+        <v>110.3267</v>
+      </c>
+      <c r="K118">
+        <v>857.22</v>
+      </c>
+      <c r="L118">
+        <v>1097.53</v>
+      </c>
+      <c r="M118">
+        <v>298.18759999999997</v>
+      </c>
+      <c r="N118">
+        <v>290.17</v>
+      </c>
+      <c r="O118">
+        <v>376.44</v>
+      </c>
+      <c r="P118">
+        <v>350.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B119">
+        <v>8788.2790000000005</v>
+      </c>
+      <c r="C119">
+        <v>8998.99</v>
+      </c>
+      <c r="D119">
+        <v>366.72</v>
+      </c>
+      <c r="E119">
+        <v>4995.88</v>
+      </c>
+      <c r="F119">
+        <v>193.56</v>
+      </c>
+      <c r="G119">
+        <v>121.2696</v>
+      </c>
+      <c r="H119">
+        <v>174.23</v>
+      </c>
+      <c r="I119">
+        <v>109.4913</v>
+      </c>
+      <c r="J119">
+        <v>110.3229</v>
+      </c>
+      <c r="K119">
+        <v>857.45</v>
+      </c>
+      <c r="L119">
+        <v>1098.03</v>
+      </c>
+      <c r="M119">
+        <v>298.00740000000002</v>
+      </c>
+      <c r="N119">
+        <v>290.29000000000002</v>
+      </c>
+      <c r="O119">
+        <v>376.72</v>
+      </c>
+      <c r="P119">
+        <v>351.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B120">
+        <v>8789.9959999999992</v>
+      </c>
+      <c r="C120">
+        <v>8995.39</v>
+      </c>
+      <c r="D120">
+        <v>366.72</v>
+      </c>
+      <c r="E120">
+        <v>5021.16</v>
+      </c>
+      <c r="F120">
+        <v>195.21</v>
+      </c>
+      <c r="G120">
+        <v>121.18899999999999</v>
+      </c>
+      <c r="H120">
+        <v>174.22</v>
+      </c>
+      <c r="I120">
+        <v>109.4873</v>
+      </c>
+      <c r="J120">
+        <v>110.31440000000001</v>
+      </c>
+      <c r="K120">
+        <v>857.39</v>
+      </c>
+      <c r="L120">
+        <v>1096.71</v>
+      </c>
+      <c r="M120">
+        <v>297.86680000000001</v>
+      </c>
+      <c r="N120">
+        <v>290.41000000000003</v>
+      </c>
+      <c r="O120">
+        <v>376.61</v>
+      </c>
+      <c r="P120">
+        <v>351.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B121">
+        <v>8774.3130000000001</v>
+      </c>
+      <c r="C121">
+        <v>8997.23</v>
+      </c>
+      <c r="D121">
+        <v>366.02</v>
+      </c>
+      <c r="E121">
+        <v>5056.16</v>
+      </c>
+      <c r="F121">
+        <v>197.47</v>
+      </c>
+      <c r="G121">
+        <v>121.2273</v>
+      </c>
+      <c r="H121">
+        <v>174.27</v>
+      </c>
+      <c r="I121">
+        <v>109.4979</v>
+      </c>
+      <c r="J121">
+        <v>110.3231</v>
+      </c>
+      <c r="K121">
+        <v>857.58</v>
+      </c>
+      <c r="L121">
+        <v>1094.82</v>
+      </c>
+      <c r="M121">
+        <v>297.88560000000001</v>
+      </c>
+      <c r="N121">
+        <v>290.51</v>
+      </c>
+      <c r="O121">
+        <v>376.62</v>
+      </c>
+      <c r="P121">
+        <v>351.98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B122">
+        <v>8815.5619999999999</v>
+      </c>
+      <c r="C122">
+        <v>8995.5400000000009</v>
+      </c>
+      <c r="D122">
+        <v>367.39</v>
+      </c>
+      <c r="E122">
+        <v>5089.83</v>
+      </c>
+      <c r="F122">
+        <v>198.91</v>
+      </c>
+      <c r="G122">
+        <v>120.8612</v>
+      </c>
+      <c r="H122">
+        <v>174.16</v>
+      </c>
+      <c r="I122">
+        <v>109.4508</v>
+      </c>
+      <c r="J122">
+        <v>110.28530000000001</v>
+      </c>
+      <c r="K122">
+        <v>857.03</v>
+      </c>
+      <c r="L122">
+        <v>1097.26</v>
+      </c>
+      <c r="M122">
+        <v>297.91680000000002</v>
+      </c>
+      <c r="N122">
+        <v>290.64</v>
+      </c>
+      <c r="O122">
+        <v>377.04</v>
+      </c>
+      <c r="P122">
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B123">
+        <v>8832.9439999999995</v>
+      </c>
+      <c r="C123">
+        <v>9062.7900000000009</v>
+      </c>
+      <c r="D123">
+        <v>368.07</v>
+      </c>
+      <c r="E123">
+        <v>5090.16</v>
+      </c>
+      <c r="F123">
+        <v>198.55</v>
+      </c>
+      <c r="G123">
+        <v>120.8047</v>
+      </c>
+      <c r="H123">
+        <v>174.07</v>
+      </c>
+      <c r="I123">
+        <v>109.4336</v>
+      </c>
+      <c r="J123">
+        <v>110.2634</v>
+      </c>
+      <c r="K123">
+        <v>856.77</v>
+      </c>
+      <c r="L123">
+        <v>1094.74</v>
+      </c>
+      <c r="M123">
+        <v>297.88080000000002</v>
+      </c>
+      <c r="N123">
+        <v>290.64</v>
+      </c>
+      <c r="O123">
+        <v>377.16</v>
+      </c>
+      <c r="P123">
+        <v>352.93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B124">
+        <v>8851.1659999999993</v>
+      </c>
+      <c r="C124">
+        <v>9075.9</v>
+      </c>
+      <c r="D124">
+        <v>368.91</v>
+      </c>
+      <c r="E124">
+        <v>5064.68</v>
+      </c>
+      <c r="F124">
+        <v>196.58</v>
+      </c>
+      <c r="G124">
+        <v>120.96639999999999</v>
+      </c>
+      <c r="H124">
+        <v>174.22</v>
+      </c>
+      <c r="I124">
+        <v>109.4378</v>
+      </c>
+      <c r="J124">
+        <v>110.26690000000001</v>
+      </c>
+      <c r="K124">
+        <v>856.52</v>
+      </c>
+      <c r="L124">
+        <v>1095.46</v>
+      </c>
+      <c r="M124">
+        <v>297.6934</v>
+      </c>
+      <c r="N124">
+        <v>290.77</v>
+      </c>
+      <c r="O124">
+        <v>377.35</v>
+      </c>
+      <c r="P124">
+        <v>353.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B125">
+        <v>8833.6749999999993</v>
+      </c>
+      <c r="C125">
+        <v>9099.74</v>
+      </c>
+      <c r="D125">
+        <v>368.48</v>
+      </c>
+      <c r="E125">
+        <v>5065.03</v>
+      </c>
+      <c r="F125">
+        <v>196.25</v>
+      </c>
+      <c r="G125">
+        <v>121.0968</v>
+      </c>
+      <c r="H125">
+        <v>174.21</v>
+      </c>
+      <c r="I125">
+        <v>109.4452</v>
+      </c>
+      <c r="J125">
+        <v>110.26819999999999</v>
+      </c>
+      <c r="K125">
+        <v>856.79</v>
+      </c>
+      <c r="L125">
+        <v>1094.92</v>
+      </c>
+      <c r="M125">
+        <v>297.74520000000001</v>
+      </c>
+      <c r="N125">
+        <v>290.72000000000003</v>
+      </c>
+      <c r="O125">
+        <v>376.99</v>
+      </c>
+      <c r="P125">
+        <v>353.39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B126">
+        <v>8786.1779999999999</v>
+      </c>
+      <c r="C126">
+        <v>9117.82</v>
+      </c>
+      <c r="D126">
+        <v>367.26</v>
+      </c>
+      <c r="E126">
+        <v>5062.07</v>
+      </c>
+      <c r="F126">
+        <v>196.47</v>
+      </c>
+      <c r="G126">
+        <v>120.8896</v>
+      </c>
+      <c r="H126">
+        <v>173.9</v>
+      </c>
+      <c r="I126">
+        <v>109.4374</v>
+      </c>
+      <c r="J126">
+        <v>110.2713</v>
+      </c>
+      <c r="K126">
+        <v>857.61</v>
+      </c>
+      <c r="L126">
+        <v>1093.8399999999999</v>
+      </c>
+      <c r="M126">
+        <v>297.60570000000001</v>
+      </c>
+      <c r="N126">
+        <v>290.58</v>
+      </c>
+      <c r="O126">
+        <v>376.67</v>
+      </c>
+      <c r="P126">
+        <v>354.19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B127">
+        <v>8782.5840000000007</v>
+      </c>
+      <c r="C127">
+        <v>9131.83</v>
+      </c>
+      <c r="D127">
+        <v>365.77</v>
+      </c>
+      <c r="E127">
+        <v>5120.5600000000004</v>
+      </c>
+      <c r="F127">
+        <v>200.35</v>
+      </c>
+      <c r="G127">
+        <v>120.6842</v>
+      </c>
+      <c r="H127">
+        <v>174</v>
+      </c>
+      <c r="I127">
+        <v>109.43940000000001</v>
+      </c>
+      <c r="J127">
+        <v>110.2629</v>
+      </c>
+      <c r="K127">
+        <v>857.71</v>
+      </c>
+      <c r="L127">
+        <v>1097.43</v>
+      </c>
+      <c r="M127">
+        <v>297.6737</v>
+      </c>
+      <c r="N127">
+        <v>291.77</v>
+      </c>
+      <c r="O127">
+        <v>377.93</v>
+      </c>
+      <c r="P127">
+        <v>354.81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B128">
+        <v>8667.7630000000008</v>
+      </c>
+      <c r="C128">
+        <v>8967.6299999999992</v>
+      </c>
+      <c r="D128">
+        <v>361.22</v>
+      </c>
+      <c r="E128">
+        <v>5182.59</v>
+      </c>
+      <c r="F128">
+        <v>205.38</v>
+      </c>
+      <c r="G128">
+        <v>120.7809</v>
+      </c>
+      <c r="H128">
+        <v>173.7</v>
+      </c>
+      <c r="I128">
+        <v>109.5359</v>
+      </c>
+      <c r="J128">
+        <v>110.3416</v>
+      </c>
+      <c r="K128">
+        <v>859.86</v>
+      </c>
+      <c r="L128">
+        <v>1095.44</v>
+      </c>
+      <c r="M128">
+        <v>297.8621</v>
+      </c>
+      <c r="N128">
+        <v>292.04000000000002</v>
+      </c>
+      <c r="O128">
+        <v>377.68</v>
+      </c>
+      <c r="P128">
+        <v>353.96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B129">
+        <v>8789.5220000000008</v>
+      </c>
+      <c r="C129">
+        <v>9031.24</v>
+      </c>
+      <c r="D129">
+        <v>363.84</v>
+      </c>
+      <c r="E129">
+        <v>5124.8900000000003</v>
+      </c>
+      <c r="F129">
+        <v>200.95</v>
+      </c>
+      <c r="G129">
+        <v>120.7722</v>
+      </c>
+      <c r="H129">
+        <v>174.1</v>
+      </c>
+      <c r="I129">
+        <v>109.35899999999999</v>
+      </c>
+      <c r="J129">
+        <v>110.2222</v>
+      </c>
+      <c r="K129">
+        <v>857.37</v>
+      </c>
+      <c r="L129">
+        <v>1094.6600000000001</v>
+      </c>
+      <c r="M129">
+        <v>298.83780000000002</v>
+      </c>
+      <c r="N129">
+        <v>292.36</v>
+      </c>
+      <c r="O129">
+        <v>376.93</v>
+      </c>
+      <c r="P129">
+        <v>354.33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B130">
+        <v>8834.5580000000009</v>
+      </c>
+      <c r="C130">
+        <v>9054.94</v>
+      </c>
+      <c r="D130">
+        <v>365.73</v>
+      </c>
+      <c r="E130">
+        <v>5129.8100000000004</v>
+      </c>
+      <c r="F130">
+        <v>201.32</v>
+      </c>
+      <c r="G130">
+        <v>120.7295</v>
+      </c>
+      <c r="H130">
+        <v>174.09</v>
+      </c>
+      <c r="I130">
+        <v>109.277</v>
+      </c>
+      <c r="J130">
+        <v>110.14749999999999</v>
+      </c>
+      <c r="K130">
+        <v>856.55</v>
+      </c>
+      <c r="L130">
+        <v>1095.07</v>
+      </c>
+      <c r="M130">
+        <v>297.66680000000002</v>
+      </c>
+      <c r="N130">
+        <v>292.5</v>
+      </c>
+      <c r="O130">
+        <v>377.04</v>
+      </c>
+      <c r="P130">
+        <v>354.28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B131">
+        <v>8825.0139999999992</v>
+      </c>
+      <c r="C131">
+        <v>8952.2999999999993</v>
+      </c>
+      <c r="D131">
+        <v>365.88</v>
+      </c>
+      <c r="E131">
+        <v>5118.3500000000004</v>
+      </c>
+      <c r="F131">
+        <v>200.76</v>
+      </c>
+      <c r="G131">
+        <v>120.5309</v>
+      </c>
+      <c r="H131">
+        <v>173.9</v>
+      </c>
+      <c r="I131">
+        <v>109.2426</v>
+      </c>
+      <c r="J131">
+        <v>110.0603</v>
+      </c>
+      <c r="K131">
+        <v>856.76</v>
+      </c>
+      <c r="L131">
+        <v>1095.1099999999999</v>
+      </c>
+      <c r="M131">
+        <v>297.6533</v>
+      </c>
+      <c r="N131">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="O131">
+        <v>377.24</v>
+      </c>
+      <c r="P131">
+        <v>354.32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B132">
+        <v>8877.0650000000005</v>
+      </c>
+      <c r="C132">
+        <v>9058.2800000000007</v>
+      </c>
+      <c r="D132">
+        <v>367.81</v>
+      </c>
+      <c r="E132">
+        <v>5126.43</v>
+      </c>
+      <c r="F132">
+        <v>201.16</v>
+      </c>
+      <c r="G132">
+        <v>120.6216</v>
+      </c>
+      <c r="H132">
+        <v>173.97</v>
+      </c>
+      <c r="I132">
+        <v>109.22929999999999</v>
+      </c>
+      <c r="J132">
+        <v>110.0475</v>
+      </c>
+      <c r="K132">
+        <v>855.92</v>
+      </c>
+      <c r="L132">
+        <v>1095.82</v>
+      </c>
+      <c r="M132">
+        <v>297.42090000000002</v>
+      </c>
+      <c r="N132">
+        <v>292.52</v>
+      </c>
+      <c r="O132">
+        <v>377.25</v>
+      </c>
+      <c r="P132">
+        <v>354.26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B133">
+        <v>8906.7909999999993</v>
+      </c>
+      <c r="C133">
+        <v>9054.4</v>
+      </c>
+      <c r="D133">
+        <v>369.47</v>
+      </c>
+      <c r="E133">
+        <v>5100.28</v>
+      </c>
+      <c r="F133">
+        <v>198.5</v>
+      </c>
+      <c r="G133">
+        <v>120.6726</v>
+      </c>
+      <c r="H133">
+        <v>174.14</v>
+      </c>
+      <c r="I133">
+        <v>109.22320000000001</v>
+      </c>
+      <c r="J133">
+        <v>110.04510000000001</v>
+      </c>
+      <c r="K133">
+        <v>855.39</v>
+      </c>
+      <c r="L133">
+        <v>1096.45</v>
+      </c>
+      <c r="M133">
+        <v>297.25790000000001</v>
+      </c>
+      <c r="N133">
+        <v>292.41000000000003</v>
+      </c>
+      <c r="O133">
+        <v>377.13</v>
+      </c>
+      <c r="P133">
+        <v>354.19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B134">
+        <v>8927.4009999999998</v>
+      </c>
+      <c r="C134">
+        <v>8986.83</v>
+      </c>
+      <c r="D134">
+        <v>369.56</v>
+      </c>
+      <c r="E134">
+        <v>5141.03</v>
+      </c>
+      <c r="F134">
+        <v>201.1</v>
+      </c>
+      <c r="G134">
+        <v>120.7411</v>
+      </c>
+      <c r="H134">
+        <v>174.18</v>
+      </c>
+      <c r="I134">
+        <v>109.22329999999999</v>
+      </c>
+      <c r="J134">
+        <v>110.0395</v>
+      </c>
+      <c r="K134">
+        <v>855.09</v>
+      </c>
+      <c r="L134">
+        <v>1098.97</v>
+      </c>
+      <c r="M134">
+        <v>297.2448</v>
+      </c>
+      <c r="N134">
+        <v>292.56</v>
+      </c>
+      <c r="O134">
+        <v>377.21</v>
+      </c>
+      <c r="P134">
+        <v>354.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B135">
+        <v>8930.6659999999993</v>
+      </c>
+      <c r="C135">
+        <v>9025.51</v>
+      </c>
+      <c r="D135">
+        <v>369.41</v>
+      </c>
+      <c r="E135">
+        <v>5150.9799999999996</v>
+      </c>
+      <c r="F135">
+        <v>201.57</v>
+      </c>
+      <c r="G135">
+        <v>120.8948</v>
+      </c>
+      <c r="H135">
+        <v>174.27</v>
+      </c>
+      <c r="I135">
+        <v>109.2261</v>
+      </c>
+      <c r="J135">
+        <v>110.0406</v>
+      </c>
+      <c r="K135">
+        <v>854.97</v>
+      </c>
+      <c r="L135">
+        <v>1097.0999999999999</v>
+      </c>
+      <c r="M135">
+        <v>297.42020000000002</v>
+      </c>
+      <c r="N135">
+        <v>292.8</v>
+      </c>
+      <c r="O135">
+        <v>377.37</v>
+      </c>
+      <c r="P135">
+        <v>354.57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B136">
+        <v>8942.777</v>
+      </c>
+      <c r="C136">
+        <v>8930.5499999999993</v>
+      </c>
+      <c r="D136">
+        <v>368.58</v>
+      </c>
+      <c r="E136">
+        <v>5164.47</v>
+      </c>
+      <c r="F136">
+        <v>202.74</v>
+      </c>
+      <c r="G136">
+        <v>120.9892</v>
+      </c>
+      <c r="H136">
+        <v>174.23</v>
+      </c>
+      <c r="I136">
+        <v>109.2259</v>
+      </c>
+      <c r="J136">
+        <v>110.04510000000001</v>
+      </c>
+      <c r="K136">
+        <v>854.8</v>
+      </c>
+      <c r="L136">
+        <v>1097.47</v>
+      </c>
+      <c r="M136">
+        <v>297.43029999999999</v>
+      </c>
+      <c r="N136">
+        <v>292.83999999999997</v>
+      </c>
+      <c r="O136">
+        <v>377.74</v>
+      </c>
+      <c r="P136">
+        <v>354.54</v>
       </c>
     </row>
   </sheetData>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F2BB7-DEC0-49E3-8B64-48B6303D407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,11 +394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,1303 +472,1209 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44372</v>
+        <v>44406</v>
       </c>
       <c r="B2">
-        <v>8906.7909999999993</v>
+        <v>9204.2479999999996</v>
       </c>
       <c r="C2">
-        <v>9054.4</v>
+        <v>9055.33</v>
       </c>
       <c r="D2">
-        <v>369.47</v>
+        <v>373.9</v>
       </c>
       <c r="E2">
-        <v>5100.28</v>
+        <v>5269.05</v>
       </c>
       <c r="F2">
-        <v>198.5</v>
+        <v>210.97</v>
       </c>
       <c r="G2">
-        <v>120.6726</v>
+        <v>122.1198</v>
       </c>
       <c r="H2">
-        <v>174.14</v>
+        <v>174.93</v>
       </c>
       <c r="I2">
-        <v>109.22320000000001</v>
+        <v>106.8064</v>
       </c>
       <c r="J2">
-        <v>110.04510000000001</v>
+        <v>107.95399999999999</v>
       </c>
       <c r="K2">
-        <v>854.94</v>
+        <v>850.03</v>
       </c>
       <c r="L2">
-        <v>1096.45</v>
+        <v>1081.72</v>
       </c>
       <c r="M2">
-        <v>297.25790000000001</v>
+        <v>299.56900000000002</v>
       </c>
       <c r="N2">
-        <v>292.41000000000003</v>
+        <v>287.52</v>
       </c>
       <c r="O2">
-        <v>377.13</v>
+        <v>373.88</v>
       </c>
       <c r="P2">
-        <v>354.19</v>
+        <v>350.77</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44375</v>
+        <v>44407</v>
       </c>
       <c r="B3">
-        <v>8927.4009999999998</v>
+        <v>9155.2119999999995</v>
       </c>
       <c r="C3">
-        <v>8986.83</v>
+        <v>8994.89</v>
       </c>
       <c r="D3">
-        <v>369.56</v>
+        <v>371.12</v>
       </c>
       <c r="E3">
-        <v>5141.03</v>
+        <v>5283</v>
       </c>
       <c r="F3">
-        <v>201.1</v>
+        <v>212.22</v>
       </c>
       <c r="G3">
-        <v>120.7411</v>
+        <v>122.0702</v>
       </c>
       <c r="H3">
-        <v>174.18</v>
+        <v>174.94</v>
       </c>
       <c r="I3">
-        <v>109.22329999999999</v>
+        <v>106.8415</v>
       </c>
       <c r="J3">
-        <v>110.0395</v>
+        <v>107.986</v>
       </c>
       <c r="K3">
-        <v>854.66</v>
+        <v>850.65</v>
       </c>
       <c r="L3">
-        <v>1098.97</v>
+        <v>1083.73</v>
       </c>
       <c r="M3">
-        <v>297.2448</v>
+        <v>299.74040000000002</v>
       </c>
       <c r="N3">
-        <v>292.56</v>
+        <v>287.64</v>
       </c>
       <c r="O3">
-        <v>377.21</v>
+        <v>374.08</v>
       </c>
       <c r="P3">
-        <v>354.35</v>
+        <v>350.8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44376</v>
+        <v>44410</v>
       </c>
       <c r="B4">
-        <v>8930.6659999999993</v>
+        <v>9138.36</v>
       </c>
       <c r="C4">
-        <v>9025.51</v>
+        <v>9055</v>
       </c>
       <c r="D4">
-        <v>369.41</v>
+        <v>372.5</v>
       </c>
       <c r="E4">
-        <v>5150.9799999999996</v>
+        <v>5310.07</v>
       </c>
       <c r="F4">
-        <v>201.57</v>
+        <v>214.63</v>
       </c>
       <c r="G4">
-        <v>120.8948</v>
+        <v>122.1418</v>
       </c>
       <c r="H4">
-        <v>174.27</v>
+        <v>175.27</v>
       </c>
       <c r="I4">
-        <v>109.2261</v>
+        <v>106.9408</v>
       </c>
       <c r="J4">
-        <v>110.0406</v>
+        <v>108.0218</v>
       </c>
       <c r="K4">
-        <v>854.54</v>
+        <v>850.93</v>
       </c>
       <c r="L4">
-        <v>1097.0999999999999</v>
+        <v>1080.51</v>
       </c>
       <c r="M4">
-        <v>297.42020000000002</v>
+        <v>299.4187</v>
       </c>
       <c r="N4">
-        <v>292.8</v>
+        <v>287.83</v>
       </c>
       <c r="O4">
-        <v>377.37</v>
+        <v>374.44</v>
       </c>
       <c r="P4">
-        <v>354.57</v>
+        <v>351.24</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44377</v>
+        <v>44411</v>
       </c>
       <c r="B5">
-        <v>8942.777</v>
+        <v>9213.348</v>
       </c>
       <c r="C5">
-        <v>8930.5499999999993</v>
+        <v>9057.91</v>
       </c>
       <c r="D5">
-        <v>368.58</v>
+        <v>374.17</v>
       </c>
       <c r="E5">
-        <v>5164.47</v>
+        <v>5309.63</v>
       </c>
       <c r="F5">
-        <v>202.74</v>
+        <v>214.76</v>
       </c>
       <c r="G5">
-        <v>120.9892</v>
+        <v>122.11150000000001</v>
       </c>
       <c r="H5">
-        <v>174.23</v>
+        <v>175.09</v>
       </c>
       <c r="I5">
-        <v>109.2259</v>
+        <v>106.7859</v>
       </c>
       <c r="J5">
-        <v>110.04510000000001</v>
+        <v>108.02249999999999</v>
       </c>
       <c r="K5">
-        <v>854.36</v>
+        <v>849.83</v>
       </c>
       <c r="L5">
-        <v>1097.47</v>
+        <v>1083.5</v>
       </c>
       <c r="M5">
-        <v>297.43029999999999</v>
+        <v>299.7595</v>
       </c>
       <c r="N5">
-        <v>292.83999999999997</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="O5">
-        <v>377.74</v>
+        <v>374.52</v>
       </c>
       <c r="P5">
-        <v>354.54</v>
+        <v>350.96</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44378</v>
+        <v>44412</v>
       </c>
       <c r="B6">
-        <v>8990.08</v>
+        <v>9170.7610000000004</v>
       </c>
       <c r="C6">
-        <v>8962.6200000000008</v>
+        <v>9117.2000000000007</v>
       </c>
       <c r="D6">
-        <v>369.55</v>
+        <v>373.81</v>
       </c>
       <c r="E6">
-        <v>5160.03</v>
+        <v>5314.86</v>
       </c>
       <c r="F6">
-        <v>202.84</v>
+        <v>215.45</v>
       </c>
       <c r="G6">
-        <v>121.1039</v>
+        <v>121.96720000000001</v>
       </c>
       <c r="H6">
-        <v>174.36</v>
+        <v>174.92</v>
       </c>
       <c r="I6">
-        <v>109.21429999999999</v>
+        <v>106.7578</v>
       </c>
       <c r="J6">
-        <v>110.0284</v>
+        <v>107.889</v>
       </c>
       <c r="K6">
-        <v>853.76</v>
+        <v>850.4</v>
       </c>
       <c r="L6">
-        <v>1095.31</v>
+        <v>1084.5899999999999</v>
       </c>
       <c r="M6">
-        <v>297.3802</v>
+        <v>299.96969999999999</v>
       </c>
       <c r="N6">
-        <v>292.75</v>
+        <v>287.86</v>
       </c>
       <c r="O6">
-        <v>377.62</v>
+        <v>374.48</v>
       </c>
       <c r="P6">
-        <v>354.2</v>
+        <v>351.04</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44379</v>
+        <v>44413</v>
       </c>
       <c r="B7">
-        <v>9058.6589999999997</v>
+        <v>9226.4879999999994</v>
       </c>
       <c r="C7">
-        <v>8974.52</v>
+        <v>9152.7999999999993</v>
       </c>
       <c r="D7">
-        <v>371.03</v>
+        <v>375.45</v>
       </c>
       <c r="E7">
-        <v>5178.08</v>
+        <v>5289.94</v>
       </c>
       <c r="F7">
-        <v>204.05</v>
+        <v>214.14</v>
       </c>
       <c r="G7">
-        <v>121.334</v>
+        <v>121.9768</v>
       </c>
       <c r="H7">
-        <v>174.47</v>
+        <v>174.86</v>
       </c>
       <c r="I7">
-        <v>109.20610000000001</v>
+        <v>106.7118</v>
       </c>
       <c r="J7">
-        <v>110.0094</v>
+        <v>107.83929999999999</v>
       </c>
       <c r="K7">
-        <v>852.84</v>
+        <v>849.6</v>
       </c>
       <c r="L7">
-        <v>1094.55</v>
+        <v>1083.07</v>
       </c>
       <c r="M7">
-        <v>297.51319999999998</v>
+        <v>299.85149999999999</v>
       </c>
       <c r="N7">
-        <v>292.54000000000002</v>
+        <v>287.82</v>
       </c>
       <c r="O7">
-        <v>377.47</v>
+        <v>374.52</v>
       </c>
       <c r="P7">
-        <v>354.14</v>
+        <v>350.81</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44382</v>
+        <v>44414</v>
       </c>
       <c r="B8">
-        <v>9058.6589999999997</v>
+        <v>9243.027</v>
       </c>
       <c r="C8">
-        <v>8981.25</v>
+        <v>9182.4</v>
       </c>
       <c r="D8">
-        <v>371.42</v>
+        <v>374.77</v>
       </c>
       <c r="E8">
-        <v>5178.08</v>
+        <v>5220.8100000000004</v>
       </c>
       <c r="F8">
-        <v>204.05</v>
+        <v>209.58</v>
       </c>
       <c r="G8">
-        <v>121.334</v>
+        <v>121.8686</v>
       </c>
       <c r="H8">
-        <v>174.47</v>
+        <v>174.77</v>
       </c>
       <c r="I8">
-        <v>109.20610000000001</v>
+        <v>106.67189999999999</v>
       </c>
       <c r="J8">
-        <v>110.0094</v>
+        <v>107.80889999999999</v>
       </c>
       <c r="K8">
-        <v>852.84</v>
+        <v>849.33</v>
       </c>
       <c r="L8">
-        <v>1094.55</v>
+        <v>1082.44</v>
       </c>
       <c r="M8">
-        <v>297.51319999999998</v>
+        <v>299.60289999999998</v>
       </c>
       <c r="N8">
-        <v>292.54000000000002</v>
+        <v>287.86</v>
       </c>
       <c r="O8">
-        <v>377.47</v>
+        <v>374.65</v>
       </c>
       <c r="P8">
-        <v>354.14</v>
+        <v>351.22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44383</v>
+        <v>44417</v>
       </c>
       <c r="B9">
-        <v>9040.76</v>
+        <v>9235.0480000000007</v>
       </c>
       <c r="C9">
-        <v>8904.99</v>
+        <v>9188.1200000000008</v>
       </c>
       <c r="D9">
-        <v>370.4</v>
+        <v>374.73</v>
       </c>
       <c r="E9">
-        <v>5222.46</v>
+        <v>5197.83</v>
       </c>
       <c r="F9">
-        <v>207.35</v>
+        <v>208.73</v>
       </c>
       <c r="G9">
-        <v>121.3252</v>
+        <v>122.0001</v>
       </c>
       <c r="H9">
-        <v>174.49</v>
+        <v>174.77</v>
       </c>
       <c r="I9">
-        <v>109.2196</v>
+        <v>106.6537</v>
       </c>
       <c r="J9">
-        <v>110.0228</v>
+        <v>107.7903</v>
       </c>
       <c r="K9">
-        <v>853.09</v>
+        <v>849.38</v>
       </c>
       <c r="L9">
-        <v>1098.2</v>
+        <v>1080.72</v>
       </c>
       <c r="M9">
-        <v>297.81130000000002</v>
+        <v>299.67790000000002</v>
       </c>
       <c r="N9">
-        <v>292.83</v>
+        <v>287.95</v>
       </c>
       <c r="O9">
-        <v>377.72</v>
+        <v>374.83</v>
       </c>
       <c r="P9">
-        <v>354.55</v>
+        <v>351.43</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44384</v>
+        <v>44418</v>
       </c>
       <c r="B10">
-        <v>9071.143</v>
+        <v>9244.2160000000003</v>
       </c>
       <c r="C10">
-        <v>8962.43</v>
+        <v>9211.61</v>
       </c>
       <c r="D10">
-        <v>370.98</v>
+        <v>375.21</v>
       </c>
       <c r="E10">
-        <v>5246.12</v>
+        <v>5178.7700000000004</v>
       </c>
       <c r="F10">
-        <v>209.81</v>
+        <v>207.46</v>
       </c>
       <c r="G10">
-        <v>121.5112</v>
+        <v>121.9141</v>
       </c>
       <c r="H10">
-        <v>174.62</v>
+        <v>174.66</v>
       </c>
       <c r="I10">
-        <v>109.20189999999999</v>
+        <v>106.64060000000001</v>
       </c>
       <c r="J10">
-        <v>110.0258</v>
+        <v>107.76860000000001</v>
       </c>
       <c r="K10">
-        <v>852.79</v>
+        <v>849.28</v>
       </c>
       <c r="L10">
-        <v>1099.0899999999999</v>
+        <v>1080.74</v>
       </c>
       <c r="M10">
-        <v>297.92750000000001</v>
+        <v>299.75360000000001</v>
       </c>
       <c r="N10">
-        <v>293.05</v>
+        <v>288.08999999999997</v>
       </c>
       <c r="O10">
-        <v>377.82</v>
+        <v>374.76</v>
       </c>
       <c r="P10">
-        <v>354.68</v>
+        <v>351.57</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44385</v>
+        <v>44419</v>
       </c>
       <c r="B11">
-        <v>8995.2620000000006</v>
+        <v>9267.4030000000002</v>
       </c>
       <c r="C11">
-        <v>8775.07</v>
+        <v>9252.32</v>
       </c>
       <c r="D11">
-        <v>367.26</v>
+        <v>376.24</v>
       </c>
       <c r="E11">
-        <v>5248.9</v>
+        <v>5176.72</v>
       </c>
       <c r="F11">
-        <v>210.75</v>
+        <v>207.15</v>
       </c>
       <c r="G11">
-        <v>121.56910000000001</v>
+        <v>121.8926</v>
       </c>
       <c r="H11">
-        <v>174.71</v>
+        <v>174.6</v>
       </c>
       <c r="I11">
-        <v>109.29179999999999</v>
+        <v>106.6262</v>
       </c>
       <c r="J11">
-        <v>110.14190000000001</v>
+        <v>107.75620000000001</v>
       </c>
       <c r="K11">
-        <v>853.71</v>
+        <v>848.95</v>
       </c>
       <c r="L11">
-        <v>1097.22</v>
+        <v>1080.9100000000001</v>
       </c>
       <c r="M11">
-        <v>298.19889999999998</v>
+        <v>299.77499999999998</v>
       </c>
       <c r="N11">
-        <v>290.8</v>
+        <v>288.2</v>
       </c>
       <c r="O11">
-        <v>375.32</v>
+        <v>375.09</v>
       </c>
       <c r="P11">
-        <v>351.97</v>
+        <v>351.54</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44386</v>
+        <v>44420</v>
       </c>
       <c r="B12">
-        <v>9096.84</v>
+        <v>9297.1990000000005</v>
       </c>
       <c r="C12">
-        <v>8943.1</v>
+        <v>9296.31</v>
       </c>
       <c r="D12">
-        <v>370.62</v>
+        <v>376.76</v>
       </c>
       <c r="E12">
-        <v>5201.1499999999996</v>
+        <v>5180.6099999999997</v>
       </c>
       <c r="F12">
-        <v>207.08</v>
+        <v>206.81</v>
       </c>
       <c r="G12">
-        <v>121.6472</v>
+        <v>121.90479999999999</v>
       </c>
       <c r="H12">
-        <v>174.57</v>
+        <v>174.58</v>
       </c>
       <c r="I12">
-        <v>108.9676</v>
+        <v>106.6096</v>
       </c>
       <c r="J12">
-        <v>109.7953</v>
+        <v>107.7424</v>
       </c>
       <c r="K12">
-        <v>852.18</v>
+        <v>848.54</v>
       </c>
       <c r="L12">
-        <v>1096.52</v>
+        <v>1081.8399999999999</v>
       </c>
       <c r="M12">
-        <v>299.45920000000001</v>
+        <v>299.65629999999999</v>
       </c>
       <c r="N12">
-        <v>289.20999999999998</v>
+        <v>288.24</v>
       </c>
       <c r="O12">
-        <v>374.32</v>
+        <v>375.21</v>
       </c>
       <c r="P12">
-        <v>351.74</v>
+        <v>351.39</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44389</v>
+        <v>44421</v>
       </c>
       <c r="B13">
-        <v>9128.223</v>
+        <v>9312.5110000000004</v>
       </c>
       <c r="C13">
-        <v>8998.68</v>
+        <v>9304.8799999999992</v>
       </c>
       <c r="D13">
-        <v>372.53</v>
+        <v>377.43</v>
       </c>
       <c r="E13">
-        <v>5203.04</v>
+        <v>5241.04</v>
       </c>
       <c r="F13">
-        <v>206.69</v>
+        <v>210.95</v>
       </c>
       <c r="G13">
-        <v>121.7436</v>
+        <v>121.9136</v>
       </c>
       <c r="H13">
-        <v>174.53</v>
+        <v>174.64</v>
       </c>
       <c r="I13">
-        <v>108.9526</v>
+        <v>106.6097</v>
       </c>
       <c r="J13">
-        <v>109.7688</v>
+        <v>107.7353</v>
       </c>
       <c r="K13">
-        <v>851.81</v>
+        <v>848.28</v>
       </c>
       <c r="L13">
-        <v>1094.2</v>
+        <v>1079.97</v>
       </c>
       <c r="M13">
-        <v>299.16849999999999</v>
+        <v>299.64170000000001</v>
       </c>
       <c r="N13">
-        <v>289.26</v>
+        <v>288.27999999999997</v>
       </c>
       <c r="O13">
-        <v>374.44</v>
+        <v>375.39</v>
       </c>
       <c r="P13">
-        <v>352.15</v>
+        <v>351.79</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44390</v>
+        <v>44424</v>
       </c>
       <c r="B14">
-        <v>9096.1479999999992</v>
+        <v>9337.1810000000005</v>
       </c>
       <c r="C14">
-        <v>9001.2900000000009</v>
+        <v>9244.9</v>
       </c>
       <c r="D14">
-        <v>372.02</v>
+        <v>376.82</v>
       </c>
       <c r="E14">
-        <v>5171.6400000000003</v>
+        <v>5251.18</v>
       </c>
       <c r="F14">
-        <v>204.58</v>
+        <v>211.53</v>
       </c>
       <c r="G14">
-        <v>121.8312</v>
+        <v>122.00060000000001</v>
       </c>
       <c r="H14">
-        <v>174.47</v>
+        <v>174.64</v>
       </c>
       <c r="I14">
-        <v>108.9524</v>
+        <v>106.6147</v>
       </c>
       <c r="J14">
-        <v>109.7573</v>
+        <v>107.7444</v>
       </c>
       <c r="K14">
-        <v>852.24</v>
+        <v>848.01</v>
       </c>
       <c r="L14">
-        <v>1091.95</v>
+        <v>1079.9000000000001</v>
       </c>
       <c r="M14">
-        <v>299.12619999999998</v>
+        <v>299.69200000000001</v>
       </c>
       <c r="N14">
-        <v>289.33999999999997</v>
+        <v>288.24</v>
       </c>
       <c r="O14">
-        <v>374.27</v>
+        <v>375.6</v>
       </c>
       <c r="P14">
-        <v>352.53</v>
+        <v>351.99</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44391</v>
+        <v>44425</v>
       </c>
       <c r="B15">
-        <v>9107.848</v>
+        <v>9271.8289999999997</v>
       </c>
       <c r="C15">
-        <v>9012.14</v>
+        <v>9231.6</v>
       </c>
       <c r="D15">
-        <v>371.93</v>
+        <v>373.97</v>
       </c>
       <c r="E15">
-        <v>5217.57</v>
+        <v>5241.41</v>
       </c>
       <c r="F15">
-        <v>207.68</v>
+        <v>211.56</v>
       </c>
       <c r="G15">
-        <v>121.86499999999999</v>
+        <v>122.0528</v>
       </c>
       <c r="H15">
-        <v>174.46</v>
+        <v>174.48</v>
       </c>
       <c r="I15">
-        <v>108.94110000000001</v>
+        <v>106.651</v>
       </c>
       <c r="J15">
-        <v>109.7497</v>
+        <v>107.7576</v>
       </c>
       <c r="K15">
-        <v>852.09</v>
+        <v>848.8</v>
       </c>
       <c r="L15">
-        <v>1093.02</v>
+        <v>1081.99</v>
       </c>
       <c r="M15">
-        <v>299.25040000000001</v>
+        <v>299.55829999999997</v>
       </c>
       <c r="N15">
-        <v>289.44</v>
+        <v>286.61</v>
       </c>
       <c r="O15">
-        <v>374.51</v>
+        <v>373.18</v>
       </c>
       <c r="P15">
-        <v>352.68</v>
+        <v>350.49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="B16">
-        <v>9078.3279999999995</v>
+        <v>9173.93</v>
       </c>
       <c r="C16">
-        <v>8917.3799999999992</v>
+        <v>9216.25</v>
       </c>
       <c r="D16">
-        <v>370.7</v>
+        <v>371.84</v>
       </c>
       <c r="E16">
-        <v>5248.4</v>
+        <v>5248.67</v>
       </c>
       <c r="F16">
-        <v>210.57</v>
+        <v>212.53</v>
       </c>
       <c r="G16">
-        <v>121.7208</v>
+        <v>122.1991</v>
       </c>
       <c r="H16">
-        <v>174.36</v>
+        <v>174.06</v>
       </c>
       <c r="I16">
-        <v>108.9521</v>
+        <v>106.6494</v>
       </c>
       <c r="J16">
-        <v>109.7791</v>
+        <v>107.7623</v>
       </c>
       <c r="K16">
-        <v>852.54</v>
+        <v>850.34</v>
       </c>
       <c r="L16">
-        <v>1093.27</v>
+        <v>1079.1099999999999</v>
       </c>
       <c r="M16">
-        <v>299.3707</v>
+        <v>298.69400000000002</v>
       </c>
       <c r="N16">
-        <v>289.55</v>
+        <v>285.22000000000003</v>
       </c>
       <c r="O16">
-        <v>374.64</v>
+        <v>371.16</v>
       </c>
       <c r="P16">
-        <v>352.63</v>
+        <v>351.17</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44393</v>
+        <v>44427</v>
       </c>
       <c r="B17">
-        <v>9009.89</v>
+        <v>9186.07</v>
       </c>
       <c r="C17">
-        <v>8872.0300000000007</v>
+        <v>9073.91</v>
       </c>
       <c r="D17">
-        <v>368.4</v>
+        <v>369.31</v>
       </c>
       <c r="E17">
-        <v>5236.17</v>
+        <v>5264.28</v>
       </c>
       <c r="F17">
-        <v>210.02</v>
+        <v>214.46</v>
       </c>
       <c r="G17">
-        <v>121.6682</v>
+        <v>122.4222</v>
       </c>
       <c r="H17">
-        <v>174.31</v>
+        <v>174.39</v>
       </c>
       <c r="I17">
-        <v>108.9781</v>
+        <v>106.7525</v>
       </c>
       <c r="J17">
-        <v>109.7627</v>
+        <v>107.9063</v>
       </c>
       <c r="K17">
-        <v>853.59</v>
+        <v>849.98</v>
       </c>
       <c r="L17">
-        <v>1091.78</v>
+        <v>1080.74</v>
       </c>
       <c r="M17">
-        <v>299.1386</v>
+        <v>298.46089999999998</v>
       </c>
       <c r="N17">
-        <v>289.81</v>
+        <v>287.3</v>
       </c>
       <c r="O17">
-        <v>374.83</v>
+        <v>372.84</v>
       </c>
       <c r="P17">
-        <v>352.8</v>
+        <v>351.58</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44396</v>
+        <v>44428</v>
       </c>
       <c r="B18">
-        <v>8867.0660000000007</v>
+        <v>9261.3060000000005</v>
       </c>
       <c r="C18">
-        <v>8639.3700000000008</v>
+        <v>9124.0300000000007</v>
       </c>
       <c r="D18">
-        <v>362.4</v>
+        <v>370.71</v>
       </c>
       <c r="E18">
-        <v>5293.23</v>
+        <v>5268.9</v>
       </c>
       <c r="F18">
-        <v>215.88</v>
+        <v>214.7</v>
       </c>
       <c r="G18">
-        <v>121.7071</v>
+        <v>122.2959</v>
       </c>
       <c r="H18">
-        <v>174.31</v>
+        <v>174.48</v>
       </c>
       <c r="I18">
-        <v>109.3998</v>
+        <v>106.4539</v>
       </c>
       <c r="J18">
-        <v>110.0902</v>
+        <v>107.54730000000001</v>
       </c>
       <c r="K18">
-        <v>855.84</v>
+        <v>848.69</v>
       </c>
       <c r="L18">
-        <v>1092.3699999999999</v>
+        <v>1081.3399999999999</v>
       </c>
       <c r="M18">
-        <v>297.53089999999997</v>
+        <v>298.22179999999997</v>
       </c>
       <c r="N18">
-        <v>288.3</v>
+        <v>286.44</v>
       </c>
       <c r="O18">
-        <v>374.91</v>
+        <v>373.23</v>
       </c>
       <c r="P18">
-        <v>352.58</v>
+        <v>352.6</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44397</v>
+        <v>44431</v>
       </c>
       <c r="B19">
-        <v>9001.7710000000006</v>
+        <v>9341.0910000000003</v>
       </c>
       <c r="C19">
-        <v>8700.52</v>
+        <v>9187.65</v>
       </c>
       <c r="D19">
-        <v>365.41</v>
+        <v>374.78</v>
       </c>
       <c r="E19">
-        <v>5264.94</v>
+        <v>5271.9</v>
       </c>
       <c r="F19">
-        <v>213.11</v>
+        <v>214.51</v>
       </c>
       <c r="G19">
-        <v>121.92</v>
+        <v>122.39919999999999</v>
       </c>
       <c r="H19">
-        <v>174.53</v>
+        <v>174.77</v>
       </c>
       <c r="I19">
-        <v>107.37739999999999</v>
+        <v>106.32989999999999</v>
       </c>
       <c r="J19">
-        <v>108.85720000000001</v>
+        <v>107.3193</v>
       </c>
       <c r="K19">
-        <v>853.03</v>
+        <v>847.34</v>
       </c>
       <c r="L19">
-        <v>1090.3900000000001</v>
+        <v>1080.2</v>
       </c>
       <c r="M19">
-        <v>300.7038</v>
+        <v>297.19209999999998</v>
       </c>
       <c r="N19">
-        <v>288.37</v>
+        <v>285.86</v>
       </c>
       <c r="O19">
-        <v>374.76</v>
+        <v>371.89</v>
       </c>
       <c r="P19">
-        <v>351.91</v>
+        <v>351.61</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44398</v>
+        <v>44432</v>
       </c>
       <c r="B20">
-        <v>9075.9750000000004</v>
+        <v>9355.11</v>
       </c>
       <c r="C20">
-        <v>8855.2199999999993</v>
+        <v>9191.32</v>
       </c>
       <c r="D20">
-        <v>368.74</v>
+        <v>376.92</v>
       </c>
       <c r="E20">
-        <v>5234.5600000000004</v>
+        <v>5249.41</v>
       </c>
       <c r="F20">
-        <v>209.8</v>
+        <v>212.55</v>
       </c>
       <c r="G20">
-        <v>121.92010000000001</v>
+        <v>122.5128</v>
       </c>
       <c r="H20">
-        <v>174.54</v>
+        <v>174.7</v>
       </c>
       <c r="I20">
-        <v>107.0018</v>
+        <v>106.33759999999999</v>
       </c>
       <c r="J20">
-        <v>108.2407</v>
+        <v>107.31780000000001</v>
       </c>
       <c r="K20">
-        <v>851.84</v>
+        <v>847.12</v>
       </c>
       <c r="L20">
-        <v>1090.4000000000001</v>
+        <v>1079.43</v>
       </c>
       <c r="M20">
-        <v>299.01119999999997</v>
+        <v>297.12540000000001</v>
       </c>
       <c r="N20">
-        <v>288.35000000000002</v>
+        <v>285.94</v>
       </c>
       <c r="O20">
-        <v>374.79</v>
+        <v>371.82</v>
       </c>
       <c r="P20">
-        <v>351.21</v>
+        <v>351.71</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44399</v>
+        <v>44433</v>
       </c>
       <c r="B21">
-        <v>9094.9539999999997</v>
+        <v>9376</v>
       </c>
       <c r="C21">
-        <v>8926.39</v>
+        <v>9198.01</v>
       </c>
       <c r="D21">
-        <v>370.31</v>
+        <v>377.52</v>
       </c>
       <c r="E21">
-        <v>5269.58</v>
+        <v>5225.82</v>
       </c>
       <c r="F21">
-        <v>212.25</v>
+        <v>210.28</v>
       </c>
       <c r="G21">
-        <v>121.90470000000001</v>
+        <v>122.4131</v>
       </c>
       <c r="H21">
-        <v>174.65</v>
+        <v>174.64</v>
       </c>
       <c r="I21">
-        <v>107.0185</v>
+        <v>106.30800000000001</v>
       </c>
       <c r="J21">
-        <v>108.18989999999999</v>
+        <v>107.3013</v>
       </c>
       <c r="K21">
-        <v>851.58</v>
+        <v>846.81</v>
       </c>
       <c r="L21">
-        <v>1090.6400000000001</v>
+        <v>1078.94</v>
       </c>
       <c r="M21">
-        <v>298.93259999999998</v>
+        <v>297.07299999999998</v>
       </c>
       <c r="N21">
-        <v>288.44</v>
+        <v>285.87</v>
       </c>
       <c r="O21">
-        <v>374.82</v>
+        <v>371.83</v>
       </c>
       <c r="P21">
-        <v>351.16</v>
+        <v>351.56</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44400</v>
+        <v>44434</v>
       </c>
       <c r="B22">
-        <v>9187.6350000000002</v>
+        <v>9321.7360000000008</v>
       </c>
       <c r="C22">
-        <v>9038.4599999999991</v>
+        <v>9173.24</v>
       </c>
       <c r="D22">
-        <v>372.55</v>
+        <v>375.57</v>
       </c>
       <c r="E22">
-        <v>5253.19</v>
+        <v>5235.6899999999996</v>
       </c>
       <c r="F22">
-        <v>210.45</v>
+        <v>211.21</v>
       </c>
       <c r="G22">
-        <v>122.1751</v>
+        <v>122.4071</v>
       </c>
       <c r="H22">
-        <v>174.86</v>
+        <v>174.79</v>
       </c>
       <c r="I22">
-        <v>106.9872</v>
+        <v>106.3399</v>
       </c>
       <c r="J22">
-        <v>108.1871</v>
+        <v>107.3327</v>
       </c>
       <c r="K22">
-        <v>850.28</v>
+        <v>847.54</v>
       </c>
       <c r="L22">
-        <v>1090.54</v>
+        <v>1076.82</v>
       </c>
       <c r="M22">
-        <v>299.577</v>
+        <v>297.27449999999999</v>
       </c>
       <c r="N22">
-        <v>287.87</v>
+        <v>286.22000000000003</v>
       </c>
       <c r="O22">
-        <v>374.46</v>
+        <v>371.93</v>
       </c>
       <c r="P22">
-        <v>350.81</v>
+        <v>351.02</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44403</v>
+        <v>44435</v>
       </c>
       <c r="B23">
-        <v>9209.6319999999996</v>
+        <v>9404.1470000000008</v>
       </c>
       <c r="C23">
-        <v>9024.1299999999992</v>
+        <v>9219.68</v>
       </c>
       <c r="D23">
-        <v>372.33</v>
+        <v>378.3</v>
       </c>
       <c r="E23">
-        <v>5245.51</v>
+        <v>5264.13</v>
       </c>
       <c r="F23">
-        <v>209.66</v>
+        <v>212.8</v>
       </c>
       <c r="G23">
-        <v>122.29989999999999</v>
+        <v>122.36360000000001</v>
       </c>
       <c r="H23">
-        <v>174.9</v>
+        <v>174.8</v>
       </c>
       <c r="I23">
-        <v>107.0051</v>
+        <v>106.2277</v>
       </c>
       <c r="J23">
-        <v>108.232</v>
+        <v>107.2456</v>
       </c>
       <c r="K23">
-        <v>850.05</v>
+        <v>846.33</v>
       </c>
       <c r="L23">
-        <v>1090.2</v>
+        <v>1075.92</v>
       </c>
       <c r="M23">
-        <v>299.5634</v>
+        <v>297.81349999999998</v>
       </c>
       <c r="N23">
-        <v>287.85000000000002</v>
+        <v>285.58</v>
       </c>
       <c r="O23">
-        <v>374.48</v>
+        <v>371.55</v>
       </c>
       <c r="P23">
-        <v>350.81</v>
+        <v>351.11</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44404</v>
+        <v>44438</v>
       </c>
       <c r="B24">
-        <v>9166.2669999999998</v>
+        <v>9445.2440000000006</v>
       </c>
       <c r="C24">
-        <v>8941.07</v>
+        <v>9236.89</v>
       </c>
       <c r="D24">
-        <v>370.15</v>
+        <v>380.14</v>
       </c>
       <c r="E24">
-        <v>5278.83</v>
+        <v>5279.32</v>
       </c>
       <c r="F24">
-        <v>212.44</v>
+        <v>213.42</v>
       </c>
       <c r="G24">
-        <v>122.3832</v>
+        <v>122.4658</v>
       </c>
       <c r="H24">
-        <v>175.03</v>
+        <v>174.79</v>
       </c>
       <c r="I24">
-        <v>107.13249999999999</v>
+        <v>106.2216</v>
       </c>
       <c r="J24">
-        <v>108.3355</v>
+        <v>107.2379</v>
       </c>
       <c r="K24">
-        <v>850.55</v>
+        <v>845.79</v>
       </c>
       <c r="L24">
-        <v>1090.3800000000001</v>
+        <v>1077.8399999999999</v>
       </c>
       <c r="M24">
-        <v>299.63479999999998</v>
+        <v>297.55549999999999</v>
       </c>
       <c r="N24">
-        <v>287.42</v>
+        <v>285.73</v>
       </c>
       <c r="O24">
-        <v>373.1</v>
+        <v>371.36</v>
       </c>
       <c r="P24">
-        <v>350.58</v>
+        <v>351.05</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44405</v>
+        <v>44439</v>
       </c>
       <c r="B25">
-        <v>9164.6200000000008</v>
+        <v>9433.5820000000003</v>
       </c>
       <c r="C25">
-        <v>9025.1</v>
+        <v>9231.64</v>
       </c>
       <c r="D25">
-        <v>370.77</v>
+        <v>380.41</v>
       </c>
       <c r="E25">
-        <v>5288.62</v>
+        <v>5257.85</v>
       </c>
       <c r="F25">
-        <v>212.48</v>
+        <v>211.85</v>
       </c>
       <c r="G25">
-        <v>122.17619999999999</v>
+        <v>122.5111</v>
       </c>
       <c r="H25">
-        <v>174.84</v>
+        <v>174.63</v>
       </c>
       <c r="I25">
-        <v>106.9051</v>
+        <v>106.2199</v>
       </c>
       <c r="J25">
-        <v>108.1302</v>
+        <v>107.2413</v>
       </c>
       <c r="K25">
-        <v>850.58</v>
+        <v>845.87</v>
       </c>
       <c r="L25">
-        <v>1085.1500000000001</v>
+        <v>1077.6400000000001</v>
       </c>
       <c r="M25">
-        <v>299.73050000000001</v>
+        <v>297.42340000000002</v>
       </c>
       <c r="N25">
-        <v>287.57</v>
+        <v>285.82</v>
       </c>
       <c r="O25">
-        <v>373.69</v>
+        <v>371.08</v>
       </c>
       <c r="P25">
-        <v>350.58</v>
+        <v>351.22</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44406</v>
-      </c>
-      <c r="B26">
-        <v>9204.2479999999996</v>
-      </c>
-      <c r="C26">
-        <v>9055.33</v>
-      </c>
-      <c r="D26">
-        <v>373.9</v>
-      </c>
-      <c r="E26">
-        <v>5269.05</v>
-      </c>
-      <c r="F26">
-        <v>210.97</v>
-      </c>
-      <c r="G26">
-        <v>122.1198</v>
-      </c>
-      <c r="H26">
-        <v>174.93</v>
-      </c>
-      <c r="I26">
-        <v>106.8064</v>
-      </c>
-      <c r="J26">
-        <v>107.95399999999999</v>
-      </c>
-      <c r="K26">
-        <v>850.03</v>
-      </c>
-      <c r="L26">
-        <v>1081.72</v>
-      </c>
-      <c r="M26">
-        <v>299.56900000000002</v>
-      </c>
-      <c r="N26">
-        <v>287.52</v>
-      </c>
-      <c r="O26">
-        <v>373.88</v>
-      </c>
-      <c r="P26">
-        <v>350.77</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44407</v>
-      </c>
-      <c r="B27">
-        <v>9155.2119999999995</v>
-      </c>
-      <c r="C27">
-        <v>8994.89</v>
-      </c>
-      <c r="D27">
-        <v>371.12</v>
-      </c>
-      <c r="E27">
-        <v>5283</v>
-      </c>
-      <c r="F27">
-        <v>212.22</v>
-      </c>
-      <c r="G27">
-        <v>122.0702</v>
-      </c>
-      <c r="H27">
-        <v>174.94</v>
-      </c>
-      <c r="I27">
-        <v>106.8415</v>
-      </c>
-      <c r="J27">
-        <v>107.986</v>
-      </c>
-      <c r="K27">
-        <v>850.65</v>
-      </c>
-      <c r="L27">
-        <v>1083.73</v>
-      </c>
-      <c r="M27">
-        <v>299.74040000000002</v>
-      </c>
-      <c r="N27">
-        <v>287.64</v>
-      </c>
-      <c r="O27">
-        <v>374.08</v>
-      </c>
-      <c r="P27">
-        <v>350.8</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1885,12 +1792,6 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515F2BB7-DEC0-49E3-8B64-48B6303D407E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F5AC4-FE1C-4191-AC8A-E1C80AAA589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26685" yWindow="4515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>SPTR Index</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>UBCSLSWB Index</t>
+  </si>
+  <si>
+    <t>BNPXVT3A Index</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,15 +415,16 @@
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -452,25 +456,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44406</v>
       </c>
@@ -502,25 +509,28 @@
         <v>107.95399999999999</v>
       </c>
       <c r="K2">
+        <v>140.97890000000001</v>
+      </c>
+      <c r="L2">
         <v>850.03</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1081.72</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>299.56900000000002</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>287.52</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>373.88</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>350.77</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44407</v>
       </c>
@@ -552,25 +562,28 @@
         <v>107.986</v>
       </c>
       <c r="K3">
+        <v>140.99780000000001</v>
+      </c>
+      <c r="L3">
         <v>850.65</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1083.73</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>299.74040000000002</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>287.64</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>374.08</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>350.8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44410</v>
       </c>
@@ -602,25 +615,28 @@
         <v>108.0218</v>
       </c>
       <c r="K4">
+        <v>141.02000000000001</v>
+      </c>
+      <c r="L4">
         <v>850.93</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1080.51</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>299.4187</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>287.83</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>374.44</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>351.24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44411</v>
       </c>
@@ -652,25 +668,28 @@
         <v>108.02249999999999</v>
       </c>
       <c r="K5">
+        <v>141.0001</v>
+      </c>
+      <c r="L5">
         <v>849.83</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1083.5</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>299.7595</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>287.89999999999998</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>374.52</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>350.96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44412</v>
       </c>
@@ -702,25 +721,28 @@
         <v>107.889</v>
       </c>
       <c r="K6">
+        <v>140.96289999999999</v>
+      </c>
+      <c r="L6">
         <v>850.4</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1084.5899999999999</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>299.96969999999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>287.86</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>374.48</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>351.04</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44413</v>
       </c>
@@ -752,25 +774,28 @@
         <v>107.83929999999999</v>
       </c>
       <c r="K7">
+        <v>140.93109999999999</v>
+      </c>
+      <c r="L7">
         <v>849.6</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1083.07</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>299.85149999999999</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>287.82</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>374.52</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>350.81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44414</v>
       </c>
@@ -802,25 +827,28 @@
         <v>107.80889999999999</v>
       </c>
       <c r="K8">
+        <v>140.91739999999999</v>
+      </c>
+      <c r="L8">
         <v>849.33</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1082.44</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>299.60289999999998</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>287.86</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>374.65</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>351.22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44417</v>
       </c>
@@ -852,25 +880,28 @@
         <v>107.7903</v>
       </c>
       <c r="K9">
+        <v>140.90520000000001</v>
+      </c>
+      <c r="L9">
         <v>849.38</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1080.72</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>299.67790000000002</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>287.95</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>374.83</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>351.43</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44418</v>
       </c>
@@ -902,25 +933,28 @@
         <v>107.76860000000001</v>
       </c>
       <c r="K10">
+        <v>140.89830000000001</v>
+      </c>
+      <c r="L10">
         <v>849.28</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1080.74</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>299.75360000000001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>288.08999999999997</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>374.76</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>351.57</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44419</v>
       </c>
@@ -952,25 +986,28 @@
         <v>107.75620000000001</v>
       </c>
       <c r="K11">
+        <v>140.89099999999999</v>
+      </c>
+      <c r="L11">
         <v>848.95</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1080.9100000000001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>299.77499999999998</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>288.2</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>375.09</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>351.54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44420</v>
       </c>
@@ -1002,25 +1039,28 @@
         <v>107.7424</v>
       </c>
       <c r="K12">
+        <v>140.8811</v>
+      </c>
+      <c r="L12">
         <v>848.54</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1081.8399999999999</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>299.65629999999999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>288.24</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>375.21</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>351.39</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44421</v>
       </c>
@@ -1052,25 +1092,28 @@
         <v>107.7353</v>
       </c>
       <c r="K13">
+        <v>140.87960000000001</v>
+      </c>
+      <c r="L13">
         <v>848.28</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1079.97</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>299.64170000000001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>288.27999999999997</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>375.39</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>351.79</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
@@ -1102,25 +1145,28 @@
         <v>107.7444</v>
       </c>
       <c r="K14">
+        <v>140.88399999999999</v>
+      </c>
+      <c r="L14">
         <v>848.01</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1079.9000000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>299.69200000000001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>288.24</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>375.6</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>351.99</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
@@ -1152,25 +1198,28 @@
         <v>107.7576</v>
       </c>
       <c r="K15">
+        <v>140.89689999999999</v>
+      </c>
+      <c r="L15">
         <v>848.8</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1081.99</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>299.55829999999997</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>286.61</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>373.18</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>350.49</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44426</v>
       </c>
@@ -1202,25 +1251,28 @@
         <v>107.7623</v>
       </c>
       <c r="K16">
+        <v>140.89169999999999</v>
+      </c>
+      <c r="L16">
         <v>850.34</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1079.1099999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>298.69400000000002</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>285.22000000000003</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>371.16</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>351.17</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44427</v>
       </c>
@@ -1252,25 +1304,28 @@
         <v>107.9063</v>
       </c>
       <c r="K17">
+        <v>140.9641</v>
+      </c>
+      <c r="L17">
         <v>849.98</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1080.74</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>298.46089999999998</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>287.3</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>372.84</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>351.58</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44428</v>
       </c>
@@ -1302,25 +1357,28 @@
         <v>107.54730000000001</v>
       </c>
       <c r="K18">
+        <v>140.79249999999999</v>
+      </c>
+      <c r="L18">
         <v>848.69</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1081.3399999999999</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>298.22179999999997</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>286.44</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>373.23</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>352.6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44431</v>
       </c>
@@ -1352,25 +1410,28 @@
         <v>107.3193</v>
       </c>
       <c r="K19">
+        <v>140.6729</v>
+      </c>
+      <c r="L19">
         <v>847.34</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1080.2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>297.19209999999998</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>285.86</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>371.89</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>351.61</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44432</v>
       </c>
@@ -1402,25 +1463,28 @@
         <v>107.31780000000001</v>
       </c>
       <c r="K20">
+        <v>140.67490000000001</v>
+      </c>
+      <c r="L20">
         <v>847.12</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1079.43</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>297.12540000000001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>285.94</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>371.82</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>351.71</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44433</v>
       </c>
@@ -1452,25 +1516,28 @@
         <v>107.3013</v>
       </c>
       <c r="K21">
+        <v>140.6626</v>
+      </c>
+      <c r="L21">
         <v>846.81</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1078.94</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>297.07299999999998</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>285.87</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>371.83</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>351.56</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44434</v>
       </c>
@@ -1502,25 +1569,28 @@
         <v>107.3327</v>
       </c>
       <c r="K22">
+        <v>140.67869999999999</v>
+      </c>
+      <c r="L22">
         <v>847.54</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1076.82</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>297.27449999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>286.22000000000003</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>371.93</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>351.02</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44435</v>
       </c>
@@ -1552,25 +1622,28 @@
         <v>107.2456</v>
       </c>
       <c r="K23">
+        <v>140.624</v>
+      </c>
+      <c r="L23">
         <v>846.33</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1075.92</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>297.81349999999998</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>285.58</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>371.55</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>351.11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44438</v>
       </c>
@@ -1602,25 +1675,28 @@
         <v>107.2379</v>
       </c>
       <c r="K24">
+        <v>140.62049999999999</v>
+      </c>
+      <c r="L24">
         <v>845.79</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1077.8399999999999</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>297.55549999999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>285.73</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>371.36</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>351.05</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44439</v>
       </c>
@@ -1652,43 +1728,46 @@
         <v>107.2413</v>
       </c>
       <c r="K25">
+        <v>140.6206</v>
+      </c>
+      <c r="L25">
         <v>845.87</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1077.6400000000001</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>297.42340000000002</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>285.82</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>371.08</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>351.22</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F5AC4-FE1C-4191-AC8A-E1C80AAA589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C9257-7AE2-4B8E-859D-BF6FA0AB21A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26685" yWindow="4515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
+    <sheet name="bbg" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
+    <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>SPTR Index</t>
   </si>
@@ -67,9 +78,6 @@
     <t>SGIXETRU Index</t>
   </si>
   <si>
-    <t>CSEADPUE Index</t>
-  </si>
-  <si>
     <t>UBCSLSFB Index</t>
   </si>
   <si>
@@ -80,6 +88,21 @@
   </si>
   <si>
     <t>BNPXVT3A Index</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>I20659US Index</t>
+  </si>
+  <si>
+    <t>CSEADP2E Index</t>
+  </si>
+  <si>
+    <t>PX_LAST</t>
   </si>
 </sst>
 </file>
@@ -133,6 +156,249 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14881480368949607527</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11576765380380915591</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17951043141888188241</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18156059803971144605</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12377744644355954861</stp>
+        <tr r="Q7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14305528777540250708</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14783714264113670076</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14200022438827243676</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11398165838897344229</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14695259103241970331</stp>
+        <tr r="O7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|10080487970595632367</stp>
+        <tr r="K7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2742795996100492253</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2446550901190792984</stp>
+        <tr r="M7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3145941625675102228</stp>
+        <tr r="P7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5524317048598063820</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C13</stp>
+        <stp>PX_LAST</stp>
+        <tr r="M5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C12</stp>
+        <stp>PX_LAST</stp>
+        <tr r="L5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C11</stp>
+        <stp>PX_LAST</stp>
+        <tr r="K5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C10</stp>
+        <stp>PX_LAST</stp>
+        <tr r="J5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C17</stp>
+        <stp>PX_LAST</stp>
+        <tr r="Q5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C16</stp>
+        <stp>PX_LAST</stp>
+        <tr r="P5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C15</stp>
+        <stp>PX_LAST</stp>
+        <tr r="O5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C14</stp>
+        <stp>PX_LAST</stp>
+        <tr r="N5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C9</stp>
+        <stp>PX_LAST</stp>
+        <tr r="I5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C8</stp>
+        <stp>PX_LAST</stp>
+        <tr r="H5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C3</stp>
+        <stp>PX_LAST</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C7</stp>
+        <stp>PX_LAST</stp>
+        <tr r="G5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C6</stp>
+        <stp>PX_LAST</stp>
+        <tr r="F5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C5</stp>
+        <stp>PX_LAST</stp>
+        <tr r="E5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C4</stp>
+        <stp>PX_LAST</stp>
+        <tr r="D5" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|555714085434454638</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +691,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -468,1409 +731,7638 @@
         <v>9</v>
       </c>
       <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44406</v>
+        <v>44375</v>
       </c>
       <c r="B2">
-        <v>9204.2479999999996</v>
+        <v>8927.4009999999998</v>
       </c>
       <c r="C2">
-        <v>9055.33</v>
+        <v>8986.83</v>
       </c>
       <c r="D2">
-        <v>373.9</v>
+        <v>369.56</v>
       </c>
       <c r="E2">
-        <v>5269.05</v>
+        <v>5141.03</v>
       </c>
       <c r="F2">
-        <v>210.97</v>
+        <v>201.1</v>
       </c>
       <c r="G2">
-        <v>122.1198</v>
+        <v>120.7411</v>
       </c>
       <c r="H2">
-        <v>174.93</v>
+        <v>174.18</v>
       </c>
       <c r="I2">
-        <v>106.8064</v>
+        <v>109.22329999999999</v>
       </c>
       <c r="J2">
-        <v>107.95399999999999</v>
+        <v>110.0395</v>
       </c>
       <c r="K2">
-        <v>140.97890000000001</v>
+        <v>142.0849</v>
       </c>
       <c r="L2">
-        <v>850.03</v>
+        <v>855.09</v>
       </c>
       <c r="M2">
-        <v>1081.72</v>
+        <v>1098.97</v>
       </c>
       <c r="N2">
-        <v>299.56900000000002</v>
+        <v>297.2448</v>
       </c>
       <c r="O2">
-        <v>287.52</v>
+        <v>292.56</v>
       </c>
       <c r="P2">
-        <v>373.88</v>
+        <v>377.21</v>
       </c>
       <c r="Q2">
-        <v>350.77</v>
+        <v>354.35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44407</v>
+        <v>44376</v>
       </c>
       <c r="B3">
-        <v>9155.2119999999995</v>
+        <v>8930.6659999999993</v>
       </c>
       <c r="C3">
-        <v>8994.89</v>
+        <v>9025.51</v>
       </c>
       <c r="D3">
-        <v>371.12</v>
+        <v>369.41</v>
       </c>
       <c r="E3">
-        <v>5283</v>
+        <v>5150.9799999999996</v>
       </c>
       <c r="F3">
-        <v>212.22</v>
+        <v>201.57</v>
       </c>
       <c r="G3">
-        <v>122.0702</v>
+        <v>120.8948</v>
       </c>
       <c r="H3">
-        <v>174.94</v>
+        <v>174.27</v>
       </c>
       <c r="I3">
-        <v>106.8415</v>
+        <v>109.2261</v>
       </c>
       <c r="J3">
-        <v>107.986</v>
+        <v>110.0406</v>
       </c>
       <c r="K3">
-        <v>140.99780000000001</v>
+        <v>142.0865</v>
       </c>
       <c r="L3">
-        <v>850.65</v>
+        <v>854.97</v>
       </c>
       <c r="M3">
-        <v>1083.73</v>
+        <v>1097.0999999999999</v>
       </c>
       <c r="N3">
-        <v>299.74040000000002</v>
+        <v>297.42020000000002</v>
       </c>
       <c r="O3">
-        <v>287.64</v>
+        <v>292.8</v>
       </c>
       <c r="P3">
-        <v>374.08</v>
+        <v>377.37</v>
       </c>
       <c r="Q3">
-        <v>350.8</v>
+        <v>354.57</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44410</v>
+        <v>44377</v>
       </c>
       <c r="B4">
-        <v>9138.36</v>
+        <v>8942.777</v>
       </c>
       <c r="C4">
-        <v>9055</v>
+        <v>8930.5499999999993</v>
       </c>
       <c r="D4">
-        <v>372.5</v>
+        <v>368.58</v>
       </c>
       <c r="E4">
-        <v>5310.07</v>
+        <v>5164.47</v>
       </c>
       <c r="F4">
-        <v>214.63</v>
+        <v>202.74</v>
       </c>
       <c r="G4">
-        <v>122.1418</v>
+        <v>120.9892</v>
       </c>
       <c r="H4">
-        <v>175.27</v>
+        <v>174.23</v>
       </c>
       <c r="I4">
-        <v>106.9408</v>
+        <v>109.2259</v>
       </c>
       <c r="J4">
-        <v>108.0218</v>
+        <v>110.04510000000001</v>
       </c>
       <c r="K4">
-        <v>141.02000000000001</v>
+        <v>142.08519999999999</v>
       </c>
       <c r="L4">
-        <v>850.93</v>
+        <v>854.8</v>
       </c>
       <c r="M4">
-        <v>1080.51</v>
+        <v>1097.47</v>
       </c>
       <c r="N4">
-        <v>299.4187</v>
+        <v>297.43029999999999</v>
       </c>
       <c r="O4">
-        <v>287.83</v>
+        <v>292.83999999999997</v>
       </c>
       <c r="P4">
-        <v>374.44</v>
+        <v>377.74</v>
       </c>
       <c r="Q4">
-        <v>351.24</v>
+        <v>354.54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44411</v>
+        <v>44378</v>
       </c>
       <c r="B5">
-        <v>9213.348</v>
+        <v>8990.08</v>
       </c>
       <c r="C5">
-        <v>9057.91</v>
+        <v>8962.6200000000008</v>
       </c>
       <c r="D5">
-        <v>374.17</v>
+        <v>369.55</v>
       </c>
       <c r="E5">
-        <v>5309.63</v>
+        <v>5160.03</v>
       </c>
       <c r="F5">
-        <v>214.76</v>
+        <v>202.84</v>
       </c>
       <c r="G5">
-        <v>122.11150000000001</v>
+        <v>121.1039</v>
       </c>
       <c r="H5">
-        <v>175.09</v>
+        <v>174.36</v>
       </c>
       <c r="I5">
-        <v>106.7859</v>
+        <v>109.21429999999999</v>
       </c>
       <c r="J5">
-        <v>108.02249999999999</v>
+        <v>110.0284</v>
       </c>
       <c r="K5">
-        <v>141.0001</v>
+        <v>142.08150000000001</v>
       </c>
       <c r="L5">
-        <v>849.83</v>
+        <v>854.19</v>
       </c>
       <c r="M5">
-        <v>1083.5</v>
+        <v>1095.31</v>
       </c>
       <c r="N5">
-        <v>299.7595</v>
+        <v>297.3802</v>
       </c>
       <c r="O5">
-        <v>287.89999999999998</v>
+        <v>292.75</v>
       </c>
       <c r="P5">
-        <v>374.52</v>
+        <v>377.62</v>
       </c>
       <c r="Q5">
-        <v>350.96</v>
+        <v>354.2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44412</v>
+        <v>44379</v>
       </c>
       <c r="B6">
-        <v>9170.7610000000004</v>
+        <v>9058.6589999999997</v>
       </c>
       <c r="C6">
-        <v>9117.2000000000007</v>
+        <v>8974.52</v>
       </c>
       <c r="D6">
-        <v>373.81</v>
+        <v>371.03</v>
       </c>
       <c r="E6">
-        <v>5314.86</v>
+        <v>5178.08</v>
       </c>
       <c r="F6">
-        <v>215.45</v>
+        <v>204.05</v>
       </c>
       <c r="G6">
-        <v>121.96720000000001</v>
+        <v>121.334</v>
       </c>
       <c r="H6">
-        <v>174.92</v>
+        <v>174.47</v>
       </c>
       <c r="I6">
-        <v>106.7578</v>
+        <v>109.20610000000001</v>
       </c>
       <c r="J6">
-        <v>107.889</v>
+        <v>110.0094</v>
       </c>
       <c r="K6">
-        <v>140.96289999999999</v>
+        <v>142.07339999999999</v>
       </c>
       <c r="L6">
-        <v>850.4</v>
+        <v>853.25</v>
       </c>
       <c r="M6">
-        <v>1084.5899999999999</v>
+        <v>1094.55</v>
       </c>
       <c r="N6">
-        <v>299.96969999999999</v>
+        <v>297.51319999999998</v>
       </c>
       <c r="O6">
-        <v>287.86</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="P6">
-        <v>374.48</v>
+        <v>377.47</v>
       </c>
       <c r="Q6">
-        <v>351.04</v>
+        <v>354.14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="B7">
-        <v>9226.4879999999994</v>
+        <v>9058.6589999999997</v>
       </c>
       <c r="C7">
-        <v>9152.7999999999993</v>
+        <v>8981.25</v>
       </c>
       <c r="D7">
-        <v>375.45</v>
+        <v>371.42</v>
       </c>
       <c r="E7">
-        <v>5289.94</v>
+        <v>5178.08</v>
       </c>
       <c r="F7">
-        <v>214.14</v>
+        <v>204.05</v>
       </c>
       <c r="G7">
-        <v>121.9768</v>
+        <v>121.334</v>
       </c>
       <c r="H7">
-        <v>174.86</v>
+        <v>174.47</v>
       </c>
       <c r="I7">
-        <v>106.7118</v>
+        <v>109.20610000000001</v>
       </c>
       <c r="J7">
-        <v>107.83929999999999</v>
+        <v>110.0094</v>
       </c>
       <c r="K7">
-        <v>140.93109999999999</v>
+        <v>142.07339999999999</v>
       </c>
       <c r="L7">
-        <v>849.6</v>
+        <v>853.25</v>
       </c>
       <c r="M7">
-        <v>1083.07</v>
+        <v>1094.55</v>
       </c>
       <c r="N7">
-        <v>299.85149999999999</v>
+        <v>297.51319999999998</v>
       </c>
       <c r="O7">
-        <v>287.82</v>
+        <v>292.54000000000002</v>
       </c>
       <c r="P7">
-        <v>374.52</v>
+        <v>377.47</v>
       </c>
       <c r="Q7">
-        <v>350.81</v>
+        <v>354.14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44414</v>
+        <v>44383</v>
       </c>
       <c r="B8">
-        <v>9243.027</v>
+        <v>9040.76</v>
       </c>
       <c r="C8">
-        <v>9182.4</v>
+        <v>8904.99</v>
       </c>
       <c r="D8">
-        <v>374.77</v>
+        <v>370.4</v>
       </c>
       <c r="E8">
-        <v>5220.8100000000004</v>
+        <v>5222.46</v>
       </c>
       <c r="F8">
-        <v>209.58</v>
+        <v>207.35</v>
       </c>
       <c r="G8">
-        <v>121.8686</v>
+        <v>121.3252</v>
       </c>
       <c r="H8">
-        <v>174.77</v>
+        <v>174.49</v>
       </c>
       <c r="I8">
-        <v>106.67189999999999</v>
+        <v>109.2196</v>
       </c>
       <c r="J8">
-        <v>107.80889999999999</v>
+        <v>110.0228</v>
       </c>
       <c r="K8">
-        <v>140.91739999999999</v>
+        <v>142.08099999999999</v>
       </c>
       <c r="L8">
-        <v>849.33</v>
+        <v>853.5</v>
       </c>
       <c r="M8">
-        <v>1082.44</v>
+        <v>1098.2</v>
       </c>
       <c r="N8">
-        <v>299.60289999999998</v>
+        <v>297.81130000000002</v>
       </c>
       <c r="O8">
-        <v>287.86</v>
+        <v>292.83</v>
       </c>
       <c r="P8">
-        <v>374.65</v>
+        <v>377.72</v>
       </c>
       <c r="Q8">
-        <v>351.22</v>
+        <v>354.55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44417</v>
+        <v>44384</v>
       </c>
       <c r="B9">
-        <v>9235.0480000000007</v>
+        <v>9071.143</v>
       </c>
       <c r="C9">
-        <v>9188.1200000000008</v>
+        <v>8962.43</v>
       </c>
       <c r="D9">
-        <v>374.73</v>
+        <v>370.98</v>
       </c>
       <c r="E9">
-        <v>5197.83</v>
+        <v>5246.12</v>
       </c>
       <c r="F9">
-        <v>208.73</v>
+        <v>209.81</v>
       </c>
       <c r="G9">
-        <v>122.0001</v>
+        <v>121.5112</v>
       </c>
       <c r="H9">
-        <v>174.77</v>
+        <v>174.62</v>
       </c>
       <c r="I9">
-        <v>106.6537</v>
+        <v>109.20189999999999</v>
       </c>
       <c r="J9">
-        <v>107.7903</v>
+        <v>110.0258</v>
       </c>
       <c r="K9">
-        <v>140.90520000000001</v>
+        <v>142.0788</v>
       </c>
       <c r="L9">
-        <v>849.38</v>
+        <v>853.22</v>
       </c>
       <c r="M9">
-        <v>1080.72</v>
+        <v>1099.0899999999999</v>
       </c>
       <c r="N9">
-        <v>299.67790000000002</v>
+        <v>297.92750000000001</v>
       </c>
       <c r="O9">
-        <v>287.95</v>
+        <v>293.05</v>
       </c>
       <c r="P9">
-        <v>374.83</v>
+        <v>377.82</v>
       </c>
       <c r="Q9">
-        <v>351.43</v>
+        <v>354.68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44418</v>
+        <v>44385</v>
       </c>
       <c r="B10">
-        <v>9244.2160000000003</v>
+        <v>8995.2620000000006</v>
       </c>
       <c r="C10">
-        <v>9211.61</v>
+        <v>8775.07</v>
       </c>
       <c r="D10">
-        <v>375.21</v>
+        <v>367.26</v>
       </c>
       <c r="E10">
-        <v>5178.7700000000004</v>
+        <v>5248.9</v>
       </c>
       <c r="F10">
-        <v>207.46</v>
+        <v>210.75</v>
       </c>
       <c r="G10">
-        <v>121.9141</v>
+        <v>121.56910000000001</v>
       </c>
       <c r="H10">
-        <v>174.66</v>
+        <v>174.71</v>
       </c>
       <c r="I10">
-        <v>106.64060000000001</v>
+        <v>109.29179999999999</v>
       </c>
       <c r="J10">
-        <v>107.76860000000001</v>
+        <v>110.14190000000001</v>
       </c>
       <c r="K10">
-        <v>140.89830000000001</v>
+        <v>142.12870000000001</v>
       </c>
       <c r="L10">
-        <v>849.28</v>
+        <v>853.98</v>
       </c>
       <c r="M10">
-        <v>1080.74</v>
+        <v>1097.22</v>
       </c>
       <c r="N10">
-        <v>299.75360000000001</v>
+        <v>298.19889999999998</v>
       </c>
       <c r="O10">
-        <v>288.08999999999997</v>
+        <v>290.8</v>
       </c>
       <c r="P10">
-        <v>374.76</v>
+        <v>375.32</v>
       </c>
       <c r="Q10">
-        <v>351.57</v>
+        <v>351.97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44419</v>
+        <v>44386</v>
       </c>
       <c r="B11">
-        <v>9267.4030000000002</v>
+        <v>9096.84</v>
       </c>
       <c r="C11">
-        <v>9252.32</v>
+        <v>8943.1</v>
       </c>
       <c r="D11">
-        <v>376.24</v>
+        <v>370.62</v>
       </c>
       <c r="E11">
-        <v>5176.72</v>
+        <v>5201.1499999999996</v>
       </c>
       <c r="F11">
-        <v>207.15</v>
+        <v>207.08</v>
       </c>
       <c r="G11">
-        <v>121.8926</v>
+        <v>121.6472</v>
       </c>
       <c r="H11">
-        <v>174.6</v>
+        <v>174.57</v>
       </c>
       <c r="I11">
-        <v>106.6262</v>
+        <v>108.9676</v>
       </c>
       <c r="J11">
-        <v>107.75620000000001</v>
+        <v>109.7953</v>
       </c>
       <c r="K11">
-        <v>140.89099999999999</v>
+        <v>141.958</v>
       </c>
       <c r="L11">
-        <v>848.95</v>
+        <v>852.4</v>
       </c>
       <c r="M11">
-        <v>1080.9100000000001</v>
+        <v>1096.52</v>
       </c>
       <c r="N11">
-        <v>299.77499999999998</v>
+        <v>299.45920000000001</v>
       </c>
       <c r="O11">
-        <v>288.2</v>
+        <v>289.20999999999998</v>
       </c>
       <c r="P11">
-        <v>375.09</v>
+        <v>374.32</v>
       </c>
       <c r="Q11">
-        <v>351.54</v>
+        <v>351.74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44420</v>
+        <v>44389</v>
       </c>
       <c r="B12">
-        <v>9297.1990000000005</v>
+        <v>9128.223</v>
       </c>
       <c r="C12">
-        <v>9296.31</v>
+        <v>8998.68</v>
       </c>
       <c r="D12">
-        <v>376.76</v>
+        <v>372.53</v>
       </c>
       <c r="E12">
-        <v>5180.6099999999997</v>
+        <v>5203.04</v>
       </c>
       <c r="F12">
-        <v>206.81</v>
+        <v>206.69</v>
       </c>
       <c r="G12">
-        <v>121.90479999999999</v>
+        <v>121.7436</v>
       </c>
       <c r="H12">
-        <v>174.58</v>
+        <v>174.53</v>
       </c>
       <c r="I12">
-        <v>106.6096</v>
+        <v>108.9526</v>
       </c>
       <c r="J12">
-        <v>107.7424</v>
+        <v>109.7688</v>
       </c>
       <c r="K12">
-        <v>140.8811</v>
+        <v>141.9452</v>
       </c>
       <c r="L12">
-        <v>848.54</v>
+        <v>852.06</v>
       </c>
       <c r="M12">
-        <v>1081.8399999999999</v>
+        <v>1094.2</v>
       </c>
       <c r="N12">
-        <v>299.65629999999999</v>
+        <v>299.16849999999999</v>
       </c>
       <c r="O12">
-        <v>288.24</v>
+        <v>289.26</v>
       </c>
       <c r="P12">
-        <v>375.21</v>
+        <v>374.44</v>
       </c>
       <c r="Q12">
-        <v>351.39</v>
+        <v>352.15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44421</v>
+        <v>44390</v>
       </c>
       <c r="B13">
-        <v>9312.5110000000004</v>
+        <v>9096.1479999999992</v>
       </c>
       <c r="C13">
-        <v>9304.8799999999992</v>
+        <v>9001.2900000000009</v>
       </c>
       <c r="D13">
-        <v>377.43</v>
+        <v>372.02</v>
       </c>
       <c r="E13">
-        <v>5241.04</v>
+        <v>5171.6400000000003</v>
       </c>
       <c r="F13">
-        <v>210.95</v>
+        <v>204.58</v>
       </c>
       <c r="G13">
-        <v>121.9136</v>
+        <v>121.8312</v>
       </c>
       <c r="H13">
-        <v>174.64</v>
+        <v>174.47</v>
       </c>
       <c r="I13">
-        <v>106.6097</v>
+        <v>108.9524</v>
       </c>
       <c r="J13">
-        <v>107.7353</v>
+        <v>109.7573</v>
       </c>
       <c r="K13">
-        <v>140.87960000000001</v>
+        <v>141.94380000000001</v>
       </c>
       <c r="L13">
-        <v>848.28</v>
+        <v>852.49</v>
       </c>
       <c r="M13">
-        <v>1079.97</v>
+        <v>1091.95</v>
       </c>
       <c r="N13">
-        <v>299.64170000000001</v>
+        <v>299.12619999999998</v>
       </c>
       <c r="O13">
-        <v>288.27999999999997</v>
+        <v>289.33999999999997</v>
       </c>
       <c r="P13">
-        <v>375.39</v>
+        <v>374.27</v>
       </c>
       <c r="Q13">
-        <v>351.79</v>
+        <v>352.53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44424</v>
+        <v>44391</v>
       </c>
       <c r="B14">
-        <v>9337.1810000000005</v>
+        <v>9107.848</v>
       </c>
       <c r="C14">
-        <v>9244.9</v>
+        <v>9012.14</v>
       </c>
       <c r="D14">
-        <v>376.82</v>
+        <v>371.93</v>
       </c>
       <c r="E14">
-        <v>5251.18</v>
+        <v>5217.57</v>
       </c>
       <c r="F14">
-        <v>211.53</v>
+        <v>207.68</v>
       </c>
       <c r="G14">
-        <v>122.00060000000001</v>
+        <v>121.86499999999999</v>
       </c>
       <c r="H14">
-        <v>174.64</v>
+        <v>174.46</v>
       </c>
       <c r="I14">
-        <v>106.6147</v>
+        <v>108.94110000000001</v>
       </c>
       <c r="J14">
-        <v>107.7444</v>
+        <v>109.7497</v>
       </c>
       <c r="K14">
-        <v>140.88399999999999</v>
+        <v>141.94300000000001</v>
       </c>
       <c r="L14">
-        <v>848.01</v>
+        <v>852.36</v>
       </c>
       <c r="M14">
-        <v>1079.9000000000001</v>
+        <v>1093.02</v>
       </c>
       <c r="N14">
-        <v>299.69200000000001</v>
+        <v>299.25040000000001</v>
       </c>
       <c r="O14">
-        <v>288.24</v>
+        <v>289.44</v>
       </c>
       <c r="P14">
-        <v>375.6</v>
+        <v>374.51</v>
       </c>
       <c r="Q14">
-        <v>351.99</v>
+        <v>352.68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="B15">
-        <v>9271.8289999999997</v>
+        <v>9078.3279999999995</v>
       </c>
       <c r="C15">
-        <v>9231.6</v>
+        <v>8917.3799999999992</v>
       </c>
       <c r="D15">
-        <v>373.97</v>
+        <v>370.7</v>
       </c>
       <c r="E15">
-        <v>5241.41</v>
+        <v>5248.4</v>
       </c>
       <c r="F15">
-        <v>211.56</v>
+        <v>210.57</v>
       </c>
       <c r="G15">
-        <v>122.0528</v>
+        <v>121.7208</v>
       </c>
       <c r="H15">
-        <v>174.48</v>
+        <v>174.36</v>
       </c>
       <c r="I15">
-        <v>106.651</v>
+        <v>108.9521</v>
       </c>
       <c r="J15">
-        <v>107.7576</v>
+        <v>109.7791</v>
       </c>
       <c r="K15">
-        <v>140.89689999999999</v>
+        <v>141.95140000000001</v>
       </c>
       <c r="L15">
-        <v>848.8</v>
+        <v>852.77</v>
       </c>
       <c r="M15">
-        <v>1081.99</v>
+        <v>1093.27</v>
       </c>
       <c r="N15">
-        <v>299.55829999999997</v>
+        <v>299.3707</v>
       </c>
       <c r="O15">
-        <v>286.61</v>
+        <v>289.55</v>
       </c>
       <c r="P15">
-        <v>373.18</v>
+        <v>374.64</v>
       </c>
       <c r="Q15">
-        <v>350.49</v>
+        <v>352.63</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44426</v>
+        <v>44393</v>
       </c>
       <c r="B16">
-        <v>9173.93</v>
+        <v>9009.89</v>
       </c>
       <c r="C16">
-        <v>9216.25</v>
+        <v>8872.0300000000007</v>
       </c>
       <c r="D16">
-        <v>371.84</v>
+        <v>368.4</v>
       </c>
       <c r="E16">
-        <v>5248.67</v>
+        <v>5236.17</v>
       </c>
       <c r="F16">
-        <v>212.53</v>
+        <v>210.02</v>
       </c>
       <c r="G16">
-        <v>122.1991</v>
+        <v>121.6682</v>
       </c>
       <c r="H16">
-        <v>174.06</v>
+        <v>174.31</v>
       </c>
       <c r="I16">
-        <v>106.6494</v>
+        <v>108.9781</v>
       </c>
       <c r="J16">
-        <v>107.7623</v>
+        <v>109.7627</v>
       </c>
       <c r="K16">
-        <v>140.89169999999999</v>
+        <v>141.9495</v>
       </c>
       <c r="L16">
-        <v>850.34</v>
+        <v>853.83</v>
       </c>
       <c r="M16">
-        <v>1079.1099999999999</v>
+        <v>1091.78</v>
       </c>
       <c r="N16">
-        <v>298.69400000000002</v>
+        <v>299.1386</v>
       </c>
       <c r="O16">
-        <v>285.22000000000003</v>
+        <v>289.81</v>
       </c>
       <c r="P16">
-        <v>371.16</v>
+        <v>374.83</v>
       </c>
       <c r="Q16">
-        <v>351.17</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44427</v>
+        <v>44396</v>
       </c>
       <c r="B17">
-        <v>9186.07</v>
+        <v>8867.0660000000007</v>
       </c>
       <c r="C17">
-        <v>9073.91</v>
+        <v>8639.3700000000008</v>
       </c>
       <c r="D17">
-        <v>369.31</v>
+        <v>362.4</v>
       </c>
       <c r="E17">
-        <v>5264.28</v>
+        <v>5293.23</v>
       </c>
       <c r="F17">
-        <v>214.46</v>
+        <v>215.88</v>
       </c>
       <c r="G17">
-        <v>122.4222</v>
+        <v>121.7071</v>
       </c>
       <c r="H17">
-        <v>174.39</v>
+        <v>174.31</v>
       </c>
       <c r="I17">
-        <v>106.7525</v>
+        <v>109.3998</v>
       </c>
       <c r="J17">
-        <v>107.9063</v>
+        <v>110.0902</v>
       </c>
       <c r="K17">
-        <v>140.9641</v>
+        <v>142.1292</v>
       </c>
       <c r="L17">
-        <v>849.98</v>
+        <v>856</v>
       </c>
       <c r="M17">
-        <v>1080.74</v>
+        <v>1092.3699999999999</v>
       </c>
       <c r="N17">
-        <v>298.46089999999998</v>
+        <v>297.53089999999997</v>
       </c>
       <c r="O17">
-        <v>287.3</v>
+        <v>288.3</v>
       </c>
       <c r="P17">
-        <v>372.84</v>
+        <v>374.91</v>
       </c>
       <c r="Q17">
-        <v>351.58</v>
+        <v>352.58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44428</v>
+        <v>44397</v>
       </c>
       <c r="B18">
-        <v>9261.3060000000005</v>
+        <v>9001.7710000000006</v>
       </c>
       <c r="C18">
-        <v>9124.0300000000007</v>
+        <v>8700.52</v>
       </c>
       <c r="D18">
-        <v>370.71</v>
+        <v>365.41</v>
       </c>
       <c r="E18">
-        <v>5268.9</v>
+        <v>5264.94</v>
       </c>
       <c r="F18">
-        <v>214.7</v>
+        <v>213.11</v>
       </c>
       <c r="G18">
-        <v>122.2959</v>
+        <v>121.92</v>
       </c>
       <c r="H18">
-        <v>174.48</v>
+        <v>174.53</v>
       </c>
       <c r="I18">
-        <v>106.4539</v>
+        <v>107.37739999999999</v>
       </c>
       <c r="J18">
-        <v>107.54730000000001</v>
+        <v>108.85720000000001</v>
       </c>
       <c r="K18">
-        <v>140.79249999999999</v>
+        <v>141.37950000000001</v>
       </c>
       <c r="L18">
-        <v>848.69</v>
+        <v>853.03</v>
       </c>
       <c r="M18">
-        <v>1081.3399999999999</v>
+        <v>1090.3900000000001</v>
       </c>
       <c r="N18">
-        <v>298.22179999999997</v>
+        <v>300.7038</v>
       </c>
       <c r="O18">
-        <v>286.44</v>
+        <v>288.37</v>
       </c>
       <c r="P18">
-        <v>373.23</v>
+        <v>374.76</v>
       </c>
       <c r="Q18">
-        <v>352.6</v>
+        <v>351.91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44431</v>
+        <v>44398</v>
       </c>
       <c r="B19">
-        <v>9341.0910000000003</v>
+        <v>9075.9750000000004</v>
       </c>
       <c r="C19">
-        <v>9187.65</v>
+        <v>8855.2199999999993</v>
       </c>
       <c r="D19">
-        <v>374.78</v>
+        <v>368.74</v>
       </c>
       <c r="E19">
-        <v>5271.9</v>
+        <v>5234.5600000000004</v>
       </c>
       <c r="F19">
-        <v>214.51</v>
+        <v>209.8</v>
       </c>
       <c r="G19">
-        <v>122.39919999999999</v>
+        <v>121.92010000000001</v>
       </c>
       <c r="H19">
-        <v>174.77</v>
+        <v>174.54</v>
       </c>
       <c r="I19">
-        <v>106.32989999999999</v>
+        <v>107.0018</v>
       </c>
       <c r="J19">
-        <v>107.3193</v>
+        <v>108.2407</v>
       </c>
       <c r="K19">
-        <v>140.6729</v>
+        <v>141.1148</v>
       </c>
       <c r="L19">
-        <v>847.34</v>
+        <v>851.86</v>
       </c>
       <c r="M19">
-        <v>1080.2</v>
+        <v>1090.4000000000001</v>
       </c>
       <c r="N19">
-        <v>297.19209999999998</v>
+        <v>299.01119999999997</v>
       </c>
       <c r="O19">
-        <v>285.86</v>
+        <v>288.35000000000002</v>
       </c>
       <c r="P19">
-        <v>371.89</v>
+        <v>374.79</v>
       </c>
       <c r="Q19">
-        <v>351.61</v>
+        <v>351.21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44432</v>
+        <v>44399</v>
       </c>
       <c r="B20">
-        <v>9355.11</v>
+        <v>9094.9539999999997</v>
       </c>
       <c r="C20">
-        <v>9191.32</v>
+        <v>8926.39</v>
       </c>
       <c r="D20">
-        <v>376.92</v>
+        <v>370.31</v>
       </c>
       <c r="E20">
-        <v>5249.41</v>
+        <v>5269.58</v>
       </c>
       <c r="F20">
-        <v>212.55</v>
+        <v>212.25</v>
       </c>
       <c r="G20">
-        <v>122.5128</v>
+        <v>121.90470000000001</v>
       </c>
       <c r="H20">
-        <v>174.7</v>
+        <v>174.65</v>
       </c>
       <c r="I20">
-        <v>106.33759999999999</v>
+        <v>107.0185</v>
       </c>
       <c r="J20">
-        <v>107.31780000000001</v>
+        <v>108.18989999999999</v>
       </c>
       <c r="K20">
-        <v>140.67490000000001</v>
+        <v>141.0932</v>
       </c>
       <c r="L20">
-        <v>847.12</v>
+        <v>851.6</v>
       </c>
       <c r="M20">
-        <v>1079.43</v>
+        <v>1090.6400000000001</v>
       </c>
       <c r="N20">
-        <v>297.12540000000001</v>
+        <v>298.93259999999998</v>
       </c>
       <c r="O20">
-        <v>285.94</v>
+        <v>288.44</v>
       </c>
       <c r="P20">
-        <v>371.82</v>
+        <v>374.82</v>
       </c>
       <c r="Q20">
-        <v>351.71</v>
+        <v>351.16</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44433</v>
+        <v>44400</v>
       </c>
       <c r="B21">
-        <v>9376</v>
+        <v>9187.6350000000002</v>
       </c>
       <c r="C21">
-        <v>9198.01</v>
+        <v>9038.4599999999991</v>
       </c>
       <c r="D21">
-        <v>377.52</v>
+        <v>372.55</v>
       </c>
       <c r="E21">
-        <v>5225.82</v>
+        <v>5253.19</v>
       </c>
       <c r="F21">
-        <v>210.28</v>
+        <v>210.45</v>
       </c>
       <c r="G21">
-        <v>122.4131</v>
+        <v>122.1751</v>
       </c>
       <c r="H21">
-        <v>174.64</v>
+        <v>174.86</v>
       </c>
       <c r="I21">
-        <v>106.30800000000001</v>
+        <v>106.9872</v>
       </c>
       <c r="J21">
-        <v>107.3013</v>
+        <v>108.1871</v>
       </c>
       <c r="K21">
-        <v>140.6626</v>
+        <v>141.08680000000001</v>
       </c>
       <c r="L21">
-        <v>846.81</v>
+        <v>850.28</v>
       </c>
       <c r="M21">
-        <v>1078.94</v>
+        <v>1090.54</v>
       </c>
       <c r="N21">
-        <v>297.07299999999998</v>
+        <v>299.577</v>
       </c>
       <c r="O21">
-        <v>285.87</v>
+        <v>287.87</v>
       </c>
       <c r="P21">
-        <v>371.83</v>
+        <v>374.46</v>
       </c>
       <c r="Q21">
-        <v>351.56</v>
+        <v>350.81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44434</v>
+        <v>44403</v>
       </c>
       <c r="B22">
-        <v>9321.7360000000008</v>
+        <v>9209.6319999999996</v>
       </c>
       <c r="C22">
-        <v>9173.24</v>
+        <v>9024.1299999999992</v>
       </c>
       <c r="D22">
-        <v>375.57</v>
+        <v>372.33</v>
       </c>
       <c r="E22">
-        <v>5235.6899999999996</v>
+        <v>5245.51</v>
       </c>
       <c r="F22">
-        <v>211.21</v>
+        <v>209.66</v>
       </c>
       <c r="G22">
-        <v>122.4071</v>
+        <v>122.29989999999999</v>
       </c>
       <c r="H22">
-        <v>174.79</v>
+        <v>174.9</v>
       </c>
       <c r="I22">
-        <v>106.3399</v>
+        <v>107.0051</v>
       </c>
       <c r="J22">
-        <v>107.3327</v>
+        <v>108.232</v>
       </c>
       <c r="K22">
-        <v>140.67869999999999</v>
+        <v>141.09710000000001</v>
       </c>
       <c r="L22">
-        <v>847.54</v>
+        <v>850.06</v>
       </c>
       <c r="M22">
-        <v>1076.82</v>
+        <v>1090.2</v>
       </c>
       <c r="N22">
-        <v>297.27449999999999</v>
+        <v>299.5634</v>
       </c>
       <c r="O22">
-        <v>286.22000000000003</v>
+        <v>287.85000000000002</v>
       </c>
       <c r="P22">
-        <v>371.93</v>
+        <v>374.48</v>
       </c>
       <c r="Q22">
-        <v>351.02</v>
+        <v>350.81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44435</v>
+        <v>44404</v>
       </c>
       <c r="B23">
-        <v>9404.1470000000008</v>
+        <v>9166.2669999999998</v>
       </c>
       <c r="C23">
-        <v>9219.68</v>
+        <v>8941.07</v>
       </c>
       <c r="D23">
-        <v>378.3</v>
+        <v>370.15</v>
       </c>
       <c r="E23">
-        <v>5264.13</v>
+        <v>5278.83</v>
       </c>
       <c r="F23">
-        <v>212.8</v>
+        <v>212.44</v>
       </c>
       <c r="G23">
-        <v>122.36360000000001</v>
+        <v>122.3832</v>
       </c>
       <c r="H23">
-        <v>174.8</v>
+        <v>175.03</v>
       </c>
       <c r="I23">
-        <v>106.2277</v>
+        <v>107.13249999999999</v>
       </c>
       <c r="J23">
-        <v>107.2456</v>
+        <v>108.3355</v>
       </c>
       <c r="K23">
-        <v>140.624</v>
+        <v>141.1729</v>
       </c>
       <c r="L23">
-        <v>846.33</v>
+        <v>850.52</v>
       </c>
       <c r="M23">
-        <v>1075.92</v>
+        <v>1090.3800000000001</v>
       </c>
       <c r="N23">
-        <v>297.81349999999998</v>
+        <v>299.63479999999998</v>
       </c>
       <c r="O23">
-        <v>285.58</v>
+        <v>287.42</v>
       </c>
       <c r="P23">
-        <v>371.55</v>
+        <v>373.1</v>
       </c>
       <c r="Q23">
-        <v>351.11</v>
+        <v>350.58</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44438</v>
+        <v>44405</v>
       </c>
       <c r="B24">
-        <v>9445.2440000000006</v>
+        <v>9164.6200000000008</v>
       </c>
       <c r="C24">
-        <v>9236.89</v>
+        <v>9025.1</v>
       </c>
       <c r="D24">
-        <v>380.14</v>
+        <v>370.77</v>
       </c>
       <c r="E24">
-        <v>5279.32</v>
+        <v>5288.62</v>
       </c>
       <c r="F24">
-        <v>213.42</v>
+        <v>212.48</v>
       </c>
       <c r="G24">
-        <v>122.4658</v>
+        <v>122.17619999999999</v>
       </c>
       <c r="H24">
-        <v>174.79</v>
+        <v>174.84</v>
       </c>
       <c r="I24">
-        <v>106.2216</v>
+        <v>106.9051</v>
       </c>
       <c r="J24">
-        <v>107.2379</v>
+        <v>108.1302</v>
       </c>
       <c r="K24">
-        <v>140.62049999999999</v>
+        <v>141.0384</v>
       </c>
       <c r="L24">
-        <v>845.79</v>
+        <v>850.55</v>
       </c>
       <c r="M24">
-        <v>1077.8399999999999</v>
+        <v>1085.1500000000001</v>
       </c>
       <c r="N24">
-        <v>297.55549999999999</v>
+        <v>299.73050000000001</v>
       </c>
       <c r="O24">
-        <v>285.73</v>
+        <v>287.57</v>
       </c>
       <c r="P24">
-        <v>371.36</v>
+        <v>373.69</v>
       </c>
       <c r="Q24">
-        <v>351.05</v>
+        <v>350.58</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B25">
+        <v>9204.2479999999996</v>
+      </c>
+      <c r="C25">
+        <v>9055.33</v>
+      </c>
+      <c r="D25">
+        <v>373.9</v>
+      </c>
+      <c r="E25">
+        <v>5269.05</v>
+      </c>
+      <c r="F25">
+        <v>210.97</v>
+      </c>
+      <c r="G25">
+        <v>122.1198</v>
+      </c>
+      <c r="H25">
+        <v>174.93</v>
+      </c>
+      <c r="I25">
+        <v>106.8064</v>
+      </c>
+      <c r="J25">
+        <v>107.95399999999999</v>
+      </c>
+      <c r="K25">
+        <v>140.97890000000001</v>
+      </c>
+      <c r="L25">
+        <v>849.99</v>
+      </c>
+      <c r="M25">
+        <v>1081.72</v>
+      </c>
+      <c r="N25">
+        <v>299.56900000000002</v>
+      </c>
+      <c r="O25">
+        <v>287.52</v>
+      </c>
+      <c r="P25">
+        <v>373.88</v>
+      </c>
+      <c r="Q25">
+        <v>350.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B26">
+        <v>9155.2119999999995</v>
+      </c>
+      <c r="C26">
+        <v>8994.89</v>
+      </c>
+      <c r="D26">
+        <v>371.12</v>
+      </c>
+      <c r="E26">
+        <v>5283</v>
+      </c>
+      <c r="F26">
+        <v>212.22</v>
+      </c>
+      <c r="G26">
+        <v>122.0702</v>
+      </c>
+      <c r="H26">
+        <v>174.94</v>
+      </c>
+      <c r="I26">
+        <v>106.8415</v>
+      </c>
+      <c r="J26">
+        <v>107.986</v>
+      </c>
+      <c r="K26">
+        <v>140.99780000000001</v>
+      </c>
+      <c r="L26">
+        <v>850.64</v>
+      </c>
+      <c r="M26">
+        <v>1083.73</v>
+      </c>
+      <c r="N26">
+        <v>299.74040000000002</v>
+      </c>
+      <c r="O26">
+        <v>287.64</v>
+      </c>
+      <c r="P26">
+        <v>374.08</v>
+      </c>
+      <c r="Q26">
+        <v>350.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B27">
+        <v>9138.36</v>
+      </c>
+      <c r="C27">
+        <v>9055</v>
+      </c>
+      <c r="D27">
+        <v>372.5</v>
+      </c>
+      <c r="E27">
+        <v>5310.07</v>
+      </c>
+      <c r="F27">
+        <v>214.63</v>
+      </c>
+      <c r="G27">
+        <v>122.1418</v>
+      </c>
+      <c r="H27">
+        <v>175.27</v>
+      </c>
+      <c r="I27">
+        <v>106.9408</v>
+      </c>
+      <c r="J27">
+        <v>108.0218</v>
+      </c>
+      <c r="K27">
+        <v>141.02000000000001</v>
+      </c>
+      <c r="L27">
+        <v>850.9</v>
+      </c>
+      <c r="M27">
+        <v>1080.51</v>
+      </c>
+      <c r="N27">
+        <v>299.4187</v>
+      </c>
+      <c r="O27">
+        <v>287.83</v>
+      </c>
+      <c r="P27">
+        <v>374.44</v>
+      </c>
+      <c r="Q27">
+        <v>351.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B28">
+        <v>9213.348</v>
+      </c>
+      <c r="C28">
+        <v>9057.91</v>
+      </c>
+      <c r="D28">
+        <v>374.17</v>
+      </c>
+      <c r="E28">
+        <v>5309.63</v>
+      </c>
+      <c r="F28">
+        <v>214.76</v>
+      </c>
+      <c r="G28">
+        <v>122.11150000000001</v>
+      </c>
+      <c r="H28">
+        <v>175.09</v>
+      </c>
+      <c r="I28">
+        <v>106.7859</v>
+      </c>
+      <c r="J28">
+        <v>108.02249999999999</v>
+      </c>
+      <c r="K28">
+        <v>141.0001</v>
+      </c>
+      <c r="L28">
+        <v>849.8</v>
+      </c>
+      <c r="M28">
+        <v>1083.5</v>
+      </c>
+      <c r="N28">
+        <v>299.7595</v>
+      </c>
+      <c r="O28">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="P28">
+        <v>374.52</v>
+      </c>
+      <c r="Q28">
+        <v>350.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B29">
+        <v>9170.7610000000004</v>
+      </c>
+      <c r="C29">
+        <v>9117.2000000000007</v>
+      </c>
+      <c r="D29">
+        <v>373.81</v>
+      </c>
+      <c r="E29">
+        <v>5314.86</v>
+      </c>
+      <c r="F29">
+        <v>215.45</v>
+      </c>
+      <c r="G29">
+        <v>121.96720000000001</v>
+      </c>
+      <c r="H29">
+        <v>174.92</v>
+      </c>
+      <c r="I29">
+        <v>106.7578</v>
+      </c>
+      <c r="J29">
+        <v>107.889</v>
+      </c>
+      <c r="K29">
+        <v>140.96289999999999</v>
+      </c>
+      <c r="L29">
+        <v>850.39</v>
+      </c>
+      <c r="M29">
+        <v>1084.5899999999999</v>
+      </c>
+      <c r="N29">
+        <v>299.96969999999999</v>
+      </c>
+      <c r="O29">
+        <v>287.86</v>
+      </c>
+      <c r="P29">
+        <v>374.48</v>
+      </c>
+      <c r="Q29">
+        <v>351.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B30">
+        <v>9226.4879999999994</v>
+      </c>
+      <c r="C30">
+        <v>9152.7999999999993</v>
+      </c>
+      <c r="D30">
+        <v>375.45</v>
+      </c>
+      <c r="E30">
+        <v>5289.94</v>
+      </c>
+      <c r="F30">
+        <v>214.14</v>
+      </c>
+      <c r="G30">
+        <v>121.9768</v>
+      </c>
+      <c r="H30">
+        <v>174.86</v>
+      </c>
+      <c r="I30">
+        <v>106.7118</v>
+      </c>
+      <c r="J30">
+        <v>107.83929999999999</v>
+      </c>
+      <c r="K30">
+        <v>140.93109999999999</v>
+      </c>
+      <c r="L30">
+        <v>849.6</v>
+      </c>
+      <c r="M30">
+        <v>1083.07</v>
+      </c>
+      <c r="N30">
+        <v>299.85149999999999</v>
+      </c>
+      <c r="O30">
+        <v>287.82</v>
+      </c>
+      <c r="P30">
+        <v>374.52</v>
+      </c>
+      <c r="Q30">
+        <v>350.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B31">
+        <v>9243.027</v>
+      </c>
+      <c r="C31">
+        <v>9182.4</v>
+      </c>
+      <c r="D31">
+        <v>374.77</v>
+      </c>
+      <c r="E31">
+        <v>5220.8100000000004</v>
+      </c>
+      <c r="F31">
+        <v>209.58</v>
+      </c>
+      <c r="G31">
+        <v>121.8686</v>
+      </c>
+      <c r="H31">
+        <v>174.77</v>
+      </c>
+      <c r="I31">
+        <v>106.67189999999999</v>
+      </c>
+      <c r="J31">
+        <v>107.80889999999999</v>
+      </c>
+      <c r="K31">
+        <v>140.91739999999999</v>
+      </c>
+      <c r="L31">
+        <v>849.32</v>
+      </c>
+      <c r="M31">
+        <v>1082.44</v>
+      </c>
+      <c r="N31">
+        <v>299.60289999999998</v>
+      </c>
+      <c r="O31">
+        <v>287.86</v>
+      </c>
+      <c r="P31">
+        <v>374.65</v>
+      </c>
+      <c r="Q31">
+        <v>351.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B32">
+        <v>9235.0480000000007</v>
+      </c>
+      <c r="C32">
+        <v>9188.1200000000008</v>
+      </c>
+      <c r="D32">
+        <v>374.73</v>
+      </c>
+      <c r="E32">
+        <v>5197.83</v>
+      </c>
+      <c r="F32">
+        <v>208.73</v>
+      </c>
+      <c r="G32">
+        <v>122.0001</v>
+      </c>
+      <c r="H32">
+        <v>174.77</v>
+      </c>
+      <c r="I32">
+        <v>106.6537</v>
+      </c>
+      <c r="J32">
+        <v>107.7903</v>
+      </c>
+      <c r="K32">
+        <v>140.90520000000001</v>
+      </c>
+      <c r="L32">
+        <v>849.37</v>
+      </c>
+      <c r="M32">
+        <v>1080.72</v>
+      </c>
+      <c r="N32">
+        <v>299.67790000000002</v>
+      </c>
+      <c r="O32">
+        <v>287.95</v>
+      </c>
+      <c r="P32">
+        <v>374.83</v>
+      </c>
+      <c r="Q32">
+        <v>351.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B33">
+        <v>9244.2160000000003</v>
+      </c>
+      <c r="C33">
+        <v>9211.61</v>
+      </c>
+      <c r="D33">
+        <v>375.21</v>
+      </c>
+      <c r="E33">
+        <v>5178.7700000000004</v>
+      </c>
+      <c r="F33">
+        <v>207.46</v>
+      </c>
+      <c r="G33">
+        <v>121.9141</v>
+      </c>
+      <c r="H33">
+        <v>174.66</v>
+      </c>
+      <c r="I33">
+        <v>106.64060000000001</v>
+      </c>
+      <c r="J33">
+        <v>107.76860000000001</v>
+      </c>
+      <c r="K33">
+        <v>140.89830000000001</v>
+      </c>
+      <c r="L33">
+        <v>849.28</v>
+      </c>
+      <c r="M33">
+        <v>1080.74</v>
+      </c>
+      <c r="N33">
+        <v>299.75360000000001</v>
+      </c>
+      <c r="O33">
+        <v>288.08999999999997</v>
+      </c>
+      <c r="P33">
+        <v>374.76</v>
+      </c>
+      <c r="Q33">
+        <v>351.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B34">
+        <v>9267.4030000000002</v>
+      </c>
+      <c r="C34">
+        <v>9252.32</v>
+      </c>
+      <c r="D34">
+        <v>376.24</v>
+      </c>
+      <c r="E34">
+        <v>5176.72</v>
+      </c>
+      <c r="F34">
+        <v>207.15</v>
+      </c>
+      <c r="G34">
+        <v>121.8926</v>
+      </c>
+      <c r="H34">
+        <v>174.6</v>
+      </c>
+      <c r="I34">
+        <v>106.6262</v>
+      </c>
+      <c r="J34">
+        <v>107.75620000000001</v>
+      </c>
+      <c r="K34">
+        <v>140.89099999999999</v>
+      </c>
+      <c r="L34">
+        <v>848.93</v>
+      </c>
+      <c r="M34">
+        <v>1080.9100000000001</v>
+      </c>
+      <c r="N34">
+        <v>299.77499999999998</v>
+      </c>
+      <c r="O34">
+        <v>288.2</v>
+      </c>
+      <c r="P34">
+        <v>375.09</v>
+      </c>
+      <c r="Q34">
+        <v>351.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B35">
+        <v>9297.1990000000005</v>
+      </c>
+      <c r="C35">
+        <v>9296.31</v>
+      </c>
+      <c r="D35">
+        <v>376.76</v>
+      </c>
+      <c r="E35">
+        <v>5180.6099999999997</v>
+      </c>
+      <c r="F35">
+        <v>206.81</v>
+      </c>
+      <c r="G35">
+        <v>121.90479999999999</v>
+      </c>
+      <c r="H35">
+        <v>174.58</v>
+      </c>
+      <c r="I35">
+        <v>106.6096</v>
+      </c>
+      <c r="J35">
+        <v>107.7424</v>
+      </c>
+      <c r="K35">
+        <v>140.8811</v>
+      </c>
+      <c r="L35">
+        <v>848.53</v>
+      </c>
+      <c r="M35">
+        <v>1081.8399999999999</v>
+      </c>
+      <c r="N35">
+        <v>299.65629999999999</v>
+      </c>
+      <c r="O35">
+        <v>288.24</v>
+      </c>
+      <c r="P35">
+        <v>375.21</v>
+      </c>
+      <c r="Q35">
+        <v>351.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B36">
+        <v>9312.5110000000004</v>
+      </c>
+      <c r="C36">
+        <v>9304.8799999999992</v>
+      </c>
+      <c r="D36">
+        <v>377.43</v>
+      </c>
+      <c r="E36">
+        <v>5241.04</v>
+      </c>
+      <c r="F36">
+        <v>210.95</v>
+      </c>
+      <c r="G36">
+        <v>121.9136</v>
+      </c>
+      <c r="H36">
+        <v>174.64</v>
+      </c>
+      <c r="I36">
+        <v>106.6097</v>
+      </c>
+      <c r="J36">
+        <v>107.7353</v>
+      </c>
+      <c r="K36">
+        <v>140.87960000000001</v>
+      </c>
+      <c r="L36">
+        <v>848.27</v>
+      </c>
+      <c r="M36">
+        <v>1079.97</v>
+      </c>
+      <c r="N36">
+        <v>299.64170000000001</v>
+      </c>
+      <c r="O36">
+        <v>288.27999999999997</v>
+      </c>
+      <c r="P36">
+        <v>375.39</v>
+      </c>
+      <c r="Q36">
+        <v>351.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B37">
+        <v>9337.1810000000005</v>
+      </c>
+      <c r="C37">
+        <v>9244.9</v>
+      </c>
+      <c r="D37">
+        <v>376.82</v>
+      </c>
+      <c r="E37">
+        <v>5251.18</v>
+      </c>
+      <c r="F37">
+        <v>211.53</v>
+      </c>
+      <c r="G37">
+        <v>122.00060000000001</v>
+      </c>
+      <c r="H37">
+        <v>174.64</v>
+      </c>
+      <c r="I37">
+        <v>106.6147</v>
+      </c>
+      <c r="J37">
+        <v>107.7444</v>
+      </c>
+      <c r="K37">
+        <v>140.88399999999999</v>
+      </c>
+      <c r="L37">
+        <v>847.99</v>
+      </c>
+      <c r="M37">
+        <v>1079.9000000000001</v>
+      </c>
+      <c r="N37">
+        <v>299.69200000000001</v>
+      </c>
+      <c r="O37">
+        <v>288.24</v>
+      </c>
+      <c r="P37">
+        <v>375.6</v>
+      </c>
+      <c r="Q37">
+        <v>351.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B38">
+        <v>9271.8289999999997</v>
+      </c>
+      <c r="C38">
+        <v>9231.6</v>
+      </c>
+      <c r="D38">
+        <v>373.97</v>
+      </c>
+      <c r="E38">
+        <v>5241.41</v>
+      </c>
+      <c r="F38">
+        <v>211.56</v>
+      </c>
+      <c r="G38">
+        <v>122.0528</v>
+      </c>
+      <c r="H38">
+        <v>174.48</v>
+      </c>
+      <c r="I38">
+        <v>106.651</v>
+      </c>
+      <c r="J38">
+        <v>107.7576</v>
+      </c>
+      <c r="K38">
+        <v>140.89689999999999</v>
+      </c>
+      <c r="L38">
+        <v>848.75</v>
+      </c>
+      <c r="M38">
+        <v>1081.99</v>
+      </c>
+      <c r="N38">
+        <v>299.55829999999997</v>
+      </c>
+      <c r="O38">
+        <v>286.61</v>
+      </c>
+      <c r="P38">
+        <v>373.18</v>
+      </c>
+      <c r="Q38">
+        <v>350.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B39">
+        <v>9173.93</v>
+      </c>
+      <c r="C39">
+        <v>9216.25</v>
+      </c>
+      <c r="D39">
+        <v>371.84</v>
+      </c>
+      <c r="E39">
+        <v>5248.67</v>
+      </c>
+      <c r="F39">
+        <v>212.53</v>
+      </c>
+      <c r="G39">
+        <v>122.1991</v>
+      </c>
+      <c r="H39">
+        <v>174.06</v>
+      </c>
+      <c r="I39">
+        <v>106.6494</v>
+      </c>
+      <c r="J39">
+        <v>107.7623</v>
+      </c>
+      <c r="K39">
+        <v>140.89169999999999</v>
+      </c>
+      <c r="L39">
+        <v>850.29</v>
+      </c>
+      <c r="M39">
+        <v>1079.1099999999999</v>
+      </c>
+      <c r="N39">
+        <v>298.69400000000002</v>
+      </c>
+      <c r="O39">
+        <v>285.22000000000003</v>
+      </c>
+      <c r="P39">
+        <v>371.16</v>
+      </c>
+      <c r="Q39">
+        <v>351.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B40">
+        <v>9186.07</v>
+      </c>
+      <c r="C40">
+        <v>9073.91</v>
+      </c>
+      <c r="D40">
+        <v>369.31</v>
+      </c>
+      <c r="E40">
+        <v>5264.28</v>
+      </c>
+      <c r="F40">
+        <v>214.46</v>
+      </c>
+      <c r="G40">
+        <v>122.4222</v>
+      </c>
+      <c r="H40">
+        <v>174.39</v>
+      </c>
+      <c r="I40">
+        <v>106.7525</v>
+      </c>
+      <c r="J40">
+        <v>107.9063</v>
+      </c>
+      <c r="K40">
+        <v>140.9641</v>
+      </c>
+      <c r="L40">
+        <v>849.92</v>
+      </c>
+      <c r="M40">
+        <v>1080.74</v>
+      </c>
+      <c r="N40">
+        <v>298.46089999999998</v>
+      </c>
+      <c r="O40">
+        <v>287.3</v>
+      </c>
+      <c r="P40">
+        <v>372.84</v>
+      </c>
+      <c r="Q40">
+        <v>351.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B41">
+        <v>9261.3060000000005</v>
+      </c>
+      <c r="C41">
+        <v>9124.0300000000007</v>
+      </c>
+      <c r="D41">
+        <v>370.71</v>
+      </c>
+      <c r="E41">
+        <v>5268.9</v>
+      </c>
+      <c r="F41">
+        <v>214.7</v>
+      </c>
+      <c r="G41">
+        <v>122.2959</v>
+      </c>
+      <c r="H41">
+        <v>174.48</v>
+      </c>
+      <c r="I41">
+        <v>106.4539</v>
+      </c>
+      <c r="J41">
+        <v>107.54730000000001</v>
+      </c>
+      <c r="K41">
+        <v>140.79249999999999</v>
+      </c>
+      <c r="L41">
+        <v>848.64</v>
+      </c>
+      <c r="M41">
+        <v>1081.3399999999999</v>
+      </c>
+      <c r="N41">
+        <v>298.22179999999997</v>
+      </c>
+      <c r="O41">
+        <v>286.44</v>
+      </c>
+      <c r="P41">
+        <v>373.23</v>
+      </c>
+      <c r="Q41">
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B42">
+        <v>9341.0910000000003</v>
+      </c>
+      <c r="C42">
+        <v>9187.65</v>
+      </c>
+      <c r="D42">
+        <v>374.78</v>
+      </c>
+      <c r="E42">
+        <v>5271.9</v>
+      </c>
+      <c r="F42">
+        <v>214.51</v>
+      </c>
+      <c r="G42">
+        <v>122.39919999999999</v>
+      </c>
+      <c r="H42">
+        <v>174.77</v>
+      </c>
+      <c r="I42">
+        <v>106.32989999999999</v>
+      </c>
+      <c r="J42">
+        <v>107.3193</v>
+      </c>
+      <c r="K42">
+        <v>140.6729</v>
+      </c>
+      <c r="L42">
+        <v>847.25</v>
+      </c>
+      <c r="M42">
+        <v>1080.2</v>
+      </c>
+      <c r="N42">
+        <v>297.19209999999998</v>
+      </c>
+      <c r="O42">
+        <v>285.86</v>
+      </c>
+      <c r="P42">
+        <v>371.89</v>
+      </c>
+      <c r="Q42">
+        <v>351.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B43">
+        <v>9355.11</v>
+      </c>
+      <c r="C43">
+        <v>9191.32</v>
+      </c>
+      <c r="D43">
+        <v>376.92</v>
+      </c>
+      <c r="E43">
+        <v>5249.41</v>
+      </c>
+      <c r="F43">
+        <v>212.55</v>
+      </c>
+      <c r="G43">
+        <v>122.5128</v>
+      </c>
+      <c r="H43">
+        <v>174.7</v>
+      </c>
+      <c r="I43">
+        <v>106.33759999999999</v>
+      </c>
+      <c r="J43">
+        <v>107.31780000000001</v>
+      </c>
+      <c r="K43">
+        <v>140.67490000000001</v>
+      </c>
+      <c r="L43">
+        <v>847.05</v>
+      </c>
+      <c r="M43">
+        <v>1079.43</v>
+      </c>
+      <c r="N43">
+        <v>297.12540000000001</v>
+      </c>
+      <c r="O43">
+        <v>285.94</v>
+      </c>
+      <c r="P43">
+        <v>371.82</v>
+      </c>
+      <c r="Q43">
+        <v>351.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B44">
+        <v>9376</v>
+      </c>
+      <c r="C44">
+        <v>9198.01</v>
+      </c>
+      <c r="D44">
+        <v>377.52</v>
+      </c>
+      <c r="E44">
+        <v>5225.82</v>
+      </c>
+      <c r="F44">
+        <v>210.28</v>
+      </c>
+      <c r="G44">
+        <v>122.4131</v>
+      </c>
+      <c r="H44">
+        <v>174.64</v>
+      </c>
+      <c r="I44">
+        <v>106.30800000000001</v>
+      </c>
+      <c r="J44">
+        <v>107.3013</v>
+      </c>
+      <c r="K44">
+        <v>140.6626</v>
+      </c>
+      <c r="L44">
+        <v>846.75</v>
+      </c>
+      <c r="M44">
+        <v>1078.94</v>
+      </c>
+      <c r="N44">
+        <v>297.07299999999998</v>
+      </c>
+      <c r="O44">
+        <v>285.87</v>
+      </c>
+      <c r="P44">
+        <v>371.83</v>
+      </c>
+      <c r="Q44">
+        <v>351.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B45">
+        <v>9321.7360000000008</v>
+      </c>
+      <c r="C45">
+        <v>9173.24</v>
+      </c>
+      <c r="D45">
+        <v>375.57</v>
+      </c>
+      <c r="E45">
+        <v>5235.6899999999996</v>
+      </c>
+      <c r="F45">
+        <v>211.21</v>
+      </c>
+      <c r="G45">
+        <v>122.4071</v>
+      </c>
+      <c r="H45">
+        <v>174.79</v>
+      </c>
+      <c r="I45">
+        <v>106.3399</v>
+      </c>
+      <c r="J45">
+        <v>107.3327</v>
+      </c>
+      <c r="K45">
+        <v>140.67869999999999</v>
+      </c>
+      <c r="L45">
+        <v>847.47</v>
+      </c>
+      <c r="M45">
+        <v>1076.82</v>
+      </c>
+      <c r="N45">
+        <v>297.27449999999999</v>
+      </c>
+      <c r="O45">
+        <v>286.22000000000003</v>
+      </c>
+      <c r="P45">
+        <v>371.93</v>
+      </c>
+      <c r="Q45">
+        <v>351.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B46">
+        <v>9404.1470000000008</v>
+      </c>
+      <c r="C46">
+        <v>9219.68</v>
+      </c>
+      <c r="D46">
+        <v>378.3</v>
+      </c>
+      <c r="E46">
+        <v>5264.13</v>
+      </c>
+      <c r="F46">
+        <v>212.8</v>
+      </c>
+      <c r="G46">
+        <v>122.36360000000001</v>
+      </c>
+      <c r="H46">
+        <v>174.8</v>
+      </c>
+      <c r="I46">
+        <v>106.2277</v>
+      </c>
+      <c r="J46">
+        <v>107.2456</v>
+      </c>
+      <c r="K46">
+        <v>140.624</v>
+      </c>
+      <c r="L46">
+        <v>846.26</v>
+      </c>
+      <c r="M46">
+        <v>1075.92</v>
+      </c>
+      <c r="N46">
+        <v>297.81349999999998</v>
+      </c>
+      <c r="O46">
+        <v>285.58</v>
+      </c>
+      <c r="P46">
+        <v>371.55</v>
+      </c>
+      <c r="Q46">
+        <v>351.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B47">
+        <v>9445.2440000000006</v>
+      </c>
+      <c r="C47">
+        <v>9236.89</v>
+      </c>
+      <c r="D47">
+        <v>380.14</v>
+      </c>
+      <c r="E47">
+        <v>5279.32</v>
+      </c>
+      <c r="F47">
+        <v>213.42</v>
+      </c>
+      <c r="G47">
+        <v>122.4658</v>
+      </c>
+      <c r="H47">
+        <v>174.79</v>
+      </c>
+      <c r="I47">
+        <v>106.2216</v>
+      </c>
+      <c r="J47">
+        <v>107.2379</v>
+      </c>
+      <c r="K47">
+        <v>140.62049999999999</v>
+      </c>
+      <c r="L47">
+        <v>845.73</v>
+      </c>
+      <c r="M47">
+        <v>1077.8399999999999</v>
+      </c>
+      <c r="N47">
+        <v>297.55549999999999</v>
+      </c>
+      <c r="O47">
+        <v>285.73</v>
+      </c>
+      <c r="P47">
+        <v>371.36</v>
+      </c>
+      <c r="Q47">
+        <v>351.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44439</v>
       </c>
+      <c r="B48">
+        <v>9433.5820000000003</v>
+      </c>
+      <c r="C48">
+        <v>9231.64</v>
+      </c>
+      <c r="D48">
+        <v>380.41</v>
+      </c>
+      <c r="E48">
+        <v>5257.85</v>
+      </c>
+      <c r="F48">
+        <v>211.85</v>
+      </c>
+      <c r="G48">
+        <v>122.5111</v>
+      </c>
+      <c r="H48">
+        <v>174.63</v>
+      </c>
+      <c r="I48">
+        <v>106.2199</v>
+      </c>
+      <c r="J48">
+        <v>107.2413</v>
+      </c>
+      <c r="K48">
+        <v>140.6206</v>
+      </c>
+      <c r="L48">
+        <v>845.82</v>
+      </c>
+      <c r="M48">
+        <v>1077.6400000000001</v>
+      </c>
+      <c r="N48">
+        <v>297.42340000000002</v>
+      </c>
+      <c r="O48">
+        <v>285.82</v>
+      </c>
+      <c r="P48">
+        <v>371.08</v>
+      </c>
+      <c r="Q48">
+        <v>351.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B49">
+        <v>9437.1550000000007</v>
+      </c>
+      <c r="C49">
+        <v>9299.52</v>
+      </c>
+      <c r="D49">
+        <v>381.66</v>
+      </c>
+      <c r="E49">
+        <v>5259.27</v>
+      </c>
+      <c r="F49">
+        <v>211.99</v>
+      </c>
+      <c r="G49">
+        <v>122.40600000000001</v>
+      </c>
+      <c r="H49">
+        <v>174.63</v>
+      </c>
+      <c r="I49">
+        <v>106.1896</v>
+      </c>
+      <c r="J49">
+        <v>107.211</v>
+      </c>
+      <c r="K49">
+        <v>140.6053</v>
+      </c>
+      <c r="L49">
+        <v>845.84</v>
+      </c>
+      <c r="M49">
+        <v>1078.69</v>
+      </c>
+      <c r="N49">
+        <v>297.49720000000002</v>
+      </c>
+      <c r="O49">
+        <v>285.97000000000003</v>
+      </c>
+      <c r="P49">
+        <v>371.57</v>
+      </c>
+      <c r="Q49">
+        <v>351.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B50">
+        <v>9465.4670000000006</v>
+      </c>
+      <c r="C50">
+        <v>9311.5300000000007</v>
+      </c>
+      <c r="D50">
+        <v>382.79</v>
+      </c>
+      <c r="E50">
+        <v>5278.86</v>
+      </c>
+      <c r="F50">
+        <v>213.23</v>
+      </c>
+      <c r="G50">
+        <v>122.5005</v>
+      </c>
+      <c r="H50">
+        <v>174.68</v>
+      </c>
+      <c r="I50">
+        <v>106.1896</v>
+      </c>
+      <c r="J50">
+        <v>107.20480000000001</v>
+      </c>
+      <c r="K50">
+        <v>140.60419999999999</v>
+      </c>
+      <c r="L50">
+        <v>845.44</v>
+      </c>
+      <c r="M50">
+        <v>1078.51</v>
+      </c>
+      <c r="N50">
+        <v>297.30180000000001</v>
+      </c>
+      <c r="O50">
+        <v>286.18</v>
+      </c>
+      <c r="P50">
+        <v>371.84</v>
+      </c>
+      <c r="Q50">
+        <v>351.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B51">
+        <v>9462.5390000000007</v>
+      </c>
+      <c r="C51">
+        <v>9245.25</v>
+      </c>
+      <c r="D51">
+        <v>383.2</v>
+      </c>
+      <c r="E51">
+        <v>5246.75</v>
+      </c>
+      <c r="F51">
+        <v>210.8</v>
+      </c>
+      <c r="G51">
+        <v>122.54810000000001</v>
+      </c>
+      <c r="H51">
+        <v>174.69</v>
+      </c>
+      <c r="I51">
+        <v>106.18980000000001</v>
+      </c>
+      <c r="J51">
+        <v>107.2052</v>
+      </c>
+      <c r="K51">
+        <v>140.6054</v>
+      </c>
+      <c r="L51">
+        <v>845.37</v>
+      </c>
+      <c r="M51">
+        <v>1076.82</v>
+      </c>
+      <c r="N51">
+        <v>297.36880000000002</v>
+      </c>
+      <c r="O51">
+        <v>286.27</v>
+      </c>
+      <c r="P51">
+        <v>372.23</v>
+      </c>
+      <c r="Q51">
+        <v>351.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B52">
+        <v>9462.5390000000007</v>
+      </c>
+      <c r="C52">
+        <v>9342.4</v>
+      </c>
+      <c r="D52">
+        <v>384.13</v>
+      </c>
+      <c r="E52">
+        <v>5246.75</v>
+      </c>
+      <c r="F52">
+        <v>210.8</v>
+      </c>
+      <c r="G52">
+        <v>122.54810000000001</v>
+      </c>
+      <c r="H52">
+        <v>174.69</v>
+      </c>
+      <c r="I52">
+        <v>106.18980000000001</v>
+      </c>
+      <c r="J52">
+        <v>107.2052</v>
+      </c>
+      <c r="K52">
+        <v>140.6054</v>
+      </c>
+      <c r="L52">
+        <v>845.37</v>
+      </c>
+      <c r="M52">
+        <v>1076.82</v>
+      </c>
+      <c r="N52">
+        <v>297.36880000000002</v>
+      </c>
+      <c r="O52">
+        <v>286.27</v>
+      </c>
+      <c r="P52">
+        <v>372.23</v>
+      </c>
+      <c r="Q52">
+        <v>351.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B53">
+        <v>9430.6830000000009</v>
+      </c>
+      <c r="C53">
+        <v>9295.94</v>
+      </c>
+      <c r="D53">
+        <v>383.04</v>
+      </c>
+      <c r="E53">
+        <v>5209.3500000000004</v>
+      </c>
+      <c r="F53">
+        <v>208.68</v>
+      </c>
+      <c r="G53">
+        <v>122.7762</v>
+      </c>
+      <c r="H53">
+        <v>174.67</v>
+      </c>
+      <c r="I53">
+        <v>106.2003</v>
+      </c>
+      <c r="J53">
+        <v>107.21850000000001</v>
+      </c>
+      <c r="K53">
+        <v>140.6112</v>
+      </c>
+      <c r="L53">
+        <v>845.77</v>
+      </c>
+      <c r="M53">
+        <v>1076.58</v>
+      </c>
+      <c r="N53">
+        <v>297.35109999999997</v>
+      </c>
+      <c r="O53">
+        <v>286.47000000000003</v>
+      </c>
+      <c r="P53">
+        <v>372.57</v>
+      </c>
+      <c r="Q53">
+        <v>352.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B54">
+        <v>9418.5720000000001</v>
+      </c>
+      <c r="C54">
+        <v>9190.64</v>
+      </c>
+      <c r="D54">
+        <v>381.36</v>
+      </c>
+      <c r="E54">
+        <v>5233.6099999999997</v>
+      </c>
+      <c r="F54">
+        <v>210.3</v>
+      </c>
+      <c r="G54">
+        <v>122.69759999999999</v>
+      </c>
+      <c r="H54">
+        <v>174.65</v>
+      </c>
+      <c r="I54">
+        <v>106.2291</v>
+      </c>
+      <c r="J54">
+        <v>107.24460000000001</v>
+      </c>
+      <c r="K54">
+        <v>140.6301</v>
+      </c>
+      <c r="L54">
+        <v>846</v>
+      </c>
+      <c r="M54">
+        <v>1078.19</v>
+      </c>
+      <c r="N54">
+        <v>297.3075</v>
+      </c>
+      <c r="O54">
+        <v>286.83</v>
+      </c>
+      <c r="P54">
+        <v>372.76</v>
+      </c>
+      <c r="Q54">
+        <v>352.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B55">
+        <v>9375.99</v>
+      </c>
+      <c r="C55">
+        <v>9190.9</v>
+      </c>
+      <c r="D55">
+        <v>379.75</v>
+      </c>
+      <c r="E55">
+        <v>5287.29</v>
+      </c>
+      <c r="F55">
+        <v>213.64</v>
+      </c>
+      <c r="G55">
+        <v>122.6431</v>
+      </c>
+      <c r="H55">
+        <v>174.52</v>
+      </c>
+      <c r="I55">
+        <v>106.1861</v>
+      </c>
+      <c r="J55">
+        <v>107.2039</v>
+      </c>
+      <c r="K55">
+        <v>140.60329999999999</v>
+      </c>
+      <c r="L55">
+        <v>846.66</v>
+      </c>
+      <c r="M55">
+        <v>1076.55</v>
+      </c>
+      <c r="N55">
+        <v>297.2704</v>
+      </c>
+      <c r="O55">
+        <v>287.19</v>
+      </c>
+      <c r="P55">
+        <v>372.97</v>
+      </c>
+      <c r="Q55">
+        <v>352.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B56">
+        <v>9304.0329999999994</v>
+      </c>
+      <c r="C56">
+        <v>9176.02</v>
+      </c>
+      <c r="D56">
+        <v>378.58</v>
+      </c>
+      <c r="E56">
+        <v>5263.13</v>
+      </c>
+      <c r="F56">
+        <v>211.41</v>
+      </c>
+      <c r="G56">
+        <v>122.6781</v>
+      </c>
+      <c r="H56">
+        <v>174.36</v>
+      </c>
+      <c r="I56">
+        <v>106.239</v>
+      </c>
+      <c r="J56">
+        <v>107.2119</v>
+      </c>
+      <c r="K56">
+        <v>140.6164</v>
+      </c>
+      <c r="L56">
+        <v>847.77</v>
+      </c>
+      <c r="M56">
+        <v>1076.17</v>
+      </c>
+      <c r="N56">
+        <v>297.02199999999999</v>
+      </c>
+      <c r="O56">
+        <v>288.01</v>
+      </c>
+      <c r="P56">
+        <v>371.99</v>
+      </c>
+      <c r="Q56">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B57">
+        <v>9325.2860000000001</v>
+      </c>
+      <c r="C57">
+        <v>9218.2199999999993</v>
+      </c>
+      <c r="D57">
+        <v>378.76</v>
+      </c>
+      <c r="E57">
+        <v>5289.59</v>
+      </c>
+      <c r="F57">
+        <v>213.22</v>
+      </c>
+      <c r="G57">
+        <v>122.5254</v>
+      </c>
+      <c r="H57">
+        <v>174.2</v>
+      </c>
+      <c r="I57">
+        <v>106.2636</v>
+      </c>
+      <c r="J57">
+        <v>107.30840000000001</v>
+      </c>
+      <c r="K57">
+        <v>140.64680000000001</v>
+      </c>
+      <c r="L57">
+        <v>847.38</v>
+      </c>
+      <c r="M57">
+        <v>1077.0999999999999</v>
+      </c>
+      <c r="N57">
+        <v>297.42439999999999</v>
+      </c>
+      <c r="O57">
+        <v>289.2</v>
+      </c>
+      <c r="P57">
+        <v>373.95</v>
+      </c>
+      <c r="Q57">
+        <v>352.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B58">
+        <v>9273.99</v>
+      </c>
+      <c r="C58">
+        <v>9222.93</v>
+      </c>
+      <c r="D58">
+        <v>377.55</v>
+      </c>
+      <c r="E58">
+        <v>5325.83</v>
+      </c>
+      <c r="F58">
+        <v>216.3</v>
+      </c>
+      <c r="G58">
+        <v>122.2713</v>
+      </c>
+      <c r="H58">
+        <v>174.11</v>
+      </c>
+      <c r="I58">
+        <v>106.25530000000001</v>
+      </c>
+      <c r="J58">
+        <v>107.20189999999999</v>
+      </c>
+      <c r="K58">
+        <v>140.61619999999999</v>
+      </c>
+      <c r="L58">
+        <v>848.44</v>
+      </c>
+      <c r="M58">
+        <v>1077.52</v>
+      </c>
+      <c r="N58">
+        <v>297.71789999999999</v>
+      </c>
+      <c r="O58">
+        <v>289.7</v>
+      </c>
+      <c r="P58">
+        <v>374.06</v>
+      </c>
+      <c r="Q58">
+        <v>353.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B59">
+        <v>9352.8310000000001</v>
+      </c>
+      <c r="C59">
+        <v>9122.2999999999993</v>
+      </c>
+      <c r="D59">
+        <v>378.54</v>
+      </c>
+      <c r="E59">
+        <v>5314</v>
+      </c>
+      <c r="F59">
+        <v>215.35</v>
+      </c>
+      <c r="G59">
+        <v>122.20359999999999</v>
+      </c>
+      <c r="H59">
+        <v>174.32</v>
+      </c>
+      <c r="I59">
+        <v>106.1249</v>
+      </c>
+      <c r="J59">
+        <v>107.1724</v>
+      </c>
+      <c r="K59">
+        <v>140.58109999999999</v>
+      </c>
+      <c r="L59">
+        <v>846.79</v>
+      </c>
+      <c r="M59">
+        <v>1077.06</v>
+      </c>
+      <c r="N59">
+        <v>297.79880000000003</v>
+      </c>
+      <c r="O59">
+        <v>289.81</v>
+      </c>
+      <c r="P59">
+        <v>374.31</v>
+      </c>
+      <c r="Q59">
+        <v>352.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B60">
+        <v>9338.6110000000008</v>
+      </c>
+      <c r="C60">
+        <v>9174.9500000000007</v>
+      </c>
+      <c r="D60">
+        <v>377.6</v>
+      </c>
+      <c r="E60">
+        <v>5295.52</v>
+      </c>
+      <c r="F60">
+        <v>214.26</v>
+      </c>
+      <c r="G60">
+        <v>122.1341</v>
+      </c>
+      <c r="H60">
+        <v>174.06</v>
+      </c>
+      <c r="I60">
+        <v>106.10299999999999</v>
+      </c>
+      <c r="J60">
+        <v>107.1229</v>
+      </c>
+      <c r="K60">
+        <v>140.56319999999999</v>
+      </c>
+      <c r="L60">
+        <v>847.02</v>
+      </c>
+      <c r="M60">
+        <v>1075.53</v>
+      </c>
+      <c r="N60">
+        <v>297.57220000000001</v>
+      </c>
+      <c r="O60">
+        <v>290.19</v>
+      </c>
+      <c r="P60">
+        <v>374.67</v>
+      </c>
+      <c r="Q60">
+        <v>352.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B61">
+        <v>9253.5660000000007</v>
+      </c>
+      <c r="C61">
+        <v>9089.08</v>
+      </c>
+      <c r="D61">
+        <v>374.92</v>
+      </c>
+      <c r="E61">
+        <v>5281.46</v>
+      </c>
+      <c r="F61">
+        <v>212.99</v>
+      </c>
+      <c r="G61">
+        <v>122.11620000000001</v>
+      </c>
+      <c r="H61">
+        <v>173.78</v>
+      </c>
+      <c r="I61">
+        <v>106.17440000000001</v>
+      </c>
+      <c r="J61">
+        <v>107.1795</v>
+      </c>
+      <c r="K61">
+        <v>140.6003</v>
+      </c>
+      <c r="L61">
+        <v>848.54</v>
+      </c>
+      <c r="M61">
+        <v>1074.77</v>
+      </c>
+      <c r="N61">
+        <v>297.4939</v>
+      </c>
+      <c r="O61">
+        <v>290.83</v>
+      </c>
+      <c r="P61">
+        <v>375.04</v>
+      </c>
+      <c r="Q61">
+        <v>352.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B62">
+        <v>9096.5239999999994</v>
+      </c>
+      <c r="C62">
+        <v>8899.49</v>
+      </c>
+      <c r="D62">
+        <v>368.82</v>
+      </c>
+      <c r="E62">
+        <v>5313.76</v>
+      </c>
+      <c r="F62">
+        <v>216.46</v>
+      </c>
+      <c r="G62">
+        <v>122.00279999999999</v>
+      </c>
+      <c r="H62">
+        <v>173.5</v>
+      </c>
+      <c r="I62">
+        <v>106.8861</v>
+      </c>
+      <c r="J62">
+        <v>107.8764</v>
+      </c>
+      <c r="K62">
+        <v>140.99260000000001</v>
+      </c>
+      <c r="L62">
+        <v>851.91</v>
+      </c>
+      <c r="M62">
+        <v>1077.8</v>
+      </c>
+      <c r="N62">
+        <v>295.93</v>
+      </c>
+      <c r="O62">
+        <v>289.58</v>
+      </c>
+      <c r="P62">
+        <v>374.76</v>
+      </c>
+      <c r="Q62">
+        <v>352.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B63">
+        <v>9089.5529999999999</v>
+      </c>
+      <c r="C63">
+        <v>9021.9</v>
+      </c>
+      <c r="D63">
+        <v>369.29</v>
+      </c>
+      <c r="E63">
+        <v>5314.54</v>
+      </c>
+      <c r="F63">
+        <v>216.14</v>
+      </c>
+      <c r="G63">
+        <v>121.72880000000001</v>
+      </c>
+      <c r="H63">
+        <v>173.03</v>
+      </c>
+      <c r="I63">
+        <v>105.34180000000001</v>
+      </c>
+      <c r="J63">
+        <v>107.08969999999999</v>
+      </c>
+      <c r="K63">
+        <v>140.08949999999999</v>
+      </c>
+      <c r="L63">
+        <v>852.25</v>
+      </c>
+      <c r="M63">
+        <v>1075.42</v>
+      </c>
+      <c r="N63">
+        <v>296.40660000000003</v>
+      </c>
+      <c r="O63">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="P63">
+        <v>375.11</v>
+      </c>
+      <c r="Q63">
+        <v>352.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B64">
+        <v>9176.0779999999995</v>
+      </c>
+      <c r="C64">
+        <v>9137.9</v>
+      </c>
+      <c r="D64">
+        <v>371.97</v>
+      </c>
+      <c r="E64">
+        <v>5340.93</v>
+      </c>
+      <c r="F64">
+        <v>217.71</v>
+      </c>
+      <c r="G64">
+        <v>121.4667</v>
+      </c>
+      <c r="H64">
+        <v>173.61</v>
+      </c>
+      <c r="I64">
+        <v>104.6574</v>
+      </c>
+      <c r="J64">
+        <v>106.0544</v>
+      </c>
+      <c r="K64">
+        <v>139.4847</v>
+      </c>
+      <c r="L64">
+        <v>850.5</v>
+      </c>
+      <c r="M64">
+        <v>1075.1400000000001</v>
+      </c>
+      <c r="N64">
+        <v>296.15719999999999</v>
+      </c>
+      <c r="O64">
+        <v>289.87</v>
+      </c>
+      <c r="P64">
+        <v>374.88</v>
+      </c>
+      <c r="Q64">
+        <v>351.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B65">
+        <v>9287.7999999999993</v>
+      </c>
+      <c r="C65">
+        <v>9236.3700000000008</v>
+      </c>
+      <c r="D65">
+        <v>375.78</v>
+      </c>
+      <c r="E65">
+        <v>5273.11</v>
+      </c>
+      <c r="F65">
+        <v>211.62</v>
+      </c>
+      <c r="G65">
+        <v>121.502</v>
+      </c>
+      <c r="H65">
+        <v>173.92</v>
+      </c>
+      <c r="I65">
+        <v>104.3601</v>
+      </c>
+      <c r="J65">
+        <v>105.70050000000001</v>
+      </c>
+      <c r="K65">
+        <v>139.3038</v>
+      </c>
+      <c r="L65">
+        <v>848.07</v>
+      </c>
+      <c r="M65">
+        <v>1074.22</v>
+      </c>
+      <c r="N65">
+        <v>295.01179999999999</v>
+      </c>
+      <c r="O65">
+        <v>289.29000000000002</v>
+      </c>
+      <c r="P65">
+        <v>374.43</v>
+      </c>
+      <c r="Q65">
+        <v>351.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B66">
+        <v>9301.4920000000002</v>
+      </c>
+      <c r="C66">
+        <v>9156.2099999999991</v>
+      </c>
+      <c r="D66">
+        <v>375.21</v>
+      </c>
+      <c r="E66">
+        <v>5250.05</v>
+      </c>
+      <c r="F66">
+        <v>209</v>
+      </c>
+      <c r="G66">
+        <v>121.4752</v>
+      </c>
+      <c r="H66">
+        <v>173.85</v>
+      </c>
+      <c r="I66">
+        <v>104.28279999999999</v>
+      </c>
+      <c r="J66">
+        <v>105.63590000000001</v>
+      </c>
+      <c r="K66">
+        <v>139.2663</v>
+      </c>
+      <c r="L66">
+        <v>847.77</v>
+      </c>
+      <c r="M66">
+        <v>1073.4100000000001</v>
+      </c>
+      <c r="N66">
+        <v>294.39729999999997</v>
+      </c>
+      <c r="O66">
+        <v>289.23</v>
+      </c>
+      <c r="P66">
+        <v>374.41</v>
+      </c>
+      <c r="Q66">
+        <v>351.07</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B67">
+        <v>9275.8719999999994</v>
+      </c>
+      <c r="C67">
+        <v>9171.5499999999993</v>
+      </c>
+      <c r="D67">
+        <v>374.45</v>
+      </c>
+      <c r="E67">
+        <v>5240.7299999999996</v>
+      </c>
+      <c r="F67">
+        <v>208.02</v>
+      </c>
+      <c r="G67">
+        <v>121.44929999999999</v>
+      </c>
+      <c r="H67">
+        <v>173.78</v>
+      </c>
+      <c r="I67">
+        <v>104.2817</v>
+      </c>
+      <c r="J67">
+        <v>105.5977</v>
+      </c>
+      <c r="K67">
+        <v>139.25210000000001</v>
+      </c>
+      <c r="L67">
+        <v>848.18</v>
+      </c>
+      <c r="M67">
+        <v>1073.23</v>
+      </c>
+      <c r="N67">
+        <v>294.52429999999998</v>
+      </c>
+      <c r="O67">
+        <v>289.33999999999997</v>
+      </c>
+      <c r="P67">
+        <v>374.6</v>
+      </c>
+      <c r="Q67">
+        <v>351.32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B68">
+        <v>9087.4650000000001</v>
+      </c>
+      <c r="C68">
+        <v>8940.51</v>
+      </c>
+      <c r="D68">
+        <v>367.54</v>
+      </c>
+      <c r="E68">
+        <v>5165.83</v>
+      </c>
+      <c r="F68">
+        <v>203.69</v>
+      </c>
+      <c r="G68">
+        <v>121.5308</v>
+      </c>
+      <c r="H68">
+        <v>172.99</v>
+      </c>
+      <c r="I68">
+        <v>104.4637</v>
+      </c>
+      <c r="J68">
+        <v>105.7804</v>
+      </c>
+      <c r="K68">
+        <v>139.3356</v>
+      </c>
+      <c r="L68">
+        <v>851.98</v>
+      </c>
+      <c r="M68">
+        <v>1078.8599999999999</v>
+      </c>
+      <c r="N68">
+        <v>294.0231</v>
+      </c>
+      <c r="O68">
+        <v>289.08999999999997</v>
+      </c>
+      <c r="P68">
+        <v>372.51</v>
+      </c>
+      <c r="Q68">
+        <v>351.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B69">
+        <v>9102.616</v>
+      </c>
+      <c r="C69">
+        <v>8987.6299999999992</v>
+      </c>
+      <c r="D69">
+        <v>366.97</v>
+      </c>
+      <c r="E69">
+        <v>5172.5600000000004</v>
+      </c>
+      <c r="F69">
+        <v>204.31</v>
+      </c>
+      <c r="G69">
+        <v>121.452</v>
+      </c>
+      <c r="H69">
+        <v>173.25</v>
+      </c>
+      <c r="I69">
+        <v>104.4175</v>
+      </c>
+      <c r="J69">
+        <v>105.6985</v>
+      </c>
+      <c r="K69">
+        <v>139.33670000000001</v>
+      </c>
+      <c r="L69">
+        <v>851.49</v>
+      </c>
+      <c r="M69">
+        <v>1078.8499999999999</v>
+      </c>
+      <c r="N69">
+        <v>293.84739999999999</v>
+      </c>
+      <c r="O69">
+        <v>289.48</v>
+      </c>
+      <c r="P69">
+        <v>373.53</v>
+      </c>
+      <c r="Q69">
+        <v>352.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B70">
+        <v>8994.8279999999995</v>
+      </c>
+      <c r="C70">
+        <v>8916.83</v>
+      </c>
+      <c r="D70">
+        <v>364.7</v>
+      </c>
+      <c r="E70">
+        <v>5158.12</v>
+      </c>
+      <c r="F70">
+        <v>204.13</v>
+      </c>
+      <c r="G70">
+        <v>121.077</v>
+      </c>
+      <c r="H70">
+        <v>172.32</v>
+      </c>
+      <c r="I70">
+        <v>104.44</v>
+      </c>
+      <c r="J70">
+        <v>105.6173</v>
+      </c>
+      <c r="K70">
+        <v>139.3467</v>
+      </c>
+      <c r="L70">
+        <v>854.49</v>
+      </c>
+      <c r="M70">
+        <v>1079.46</v>
+      </c>
+      <c r="N70">
+        <v>293.3125</v>
+      </c>
+      <c r="O70">
+        <v>289.64</v>
+      </c>
+      <c r="P70">
+        <v>373.51</v>
+      </c>
+      <c r="Q70">
+        <v>351.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997370F-9A70-4CFD-8BA1-9E8D19D4CBB2}">
+  <dimension ref="A1:Q100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Q75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>_xll.BFieldInfo(B$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xll.BFieldInfo(C$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xll.BFieldInfo(D$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xll.BFieldInfo(E$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.BFieldInfo(F$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.BFieldInfo(G$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xll.BFieldInfo(H$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xll.BFieldInfo(I$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xll.BFieldInfo(J$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="K5" t="str">
+        <f>_xll.BFieldInfo(K$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xll.BFieldInfo(L$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xll.BFieldInfo(M$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xll.BFieldInfo(N$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xll.BFieldInfo(O$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xll.BFieldInfo(P$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>_xll.BFieldInfo(Q$6)</f>
+        <v>Last Price</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=69")</f>
+        <v>44375</v>
+      </c>
+      <c r="B7">
+        <v>8927.4009999999998</v>
+      </c>
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>8986.83</v>
+      </c>
+      <c r="D7">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>369.56</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>5141.03</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>201.1</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>120.7411</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>174.18</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>109.22329999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>110.0395</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>142.0849</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>855.09</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>1098.97</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>297.2448</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>292.56</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>377.21</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=69")</f>
+        <v>354.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B8">
+        <v>8930.6659999999993</v>
+      </c>
+      <c r="C8">
+        <v>9025.51</v>
+      </c>
+      <c r="D8">
+        <v>369.41</v>
+      </c>
+      <c r="E8">
+        <v>5150.9799999999996</v>
+      </c>
+      <c r="F8">
+        <v>201.57</v>
+      </c>
+      <c r="G8">
+        <v>120.8948</v>
+      </c>
+      <c r="H8">
+        <v>174.27</v>
+      </c>
+      <c r="I8">
+        <v>109.2261</v>
+      </c>
+      <c r="J8">
+        <v>110.0406</v>
+      </c>
+      <c r="K8">
+        <v>142.0865</v>
+      </c>
+      <c r="L8">
+        <v>854.97</v>
+      </c>
+      <c r="M8">
+        <v>1097.0999999999999</v>
+      </c>
+      <c r="N8">
+        <v>297.42020000000002</v>
+      </c>
+      <c r="O8">
+        <v>292.8</v>
+      </c>
+      <c r="P8">
+        <v>377.37</v>
+      </c>
+      <c r="Q8">
+        <v>354.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B9">
+        <v>8942.777</v>
+      </c>
+      <c r="C9">
+        <v>8930.5499999999993</v>
+      </c>
+      <c r="D9">
+        <v>368.58</v>
+      </c>
+      <c r="E9">
+        <v>5164.47</v>
+      </c>
+      <c r="F9">
+        <v>202.74</v>
+      </c>
+      <c r="G9">
+        <v>120.9892</v>
+      </c>
+      <c r="H9">
+        <v>174.23</v>
+      </c>
+      <c r="I9">
+        <v>109.2259</v>
+      </c>
+      <c r="J9">
+        <v>110.04510000000001</v>
+      </c>
+      <c r="K9">
+        <v>142.08519999999999</v>
+      </c>
+      <c r="L9">
+        <v>854.8</v>
+      </c>
+      <c r="M9">
+        <v>1097.47</v>
+      </c>
+      <c r="N9">
+        <v>297.43029999999999</v>
+      </c>
+      <c r="O9">
+        <v>292.83999999999997</v>
+      </c>
+      <c r="P9">
+        <v>377.74</v>
+      </c>
+      <c r="Q9">
+        <v>354.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B10">
+        <v>8990.08</v>
+      </c>
+      <c r="C10">
+        <v>8962.6200000000008</v>
+      </c>
+      <c r="D10">
+        <v>369.55</v>
+      </c>
+      <c r="E10">
+        <v>5160.03</v>
+      </c>
+      <c r="F10">
+        <v>202.84</v>
+      </c>
+      <c r="G10">
+        <v>121.1039</v>
+      </c>
+      <c r="H10">
+        <v>174.36</v>
+      </c>
+      <c r="I10">
+        <v>109.21429999999999</v>
+      </c>
+      <c r="J10">
+        <v>110.0284</v>
+      </c>
+      <c r="K10">
+        <v>142.08150000000001</v>
+      </c>
+      <c r="L10">
+        <v>854.19</v>
+      </c>
+      <c r="M10">
+        <v>1095.31</v>
+      </c>
+      <c r="N10">
+        <v>297.3802</v>
+      </c>
+      <c r="O10">
+        <v>292.75</v>
+      </c>
+      <c r="P10">
+        <v>377.62</v>
+      </c>
+      <c r="Q10">
+        <v>354.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B11">
+        <v>9058.6589999999997</v>
+      </c>
+      <c r="C11">
+        <v>8974.52</v>
+      </c>
+      <c r="D11">
+        <v>371.03</v>
+      </c>
+      <c r="E11">
+        <v>5178.08</v>
+      </c>
+      <c r="F11">
+        <v>204.05</v>
+      </c>
+      <c r="G11">
+        <v>121.334</v>
+      </c>
+      <c r="H11">
+        <v>174.47</v>
+      </c>
+      <c r="I11">
+        <v>109.20610000000001</v>
+      </c>
+      <c r="J11">
+        <v>110.0094</v>
+      </c>
+      <c r="K11">
+        <v>142.07339999999999</v>
+      </c>
+      <c r="L11">
+        <v>853.25</v>
+      </c>
+      <c r="M11">
+        <v>1094.55</v>
+      </c>
+      <c r="N11">
+        <v>297.51319999999998</v>
+      </c>
+      <c r="O11">
+        <v>292.54000000000002</v>
+      </c>
+      <c r="P11">
+        <v>377.47</v>
+      </c>
+      <c r="Q11">
+        <v>354.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B12">
+        <v>9058.6589999999997</v>
+      </c>
+      <c r="C12">
+        <v>8981.25</v>
+      </c>
+      <c r="D12">
+        <v>371.42</v>
+      </c>
+      <c r="E12">
+        <v>5178.08</v>
+      </c>
+      <c r="F12">
+        <v>204.05</v>
+      </c>
+      <c r="G12">
+        <v>121.334</v>
+      </c>
+      <c r="H12">
+        <v>174.47</v>
+      </c>
+      <c r="I12">
+        <v>109.20610000000001</v>
+      </c>
+      <c r="J12">
+        <v>110.0094</v>
+      </c>
+      <c r="K12">
+        <v>142.07339999999999</v>
+      </c>
+      <c r="L12">
+        <v>853.25</v>
+      </c>
+      <c r="M12">
+        <v>1094.55</v>
+      </c>
+      <c r="N12">
+        <v>297.51319999999998</v>
+      </c>
+      <c r="O12">
+        <v>292.54000000000002</v>
+      </c>
+      <c r="P12">
+        <v>377.47</v>
+      </c>
+      <c r="Q12">
+        <v>354.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B13">
+        <v>9040.76</v>
+      </c>
+      <c r="C13">
+        <v>8904.99</v>
+      </c>
+      <c r="D13">
+        <v>370.4</v>
+      </c>
+      <c r="E13">
+        <v>5222.46</v>
+      </c>
+      <c r="F13">
+        <v>207.35</v>
+      </c>
+      <c r="G13">
+        <v>121.3252</v>
+      </c>
+      <c r="H13">
+        <v>174.49</v>
+      </c>
+      <c r="I13">
+        <v>109.2196</v>
+      </c>
+      <c r="J13">
+        <v>110.0228</v>
+      </c>
+      <c r="K13">
+        <v>142.08099999999999</v>
+      </c>
+      <c r="L13">
+        <v>853.5</v>
+      </c>
+      <c r="M13">
+        <v>1098.2</v>
+      </c>
+      <c r="N13">
+        <v>297.81130000000002</v>
+      </c>
+      <c r="O13">
+        <v>292.83</v>
+      </c>
+      <c r="P13">
+        <v>377.72</v>
+      </c>
+      <c r="Q13">
+        <v>354.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B14">
+        <v>9071.143</v>
+      </c>
+      <c r="C14">
+        <v>8962.43</v>
+      </c>
+      <c r="D14">
+        <v>370.98</v>
+      </c>
+      <c r="E14">
+        <v>5246.12</v>
+      </c>
+      <c r="F14">
+        <v>209.81</v>
+      </c>
+      <c r="G14">
+        <v>121.5112</v>
+      </c>
+      <c r="H14">
+        <v>174.62</v>
+      </c>
+      <c r="I14">
+        <v>109.20189999999999</v>
+      </c>
+      <c r="J14">
+        <v>110.0258</v>
+      </c>
+      <c r="K14">
+        <v>142.0788</v>
+      </c>
+      <c r="L14">
+        <v>853.22</v>
+      </c>
+      <c r="M14">
+        <v>1099.0899999999999</v>
+      </c>
+      <c r="N14">
+        <v>297.92750000000001</v>
+      </c>
+      <c r="O14">
+        <v>293.05</v>
+      </c>
+      <c r="P14">
+        <v>377.82</v>
+      </c>
+      <c r="Q14">
+        <v>354.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B15">
+        <v>8995.2620000000006</v>
+      </c>
+      <c r="C15">
+        <v>8775.07</v>
+      </c>
+      <c r="D15">
+        <v>367.26</v>
+      </c>
+      <c r="E15">
+        <v>5248.9</v>
+      </c>
+      <c r="F15">
+        <v>210.75</v>
+      </c>
+      <c r="G15">
+        <v>121.56910000000001</v>
+      </c>
+      <c r="H15">
+        <v>174.71</v>
+      </c>
+      <c r="I15">
+        <v>109.29179999999999</v>
+      </c>
+      <c r="J15">
+        <v>110.14190000000001</v>
+      </c>
+      <c r="K15">
+        <v>142.12870000000001</v>
+      </c>
+      <c r="L15">
+        <v>853.98</v>
+      </c>
+      <c r="M15">
+        <v>1097.22</v>
+      </c>
+      <c r="N15">
+        <v>298.19889999999998</v>
+      </c>
+      <c r="O15">
+        <v>290.8</v>
+      </c>
+      <c r="P15">
+        <v>375.32</v>
+      </c>
+      <c r="Q15">
+        <v>351.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B16">
+        <v>9096.84</v>
+      </c>
+      <c r="C16">
+        <v>8943.1</v>
+      </c>
+      <c r="D16">
+        <v>370.62</v>
+      </c>
+      <c r="E16">
+        <v>5201.1499999999996</v>
+      </c>
+      <c r="F16">
+        <v>207.08</v>
+      </c>
+      <c r="G16">
+        <v>121.6472</v>
+      </c>
+      <c r="H16">
+        <v>174.57</v>
+      </c>
+      <c r="I16">
+        <v>108.9676</v>
+      </c>
+      <c r="J16">
+        <v>109.7953</v>
+      </c>
+      <c r="K16">
+        <v>141.958</v>
+      </c>
+      <c r="L16">
+        <v>852.4</v>
+      </c>
+      <c r="M16">
+        <v>1096.52</v>
+      </c>
+      <c r="N16">
+        <v>299.45920000000001</v>
+      </c>
+      <c r="O16">
+        <v>289.20999999999998</v>
+      </c>
+      <c r="P16">
+        <v>374.32</v>
+      </c>
+      <c r="Q16">
+        <v>351.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B17">
+        <v>9128.223</v>
+      </c>
+      <c r="C17">
+        <v>8998.68</v>
+      </c>
+      <c r="D17">
+        <v>372.53</v>
+      </c>
+      <c r="E17">
+        <v>5203.04</v>
+      </c>
+      <c r="F17">
+        <v>206.69</v>
+      </c>
+      <c r="G17">
+        <v>121.7436</v>
+      </c>
+      <c r="H17">
+        <v>174.53</v>
+      </c>
+      <c r="I17">
+        <v>108.9526</v>
+      </c>
+      <c r="J17">
+        <v>109.7688</v>
+      </c>
+      <c r="K17">
+        <v>141.9452</v>
+      </c>
+      <c r="L17">
+        <v>852.06</v>
+      </c>
+      <c r="M17">
+        <v>1094.2</v>
+      </c>
+      <c r="N17">
+        <v>299.16849999999999</v>
+      </c>
+      <c r="O17">
+        <v>289.26</v>
+      </c>
+      <c r="P17">
+        <v>374.44</v>
+      </c>
+      <c r="Q17">
+        <v>352.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B18">
+        <v>9096.1479999999992</v>
+      </c>
+      <c r="C18">
+        <v>9001.2900000000009</v>
+      </c>
+      <c r="D18">
+        <v>372.02</v>
+      </c>
+      <c r="E18">
+        <v>5171.6400000000003</v>
+      </c>
+      <c r="F18">
+        <v>204.58</v>
+      </c>
+      <c r="G18">
+        <v>121.8312</v>
+      </c>
+      <c r="H18">
+        <v>174.47</v>
+      </c>
+      <c r="I18">
+        <v>108.9524</v>
+      </c>
+      <c r="J18">
+        <v>109.7573</v>
+      </c>
+      <c r="K18">
+        <v>141.94380000000001</v>
+      </c>
+      <c r="L18">
+        <v>852.49</v>
+      </c>
+      <c r="M18">
+        <v>1091.95</v>
+      </c>
+      <c r="N18">
+        <v>299.12619999999998</v>
+      </c>
+      <c r="O18">
+        <v>289.33999999999997</v>
+      </c>
+      <c r="P18">
+        <v>374.27</v>
+      </c>
+      <c r="Q18">
+        <v>352.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B19">
+        <v>9107.848</v>
+      </c>
+      <c r="C19">
+        <v>9012.14</v>
+      </c>
+      <c r="D19">
+        <v>371.93</v>
+      </c>
+      <c r="E19">
+        <v>5217.57</v>
+      </c>
+      <c r="F19">
+        <v>207.68</v>
+      </c>
+      <c r="G19">
+        <v>121.86499999999999</v>
+      </c>
+      <c r="H19">
+        <v>174.46</v>
+      </c>
+      <c r="I19">
+        <v>108.94110000000001</v>
+      </c>
+      <c r="J19">
+        <v>109.7497</v>
+      </c>
+      <c r="K19">
+        <v>141.94300000000001</v>
+      </c>
+      <c r="L19">
+        <v>852.36</v>
+      </c>
+      <c r="M19">
+        <v>1093.02</v>
+      </c>
+      <c r="N19">
+        <v>299.25040000000001</v>
+      </c>
+      <c r="O19">
+        <v>289.44</v>
+      </c>
+      <c r="P19">
+        <v>374.51</v>
+      </c>
+      <c r="Q19">
+        <v>352.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B20">
+        <v>9078.3279999999995</v>
+      </c>
+      <c r="C20">
+        <v>8917.3799999999992</v>
+      </c>
+      <c r="D20">
+        <v>370.7</v>
+      </c>
+      <c r="E20">
+        <v>5248.4</v>
+      </c>
+      <c r="F20">
+        <v>210.57</v>
+      </c>
+      <c r="G20">
+        <v>121.7208</v>
+      </c>
+      <c r="H20">
+        <v>174.36</v>
+      </c>
+      <c r="I20">
+        <v>108.9521</v>
+      </c>
+      <c r="J20">
+        <v>109.7791</v>
+      </c>
+      <c r="K20">
+        <v>141.95140000000001</v>
+      </c>
+      <c r="L20">
+        <v>852.77</v>
+      </c>
+      <c r="M20">
+        <v>1093.27</v>
+      </c>
+      <c r="N20">
+        <v>299.3707</v>
+      </c>
+      <c r="O20">
+        <v>289.55</v>
+      </c>
+      <c r="P20">
+        <v>374.64</v>
+      </c>
+      <c r="Q20">
+        <v>352.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B21">
+        <v>9009.89</v>
+      </c>
+      <c r="C21">
+        <v>8872.0300000000007</v>
+      </c>
+      <c r="D21">
+        <v>368.4</v>
+      </c>
+      <c r="E21">
+        <v>5236.17</v>
+      </c>
+      <c r="F21">
+        <v>210.02</v>
+      </c>
+      <c r="G21">
+        <v>121.6682</v>
+      </c>
+      <c r="H21">
+        <v>174.31</v>
+      </c>
+      <c r="I21">
+        <v>108.9781</v>
+      </c>
+      <c r="J21">
+        <v>109.7627</v>
+      </c>
+      <c r="K21">
+        <v>141.9495</v>
+      </c>
+      <c r="L21">
+        <v>853.83</v>
+      </c>
+      <c r="M21">
+        <v>1091.78</v>
+      </c>
+      <c r="N21">
+        <v>299.1386</v>
+      </c>
+      <c r="O21">
+        <v>289.81</v>
+      </c>
+      <c r="P21">
+        <v>374.83</v>
+      </c>
+      <c r="Q21">
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B22">
+        <v>8867.0660000000007</v>
+      </c>
+      <c r="C22">
+        <v>8639.3700000000008</v>
+      </c>
+      <c r="D22">
+        <v>362.4</v>
+      </c>
+      <c r="E22">
+        <v>5293.23</v>
+      </c>
+      <c r="F22">
+        <v>215.88</v>
+      </c>
+      <c r="G22">
+        <v>121.7071</v>
+      </c>
+      <c r="H22">
+        <v>174.31</v>
+      </c>
+      <c r="I22">
+        <v>109.3998</v>
+      </c>
+      <c r="J22">
+        <v>110.0902</v>
+      </c>
+      <c r="K22">
+        <v>142.1292</v>
+      </c>
+      <c r="L22">
+        <v>856</v>
+      </c>
+      <c r="M22">
+        <v>1092.3699999999999</v>
+      </c>
+      <c r="N22">
+        <v>297.53089999999997</v>
+      </c>
+      <c r="O22">
+        <v>288.3</v>
+      </c>
+      <c r="P22">
+        <v>374.91</v>
+      </c>
+      <c r="Q22">
+        <v>352.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B23">
+        <v>9001.7710000000006</v>
+      </c>
+      <c r="C23">
+        <v>8700.52</v>
+      </c>
+      <c r="D23">
+        <v>365.41</v>
+      </c>
+      <c r="E23">
+        <v>5264.94</v>
+      </c>
+      <c r="F23">
+        <v>213.11</v>
+      </c>
+      <c r="G23">
+        <v>121.92</v>
+      </c>
+      <c r="H23">
+        <v>174.53</v>
+      </c>
+      <c r="I23">
+        <v>107.37739999999999</v>
+      </c>
+      <c r="J23">
+        <v>108.85720000000001</v>
+      </c>
+      <c r="K23">
+        <v>141.37950000000001</v>
+      </c>
+      <c r="L23">
+        <v>853.03</v>
+      </c>
+      <c r="M23">
+        <v>1090.3900000000001</v>
+      </c>
+      <c r="N23">
+        <v>300.7038</v>
+      </c>
+      <c r="O23">
+        <v>288.37</v>
+      </c>
+      <c r="P23">
+        <v>374.76</v>
+      </c>
+      <c r="Q23">
+        <v>351.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B24">
+        <v>9075.9750000000004</v>
+      </c>
+      <c r="C24">
+        <v>8855.2199999999993</v>
+      </c>
+      <c r="D24">
+        <v>368.74</v>
+      </c>
+      <c r="E24">
+        <v>5234.5600000000004</v>
+      </c>
+      <c r="F24">
+        <v>209.8</v>
+      </c>
+      <c r="G24">
+        <v>121.92010000000001</v>
+      </c>
+      <c r="H24">
+        <v>174.54</v>
+      </c>
+      <c r="I24">
+        <v>107.0018</v>
+      </c>
+      <c r="J24">
+        <v>108.2407</v>
+      </c>
+      <c r="K24">
+        <v>141.1148</v>
+      </c>
+      <c r="L24">
+        <v>851.86</v>
+      </c>
+      <c r="M24">
+        <v>1090.4000000000001</v>
+      </c>
+      <c r="N24">
+        <v>299.01119999999997</v>
+      </c>
+      <c r="O24">
+        <v>288.35000000000002</v>
+      </c>
+      <c r="P24">
+        <v>374.79</v>
+      </c>
+      <c r="Q24">
+        <v>351.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44399</v>
+      </c>
       <c r="B25">
+        <v>9094.9539999999997</v>
+      </c>
+      <c r="C25">
+        <v>8926.39</v>
+      </c>
+      <c r="D25">
+        <v>370.31</v>
+      </c>
+      <c r="E25">
+        <v>5269.58</v>
+      </c>
+      <c r="F25">
+        <v>212.25</v>
+      </c>
+      <c r="G25">
+        <v>121.90470000000001</v>
+      </c>
+      <c r="H25">
+        <v>174.65</v>
+      </c>
+      <c r="I25">
+        <v>107.0185</v>
+      </c>
+      <c r="J25">
+        <v>108.18989999999999</v>
+      </c>
+      <c r="K25">
+        <v>141.0932</v>
+      </c>
+      <c r="L25">
+        <v>851.6</v>
+      </c>
+      <c r="M25">
+        <v>1090.6400000000001</v>
+      </c>
+      <c r="N25">
+        <v>298.93259999999998</v>
+      </c>
+      <c r="O25">
+        <v>288.44</v>
+      </c>
+      <c r="P25">
+        <v>374.82</v>
+      </c>
+      <c r="Q25">
+        <v>351.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B26">
+        <v>9187.6350000000002</v>
+      </c>
+      <c r="C26">
+        <v>9038.4599999999991</v>
+      </c>
+      <c r="D26">
+        <v>372.55</v>
+      </c>
+      <c r="E26">
+        <v>5253.19</v>
+      </c>
+      <c r="F26">
+        <v>210.45</v>
+      </c>
+      <c r="G26">
+        <v>122.1751</v>
+      </c>
+      <c r="H26">
+        <v>174.86</v>
+      </c>
+      <c r="I26">
+        <v>106.9872</v>
+      </c>
+      <c r="J26">
+        <v>108.1871</v>
+      </c>
+      <c r="K26">
+        <v>141.08680000000001</v>
+      </c>
+      <c r="L26">
+        <v>850.28</v>
+      </c>
+      <c r="M26">
+        <v>1090.54</v>
+      </c>
+      <c r="N26">
+        <v>299.577</v>
+      </c>
+      <c r="O26">
+        <v>287.87</v>
+      </c>
+      <c r="P26">
+        <v>374.46</v>
+      </c>
+      <c r="Q26">
+        <v>350.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B27">
+        <v>9209.6319999999996</v>
+      </c>
+      <c r="C27">
+        <v>9024.1299999999992</v>
+      </c>
+      <c r="D27">
+        <v>372.33</v>
+      </c>
+      <c r="E27">
+        <v>5245.51</v>
+      </c>
+      <c r="F27">
+        <v>209.66</v>
+      </c>
+      <c r="G27">
+        <v>122.29989999999999</v>
+      </c>
+      <c r="H27">
+        <v>174.9</v>
+      </c>
+      <c r="I27">
+        <v>107.0051</v>
+      </c>
+      <c r="J27">
+        <v>108.232</v>
+      </c>
+      <c r="K27">
+        <v>141.09710000000001</v>
+      </c>
+      <c r="L27">
+        <v>850.06</v>
+      </c>
+      <c r="M27">
+        <v>1090.2</v>
+      </c>
+      <c r="N27">
+        <v>299.5634</v>
+      </c>
+      <c r="O27">
+        <v>287.85000000000002</v>
+      </c>
+      <c r="P27">
+        <v>374.48</v>
+      </c>
+      <c r="Q27">
+        <v>350.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B28">
+        <v>9166.2669999999998</v>
+      </c>
+      <c r="C28">
+        <v>8941.07</v>
+      </c>
+      <c r="D28">
+        <v>370.15</v>
+      </c>
+      <c r="E28">
+        <v>5278.83</v>
+      </c>
+      <c r="F28">
+        <v>212.44</v>
+      </c>
+      <c r="G28">
+        <v>122.3832</v>
+      </c>
+      <c r="H28">
+        <v>175.03</v>
+      </c>
+      <c r="I28">
+        <v>107.13249999999999</v>
+      </c>
+      <c r="J28">
+        <v>108.3355</v>
+      </c>
+      <c r="K28">
+        <v>141.1729</v>
+      </c>
+      <c r="L28">
+        <v>850.52</v>
+      </c>
+      <c r="M28">
+        <v>1090.3800000000001</v>
+      </c>
+      <c r="N28">
+        <v>299.63479999999998</v>
+      </c>
+      <c r="O28">
+        <v>287.42</v>
+      </c>
+      <c r="P28">
+        <v>373.1</v>
+      </c>
+      <c r="Q28">
+        <v>350.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B29">
+        <v>9164.6200000000008</v>
+      </c>
+      <c r="C29">
+        <v>9025.1</v>
+      </c>
+      <c r="D29">
+        <v>370.77</v>
+      </c>
+      <c r="E29">
+        <v>5288.62</v>
+      </c>
+      <c r="F29">
+        <v>212.48</v>
+      </c>
+      <c r="G29">
+        <v>122.17619999999999</v>
+      </c>
+      <c r="H29">
+        <v>174.84</v>
+      </c>
+      <c r="I29">
+        <v>106.9051</v>
+      </c>
+      <c r="J29">
+        <v>108.1302</v>
+      </c>
+      <c r="K29">
+        <v>141.0384</v>
+      </c>
+      <c r="L29">
+        <v>850.55</v>
+      </c>
+      <c r="M29">
+        <v>1085.1500000000001</v>
+      </c>
+      <c r="N29">
+        <v>299.73050000000001</v>
+      </c>
+      <c r="O29">
+        <v>287.57</v>
+      </c>
+      <c r="P29">
+        <v>373.69</v>
+      </c>
+      <c r="Q29">
+        <v>350.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B30">
+        <v>9204.2479999999996</v>
+      </c>
+      <c r="C30">
+        <v>9055.33</v>
+      </c>
+      <c r="D30">
+        <v>373.9</v>
+      </c>
+      <c r="E30">
+        <v>5269.05</v>
+      </c>
+      <c r="F30">
+        <v>210.97</v>
+      </c>
+      <c r="G30">
+        <v>122.1198</v>
+      </c>
+      <c r="H30">
+        <v>174.93</v>
+      </c>
+      <c r="I30">
+        <v>106.8064</v>
+      </c>
+      <c r="J30">
+        <v>107.95399999999999</v>
+      </c>
+      <c r="K30">
+        <v>140.97890000000001</v>
+      </c>
+      <c r="L30">
+        <v>849.99</v>
+      </c>
+      <c r="M30">
+        <v>1081.72</v>
+      </c>
+      <c r="N30">
+        <v>299.56900000000002</v>
+      </c>
+      <c r="O30">
+        <v>287.52</v>
+      </c>
+      <c r="P30">
+        <v>373.88</v>
+      </c>
+      <c r="Q30">
+        <v>350.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B31">
+        <v>9155.2119999999995</v>
+      </c>
+      <c r="C31">
+        <v>8994.89</v>
+      </c>
+      <c r="D31">
+        <v>371.12</v>
+      </c>
+      <c r="E31">
+        <v>5283</v>
+      </c>
+      <c r="F31">
+        <v>212.22</v>
+      </c>
+      <c r="G31">
+        <v>122.0702</v>
+      </c>
+      <c r="H31">
+        <v>174.94</v>
+      </c>
+      <c r="I31">
+        <v>106.8415</v>
+      </c>
+      <c r="J31">
+        <v>107.986</v>
+      </c>
+      <c r="K31">
+        <v>140.99780000000001</v>
+      </c>
+      <c r="L31">
+        <v>850.64</v>
+      </c>
+      <c r="M31">
+        <v>1083.73</v>
+      </c>
+      <c r="N31">
+        <v>299.74040000000002</v>
+      </c>
+      <c r="O31">
+        <v>287.64</v>
+      </c>
+      <c r="P31">
+        <v>374.08</v>
+      </c>
+      <c r="Q31">
+        <v>350.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B32">
+        <v>9138.36</v>
+      </c>
+      <c r="C32">
+        <v>9055</v>
+      </c>
+      <c r="D32">
+        <v>372.5</v>
+      </c>
+      <c r="E32">
+        <v>5310.07</v>
+      </c>
+      <c r="F32">
+        <v>214.63</v>
+      </c>
+      <c r="G32">
+        <v>122.1418</v>
+      </c>
+      <c r="H32">
+        <v>175.27</v>
+      </c>
+      <c r="I32">
+        <v>106.9408</v>
+      </c>
+      <c r="J32">
+        <v>108.0218</v>
+      </c>
+      <c r="K32">
+        <v>141.02000000000001</v>
+      </c>
+      <c r="L32">
+        <v>850.9</v>
+      </c>
+      <c r="M32">
+        <v>1080.51</v>
+      </c>
+      <c r="N32">
+        <v>299.4187</v>
+      </c>
+      <c r="O32">
+        <v>287.83</v>
+      </c>
+      <c r="P32">
+        <v>374.44</v>
+      </c>
+      <c r="Q32">
+        <v>351.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B33">
+        <v>9213.348</v>
+      </c>
+      <c r="C33">
+        <v>9057.91</v>
+      </c>
+      <c r="D33">
+        <v>374.17</v>
+      </c>
+      <c r="E33">
+        <v>5309.63</v>
+      </c>
+      <c r="F33">
+        <v>214.76</v>
+      </c>
+      <c r="G33">
+        <v>122.11150000000001</v>
+      </c>
+      <c r="H33">
+        <v>175.09</v>
+      </c>
+      <c r="I33">
+        <v>106.7859</v>
+      </c>
+      <c r="J33">
+        <v>108.02249999999999</v>
+      </c>
+      <c r="K33">
+        <v>141.0001</v>
+      </c>
+      <c r="L33">
+        <v>849.8</v>
+      </c>
+      <c r="M33">
+        <v>1083.5</v>
+      </c>
+      <c r="N33">
+        <v>299.7595</v>
+      </c>
+      <c r="O33">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="P33">
+        <v>374.52</v>
+      </c>
+      <c r="Q33">
+        <v>350.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B34">
+        <v>9170.7610000000004</v>
+      </c>
+      <c r="C34">
+        <v>9117.2000000000007</v>
+      </c>
+      <c r="D34">
+        <v>373.81</v>
+      </c>
+      <c r="E34">
+        <v>5314.86</v>
+      </c>
+      <c r="F34">
+        <v>215.45</v>
+      </c>
+      <c r="G34">
+        <v>121.96720000000001</v>
+      </c>
+      <c r="H34">
+        <v>174.92</v>
+      </c>
+      <c r="I34">
+        <v>106.7578</v>
+      </c>
+      <c r="J34">
+        <v>107.889</v>
+      </c>
+      <c r="K34">
+        <v>140.96289999999999</v>
+      </c>
+      <c r="L34">
+        <v>850.39</v>
+      </c>
+      <c r="M34">
+        <v>1084.5899999999999</v>
+      </c>
+      <c r="N34">
+        <v>299.96969999999999</v>
+      </c>
+      <c r="O34">
+        <v>287.86</v>
+      </c>
+      <c r="P34">
+        <v>374.48</v>
+      </c>
+      <c r="Q34">
+        <v>351.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B35">
+        <v>9226.4879999999994</v>
+      </c>
+      <c r="C35">
+        <v>9152.7999999999993</v>
+      </c>
+      <c r="D35">
+        <v>375.45</v>
+      </c>
+      <c r="E35">
+        <v>5289.94</v>
+      </c>
+      <c r="F35">
+        <v>214.14</v>
+      </c>
+      <c r="G35">
+        <v>121.9768</v>
+      </c>
+      <c r="H35">
+        <v>174.86</v>
+      </c>
+      <c r="I35">
+        <v>106.7118</v>
+      </c>
+      <c r="J35">
+        <v>107.83929999999999</v>
+      </c>
+      <c r="K35">
+        <v>140.93109999999999</v>
+      </c>
+      <c r="L35">
+        <v>849.6</v>
+      </c>
+      <c r="M35">
+        <v>1083.07</v>
+      </c>
+      <c r="N35">
+        <v>299.85149999999999</v>
+      </c>
+      <c r="O35">
+        <v>287.82</v>
+      </c>
+      <c r="P35">
+        <v>374.52</v>
+      </c>
+      <c r="Q35">
+        <v>350.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B36">
+        <v>9243.027</v>
+      </c>
+      <c r="C36">
+        <v>9182.4</v>
+      </c>
+      <c r="D36">
+        <v>374.77</v>
+      </c>
+      <c r="E36">
+        <v>5220.8100000000004</v>
+      </c>
+      <c r="F36">
+        <v>209.58</v>
+      </c>
+      <c r="G36">
+        <v>121.8686</v>
+      </c>
+      <c r="H36">
+        <v>174.77</v>
+      </c>
+      <c r="I36">
+        <v>106.67189999999999</v>
+      </c>
+      <c r="J36">
+        <v>107.80889999999999</v>
+      </c>
+      <c r="K36">
+        <v>140.91739999999999</v>
+      </c>
+      <c r="L36">
+        <v>849.32</v>
+      </c>
+      <c r="M36">
+        <v>1082.44</v>
+      </c>
+      <c r="N36">
+        <v>299.60289999999998</v>
+      </c>
+      <c r="O36">
+        <v>287.86</v>
+      </c>
+      <c r="P36">
+        <v>374.65</v>
+      </c>
+      <c r="Q36">
+        <v>351.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B37">
+        <v>9235.0480000000007</v>
+      </c>
+      <c r="C37">
+        <v>9188.1200000000008</v>
+      </c>
+      <c r="D37">
+        <v>374.73</v>
+      </c>
+      <c r="E37">
+        <v>5197.83</v>
+      </c>
+      <c r="F37">
+        <v>208.73</v>
+      </c>
+      <c r="G37">
+        <v>122.0001</v>
+      </c>
+      <c r="H37">
+        <v>174.77</v>
+      </c>
+      <c r="I37">
+        <v>106.6537</v>
+      </c>
+      <c r="J37">
+        <v>107.7903</v>
+      </c>
+      <c r="K37">
+        <v>140.90520000000001</v>
+      </c>
+      <c r="L37">
+        <v>849.37</v>
+      </c>
+      <c r="M37">
+        <v>1080.72</v>
+      </c>
+      <c r="N37">
+        <v>299.67790000000002</v>
+      </c>
+      <c r="O37">
+        <v>287.95</v>
+      </c>
+      <c r="P37">
+        <v>374.83</v>
+      </c>
+      <c r="Q37">
+        <v>351.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B38">
+        <v>9244.2160000000003</v>
+      </c>
+      <c r="C38">
+        <v>9211.61</v>
+      </c>
+      <c r="D38">
+        <v>375.21</v>
+      </c>
+      <c r="E38">
+        <v>5178.7700000000004</v>
+      </c>
+      <c r="F38">
+        <v>207.46</v>
+      </c>
+      <c r="G38">
+        <v>121.9141</v>
+      </c>
+      <c r="H38">
+        <v>174.66</v>
+      </c>
+      <c r="I38">
+        <v>106.64060000000001</v>
+      </c>
+      <c r="J38">
+        <v>107.76860000000001</v>
+      </c>
+      <c r="K38">
+        <v>140.89830000000001</v>
+      </c>
+      <c r="L38">
+        <v>849.28</v>
+      </c>
+      <c r="M38">
+        <v>1080.74</v>
+      </c>
+      <c r="N38">
+        <v>299.75360000000001</v>
+      </c>
+      <c r="O38">
+        <v>288.08999999999997</v>
+      </c>
+      <c r="P38">
+        <v>374.76</v>
+      </c>
+      <c r="Q38">
+        <v>351.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B39">
+        <v>9267.4030000000002</v>
+      </c>
+      <c r="C39">
+        <v>9252.32</v>
+      </c>
+      <c r="D39">
+        <v>376.24</v>
+      </c>
+      <c r="E39">
+        <v>5176.72</v>
+      </c>
+      <c r="F39">
+        <v>207.15</v>
+      </c>
+      <c r="G39">
+        <v>121.8926</v>
+      </c>
+      <c r="H39">
+        <v>174.6</v>
+      </c>
+      <c r="I39">
+        <v>106.6262</v>
+      </c>
+      <c r="J39">
+        <v>107.75620000000001</v>
+      </c>
+      <c r="K39">
+        <v>140.89099999999999</v>
+      </c>
+      <c r="L39">
+        <v>848.93</v>
+      </c>
+      <c r="M39">
+        <v>1080.9100000000001</v>
+      </c>
+      <c r="N39">
+        <v>299.77499999999998</v>
+      </c>
+      <c r="O39">
+        <v>288.2</v>
+      </c>
+      <c r="P39">
+        <v>375.09</v>
+      </c>
+      <c r="Q39">
+        <v>351.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B40">
+        <v>9297.1990000000005</v>
+      </c>
+      <c r="C40">
+        <v>9296.31</v>
+      </c>
+      <c r="D40">
+        <v>376.76</v>
+      </c>
+      <c r="E40">
+        <v>5180.6099999999997</v>
+      </c>
+      <c r="F40">
+        <v>206.81</v>
+      </c>
+      <c r="G40">
+        <v>121.90479999999999</v>
+      </c>
+      <c r="H40">
+        <v>174.58</v>
+      </c>
+      <c r="I40">
+        <v>106.6096</v>
+      </c>
+      <c r="J40">
+        <v>107.7424</v>
+      </c>
+      <c r="K40">
+        <v>140.8811</v>
+      </c>
+      <c r="L40">
+        <v>848.53</v>
+      </c>
+      <c r="M40">
+        <v>1081.8399999999999</v>
+      </c>
+      <c r="N40">
+        <v>299.65629999999999</v>
+      </c>
+      <c r="O40">
+        <v>288.24</v>
+      </c>
+      <c r="P40">
+        <v>375.21</v>
+      </c>
+      <c r="Q40">
+        <v>351.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B41">
+        <v>9312.5110000000004</v>
+      </c>
+      <c r="C41">
+        <v>9304.8799999999992</v>
+      </c>
+      <c r="D41">
+        <v>377.43</v>
+      </c>
+      <c r="E41">
+        <v>5241.04</v>
+      </c>
+      <c r="F41">
+        <v>210.95</v>
+      </c>
+      <c r="G41">
+        <v>121.9136</v>
+      </c>
+      <c r="H41">
+        <v>174.64</v>
+      </c>
+      <c r="I41">
+        <v>106.6097</v>
+      </c>
+      <c r="J41">
+        <v>107.7353</v>
+      </c>
+      <c r="K41">
+        <v>140.87960000000001</v>
+      </c>
+      <c r="L41">
+        <v>848.27</v>
+      </c>
+      <c r="M41">
+        <v>1079.97</v>
+      </c>
+      <c r="N41">
+        <v>299.64170000000001</v>
+      </c>
+      <c r="O41">
+        <v>288.27999999999997</v>
+      </c>
+      <c r="P41">
+        <v>375.39</v>
+      </c>
+      <c r="Q41">
+        <v>351.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B42">
+        <v>9337.1810000000005</v>
+      </c>
+      <c r="C42">
+        <v>9244.9</v>
+      </c>
+      <c r="D42">
+        <v>376.82</v>
+      </c>
+      <c r="E42">
+        <v>5251.18</v>
+      </c>
+      <c r="F42">
+        <v>211.53</v>
+      </c>
+      <c r="G42">
+        <v>122.00060000000001</v>
+      </c>
+      <c r="H42">
+        <v>174.64</v>
+      </c>
+      <c r="I42">
+        <v>106.6147</v>
+      </c>
+      <c r="J42">
+        <v>107.7444</v>
+      </c>
+      <c r="K42">
+        <v>140.88399999999999</v>
+      </c>
+      <c r="L42">
+        <v>847.99</v>
+      </c>
+      <c r="M42">
+        <v>1079.9000000000001</v>
+      </c>
+      <c r="N42">
+        <v>299.69200000000001</v>
+      </c>
+      <c r="O42">
+        <v>288.24</v>
+      </c>
+      <c r="P42">
+        <v>375.6</v>
+      </c>
+      <c r="Q42">
+        <v>351.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B43">
+        <v>9271.8289999999997</v>
+      </c>
+      <c r="C43">
+        <v>9231.6</v>
+      </c>
+      <c r="D43">
+        <v>373.97</v>
+      </c>
+      <c r="E43">
+        <v>5241.41</v>
+      </c>
+      <c r="F43">
+        <v>211.56</v>
+      </c>
+      <c r="G43">
+        <v>122.0528</v>
+      </c>
+      <c r="H43">
+        <v>174.48</v>
+      </c>
+      <c r="I43">
+        <v>106.651</v>
+      </c>
+      <c r="J43">
+        <v>107.7576</v>
+      </c>
+      <c r="K43">
+        <v>140.89689999999999</v>
+      </c>
+      <c r="L43">
+        <v>848.75</v>
+      </c>
+      <c r="M43">
+        <v>1081.99</v>
+      </c>
+      <c r="N43">
+        <v>299.55829999999997</v>
+      </c>
+      <c r="O43">
+        <v>286.61</v>
+      </c>
+      <c r="P43">
+        <v>373.18</v>
+      </c>
+      <c r="Q43">
+        <v>350.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B44">
+        <v>9173.93</v>
+      </c>
+      <c r="C44">
+        <v>9216.25</v>
+      </c>
+      <c r="D44">
+        <v>371.84</v>
+      </c>
+      <c r="E44">
+        <v>5248.67</v>
+      </c>
+      <c r="F44">
+        <v>212.53</v>
+      </c>
+      <c r="G44">
+        <v>122.1991</v>
+      </c>
+      <c r="H44">
+        <v>174.06</v>
+      </c>
+      <c r="I44">
+        <v>106.6494</v>
+      </c>
+      <c r="J44">
+        <v>107.7623</v>
+      </c>
+      <c r="K44">
+        <v>140.89169999999999</v>
+      </c>
+      <c r="L44">
+        <v>850.29</v>
+      </c>
+      <c r="M44">
+        <v>1079.1099999999999</v>
+      </c>
+      <c r="N44">
+        <v>298.69400000000002</v>
+      </c>
+      <c r="O44">
+        <v>285.22000000000003</v>
+      </c>
+      <c r="P44">
+        <v>371.16</v>
+      </c>
+      <c r="Q44">
+        <v>351.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B45">
+        <v>9186.07</v>
+      </c>
+      <c r="C45">
+        <v>9073.91</v>
+      </c>
+      <c r="D45">
+        <v>369.31</v>
+      </c>
+      <c r="E45">
+        <v>5264.28</v>
+      </c>
+      <c r="F45">
+        <v>214.46</v>
+      </c>
+      <c r="G45">
+        <v>122.4222</v>
+      </c>
+      <c r="H45">
+        <v>174.39</v>
+      </c>
+      <c r="I45">
+        <v>106.7525</v>
+      </c>
+      <c r="J45">
+        <v>107.9063</v>
+      </c>
+      <c r="K45">
+        <v>140.9641</v>
+      </c>
+      <c r="L45">
+        <v>849.92</v>
+      </c>
+      <c r="M45">
+        <v>1080.74</v>
+      </c>
+      <c r="N45">
+        <v>298.46089999999998</v>
+      </c>
+      <c r="O45">
+        <v>287.3</v>
+      </c>
+      <c r="P45">
+        <v>372.84</v>
+      </c>
+      <c r="Q45">
+        <v>351.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B46">
+        <v>9261.3060000000005</v>
+      </c>
+      <c r="C46">
+        <v>9124.0300000000007</v>
+      </c>
+      <c r="D46">
+        <v>370.71</v>
+      </c>
+      <c r="E46">
+        <v>5268.9</v>
+      </c>
+      <c r="F46">
+        <v>214.7</v>
+      </c>
+      <c r="G46">
+        <v>122.2959</v>
+      </c>
+      <c r="H46">
+        <v>174.48</v>
+      </c>
+      <c r="I46">
+        <v>106.4539</v>
+      </c>
+      <c r="J46">
+        <v>107.54730000000001</v>
+      </c>
+      <c r="K46">
+        <v>140.79249999999999</v>
+      </c>
+      <c r="L46">
+        <v>848.64</v>
+      </c>
+      <c r="M46">
+        <v>1081.3399999999999</v>
+      </c>
+      <c r="N46">
+        <v>298.22179999999997</v>
+      </c>
+      <c r="O46">
+        <v>286.44</v>
+      </c>
+      <c r="P46">
+        <v>373.23</v>
+      </c>
+      <c r="Q46">
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B47">
+        <v>9341.0910000000003</v>
+      </c>
+      <c r="C47">
+        <v>9187.65</v>
+      </c>
+      <c r="D47">
+        <v>374.78</v>
+      </c>
+      <c r="E47">
+        <v>5271.9</v>
+      </c>
+      <c r="F47">
+        <v>214.51</v>
+      </c>
+      <c r="G47">
+        <v>122.39919999999999</v>
+      </c>
+      <c r="H47">
+        <v>174.77</v>
+      </c>
+      <c r="I47">
+        <v>106.32989999999999</v>
+      </c>
+      <c r="J47">
+        <v>107.3193</v>
+      </c>
+      <c r="K47">
+        <v>140.6729</v>
+      </c>
+      <c r="L47">
+        <v>847.25</v>
+      </c>
+      <c r="M47">
+        <v>1080.2</v>
+      </c>
+      <c r="N47">
+        <v>297.19209999999998</v>
+      </c>
+      <c r="O47">
+        <v>285.86</v>
+      </c>
+      <c r="P47">
+        <v>371.89</v>
+      </c>
+      <c r="Q47">
+        <v>351.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B48">
+        <v>9355.11</v>
+      </c>
+      <c r="C48">
+        <v>9191.32</v>
+      </c>
+      <c r="D48">
+        <v>376.92</v>
+      </c>
+      <c r="E48">
+        <v>5249.41</v>
+      </c>
+      <c r="F48">
+        <v>212.55</v>
+      </c>
+      <c r="G48">
+        <v>122.5128</v>
+      </c>
+      <c r="H48">
+        <v>174.7</v>
+      </c>
+      <c r="I48">
+        <v>106.33759999999999</v>
+      </c>
+      <c r="J48">
+        <v>107.31780000000001</v>
+      </c>
+      <c r="K48">
+        <v>140.67490000000001</v>
+      </c>
+      <c r="L48">
+        <v>847.05</v>
+      </c>
+      <c r="M48">
+        <v>1079.43</v>
+      </c>
+      <c r="N48">
+        <v>297.12540000000001</v>
+      </c>
+      <c r="O48">
+        <v>285.94</v>
+      </c>
+      <c r="P48">
+        <v>371.82</v>
+      </c>
+      <c r="Q48">
+        <v>351.71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B49">
+        <v>9376</v>
+      </c>
+      <c r="C49">
+        <v>9198.01</v>
+      </c>
+      <c r="D49">
+        <v>377.52</v>
+      </c>
+      <c r="E49">
+        <v>5225.82</v>
+      </c>
+      <c r="F49">
+        <v>210.28</v>
+      </c>
+      <c r="G49">
+        <v>122.4131</v>
+      </c>
+      <c r="H49">
+        <v>174.64</v>
+      </c>
+      <c r="I49">
+        <v>106.30800000000001</v>
+      </c>
+      <c r="J49">
+        <v>107.3013</v>
+      </c>
+      <c r="K49">
+        <v>140.6626</v>
+      </c>
+      <c r="L49">
+        <v>846.75</v>
+      </c>
+      <c r="M49">
+        <v>1078.94</v>
+      </c>
+      <c r="N49">
+        <v>297.07299999999998</v>
+      </c>
+      <c r="O49">
+        <v>285.87</v>
+      </c>
+      <c r="P49">
+        <v>371.83</v>
+      </c>
+      <c r="Q49">
+        <v>351.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B50">
+        <v>9321.7360000000008</v>
+      </c>
+      <c r="C50">
+        <v>9173.24</v>
+      </c>
+      <c r="D50">
+        <v>375.57</v>
+      </c>
+      <c r="E50">
+        <v>5235.6899999999996</v>
+      </c>
+      <c r="F50">
+        <v>211.21</v>
+      </c>
+      <c r="G50">
+        <v>122.4071</v>
+      </c>
+      <c r="H50">
+        <v>174.79</v>
+      </c>
+      <c r="I50">
+        <v>106.3399</v>
+      </c>
+      <c r="J50">
+        <v>107.3327</v>
+      </c>
+      <c r="K50">
+        <v>140.67869999999999</v>
+      </c>
+      <c r="L50">
+        <v>847.47</v>
+      </c>
+      <c r="M50">
+        <v>1076.82</v>
+      </c>
+      <c r="N50">
+        <v>297.27449999999999</v>
+      </c>
+      <c r="O50">
+        <v>286.22000000000003</v>
+      </c>
+      <c r="P50">
+        <v>371.93</v>
+      </c>
+      <c r="Q50">
+        <v>351.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B51">
+        <v>9404.1470000000008</v>
+      </c>
+      <c r="C51">
+        <v>9219.68</v>
+      </c>
+      <c r="D51">
+        <v>378.3</v>
+      </c>
+      <c r="E51">
+        <v>5264.13</v>
+      </c>
+      <c r="F51">
+        <v>212.8</v>
+      </c>
+      <c r="G51">
+        <v>122.36360000000001</v>
+      </c>
+      <c r="H51">
+        <v>174.8</v>
+      </c>
+      <c r="I51">
+        <v>106.2277</v>
+      </c>
+      <c r="J51">
+        <v>107.2456</v>
+      </c>
+      <c r="K51">
+        <v>140.624</v>
+      </c>
+      <c r="L51">
+        <v>846.26</v>
+      </c>
+      <c r="M51">
+        <v>1075.92</v>
+      </c>
+      <c r="N51">
+        <v>297.81349999999998</v>
+      </c>
+      <c r="O51">
+        <v>285.58</v>
+      </c>
+      <c r="P51">
+        <v>371.55</v>
+      </c>
+      <c r="Q51">
+        <v>351.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B52">
+        <v>9445.2440000000006</v>
+      </c>
+      <c r="C52">
+        <v>9236.89</v>
+      </c>
+      <c r="D52">
+        <v>380.14</v>
+      </c>
+      <c r="E52">
+        <v>5279.32</v>
+      </c>
+      <c r="F52">
+        <v>213.42</v>
+      </c>
+      <c r="G52">
+        <v>122.4658</v>
+      </c>
+      <c r="H52">
+        <v>174.79</v>
+      </c>
+      <c r="I52">
+        <v>106.2216</v>
+      </c>
+      <c r="J52">
+        <v>107.2379</v>
+      </c>
+      <c r="K52">
+        <v>140.62049999999999</v>
+      </c>
+      <c r="L52">
+        <v>845.73</v>
+      </c>
+      <c r="M52">
+        <v>1077.8399999999999</v>
+      </c>
+      <c r="N52">
+        <v>297.55549999999999</v>
+      </c>
+      <c r="O52">
+        <v>285.73</v>
+      </c>
+      <c r="P52">
+        <v>371.36</v>
+      </c>
+      <c r="Q52">
+        <v>351.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B53">
         <v>9433.5820000000003</v>
       </c>
-      <c r="C25">
+      <c r="C53">
         <v>9231.64</v>
       </c>
-      <c r="D25">
+      <c r="D53">
         <v>380.41</v>
       </c>
-      <c r="E25">
+      <c r="E53">
         <v>5257.85</v>
       </c>
-      <c r="F25">
+      <c r="F53">
         <v>211.85</v>
       </c>
-      <c r="G25">
+      <c r="G53">
         <v>122.5111</v>
       </c>
-      <c r="H25">
+      <c r="H53">
         <v>174.63</v>
       </c>
-      <c r="I25">
+      <c r="I53">
         <v>106.2199</v>
       </c>
-      <c r="J25">
+      <c r="J53">
         <v>107.2413</v>
       </c>
-      <c r="K25">
+      <c r="K53">
         <v>140.6206</v>
       </c>
-      <c r="L25">
-        <v>845.87</v>
-      </c>
-      <c r="M25">
+      <c r="L53">
+        <v>845.82</v>
+      </c>
+      <c r="M53">
         <v>1077.6400000000001</v>
       </c>
-      <c r="N25">
+      <c r="N53">
         <v>297.42340000000002</v>
       </c>
-      <c r="O25">
+      <c r="O53">
         <v>285.82</v>
       </c>
-      <c r="P25">
+      <c r="P53">
         <v>371.08</v>
       </c>
-      <c r="Q25">
+      <c r="Q53">
         <v>351.22</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B54">
+        <v>9437.1550000000007</v>
+      </c>
+      <c r="C54">
+        <v>9299.52</v>
+      </c>
+      <c r="D54">
+        <v>381.66</v>
+      </c>
+      <c r="E54">
+        <v>5259.27</v>
+      </c>
+      <c r="F54">
+        <v>211.99</v>
+      </c>
+      <c r="G54">
+        <v>122.40600000000001</v>
+      </c>
+      <c r="H54">
+        <v>174.63</v>
+      </c>
+      <c r="I54">
+        <v>106.1896</v>
+      </c>
+      <c r="J54">
+        <v>107.211</v>
+      </c>
+      <c r="K54">
+        <v>140.6053</v>
+      </c>
+      <c r="L54">
+        <v>845.84</v>
+      </c>
+      <c r="M54">
+        <v>1078.69</v>
+      </c>
+      <c r="N54">
+        <v>297.49720000000002</v>
+      </c>
+      <c r="O54">
+        <v>285.97000000000003</v>
+      </c>
+      <c r="P54">
+        <v>371.57</v>
+      </c>
+      <c r="Q54">
+        <v>351.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B55">
+        <v>9465.4670000000006</v>
+      </c>
+      <c r="C55">
+        <v>9311.5300000000007</v>
+      </c>
+      <c r="D55">
+        <v>382.79</v>
+      </c>
+      <c r="E55">
+        <v>5278.86</v>
+      </c>
+      <c r="F55">
+        <v>213.23</v>
+      </c>
+      <c r="G55">
+        <v>122.5005</v>
+      </c>
+      <c r="H55">
+        <v>174.68</v>
+      </c>
+      <c r="I55">
+        <v>106.1896</v>
+      </c>
+      <c r="J55">
+        <v>107.20480000000001</v>
+      </c>
+      <c r="K55">
+        <v>140.60419999999999</v>
+      </c>
+      <c r="L55">
+        <v>845.44</v>
+      </c>
+      <c r="M55">
+        <v>1078.51</v>
+      </c>
+      <c r="N55">
+        <v>297.30180000000001</v>
+      </c>
+      <c r="O55">
+        <v>286.18</v>
+      </c>
+      <c r="P55">
+        <v>371.84</v>
+      </c>
+      <c r="Q55">
+        <v>351.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B56">
+        <v>9462.5390000000007</v>
+      </c>
+      <c r="C56">
+        <v>9245.25</v>
+      </c>
+      <c r="D56">
+        <v>383.2</v>
+      </c>
+      <c r="E56">
+        <v>5246.75</v>
+      </c>
+      <c r="F56">
+        <v>210.8</v>
+      </c>
+      <c r="G56">
+        <v>122.54810000000001</v>
+      </c>
+      <c r="H56">
+        <v>174.69</v>
+      </c>
+      <c r="I56">
+        <v>106.18980000000001</v>
+      </c>
+      <c r="J56">
+        <v>107.2052</v>
+      </c>
+      <c r="K56">
+        <v>140.6054</v>
+      </c>
+      <c r="L56">
+        <v>845.37</v>
+      </c>
+      <c r="M56">
+        <v>1076.82</v>
+      </c>
+      <c r="N56">
+        <v>297.36880000000002</v>
+      </c>
+      <c r="O56">
+        <v>286.27</v>
+      </c>
+      <c r="P56">
+        <v>372.23</v>
+      </c>
+      <c r="Q56">
+        <v>351.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B57">
+        <v>9462.5390000000007</v>
+      </c>
+      <c r="C57">
+        <v>9342.4</v>
+      </c>
+      <c r="D57">
+        <v>384.13</v>
+      </c>
+      <c r="E57">
+        <v>5246.75</v>
+      </c>
+      <c r="F57">
+        <v>210.8</v>
+      </c>
+      <c r="G57">
+        <v>122.54810000000001</v>
+      </c>
+      <c r="H57">
+        <v>174.69</v>
+      </c>
+      <c r="I57">
+        <v>106.18980000000001</v>
+      </c>
+      <c r="J57">
+        <v>107.2052</v>
+      </c>
+      <c r="K57">
+        <v>140.6054</v>
+      </c>
+      <c r="L57">
+        <v>845.37</v>
+      </c>
+      <c r="M57">
+        <v>1076.82</v>
+      </c>
+      <c r="N57">
+        <v>297.36880000000002</v>
+      </c>
+      <c r="O57">
+        <v>286.27</v>
+      </c>
+      <c r="P57">
+        <v>372.23</v>
+      </c>
+      <c r="Q57">
+        <v>351.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B58">
+        <v>9430.6830000000009</v>
+      </c>
+      <c r="C58">
+        <v>9295.94</v>
+      </c>
+      <c r="D58">
+        <v>383.04</v>
+      </c>
+      <c r="E58">
+        <v>5209.3500000000004</v>
+      </c>
+      <c r="F58">
+        <v>208.68</v>
+      </c>
+      <c r="G58">
+        <v>122.7762</v>
+      </c>
+      <c r="H58">
+        <v>174.67</v>
+      </c>
+      <c r="I58">
+        <v>106.2003</v>
+      </c>
+      <c r="J58">
+        <v>107.21850000000001</v>
+      </c>
+      <c r="K58">
+        <v>140.6112</v>
+      </c>
+      <c r="L58">
+        <v>845.77</v>
+      </c>
+      <c r="M58">
+        <v>1076.58</v>
+      </c>
+      <c r="N58">
+        <v>297.35109999999997</v>
+      </c>
+      <c r="O58">
+        <v>286.47000000000003</v>
+      </c>
+      <c r="P58">
+        <v>372.57</v>
+      </c>
+      <c r="Q58">
+        <v>352.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B59">
+        <v>9418.5720000000001</v>
+      </c>
+      <c r="C59">
+        <v>9190.64</v>
+      </c>
+      <c r="D59">
+        <v>381.36</v>
+      </c>
+      <c r="E59">
+        <v>5233.6099999999997</v>
+      </c>
+      <c r="F59">
+        <v>210.3</v>
+      </c>
+      <c r="G59">
+        <v>122.69759999999999</v>
+      </c>
+      <c r="H59">
+        <v>174.65</v>
+      </c>
+      <c r="I59">
+        <v>106.2291</v>
+      </c>
+      <c r="J59">
+        <v>107.24460000000001</v>
+      </c>
+      <c r="K59">
+        <v>140.6301</v>
+      </c>
+      <c r="L59">
+        <v>846</v>
+      </c>
+      <c r="M59">
+        <v>1078.19</v>
+      </c>
+      <c r="N59">
+        <v>297.3075</v>
+      </c>
+      <c r="O59">
+        <v>286.83</v>
+      </c>
+      <c r="P59">
+        <v>372.76</v>
+      </c>
+      <c r="Q59">
+        <v>352.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B60">
+        <v>9375.99</v>
+      </c>
+      <c r="C60">
+        <v>9190.9</v>
+      </c>
+      <c r="D60">
+        <v>379.75</v>
+      </c>
+      <c r="E60">
+        <v>5287.29</v>
+      </c>
+      <c r="F60">
+        <v>213.64</v>
+      </c>
+      <c r="G60">
+        <v>122.6431</v>
+      </c>
+      <c r="H60">
+        <v>174.52</v>
+      </c>
+      <c r="I60">
+        <v>106.1861</v>
+      </c>
+      <c r="J60">
+        <v>107.2039</v>
+      </c>
+      <c r="K60">
+        <v>140.60329999999999</v>
+      </c>
+      <c r="L60">
+        <v>846.66</v>
+      </c>
+      <c r="M60">
+        <v>1076.55</v>
+      </c>
+      <c r="N60">
+        <v>297.2704</v>
+      </c>
+      <c r="O60">
+        <v>287.19</v>
+      </c>
+      <c r="P60">
+        <v>372.97</v>
+      </c>
+      <c r="Q60">
+        <v>352.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B61">
+        <v>9304.0329999999994</v>
+      </c>
+      <c r="C61">
+        <v>9176.02</v>
+      </c>
+      <c r="D61">
+        <v>378.58</v>
+      </c>
+      <c r="E61">
+        <v>5263.13</v>
+      </c>
+      <c r="F61">
+        <v>211.41</v>
+      </c>
+      <c r="G61">
+        <v>122.6781</v>
+      </c>
+      <c r="H61">
+        <v>174.36</v>
+      </c>
+      <c r="I61">
+        <v>106.239</v>
+      </c>
+      <c r="J61">
+        <v>107.2119</v>
+      </c>
+      <c r="K61">
+        <v>140.6164</v>
+      </c>
+      <c r="L61">
+        <v>847.77</v>
+      </c>
+      <c r="M61">
+        <v>1076.17</v>
+      </c>
+      <c r="N61">
+        <v>297.02199999999999</v>
+      </c>
+      <c r="O61">
+        <v>288.01</v>
+      </c>
+      <c r="P61">
+        <v>371.99</v>
+      </c>
+      <c r="Q61">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B62">
+        <v>9325.2860000000001</v>
+      </c>
+      <c r="C62">
+        <v>9218.2199999999993</v>
+      </c>
+      <c r="D62">
+        <v>378.76</v>
+      </c>
+      <c r="E62">
+        <v>5289.59</v>
+      </c>
+      <c r="F62">
+        <v>213.22</v>
+      </c>
+      <c r="G62">
+        <v>122.5254</v>
+      </c>
+      <c r="H62">
+        <v>174.2</v>
+      </c>
+      <c r="I62">
+        <v>106.2636</v>
+      </c>
+      <c r="J62">
+        <v>107.30840000000001</v>
+      </c>
+      <c r="K62">
+        <v>140.64680000000001</v>
+      </c>
+      <c r="L62">
+        <v>847.38</v>
+      </c>
+      <c r="M62">
+        <v>1077.0999999999999</v>
+      </c>
+      <c r="N62">
+        <v>297.42439999999999</v>
+      </c>
+      <c r="O62">
+        <v>289.2</v>
+      </c>
+      <c r="P62">
+        <v>373.95</v>
+      </c>
+      <c r="Q62">
+        <v>352.55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B63">
+        <v>9273.99</v>
+      </c>
+      <c r="C63">
+        <v>9222.93</v>
+      </c>
+      <c r="D63">
+        <v>377.55</v>
+      </c>
+      <c r="E63">
+        <v>5325.83</v>
+      </c>
+      <c r="F63">
+        <v>216.3</v>
+      </c>
+      <c r="G63">
+        <v>122.2713</v>
+      </c>
+      <c r="H63">
+        <v>174.11</v>
+      </c>
+      <c r="I63">
+        <v>106.25530000000001</v>
+      </c>
+      <c r="J63">
+        <v>107.20189999999999</v>
+      </c>
+      <c r="K63">
+        <v>140.61619999999999</v>
+      </c>
+      <c r="L63">
+        <v>848.44</v>
+      </c>
+      <c r="M63">
+        <v>1077.52</v>
+      </c>
+      <c r="N63">
+        <v>297.71789999999999</v>
+      </c>
+      <c r="O63">
+        <v>289.7</v>
+      </c>
+      <c r="P63">
+        <v>374.06</v>
+      </c>
+      <c r="Q63">
+        <v>353.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B64">
+        <v>9352.8310000000001</v>
+      </c>
+      <c r="C64">
+        <v>9122.2999999999993</v>
+      </c>
+      <c r="D64">
+        <v>378.54</v>
+      </c>
+      <c r="E64">
+        <v>5314</v>
+      </c>
+      <c r="F64">
+        <v>215.35</v>
+      </c>
+      <c r="G64">
+        <v>122.20359999999999</v>
+      </c>
+      <c r="H64">
+        <v>174.32</v>
+      </c>
+      <c r="I64">
+        <v>106.1249</v>
+      </c>
+      <c r="J64">
+        <v>107.1724</v>
+      </c>
+      <c r="K64">
+        <v>140.58109999999999</v>
+      </c>
+      <c r="L64">
+        <v>846.79</v>
+      </c>
+      <c r="M64">
+        <v>1077.06</v>
+      </c>
+      <c r="N64">
+        <v>297.79880000000003</v>
+      </c>
+      <c r="O64">
+        <v>289.81</v>
+      </c>
+      <c r="P64">
+        <v>374.31</v>
+      </c>
+      <c r="Q64">
+        <v>352.81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B65">
+        <v>9338.6110000000008</v>
+      </c>
+      <c r="C65">
+        <v>9174.9500000000007</v>
+      </c>
+      <c r="D65">
+        <v>377.6</v>
+      </c>
+      <c r="E65">
+        <v>5295.52</v>
+      </c>
+      <c r="F65">
+        <v>214.26</v>
+      </c>
+      <c r="G65">
+        <v>122.1341</v>
+      </c>
+      <c r="H65">
+        <v>174.06</v>
+      </c>
+      <c r="I65">
+        <v>106.10299999999999</v>
+      </c>
+      <c r="J65">
+        <v>107.1229</v>
+      </c>
+      <c r="K65">
+        <v>140.56319999999999</v>
+      </c>
+      <c r="L65">
+        <v>847.02</v>
+      </c>
+      <c r="M65">
+        <v>1075.53</v>
+      </c>
+      <c r="N65">
+        <v>297.57220000000001</v>
+      </c>
+      <c r="O65">
+        <v>290.19</v>
+      </c>
+      <c r="P65">
+        <v>374.67</v>
+      </c>
+      <c r="Q65">
+        <v>352.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B66">
+        <v>9253.5660000000007</v>
+      </c>
+      <c r="C66">
+        <v>9089.08</v>
+      </c>
+      <c r="D66">
+        <v>374.92</v>
+      </c>
+      <c r="E66">
+        <v>5281.46</v>
+      </c>
+      <c r="F66">
+        <v>212.99</v>
+      </c>
+      <c r="G66">
+        <v>122.11620000000001</v>
+      </c>
+      <c r="H66">
+        <v>173.78</v>
+      </c>
+      <c r="I66">
+        <v>106.17440000000001</v>
+      </c>
+      <c r="J66">
+        <v>107.1795</v>
+      </c>
+      <c r="K66">
+        <v>140.6003</v>
+      </c>
+      <c r="L66">
+        <v>848.54</v>
+      </c>
+      <c r="M66">
+        <v>1074.77</v>
+      </c>
+      <c r="N66">
+        <v>297.4939</v>
+      </c>
+      <c r="O66">
+        <v>290.83</v>
+      </c>
+      <c r="P66">
+        <v>375.04</v>
+      </c>
+      <c r="Q66">
+        <v>352.79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B67">
+        <v>9096.5239999999994</v>
+      </c>
+      <c r="C67">
+        <v>8899.49</v>
+      </c>
+      <c r="D67">
+        <v>368.82</v>
+      </c>
+      <c r="E67">
+        <v>5313.76</v>
+      </c>
+      <c r="F67">
+        <v>216.46</v>
+      </c>
+      <c r="G67">
+        <v>122.00279999999999</v>
+      </c>
+      <c r="H67">
+        <v>173.5</v>
+      </c>
+      <c r="I67">
+        <v>106.8861</v>
+      </c>
+      <c r="J67">
+        <v>107.8764</v>
+      </c>
+      <c r="K67">
+        <v>140.99260000000001</v>
+      </c>
+      <c r="L67">
+        <v>851.91</v>
+      </c>
+      <c r="M67">
+        <v>1077.8</v>
+      </c>
+      <c r="N67">
+        <v>295.93</v>
+      </c>
+      <c r="O67">
+        <v>289.58</v>
+      </c>
+      <c r="P67">
+        <v>374.76</v>
+      </c>
+      <c r="Q67">
+        <v>352.08</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B68">
+        <v>9089.5529999999999</v>
+      </c>
+      <c r="C68">
+        <v>9021.9</v>
+      </c>
+      <c r="D68">
+        <v>369.29</v>
+      </c>
+      <c r="E68">
+        <v>5314.54</v>
+      </c>
+      <c r="F68">
+        <v>216.14</v>
+      </c>
+      <c r="G68">
+        <v>121.72880000000001</v>
+      </c>
+      <c r="H68">
+        <v>173.03</v>
+      </c>
+      <c r="I68">
+        <v>105.34180000000001</v>
+      </c>
+      <c r="J68">
+        <v>107.08969999999999</v>
+      </c>
+      <c r="K68">
+        <v>140.08949999999999</v>
+      </c>
+      <c r="L68">
+        <v>852.25</v>
+      </c>
+      <c r="M68">
+        <v>1075.42</v>
+      </c>
+      <c r="N68">
+        <v>296.40660000000003</v>
+      </c>
+      <c r="O68">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="P68">
+        <v>375.11</v>
+      </c>
+      <c r="Q68">
+        <v>352.82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B69">
+        <v>9176.0779999999995</v>
+      </c>
+      <c r="C69">
+        <v>9137.9</v>
+      </c>
+      <c r="D69">
+        <v>371.97</v>
+      </c>
+      <c r="E69">
+        <v>5340.93</v>
+      </c>
+      <c r="F69">
+        <v>217.71</v>
+      </c>
+      <c r="G69">
+        <v>121.4667</v>
+      </c>
+      <c r="H69">
+        <v>173.61</v>
+      </c>
+      <c r="I69">
+        <v>104.6574</v>
+      </c>
+      <c r="J69">
+        <v>106.0544</v>
+      </c>
+      <c r="K69">
+        <v>139.4847</v>
+      </c>
+      <c r="L69">
+        <v>850.5</v>
+      </c>
+      <c r="M69">
+        <v>1075.1400000000001</v>
+      </c>
+      <c r="N69">
+        <v>296.15719999999999</v>
+      </c>
+      <c r="O69">
+        <v>289.87</v>
+      </c>
+      <c r="P69">
+        <v>374.88</v>
+      </c>
+      <c r="Q69">
+        <v>351.69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B70">
+        <v>9287.7999999999993</v>
+      </c>
+      <c r="C70">
+        <v>9236.3700000000008</v>
+      </c>
+      <c r="D70">
+        <v>375.78</v>
+      </c>
+      <c r="E70">
+        <v>5273.11</v>
+      </c>
+      <c r="F70">
+        <v>211.62</v>
+      </c>
+      <c r="G70">
+        <v>121.502</v>
+      </c>
+      <c r="H70">
+        <v>173.92</v>
+      </c>
+      <c r="I70">
+        <v>104.3601</v>
+      </c>
+      <c r="J70">
+        <v>105.70050000000001</v>
+      </c>
+      <c r="K70">
+        <v>139.3038</v>
+      </c>
+      <c r="L70">
+        <v>848.07</v>
+      </c>
+      <c r="M70">
+        <v>1074.22</v>
+      </c>
+      <c r="N70">
+        <v>295.01179999999999</v>
+      </c>
+      <c r="O70">
+        <v>289.29000000000002</v>
+      </c>
+      <c r="P70">
+        <v>374.43</v>
+      </c>
+      <c r="Q70">
+        <v>351.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B71">
+        <v>9301.4920000000002</v>
+      </c>
+      <c r="C71">
+        <v>9156.2099999999991</v>
+      </c>
+      <c r="D71">
+        <v>375.21</v>
+      </c>
+      <c r="E71">
+        <v>5250.05</v>
+      </c>
+      <c r="F71">
+        <v>209</v>
+      </c>
+      <c r="G71">
+        <v>121.4752</v>
+      </c>
+      <c r="H71">
+        <v>173.85</v>
+      </c>
+      <c r="I71">
+        <v>104.28279999999999</v>
+      </c>
+      <c r="J71">
+        <v>105.63590000000001</v>
+      </c>
+      <c r="K71">
+        <v>139.2663</v>
+      </c>
+      <c r="L71">
+        <v>847.77</v>
+      </c>
+      <c r="M71">
+        <v>1073.4100000000001</v>
+      </c>
+      <c r="N71">
+        <v>294.39729999999997</v>
+      </c>
+      <c r="O71">
+        <v>289.23</v>
+      </c>
+      <c r="P71">
+        <v>374.41</v>
+      </c>
+      <c r="Q71">
+        <v>351.07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B72">
+        <v>9275.8719999999994</v>
+      </c>
+      <c r="C72">
+        <v>9171.5499999999993</v>
+      </c>
+      <c r="D72">
+        <v>374.45</v>
+      </c>
+      <c r="E72">
+        <v>5240.7299999999996</v>
+      </c>
+      <c r="F72">
+        <v>208.02</v>
+      </c>
+      <c r="G72">
+        <v>121.44929999999999</v>
+      </c>
+      <c r="H72">
+        <v>173.78</v>
+      </c>
+      <c r="I72">
+        <v>104.2817</v>
+      </c>
+      <c r="J72">
+        <v>105.5977</v>
+      </c>
+      <c r="K72">
+        <v>139.25210000000001</v>
+      </c>
+      <c r="L72">
+        <v>848.18</v>
+      </c>
+      <c r="M72">
+        <v>1073.23</v>
+      </c>
+      <c r="N72">
+        <v>294.52429999999998</v>
+      </c>
+      <c r="O72">
+        <v>289.33999999999997</v>
+      </c>
+      <c r="P72">
+        <v>374.6</v>
+      </c>
+      <c r="Q72">
+        <v>351.32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B73">
+        <v>9087.4650000000001</v>
+      </c>
+      <c r="C73">
+        <v>8940.51</v>
+      </c>
+      <c r="D73">
+        <v>367.54</v>
+      </c>
+      <c r="E73">
+        <v>5165.83</v>
+      </c>
+      <c r="F73">
+        <v>203.69</v>
+      </c>
+      <c r="G73">
+        <v>121.5308</v>
+      </c>
+      <c r="H73">
+        <v>172.99</v>
+      </c>
+      <c r="I73">
+        <v>104.4637</v>
+      </c>
+      <c r="J73">
+        <v>105.7804</v>
+      </c>
+      <c r="K73">
+        <v>139.3356</v>
+      </c>
+      <c r="L73">
+        <v>851.98</v>
+      </c>
+      <c r="M73">
+        <v>1078.8599999999999</v>
+      </c>
+      <c r="N73">
+        <v>294.0231</v>
+      </c>
+      <c r="O73">
+        <v>289.08999999999997</v>
+      </c>
+      <c r="P73">
+        <v>372.51</v>
+      </c>
+      <c r="Q73">
+        <v>351.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B74">
+        <v>9102.616</v>
+      </c>
+      <c r="C74">
+        <v>8987.6299999999992</v>
+      </c>
+      <c r="D74">
+        <v>366.97</v>
+      </c>
+      <c r="E74">
+        <v>5172.5600000000004</v>
+      </c>
+      <c r="F74">
+        <v>204.31</v>
+      </c>
+      <c r="G74">
+        <v>121.452</v>
+      </c>
+      <c r="H74">
+        <v>173.25</v>
+      </c>
+      <c r="I74">
+        <v>104.4175</v>
+      </c>
+      <c r="J74">
+        <v>105.6985</v>
+      </c>
+      <c r="K74">
+        <v>139.33670000000001</v>
+      </c>
+      <c r="L74">
+        <v>851.49</v>
+      </c>
+      <c r="M74">
+        <v>1078.8499999999999</v>
+      </c>
+      <c r="N74">
+        <v>293.84739999999999</v>
+      </c>
+      <c r="O74">
+        <v>289.48</v>
+      </c>
+      <c r="P74">
+        <v>373.53</v>
+      </c>
+      <c r="Q74">
+        <v>352.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B75">
+        <v>8994.8279999999995</v>
+      </c>
+      <c r="C75">
+        <v>8916.83</v>
+      </c>
+      <c r="D75">
+        <v>364.7</v>
+      </c>
+      <c r="E75">
+        <v>5158.12</v>
+      </c>
+      <c r="F75">
+        <v>204.13</v>
+      </c>
+      <c r="G75">
+        <v>121.077</v>
+      </c>
+      <c r="H75">
+        <v>172.32</v>
+      </c>
+      <c r="I75">
+        <v>104.44</v>
+      </c>
+      <c r="J75">
+        <v>105.6173</v>
+      </c>
+      <c r="K75">
+        <v>139.3467</v>
+      </c>
+      <c r="L75">
+        <v>854.49</v>
+      </c>
+      <c r="M75">
+        <v>1079.46</v>
+      </c>
+      <c r="N75">
+        <v>293.3125</v>
+      </c>
+      <c r="O75">
+        <v>289.64</v>
+      </c>
+      <c r="P75">
+        <v>373.51</v>
+      </c>
+      <c r="Q75">
+        <v>351.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F0740-89DE-4D9A-B63E-0E726643777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6634A6CA-D184-4225-8A4F-5594943AEA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -175,57 +175,55 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15647052513579115247</stp>
+        <stp>BDH|12621023406238882018</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|18314343229724018526</stp>
+        <tr r="O7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12803398829565814904</stp>
         <tr r="Q7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13357845748287560721</stp>
+        <stp>BDH|10912259126336978410</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15978099960962374156</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13937628906563317753</stp>
         <tr r="G7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17265465806105869912</stp>
-        <tr r="F7" s="4"/>
+        <stp>BDH|13109785603054610125</stp>
+        <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17578552392002913564</stp>
-        <tr r="E7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15656546649640122751</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12411301882399980616</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3917214513729801505</stp>
+        <stp>BDH|10780625889798266011</stp>
         <tr r="C7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6721198666058057754</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5218924055451352014</stp>
+        <stp>BDH|17004357013612336047</stp>
         <tr r="H7" s="4"/>
       </tp>
     </main>
@@ -233,190 +231,190 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6613414742829769496</stp>
+        <stp>BDH|5406795447420540876</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8427416350440804120</stp>
+        <tr r="K7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5604405291096840757</stp>
         <tr r="R7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9499488611351228693</stp>
-        <tr r="M7" s="4"/>
+        <stp>BDH|8103446348976801831</stp>
+        <tr r="I7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3159274401370373588</stp>
+        <stp>BDH|3200796526890565169</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5623029365872979641</stp>
         <tr r="N7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7779462724166412285</stp>
+        <stp>BDH|8405918507477051653</stp>
         <tr r="D7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1687561383745084896</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|8114829725502790184</stp>
-        <tr r="A7" s="4"/>
+        <stp>BDH|9413046730258809374</stp>
+        <tr r="P7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="4"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="4"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|264617515897476563</stp>
-        <tr r="P7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|869264385995999287</stp>
-        <tr r="J7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -686,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q218"/>
+  <dimension ref="A1:Q263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12264,6 +12262,2391 @@
         <v>352.56</v>
       </c>
     </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B219">
+        <v>9642.4449999999997</v>
+      </c>
+      <c r="C219">
+        <v>9441.94</v>
+      </c>
+      <c r="D219">
+        <v>385</v>
+      </c>
+      <c r="E219">
+        <v>5210.9799999999996</v>
+      </c>
+      <c r="F219">
+        <v>209.17</v>
+      </c>
+      <c r="G219">
+        <v>121.4478</v>
+      </c>
+      <c r="H219">
+        <v>175.03</v>
+      </c>
+      <c r="I219">
+        <v>103.3227</v>
+      </c>
+      <c r="J219">
+        <v>104.7246</v>
+      </c>
+      <c r="K219">
+        <v>138.78700000000001</v>
+      </c>
+      <c r="L219">
+        <v>841.48</v>
+      </c>
+      <c r="M219">
+        <v>1083.42</v>
+      </c>
+      <c r="N219">
+        <v>293.40989999999999</v>
+      </c>
+      <c r="O219">
+        <v>289.38</v>
+      </c>
+      <c r="P219">
+        <v>374.77</v>
+      </c>
+      <c r="Q219">
+        <v>352.87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B220">
+        <v>9677.9449999999997</v>
+      </c>
+      <c r="C220">
+        <v>9478.56</v>
+      </c>
+      <c r="D220">
+        <v>385.53</v>
+      </c>
+      <c r="E220">
+        <v>5231.46</v>
+      </c>
+      <c r="F220">
+        <v>210.14</v>
+      </c>
+      <c r="G220">
+        <v>121.4815</v>
+      </c>
+      <c r="H220">
+        <v>174.99</v>
+      </c>
+      <c r="I220">
+        <v>103.29510000000001</v>
+      </c>
+      <c r="J220">
+        <v>104.6789</v>
+      </c>
+      <c r="K220">
+        <v>138.76849999999999</v>
+      </c>
+      <c r="L220">
+        <v>841.14</v>
+      </c>
+      <c r="M220">
+        <v>1084.51</v>
+      </c>
+      <c r="N220">
+        <v>293.363</v>
+      </c>
+      <c r="O220">
+        <v>289.38</v>
+      </c>
+      <c r="P220">
+        <v>374.6</v>
+      </c>
+      <c r="Q220">
+        <v>352.98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B221">
+        <v>9740.4699999999993</v>
+      </c>
+      <c r="C221">
+        <v>9508.11</v>
+      </c>
+      <c r="D221">
+        <v>387.26</v>
+      </c>
+      <c r="E221">
+        <v>5205.45</v>
+      </c>
+      <c r="F221">
+        <v>207.37</v>
+      </c>
+      <c r="G221">
+        <v>121.5222</v>
+      </c>
+      <c r="H221">
+        <v>174.92</v>
+      </c>
+      <c r="I221">
+        <v>103.2787</v>
+      </c>
+      <c r="J221">
+        <v>104.6661</v>
+      </c>
+      <c r="K221">
+        <v>138.76169999999999</v>
+      </c>
+      <c r="L221">
+        <v>840.55</v>
+      </c>
+      <c r="M221">
+        <v>1084.48</v>
+      </c>
+      <c r="N221">
+        <v>293.14260000000002</v>
+      </c>
+      <c r="O221">
+        <v>289.47000000000003</v>
+      </c>
+      <c r="P221">
+        <v>374.9</v>
+      </c>
+      <c r="Q221">
+        <v>352.93</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B222">
+        <v>9782.4809999999998</v>
+      </c>
+      <c r="C222">
+        <v>9560.4599999999991</v>
+      </c>
+      <c r="D222">
+        <v>388.82</v>
+      </c>
+      <c r="E222">
+        <v>5246.86</v>
+      </c>
+      <c r="F222">
+        <v>209.99</v>
+      </c>
+      <c r="G222">
+        <v>121.7286</v>
+      </c>
+      <c r="H222">
+        <v>175.14</v>
+      </c>
+      <c r="I222">
+        <v>103.2792</v>
+      </c>
+      <c r="J222">
+        <v>104.65300000000001</v>
+      </c>
+      <c r="K222">
+        <v>138.75700000000001</v>
+      </c>
+      <c r="L222">
+        <v>840.12</v>
+      </c>
+      <c r="M222">
+        <v>1087.78</v>
+      </c>
+      <c r="N222">
+        <v>293.22460000000001</v>
+      </c>
+      <c r="O222">
+        <v>289.67</v>
+      </c>
+      <c r="P222">
+        <v>375.22</v>
+      </c>
+      <c r="Q222">
+        <v>353.13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B223">
+        <v>9819.9830000000002</v>
+      </c>
+      <c r="C223">
+        <v>9626</v>
+      </c>
+      <c r="D223">
+        <v>389.5</v>
+      </c>
+      <c r="E223">
+        <v>5307.68</v>
+      </c>
+      <c r="F223">
+        <v>213.81</v>
+      </c>
+      <c r="G223">
+        <v>122.1189</v>
+      </c>
+      <c r="H223">
+        <v>175.41</v>
+      </c>
+      <c r="I223">
+        <v>103.2886</v>
+      </c>
+      <c r="J223">
+        <v>104.6567</v>
+      </c>
+      <c r="K223">
+        <v>138.761</v>
+      </c>
+      <c r="L223">
+        <v>839.73</v>
+      </c>
+      <c r="M223">
+        <v>1089.26</v>
+      </c>
+      <c r="N223">
+        <v>294.3399</v>
+      </c>
+      <c r="O223">
+        <v>289.81</v>
+      </c>
+      <c r="P223">
+        <v>375.42</v>
+      </c>
+      <c r="Q223">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B224">
+        <v>9828.81</v>
+      </c>
+      <c r="C224">
+        <v>9602.7900000000009</v>
+      </c>
+      <c r="D224">
+        <v>390.27</v>
+      </c>
+      <c r="E224">
+        <v>5298.21</v>
+      </c>
+      <c r="F224">
+        <v>213.78</v>
+      </c>
+      <c r="G224">
+        <v>122.1955</v>
+      </c>
+      <c r="H224">
+        <v>175.33</v>
+      </c>
+      <c r="I224">
+        <v>103.3035</v>
+      </c>
+      <c r="J224">
+        <v>104.6721</v>
+      </c>
+      <c r="K224">
+        <v>138.7679</v>
+      </c>
+      <c r="L224">
+        <v>839.62</v>
+      </c>
+      <c r="M224">
+        <v>1087.22</v>
+      </c>
+      <c r="N224">
+        <v>294.4384</v>
+      </c>
+      <c r="O224">
+        <v>290.17</v>
+      </c>
+      <c r="P224">
+        <v>375.6</v>
+      </c>
+      <c r="Q224">
+        <v>353.88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B225">
+        <v>9795.1239999999998</v>
+      </c>
+      <c r="C225">
+        <v>9585.3799999999992</v>
+      </c>
+      <c r="D225">
+        <v>389.37</v>
+      </c>
+      <c r="E225">
+        <v>5335.74</v>
+      </c>
+      <c r="F225">
+        <v>217.26</v>
+      </c>
+      <c r="G225">
+        <v>122.1349</v>
+      </c>
+      <c r="H225">
+        <v>175.28</v>
+      </c>
+      <c r="I225">
+        <v>103.3301</v>
+      </c>
+      <c r="J225">
+        <v>104.71210000000001</v>
+      </c>
+      <c r="K225">
+        <v>138.78540000000001</v>
+      </c>
+      <c r="L225">
+        <v>839.92</v>
+      </c>
+      <c r="M225">
+        <v>1091.51</v>
+      </c>
+      <c r="N225">
+        <v>294.43470000000002</v>
+      </c>
+      <c r="O225">
+        <v>290.18</v>
+      </c>
+      <c r="P225">
+        <v>375.44</v>
+      </c>
+      <c r="Q225">
+        <v>354.08</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B226">
+        <v>9716.7240000000002</v>
+      </c>
+      <c r="C226">
+        <v>9594.6200000000008</v>
+      </c>
+      <c r="D226">
+        <v>386.66</v>
+      </c>
+      <c r="E226">
+        <v>5257.72</v>
+      </c>
+      <c r="F226">
+        <v>212.56</v>
+      </c>
+      <c r="G226">
+        <v>121.86709999999999</v>
+      </c>
+      <c r="H226">
+        <v>175.19</v>
+      </c>
+      <c r="I226">
+        <v>103.3252</v>
+      </c>
+      <c r="J226">
+        <v>104.69880000000001</v>
+      </c>
+      <c r="K226">
+        <v>138.77889999999999</v>
+      </c>
+      <c r="L226">
+        <v>840.72</v>
+      </c>
+      <c r="M226">
+        <v>1090.83</v>
+      </c>
+      <c r="N226">
+        <v>294.22789999999998</v>
+      </c>
+      <c r="O226">
+        <v>289.99</v>
+      </c>
+      <c r="P226">
+        <v>375.1</v>
+      </c>
+      <c r="Q226">
+        <v>354.14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B227">
+        <v>9722.08</v>
+      </c>
+      <c r="C227">
+        <v>9614.86</v>
+      </c>
+      <c r="D227">
+        <v>386.96</v>
+      </c>
+      <c r="E227">
+        <v>5257.72</v>
+      </c>
+      <c r="F227">
+        <v>212.56</v>
+      </c>
+      <c r="G227">
+        <v>121.6452</v>
+      </c>
+      <c r="H227">
+        <v>175.13</v>
+      </c>
+      <c r="I227">
+        <v>103.2666</v>
+      </c>
+      <c r="J227">
+        <v>104.6523</v>
+      </c>
+      <c r="K227">
+        <v>138.74809999999999</v>
+      </c>
+      <c r="L227">
+        <v>840.81</v>
+      </c>
+      <c r="M227">
+        <v>1088.78</v>
+      </c>
+      <c r="N227">
+        <v>294.46050000000002</v>
+      </c>
+      <c r="O227">
+        <v>290.25</v>
+      </c>
+      <c r="P227">
+        <v>375.61</v>
+      </c>
+      <c r="Q227">
+        <v>354.41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B228">
+        <v>9793.2160000000003</v>
+      </c>
+      <c r="C228">
+        <v>9642.08</v>
+      </c>
+      <c r="D228">
+        <v>389.46</v>
+      </c>
+      <c r="E228">
+        <v>5228.8500000000004</v>
+      </c>
+      <c r="F228">
+        <v>210.82</v>
+      </c>
+      <c r="G228">
+        <v>121.8442</v>
+      </c>
+      <c r="H228">
+        <v>175.16</v>
+      </c>
+      <c r="I228">
+        <v>103.2098</v>
+      </c>
+      <c r="J228">
+        <v>104.6031</v>
+      </c>
+      <c r="K228">
+        <v>138.7166</v>
+      </c>
+      <c r="L228">
+        <v>839.96</v>
+      </c>
+      <c r="M228">
+        <v>1090.55</v>
+      </c>
+      <c r="N228">
+        <v>294.24340000000001</v>
+      </c>
+      <c r="O228">
+        <v>289.86</v>
+      </c>
+      <c r="P228">
+        <v>375.41</v>
+      </c>
+      <c r="Q228">
+        <v>354.38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B229">
+        <v>9793.5249999999996</v>
+      </c>
+      <c r="C229">
+        <v>9677.07</v>
+      </c>
+      <c r="D229">
+        <v>389.81</v>
+      </c>
+      <c r="E229">
+        <v>5172.7700000000004</v>
+      </c>
+      <c r="F229">
+        <v>207.28</v>
+      </c>
+      <c r="G229">
+        <v>121.8832</v>
+      </c>
+      <c r="H229">
+        <v>175.07</v>
+      </c>
+      <c r="I229">
+        <v>103.20359999999999</v>
+      </c>
+      <c r="J229">
+        <v>104.58969999999999</v>
+      </c>
+      <c r="K229">
+        <v>138.715</v>
+      </c>
+      <c r="L229">
+        <v>839.97</v>
+      </c>
+      <c r="M229">
+        <v>1089.51</v>
+      </c>
+      <c r="N229">
+        <v>294.10719999999998</v>
+      </c>
+      <c r="O229">
+        <v>290.18</v>
+      </c>
+      <c r="P229">
+        <v>375.51</v>
+      </c>
+      <c r="Q229">
+        <v>354.56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B230">
+        <v>9831.91</v>
+      </c>
+      <c r="C230">
+        <v>9711.67</v>
+      </c>
+      <c r="D230">
+        <v>390.54</v>
+      </c>
+      <c r="E230">
+        <v>5155.9399999999996</v>
+      </c>
+      <c r="F230">
+        <v>206.74</v>
+      </c>
+      <c r="G230">
+        <v>122.0932</v>
+      </c>
+      <c r="H230">
+        <v>175.15</v>
+      </c>
+      <c r="I230">
+        <v>103.17829999999999</v>
+      </c>
+      <c r="J230">
+        <v>104.5665</v>
+      </c>
+      <c r="K230">
+        <v>138.69990000000001</v>
+      </c>
+      <c r="L230">
+        <v>839.56</v>
+      </c>
+      <c r="M230">
+        <v>1087.92</v>
+      </c>
+      <c r="N230">
+        <v>293.97590000000002</v>
+      </c>
+      <c r="O230">
+        <v>290.18</v>
+      </c>
+      <c r="P230">
+        <v>375.43</v>
+      </c>
+      <c r="Q230">
+        <v>354.56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B231">
+        <v>9808.27</v>
+      </c>
+      <c r="C231">
+        <v>9710.16</v>
+      </c>
+      <c r="D231">
+        <v>389.28</v>
+      </c>
+      <c r="E231">
+        <v>5180.62</v>
+      </c>
+      <c r="F231">
+        <v>208.76</v>
+      </c>
+      <c r="G231">
+        <v>122.3964</v>
+      </c>
+      <c r="H231">
+        <v>175.27</v>
+      </c>
+      <c r="I231">
+        <v>103.1932</v>
+      </c>
+      <c r="J231">
+        <v>104.5772</v>
+      </c>
+      <c r="K231">
+        <v>138.70509999999999</v>
+      </c>
+      <c r="L231">
+        <v>839.74</v>
+      </c>
+      <c r="M231">
+        <v>1088.47</v>
+      </c>
+      <c r="N231">
+        <v>294.00749999999999</v>
+      </c>
+      <c r="O231">
+        <v>290.45</v>
+      </c>
+      <c r="P231">
+        <v>375.76</v>
+      </c>
+      <c r="Q231">
+        <v>354.68</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B232">
+        <v>9842.3459999999995</v>
+      </c>
+      <c r="C232">
+        <v>9672.42</v>
+      </c>
+      <c r="D232">
+        <v>389.43</v>
+      </c>
+      <c r="E232">
+        <v>5196.12</v>
+      </c>
+      <c r="F232">
+        <v>209.72</v>
+      </c>
+      <c r="G232">
+        <v>122.5077</v>
+      </c>
+      <c r="H232">
+        <v>175.39</v>
+      </c>
+      <c r="I232">
+        <v>103.1982</v>
+      </c>
+      <c r="J232">
+        <v>104.60120000000001</v>
+      </c>
+      <c r="K232">
+        <v>138.71090000000001</v>
+      </c>
+      <c r="L232">
+        <v>839.33</v>
+      </c>
+      <c r="M232">
+        <v>1090.78</v>
+      </c>
+      <c r="N232">
+        <v>294.0412</v>
+      </c>
+      <c r="O232">
+        <v>290.56</v>
+      </c>
+      <c r="P232">
+        <v>375.98</v>
+      </c>
+      <c r="Q232">
+        <v>354.7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B233">
+        <v>9828.7990000000009</v>
+      </c>
+      <c r="C233">
+        <v>9612.34</v>
+      </c>
+      <c r="D233">
+        <v>388.58</v>
+      </c>
+      <c r="E233">
+        <v>5231.01</v>
+      </c>
+      <c r="F233">
+        <v>212.67</v>
+      </c>
+      <c r="G233">
+        <v>122.49720000000001</v>
+      </c>
+      <c r="H233">
+        <v>175.33</v>
+      </c>
+      <c r="I233">
+        <v>103.2212</v>
+      </c>
+      <c r="J233">
+        <v>104.6293</v>
+      </c>
+      <c r="K233">
+        <v>138.72730000000001</v>
+      </c>
+      <c r="L233">
+        <v>839.45</v>
+      </c>
+      <c r="M233">
+        <v>1089.42</v>
+      </c>
+      <c r="N233">
+        <v>294.09899999999999</v>
+      </c>
+      <c r="O233">
+        <v>290.83</v>
+      </c>
+      <c r="P233">
+        <v>376.29</v>
+      </c>
+      <c r="Q233">
+        <v>355.18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B234">
+        <v>9798.2950000000001</v>
+      </c>
+      <c r="C234">
+        <v>9576.77</v>
+      </c>
+      <c r="D234">
+        <v>386.37</v>
+      </c>
+      <c r="E234">
+        <v>5182.26</v>
+      </c>
+      <c r="F234">
+        <v>209.74</v>
+      </c>
+      <c r="G234">
+        <v>122.46259999999999</v>
+      </c>
+      <c r="H234">
+        <v>175.43</v>
+      </c>
+      <c r="I234">
+        <v>103.2264</v>
+      </c>
+      <c r="J234">
+        <v>104.57899999999999</v>
+      </c>
+      <c r="K234">
+        <v>138.714</v>
+      </c>
+      <c r="L234">
+        <v>839.79</v>
+      </c>
+      <c r="M234">
+        <v>1090.27</v>
+      </c>
+      <c r="N234">
+        <v>294.03640000000001</v>
+      </c>
+      <c r="O234">
+        <v>290.75</v>
+      </c>
+      <c r="P234">
+        <v>376.78</v>
+      </c>
+      <c r="Q234">
+        <v>355.24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B235">
+        <v>9814.6479999999992</v>
+      </c>
+      <c r="C235">
+        <v>9455.64</v>
+      </c>
+      <c r="D235">
+        <v>385.67</v>
+      </c>
+      <c r="E235">
+        <v>5116.6400000000003</v>
+      </c>
+      <c r="F235">
+        <v>205.77</v>
+      </c>
+      <c r="G235">
+        <v>122.3322</v>
+      </c>
+      <c r="H235">
+        <v>175.22</v>
+      </c>
+      <c r="I235">
+        <v>103.2706</v>
+      </c>
+      <c r="J235">
+        <v>104.6523</v>
+      </c>
+      <c r="K235">
+        <v>138.75460000000001</v>
+      </c>
+      <c r="L235">
+        <v>839.58</v>
+      </c>
+      <c r="M235">
+        <v>1091.97</v>
+      </c>
+      <c r="N235">
+        <v>294.05369999999999</v>
+      </c>
+      <c r="O235">
+        <v>291.41000000000003</v>
+      </c>
+      <c r="P235">
+        <v>377.11</v>
+      </c>
+      <c r="Q235">
+        <v>355.91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B236">
+        <v>9837.5959999999995</v>
+      </c>
+      <c r="C236">
+        <v>9438.94</v>
+      </c>
+      <c r="D236">
+        <v>385.73</v>
+      </c>
+      <c r="E236">
+        <v>5163.1499999999996</v>
+      </c>
+      <c r="F236">
+        <v>210.11</v>
+      </c>
+      <c r="G236">
+        <v>122.274</v>
+      </c>
+      <c r="H236">
+        <v>175.24</v>
+      </c>
+      <c r="I236">
+        <v>103.15819999999999</v>
+      </c>
+      <c r="J236">
+        <v>104.6163</v>
+      </c>
+      <c r="K236">
+        <v>138.68950000000001</v>
+      </c>
+      <c r="L236">
+        <v>839.35</v>
+      </c>
+      <c r="M236">
+        <v>1090.96</v>
+      </c>
+      <c r="N236">
+        <v>293.98689999999999</v>
+      </c>
+      <c r="O236">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="P236">
+        <v>377.72</v>
+      </c>
+      <c r="Q236">
+        <v>356.19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B237">
+        <v>9837.5959999999995</v>
+      </c>
+      <c r="C237">
+        <v>9476.4500000000007</v>
+      </c>
+      <c r="D237">
+        <v>386.26</v>
+      </c>
+      <c r="E237">
+        <v>5163.1499999999996</v>
+      </c>
+      <c r="F237">
+        <v>210.11</v>
+      </c>
+      <c r="G237">
+        <v>122.274</v>
+      </c>
+      <c r="H237">
+        <v>175.24</v>
+      </c>
+      <c r="I237">
+        <v>103.15819999999999</v>
+      </c>
+      <c r="J237">
+        <v>104.6163</v>
+      </c>
+      <c r="K237">
+        <v>138.68950000000001</v>
+      </c>
+      <c r="L237">
+        <v>839.35</v>
+      </c>
+      <c r="M237">
+        <v>1090.96</v>
+      </c>
+      <c r="N237">
+        <v>293.98689999999999</v>
+      </c>
+      <c r="O237">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="P237">
+        <v>377.72</v>
+      </c>
+      <c r="Q237">
+        <v>356.19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B238">
+        <v>9614.2489999999998</v>
+      </c>
+      <c r="C238">
+        <v>9026.91</v>
+      </c>
+      <c r="D238">
+        <v>377.63</v>
+      </c>
+      <c r="E238">
+        <v>5231.09</v>
+      </c>
+      <c r="F238">
+        <v>216.64</v>
+      </c>
+      <c r="G238">
+        <v>123.2086</v>
+      </c>
+      <c r="H238">
+        <v>176.32</v>
+      </c>
+      <c r="I238">
+        <v>103.7687</v>
+      </c>
+      <c r="J238">
+        <v>105.1404</v>
+      </c>
+      <c r="K238">
+        <v>138.98609999999999</v>
+      </c>
+      <c r="L238">
+        <v>841.34</v>
+      </c>
+      <c r="M238">
+        <v>1088.4000000000001</v>
+      </c>
+      <c r="N238">
+        <v>294.59640000000002</v>
+      </c>
+      <c r="O238">
+        <v>291.24</v>
+      </c>
+      <c r="P238">
+        <v>374.68</v>
+      </c>
+      <c r="Q238">
+        <v>353.42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B239">
+        <v>9741.7810000000009</v>
+      </c>
+      <c r="C239">
+        <v>9070.89</v>
+      </c>
+      <c r="D239">
+        <v>380.05</v>
+      </c>
+      <c r="E239">
+        <v>5210.4799999999996</v>
+      </c>
+      <c r="F239">
+        <v>214.38</v>
+      </c>
+      <c r="G239">
+        <v>122.6966</v>
+      </c>
+      <c r="H239">
+        <v>175.53</v>
+      </c>
+      <c r="I239">
+        <v>101.639</v>
+      </c>
+      <c r="J239">
+        <v>104.0817</v>
+      </c>
+      <c r="K239">
+        <v>138.08529999999999</v>
+      </c>
+      <c r="L239">
+        <v>840.01</v>
+      </c>
+      <c r="M239">
+        <v>1086.6300000000001</v>
+      </c>
+      <c r="N239">
+        <v>297.92970000000003</v>
+      </c>
+      <c r="O239">
+        <v>291.44</v>
+      </c>
+      <c r="P239">
+        <v>374.47</v>
+      </c>
+      <c r="Q239">
+        <v>354.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B240">
+        <v>9558.3310000000001</v>
+      </c>
+      <c r="C240">
+        <v>8970.07</v>
+      </c>
+      <c r="D240">
+        <v>374.08</v>
+      </c>
+      <c r="E240">
+        <v>5256.08</v>
+      </c>
+      <c r="F240">
+        <v>218.69</v>
+      </c>
+      <c r="G240">
+        <v>123.1909</v>
+      </c>
+      <c r="H240">
+        <v>176.65</v>
+      </c>
+      <c r="I240">
+        <v>102.54040000000001</v>
+      </c>
+      <c r="J240">
+        <v>104.60169999999999</v>
+      </c>
+      <c r="K240">
+        <v>138.6003</v>
+      </c>
+      <c r="L240">
+        <v>842.19</v>
+      </c>
+      <c r="M240">
+        <v>1085.77</v>
+      </c>
+      <c r="N240">
+        <v>299.4187</v>
+      </c>
+      <c r="O240">
+        <v>291.52</v>
+      </c>
+      <c r="P240">
+        <v>373.83</v>
+      </c>
+      <c r="Q240">
+        <v>354.23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B241">
+        <v>9446.2049999999999</v>
+      </c>
+      <c r="C241">
+        <v>9226.36</v>
+      </c>
+      <c r="D241">
+        <v>373.13</v>
+      </c>
+      <c r="E241">
+        <v>5266.61</v>
+      </c>
+      <c r="F241">
+        <v>220.16</v>
+      </c>
+      <c r="G241">
+        <v>123.4919</v>
+      </c>
+      <c r="H241">
+        <v>177.33</v>
+      </c>
+      <c r="I241">
+        <v>102.38160000000001</v>
+      </c>
+      <c r="J241">
+        <v>104.4662</v>
+      </c>
+      <c r="K241">
+        <v>138.12190000000001</v>
+      </c>
+      <c r="L241">
+        <v>843.13</v>
+      </c>
+      <c r="M241">
+        <v>1081.68</v>
+      </c>
+      <c r="N241">
+        <v>296.87569999999999</v>
+      </c>
+      <c r="O241">
+        <v>290.45999999999998</v>
+      </c>
+      <c r="P241">
+        <v>372.13</v>
+      </c>
+      <c r="Q241">
+        <v>352.95</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B242">
+        <v>9581.7900000000009</v>
+      </c>
+      <c r="C242">
+        <v>9070.7199999999993</v>
+      </c>
+      <c r="D242">
+        <v>376</v>
+      </c>
+      <c r="E242">
+        <v>5263.24</v>
+      </c>
+      <c r="F242">
+        <v>220.76</v>
+      </c>
+      <c r="G242">
+        <v>123.4169</v>
+      </c>
+      <c r="H242">
+        <v>177.06</v>
+      </c>
+      <c r="I242">
+        <v>102.6031</v>
+      </c>
+      <c r="J242">
+        <v>105.50190000000001</v>
+      </c>
+      <c r="K242">
+        <v>138.6942</v>
+      </c>
+      <c r="L242">
+        <v>840.85</v>
+      </c>
+      <c r="M242">
+        <v>1085.67</v>
+      </c>
+      <c r="N242">
+        <v>297.78149999999999</v>
+      </c>
+      <c r="O242">
+        <v>289.54000000000002</v>
+      </c>
+      <c r="P242">
+        <v>371.57</v>
+      </c>
+      <c r="Q242">
+        <v>351.56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B243">
+        <v>9501.2829999999994</v>
+      </c>
+      <c r="C243">
+        <v>9009.18</v>
+      </c>
+      <c r="D243">
+        <v>372.96</v>
+      </c>
+      <c r="E243">
+        <v>5324.41</v>
+      </c>
+      <c r="F243">
+        <v>223.89</v>
+      </c>
+      <c r="G243">
+        <v>124.0652</v>
+      </c>
+      <c r="H243">
+        <v>178.39</v>
+      </c>
+      <c r="I243">
+        <v>104.6388</v>
+      </c>
+      <c r="J243">
+        <v>107.0164</v>
+      </c>
+      <c r="K243">
+        <v>139.7979</v>
+      </c>
+      <c r="L243">
+        <v>841.43</v>
+      </c>
+      <c r="M243">
+        <v>1094.52</v>
+      </c>
+      <c r="N243">
+        <v>299.5247</v>
+      </c>
+      <c r="O243">
+        <v>290.44</v>
+      </c>
+      <c r="P243">
+        <v>372.13</v>
+      </c>
+      <c r="Q243">
+        <v>351.61</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B244">
+        <v>9613.0210000000006</v>
+      </c>
+      <c r="C244">
+        <v>9134.94</v>
+      </c>
+      <c r="D244">
+        <v>375.88</v>
+      </c>
+      <c r="E244">
+        <v>5286.71</v>
+      </c>
+      <c r="F244">
+        <v>220.09</v>
+      </c>
+      <c r="G244">
+        <v>123.7758</v>
+      </c>
+      <c r="H244">
+        <v>177.23</v>
+      </c>
+      <c r="I244">
+        <v>102.4434</v>
+      </c>
+      <c r="J244">
+        <v>105.1371</v>
+      </c>
+      <c r="K244">
+        <v>137.9469</v>
+      </c>
+      <c r="L244">
+        <v>840.07</v>
+      </c>
+      <c r="M244">
+        <v>1090.76</v>
+      </c>
+      <c r="N244">
+        <v>300.8698</v>
+      </c>
+      <c r="O244">
+        <v>290.02</v>
+      </c>
+      <c r="P244">
+        <v>370.96</v>
+      </c>
+      <c r="Q244">
+        <v>351.27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B245">
+        <v>9812.1970000000001</v>
+      </c>
+      <c r="C245">
+        <v>9442.06</v>
+      </c>
+      <c r="D245">
+        <v>383.8</v>
+      </c>
+      <c r="E245">
+        <v>5277.3</v>
+      </c>
+      <c r="F245">
+        <v>217.98</v>
+      </c>
+      <c r="G245">
+        <v>123.43040000000001</v>
+      </c>
+      <c r="H245">
+        <v>175.89</v>
+      </c>
+      <c r="I245">
+        <v>100.0787</v>
+      </c>
+      <c r="J245">
+        <v>102.6358</v>
+      </c>
+      <c r="K245">
+        <v>136.02260000000001</v>
+      </c>
+      <c r="L245">
+        <v>837.55</v>
+      </c>
+      <c r="M245">
+        <v>1090.6199999999999</v>
+      </c>
+      <c r="N245">
+        <v>298.15559999999999</v>
+      </c>
+      <c r="O245">
+        <v>289.32</v>
+      </c>
+      <c r="P245">
+        <v>370.36</v>
+      </c>
+      <c r="Q245">
+        <v>349.78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B246">
+        <v>9842.6830000000009</v>
+      </c>
+      <c r="C246">
+        <v>9346.8799999999992</v>
+      </c>
+      <c r="D246">
+        <v>385.3</v>
+      </c>
+      <c r="E246">
+        <v>5217.1000000000004</v>
+      </c>
+      <c r="F246">
+        <v>213.24</v>
+      </c>
+      <c r="G246">
+        <v>123.0741</v>
+      </c>
+      <c r="H246">
+        <v>175.58</v>
+      </c>
+      <c r="I246">
+        <v>99.714299999999994</v>
+      </c>
+      <c r="J246">
+        <v>102.3622</v>
+      </c>
+      <c r="K246">
+        <v>135.8612</v>
+      </c>
+      <c r="L246">
+        <v>837.56</v>
+      </c>
+      <c r="M246">
+        <v>1093.18</v>
+      </c>
+      <c r="N246">
+        <v>296.82709999999997</v>
+      </c>
+      <c r="O246">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="P246">
+        <v>370.34</v>
+      </c>
+      <c r="Q246">
+        <v>349.24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B247">
+        <v>9773.1910000000007</v>
+      </c>
+      <c r="C247">
+        <v>9292.1299999999992</v>
+      </c>
+      <c r="D247">
+        <v>383.01</v>
+      </c>
+      <c r="E247">
+        <v>5229.07</v>
+      </c>
+      <c r="F247">
+        <v>214.62</v>
+      </c>
+      <c r="G247">
+        <v>123.0487</v>
+      </c>
+      <c r="H247">
+        <v>175.64</v>
+      </c>
+      <c r="I247">
+        <v>99.695700000000002</v>
+      </c>
+      <c r="J247">
+        <v>102.1897</v>
+      </c>
+      <c r="K247">
+        <v>135.81559999999999</v>
+      </c>
+      <c r="L247">
+        <v>838.25</v>
+      </c>
+      <c r="M247">
+        <v>1094.08</v>
+      </c>
+      <c r="N247">
+        <v>297.2978</v>
+      </c>
+      <c r="O247">
+        <v>289.32</v>
+      </c>
+      <c r="P247">
+        <v>370.49</v>
+      </c>
+      <c r="Q247">
+        <v>349.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B248">
+        <v>9866.6219999999994</v>
+      </c>
+      <c r="C248">
+        <v>9271.9599999999991</v>
+      </c>
+      <c r="D248">
+        <v>384.37</v>
+      </c>
+      <c r="E248">
+        <v>5220.09</v>
+      </c>
+      <c r="F248">
+        <v>213.84</v>
+      </c>
+      <c r="G248">
+        <v>123.17230000000001</v>
+      </c>
+      <c r="H248">
+        <v>175.36</v>
+      </c>
+      <c r="I248">
+        <v>99.486000000000004</v>
+      </c>
+      <c r="J248">
+        <v>102.1191</v>
+      </c>
+      <c r="K248">
+        <v>135.7567</v>
+      </c>
+      <c r="L248">
+        <v>837.23</v>
+      </c>
+      <c r="M248">
+        <v>1094.1300000000001</v>
+      </c>
+      <c r="N248">
+        <v>297.80509999999998</v>
+      </c>
+      <c r="O248">
+        <v>288.82</v>
+      </c>
+      <c r="P248">
+        <v>370.12</v>
+      </c>
+      <c r="Q248">
+        <v>348.96</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B249">
+        <v>9776.6890000000003</v>
+      </c>
+      <c r="C249">
+        <v>9236.36</v>
+      </c>
+      <c r="D249">
+        <v>381.29</v>
+      </c>
+      <c r="E249">
+        <v>5268.08</v>
+      </c>
+      <c r="F249">
+        <v>217.72</v>
+      </c>
+      <c r="G249">
+        <v>123.1041</v>
+      </c>
+      <c r="H249">
+        <v>175.43</v>
+      </c>
+      <c r="I249">
+        <v>99.522599999999997</v>
+      </c>
+      <c r="J249">
+        <v>102.1525</v>
+      </c>
+      <c r="K249">
+        <v>135.77090000000001</v>
+      </c>
+      <c r="L249">
+        <v>838.48</v>
+      </c>
+      <c r="M249">
+        <v>1095.08</v>
+      </c>
+      <c r="N249">
+        <v>298.54950000000002</v>
+      </c>
+      <c r="O249">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="P249">
+        <v>370.15</v>
+      </c>
+      <c r="Q249">
+        <v>348.95</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B250">
+        <v>9705.0560000000005</v>
+      </c>
+      <c r="C250">
+        <v>9151.2900000000009</v>
+      </c>
+      <c r="D250">
+        <v>378.46</v>
+      </c>
+      <c r="E250">
+        <v>5243.79</v>
+      </c>
+      <c r="F250">
+        <v>217.2</v>
+      </c>
+      <c r="G250">
+        <v>122.9729</v>
+      </c>
+      <c r="H250">
+        <v>175.16</v>
+      </c>
+      <c r="I250">
+        <v>99.648200000000003</v>
+      </c>
+      <c r="J250">
+        <v>102.2687</v>
+      </c>
+      <c r="K250">
+        <v>135.85050000000001</v>
+      </c>
+      <c r="L250">
+        <v>839.2</v>
+      </c>
+      <c r="M250">
+        <v>1096.31</v>
+      </c>
+      <c r="N250">
+        <v>298.21710000000002</v>
+      </c>
+      <c r="O250">
+        <v>288.33999999999997</v>
+      </c>
+      <c r="P250">
+        <v>369.29</v>
+      </c>
+      <c r="Q250">
+        <v>348.95</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B251">
+        <v>9863.9240000000009</v>
+      </c>
+      <c r="C251">
+        <v>9184.7800000000007</v>
+      </c>
+      <c r="D251">
+        <v>382.16</v>
+      </c>
+      <c r="E251">
+        <v>5209.97</v>
+      </c>
+      <c r="F251">
+        <v>214.51</v>
+      </c>
+      <c r="G251">
+        <v>123.1075</v>
+      </c>
+      <c r="H251">
+        <v>175.13</v>
+      </c>
+      <c r="I251">
+        <v>99.496700000000004</v>
+      </c>
+      <c r="J251">
+        <v>102.21850000000001</v>
+      </c>
+      <c r="K251">
+        <v>135.81790000000001</v>
+      </c>
+      <c r="L251">
+        <v>837.07</v>
+      </c>
+      <c r="M251">
+        <v>1100.04</v>
+      </c>
+      <c r="N251">
+        <v>298.9144</v>
+      </c>
+      <c r="O251">
+        <v>287.94</v>
+      </c>
+      <c r="P251">
+        <v>369.11</v>
+      </c>
+      <c r="Q251">
+        <v>348.28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B252">
+        <v>9778.0939999999991</v>
+      </c>
+      <c r="C252">
+        <v>9277.94</v>
+      </c>
+      <c r="D252">
+        <v>381.68</v>
+      </c>
+      <c r="E252">
+        <v>5216.5200000000004</v>
+      </c>
+      <c r="F252">
+        <v>214.28</v>
+      </c>
+      <c r="G252">
+        <v>123.2486</v>
+      </c>
+      <c r="H252">
+        <v>175.27</v>
+      </c>
+      <c r="I252">
+        <v>99.329599999999999</v>
+      </c>
+      <c r="J252">
+        <v>101.8763</v>
+      </c>
+      <c r="K252">
+        <v>135.6628</v>
+      </c>
+      <c r="L252">
+        <v>838.05</v>
+      </c>
+      <c r="M252">
+        <v>1107.1300000000001</v>
+      </c>
+      <c r="N252">
+        <v>299.90719999999999</v>
+      </c>
+      <c r="O252">
+        <v>287.98</v>
+      </c>
+      <c r="P252">
+        <v>368.76</v>
+      </c>
+      <c r="Q252">
+        <v>347.41</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B253">
+        <v>9678.0349999999999</v>
+      </c>
+      <c r="C253">
+        <v>9188.4699999999993</v>
+      </c>
+      <c r="D253">
+        <v>378.48</v>
+      </c>
+      <c r="E253">
+        <v>5243.91</v>
+      </c>
+      <c r="F253">
+        <v>217.42</v>
+      </c>
+      <c r="G253">
+        <v>123.16249999999999</v>
+      </c>
+      <c r="H253">
+        <v>174.97</v>
+      </c>
+      <c r="I253">
+        <v>99.405900000000003</v>
+      </c>
+      <c r="J253">
+        <v>101.94450000000001</v>
+      </c>
+      <c r="K253">
+        <v>135.6806</v>
+      </c>
+      <c r="L253">
+        <v>839.52</v>
+      </c>
+      <c r="M253">
+        <v>1102.32</v>
+      </c>
+      <c r="N253">
+        <v>299.2285</v>
+      </c>
+      <c r="O253">
+        <v>288.25</v>
+      </c>
+      <c r="P253">
+        <v>369.09</v>
+      </c>
+      <c r="Q253">
+        <v>347.34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B254">
+        <v>9567.9060000000009</v>
+      </c>
+      <c r="C254">
+        <v>9068.75</v>
+      </c>
+      <c r="D254">
+        <v>373.37</v>
+      </c>
+      <c r="E254">
+        <v>5206.3100000000004</v>
+      </c>
+      <c r="F254">
+        <v>215.61</v>
+      </c>
+      <c r="G254">
+        <v>122.60429999999999</v>
+      </c>
+      <c r="H254">
+        <v>174.73</v>
+      </c>
+      <c r="I254">
+        <v>99.684899999999999</v>
+      </c>
+      <c r="J254">
+        <v>102.2089</v>
+      </c>
+      <c r="K254">
+        <v>135.86439999999999</v>
+      </c>
+      <c r="L254">
+        <v>841.23</v>
+      </c>
+      <c r="M254">
+        <v>1100.58</v>
+      </c>
+      <c r="N254">
+        <v>298.88619999999997</v>
+      </c>
+      <c r="O254">
+        <v>287.52</v>
+      </c>
+      <c r="P254">
+        <v>368.53</v>
+      </c>
+      <c r="Q254">
+        <v>346.81</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B255">
+        <v>9738.7260000000006</v>
+      </c>
+      <c r="C255">
+        <v>9218.6</v>
+      </c>
+      <c r="D255">
+        <v>379.41</v>
+      </c>
+      <c r="E255">
+        <v>5206.82</v>
+      </c>
+      <c r="F255">
+        <v>214.54</v>
+      </c>
+      <c r="G255">
+        <v>122.919</v>
+      </c>
+      <c r="H255">
+        <v>175.35</v>
+      </c>
+      <c r="I255">
+        <v>98.896500000000003</v>
+      </c>
+      <c r="J255">
+        <v>101.5607</v>
+      </c>
+      <c r="K255">
+        <v>135.35050000000001</v>
+      </c>
+      <c r="L255">
+        <v>838.31</v>
+      </c>
+      <c r="M255">
+        <v>1096.76</v>
+      </c>
+      <c r="N255">
+        <v>299.24209999999999</v>
+      </c>
+      <c r="O255">
+        <v>287.36</v>
+      </c>
+      <c r="P255">
+        <v>368.42</v>
+      </c>
+      <c r="Q255">
+        <v>346.38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B256">
+        <v>9838.8960000000006</v>
+      </c>
+      <c r="C256">
+        <v>9311.49</v>
+      </c>
+      <c r="D256">
+        <v>382.99</v>
+      </c>
+      <c r="E256">
+        <v>5229.47</v>
+      </c>
+      <c r="F256">
+        <v>215.87</v>
+      </c>
+      <c r="G256">
+        <v>123.0312</v>
+      </c>
+      <c r="H256">
+        <v>175.36</v>
+      </c>
+      <c r="I256">
+        <v>98.781499999999994</v>
+      </c>
+      <c r="J256">
+        <v>101.4011</v>
+      </c>
+      <c r="K256">
+        <v>135.27529999999999</v>
+      </c>
+      <c r="L256">
+        <v>836.95</v>
+      </c>
+      <c r="M256">
+        <v>1097.69</v>
+      </c>
+      <c r="N256">
+        <v>297.86559999999997</v>
+      </c>
+      <c r="O256">
+        <v>287.14999999999998</v>
+      </c>
+      <c r="P256">
+        <v>368.51</v>
+      </c>
+      <c r="Q256">
+        <v>345.88</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B257">
+        <v>9900.2999999999993</v>
+      </c>
+      <c r="C257">
+        <v>9419.24</v>
+      </c>
+      <c r="D257">
+        <v>385.75</v>
+      </c>
+      <c r="E257">
+        <v>5203.67</v>
+      </c>
+      <c r="F257">
+        <v>212.94</v>
+      </c>
+      <c r="G257">
+        <v>123.32689999999999</v>
+      </c>
+      <c r="H257">
+        <v>175.61</v>
+      </c>
+      <c r="I257">
+        <v>98.729200000000006</v>
+      </c>
+      <c r="J257">
+        <v>101.3265</v>
+      </c>
+      <c r="K257">
+        <v>135.24160000000001</v>
+      </c>
+      <c r="L257">
+        <v>835.98</v>
+      </c>
+      <c r="M257">
+        <v>1095.55</v>
+      </c>
+      <c r="N257">
+        <v>297.56150000000002</v>
+      </c>
+      <c r="O257">
+        <v>287.07</v>
+      </c>
+      <c r="P257">
+        <v>368.44</v>
+      </c>
+      <c r="Q257">
+        <v>345.73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B258">
+        <v>9900.2999999999993</v>
+      </c>
+      <c r="C258">
+        <v>9395.2900000000009</v>
+      </c>
+      <c r="D258">
+        <v>385.87</v>
+      </c>
+      <c r="E258">
+        <v>5203.67</v>
+      </c>
+      <c r="F258">
+        <v>212.94</v>
+      </c>
+      <c r="G258">
+        <v>123.32689999999999</v>
+      </c>
+      <c r="H258">
+        <v>175.61</v>
+      </c>
+      <c r="I258">
+        <v>98.729200000000006</v>
+      </c>
+      <c r="J258">
+        <v>101.3265</v>
+      </c>
+      <c r="K258">
+        <v>135.24160000000001</v>
+      </c>
+      <c r="L258">
+        <v>835.98</v>
+      </c>
+      <c r="M258">
+        <v>1095.55</v>
+      </c>
+      <c r="N258">
+        <v>297.56150000000002</v>
+      </c>
+      <c r="O258">
+        <v>287.07</v>
+      </c>
+      <c r="P258">
+        <v>368.44</v>
+      </c>
+      <c r="Q258">
+        <v>345.73</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B259">
+        <v>10037.668</v>
+      </c>
+      <c r="C259">
+        <v>9468.09</v>
+      </c>
+      <c r="D259">
+        <v>389.21</v>
+      </c>
+      <c r="E259">
+        <v>5228.24</v>
+      </c>
+      <c r="F259">
+        <v>214.11</v>
+      </c>
+      <c r="G259">
+        <v>123.62179999999999</v>
+      </c>
+      <c r="H259">
+        <v>175.84</v>
+      </c>
+      <c r="I259">
+        <v>98.714200000000005</v>
+      </c>
+      <c r="J259">
+        <v>101.3143</v>
+      </c>
+      <c r="K259">
+        <v>135.23560000000001</v>
+      </c>
+      <c r="L259">
+        <v>834.39</v>
+      </c>
+      <c r="M259">
+        <v>1095.1199999999999</v>
+      </c>
+      <c r="N259">
+        <v>298.09449999999998</v>
+      </c>
+      <c r="O259">
+        <v>286.93</v>
+      </c>
+      <c r="P259">
+        <v>368</v>
+      </c>
+      <c r="Q259">
+        <v>345.42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B260">
+        <v>10027.532999999999</v>
+      </c>
+      <c r="C260">
+        <v>9520.9699999999993</v>
+      </c>
+      <c r="D260">
+        <v>389.57</v>
+      </c>
+      <c r="E260">
+        <v>5218.05</v>
+      </c>
+      <c r="F260">
+        <v>212.96</v>
+      </c>
+      <c r="G260">
+        <v>123.58029999999999</v>
+      </c>
+      <c r="H260">
+        <v>175.64</v>
+      </c>
+      <c r="I260">
+        <v>98.704999999999998</v>
+      </c>
+      <c r="J260">
+        <v>101.3052</v>
+      </c>
+      <c r="K260">
+        <v>135.22970000000001</v>
+      </c>
+      <c r="L260">
+        <v>834.49</v>
+      </c>
+      <c r="M260">
+        <v>1093.53</v>
+      </c>
+      <c r="N260">
+        <v>297.18959999999998</v>
+      </c>
+      <c r="O260">
+        <v>287.01</v>
+      </c>
+      <c r="P260">
+        <v>367.93</v>
+      </c>
+      <c r="Q260">
+        <v>345.57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B261">
+        <v>10041.611000000001</v>
+      </c>
+      <c r="C261">
+        <v>9461.1200000000008</v>
+      </c>
+      <c r="D261">
+        <v>389.81</v>
+      </c>
+      <c r="E261">
+        <v>5177.76</v>
+      </c>
+      <c r="F261">
+        <v>210.1</v>
+      </c>
+      <c r="G261">
+        <v>123.4004</v>
+      </c>
+      <c r="H261">
+        <v>175.44</v>
+      </c>
+      <c r="I261">
+        <v>98.681200000000004</v>
+      </c>
+      <c r="J261">
+        <v>101.2818</v>
+      </c>
+      <c r="K261">
+        <v>135.21979999999999</v>
+      </c>
+      <c r="L261">
+        <v>834.54</v>
+      </c>
+      <c r="M261">
+        <v>1092.31</v>
+      </c>
+      <c r="N261">
+        <v>297.31689999999998</v>
+      </c>
+      <c r="O261">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="P261">
+        <v>368.18</v>
+      </c>
+      <c r="Q261">
+        <v>345.55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B262">
+        <v>10012.513999999999</v>
+      </c>
+      <c r="C262">
+        <v>9508.02</v>
+      </c>
+      <c r="D262">
+        <v>389.28</v>
+      </c>
+      <c r="E262">
+        <v>5211.6499999999996</v>
+      </c>
+      <c r="F262">
+        <v>212.33</v>
+      </c>
+      <c r="G262">
+        <v>123.23309999999999</v>
+      </c>
+      <c r="H262">
+        <v>175.32</v>
+      </c>
+      <c r="I262">
+        <v>98.672399999999996</v>
+      </c>
+      <c r="J262">
+        <v>101.2664</v>
+      </c>
+      <c r="K262">
+        <v>135.21299999999999</v>
+      </c>
+      <c r="L262">
+        <v>834.85</v>
+      </c>
+      <c r="M262">
+        <v>1088.5</v>
+      </c>
+      <c r="N262">
+        <v>297.44940000000003</v>
+      </c>
+      <c r="O262">
+        <v>287.16000000000003</v>
+      </c>
+      <c r="P262">
+        <v>368.24</v>
+      </c>
+      <c r="Q262">
+        <v>345.44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B263">
+        <v>9986.6980000000003</v>
+      </c>
+      <c r="C263">
+        <v>9491.1</v>
+      </c>
+      <c r="D263">
+        <v>389.04</v>
+      </c>
+      <c r="E263">
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="F263">
+        <v>214.08</v>
+      </c>
+      <c r="G263">
+        <v>122.8967</v>
+      </c>
+      <c r="H263">
+        <v>175.14</v>
+      </c>
+      <c r="I263">
+        <v>98.672499999999999</v>
+      </c>
+      <c r="J263">
+        <v>101.2684</v>
+      </c>
+      <c r="K263">
+        <v>135.21369999999999</v>
+      </c>
+      <c r="L263">
+        <v>835.24</v>
+      </c>
+      <c r="M263">
+        <v>1088</v>
+      </c>
+      <c r="N263">
+        <v>297.6395</v>
+      </c>
+      <c r="O263">
+        <v>287.23</v>
+      </c>
+      <c r="P263">
+        <v>368.34</v>
+      </c>
+      <c r="Q263">
+        <v>345.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12273,9 +14656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CBF1AD-778A-4315-8DA9-91EF89B8D4B8}">
   <dimension ref="A1:D3611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -62843,10 +65224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997370F-9A70-4CFD-8BA1-9E8D19D4CBB2}">
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView topLeftCell="F187" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Q223"/>
+    <sheetView topLeftCell="I232" workbookViewId="0">
+      <selection activeCell="A224" sqref="A224:Q268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62882,7 +65263,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44500</v>
+        <v>44561</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -63066,74 +65447,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=217")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=262")</f>
         <v>44196</v>
       </c>
       <c r="B7">
         <v>7759.3450000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>7694.85</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>328.2</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>5293.54</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>225.78</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>121.1456</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>174.36</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>118.34099999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>118.3858</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>146.64359999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>874.46</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>1121.2</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>296.39499999999998</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>289.33</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>377.49</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>341.99</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=262")</f>
         <v>167.03</v>
       </c>
     </row>
@@ -75231,6 +77612,2526 @@
       </c>
       <c r="R223">
         <v>169.41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B224">
+        <v>9642.4449999999997</v>
+      </c>
+      <c r="C224">
+        <v>9441.94</v>
+      </c>
+      <c r="D224">
+        <v>385</v>
+      </c>
+      <c r="E224">
+        <v>5210.9799999999996</v>
+      </c>
+      <c r="F224">
+        <v>209.17</v>
+      </c>
+      <c r="G224">
+        <v>121.4478</v>
+      </c>
+      <c r="H224">
+        <v>175.03</v>
+      </c>
+      <c r="I224">
+        <v>103.3227</v>
+      </c>
+      <c r="J224">
+        <v>104.7246</v>
+      </c>
+      <c r="K224">
+        <v>138.78700000000001</v>
+      </c>
+      <c r="L224">
+        <v>841.48</v>
+      </c>
+      <c r="M224">
+        <v>1083.42</v>
+      </c>
+      <c r="N224">
+        <v>293.40989999999999</v>
+      </c>
+      <c r="O224">
+        <v>289.38</v>
+      </c>
+      <c r="P224">
+        <v>374.77</v>
+      </c>
+      <c r="Q224">
+        <v>352.87</v>
+      </c>
+      <c r="R224">
+        <v>169.41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B225">
+        <v>9677.9449999999997</v>
+      </c>
+      <c r="C225">
+        <v>9478.56</v>
+      </c>
+      <c r="D225">
+        <v>385.53</v>
+      </c>
+      <c r="E225">
+        <v>5231.46</v>
+      </c>
+      <c r="F225">
+        <v>210.14</v>
+      </c>
+      <c r="G225">
+        <v>121.4815</v>
+      </c>
+      <c r="H225">
+        <v>174.99</v>
+      </c>
+      <c r="I225">
+        <v>103.29510000000001</v>
+      </c>
+      <c r="J225">
+        <v>104.6789</v>
+      </c>
+      <c r="K225">
+        <v>138.76849999999999</v>
+      </c>
+      <c r="L225">
+        <v>841.14</v>
+      </c>
+      <c r="M225">
+        <v>1084.51</v>
+      </c>
+      <c r="N225">
+        <v>293.363</v>
+      </c>
+      <c r="O225">
+        <v>289.38</v>
+      </c>
+      <c r="P225">
+        <v>374.6</v>
+      </c>
+      <c r="Q225">
+        <v>352.98</v>
+      </c>
+      <c r="R225">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B226">
+        <v>9740.4699999999993</v>
+      </c>
+      <c r="C226">
+        <v>9508.11</v>
+      </c>
+      <c r="D226">
+        <v>387.26</v>
+      </c>
+      <c r="E226">
+        <v>5205.45</v>
+      </c>
+      <c r="F226">
+        <v>207.37</v>
+      </c>
+      <c r="G226">
+        <v>121.5222</v>
+      </c>
+      <c r="H226">
+        <v>174.92</v>
+      </c>
+      <c r="I226">
+        <v>103.2787</v>
+      </c>
+      <c r="J226">
+        <v>104.6661</v>
+      </c>
+      <c r="K226">
+        <v>138.76169999999999</v>
+      </c>
+      <c r="L226">
+        <v>840.55</v>
+      </c>
+      <c r="M226">
+        <v>1084.48</v>
+      </c>
+      <c r="N226">
+        <v>293.14260000000002</v>
+      </c>
+      <c r="O226">
+        <v>289.47000000000003</v>
+      </c>
+      <c r="P226">
+        <v>374.9</v>
+      </c>
+      <c r="Q226">
+        <v>352.93</v>
+      </c>
+      <c r="R226">
+        <v>169.64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B227">
+        <v>9782.4809999999998</v>
+      </c>
+      <c r="C227">
+        <v>9560.4599999999991</v>
+      </c>
+      <c r="D227">
+        <v>388.82</v>
+      </c>
+      <c r="E227">
+        <v>5246.86</v>
+      </c>
+      <c r="F227">
+        <v>209.99</v>
+      </c>
+      <c r="G227">
+        <v>121.7286</v>
+      </c>
+      <c r="H227">
+        <v>175.14</v>
+      </c>
+      <c r="I227">
+        <v>103.2792</v>
+      </c>
+      <c r="J227">
+        <v>104.65300000000001</v>
+      </c>
+      <c r="K227">
+        <v>138.75700000000001</v>
+      </c>
+      <c r="L227">
+        <v>840.12</v>
+      </c>
+      <c r="M227">
+        <v>1087.78</v>
+      </c>
+      <c r="N227">
+        <v>293.22460000000001</v>
+      </c>
+      <c r="O227">
+        <v>289.67</v>
+      </c>
+      <c r="P227">
+        <v>375.22</v>
+      </c>
+      <c r="Q227">
+        <v>353.13</v>
+      </c>
+      <c r="R227">
+        <v>169.64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B228">
+        <v>9819.9830000000002</v>
+      </c>
+      <c r="C228">
+        <v>9626</v>
+      </c>
+      <c r="D228">
+        <v>389.5</v>
+      </c>
+      <c r="E228">
+        <v>5307.68</v>
+      </c>
+      <c r="F228">
+        <v>213.81</v>
+      </c>
+      <c r="G228">
+        <v>122.1189</v>
+      </c>
+      <c r="H228">
+        <v>175.41</v>
+      </c>
+      <c r="I228">
+        <v>103.2886</v>
+      </c>
+      <c r="J228">
+        <v>104.6567</v>
+      </c>
+      <c r="K228">
+        <v>138.761</v>
+      </c>
+      <c r="L228">
+        <v>839.73</v>
+      </c>
+      <c r="M228">
+        <v>1089.26</v>
+      </c>
+      <c r="N228">
+        <v>294.3399</v>
+      </c>
+      <c r="O228">
+        <v>289.81</v>
+      </c>
+      <c r="P228">
+        <v>375.42</v>
+      </c>
+      <c r="Q228">
+        <v>353.5</v>
+      </c>
+      <c r="R228">
+        <v>169.38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B229">
+        <v>9828.81</v>
+      </c>
+      <c r="C229">
+        <v>9602.7900000000009</v>
+      </c>
+      <c r="D229">
+        <v>390.27</v>
+      </c>
+      <c r="E229">
+        <v>5298.21</v>
+      </c>
+      <c r="F229">
+        <v>213.78</v>
+      </c>
+      <c r="G229">
+        <v>122.1955</v>
+      </c>
+      <c r="H229">
+        <v>175.33</v>
+      </c>
+      <c r="I229">
+        <v>103.3035</v>
+      </c>
+      <c r="J229">
+        <v>104.6721</v>
+      </c>
+      <c r="K229">
+        <v>138.7679</v>
+      </c>
+      <c r="L229">
+        <v>839.62</v>
+      </c>
+      <c r="M229">
+        <v>1087.22</v>
+      </c>
+      <c r="N229">
+        <v>294.4384</v>
+      </c>
+      <c r="O229">
+        <v>290.17</v>
+      </c>
+      <c r="P229">
+        <v>375.6</v>
+      </c>
+      <c r="Q229">
+        <v>353.88</v>
+      </c>
+      <c r="R229">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B230">
+        <v>9795.1239999999998</v>
+      </c>
+      <c r="C230">
+        <v>9585.3799999999992</v>
+      </c>
+      <c r="D230">
+        <v>389.37</v>
+      </c>
+      <c r="E230">
+        <v>5335.74</v>
+      </c>
+      <c r="F230">
+        <v>217.26</v>
+      </c>
+      <c r="G230">
+        <v>122.1349</v>
+      </c>
+      <c r="H230">
+        <v>175.28</v>
+      </c>
+      <c r="I230">
+        <v>103.3301</v>
+      </c>
+      <c r="J230">
+        <v>104.71210000000001</v>
+      </c>
+      <c r="K230">
+        <v>138.78540000000001</v>
+      </c>
+      <c r="L230">
+        <v>839.92</v>
+      </c>
+      <c r="M230">
+        <v>1091.51</v>
+      </c>
+      <c r="N230">
+        <v>294.43470000000002</v>
+      </c>
+      <c r="O230">
+        <v>290.18</v>
+      </c>
+      <c r="P230">
+        <v>375.44</v>
+      </c>
+      <c r="Q230">
+        <v>354.08</v>
+      </c>
+      <c r="R230">
+        <v>169.44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B231">
+        <v>9716.7240000000002</v>
+      </c>
+      <c r="C231">
+        <v>9594.6200000000008</v>
+      </c>
+      <c r="D231">
+        <v>386.66</v>
+      </c>
+      <c r="E231">
+        <v>5257.72</v>
+      </c>
+      <c r="F231">
+        <v>212.56</v>
+      </c>
+      <c r="G231">
+        <v>121.86709999999999</v>
+      </c>
+      <c r="H231">
+        <v>175.19</v>
+      </c>
+      <c r="I231">
+        <v>103.3252</v>
+      </c>
+      <c r="J231">
+        <v>104.69880000000001</v>
+      </c>
+      <c r="K231">
+        <v>138.77889999999999</v>
+      </c>
+      <c r="L231">
+        <v>840.72</v>
+      </c>
+      <c r="M231">
+        <v>1090.83</v>
+      </c>
+      <c r="N231">
+        <v>294.22789999999998</v>
+      </c>
+      <c r="O231">
+        <v>289.99</v>
+      </c>
+      <c r="P231">
+        <v>375.1</v>
+      </c>
+      <c r="Q231">
+        <v>354.14</v>
+      </c>
+      <c r="R231">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B232">
+        <v>9722.08</v>
+      </c>
+      <c r="C232">
+        <v>9614.86</v>
+      </c>
+      <c r="D232">
+        <v>386.96</v>
+      </c>
+      <c r="E232">
+        <v>5257.72</v>
+      </c>
+      <c r="F232">
+        <v>212.56</v>
+      </c>
+      <c r="G232">
+        <v>121.6452</v>
+      </c>
+      <c r="H232">
+        <v>175.13</v>
+      </c>
+      <c r="I232">
+        <v>103.2666</v>
+      </c>
+      <c r="J232">
+        <v>104.6523</v>
+      </c>
+      <c r="K232">
+        <v>138.74809999999999</v>
+      </c>
+      <c r="L232">
+        <v>840.81</v>
+      </c>
+      <c r="M232">
+        <v>1088.78</v>
+      </c>
+      <c r="N232">
+        <v>294.46050000000002</v>
+      </c>
+      <c r="O232">
+        <v>290.25</v>
+      </c>
+      <c r="P232">
+        <v>375.61</v>
+      </c>
+      <c r="Q232">
+        <v>354.41</v>
+      </c>
+      <c r="R232">
+        <v>169.41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B233">
+        <v>9793.2160000000003</v>
+      </c>
+      <c r="C233">
+        <v>9642.08</v>
+      </c>
+      <c r="D233">
+        <v>389.46</v>
+      </c>
+      <c r="E233">
+        <v>5228.8500000000004</v>
+      </c>
+      <c r="F233">
+        <v>210.82</v>
+      </c>
+      <c r="G233">
+        <v>121.8442</v>
+      </c>
+      <c r="H233">
+        <v>175.16</v>
+      </c>
+      <c r="I233">
+        <v>103.2098</v>
+      </c>
+      <c r="J233">
+        <v>104.6031</v>
+      </c>
+      <c r="K233">
+        <v>138.7166</v>
+      </c>
+      <c r="L233">
+        <v>839.96</v>
+      </c>
+      <c r="M233">
+        <v>1090.55</v>
+      </c>
+      <c r="N233">
+        <v>294.24340000000001</v>
+      </c>
+      <c r="O233">
+        <v>289.86</v>
+      </c>
+      <c r="P233">
+        <v>375.41</v>
+      </c>
+      <c r="Q233">
+        <v>354.38</v>
+      </c>
+      <c r="R233">
+        <v>169.63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B234">
+        <v>9793.5249999999996</v>
+      </c>
+      <c r="C234">
+        <v>9677.07</v>
+      </c>
+      <c r="D234">
+        <v>389.81</v>
+      </c>
+      <c r="E234">
+        <v>5172.7700000000004</v>
+      </c>
+      <c r="F234">
+        <v>207.28</v>
+      </c>
+      <c r="G234">
+        <v>121.8832</v>
+      </c>
+      <c r="H234">
+        <v>175.07</v>
+      </c>
+      <c r="I234">
+        <v>103.20359999999999</v>
+      </c>
+      <c r="J234">
+        <v>104.58969999999999</v>
+      </c>
+      <c r="K234">
+        <v>138.715</v>
+      </c>
+      <c r="L234">
+        <v>839.97</v>
+      </c>
+      <c r="M234">
+        <v>1089.51</v>
+      </c>
+      <c r="N234">
+        <v>294.10719999999998</v>
+      </c>
+      <c r="O234">
+        <v>290.18</v>
+      </c>
+      <c r="P234">
+        <v>375.51</v>
+      </c>
+      <c r="Q234">
+        <v>354.56</v>
+      </c>
+      <c r="R234">
+        <v>169.73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B235">
+        <v>9831.91</v>
+      </c>
+      <c r="C235">
+        <v>9711.67</v>
+      </c>
+      <c r="D235">
+        <v>390.54</v>
+      </c>
+      <c r="E235">
+        <v>5155.9399999999996</v>
+      </c>
+      <c r="F235">
+        <v>206.74</v>
+      </c>
+      <c r="G235">
+        <v>122.0932</v>
+      </c>
+      <c r="H235">
+        <v>175.15</v>
+      </c>
+      <c r="I235">
+        <v>103.17829999999999</v>
+      </c>
+      <c r="J235">
+        <v>104.5665</v>
+      </c>
+      <c r="K235">
+        <v>138.69990000000001</v>
+      </c>
+      <c r="L235">
+        <v>839.56</v>
+      </c>
+      <c r="M235">
+        <v>1087.92</v>
+      </c>
+      <c r="N235">
+        <v>293.97590000000002</v>
+      </c>
+      <c r="O235">
+        <v>290.18</v>
+      </c>
+      <c r="P235">
+        <v>375.43</v>
+      </c>
+      <c r="Q235">
+        <v>354.56</v>
+      </c>
+      <c r="R235">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B236">
+        <v>9808.27</v>
+      </c>
+      <c r="C236">
+        <v>9710.16</v>
+      </c>
+      <c r="D236">
+        <v>389.28</v>
+      </c>
+      <c r="E236">
+        <v>5180.62</v>
+      </c>
+      <c r="F236">
+        <v>208.76</v>
+      </c>
+      <c r="G236">
+        <v>122.3964</v>
+      </c>
+      <c r="H236">
+        <v>175.27</v>
+      </c>
+      <c r="I236">
+        <v>103.1932</v>
+      </c>
+      <c r="J236">
+        <v>104.5772</v>
+      </c>
+      <c r="K236">
+        <v>138.70509999999999</v>
+      </c>
+      <c r="L236">
+        <v>839.74</v>
+      </c>
+      <c r="M236">
+        <v>1088.47</v>
+      </c>
+      <c r="N236">
+        <v>294.00749999999999</v>
+      </c>
+      <c r="O236">
+        <v>290.45</v>
+      </c>
+      <c r="P236">
+        <v>375.76</v>
+      </c>
+      <c r="Q236">
+        <v>354.68</v>
+      </c>
+      <c r="R236">
+        <v>169.68</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B237">
+        <v>9842.3459999999995</v>
+      </c>
+      <c r="C237">
+        <v>9672.42</v>
+      </c>
+      <c r="D237">
+        <v>389.43</v>
+      </c>
+      <c r="E237">
+        <v>5196.12</v>
+      </c>
+      <c r="F237">
+        <v>209.72</v>
+      </c>
+      <c r="G237">
+        <v>122.5077</v>
+      </c>
+      <c r="H237">
+        <v>175.39</v>
+      </c>
+      <c r="I237">
+        <v>103.1982</v>
+      </c>
+      <c r="J237">
+        <v>104.60120000000001</v>
+      </c>
+      <c r="K237">
+        <v>138.71090000000001</v>
+      </c>
+      <c r="L237">
+        <v>839.33</v>
+      </c>
+      <c r="M237">
+        <v>1090.78</v>
+      </c>
+      <c r="N237">
+        <v>294.0412</v>
+      </c>
+      <c r="O237">
+        <v>290.56</v>
+      </c>
+      <c r="P237">
+        <v>375.98</v>
+      </c>
+      <c r="Q237">
+        <v>354.7</v>
+      </c>
+      <c r="R237">
+        <v>169.73</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B238">
+        <v>9828.7990000000009</v>
+      </c>
+      <c r="C238">
+        <v>9612.34</v>
+      </c>
+      <c r="D238">
+        <v>388.58</v>
+      </c>
+      <c r="E238">
+        <v>5231.01</v>
+      </c>
+      <c r="F238">
+        <v>212.67</v>
+      </c>
+      <c r="G238">
+        <v>122.49720000000001</v>
+      </c>
+      <c r="H238">
+        <v>175.33</v>
+      </c>
+      <c r="I238">
+        <v>103.2212</v>
+      </c>
+      <c r="J238">
+        <v>104.6293</v>
+      </c>
+      <c r="K238">
+        <v>138.72730000000001</v>
+      </c>
+      <c r="L238">
+        <v>839.45</v>
+      </c>
+      <c r="M238">
+        <v>1089.42</v>
+      </c>
+      <c r="N238">
+        <v>294.09899999999999</v>
+      </c>
+      <c r="O238">
+        <v>290.83</v>
+      </c>
+      <c r="P238">
+        <v>376.29</v>
+      </c>
+      <c r="Q238">
+        <v>355.18</v>
+      </c>
+      <c r="R238">
+        <v>169.74</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B239">
+        <v>9798.2950000000001</v>
+      </c>
+      <c r="C239">
+        <v>9576.77</v>
+      </c>
+      <c r="D239">
+        <v>386.37</v>
+      </c>
+      <c r="E239">
+        <v>5182.26</v>
+      </c>
+      <c r="F239">
+        <v>209.74</v>
+      </c>
+      <c r="G239">
+        <v>122.46259999999999</v>
+      </c>
+      <c r="H239">
+        <v>175.43</v>
+      </c>
+      <c r="I239">
+        <v>103.2264</v>
+      </c>
+      <c r="J239">
+        <v>104.57899999999999</v>
+      </c>
+      <c r="K239">
+        <v>138.714</v>
+      </c>
+      <c r="L239">
+        <v>839.79</v>
+      </c>
+      <c r="M239">
+        <v>1090.27</v>
+      </c>
+      <c r="N239">
+        <v>294.03640000000001</v>
+      </c>
+      <c r="O239">
+        <v>290.75</v>
+      </c>
+      <c r="P239">
+        <v>376.78</v>
+      </c>
+      <c r="Q239">
+        <v>355.24</v>
+      </c>
+      <c r="R239">
+        <v>169.54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B240">
+        <v>9814.6479999999992</v>
+      </c>
+      <c r="C240">
+        <v>9455.64</v>
+      </c>
+      <c r="D240">
+        <v>385.67</v>
+      </c>
+      <c r="E240">
+        <v>5116.6400000000003</v>
+      </c>
+      <c r="F240">
+        <v>205.77</v>
+      </c>
+      <c r="G240">
+        <v>122.3322</v>
+      </c>
+      <c r="H240">
+        <v>175.22</v>
+      </c>
+      <c r="I240">
+        <v>103.2706</v>
+      </c>
+      <c r="J240">
+        <v>104.6523</v>
+      </c>
+      <c r="K240">
+        <v>138.75460000000001</v>
+      </c>
+      <c r="L240">
+        <v>839.58</v>
+      </c>
+      <c r="M240">
+        <v>1091.97</v>
+      </c>
+      <c r="N240">
+        <v>294.05369999999999</v>
+      </c>
+      <c r="O240">
+        <v>291.41000000000003</v>
+      </c>
+      <c r="P240">
+        <v>377.11</v>
+      </c>
+      <c r="Q240">
+        <v>355.91</v>
+      </c>
+      <c r="R240">
+        <v>169.81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B241">
+        <v>9837.5959999999995</v>
+      </c>
+      <c r="C241">
+        <v>9438.94</v>
+      </c>
+      <c r="D241">
+        <v>385.73</v>
+      </c>
+      <c r="E241">
+        <v>5163.1499999999996</v>
+      </c>
+      <c r="F241">
+        <v>210.11</v>
+      </c>
+      <c r="G241">
+        <v>122.274</v>
+      </c>
+      <c r="H241">
+        <v>175.24</v>
+      </c>
+      <c r="I241">
+        <v>103.15819999999999</v>
+      </c>
+      <c r="J241">
+        <v>104.6163</v>
+      </c>
+      <c r="K241">
+        <v>138.68950000000001</v>
+      </c>
+      <c r="L241">
+        <v>839.35</v>
+      </c>
+      <c r="M241">
+        <v>1090.96</v>
+      </c>
+      <c r="N241">
+        <v>293.98689999999999</v>
+      </c>
+      <c r="O241">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="P241">
+        <v>377.72</v>
+      </c>
+      <c r="Q241">
+        <v>356.19</v>
+      </c>
+      <c r="R241">
+        <v>169.92</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B242">
+        <v>9837.5959999999995</v>
+      </c>
+      <c r="C242">
+        <v>9476.4500000000007</v>
+      </c>
+      <c r="D242">
+        <v>386.26</v>
+      </c>
+      <c r="E242">
+        <v>5163.1499999999996</v>
+      </c>
+      <c r="F242">
+        <v>210.11</v>
+      </c>
+      <c r="G242">
+        <v>122.274</v>
+      </c>
+      <c r="H242">
+        <v>175.24</v>
+      </c>
+      <c r="I242">
+        <v>103.15819999999999</v>
+      </c>
+      <c r="J242">
+        <v>104.6163</v>
+      </c>
+      <c r="K242">
+        <v>138.68950000000001</v>
+      </c>
+      <c r="L242">
+        <v>839.35</v>
+      </c>
+      <c r="M242">
+        <v>1090.96</v>
+      </c>
+      <c r="N242">
+        <v>293.98689999999999</v>
+      </c>
+      <c r="O242">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="P242">
+        <v>377.72</v>
+      </c>
+      <c r="Q242">
+        <v>356.19</v>
+      </c>
+      <c r="R242">
+        <v>169.92</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B243">
+        <v>9614.2489999999998</v>
+      </c>
+      <c r="C243">
+        <v>9026.91</v>
+      </c>
+      <c r="D243">
+        <v>377.63</v>
+      </c>
+      <c r="E243">
+        <v>5231.09</v>
+      </c>
+      <c r="F243">
+        <v>216.64</v>
+      </c>
+      <c r="G243">
+        <v>123.2086</v>
+      </c>
+      <c r="H243">
+        <v>176.32</v>
+      </c>
+      <c r="I243">
+        <v>103.7687</v>
+      </c>
+      <c r="J243">
+        <v>105.1404</v>
+      </c>
+      <c r="K243">
+        <v>138.98609999999999</v>
+      </c>
+      <c r="L243">
+        <v>841.34</v>
+      </c>
+      <c r="M243">
+        <v>1088.4000000000001</v>
+      </c>
+      <c r="N243">
+        <v>294.59640000000002</v>
+      </c>
+      <c r="O243">
+        <v>291.24</v>
+      </c>
+      <c r="P243">
+        <v>374.68</v>
+      </c>
+      <c r="Q243">
+        <v>353.42</v>
+      </c>
+      <c r="R243">
+        <v>168.57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B244">
+        <v>9741.7810000000009</v>
+      </c>
+      <c r="C244">
+        <v>9070.89</v>
+      </c>
+      <c r="D244">
+        <v>380.05</v>
+      </c>
+      <c r="E244">
+        <v>5210.4799999999996</v>
+      </c>
+      <c r="F244">
+        <v>214.38</v>
+      </c>
+      <c r="G244">
+        <v>122.6966</v>
+      </c>
+      <c r="H244">
+        <v>175.53</v>
+      </c>
+      <c r="I244">
+        <v>101.639</v>
+      </c>
+      <c r="J244">
+        <v>104.0817</v>
+      </c>
+      <c r="K244">
+        <v>138.08529999999999</v>
+      </c>
+      <c r="L244">
+        <v>840.01</v>
+      </c>
+      <c r="M244">
+        <v>1086.6300000000001</v>
+      </c>
+      <c r="N244">
+        <v>297.92970000000003</v>
+      </c>
+      <c r="O244">
+        <v>291.44</v>
+      </c>
+      <c r="P244">
+        <v>374.47</v>
+      </c>
+      <c r="Q244">
+        <v>354.38</v>
+      </c>
+      <c r="R244">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B245">
+        <v>9558.3310000000001</v>
+      </c>
+      <c r="C245">
+        <v>8970.07</v>
+      </c>
+      <c r="D245">
+        <v>374.08</v>
+      </c>
+      <c r="E245">
+        <v>5256.08</v>
+      </c>
+      <c r="F245">
+        <v>218.69</v>
+      </c>
+      <c r="G245">
+        <v>123.1909</v>
+      </c>
+      <c r="H245">
+        <v>176.65</v>
+      </c>
+      <c r="I245">
+        <v>102.54040000000001</v>
+      </c>
+      <c r="J245">
+        <v>104.60169999999999</v>
+      </c>
+      <c r="K245">
+        <v>138.6003</v>
+      </c>
+      <c r="L245">
+        <v>842.19</v>
+      </c>
+      <c r="M245">
+        <v>1085.77</v>
+      </c>
+      <c r="N245">
+        <v>299.4187</v>
+      </c>
+      <c r="O245">
+        <v>291.52</v>
+      </c>
+      <c r="P245">
+        <v>373.83</v>
+      </c>
+      <c r="Q245">
+        <v>354.23</v>
+      </c>
+      <c r="R245">
+        <v>169.09</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B246">
+        <v>9446.2049999999999</v>
+      </c>
+      <c r="C246">
+        <v>9226.36</v>
+      </c>
+      <c r="D246">
+        <v>373.13</v>
+      </c>
+      <c r="E246">
+        <v>5266.61</v>
+      </c>
+      <c r="F246">
+        <v>220.16</v>
+      </c>
+      <c r="G246">
+        <v>123.4919</v>
+      </c>
+      <c r="H246">
+        <v>177.33</v>
+      </c>
+      <c r="I246">
+        <v>102.38160000000001</v>
+      </c>
+      <c r="J246">
+        <v>104.4662</v>
+      </c>
+      <c r="K246">
+        <v>138.12190000000001</v>
+      </c>
+      <c r="L246">
+        <v>843.13</v>
+      </c>
+      <c r="M246">
+        <v>1081.68</v>
+      </c>
+      <c r="N246">
+        <v>296.87569999999999</v>
+      </c>
+      <c r="O246">
+        <v>290.45999999999998</v>
+      </c>
+      <c r="P246">
+        <v>372.13</v>
+      </c>
+      <c r="Q246">
+        <v>352.95</v>
+      </c>
+      <c r="R246">
+        <v>168.07</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B247">
+        <v>9581.7900000000009</v>
+      </c>
+      <c r="C247">
+        <v>9070.7199999999993</v>
+      </c>
+      <c r="D247">
+        <v>376</v>
+      </c>
+      <c r="E247">
+        <v>5263.24</v>
+      </c>
+      <c r="F247">
+        <v>220.76</v>
+      </c>
+      <c r="G247">
+        <v>123.4169</v>
+      </c>
+      <c r="H247">
+        <v>177.06</v>
+      </c>
+      <c r="I247">
+        <v>102.6031</v>
+      </c>
+      <c r="J247">
+        <v>105.50190000000001</v>
+      </c>
+      <c r="K247">
+        <v>138.6942</v>
+      </c>
+      <c r="L247">
+        <v>840.85</v>
+      </c>
+      <c r="M247">
+        <v>1085.67</v>
+      </c>
+      <c r="N247">
+        <v>297.78149999999999</v>
+      </c>
+      <c r="O247">
+        <v>289.54000000000002</v>
+      </c>
+      <c r="P247">
+        <v>371.57</v>
+      </c>
+      <c r="Q247">
+        <v>351.56</v>
+      </c>
+      <c r="R247">
+        <v>169.04</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B248">
+        <v>9501.2829999999994</v>
+      </c>
+      <c r="C248">
+        <v>9009.18</v>
+      </c>
+      <c r="D248">
+        <v>372.96</v>
+      </c>
+      <c r="E248">
+        <v>5324.41</v>
+      </c>
+      <c r="F248">
+        <v>223.89</v>
+      </c>
+      <c r="G248">
+        <v>124.0652</v>
+      </c>
+      <c r="H248">
+        <v>178.39</v>
+      </c>
+      <c r="I248">
+        <v>104.6388</v>
+      </c>
+      <c r="J248">
+        <v>107.0164</v>
+      </c>
+      <c r="K248">
+        <v>139.7979</v>
+      </c>
+      <c r="L248">
+        <v>841.43</v>
+      </c>
+      <c r="M248">
+        <v>1094.52</v>
+      </c>
+      <c r="N248">
+        <v>299.5247</v>
+      </c>
+      <c r="O248">
+        <v>290.44</v>
+      </c>
+      <c r="P248">
+        <v>372.13</v>
+      </c>
+      <c r="Q248">
+        <v>351.61</v>
+      </c>
+      <c r="R248">
+        <v>169.92</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B249">
+        <v>9613.0210000000006</v>
+      </c>
+      <c r="C249">
+        <v>9134.94</v>
+      </c>
+      <c r="D249">
+        <v>375.88</v>
+      </c>
+      <c r="E249">
+        <v>5286.71</v>
+      </c>
+      <c r="F249">
+        <v>220.09</v>
+      </c>
+      <c r="G249">
+        <v>123.7758</v>
+      </c>
+      <c r="H249">
+        <v>177.23</v>
+      </c>
+      <c r="I249">
+        <v>102.4434</v>
+      </c>
+      <c r="J249">
+        <v>105.1371</v>
+      </c>
+      <c r="K249">
+        <v>137.9469</v>
+      </c>
+      <c r="L249">
+        <v>840.07</v>
+      </c>
+      <c r="M249">
+        <v>1090.76</v>
+      </c>
+      <c r="N249">
+        <v>300.8698</v>
+      </c>
+      <c r="O249">
+        <v>290.02</v>
+      </c>
+      <c r="P249">
+        <v>370.96</v>
+      </c>
+      <c r="Q249">
+        <v>351.27</v>
+      </c>
+      <c r="R249">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B250">
+        <v>9812.1970000000001</v>
+      </c>
+      <c r="C250">
+        <v>9442.06</v>
+      </c>
+      <c r="D250">
+        <v>383.8</v>
+      </c>
+      <c r="E250">
+        <v>5277.3</v>
+      </c>
+      <c r="F250">
+        <v>217.98</v>
+      </c>
+      <c r="G250">
+        <v>123.43040000000001</v>
+      </c>
+      <c r="H250">
+        <v>175.89</v>
+      </c>
+      <c r="I250">
+        <v>100.0787</v>
+      </c>
+      <c r="J250">
+        <v>102.6358</v>
+      </c>
+      <c r="K250">
+        <v>136.02260000000001</v>
+      </c>
+      <c r="L250">
+        <v>837.55</v>
+      </c>
+      <c r="M250">
+        <v>1090.6199999999999</v>
+      </c>
+      <c r="N250">
+        <v>298.15559999999999</v>
+      </c>
+      <c r="O250">
+        <v>289.32</v>
+      </c>
+      <c r="P250">
+        <v>370.36</v>
+      </c>
+      <c r="Q250">
+        <v>349.78</v>
+      </c>
+      <c r="R250">
+        <v>169.68</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B251">
+        <v>9842.6830000000009</v>
+      </c>
+      <c r="C251">
+        <v>9346.8799999999992</v>
+      </c>
+      <c r="D251">
+        <v>385.3</v>
+      </c>
+      <c r="E251">
+        <v>5217.1000000000004</v>
+      </c>
+      <c r="F251">
+        <v>213.24</v>
+      </c>
+      <c r="G251">
+        <v>123.0741</v>
+      </c>
+      <c r="H251">
+        <v>175.58</v>
+      </c>
+      <c r="I251">
+        <v>99.714299999999994</v>
+      </c>
+      <c r="J251">
+        <v>102.3622</v>
+      </c>
+      <c r="K251">
+        <v>135.8612</v>
+      </c>
+      <c r="L251">
+        <v>837.56</v>
+      </c>
+      <c r="M251">
+        <v>1093.18</v>
+      </c>
+      <c r="N251">
+        <v>296.82709999999997</v>
+      </c>
+      <c r="O251">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="P251">
+        <v>370.34</v>
+      </c>
+      <c r="Q251">
+        <v>349.24</v>
+      </c>
+      <c r="R251">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B252">
+        <v>9773.1910000000007</v>
+      </c>
+      <c r="C252">
+        <v>9292.1299999999992</v>
+      </c>
+      <c r="D252">
+        <v>383.01</v>
+      </c>
+      <c r="E252">
+        <v>5229.07</v>
+      </c>
+      <c r="F252">
+        <v>214.62</v>
+      </c>
+      <c r="G252">
+        <v>123.0487</v>
+      </c>
+      <c r="H252">
+        <v>175.64</v>
+      </c>
+      <c r="I252">
+        <v>99.695700000000002</v>
+      </c>
+      <c r="J252">
+        <v>102.1897</v>
+      </c>
+      <c r="K252">
+        <v>135.81559999999999</v>
+      </c>
+      <c r="L252">
+        <v>838.25</v>
+      </c>
+      <c r="M252">
+        <v>1094.08</v>
+      </c>
+      <c r="N252">
+        <v>297.2978</v>
+      </c>
+      <c r="O252">
+        <v>289.32</v>
+      </c>
+      <c r="P252">
+        <v>370.49</v>
+      </c>
+      <c r="Q252">
+        <v>349.06</v>
+      </c>
+      <c r="R252">
+        <v>169.87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B253">
+        <v>9866.6219999999994</v>
+      </c>
+      <c r="C253">
+        <v>9271.9599999999991</v>
+      </c>
+      <c r="D253">
+        <v>384.37</v>
+      </c>
+      <c r="E253">
+        <v>5220.09</v>
+      </c>
+      <c r="F253">
+        <v>213.84</v>
+      </c>
+      <c r="G253">
+        <v>123.17230000000001</v>
+      </c>
+      <c r="H253">
+        <v>175.36</v>
+      </c>
+      <c r="I253">
+        <v>99.486000000000004</v>
+      </c>
+      <c r="J253">
+        <v>102.1191</v>
+      </c>
+      <c r="K253">
+        <v>135.7567</v>
+      </c>
+      <c r="L253">
+        <v>837.23</v>
+      </c>
+      <c r="M253">
+        <v>1094.1300000000001</v>
+      </c>
+      <c r="N253">
+        <v>297.80509999999998</v>
+      </c>
+      <c r="O253">
+        <v>288.82</v>
+      </c>
+      <c r="P253">
+        <v>370.12</v>
+      </c>
+      <c r="Q253">
+        <v>348.96</v>
+      </c>
+      <c r="R253">
+        <v>170.09</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B254">
+        <v>9776.6890000000003</v>
+      </c>
+      <c r="C254">
+        <v>9236.36</v>
+      </c>
+      <c r="D254">
+        <v>381.29</v>
+      </c>
+      <c r="E254">
+        <v>5268.08</v>
+      </c>
+      <c r="F254">
+        <v>217.72</v>
+      </c>
+      <c r="G254">
+        <v>123.1041</v>
+      </c>
+      <c r="H254">
+        <v>175.43</v>
+      </c>
+      <c r="I254">
+        <v>99.522599999999997</v>
+      </c>
+      <c r="J254">
+        <v>102.1525</v>
+      </c>
+      <c r="K254">
+        <v>135.77090000000001</v>
+      </c>
+      <c r="L254">
+        <v>838.48</v>
+      </c>
+      <c r="M254">
+        <v>1095.08</v>
+      </c>
+      <c r="N254">
+        <v>298.54950000000002</v>
+      </c>
+      <c r="O254">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="P254">
+        <v>370.15</v>
+      </c>
+      <c r="Q254">
+        <v>348.95</v>
+      </c>
+      <c r="R254">
+        <v>170.15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B255">
+        <v>9705.0560000000005</v>
+      </c>
+      <c r="C255">
+        <v>9151.2900000000009</v>
+      </c>
+      <c r="D255">
+        <v>378.46</v>
+      </c>
+      <c r="E255">
+        <v>5243.79</v>
+      </c>
+      <c r="F255">
+        <v>217.2</v>
+      </c>
+      <c r="G255">
+        <v>122.9729</v>
+      </c>
+      <c r="H255">
+        <v>175.16</v>
+      </c>
+      <c r="I255">
+        <v>99.648200000000003</v>
+      </c>
+      <c r="J255">
+        <v>102.2687</v>
+      </c>
+      <c r="K255">
+        <v>135.85050000000001</v>
+      </c>
+      <c r="L255">
+        <v>839.2</v>
+      </c>
+      <c r="M255">
+        <v>1096.31</v>
+      </c>
+      <c r="N255">
+        <v>298.21710000000002</v>
+      </c>
+      <c r="O255">
+        <v>288.33999999999997</v>
+      </c>
+      <c r="P255">
+        <v>369.29</v>
+      </c>
+      <c r="Q255">
+        <v>348.95</v>
+      </c>
+      <c r="R255">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B256">
+        <v>9863.9240000000009</v>
+      </c>
+      <c r="C256">
+        <v>9184.7800000000007</v>
+      </c>
+      <c r="D256">
+        <v>382.16</v>
+      </c>
+      <c r="E256">
+        <v>5209.97</v>
+      </c>
+      <c r="F256">
+        <v>214.51</v>
+      </c>
+      <c r="G256">
+        <v>123.1075</v>
+      </c>
+      <c r="H256">
+        <v>175.13</v>
+      </c>
+      <c r="I256">
+        <v>99.496700000000004</v>
+      </c>
+      <c r="J256">
+        <v>102.21850000000001</v>
+      </c>
+      <c r="K256">
+        <v>135.81790000000001</v>
+      </c>
+      <c r="L256">
+        <v>837.07</v>
+      </c>
+      <c r="M256">
+        <v>1100.04</v>
+      </c>
+      <c r="N256">
+        <v>298.9144</v>
+      </c>
+      <c r="O256">
+        <v>287.94</v>
+      </c>
+      <c r="P256">
+        <v>369.11</v>
+      </c>
+      <c r="Q256">
+        <v>348.28</v>
+      </c>
+      <c r="R256">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B257">
+        <v>9778.0939999999991</v>
+      </c>
+      <c r="C257">
+        <v>9277.94</v>
+      </c>
+      <c r="D257">
+        <v>381.68</v>
+      </c>
+      <c r="E257">
+        <v>5216.5200000000004</v>
+      </c>
+      <c r="F257">
+        <v>214.28</v>
+      </c>
+      <c r="G257">
+        <v>123.2486</v>
+      </c>
+      <c r="H257">
+        <v>175.27</v>
+      </c>
+      <c r="I257">
+        <v>99.329599999999999</v>
+      </c>
+      <c r="J257">
+        <v>101.8763</v>
+      </c>
+      <c r="K257">
+        <v>135.6628</v>
+      </c>
+      <c r="L257">
+        <v>838.05</v>
+      </c>
+      <c r="M257">
+        <v>1107.1300000000001</v>
+      </c>
+      <c r="N257">
+        <v>299.90719999999999</v>
+      </c>
+      <c r="O257">
+        <v>287.98</v>
+      </c>
+      <c r="P257">
+        <v>368.76</v>
+      </c>
+      <c r="Q257">
+        <v>347.41</v>
+      </c>
+      <c r="R257">
+        <v>170.29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B258">
+        <v>9678.0349999999999</v>
+      </c>
+      <c r="C258">
+        <v>9188.4699999999993</v>
+      </c>
+      <c r="D258">
+        <v>378.48</v>
+      </c>
+      <c r="E258">
+        <v>5243.91</v>
+      </c>
+      <c r="F258">
+        <v>217.42</v>
+      </c>
+      <c r="G258">
+        <v>123.16249999999999</v>
+      </c>
+      <c r="H258">
+        <v>174.97</v>
+      </c>
+      <c r="I258">
+        <v>99.405900000000003</v>
+      </c>
+      <c r="J258">
+        <v>101.94450000000001</v>
+      </c>
+      <c r="K258">
+        <v>135.6806</v>
+      </c>
+      <c r="L258">
+        <v>839.52</v>
+      </c>
+      <c r="M258">
+        <v>1102.32</v>
+      </c>
+      <c r="N258">
+        <v>299.2285</v>
+      </c>
+      <c r="O258">
+        <v>288.25</v>
+      </c>
+      <c r="P258">
+        <v>369.09</v>
+      </c>
+      <c r="Q258">
+        <v>347.34</v>
+      </c>
+      <c r="R258">
+        <v>169.96</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B259">
+        <v>9567.9060000000009</v>
+      </c>
+      <c r="C259">
+        <v>9068.75</v>
+      </c>
+      <c r="D259">
+        <v>373.37</v>
+      </c>
+      <c r="E259">
+        <v>5206.3100000000004</v>
+      </c>
+      <c r="F259">
+        <v>215.61</v>
+      </c>
+      <c r="G259">
+        <v>122.60429999999999</v>
+      </c>
+      <c r="H259">
+        <v>174.73</v>
+      </c>
+      <c r="I259">
+        <v>99.684899999999999</v>
+      </c>
+      <c r="J259">
+        <v>102.2089</v>
+      </c>
+      <c r="K259">
+        <v>135.86439999999999</v>
+      </c>
+      <c r="L259">
+        <v>841.23</v>
+      </c>
+      <c r="M259">
+        <v>1100.58</v>
+      </c>
+      <c r="N259">
+        <v>298.88619999999997</v>
+      </c>
+      <c r="O259">
+        <v>287.52</v>
+      </c>
+      <c r="P259">
+        <v>368.53</v>
+      </c>
+      <c r="Q259">
+        <v>346.81</v>
+      </c>
+      <c r="R259">
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B260">
+        <v>9738.7260000000006</v>
+      </c>
+      <c r="C260">
+        <v>9218.6</v>
+      </c>
+      <c r="D260">
+        <v>379.41</v>
+      </c>
+      <c r="E260">
+        <v>5206.82</v>
+      </c>
+      <c r="F260">
+        <v>214.54</v>
+      </c>
+      <c r="G260">
+        <v>122.919</v>
+      </c>
+      <c r="H260">
+        <v>175.35</v>
+      </c>
+      <c r="I260">
+        <v>98.896500000000003</v>
+      </c>
+      <c r="J260">
+        <v>101.5607</v>
+      </c>
+      <c r="K260">
+        <v>135.35050000000001</v>
+      </c>
+      <c r="L260">
+        <v>838.31</v>
+      </c>
+      <c r="M260">
+        <v>1096.76</v>
+      </c>
+      <c r="N260">
+        <v>299.24209999999999</v>
+      </c>
+      <c r="O260">
+        <v>287.36</v>
+      </c>
+      <c r="P260">
+        <v>368.42</v>
+      </c>
+      <c r="Q260">
+        <v>346.38</v>
+      </c>
+      <c r="R260">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B261">
+        <v>9838.8960000000006</v>
+      </c>
+      <c r="C261">
+        <v>9311.49</v>
+      </c>
+      <c r="D261">
+        <v>382.99</v>
+      </c>
+      <c r="E261">
+        <v>5229.47</v>
+      </c>
+      <c r="F261">
+        <v>215.87</v>
+      </c>
+      <c r="G261">
+        <v>123.0312</v>
+      </c>
+      <c r="H261">
+        <v>175.36</v>
+      </c>
+      <c r="I261">
+        <v>98.781499999999994</v>
+      </c>
+      <c r="J261">
+        <v>101.4011</v>
+      </c>
+      <c r="K261">
+        <v>135.27529999999999</v>
+      </c>
+      <c r="L261">
+        <v>836.95</v>
+      </c>
+      <c r="M261">
+        <v>1097.69</v>
+      </c>
+      <c r="N261">
+        <v>297.86559999999997</v>
+      </c>
+      <c r="O261">
+        <v>287.14999999999998</v>
+      </c>
+      <c r="P261">
+        <v>368.51</v>
+      </c>
+      <c r="Q261">
+        <v>345.88</v>
+      </c>
+      <c r="R261">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B262">
+        <v>9900.2999999999993</v>
+      </c>
+      <c r="C262">
+        <v>9419.24</v>
+      </c>
+      <c r="D262">
+        <v>385.75</v>
+      </c>
+      <c r="E262">
+        <v>5203.67</v>
+      </c>
+      <c r="F262">
+        <v>212.94</v>
+      </c>
+      <c r="G262">
+        <v>123.32689999999999</v>
+      </c>
+      <c r="H262">
+        <v>175.61</v>
+      </c>
+      <c r="I262">
+        <v>98.729200000000006</v>
+      </c>
+      <c r="J262">
+        <v>101.3265</v>
+      </c>
+      <c r="K262">
+        <v>135.24160000000001</v>
+      </c>
+      <c r="L262">
+        <v>835.98</v>
+      </c>
+      <c r="M262">
+        <v>1095.55</v>
+      </c>
+      <c r="N262">
+        <v>297.56150000000002</v>
+      </c>
+      <c r="O262">
+        <v>287.07</v>
+      </c>
+      <c r="P262">
+        <v>368.44</v>
+      </c>
+      <c r="Q262">
+        <v>345.73</v>
+      </c>
+      <c r="R262">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B263">
+        <v>9900.2999999999993</v>
+      </c>
+      <c r="C263">
+        <v>9395.2900000000009</v>
+      </c>
+      <c r="D263">
+        <v>385.87</v>
+      </c>
+      <c r="E263">
+        <v>5203.67</v>
+      </c>
+      <c r="F263">
+        <v>212.94</v>
+      </c>
+      <c r="G263">
+        <v>123.32689999999999</v>
+      </c>
+      <c r="H263">
+        <v>175.61</v>
+      </c>
+      <c r="I263">
+        <v>98.729200000000006</v>
+      </c>
+      <c r="J263">
+        <v>101.3265</v>
+      </c>
+      <c r="K263">
+        <v>135.24160000000001</v>
+      </c>
+      <c r="L263">
+        <v>835.98</v>
+      </c>
+      <c r="M263">
+        <v>1095.55</v>
+      </c>
+      <c r="N263">
+        <v>297.56150000000002</v>
+      </c>
+      <c r="O263">
+        <v>287.07</v>
+      </c>
+      <c r="P263">
+        <v>368.44</v>
+      </c>
+      <c r="Q263">
+        <v>345.73</v>
+      </c>
+      <c r="R263">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B264">
+        <v>10037.668</v>
+      </c>
+      <c r="C264">
+        <v>9468.09</v>
+      </c>
+      <c r="D264">
+        <v>389.21</v>
+      </c>
+      <c r="E264">
+        <v>5228.24</v>
+      </c>
+      <c r="F264">
+        <v>214.11</v>
+      </c>
+      <c r="G264">
+        <v>123.62179999999999</v>
+      </c>
+      <c r="H264">
+        <v>175.84</v>
+      </c>
+      <c r="I264">
+        <v>98.714200000000005</v>
+      </c>
+      <c r="J264">
+        <v>101.3143</v>
+      </c>
+      <c r="K264">
+        <v>135.23560000000001</v>
+      </c>
+      <c r="L264">
+        <v>834.39</v>
+      </c>
+      <c r="M264">
+        <v>1095.1199999999999</v>
+      </c>
+      <c r="N264">
+        <v>298.09449999999998</v>
+      </c>
+      <c r="O264">
+        <v>286.93</v>
+      </c>
+      <c r="P264">
+        <v>368</v>
+      </c>
+      <c r="Q264">
+        <v>345.42</v>
+      </c>
+      <c r="R264">
+        <v>169.28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B265">
+        <v>10027.532999999999</v>
+      </c>
+      <c r="C265">
+        <v>9520.9699999999993</v>
+      </c>
+      <c r="D265">
+        <v>389.57</v>
+      </c>
+      <c r="E265">
+        <v>5218.05</v>
+      </c>
+      <c r="F265">
+        <v>212.96</v>
+      </c>
+      <c r="G265">
+        <v>123.58029999999999</v>
+      </c>
+      <c r="H265">
+        <v>175.64</v>
+      </c>
+      <c r="I265">
+        <v>98.704999999999998</v>
+      </c>
+      <c r="J265">
+        <v>101.3052</v>
+      </c>
+      <c r="K265">
+        <v>135.22970000000001</v>
+      </c>
+      <c r="L265">
+        <v>834.49</v>
+      </c>
+      <c r="M265">
+        <v>1093.53</v>
+      </c>
+      <c r="N265">
+        <v>297.18959999999998</v>
+      </c>
+      <c r="O265">
+        <v>287.01</v>
+      </c>
+      <c r="P265">
+        <v>367.93</v>
+      </c>
+      <c r="Q265">
+        <v>345.57</v>
+      </c>
+      <c r="R265">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B266">
+        <v>10041.611000000001</v>
+      </c>
+      <c r="C266">
+        <v>9461.1200000000008</v>
+      </c>
+      <c r="D266">
+        <v>389.81</v>
+      </c>
+      <c r="E266">
+        <v>5177.76</v>
+      </c>
+      <c r="F266">
+        <v>210.1</v>
+      </c>
+      <c r="G266">
+        <v>123.4004</v>
+      </c>
+      <c r="H266">
+        <v>175.44</v>
+      </c>
+      <c r="I266">
+        <v>98.681200000000004</v>
+      </c>
+      <c r="J266">
+        <v>101.2818</v>
+      </c>
+      <c r="K266">
+        <v>135.21979999999999</v>
+      </c>
+      <c r="L266">
+        <v>834.54</v>
+      </c>
+      <c r="M266">
+        <v>1092.31</v>
+      </c>
+      <c r="N266">
+        <v>297.31689999999998</v>
+      </c>
+      <c r="O266">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="P266">
+        <v>368.18</v>
+      </c>
+      <c r="Q266">
+        <v>345.55</v>
+      </c>
+      <c r="R266">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B267">
+        <v>10012.513999999999</v>
+      </c>
+      <c r="C267">
+        <v>9508.02</v>
+      </c>
+      <c r="D267">
+        <v>389.28</v>
+      </c>
+      <c r="E267">
+        <v>5211.6499999999996</v>
+      </c>
+      <c r="F267">
+        <v>212.33</v>
+      </c>
+      <c r="G267">
+        <v>123.23309999999999</v>
+      </c>
+      <c r="H267">
+        <v>175.32</v>
+      </c>
+      <c r="I267">
+        <v>98.672399999999996</v>
+      </c>
+      <c r="J267">
+        <v>101.2664</v>
+      </c>
+      <c r="K267">
+        <v>135.21299999999999</v>
+      </c>
+      <c r="L267">
+        <v>834.85</v>
+      </c>
+      <c r="M267">
+        <v>1088.5</v>
+      </c>
+      <c r="N267">
+        <v>297.44940000000003</v>
+      </c>
+      <c r="O267">
+        <v>287.16000000000003</v>
+      </c>
+      <c r="P267">
+        <v>368.24</v>
+      </c>
+      <c r="Q267">
+        <v>345.44</v>
+      </c>
+      <c r="R267">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B268">
+        <v>9986.6980000000003</v>
+      </c>
+      <c r="C268">
+        <v>9491.1</v>
+      </c>
+      <c r="D268">
+        <v>389.04</v>
+      </c>
+      <c r="E268">
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="F268">
+        <v>214.08</v>
+      </c>
+      <c r="G268">
+        <v>122.8967</v>
+      </c>
+      <c r="H268">
+        <v>175.14</v>
+      </c>
+      <c r="I268">
+        <v>98.672499999999999</v>
+      </c>
+      <c r="J268">
+        <v>101.2684</v>
+      </c>
+      <c r="K268">
+        <v>135.21369999999999</v>
+      </c>
+      <c r="L268">
+        <v>835.24</v>
+      </c>
+      <c r="M268">
+        <v>1088</v>
+      </c>
+      <c r="N268">
+        <v>297.6395</v>
+      </c>
+      <c r="O268">
+        <v>287.23</v>
+      </c>
+      <c r="P268">
+        <v>368.34</v>
+      </c>
+      <c r="Q268">
+        <v>345.76</v>
+      </c>
+      <c r="R268">
+        <v>169.35</v>
       </c>
     </row>
   </sheetData>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF250D-B19B-4563-973E-CC116DB946BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B137DF-B319-4681-8623-4FB0308BAB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="autoNoTable" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -175,106 +175,108 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13032772996037780070</stp>
-        <tr r="E7" s="4"/>
+        <stp>BDH|11732113933293340835</stp>
+        <tr r="F7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17406135536679646604</stp>
-        <tr r="R7" s="4"/>
+        <stp>BDH|10732923337612812052</stp>
+        <tr r="K7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16746710853966672882</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10570853655072981071</stp>
-        <tr r="G7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16199627644430042811</stp>
-        <tr r="A7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16418583258522929802</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12023507004593964683</stp>
+        <stp>BDH|12279956682092415875</stp>
         <tr r="H7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16512164959344065460</stp>
-        <tr r="D7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11356486751010273273</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13641414818334096194</stp>
-        <tr r="M7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15634290468931464388</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11365960882394653510</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|11122206922783401648</stp>
-        <tr r="Q7" s="4"/>
+        <stp>BDH|16123526187450215513</stp>
+        <tr r="L7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6114596075845322991</stp>
+        <stp>BDH|17674755496812826718</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12369343446641494765</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17904288911240242228</stp>
+        <tr r="R7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13408790460372706469</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6084469029988504311</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5590455448582122285</stp>
         <tr r="J7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8782653653814567503</stp>
+        <stp>BDH|4230552436795896157</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|1737786382687111867</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2078150025930288091</stp>
         <tr r="P7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|3875749770419908010</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|3860886395990440396</stp>
+        <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6441003225334733370</stp>
-        <tr r="F7" s="4"/>
+        <stp>BDH|6217677300874449691</stp>
+        <tr r="O7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4121107670905347533</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6750822766869524267</stp>
+        <tr r="Q7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -682,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,6 +1927,1066 @@
         <v>335.19</v>
       </c>
     </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B24">
+        <v>9534.9549999999999</v>
+      </c>
+      <c r="C24">
+        <v>9337.61</v>
+      </c>
+      <c r="D24">
+        <v>373.09</v>
+      </c>
+      <c r="E24">
+        <v>4946.3900000000003</v>
+      </c>
+      <c r="F24">
+        <v>202.13</v>
+      </c>
+      <c r="G24">
+        <v>120.0303</v>
+      </c>
+      <c r="H24">
+        <v>173</v>
+      </c>
+      <c r="I24">
+        <v>96.869200000000006</v>
+      </c>
+      <c r="J24">
+        <v>99.446299999999994</v>
+      </c>
+      <c r="K24">
+        <v>132.81700000000001</v>
+      </c>
+      <c r="L24">
+        <v>842.64</v>
+      </c>
+      <c r="M24">
+        <v>1103.04</v>
+      </c>
+      <c r="N24">
+        <v>290.86700000000002</v>
+      </c>
+      <c r="O24">
+        <v>278.87</v>
+      </c>
+      <c r="P24">
+        <v>355.46</v>
+      </c>
+      <c r="Q24">
+        <v>335.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B25">
+        <v>9624.8919999999998</v>
+      </c>
+      <c r="C25">
+        <v>9332.2999999999993</v>
+      </c>
+      <c r="D25">
+        <v>375.98</v>
+      </c>
+      <c r="E25">
+        <v>4959.9399999999996</v>
+      </c>
+      <c r="F25">
+        <v>202.91</v>
+      </c>
+      <c r="G25">
+        <v>120.3785</v>
+      </c>
+      <c r="H25">
+        <v>173.5</v>
+      </c>
+      <c r="I25">
+        <v>96.549499999999995</v>
+      </c>
+      <c r="J25">
+        <v>99.030600000000007</v>
+      </c>
+      <c r="K25">
+        <v>132.61109999999999</v>
+      </c>
+      <c r="L25">
+        <v>839.92</v>
+      </c>
+      <c r="M25">
+        <v>1110.74</v>
+      </c>
+      <c r="N25">
+        <v>289.78489999999999</v>
+      </c>
+      <c r="O25">
+        <v>278.77999999999997</v>
+      </c>
+      <c r="P25">
+        <v>355.42</v>
+      </c>
+      <c r="Q25">
+        <v>334.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B26">
+        <v>9390.5750000000007</v>
+      </c>
+      <c r="C26">
+        <v>9153.2099999999991</v>
+      </c>
+      <c r="D26">
+        <v>369.32</v>
+      </c>
+      <c r="E26">
+        <v>4910.18</v>
+      </c>
+      <c r="F26">
+        <v>200.94</v>
+      </c>
+      <c r="G26">
+        <v>120.3116</v>
+      </c>
+      <c r="H26">
+        <v>172.34</v>
+      </c>
+      <c r="I26">
+        <v>96.8309</v>
+      </c>
+      <c r="J26">
+        <v>99.201499999999996</v>
+      </c>
+      <c r="K26">
+        <v>132.7259</v>
+      </c>
+      <c r="L26">
+        <v>845.82</v>
+      </c>
+      <c r="M26">
+        <v>1136.9100000000001</v>
+      </c>
+      <c r="N26">
+        <v>291.41419999999999</v>
+      </c>
+      <c r="O26">
+        <v>279.2</v>
+      </c>
+      <c r="P26">
+        <v>355.61</v>
+      </c>
+      <c r="Q26">
+        <v>334.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B27">
+        <v>9440.5830000000005</v>
+      </c>
+      <c r="C27">
+        <v>9032.86</v>
+      </c>
+      <c r="D27">
+        <v>370.69</v>
+      </c>
+      <c r="E27">
+        <v>4841.37</v>
+      </c>
+      <c r="F27">
+        <v>197.26</v>
+      </c>
+      <c r="G27">
+        <v>120.1828</v>
+      </c>
+      <c r="H27">
+        <v>172.84</v>
+      </c>
+      <c r="I27">
+        <v>96.678799999999995</v>
+      </c>
+      <c r="J27">
+        <v>99.341300000000004</v>
+      </c>
+      <c r="K27">
+        <v>132.74639999999999</v>
+      </c>
+      <c r="L27">
+        <v>844.98</v>
+      </c>
+      <c r="M27">
+        <v>1137.58</v>
+      </c>
+      <c r="N27">
+        <v>292.72379999999998</v>
+      </c>
+      <c r="O27">
+        <v>279.12</v>
+      </c>
+      <c r="P27">
+        <v>355.74</v>
+      </c>
+      <c r="Q27">
+        <v>334.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B28">
+        <v>9405.8430000000008</v>
+      </c>
+      <c r="C28">
+        <v>9107.98</v>
+      </c>
+      <c r="D28">
+        <v>370.42</v>
+      </c>
+      <c r="E28">
+        <v>4843.32</v>
+      </c>
+      <c r="F28">
+        <v>197.47</v>
+      </c>
+      <c r="G28">
+        <v>119.6491</v>
+      </c>
+      <c r="H28">
+        <v>172.64</v>
+      </c>
+      <c r="I28">
+        <v>96.524299999999997</v>
+      </c>
+      <c r="J28">
+        <v>99.0458</v>
+      </c>
+      <c r="K28">
+        <v>132.50640000000001</v>
+      </c>
+      <c r="L28">
+        <v>846.87</v>
+      </c>
+      <c r="M28">
+        <v>1138.79</v>
+      </c>
+      <c r="N28">
+        <v>292.81479999999999</v>
+      </c>
+      <c r="O28">
+        <v>279.49</v>
+      </c>
+      <c r="P28">
+        <v>355.84</v>
+      </c>
+      <c r="Q28">
+        <v>335.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B29">
+        <v>9484.9519999999993</v>
+      </c>
+      <c r="C29">
+        <v>9127.19</v>
+      </c>
+      <c r="D29">
+        <v>372.33</v>
+      </c>
+      <c r="E29">
+        <v>4823.2299999999996</v>
+      </c>
+      <c r="F29">
+        <v>195.61</v>
+      </c>
+      <c r="G29">
+        <v>119.4922</v>
+      </c>
+      <c r="H29">
+        <v>172.99</v>
+      </c>
+      <c r="I29">
+        <v>96.311700000000002</v>
+      </c>
+      <c r="J29">
+        <v>98.948800000000006</v>
+      </c>
+      <c r="K29">
+        <v>132.4308</v>
+      </c>
+      <c r="L29">
+        <v>844.81</v>
+      </c>
+      <c r="M29">
+        <v>1135.53</v>
+      </c>
+      <c r="N29">
+        <v>293.03500000000003</v>
+      </c>
+      <c r="O29">
+        <v>279.57</v>
+      </c>
+      <c r="P29">
+        <v>355.83</v>
+      </c>
+      <c r="Q29">
+        <v>335.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B30">
+        <v>9623.8410000000003</v>
+      </c>
+      <c r="C30">
+        <v>9292.6200000000008</v>
+      </c>
+      <c r="D30">
+        <v>378.17</v>
+      </c>
+      <c r="E30">
+        <v>4839.51</v>
+      </c>
+      <c r="F30">
+        <v>196.12</v>
+      </c>
+      <c r="G30">
+        <v>119.7072</v>
+      </c>
+      <c r="H30">
+        <v>173.66</v>
+      </c>
+      <c r="I30">
+        <v>96.197299999999998</v>
+      </c>
+      <c r="J30">
+        <v>98.727500000000006</v>
+      </c>
+      <c r="K30">
+        <v>132.34479999999999</v>
+      </c>
+      <c r="L30">
+        <v>840.16</v>
+      </c>
+      <c r="M30">
+        <v>1133.77</v>
+      </c>
+      <c r="N30">
+        <v>292.14909999999998</v>
+      </c>
+      <c r="O30">
+        <v>279.43</v>
+      </c>
+      <c r="P30">
+        <v>355.73</v>
+      </c>
+      <c r="Q30">
+        <v>335.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B31">
+        <v>9450.7180000000008</v>
+      </c>
+      <c r="C31">
+        <v>9277.1</v>
+      </c>
+      <c r="D31">
+        <v>374.64</v>
+      </c>
+      <c r="E31">
+        <v>4770.3500000000004</v>
+      </c>
+      <c r="F31">
+        <v>192.34</v>
+      </c>
+      <c r="G31">
+        <v>119.6829</v>
+      </c>
+      <c r="H31">
+        <v>172.73</v>
+      </c>
+      <c r="I31">
+        <v>96.309799999999996</v>
+      </c>
+      <c r="J31">
+        <v>98.783600000000007</v>
+      </c>
+      <c r="K31">
+        <v>132.3835</v>
+      </c>
+      <c r="L31">
+        <v>844.71</v>
+      </c>
+      <c r="M31">
+        <v>1131.83</v>
+      </c>
+      <c r="N31">
+        <v>293.9083</v>
+      </c>
+      <c r="O31">
+        <v>279.48</v>
+      </c>
+      <c r="P31">
+        <v>354.89</v>
+      </c>
+      <c r="Q31">
+        <v>333.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B32">
+        <v>9271.8019999999997</v>
+      </c>
+      <c r="C32">
+        <v>9191.0400000000009</v>
+      </c>
+      <c r="D32">
+        <v>369.07</v>
+      </c>
+      <c r="E32">
+        <v>4812.8100000000004</v>
+      </c>
+      <c r="F32">
+        <v>195.91</v>
+      </c>
+      <c r="G32">
+        <v>119.6307</v>
+      </c>
+      <c r="H32">
+        <v>171.81</v>
+      </c>
+      <c r="I32">
+        <v>96.670100000000005</v>
+      </c>
+      <c r="J32">
+        <v>99.102800000000002</v>
+      </c>
+      <c r="K32">
+        <v>132.5831</v>
+      </c>
+      <c r="L32">
+        <v>849.5</v>
+      </c>
+      <c r="M32">
+        <v>1135.1600000000001</v>
+      </c>
+      <c r="N32">
+        <v>290.3032</v>
+      </c>
+      <c r="O32">
+        <v>279.70999999999998</v>
+      </c>
+      <c r="P32">
+        <v>354.32</v>
+      </c>
+      <c r="Q32">
+        <v>332.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B33">
+        <v>9236.8580000000002</v>
+      </c>
+      <c r="C33">
+        <v>8990.24</v>
+      </c>
+      <c r="D33">
+        <v>365.42</v>
+      </c>
+      <c r="E33">
+        <v>4749.8100000000004</v>
+      </c>
+      <c r="F33">
+        <v>192.79</v>
+      </c>
+      <c r="G33">
+        <v>119.443</v>
+      </c>
+      <c r="H33">
+        <v>171.51</v>
+      </c>
+      <c r="I33">
+        <v>97.002700000000004</v>
+      </c>
+      <c r="J33">
+        <v>99.867400000000004</v>
+      </c>
+      <c r="K33">
+        <v>132.9734</v>
+      </c>
+      <c r="L33">
+        <v>851.4</v>
+      </c>
+      <c r="M33">
+        <v>1133.71</v>
+      </c>
+      <c r="N33">
+        <v>289.88990000000001</v>
+      </c>
+      <c r="O33">
+        <v>280.55</v>
+      </c>
+      <c r="P33">
+        <v>356.27</v>
+      </c>
+      <c r="Q33">
+        <v>334.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B34">
+        <v>9383.5679999999993</v>
+      </c>
+      <c r="C34">
+        <v>9165.5499999999993</v>
+      </c>
+      <c r="D34">
+        <v>370.33</v>
+      </c>
+      <c r="E34">
+        <v>4713.87</v>
+      </c>
+      <c r="F34">
+        <v>189.95</v>
+      </c>
+      <c r="G34">
+        <v>119.3317</v>
+      </c>
+      <c r="H34">
+        <v>172.58</v>
+      </c>
+      <c r="I34">
+        <v>96.238100000000003</v>
+      </c>
+      <c r="J34">
+        <v>98.367599999999996</v>
+      </c>
+      <c r="K34">
+        <v>131.85390000000001</v>
+      </c>
+      <c r="L34">
+        <v>846.94</v>
+      </c>
+      <c r="M34">
+        <v>1132.53</v>
+      </c>
+      <c r="N34">
+        <v>290.10739999999998</v>
+      </c>
+      <c r="O34">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P34">
+        <v>356.21</v>
+      </c>
+      <c r="Q34">
+        <v>334.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B35">
+        <v>9393.0930000000008</v>
+      </c>
+      <c r="C35">
+        <v>9151.2099999999991</v>
+      </c>
+      <c r="D35">
+        <v>371.54</v>
+      </c>
+      <c r="E35">
+        <v>4709.5200000000004</v>
+      </c>
+      <c r="F35">
+        <v>191.38</v>
+      </c>
+      <c r="G35">
+        <v>119.0664</v>
+      </c>
+      <c r="H35">
+        <v>172.44</v>
+      </c>
+      <c r="I35">
+        <v>95.988</v>
+      </c>
+      <c r="J35">
+        <v>98.269400000000005</v>
+      </c>
+      <c r="K35">
+        <v>131.7621</v>
+      </c>
+      <c r="L35">
+        <v>847.5</v>
+      </c>
+      <c r="M35">
+        <v>1133.45</v>
+      </c>
+      <c r="N35">
+        <v>289.54230000000001</v>
+      </c>
+      <c r="O35">
+        <v>281.23</v>
+      </c>
+      <c r="P35">
+        <v>356.91</v>
+      </c>
+      <c r="Q35">
+        <v>335.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B36">
+        <v>9195.3539999999994</v>
+      </c>
+      <c r="C36">
+        <v>9098.0499999999993</v>
+      </c>
+      <c r="D36">
+        <v>366.06</v>
+      </c>
+      <c r="E36">
+        <v>4712.34</v>
+      </c>
+      <c r="F36">
+        <v>193.1</v>
+      </c>
+      <c r="G36">
+        <v>119.0728</v>
+      </c>
+      <c r="H36">
+        <v>170.99</v>
+      </c>
+      <c r="I36">
+        <v>96.231399999999994</v>
+      </c>
+      <c r="J36">
+        <v>98.508300000000006</v>
+      </c>
+      <c r="K36">
+        <v>131.9092</v>
+      </c>
+      <c r="L36">
+        <v>853.78</v>
+      </c>
+      <c r="M36">
+        <v>1133.25</v>
+      </c>
+      <c r="N36">
+        <v>290.08240000000001</v>
+      </c>
+      <c r="O36">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="P36">
+        <v>356.12</v>
+      </c>
+      <c r="Q36">
+        <v>333.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B37">
+        <v>9130.8109999999997</v>
+      </c>
+      <c r="C37">
+        <v>9012.74</v>
+      </c>
+      <c r="D37">
+        <v>362.96</v>
+      </c>
+      <c r="E37">
+        <v>4730.08</v>
+      </c>
+      <c r="F37">
+        <v>195.82</v>
+      </c>
+      <c r="G37">
+        <v>118.8288</v>
+      </c>
+      <c r="H37">
+        <v>170.46</v>
+      </c>
+      <c r="I37">
+        <v>96.705500000000001</v>
+      </c>
+      <c r="J37">
+        <v>98.896600000000007</v>
+      </c>
+      <c r="K37">
+        <v>132.26740000000001</v>
+      </c>
+      <c r="L37">
+        <v>856.59</v>
+      </c>
+      <c r="M37">
+        <v>1132.3699999999999</v>
+      </c>
+      <c r="N37">
+        <v>289.0806</v>
+      </c>
+      <c r="O37">
+        <v>281.75</v>
+      </c>
+      <c r="P37">
+        <v>356.9</v>
+      </c>
+      <c r="Q37">
+        <v>334.47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B38">
+        <v>9130.8109999999997</v>
+      </c>
+      <c r="C38">
+        <v>8817</v>
+      </c>
+      <c r="D38">
+        <v>361.7</v>
+      </c>
+      <c r="E38">
+        <v>4730.08</v>
+      </c>
+      <c r="F38">
+        <v>195.82</v>
+      </c>
+      <c r="G38">
+        <v>118.8288</v>
+      </c>
+      <c r="H38">
+        <v>170.46</v>
+      </c>
+      <c r="I38">
+        <v>96.705500000000001</v>
+      </c>
+      <c r="J38">
+        <v>98.896600000000007</v>
+      </c>
+      <c r="K38">
+        <v>132.26740000000001</v>
+      </c>
+      <c r="L38">
+        <v>856.59</v>
+      </c>
+      <c r="M38">
+        <v>1132.3699999999999</v>
+      </c>
+      <c r="N38">
+        <v>289.0806</v>
+      </c>
+      <c r="O38">
+        <v>281.75</v>
+      </c>
+      <c r="P38">
+        <v>356.9</v>
+      </c>
+      <c r="Q38">
+        <v>334.47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B39">
+        <v>9038.3169999999991</v>
+      </c>
+      <c r="C39">
+        <v>8816.4699999999993</v>
+      </c>
+      <c r="D39">
+        <v>358.45</v>
+      </c>
+      <c r="E39">
+        <v>4724.9799999999996</v>
+      </c>
+      <c r="F39">
+        <v>196.49</v>
+      </c>
+      <c r="G39">
+        <v>118.07250000000001</v>
+      </c>
+      <c r="H39">
+        <v>169.07</v>
+      </c>
+      <c r="I39">
+        <v>96.628799999999998</v>
+      </c>
+      <c r="J39">
+        <v>99.069299999999998</v>
+      </c>
+      <c r="K39">
+        <v>132.30099999999999</v>
+      </c>
+      <c r="L39">
+        <v>860.91</v>
+      </c>
+      <c r="M39">
+        <v>1132.53</v>
+      </c>
+      <c r="N39">
+        <v>289.3648</v>
+      </c>
+      <c r="O39">
+        <v>282.27</v>
+      </c>
+      <c r="P39">
+        <v>357.51</v>
+      </c>
+      <c r="Q39">
+        <v>335.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B40">
+        <v>8871.9529999999995</v>
+      </c>
+      <c r="C40">
+        <v>8789.7900000000009</v>
+      </c>
+      <c r="D40">
+        <v>354.14</v>
+      </c>
+      <c r="E40">
+        <v>4670.76</v>
+      </c>
+      <c r="F40">
+        <v>192.86</v>
+      </c>
+      <c r="G40">
+        <v>117.68089999999999</v>
+      </c>
+      <c r="H40">
+        <v>166.95</v>
+      </c>
+      <c r="I40">
+        <v>96.855099999999993</v>
+      </c>
+      <c r="J40">
+        <v>99.024299999999997</v>
+      </c>
+      <c r="K40">
+        <v>132.4736</v>
+      </c>
+      <c r="L40">
+        <v>867.77</v>
+      </c>
+      <c r="M40">
+        <v>1132.42</v>
+      </c>
+      <c r="N40">
+        <v>289.3254</v>
+      </c>
+      <c r="O40">
+        <v>282.38</v>
+      </c>
+      <c r="P40">
+        <v>357.08</v>
+      </c>
+      <c r="Q40">
+        <v>335.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B41">
+        <v>9005.3680000000004</v>
+      </c>
+      <c r="C41">
+        <v>8470.9699999999993</v>
+      </c>
+      <c r="D41">
+        <v>352.04</v>
+      </c>
+      <c r="E41">
+        <v>4661.6000000000004</v>
+      </c>
+      <c r="F41">
+        <v>193.2</v>
+      </c>
+      <c r="G41">
+        <v>117.8473</v>
+      </c>
+      <c r="H41">
+        <v>169.15</v>
+      </c>
+      <c r="I41">
+        <v>97.387900000000002</v>
+      </c>
+      <c r="J41">
+        <v>100.13979999999999</v>
+      </c>
+      <c r="K41">
+        <v>133.31979999999999</v>
+      </c>
+      <c r="L41">
+        <v>862.31</v>
+      </c>
+      <c r="M41">
+        <v>1135.23</v>
+      </c>
+      <c r="N41">
+        <v>290.0147</v>
+      </c>
+      <c r="O41">
+        <v>280.62</v>
+      </c>
+      <c r="P41">
+        <v>354.89</v>
+      </c>
+      <c r="Q41">
+        <v>333.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B42">
+        <v>9207.8529999999992</v>
+      </c>
+      <c r="C42">
+        <v>8783.77</v>
+      </c>
+      <c r="D42">
+        <v>360.62</v>
+      </c>
+      <c r="E42">
+        <v>4690.95</v>
+      </c>
+      <c r="F42">
+        <v>193.17</v>
+      </c>
+      <c r="G42">
+        <v>118.61109999999999</v>
+      </c>
+      <c r="H42">
+        <v>171.48</v>
+      </c>
+      <c r="I42">
+        <v>95.754499999999993</v>
+      </c>
+      <c r="J42">
+        <v>98.111199999999997</v>
+      </c>
+      <c r="K42">
+        <v>131.22640000000001</v>
+      </c>
+      <c r="L42">
+        <v>854.05</v>
+      </c>
+      <c r="M42">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="N42">
+        <v>289.5652</v>
+      </c>
+      <c r="O42">
+        <v>280.31</v>
+      </c>
+      <c r="P42">
+        <v>354.81</v>
+      </c>
+      <c r="Q42">
+        <v>333.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B43">
+        <v>9186.3729999999996</v>
+      </c>
+      <c r="C43">
+        <v>8680.99</v>
+      </c>
+      <c r="D43">
+        <v>360.38</v>
+      </c>
+      <c r="E43">
+        <v>4768.99</v>
+      </c>
+      <c r="F43">
+        <v>198.43</v>
+      </c>
+      <c r="G43">
+        <v>118.809</v>
+      </c>
+      <c r="H43">
+        <v>171.72</v>
+      </c>
+      <c r="I43">
+        <v>96.393699999999995</v>
+      </c>
+      <c r="J43">
+        <v>98.679199999999994</v>
+      </c>
+      <c r="K43">
+        <v>131.6797</v>
+      </c>
+      <c r="L43">
+        <v>854.42</v>
+      </c>
+      <c r="M43">
+        <v>1133.4000000000001</v>
+      </c>
+      <c r="N43">
+        <v>291.47039999999998</v>
+      </c>
+      <c r="O43">
+        <v>279.70999999999998</v>
+      </c>
+      <c r="P43">
+        <v>355.38</v>
+      </c>
+      <c r="Q43">
+        <v>333.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52506,8 +53568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997370F-9A70-4CFD-8BA1-9E8D19D4CBB2}">
   <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Q28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52543,7 +53605,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44592</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -52727,74 +53789,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=22")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=42")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=22")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -53975,64 +55037,1124 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B29">
+        <v>9534.9549999999999</v>
+      </c>
+      <c r="C29">
+        <v>9337.61</v>
+      </c>
+      <c r="D29">
+        <v>373.09</v>
+      </c>
+      <c r="E29">
+        <v>4946.3900000000003</v>
+      </c>
+      <c r="F29">
+        <v>202.13</v>
+      </c>
+      <c r="G29">
+        <v>120.0303</v>
+      </c>
+      <c r="H29">
+        <v>173</v>
+      </c>
+      <c r="I29">
+        <v>96.869200000000006</v>
+      </c>
+      <c r="J29">
+        <v>99.446299999999994</v>
+      </c>
+      <c r="K29">
+        <v>132.81700000000001</v>
+      </c>
+      <c r="L29">
+        <v>842.64</v>
+      </c>
+      <c r="M29">
+        <v>1103.04</v>
+      </c>
+      <c r="N29">
+        <v>290.86700000000002</v>
+      </c>
+      <c r="O29">
+        <v>278.87</v>
+      </c>
+      <c r="P29">
+        <v>355.46</v>
+      </c>
+      <c r="Q29">
+        <v>335.02</v>
+      </c>
+      <c r="R29">
+        <v>168.11</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B30">
+        <v>9624.8919999999998</v>
+      </c>
+      <c r="C30">
+        <v>9332.2999999999993</v>
+      </c>
+      <c r="D30">
+        <v>375.98</v>
+      </c>
+      <c r="E30">
+        <v>4959.9399999999996</v>
+      </c>
+      <c r="F30">
+        <v>202.91</v>
+      </c>
+      <c r="G30">
+        <v>120.3785</v>
+      </c>
+      <c r="H30">
+        <v>173.5</v>
+      </c>
+      <c r="I30">
+        <v>96.549499999999995</v>
+      </c>
+      <c r="J30">
+        <v>99.030600000000007</v>
+      </c>
+      <c r="K30">
+        <v>132.61109999999999</v>
+      </c>
+      <c r="L30">
+        <v>839.92</v>
+      </c>
+      <c r="M30">
+        <v>1110.74</v>
+      </c>
+      <c r="N30">
+        <v>289.78489999999999</v>
+      </c>
+      <c r="O30">
+        <v>278.77999999999997</v>
+      </c>
+      <c r="P30">
+        <v>355.42</v>
+      </c>
+      <c r="Q30">
+        <v>334.88</v>
+      </c>
+      <c r="R30">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B31">
+        <v>9390.5750000000007</v>
+      </c>
+      <c r="C31">
+        <v>9153.2099999999991</v>
+      </c>
+      <c r="D31">
+        <v>369.32</v>
+      </c>
+      <c r="E31">
+        <v>4910.18</v>
+      </c>
+      <c r="F31">
+        <v>200.94</v>
+      </c>
+      <c r="G31">
+        <v>120.3116</v>
+      </c>
+      <c r="H31">
+        <v>172.34</v>
+      </c>
+      <c r="I31">
+        <v>96.8309</v>
+      </c>
+      <c r="J31">
+        <v>99.201499999999996</v>
+      </c>
+      <c r="K31">
+        <v>132.7259</v>
+      </c>
+      <c r="L31">
+        <v>845.82</v>
+      </c>
+      <c r="M31">
+        <v>1136.9100000000001</v>
+      </c>
+      <c r="N31">
+        <v>291.41419999999999</v>
+      </c>
+      <c r="O31">
+        <v>279.2</v>
+      </c>
+      <c r="P31">
+        <v>355.61</v>
+      </c>
+      <c r="Q31">
+        <v>334.57</v>
+      </c>
+      <c r="R31">
+        <v>169.55</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A32" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B32">
+        <v>9440.5830000000005</v>
+      </c>
+      <c r="C32">
+        <v>9032.86</v>
+      </c>
+      <c r="D32">
+        <v>370.69</v>
+      </c>
+      <c r="E32">
+        <v>4841.37</v>
+      </c>
+      <c r="F32">
+        <v>197.26</v>
+      </c>
+      <c r="G32">
+        <v>120.1828</v>
+      </c>
+      <c r="H32">
+        <v>172.84</v>
+      </c>
+      <c r="I32">
+        <v>96.678799999999995</v>
+      </c>
+      <c r="J32">
+        <v>99.341300000000004</v>
+      </c>
+      <c r="K32">
+        <v>132.74639999999999</v>
+      </c>
+      <c r="L32">
+        <v>844.98</v>
+      </c>
+      <c r="M32">
+        <v>1137.58</v>
+      </c>
+      <c r="N32">
+        <v>292.72379999999998</v>
+      </c>
+      <c r="O32">
+        <v>279.12</v>
+      </c>
+      <c r="P32">
+        <v>355.74</v>
+      </c>
+      <c r="Q32">
+        <v>334.95</v>
+      </c>
+      <c r="R32">
+        <v>170.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B33">
+        <v>9405.8430000000008</v>
+      </c>
+      <c r="C33">
+        <v>9107.98</v>
+      </c>
+      <c r="D33">
+        <v>370.42</v>
+      </c>
+      <c r="E33">
+        <v>4843.32</v>
+      </c>
+      <c r="F33">
+        <v>197.47</v>
+      </c>
+      <c r="G33">
+        <v>119.6491</v>
+      </c>
+      <c r="H33">
+        <v>172.64</v>
+      </c>
+      <c r="I33">
+        <v>96.524299999999997</v>
+      </c>
+      <c r="J33">
+        <v>99.0458</v>
+      </c>
+      <c r="K33">
+        <v>132.50640000000001</v>
+      </c>
+      <c r="L33">
+        <v>846.87</v>
+      </c>
+      <c r="M33">
+        <v>1138.79</v>
+      </c>
+      <c r="N33">
+        <v>292.81479999999999</v>
+      </c>
+      <c r="O33">
+        <v>279.49</v>
+      </c>
+      <c r="P33">
+        <v>355.84</v>
+      </c>
+      <c r="Q33">
+        <v>335.25</v>
+      </c>
+      <c r="R33">
+        <v>170.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B34">
+        <v>9484.9519999999993</v>
+      </c>
+      <c r="C34">
+        <v>9127.19</v>
+      </c>
+      <c r="D34">
+        <v>372.33</v>
+      </c>
+      <c r="E34">
+        <v>4823.2299999999996</v>
+      </c>
+      <c r="F34">
+        <v>195.61</v>
+      </c>
+      <c r="G34">
+        <v>119.4922</v>
+      </c>
+      <c r="H34">
+        <v>172.99</v>
+      </c>
+      <c r="I34">
+        <v>96.311700000000002</v>
+      </c>
+      <c r="J34">
+        <v>98.948800000000006</v>
+      </c>
+      <c r="K34">
+        <v>132.4308</v>
+      </c>
+      <c r="L34">
+        <v>844.81</v>
+      </c>
+      <c r="M34">
+        <v>1135.53</v>
+      </c>
+      <c r="N34">
+        <v>293.03500000000003</v>
+      </c>
+      <c r="O34">
+        <v>279.57</v>
+      </c>
+      <c r="P34">
+        <v>355.83</v>
+      </c>
+      <c r="Q34">
+        <v>335.29</v>
+      </c>
+      <c r="R34">
+        <v>170.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B35">
+        <v>9623.8410000000003</v>
+      </c>
+      <c r="C35">
+        <v>9292.6200000000008</v>
+      </c>
+      <c r="D35">
+        <v>378.17</v>
+      </c>
+      <c r="E35">
+        <v>4839.51</v>
+      </c>
+      <c r="F35">
+        <v>196.12</v>
+      </c>
+      <c r="G35">
+        <v>119.7072</v>
+      </c>
+      <c r="H35">
+        <v>173.66</v>
+      </c>
+      <c r="I35">
+        <v>96.197299999999998</v>
+      </c>
+      <c r="J35">
+        <v>98.727500000000006</v>
+      </c>
+      <c r="K35">
+        <v>132.34479999999999</v>
+      </c>
+      <c r="L35">
+        <v>840.16</v>
+      </c>
+      <c r="M35">
+        <v>1133.77</v>
+      </c>
+      <c r="N35">
+        <v>292.14909999999998</v>
+      </c>
+      <c r="O35">
+        <v>279.43</v>
+      </c>
+      <c r="P35">
+        <v>355.73</v>
+      </c>
+      <c r="Q35">
+        <v>335.12</v>
+      </c>
+      <c r="R35">
+        <v>169.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B36">
+        <v>9450.7180000000008</v>
+      </c>
+      <c r="C36">
+        <v>9277.1</v>
+      </c>
+      <c r="D36">
+        <v>374.64</v>
+      </c>
+      <c r="E36">
+        <v>4770.3500000000004</v>
+      </c>
+      <c r="F36">
+        <v>192.34</v>
+      </c>
+      <c r="G36">
+        <v>119.6829</v>
+      </c>
+      <c r="H36">
+        <v>172.73</v>
+      </c>
+      <c r="I36">
+        <v>96.309799999999996</v>
+      </c>
+      <c r="J36">
+        <v>98.783600000000007</v>
+      </c>
+      <c r="K36">
+        <v>132.3835</v>
+      </c>
+      <c r="L36">
+        <v>844.71</v>
+      </c>
+      <c r="M36">
+        <v>1131.83</v>
+      </c>
+      <c r="N36">
+        <v>293.9083</v>
+      </c>
+      <c r="O36">
+        <v>279.48</v>
+      </c>
+      <c r="P36">
+        <v>354.89</v>
+      </c>
+      <c r="Q36">
+        <v>333.89</v>
+      </c>
+      <c r="R36">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B37">
+        <v>9271.8019999999997</v>
+      </c>
+      <c r="C37">
+        <v>9191.0400000000009</v>
+      </c>
+      <c r="D37">
+        <v>369.07</v>
+      </c>
+      <c r="E37">
+        <v>4812.8100000000004</v>
+      </c>
+      <c r="F37">
+        <v>195.91</v>
+      </c>
+      <c r="G37">
+        <v>119.6307</v>
+      </c>
+      <c r="H37">
+        <v>171.81</v>
+      </c>
+      <c r="I37">
+        <v>96.670100000000005</v>
+      </c>
+      <c r="J37">
+        <v>99.102800000000002</v>
+      </c>
+      <c r="K37">
+        <v>132.5831</v>
+      </c>
+      <c r="L37">
+        <v>849.5</v>
+      </c>
+      <c r="M37">
+        <v>1135.1600000000001</v>
+      </c>
+      <c r="N37">
+        <v>290.3032</v>
+      </c>
+      <c r="O37">
+        <v>279.70999999999998</v>
+      </c>
+      <c r="P37">
+        <v>354.32</v>
+      </c>
+      <c r="Q37">
+        <v>332.95</v>
+      </c>
+      <c r="R37">
+        <v>169.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B38">
+        <v>9236.8580000000002</v>
+      </c>
+      <c r="C38">
+        <v>8990.24</v>
+      </c>
+      <c r="D38">
+        <v>365.42</v>
+      </c>
+      <c r="E38">
+        <v>4749.8100000000004</v>
+      </c>
+      <c r="F38">
+        <v>192.79</v>
+      </c>
+      <c r="G38">
+        <v>119.443</v>
+      </c>
+      <c r="H38">
+        <v>171.51</v>
+      </c>
+      <c r="I38">
+        <v>97.002700000000004</v>
+      </c>
+      <c r="J38">
+        <v>99.867400000000004</v>
+      </c>
+      <c r="K38">
+        <v>132.9734</v>
+      </c>
+      <c r="L38">
+        <v>851.4</v>
+      </c>
+      <c r="M38">
+        <v>1133.71</v>
+      </c>
+      <c r="N38">
+        <v>289.88990000000001</v>
+      </c>
+      <c r="O38">
+        <v>280.55</v>
+      </c>
+      <c r="P38">
+        <v>356.27</v>
+      </c>
+      <c r="Q38">
+        <v>334.73</v>
+      </c>
+      <c r="R38">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B39">
+        <v>9383.5679999999993</v>
+      </c>
+      <c r="C39">
+        <v>9165.5499999999993</v>
+      </c>
+      <c r="D39">
+        <v>370.33</v>
+      </c>
+      <c r="E39">
+        <v>4713.87</v>
+      </c>
+      <c r="F39">
+        <v>189.95</v>
+      </c>
+      <c r="G39">
+        <v>119.3317</v>
+      </c>
+      <c r="H39">
+        <v>172.58</v>
+      </c>
+      <c r="I39">
+        <v>96.238100000000003</v>
+      </c>
+      <c r="J39">
+        <v>98.367599999999996</v>
+      </c>
+      <c r="K39">
+        <v>131.85390000000001</v>
+      </c>
+      <c r="L39">
+        <v>846.94</v>
+      </c>
+      <c r="M39">
+        <v>1132.53</v>
+      </c>
+      <c r="N39">
+        <v>290.10739999999998</v>
+      </c>
+      <c r="O39">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P39">
+        <v>356.21</v>
+      </c>
+      <c r="Q39">
+        <v>334.79</v>
+      </c>
+      <c r="R39">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B40">
+        <v>9393.0930000000008</v>
+      </c>
+      <c r="C40">
+        <v>9151.2099999999991</v>
+      </c>
+      <c r="D40">
+        <v>371.54</v>
+      </c>
+      <c r="E40">
+        <v>4709.5200000000004</v>
+      </c>
+      <c r="F40">
+        <v>191.38</v>
+      </c>
+      <c r="G40">
+        <v>119.0664</v>
+      </c>
+      <c r="H40">
+        <v>172.44</v>
+      </c>
+      <c r="I40">
+        <v>95.988</v>
+      </c>
+      <c r="J40">
+        <v>98.269400000000005</v>
+      </c>
+      <c r="K40">
+        <v>131.7621</v>
+      </c>
+      <c r="L40">
+        <v>847.5</v>
+      </c>
+      <c r="M40">
+        <v>1133.45</v>
+      </c>
+      <c r="N40">
+        <v>289.54230000000001</v>
+      </c>
+      <c r="O40">
+        <v>281.23</v>
+      </c>
+      <c r="P40">
+        <v>356.91</v>
+      </c>
+      <c r="Q40">
+        <v>335.14</v>
+      </c>
+      <c r="R40">
+        <v>169.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B41">
+        <v>9195.3539999999994</v>
+      </c>
+      <c r="C41">
+        <v>9098.0499999999993</v>
+      </c>
+      <c r="D41">
+        <v>366.06</v>
+      </c>
+      <c r="E41">
+        <v>4712.34</v>
+      </c>
+      <c r="F41">
+        <v>193.1</v>
+      </c>
+      <c r="G41">
+        <v>119.0728</v>
+      </c>
+      <c r="H41">
+        <v>170.99</v>
+      </c>
+      <c r="I41">
+        <v>96.231399999999994</v>
+      </c>
+      <c r="J41">
+        <v>98.508300000000006</v>
+      </c>
+      <c r="K41">
+        <v>131.9092</v>
+      </c>
+      <c r="L41">
+        <v>853.78</v>
+      </c>
+      <c r="M41">
+        <v>1133.25</v>
+      </c>
+      <c r="N41">
+        <v>290.08240000000001</v>
+      </c>
+      <c r="O41">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="P41">
+        <v>356.12</v>
+      </c>
+      <c r="Q41">
+        <v>333.61</v>
+      </c>
+      <c r="R41">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B42">
+        <v>9130.8109999999997</v>
+      </c>
+      <c r="C42">
+        <v>9012.74</v>
+      </c>
+      <c r="D42">
+        <v>362.96</v>
+      </c>
+      <c r="E42">
+        <v>4730.08</v>
+      </c>
+      <c r="F42">
+        <v>195.82</v>
+      </c>
+      <c r="G42">
+        <v>118.8288</v>
+      </c>
+      <c r="H42">
+        <v>170.46</v>
+      </c>
+      <c r="I42">
+        <v>96.705500000000001</v>
+      </c>
+      <c r="J42">
+        <v>98.896600000000007</v>
+      </c>
+      <c r="K42">
+        <v>132.26740000000001</v>
+      </c>
+      <c r="L42">
+        <v>856.59</v>
+      </c>
+      <c r="M42">
+        <v>1132.3699999999999</v>
+      </c>
+      <c r="N42">
+        <v>289.0806</v>
+      </c>
+      <c r="O42">
+        <v>281.75</v>
+      </c>
+      <c r="P42">
+        <v>356.9</v>
+      </c>
+      <c r="Q42">
+        <v>334.47</v>
+      </c>
+      <c r="R42">
+        <v>169.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B43">
+        <v>9130.8109999999997</v>
+      </c>
+      <c r="C43">
+        <v>8817</v>
+      </c>
+      <c r="D43">
+        <v>361.7</v>
+      </c>
+      <c r="E43">
+        <v>4730.08</v>
+      </c>
+      <c r="F43">
+        <v>195.82</v>
+      </c>
+      <c r="G43">
+        <v>118.8288</v>
+      </c>
+      <c r="H43">
+        <v>170.46</v>
+      </c>
+      <c r="I43">
+        <v>96.705500000000001</v>
+      </c>
+      <c r="J43">
+        <v>98.896600000000007</v>
+      </c>
+      <c r="K43">
+        <v>132.26740000000001</v>
+      </c>
+      <c r="L43">
+        <v>856.59</v>
+      </c>
+      <c r="M43">
+        <v>1132.3699999999999</v>
+      </c>
+      <c r="N43">
+        <v>289.0806</v>
+      </c>
+      <c r="O43">
+        <v>281.75</v>
+      </c>
+      <c r="P43">
+        <v>356.9</v>
+      </c>
+      <c r="Q43">
+        <v>334.47</v>
+      </c>
+      <c r="R43">
+        <v>169.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B44">
+        <v>9038.3169999999991</v>
+      </c>
+      <c r="C44">
+        <v>8816.4699999999993</v>
+      </c>
+      <c r="D44">
+        <v>358.45</v>
+      </c>
+      <c r="E44">
+        <v>4724.9799999999996</v>
+      </c>
+      <c r="F44">
+        <v>196.49</v>
+      </c>
+      <c r="G44">
+        <v>118.07250000000001</v>
+      </c>
+      <c r="H44">
+        <v>169.07</v>
+      </c>
+      <c r="I44">
+        <v>96.628799999999998</v>
+      </c>
+      <c r="J44">
+        <v>99.069299999999998</v>
+      </c>
+      <c r="K44">
+        <v>132.30099999999999</v>
+      </c>
+      <c r="L44">
+        <v>860.91</v>
+      </c>
+      <c r="M44">
+        <v>1132.53</v>
+      </c>
+      <c r="N44">
+        <v>289.3648</v>
+      </c>
+      <c r="O44">
+        <v>282.27</v>
+      </c>
+      <c r="P44">
+        <v>357.51</v>
+      </c>
+      <c r="Q44">
+        <v>335.34</v>
+      </c>
+      <c r="R44">
+        <v>169.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B45">
+        <v>8871.9529999999995</v>
+      </c>
+      <c r="C45">
+        <v>8789.7900000000009</v>
+      </c>
+      <c r="D45">
+        <v>354.14</v>
+      </c>
+      <c r="E45">
+        <v>4670.76</v>
+      </c>
+      <c r="F45">
+        <v>192.86</v>
+      </c>
+      <c r="G45">
+        <v>117.68089999999999</v>
+      </c>
+      <c r="H45">
+        <v>166.95</v>
+      </c>
+      <c r="I45">
+        <v>96.855099999999993</v>
+      </c>
+      <c r="J45">
+        <v>99.024299999999997</v>
+      </c>
+      <c r="K45">
+        <v>132.4736</v>
+      </c>
+      <c r="L45">
+        <v>867.77</v>
+      </c>
+      <c r="M45">
+        <v>1132.42</v>
+      </c>
+      <c r="N45">
+        <v>289.3254</v>
+      </c>
+      <c r="O45">
+        <v>282.38</v>
+      </c>
+      <c r="P45">
+        <v>357.08</v>
+      </c>
+      <c r="Q45">
+        <v>335.7</v>
+      </c>
+      <c r="R45">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B46">
+        <v>9005.3680000000004</v>
+      </c>
+      <c r="C46">
+        <v>8470.9699999999993</v>
+      </c>
+      <c r="D46">
+        <v>352.04</v>
+      </c>
+      <c r="E46">
+        <v>4661.6000000000004</v>
+      </c>
+      <c r="F46">
+        <v>193.2</v>
+      </c>
+      <c r="G46">
+        <v>117.8473</v>
+      </c>
+      <c r="H46">
+        <v>169.15</v>
+      </c>
+      <c r="I46">
+        <v>97.387900000000002</v>
+      </c>
+      <c r="J46">
+        <v>100.13979999999999</v>
+      </c>
+      <c r="K46">
+        <v>133.31979999999999</v>
+      </c>
+      <c r="L46">
+        <v>862.31</v>
+      </c>
+      <c r="M46">
+        <v>1135.23</v>
+      </c>
+      <c r="N46">
+        <v>290.0147</v>
+      </c>
+      <c r="O46">
+        <v>280.62</v>
+      </c>
+      <c r="P46">
+        <v>354.89</v>
+      </c>
+      <c r="Q46">
+        <v>333.65</v>
+      </c>
+      <c r="R46">
+        <v>169.62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B47">
+        <v>9207.8529999999992</v>
+      </c>
+      <c r="C47">
+        <v>8783.77</v>
+      </c>
+      <c r="D47">
+        <v>360.62</v>
+      </c>
+      <c r="E47">
+        <v>4690.95</v>
+      </c>
+      <c r="F47">
+        <v>193.17</v>
+      </c>
+      <c r="G47">
+        <v>118.61109999999999</v>
+      </c>
+      <c r="H47">
+        <v>171.48</v>
+      </c>
+      <c r="I47">
+        <v>95.754499999999993</v>
+      </c>
+      <c r="J47">
+        <v>98.111199999999997</v>
+      </c>
+      <c r="K47">
+        <v>131.22640000000001</v>
+      </c>
+      <c r="L47">
+        <v>854.05</v>
+      </c>
+      <c r="M47">
+        <v>1131.4000000000001</v>
+      </c>
+      <c r="N47">
+        <v>289.5652</v>
+      </c>
+      <c r="O47">
+        <v>280.31</v>
+      </c>
+      <c r="P47">
+        <v>354.81</v>
+      </c>
+      <c r="Q47">
+        <v>333.72</v>
+      </c>
+      <c r="R47">
+        <v>168.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B48">
+        <v>9186.3729999999996</v>
+      </c>
+      <c r="C48">
+        <v>8680.99</v>
+      </c>
+      <c r="D48">
+        <v>360.38</v>
+      </c>
+      <c r="E48">
+        <v>4768.99</v>
+      </c>
+      <c r="F48">
+        <v>198.43</v>
+      </c>
+      <c r="G48">
+        <v>118.809</v>
+      </c>
+      <c r="H48">
+        <v>171.72</v>
+      </c>
+      <c r="I48">
+        <v>96.393699999999995</v>
+      </c>
+      <c r="J48">
+        <v>98.679199999999994</v>
+      </c>
+      <c r="K48">
+        <v>131.6797</v>
+      </c>
+      <c r="L48">
+        <v>854.42</v>
+      </c>
+      <c r="M48">
+        <v>1133.4000000000001</v>
+      </c>
+      <c r="N48">
+        <v>291.47039999999998</v>
+      </c>
+      <c r="O48">
+        <v>279.70999999999998</v>
+      </c>
+      <c r="P48">
+        <v>355.38</v>
+      </c>
+      <c r="Q48">
+        <v>333.6</v>
+      </c>
+      <c r="R48">
+        <v>169.08</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B137DF-B319-4681-8623-4FB0308BAB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049D6C7-B402-4EFF-A83E-E4C37562590E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -175,25 +175,63 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11732113933293340835</stp>
+        <stp>BDH|14663147491730314616</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12242593846495096822</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15571704729077420854</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17291371097751638087</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13733484554199069970</stp>
+        <tr r="R7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11108615261251567376</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15993871959528898348</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11683038849726798396</stp>
         <tr r="F7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10732923337612812052</stp>
-        <tr r="K7" s="4"/>
+        <stp>BDH|13705735805936258670</stp>
+        <tr r="P7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12279956682092415875</stp>
-        <tr r="H7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|16123526187450215513</stp>
+        <stp>BDH|11547704168501613500</stp>
         <tr r="L7" s="4"/>
       </tp>
     </main>
@@ -201,82 +239,46 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17674755496812826718</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12369343446641494765</stp>
-        <tr r="G7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17904288911240242228</stp>
-        <tr r="R7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13408790460372706469</stp>
-        <tr r="A7" s="4"/>
+        <stp>BDH|1541085959321685813</stp>
+        <tr r="J7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6084469029988504311</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5590455448582122285</stp>
-        <tr r="J7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|4230552436795896157</stp>
-        <tr r="E7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|1737786382687111867</stp>
+        <stp>BDH|5846878356474534796</stp>
         <tr r="C7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2078150025930288091</stp>
-        <tr r="P7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3860886395990440396</stp>
+        <stp>BDH|7589157649884467236</stp>
         <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6217677300874449691</stp>
+        <stp>BDH|3381848997194074238</stp>
         <tr r="O7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4121107670905347533</stp>
-        <tr r="D7" s="4"/>
+        <stp>BDH|4813654211104535128</stp>
+        <tr r="Q7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6750822766869524267</stp>
-        <tr r="Q7" s="4"/>
+        <stp>BDH|2768895082101642491</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8648478042658743026</stp>
+        <tr r="K7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -684,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,6 +2989,1225 @@
         <v>333.6</v>
       </c>
     </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B44">
+        <v>9044.4709999999995</v>
+      </c>
+      <c r="C44">
+        <v>8330.65</v>
+      </c>
+      <c r="D44">
+        <v>355.52</v>
+      </c>
+      <c r="E44">
+        <v>4804.34</v>
+      </c>
+      <c r="F44">
+        <v>201.24</v>
+      </c>
+      <c r="G44">
+        <v>119.71120000000001</v>
+      </c>
+      <c r="H44">
+        <v>171.2</v>
+      </c>
+      <c r="I44">
+        <v>97.361000000000004</v>
+      </c>
+      <c r="J44">
+        <v>99.421700000000001</v>
+      </c>
+      <c r="K44">
+        <v>132.55860000000001</v>
+      </c>
+      <c r="L44">
+        <v>858.19</v>
+      </c>
+      <c r="M44">
+        <v>1133.76</v>
+      </c>
+      <c r="N44">
+        <v>291.17399999999998</v>
+      </c>
+      <c r="O44">
+        <v>280.17</v>
+      </c>
+      <c r="P44">
+        <v>354.94</v>
+      </c>
+      <c r="Q44">
+        <v>334.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B45">
+        <v>9213.3950000000004</v>
+      </c>
+      <c r="C45">
+        <v>8453.1</v>
+      </c>
+      <c r="D45">
+        <v>358.83</v>
+      </c>
+      <c r="E45">
+        <v>4684.22</v>
+      </c>
+      <c r="F45">
+        <v>192.27</v>
+      </c>
+      <c r="G45">
+        <v>119.85080000000001</v>
+      </c>
+      <c r="H45">
+        <v>172.42</v>
+      </c>
+      <c r="I45">
+        <v>96.404899999999998</v>
+      </c>
+      <c r="J45">
+        <v>99.046700000000001</v>
+      </c>
+      <c r="K45">
+        <v>131.73670000000001</v>
+      </c>
+      <c r="L45">
+        <v>852.35</v>
+      </c>
+      <c r="M45">
+        <v>1128.56</v>
+      </c>
+      <c r="N45">
+        <v>293.83800000000002</v>
+      </c>
+      <c r="O45">
+        <v>280.37</v>
+      </c>
+      <c r="P45">
+        <v>355.61</v>
+      </c>
+      <c r="Q45">
+        <v>334.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B46">
+        <v>9166.1309999999994</v>
+      </c>
+      <c r="C46">
+        <v>8278.7199999999993</v>
+      </c>
+      <c r="D46">
+        <v>356.68</v>
+      </c>
+      <c r="E46">
+        <v>4721.07</v>
+      </c>
+      <c r="F46">
+        <v>194.91</v>
+      </c>
+      <c r="G46">
+        <v>119.63460000000001</v>
+      </c>
+      <c r="H46">
+        <v>171.85</v>
+      </c>
+      <c r="I46">
+        <v>96.481099999999998</v>
+      </c>
+      <c r="J46">
+        <v>98.540099999999995</v>
+      </c>
+      <c r="K46">
+        <v>131.7253</v>
+      </c>
+      <c r="L46">
+        <v>854.06</v>
+      </c>
+      <c r="M46">
+        <v>1131.24</v>
+      </c>
+      <c r="N46">
+        <v>294.20389999999998</v>
+      </c>
+      <c r="O46">
+        <v>280.81</v>
+      </c>
+      <c r="P46">
+        <v>355.94</v>
+      </c>
+      <c r="Q46">
+        <v>334.48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B47">
+        <v>9094.0439999999999</v>
+      </c>
+      <c r="C47">
+        <v>7867.72</v>
+      </c>
+      <c r="D47">
+        <v>350.8</v>
+      </c>
+      <c r="E47">
+        <v>4750.95</v>
+      </c>
+      <c r="F47">
+        <v>199.13</v>
+      </c>
+      <c r="G47">
+        <v>119.70659999999999</v>
+      </c>
+      <c r="H47">
+        <v>171.82</v>
+      </c>
+      <c r="I47">
+        <v>97.313800000000001</v>
+      </c>
+      <c r="J47">
+        <v>99.634699999999995</v>
+      </c>
+      <c r="K47">
+        <v>132.6429</v>
+      </c>
+      <c r="L47">
+        <v>856.86</v>
+      </c>
+      <c r="M47">
+        <v>1139.6500000000001</v>
+      </c>
+      <c r="N47">
+        <v>293.8526</v>
+      </c>
+      <c r="O47">
+        <v>280.58999999999997</v>
+      </c>
+      <c r="P47">
+        <v>355.97</v>
+      </c>
+      <c r="Q47">
+        <v>334.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B48">
+        <v>8825.723</v>
+      </c>
+      <c r="C48">
+        <v>7770.82</v>
+      </c>
+      <c r="D48">
+        <v>341.23</v>
+      </c>
+      <c r="E48">
+        <v>4684.75</v>
+      </c>
+      <c r="F48">
+        <v>197.55</v>
+      </c>
+      <c r="G48">
+        <v>119.49930000000001</v>
+      </c>
+      <c r="H48">
+        <v>169.16</v>
+      </c>
+      <c r="I48">
+        <v>98.1374</v>
+      </c>
+      <c r="J48">
+        <v>99.931299999999993</v>
+      </c>
+      <c r="K48">
+        <v>133.02539999999999</v>
+      </c>
+      <c r="L48">
+        <v>866.73</v>
+      </c>
+      <c r="M48">
+        <v>1141.07</v>
+      </c>
+      <c r="N48">
+        <v>292.15780000000001</v>
+      </c>
+      <c r="O48">
+        <v>280.52999999999997</v>
+      </c>
+      <c r="P48">
+        <v>356.8</v>
+      </c>
+      <c r="Q48">
+        <v>335.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B49">
+        <v>8762.1119999999992</v>
+      </c>
+      <c r="C49">
+        <v>7755.49</v>
+      </c>
+      <c r="D49">
+        <v>338.52</v>
+      </c>
+      <c r="E49">
+        <v>4620.5200000000004</v>
+      </c>
+      <c r="F49">
+        <v>194.96</v>
+      </c>
+      <c r="G49">
+        <v>118.93600000000001</v>
+      </c>
+      <c r="H49">
+        <v>167.23</v>
+      </c>
+      <c r="I49">
+        <v>98.045699999999997</v>
+      </c>
+      <c r="J49">
+        <v>100.9315</v>
+      </c>
+      <c r="K49">
+        <v>133.3306</v>
+      </c>
+      <c r="L49">
+        <v>869.02</v>
+      </c>
+      <c r="M49">
+        <v>1139.82</v>
+      </c>
+      <c r="N49">
+        <v>292.70549999999997</v>
+      </c>
+      <c r="O49">
+        <v>280.27999999999997</v>
+      </c>
+      <c r="P49">
+        <v>355.78</v>
+      </c>
+      <c r="Q49">
+        <v>334.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B50">
+        <v>8988.65</v>
+      </c>
+      <c r="C50">
+        <v>8332.36</v>
+      </c>
+      <c r="D50">
+        <v>347.39</v>
+      </c>
+      <c r="E50">
+        <v>4610.87</v>
+      </c>
+      <c r="F50">
+        <v>192.41</v>
+      </c>
+      <c r="G50">
+        <v>119.6652</v>
+      </c>
+      <c r="H50">
+        <v>170.61</v>
+      </c>
+      <c r="I50">
+        <v>97.221999999999994</v>
+      </c>
+      <c r="J50">
+        <v>99.488</v>
+      </c>
+      <c r="K50">
+        <v>132.22309999999999</v>
+      </c>
+      <c r="L50">
+        <v>861.98</v>
+      </c>
+      <c r="M50">
+        <v>1139.71</v>
+      </c>
+      <c r="N50">
+        <v>291.08679999999998</v>
+      </c>
+      <c r="O50">
+        <v>280.2</v>
+      </c>
+      <c r="P50">
+        <v>356.05</v>
+      </c>
+      <c r="Q50">
+        <v>334.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B51">
+        <v>8950.902</v>
+      </c>
+      <c r="C51">
+        <v>8081.78</v>
+      </c>
+      <c r="D51">
+        <v>346.8</v>
+      </c>
+      <c r="E51">
+        <v>4550.3100000000004</v>
+      </c>
+      <c r="F51">
+        <v>189.01</v>
+      </c>
+      <c r="G51">
+        <v>119.2414</v>
+      </c>
+      <c r="H51">
+        <v>169.46</v>
+      </c>
+      <c r="I51">
+        <v>97.372699999999995</v>
+      </c>
+      <c r="J51">
+        <v>99.368600000000001</v>
+      </c>
+      <c r="K51">
+        <v>132.3954</v>
+      </c>
+      <c r="L51">
+        <v>865.01</v>
+      </c>
+      <c r="M51">
+        <v>1145.95</v>
+      </c>
+      <c r="N51">
+        <v>288.17329999999998</v>
+      </c>
+      <c r="O51">
+        <v>280.39</v>
+      </c>
+      <c r="P51">
+        <v>356.52</v>
+      </c>
+      <c r="Q51">
+        <v>334.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B52">
+        <v>8835.3979999999992</v>
+      </c>
+      <c r="C52">
+        <v>8160.12</v>
+      </c>
+      <c r="D52">
+        <v>342.84</v>
+      </c>
+      <c r="E52">
+        <v>4550.67</v>
+      </c>
+      <c r="F52">
+        <v>189.99</v>
+      </c>
+      <c r="G52">
+        <v>119.0382</v>
+      </c>
+      <c r="H52">
+        <v>167.87</v>
+      </c>
+      <c r="I52">
+        <v>96.795500000000004</v>
+      </c>
+      <c r="J52">
+        <v>98.691000000000003</v>
+      </c>
+      <c r="K52">
+        <v>131.64080000000001</v>
+      </c>
+      <c r="L52">
+        <v>869.24</v>
+      </c>
+      <c r="M52">
+        <v>1146.73</v>
+      </c>
+      <c r="N52">
+        <v>289.40839999999997</v>
+      </c>
+      <c r="O52">
+        <v>280.58</v>
+      </c>
+      <c r="P52">
+        <v>356.62</v>
+      </c>
+      <c r="Q52">
+        <v>334.54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B53">
+        <v>8771.7510000000002</v>
+      </c>
+      <c r="C53">
+        <v>8280.36</v>
+      </c>
+      <c r="D53">
+        <v>340.34</v>
+      </c>
+      <c r="E53">
+        <v>4457.91</v>
+      </c>
+      <c r="F53">
+        <v>184.57</v>
+      </c>
+      <c r="G53">
+        <v>118.925</v>
+      </c>
+      <c r="H53">
+        <v>167.12</v>
+      </c>
+      <c r="I53">
+        <v>97.297799999999995</v>
+      </c>
+      <c r="J53">
+        <v>99.105699999999999</v>
+      </c>
+      <c r="K53">
+        <v>132.02809999999999</v>
+      </c>
+      <c r="L53">
+        <v>871.47</v>
+      </c>
+      <c r="M53">
+        <v>1148.52</v>
+      </c>
+      <c r="N53">
+        <v>288.99810000000002</v>
+      </c>
+      <c r="O53">
+        <v>280.56</v>
+      </c>
+      <c r="P53">
+        <v>357.95</v>
+      </c>
+      <c r="Q53">
+        <v>335.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B54">
+        <v>8959.741</v>
+      </c>
+      <c r="C54">
+        <v>8273.7199999999993</v>
+      </c>
+      <c r="D54">
+        <v>343.56</v>
+      </c>
+      <c r="E54">
+        <v>4472.72</v>
+      </c>
+      <c r="F54">
+        <v>184.13</v>
+      </c>
+      <c r="G54">
+        <v>119.36620000000001</v>
+      </c>
+      <c r="H54">
+        <v>169.63</v>
+      </c>
+      <c r="I54">
+        <v>96.827799999999996</v>
+      </c>
+      <c r="J54">
+        <v>99.046000000000006</v>
+      </c>
+      <c r="K54">
+        <v>131.8159</v>
+      </c>
+      <c r="L54">
+        <v>865.53</v>
+      </c>
+      <c r="M54">
+        <v>1150.6500000000001</v>
+      </c>
+      <c r="N54">
+        <v>289.78870000000001</v>
+      </c>
+      <c r="O54">
+        <v>281.01</v>
+      </c>
+      <c r="P54">
+        <v>358.09</v>
+      </c>
+      <c r="Q54">
+        <v>335.41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B55">
+        <v>9160.5120000000006</v>
+      </c>
+      <c r="C55">
+        <v>8609.24</v>
+      </c>
+      <c r="D55">
+        <v>353.07</v>
+      </c>
+      <c r="E55">
+        <v>4541.53</v>
+      </c>
+      <c r="F55">
+        <v>186.81</v>
+      </c>
+      <c r="G55">
+        <v>119.411</v>
+      </c>
+      <c r="H55">
+        <v>171.17</v>
+      </c>
+      <c r="I55">
+        <v>96.001400000000004</v>
+      </c>
+      <c r="J55">
+        <v>98.170199999999994</v>
+      </c>
+      <c r="K55">
+        <v>131.0745</v>
+      </c>
+      <c r="L55">
+        <v>858.97</v>
+      </c>
+      <c r="M55">
+        <v>1151.25</v>
+      </c>
+      <c r="N55">
+        <v>286.61540000000002</v>
+      </c>
+      <c r="O55">
+        <v>280.41000000000003</v>
+      </c>
+      <c r="P55">
+        <v>357.61</v>
+      </c>
+      <c r="Q55">
+        <v>334.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B56">
+        <v>9274.1689999999999</v>
+      </c>
+      <c r="C56">
+        <v>8599.5499999999993</v>
+      </c>
+      <c r="D56">
+        <v>359.38</v>
+      </c>
+      <c r="E56">
+        <v>4591.01</v>
+      </c>
+      <c r="F56">
+        <v>184.75</v>
+      </c>
+      <c r="G56">
+        <v>119.3646</v>
+      </c>
+      <c r="H56">
+        <v>171.84</v>
+      </c>
+      <c r="I56">
+        <v>95.799000000000007</v>
+      </c>
+      <c r="J56">
+        <v>97.796300000000002</v>
+      </c>
+      <c r="K56">
+        <v>130.8647</v>
+      </c>
+      <c r="L56">
+        <v>855.19</v>
+      </c>
+      <c r="M56">
+        <v>1148.25</v>
+      </c>
+      <c r="N56">
+        <v>285.19979999999998</v>
+      </c>
+      <c r="O56">
+        <v>280.52</v>
+      </c>
+      <c r="P56">
+        <v>357.79</v>
+      </c>
+      <c r="Q56">
+        <v>334.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B57">
+        <v>9382.4310000000005</v>
+      </c>
+      <c r="C57">
+        <v>8637.4599999999991</v>
+      </c>
+      <c r="D57">
+        <v>362.59</v>
+      </c>
+      <c r="E57">
+        <v>4630.26</v>
+      </c>
+      <c r="F57">
+        <v>187.64</v>
+      </c>
+      <c r="G57">
+        <v>119.48099999999999</v>
+      </c>
+      <c r="H57">
+        <v>172.2</v>
+      </c>
+      <c r="I57">
+        <v>95.670299999999997</v>
+      </c>
+      <c r="J57">
+        <v>97.752799999999993</v>
+      </c>
+      <c r="K57">
+        <v>130.78749999999999</v>
+      </c>
+      <c r="L57">
+        <v>851.73</v>
+      </c>
+      <c r="M57">
+        <v>1147.48</v>
+      </c>
+      <c r="N57">
+        <v>284.56509999999997</v>
+      </c>
+      <c r="O57">
+        <v>280.51</v>
+      </c>
+      <c r="P57">
+        <v>357.94</v>
+      </c>
+      <c r="Q57">
+        <v>334.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B58">
+        <v>9378.8439999999991</v>
+      </c>
+      <c r="C58">
+        <v>8591.76</v>
+      </c>
+      <c r="D58">
+        <v>362.27</v>
+      </c>
+      <c r="E58">
+        <v>4557.7299999999996</v>
+      </c>
+      <c r="F58">
+        <v>182.38</v>
+      </c>
+      <c r="G58">
+        <v>119.2591</v>
+      </c>
+      <c r="H58">
+        <v>172.3</v>
+      </c>
+      <c r="I58">
+        <v>95.640799999999999</v>
+      </c>
+      <c r="J58">
+        <v>97.634900000000002</v>
+      </c>
+      <c r="K58">
+        <v>130.71510000000001</v>
+      </c>
+      <c r="L58">
+        <v>852.49</v>
+      </c>
+      <c r="M58">
+        <v>1149.03</v>
+      </c>
+      <c r="N58">
+        <v>284.5351</v>
+      </c>
+      <c r="O58">
+        <v>280.87</v>
+      </c>
+      <c r="P58">
+        <v>358.16</v>
+      </c>
+      <c r="Q58">
+        <v>335.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B59">
+        <v>9484.8549999999996</v>
+      </c>
+      <c r="C59">
+        <v>8693.7000000000007</v>
+      </c>
+      <c r="D59">
+        <v>366.11</v>
+      </c>
+      <c r="E59">
+        <v>4533.4399999999996</v>
+      </c>
+      <c r="F59">
+        <v>179.55</v>
+      </c>
+      <c r="G59">
+        <v>119.34059999999999</v>
+      </c>
+      <c r="H59">
+        <v>172.94</v>
+      </c>
+      <c r="I59">
+        <v>95.592200000000005</v>
+      </c>
+      <c r="J59">
+        <v>97.564899999999994</v>
+      </c>
+      <c r="K59">
+        <v>130.69110000000001</v>
+      </c>
+      <c r="L59">
+        <v>848.93</v>
+      </c>
+      <c r="M59">
+        <v>1147.72</v>
+      </c>
+      <c r="N59">
+        <v>284.44009999999997</v>
+      </c>
+      <c r="O59">
+        <v>280.87</v>
+      </c>
+      <c r="P59">
+        <v>357.98</v>
+      </c>
+      <c r="Q59">
+        <v>335.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B60">
+        <v>9368.9789999999994</v>
+      </c>
+      <c r="C60">
+        <v>8567.7199999999993</v>
+      </c>
+      <c r="D60">
+        <v>363.5</v>
+      </c>
+      <c r="E60">
+        <v>4588.33</v>
+      </c>
+      <c r="F60">
+        <v>184.8</v>
+      </c>
+      <c r="G60">
+        <v>118.9499</v>
+      </c>
+      <c r="H60">
+        <v>172.24</v>
+      </c>
+      <c r="I60">
+        <v>95.597899999999996</v>
+      </c>
+      <c r="J60">
+        <v>97.587599999999995</v>
+      </c>
+      <c r="K60">
+        <v>130.6979</v>
+      </c>
+      <c r="L60">
+        <v>852.86</v>
+      </c>
+      <c r="M60">
+        <v>1149.6099999999999</v>
+      </c>
+      <c r="N60">
+        <v>283.8107</v>
+      </c>
+      <c r="O60">
+        <v>280.83999999999997</v>
+      </c>
+      <c r="P60">
+        <v>357.94</v>
+      </c>
+      <c r="Q60">
+        <v>335.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B61">
+        <v>9504.1849999999995</v>
+      </c>
+      <c r="C61">
+        <v>8554.81</v>
+      </c>
+      <c r="D61">
+        <v>366.48</v>
+      </c>
+      <c r="E61">
+        <v>4555.7299999999996</v>
+      </c>
+      <c r="F61">
+        <v>182.96</v>
+      </c>
+      <c r="G61">
+        <v>119.2619</v>
+      </c>
+      <c r="H61">
+        <v>173.09</v>
+      </c>
+      <c r="I61">
+        <v>95.539599999999993</v>
+      </c>
+      <c r="J61">
+        <v>97.543199999999999</v>
+      </c>
+      <c r="K61">
+        <v>130.6687</v>
+      </c>
+      <c r="L61">
+        <v>848.86</v>
+      </c>
+      <c r="M61">
+        <v>1150.31</v>
+      </c>
+      <c r="N61">
+        <v>282.94940000000003</v>
+      </c>
+      <c r="O61">
+        <v>280.63</v>
+      </c>
+      <c r="P61">
+        <v>357.88</v>
+      </c>
+      <c r="Q61">
+        <v>334.95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B62">
+        <v>9552.3970000000008</v>
+      </c>
+      <c r="C62">
+        <v>8564.42</v>
+      </c>
+      <c r="D62">
+        <v>366.9</v>
+      </c>
+      <c r="E62">
+        <v>4516.24</v>
+      </c>
+      <c r="F62">
+        <v>179.97</v>
+      </c>
+      <c r="G62">
+        <v>119.2697</v>
+      </c>
+      <c r="H62">
+        <v>173.31</v>
+      </c>
+      <c r="I62">
+        <v>95.535700000000006</v>
+      </c>
+      <c r="J62">
+        <v>97.491600000000005</v>
+      </c>
+      <c r="K62">
+        <v>130.66229999999999</v>
+      </c>
+      <c r="L62">
+        <v>847.54</v>
+      </c>
+      <c r="M62">
+        <v>1148.45</v>
+      </c>
+      <c r="N62">
+        <v>282.37220000000002</v>
+      </c>
+      <c r="O62">
+        <v>280.64999999999998</v>
+      </c>
+      <c r="P62">
+        <v>358.05</v>
+      </c>
+      <c r="Q62">
+        <v>335.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B63">
+        <v>9620.6610000000001</v>
+      </c>
+      <c r="C63">
+        <v>8607.2999999999993</v>
+      </c>
+      <c r="D63">
+        <v>368.25</v>
+      </c>
+      <c r="E63">
+        <v>4546.7700000000004</v>
+      </c>
+      <c r="F63">
+        <v>182.08</v>
+      </c>
+      <c r="G63">
+        <v>119.5269</v>
+      </c>
+      <c r="H63">
+        <v>173.55</v>
+      </c>
+      <c r="I63">
+        <v>95.519400000000005</v>
+      </c>
+      <c r="J63">
+        <v>97.495500000000007</v>
+      </c>
+      <c r="K63">
+        <v>130.6602</v>
+      </c>
+      <c r="L63">
+        <v>845.78</v>
+      </c>
+      <c r="M63">
+        <v>1149.81</v>
+      </c>
+      <c r="N63">
+        <v>282.14429999999999</v>
+      </c>
+      <c r="O63">
+        <v>280.95</v>
+      </c>
+      <c r="P63">
+        <v>357.97</v>
+      </c>
+      <c r="Q63">
+        <v>335.43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B64">
+        <v>9738.5949999999993</v>
+      </c>
+      <c r="C64">
+        <v>8862.1299999999992</v>
+      </c>
+      <c r="D64">
+        <v>373.94</v>
+      </c>
+      <c r="E64">
+        <v>4601.1499999999996</v>
+      </c>
+      <c r="F64">
+        <v>183.8</v>
+      </c>
+      <c r="G64">
+        <v>119.7697</v>
+      </c>
+      <c r="H64">
+        <v>173.47</v>
+      </c>
+      <c r="I64">
+        <v>95.437100000000001</v>
+      </c>
+      <c r="J64">
+        <v>97.4208</v>
+      </c>
+      <c r="K64">
+        <v>130.60839999999999</v>
+      </c>
+      <c r="L64">
+        <v>842.91</v>
+      </c>
+      <c r="M64">
+        <v>1144.5899999999999</v>
+      </c>
+      <c r="N64">
+        <v>281.91390000000001</v>
+      </c>
+      <c r="O64">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="P64">
+        <v>357.31</v>
+      </c>
+      <c r="Q64">
+        <v>335.16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B65">
+        <v>9678.2999999999993</v>
+      </c>
+      <c r="C65">
+        <v>8766.84</v>
+      </c>
+      <c r="D65">
+        <v>373.11</v>
+      </c>
+      <c r="E65">
+        <v>4626.25</v>
+      </c>
+      <c r="F65">
+        <v>185.42</v>
+      </c>
+      <c r="G65">
+        <v>119.7179</v>
+      </c>
+      <c r="H65">
+        <v>173.53</v>
+      </c>
+      <c r="I65">
+        <v>95.442400000000006</v>
+      </c>
+      <c r="J65">
+        <v>97.414400000000001</v>
+      </c>
+      <c r="K65">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="L65">
+        <v>844.26</v>
+      </c>
+      <c r="M65">
+        <v>1146.0899999999999</v>
+      </c>
+      <c r="N65">
+        <v>282.10210000000001</v>
+      </c>
+      <c r="O65">
+        <v>280.81</v>
+      </c>
+      <c r="P65">
+        <v>357.59</v>
+      </c>
+      <c r="Q65">
+        <v>335.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B66">
+        <v>9527.4590000000007</v>
+      </c>
+      <c r="C66">
+        <v>8641.4500000000007</v>
+      </c>
+      <c r="D66">
+        <v>368.19</v>
+      </c>
+      <c r="E66">
+        <v>4636.45</v>
+      </c>
+      <c r="F66">
+        <v>185.88</v>
+      </c>
+      <c r="G66">
+        <v>119.7179</v>
+      </c>
+      <c r="H66">
+        <v>173.56</v>
+      </c>
+      <c r="I66">
+        <v>95.452299999999994</v>
+      </c>
+      <c r="J66">
+        <v>97.427999999999997</v>
+      </c>
+      <c r="K66">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="L66">
+        <v>844.26</v>
+      </c>
+      <c r="M66">
+        <v>1146.0899999999999</v>
+      </c>
+      <c r="N66">
+        <v>281.61649999999997</v>
+      </c>
+      <c r="O66">
+        <v>280.81</v>
+      </c>
+      <c r="P66">
+        <v>357.59</v>
+      </c>
+      <c r="Q66">
+        <v>335.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -53568,8 +54789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4997370F-9A70-4CFD-8BA1-9E8D19D4CBB2}">
   <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:R48"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53605,7 +54826,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44620</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -53789,74 +55010,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=42")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=65")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=42")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=65")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -56156,100 +57377,1319 @@
         <v>169.08</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B49">
+        <v>9044.4709999999995</v>
+      </c>
+      <c r="C49">
+        <v>8330.65</v>
+      </c>
+      <c r="D49">
+        <v>355.52</v>
+      </c>
+      <c r="E49">
+        <v>4804.34</v>
+      </c>
+      <c r="F49">
+        <v>201.24</v>
+      </c>
+      <c r="G49">
+        <v>119.71120000000001</v>
+      </c>
+      <c r="H49">
+        <v>171.2</v>
+      </c>
+      <c r="I49">
+        <v>97.361000000000004</v>
+      </c>
+      <c r="J49">
+        <v>99.421700000000001</v>
+      </c>
+      <c r="K49">
+        <v>132.55860000000001</v>
+      </c>
+      <c r="L49">
+        <v>858.19</v>
+      </c>
+      <c r="M49">
+        <v>1133.76</v>
+      </c>
+      <c r="N49">
+        <v>291.17399999999998</v>
+      </c>
+      <c r="O49">
+        <v>280.17</v>
+      </c>
+      <c r="P49">
+        <v>354.94</v>
+      </c>
+      <c r="Q49">
+        <v>334.46</v>
+      </c>
+      <c r="R49">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B50">
+        <v>9213.3950000000004</v>
+      </c>
+      <c r="C50">
+        <v>8453.1</v>
+      </c>
+      <c r="D50">
+        <v>358.83</v>
+      </c>
+      <c r="E50">
+        <v>4684.22</v>
+      </c>
+      <c r="F50">
+        <v>192.27</v>
+      </c>
+      <c r="G50">
+        <v>119.85080000000001</v>
+      </c>
+      <c r="H50">
+        <v>172.42</v>
+      </c>
+      <c r="I50">
+        <v>96.404899999999998</v>
+      </c>
+      <c r="J50">
+        <v>99.046700000000001</v>
+      </c>
+      <c r="K50">
+        <v>131.73670000000001</v>
+      </c>
+      <c r="L50">
+        <v>852.35</v>
+      </c>
+      <c r="M50">
+        <v>1128.56</v>
+      </c>
+      <c r="N50">
+        <v>293.83800000000002</v>
+      </c>
+      <c r="O50">
+        <v>280.37</v>
+      </c>
+      <c r="P50">
+        <v>355.61</v>
+      </c>
+      <c r="Q50">
+        <v>334.56</v>
+      </c>
+      <c r="R50">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B51">
+        <v>9166.1309999999994</v>
+      </c>
+      <c r="C51">
+        <v>8278.7199999999993</v>
+      </c>
+      <c r="D51">
+        <v>356.68</v>
+      </c>
+      <c r="E51">
+        <v>4721.07</v>
+      </c>
+      <c r="F51">
+        <v>194.91</v>
+      </c>
+      <c r="G51">
+        <v>119.63460000000001</v>
+      </c>
+      <c r="H51">
+        <v>171.85</v>
+      </c>
+      <c r="I51">
+        <v>96.481099999999998</v>
+      </c>
+      <c r="J51">
+        <v>98.540099999999995</v>
+      </c>
+      <c r="K51">
+        <v>131.7253</v>
+      </c>
+      <c r="L51">
+        <v>854.06</v>
+      </c>
+      <c r="M51">
+        <v>1131.24</v>
+      </c>
+      <c r="N51">
+        <v>294.20389999999998</v>
+      </c>
+      <c r="O51">
+        <v>280.81</v>
+      </c>
+      <c r="P51">
+        <v>355.94</v>
+      </c>
+      <c r="Q51">
+        <v>334.48</v>
+      </c>
+      <c r="R51">
+        <v>168.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B52">
+        <v>9094.0439999999999</v>
+      </c>
+      <c r="C52">
+        <v>7867.72</v>
+      </c>
+      <c r="D52">
+        <v>350.8</v>
+      </c>
+      <c r="E52">
+        <v>4750.95</v>
+      </c>
+      <c r="F52">
+        <v>199.13</v>
+      </c>
+      <c r="G52">
+        <v>119.70659999999999</v>
+      </c>
+      <c r="H52">
+        <v>171.82</v>
+      </c>
+      <c r="I52">
+        <v>97.313800000000001</v>
+      </c>
+      <c r="J52">
+        <v>99.634699999999995</v>
+      </c>
+      <c r="K52">
+        <v>132.6429</v>
+      </c>
+      <c r="L52">
+        <v>856.86</v>
+      </c>
+      <c r="M52">
+        <v>1139.6500000000001</v>
+      </c>
+      <c r="N52">
+        <v>293.8526</v>
+      </c>
+      <c r="O52">
+        <v>280.58999999999997</v>
+      </c>
+      <c r="P52">
+        <v>355.97</v>
+      </c>
+      <c r="Q52">
+        <v>334.44</v>
+      </c>
+      <c r="R52">
+        <v>169.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B53">
+        <v>8825.723</v>
+      </c>
+      <c r="C53">
+        <v>7770.82</v>
+      </c>
+      <c r="D53">
+        <v>341.23</v>
+      </c>
+      <c r="E53">
+        <v>4684.75</v>
+      </c>
+      <c r="F53">
+        <v>197.55</v>
+      </c>
+      <c r="G53">
+        <v>119.49930000000001</v>
+      </c>
+      <c r="H53">
+        <v>169.16</v>
+      </c>
+      <c r="I53">
+        <v>98.1374</v>
+      </c>
+      <c r="J53">
+        <v>99.931299999999993</v>
+      </c>
+      <c r="K53">
+        <v>133.02539999999999</v>
+      </c>
+      <c r="L53">
+        <v>866.73</v>
+      </c>
+      <c r="M53">
+        <v>1141.07</v>
+      </c>
+      <c r="N53">
+        <v>292.15780000000001</v>
+      </c>
+      <c r="O53">
+        <v>280.52999999999997</v>
+      </c>
+      <c r="P53">
+        <v>356.8</v>
+      </c>
+      <c r="Q53">
+        <v>335.25</v>
+      </c>
+      <c r="R53">
+        <v>170.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B54">
+        <v>8762.1119999999992</v>
+      </c>
+      <c r="C54">
+        <v>7755.49</v>
+      </c>
+      <c r="D54">
+        <v>338.52</v>
+      </c>
+      <c r="E54">
+        <v>4620.5200000000004</v>
+      </c>
+      <c r="F54">
+        <v>194.96</v>
+      </c>
+      <c r="G54">
+        <v>118.93600000000001</v>
+      </c>
+      <c r="H54">
+        <v>167.23</v>
+      </c>
+      <c r="I54">
+        <v>98.045699999999997</v>
+      </c>
+      <c r="J54">
+        <v>100.9315</v>
+      </c>
+      <c r="K54">
+        <v>133.3306</v>
+      </c>
+      <c r="L54">
+        <v>869.02</v>
+      </c>
+      <c r="M54">
+        <v>1139.82</v>
+      </c>
+      <c r="N54">
+        <v>292.70549999999997</v>
+      </c>
+      <c r="O54">
+        <v>280.27999999999997</v>
+      </c>
+      <c r="P54">
+        <v>355.78</v>
+      </c>
+      <c r="Q54">
+        <v>334.99</v>
+      </c>
+      <c r="R54">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B55">
+        <v>8988.65</v>
+      </c>
+      <c r="C55">
+        <v>8332.36</v>
+      </c>
+      <c r="D55">
+        <v>347.39</v>
+      </c>
+      <c r="E55">
+        <v>4610.87</v>
+      </c>
+      <c r="F55">
+        <v>192.41</v>
+      </c>
+      <c r="G55">
+        <v>119.6652</v>
+      </c>
+      <c r="H55">
+        <v>170.61</v>
+      </c>
+      <c r="I55">
+        <v>97.221999999999994</v>
+      </c>
+      <c r="J55">
+        <v>99.488</v>
+      </c>
+      <c r="K55">
+        <v>132.22309999999999</v>
+      </c>
+      <c r="L55">
+        <v>861.98</v>
+      </c>
+      <c r="M55">
+        <v>1139.71</v>
+      </c>
+      <c r="N55">
+        <v>291.08679999999998</v>
+      </c>
+      <c r="O55">
+        <v>280.2</v>
+      </c>
+      <c r="P55">
+        <v>356.05</v>
+      </c>
+      <c r="Q55">
+        <v>334.52</v>
+      </c>
+      <c r="R55">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B56">
+        <v>8950.902</v>
+      </c>
+      <c r="C56">
+        <v>8081.78</v>
+      </c>
+      <c r="D56">
+        <v>346.8</v>
+      </c>
+      <c r="E56">
+        <v>4550.3100000000004</v>
+      </c>
+      <c r="F56">
+        <v>189.01</v>
+      </c>
+      <c r="G56">
+        <v>119.2414</v>
+      </c>
+      <c r="H56">
+        <v>169.46</v>
+      </c>
+      <c r="I56">
+        <v>97.372699999999995</v>
+      </c>
+      <c r="J56">
+        <v>99.368600000000001</v>
+      </c>
+      <c r="K56">
+        <v>132.3954</v>
+      </c>
+      <c r="L56">
+        <v>865.01</v>
+      </c>
+      <c r="M56">
+        <v>1145.95</v>
+      </c>
+      <c r="N56">
+        <v>288.17329999999998</v>
+      </c>
+      <c r="O56">
+        <v>280.39</v>
+      </c>
+      <c r="P56">
+        <v>356.52</v>
+      </c>
+      <c r="Q56">
+        <v>334.43</v>
+      </c>
+      <c r="R56">
+        <v>169.63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B57">
+        <v>8835.3979999999992</v>
+      </c>
+      <c r="C57">
+        <v>8160.12</v>
+      </c>
+      <c r="D57">
+        <v>342.84</v>
+      </c>
+      <c r="E57">
+        <v>4550.67</v>
+      </c>
+      <c r="F57">
+        <v>189.99</v>
+      </c>
+      <c r="G57">
+        <v>119.0382</v>
+      </c>
+      <c r="H57">
+        <v>167.87</v>
+      </c>
+      <c r="I57">
+        <v>96.795500000000004</v>
+      </c>
+      <c r="J57">
+        <v>98.691000000000003</v>
+      </c>
+      <c r="K57">
+        <v>131.64080000000001</v>
+      </c>
+      <c r="L57">
+        <v>869.24</v>
+      </c>
+      <c r="M57">
+        <v>1146.73</v>
+      </c>
+      <c r="N57">
+        <v>289.40839999999997</v>
+      </c>
+      <c r="O57">
+        <v>280.58</v>
+      </c>
+      <c r="P57">
+        <v>356.62</v>
+      </c>
+      <c r="Q57">
+        <v>334.54</v>
+      </c>
+      <c r="R57">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B58">
+        <v>8771.7510000000002</v>
+      </c>
+      <c r="C58">
+        <v>8280.36</v>
+      </c>
+      <c r="D58">
+        <v>340.34</v>
+      </c>
+      <c r="E58">
+        <v>4457.91</v>
+      </c>
+      <c r="F58">
+        <v>184.57</v>
+      </c>
+      <c r="G58">
+        <v>118.925</v>
+      </c>
+      <c r="H58">
+        <v>167.12</v>
+      </c>
+      <c r="I58">
+        <v>97.297799999999995</v>
+      </c>
+      <c r="J58">
+        <v>99.105699999999999</v>
+      </c>
+      <c r="K58">
+        <v>132.02809999999999</v>
+      </c>
+      <c r="L58">
+        <v>871.47</v>
+      </c>
+      <c r="M58">
+        <v>1148.52</v>
+      </c>
+      <c r="N58">
+        <v>288.99810000000002</v>
+      </c>
+      <c r="O58">
+        <v>280.56</v>
+      </c>
+      <c r="P58">
+        <v>357.95</v>
+      </c>
+      <c r="Q58">
+        <v>335.28</v>
+      </c>
+      <c r="R58">
+        <v>169.74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B59">
+        <v>8959.741</v>
+      </c>
+      <c r="C59">
+        <v>8273.7199999999993</v>
+      </c>
+      <c r="D59">
+        <v>343.56</v>
+      </c>
+      <c r="E59">
+        <v>4472.72</v>
+      </c>
+      <c r="F59">
+        <v>184.13</v>
+      </c>
+      <c r="G59">
+        <v>119.36620000000001</v>
+      </c>
+      <c r="H59">
+        <v>169.63</v>
+      </c>
+      <c r="I59">
+        <v>96.827799999999996</v>
+      </c>
+      <c r="J59">
+        <v>99.046000000000006</v>
+      </c>
+      <c r="K59">
+        <v>131.8159</v>
+      </c>
+      <c r="L59">
+        <v>865.53</v>
+      </c>
+      <c r="M59">
+        <v>1150.6500000000001</v>
+      </c>
+      <c r="N59">
+        <v>289.78870000000001</v>
+      </c>
+      <c r="O59">
+        <v>281.01</v>
+      </c>
+      <c r="P59">
+        <v>358.09</v>
+      </c>
+      <c r="Q59">
+        <v>335.41</v>
+      </c>
+      <c r="R59">
+        <v>169.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B60">
+        <v>9160.5120000000006</v>
+      </c>
+      <c r="C60">
+        <v>8609.24</v>
+      </c>
+      <c r="D60">
+        <v>353.07</v>
+      </c>
+      <c r="E60">
+        <v>4541.53</v>
+      </c>
+      <c r="F60">
+        <v>186.81</v>
+      </c>
+      <c r="G60">
+        <v>119.411</v>
+      </c>
+      <c r="H60">
+        <v>171.17</v>
+      </c>
+      <c r="I60">
+        <v>96.001400000000004</v>
+      </c>
+      <c r="J60">
+        <v>98.170199999999994</v>
+      </c>
+      <c r="K60">
+        <v>131.0745</v>
+      </c>
+      <c r="L60">
+        <v>858.97</v>
+      </c>
+      <c r="M60">
+        <v>1151.25</v>
+      </c>
+      <c r="N60">
+        <v>286.61540000000002</v>
+      </c>
+      <c r="O60">
+        <v>280.41000000000003</v>
+      </c>
+      <c r="P60">
+        <v>357.61</v>
+      </c>
+      <c r="Q60">
+        <v>334.35</v>
+      </c>
+      <c r="R60">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B61">
+        <v>9274.1689999999999</v>
+      </c>
+      <c r="C61">
+        <v>8599.5499999999993</v>
+      </c>
+      <c r="D61">
+        <v>359.38</v>
+      </c>
+      <c r="E61">
+        <v>4591.01</v>
+      </c>
+      <c r="F61">
+        <v>184.75</v>
+      </c>
+      <c r="G61">
+        <v>119.3646</v>
+      </c>
+      <c r="H61">
+        <v>171.84</v>
+      </c>
+      <c r="I61">
+        <v>95.799000000000007</v>
+      </c>
+      <c r="J61">
+        <v>97.796300000000002</v>
+      </c>
+      <c r="K61">
+        <v>130.8647</v>
+      </c>
+      <c r="L61">
+        <v>855.19</v>
+      </c>
+      <c r="M61">
+        <v>1148.25</v>
+      </c>
+      <c r="N61">
+        <v>285.19979999999998</v>
+      </c>
+      <c r="O61">
+        <v>280.52</v>
+      </c>
+      <c r="P61">
+        <v>357.79</v>
+      </c>
+      <c r="Q61">
+        <v>334.36</v>
+      </c>
+      <c r="R61">
+        <v>168.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B62">
+        <v>9382.4310000000005</v>
+      </c>
+      <c r="C62">
+        <v>8637.4599999999991</v>
+      </c>
+      <c r="D62">
+        <v>362.59</v>
+      </c>
+      <c r="E62">
+        <v>4630.26</v>
+      </c>
+      <c r="F62">
+        <v>187.64</v>
+      </c>
+      <c r="G62">
+        <v>119.48099999999999</v>
+      </c>
+      <c r="H62">
+        <v>172.2</v>
+      </c>
+      <c r="I62">
+        <v>95.670299999999997</v>
+      </c>
+      <c r="J62">
+        <v>97.752799999999993</v>
+      </c>
+      <c r="K62">
+        <v>130.78749999999999</v>
+      </c>
+      <c r="L62">
+        <v>851.73</v>
+      </c>
+      <c r="M62">
+        <v>1147.48</v>
+      </c>
+      <c r="N62">
+        <v>284.56509999999997</v>
+      </c>
+      <c r="O62">
+        <v>280.51</v>
+      </c>
+      <c r="P62">
+        <v>357.94</v>
+      </c>
+      <c r="Q62">
+        <v>334.57</v>
+      </c>
+      <c r="R62">
+        <v>169.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B63">
+        <v>9378.8439999999991</v>
+      </c>
+      <c r="C63">
+        <v>8591.76</v>
+      </c>
+      <c r="D63">
+        <v>362.27</v>
+      </c>
+      <c r="E63">
+        <v>4557.7299999999996</v>
+      </c>
+      <c r="F63">
+        <v>182.38</v>
+      </c>
+      <c r="G63">
+        <v>119.2591</v>
+      </c>
+      <c r="H63">
+        <v>172.3</v>
+      </c>
+      <c r="I63">
+        <v>95.640799999999999</v>
+      </c>
+      <c r="J63">
+        <v>97.634900000000002</v>
+      </c>
+      <c r="K63">
+        <v>130.71510000000001</v>
+      </c>
+      <c r="L63">
+        <v>852.49</v>
+      </c>
+      <c r="M63">
+        <v>1149.03</v>
+      </c>
+      <c r="N63">
+        <v>284.5351</v>
+      </c>
+      <c r="O63">
+        <v>280.87</v>
+      </c>
+      <c r="P63">
+        <v>358.16</v>
+      </c>
+      <c r="Q63">
+        <v>335.14</v>
+      </c>
+      <c r="R63">
+        <v>169.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B64">
+        <v>9484.8549999999996</v>
+      </c>
+      <c r="C64">
+        <v>8693.7000000000007</v>
+      </c>
+      <c r="D64">
+        <v>366.11</v>
+      </c>
+      <c r="E64">
+        <v>4533.4399999999996</v>
+      </c>
+      <c r="F64">
+        <v>179.55</v>
+      </c>
+      <c r="G64">
+        <v>119.34059999999999</v>
+      </c>
+      <c r="H64">
+        <v>172.94</v>
+      </c>
+      <c r="I64">
+        <v>95.592200000000005</v>
+      </c>
+      <c r="J64">
+        <v>97.564899999999994</v>
+      </c>
+      <c r="K64">
+        <v>130.69110000000001</v>
+      </c>
+      <c r="L64">
+        <v>848.93</v>
+      </c>
+      <c r="M64">
+        <v>1147.72</v>
+      </c>
+      <c r="N64">
+        <v>284.44009999999997</v>
+      </c>
+      <c r="O64">
+        <v>280.87</v>
+      </c>
+      <c r="P64">
+        <v>357.98</v>
+      </c>
+      <c r="Q64">
+        <v>335.13</v>
+      </c>
+      <c r="R64">
+        <v>168.97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B65">
+        <v>9368.9789999999994</v>
+      </c>
+      <c r="C65">
+        <v>8567.7199999999993</v>
+      </c>
+      <c r="D65">
+        <v>363.5</v>
+      </c>
+      <c r="E65">
+        <v>4588.33</v>
+      </c>
+      <c r="F65">
+        <v>184.8</v>
+      </c>
+      <c r="G65">
+        <v>118.9499</v>
+      </c>
+      <c r="H65">
+        <v>172.24</v>
+      </c>
+      <c r="I65">
+        <v>95.597899999999996</v>
+      </c>
+      <c r="J65">
+        <v>97.587599999999995</v>
+      </c>
+      <c r="K65">
+        <v>130.6979</v>
+      </c>
+      <c r="L65">
+        <v>852.86</v>
+      </c>
+      <c r="M65">
+        <v>1149.6099999999999</v>
+      </c>
+      <c r="N65">
+        <v>283.8107</v>
+      </c>
+      <c r="O65">
+        <v>280.83999999999997</v>
+      </c>
+      <c r="P65">
+        <v>357.94</v>
+      </c>
+      <c r="Q65">
+        <v>335.09</v>
+      </c>
+      <c r="R65">
+        <v>169.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B66">
+        <v>9504.1849999999995</v>
+      </c>
+      <c r="C66">
+        <v>8554.81</v>
+      </c>
+      <c r="D66">
+        <v>366.48</v>
+      </c>
+      <c r="E66">
+        <v>4555.7299999999996</v>
+      </c>
+      <c r="F66">
+        <v>182.96</v>
+      </c>
+      <c r="G66">
+        <v>119.2619</v>
+      </c>
+      <c r="H66">
+        <v>173.09</v>
+      </c>
+      <c r="I66">
+        <v>95.539599999999993</v>
+      </c>
+      <c r="J66">
+        <v>97.543199999999999</v>
+      </c>
+      <c r="K66">
+        <v>130.6687</v>
+      </c>
+      <c r="L66">
+        <v>848.86</v>
+      </c>
+      <c r="M66">
+        <v>1150.31</v>
+      </c>
+      <c r="N66">
+        <v>282.94940000000003</v>
+      </c>
+      <c r="O66">
+        <v>280.63</v>
+      </c>
+      <c r="P66">
+        <v>357.88</v>
+      </c>
+      <c r="Q66">
+        <v>334.95</v>
+      </c>
+      <c r="R66">
+        <v>169.46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B67">
+        <v>9552.3970000000008</v>
+      </c>
+      <c r="C67">
+        <v>8564.42</v>
+      </c>
+      <c r="D67">
+        <v>366.9</v>
+      </c>
+      <c r="E67">
+        <v>4516.24</v>
+      </c>
+      <c r="F67">
+        <v>179.97</v>
+      </c>
+      <c r="G67">
+        <v>119.2697</v>
+      </c>
+      <c r="H67">
+        <v>173.31</v>
+      </c>
+      <c r="I67">
+        <v>95.535700000000006</v>
+      </c>
+      <c r="J67">
+        <v>97.491600000000005</v>
+      </c>
+      <c r="K67">
+        <v>130.66229999999999</v>
+      </c>
+      <c r="L67">
+        <v>847.54</v>
+      </c>
+      <c r="M67">
+        <v>1148.45</v>
+      </c>
+      <c r="N67">
+        <v>282.37220000000002</v>
+      </c>
+      <c r="O67">
+        <v>280.64999999999998</v>
+      </c>
+      <c r="P67">
+        <v>358.05</v>
+      </c>
+      <c r="Q67">
+        <v>335.35</v>
+      </c>
+      <c r="R67">
+        <v>169.54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B68">
+        <v>9620.6610000000001</v>
+      </c>
+      <c r="C68">
+        <v>8607.2999999999993</v>
+      </c>
+      <c r="D68">
+        <v>368.25</v>
+      </c>
+      <c r="E68">
+        <v>4546.7700000000004</v>
+      </c>
+      <c r="F68">
+        <v>182.08</v>
+      </c>
+      <c r="G68">
+        <v>119.5269</v>
+      </c>
+      <c r="H68">
+        <v>173.55</v>
+      </c>
+      <c r="I68">
+        <v>95.519400000000005</v>
+      </c>
+      <c r="J68">
+        <v>97.495500000000007</v>
+      </c>
+      <c r="K68">
+        <v>130.6602</v>
+      </c>
+      <c r="L68">
+        <v>845.78</v>
+      </c>
+      <c r="M68">
+        <v>1149.81</v>
+      </c>
+      <c r="N68">
+        <v>282.14429999999999</v>
+      </c>
+      <c r="O68">
+        <v>280.95</v>
+      </c>
+      <c r="P68">
+        <v>357.97</v>
+      </c>
+      <c r="Q68">
+        <v>335.43</v>
+      </c>
+      <c r="R68">
+        <v>169.76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B69">
+        <v>9738.5949999999993</v>
+      </c>
+      <c r="C69">
+        <v>8862.1299999999992</v>
+      </c>
+      <c r="D69">
+        <v>373.94</v>
+      </c>
+      <c r="E69">
+        <v>4601.1499999999996</v>
+      </c>
+      <c r="F69">
+        <v>183.8</v>
+      </c>
+      <c r="G69">
+        <v>119.7697</v>
+      </c>
+      <c r="H69">
+        <v>173.47</v>
+      </c>
+      <c r="I69">
+        <v>95.437100000000001</v>
+      </c>
+      <c r="J69">
+        <v>97.4208</v>
+      </c>
+      <c r="K69">
+        <v>130.60839999999999</v>
+      </c>
+      <c r="L69">
+        <v>842.91</v>
+      </c>
+      <c r="M69">
+        <v>1144.5899999999999</v>
+      </c>
+      <c r="N69">
+        <v>281.91390000000001</v>
+      </c>
+      <c r="O69">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="P69">
+        <v>357.31</v>
+      </c>
+      <c r="Q69">
+        <v>335.16</v>
+      </c>
+      <c r="R69">
+        <v>169.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B70">
+        <v>9678.2999999999993</v>
+      </c>
+      <c r="C70">
+        <v>8766.84</v>
+      </c>
+      <c r="D70">
+        <v>373.11</v>
+      </c>
+      <c r="E70">
+        <v>4626.25</v>
+      </c>
+      <c r="F70">
+        <v>185.42</v>
+      </c>
+      <c r="G70">
+        <v>119.7179</v>
+      </c>
+      <c r="H70">
+        <v>173.53</v>
+      </c>
+      <c r="I70">
+        <v>95.442400000000006</v>
+      </c>
+      <c r="J70">
+        <v>97.414400000000001</v>
+      </c>
+      <c r="K70">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="L70">
+        <v>844.26</v>
+      </c>
+      <c r="M70">
+        <v>1146.0899999999999</v>
+      </c>
+      <c r="N70">
+        <v>282.10210000000001</v>
+      </c>
+      <c r="O70">
+        <v>280.81</v>
+      </c>
+      <c r="P70">
+        <v>357.59</v>
+      </c>
+      <c r="Q70">
+        <v>335.28</v>
+      </c>
+      <c r="R70">
+        <v>169.39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B71">
+        <v>9527.4590000000007</v>
+      </c>
+      <c r="C71">
+        <v>8641.4500000000007</v>
+      </c>
+      <c r="D71">
+        <v>368.19</v>
+      </c>
+      <c r="E71">
+        <v>4636.45</v>
+      </c>
+      <c r="F71">
+        <v>185.88</v>
+      </c>
+      <c r="G71">
+        <v>119.7179</v>
+      </c>
+      <c r="H71">
+        <v>173.56</v>
+      </c>
+      <c r="I71">
+        <v>95.452299999999994</v>
+      </c>
+      <c r="J71">
+        <v>97.427999999999997</v>
+      </c>
+      <c r="K71">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="L71">
+        <v>844.26</v>
+      </c>
+      <c r="M71">
+        <v>1146.0899999999999</v>
+      </c>
+      <c r="N71">
+        <v>281.61649999999997</v>
+      </c>
+      <c r="O71">
+        <v>280.81</v>
+      </c>
+      <c r="P71">
+        <v>357.59</v>
+      </c>
+      <c r="Q71">
+        <v>335.28</v>
+      </c>
+      <c r="R71">
+        <v>169.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE47546-223A-48FF-9363-919DF6B45038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC76ACA-EF7B-4CFE-988D-1B767EE7594C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2730" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
   <si>
     <t>SPTR Index</t>
   </si>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,10 +597,9 @@
     <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -649,11 +648,8 @@
       <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44561</v>
       </c>
@@ -705,11 +701,8 @@
       <c r="Q2">
         <v>345.76</v>
       </c>
-      <c r="R2">
-        <v>169.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44564</v>
       </c>
@@ -761,11 +754,8 @@
       <c r="Q3">
         <v>345.74</v>
       </c>
-      <c r="R3">
-        <v>169.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44565</v>
       </c>
@@ -817,11 +807,8 @@
       <c r="Q4">
         <v>345.97</v>
       </c>
-      <c r="R4">
-        <v>169.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44566</v>
       </c>
@@ -873,11 +860,8 @@
       <c r="Q5">
         <v>345.31</v>
       </c>
-      <c r="R5">
-        <v>169.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44567</v>
       </c>
@@ -929,11 +913,8 @@
       <c r="Q6">
         <v>345.61</v>
       </c>
-      <c r="R6">
-        <v>169.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44568</v>
       </c>
@@ -985,11 +966,8 @@
       <c r="Q7">
         <v>346.13</v>
       </c>
-      <c r="R7">
-        <v>169.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44571</v>
       </c>
@@ -1041,11 +1019,8 @@
       <c r="Q8">
         <v>344.15</v>
       </c>
-      <c r="R8">
-        <v>169.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44572</v>
       </c>
@@ -1097,11 +1072,8 @@
       <c r="Q9">
         <v>344.14</v>
       </c>
-      <c r="R9">
-        <v>169.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44573</v>
       </c>
@@ -1153,11 +1125,8 @@
       <c r="Q10">
         <v>344.4</v>
       </c>
-      <c r="R10">
-        <v>169.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44574</v>
       </c>
@@ -1209,11 +1178,8 @@
       <c r="Q11">
         <v>343.42</v>
       </c>
-      <c r="R11">
-        <v>168.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44575</v>
       </c>
@@ -1265,11 +1231,8 @@
       <c r="Q12">
         <v>344</v>
       </c>
-      <c r="R12">
-        <v>168.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44578</v>
       </c>
@@ -1321,11 +1284,8 @@
       <c r="Q13">
         <v>344</v>
       </c>
-      <c r="R13">
-        <v>168.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44579</v>
       </c>
@@ -1377,11 +1337,8 @@
       <c r="Q14">
         <v>344.06</v>
       </c>
-      <c r="R14">
-        <v>168.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44580</v>
       </c>
@@ -1433,11 +1390,8 @@
       <c r="Q15">
         <v>344.56</v>
       </c>
-      <c r="R15">
-        <v>168.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44581</v>
       </c>
@@ -1489,11 +1443,8 @@
       <c r="Q16">
         <v>342.93</v>
       </c>
-      <c r="R16">
-        <v>168.22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44582</v>
       </c>
@@ -1545,11 +1496,8 @@
       <c r="Q17">
         <v>342.28</v>
       </c>
-      <c r="R17">
-        <v>169.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44585</v>
       </c>
@@ -1601,11 +1549,8 @@
       <c r="Q18">
         <v>336.97</v>
       </c>
-      <c r="R18">
-        <v>167.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44586</v>
       </c>
@@ -1657,11 +1602,8 @@
       <c r="Q19">
         <v>336.78</v>
       </c>
-      <c r="R19">
-        <v>168.63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44587</v>
       </c>
@@ -1713,11 +1655,8 @@
       <c r="Q20">
         <v>336.33</v>
       </c>
-      <c r="R20">
-        <v>167.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44588</v>
       </c>
@@ -1769,11 +1708,8 @@
       <c r="Q21">
         <v>335.37</v>
       </c>
-      <c r="R21">
-        <v>167.78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44589</v>
       </c>
@@ -1825,11 +1761,8 @@
       <c r="Q22">
         <v>335.16</v>
       </c>
-      <c r="R22">
-        <v>167.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44592</v>
       </c>
@@ -1881,11 +1814,8 @@
       <c r="Q23">
         <v>335.19</v>
       </c>
-      <c r="R23">
-        <v>167.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44593</v>
       </c>
@@ -1937,11 +1867,8 @@
       <c r="Q24">
         <v>335.02</v>
       </c>
-      <c r="R24">
-        <v>168.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44594</v>
       </c>
@@ -1993,11 +1920,8 @@
       <c r="Q25">
         <v>334.88</v>
       </c>
-      <c r="R25">
-        <v>168.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44595</v>
       </c>
@@ -2049,11 +1973,8 @@
       <c r="Q26">
         <v>334.57</v>
       </c>
-      <c r="R26">
-        <v>169.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44596</v>
       </c>
@@ -2105,11 +2026,8 @@
       <c r="Q27">
         <v>334.95</v>
       </c>
-      <c r="R27">
-        <v>170.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44599</v>
       </c>
@@ -2161,11 +2079,8 @@
       <c r="Q28">
         <v>335.25</v>
       </c>
-      <c r="R28">
-        <v>170.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44600</v>
       </c>
@@ -2217,11 +2132,8 @@
       <c r="Q29">
         <v>335.29</v>
       </c>
-      <c r="R29">
-        <v>170.24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44601</v>
       </c>
@@ -2273,11 +2185,8 @@
       <c r="Q30">
         <v>335.12</v>
       </c>
-      <c r="R30">
-        <v>169.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44602</v>
       </c>
@@ -2329,11 +2238,8 @@
       <c r="Q31">
         <v>333.89</v>
       </c>
-      <c r="R31">
-        <v>169.37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44603</v>
       </c>
@@ -2385,11 +2291,8 @@
       <c r="Q32">
         <v>332.95</v>
       </c>
-      <c r="R32">
-        <v>169.66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44606</v>
       </c>
@@ -2441,11 +2344,8 @@
       <c r="Q33">
         <v>334.73</v>
       </c>
-      <c r="R33">
-        <v>169.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44607</v>
       </c>
@@ -2497,11 +2397,8 @@
       <c r="Q34">
         <v>334.79</v>
       </c>
-      <c r="R34">
-        <v>169.34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44608</v>
       </c>
@@ -2553,11 +2450,8 @@
       <c r="Q35">
         <v>335.14</v>
       </c>
-      <c r="R35">
-        <v>169.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44609</v>
       </c>
@@ -2609,11 +2503,8 @@
       <c r="Q36">
         <v>333.61</v>
       </c>
-      <c r="R36">
-        <v>169.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44610</v>
       </c>
@@ -2665,11 +2556,8 @@
       <c r="Q37">
         <v>334.47</v>
       </c>
-      <c r="R37">
-        <v>169.57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44613</v>
       </c>
@@ -2721,11 +2609,8 @@
       <c r="Q38">
         <v>334.47</v>
       </c>
-      <c r="R38">
-        <v>169.57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44614</v>
       </c>
@@ -2777,11 +2662,8 @@
       <c r="Q39">
         <v>335.34</v>
       </c>
-      <c r="R39">
-        <v>169.46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44615</v>
       </c>
@@ -2833,11 +2715,8 @@
       <c r="Q40">
         <v>335.7</v>
       </c>
-      <c r="R40">
-        <v>169.49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44616</v>
       </c>
@@ -2889,11 +2768,8 @@
       <c r="Q41">
         <v>333.65</v>
       </c>
-      <c r="R41">
-        <v>169.62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44617</v>
       </c>
@@ -2945,11 +2821,8 @@
       <c r="Q42">
         <v>333.72</v>
       </c>
-      <c r="R42">
-        <v>168.76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44620</v>
       </c>
@@ -3001,11 +2874,8 @@
       <c r="Q43">
         <v>333.6</v>
       </c>
-      <c r="R43">
-        <v>169.08</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44621</v>
       </c>
@@ -3057,11 +2927,8 @@
       <c r="Q44">
         <v>334.46</v>
       </c>
-      <c r="R44">
-        <v>169.24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44622</v>
       </c>
@@ -3113,11 +2980,8 @@
       <c r="Q45">
         <v>334.56</v>
       </c>
-      <c r="R45">
-        <v>168.87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44623</v>
       </c>
@@ -3169,11 +3033,8 @@
       <c r="Q46">
         <v>334.48</v>
       </c>
-      <c r="R46">
-        <v>168.96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44624</v>
       </c>
@@ -3225,11 +3086,8 @@
       <c r="Q47">
         <v>334.44</v>
       </c>
-      <c r="R47">
-        <v>169.59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44627</v>
       </c>
@@ -3281,11 +3139,8 @@
       <c r="Q48">
         <v>335.25</v>
       </c>
-      <c r="R48">
-        <v>170.11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44628</v>
       </c>
@@ -3337,11 +3192,8 @@
       <c r="Q49">
         <v>334.99</v>
       </c>
-      <c r="R49">
-        <v>169.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44629</v>
       </c>
@@ -3393,11 +3245,8 @@
       <c r="Q50">
         <v>334.52</v>
       </c>
-      <c r="R50">
-        <v>169.43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44630</v>
       </c>
@@ -3449,11 +3298,8 @@
       <c r="Q51">
         <v>334.43</v>
       </c>
-      <c r="R51">
-        <v>169.63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44631</v>
       </c>
@@ -3505,11 +3351,8 @@
       <c r="Q52">
         <v>334.54</v>
       </c>
-      <c r="R52">
-        <v>169.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44634</v>
       </c>
@@ -3561,11 +3404,8 @@
       <c r="Q53">
         <v>335.28</v>
       </c>
-      <c r="R53">
-        <v>169.74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44635</v>
       </c>
@@ -3617,11 +3457,8 @@
       <c r="Q54">
         <v>335.41</v>
       </c>
-      <c r="R54">
-        <v>169.67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44636</v>
       </c>
@@ -3673,11 +3510,8 @@
       <c r="Q55">
         <v>334.35</v>
       </c>
-      <c r="R55">
-        <v>169.36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44637</v>
       </c>
@@ -3729,11 +3563,8 @@
       <c r="Q56">
         <v>334.36</v>
       </c>
-      <c r="R56">
-        <v>168.89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44638</v>
       </c>
@@ -3785,11 +3616,8 @@
       <c r="Q57">
         <v>334.57</v>
       </c>
-      <c r="R57">
-        <v>169.05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44641</v>
       </c>
@@ -3841,11 +3669,8 @@
       <c r="Q58">
         <v>335.14</v>
       </c>
-      <c r="R58">
-        <v>169.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44642</v>
       </c>
@@ -3897,11 +3722,8 @@
       <c r="Q59">
         <v>335.13</v>
       </c>
-      <c r="R59">
-        <v>168.97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44643</v>
       </c>
@@ -3953,11 +3775,8 @@
       <c r="Q60">
         <v>335.09</v>
       </c>
-      <c r="R60">
-        <v>169.26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44644</v>
       </c>
@@ -4009,11 +3828,8 @@
       <c r="Q61">
         <v>334.95</v>
       </c>
-      <c r="R61">
-        <v>169.46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44645</v>
       </c>
@@ -4065,11 +3881,8 @@
       <c r="Q62">
         <v>335.35</v>
       </c>
-      <c r="R62">
-        <v>169.54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44648</v>
       </c>
@@ -4121,11 +3934,8 @@
       <c r="Q63">
         <v>335.43</v>
       </c>
-      <c r="R63">
-        <v>169.76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44649</v>
       </c>
@@ -4177,11 +3987,8 @@
       <c r="Q64">
         <v>335.16</v>
       </c>
-      <c r="R64">
-        <v>169.21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44650</v>
       </c>
@@ -4233,11 +4040,8 @@
       <c r="Q65">
         <v>335.28</v>
       </c>
-      <c r="R65">
-        <v>169.39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44651</v>
       </c>
@@ -4288,9 +4092,6 @@
       </c>
       <c r="Q66">
         <v>334.28</v>
-      </c>
-      <c r="R66">
-        <v>169.59</v>
       </c>
     </row>
   </sheetData>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E3020-D332-410F-9B02-E9F453AE72E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0939DA-E5C9-4493-9B2A-5718BCB7E4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -179,100 +179,100 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15432640499499311835</stp>
-        <tr r="J7" s="4"/>
+        <stp>BDH|14373309094453461515</stp>
+        <tr r="N7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17991159530949748505</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|15254198816498138559</stp>
+        <tr r="K7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|18311529230058230808</stp>
+        <stp>BDH|12376458535329946451</stp>
         <tr r="E7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10503787926938751250</stp>
-        <tr r="A7" s="4"/>
+        <stp>BDH|14047895025460654716</stp>
+        <tr r="I7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10686065464072670637</stp>
-        <tr r="M7" s="4"/>
+        <stp>BDH|15219073193266403418</stp>
+        <tr r="O7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14412638517681557150</stp>
-        <tr r="N7" s="4"/>
+        <stp>BDH|17676840938570904020</stp>
+        <tr r="D7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16237970382700851496</stp>
-        <tr r="R7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15682912750759812042</stp>
-        <tr r="Q7" s="4"/>
+        <stp>BDH|17737690590601603895</stp>
+        <tr r="P7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4869895842753893763</stp>
+        <stp>BDH|4440947643953867604</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8374361155286374440</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8741188097968377687</stp>
+        <tr r="R7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7767975377752466408</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6781921016611909505</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9843400890588627834</stp>
         <tr r="L7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6690171413023424856</stp>
-        <tr r="I7" s="4"/>
+        <stp>BDH|7202116120449006907</stp>
+        <tr r="A7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4463879066883213466</stp>
-        <tr r="F7" s="4"/>
+        <stp>BDH|9968902354943736400</stp>
+        <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2141111245469699095</stp>
-        <tr r="D7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5967364868117972883</stp>
-        <tr r="H7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3891143903818524242</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7830471746497688821</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2916909632054767639</stp>
-        <tr r="P7" s="4"/>
+        <stp>BDH|6868970648471322859</stp>
+        <tr r="Q7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -417,7 +417,7 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|763285947994300028</stp>
+        <stp>BDH|906156193663958325</stp>
         <tr r="G7" s="4"/>
       </tp>
     </main>
@@ -688,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66:R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,6 +4210,2285 @@
         <v>334.28</v>
       </c>
     </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B67">
+        <v>9559.9539999999997</v>
+      </c>
+      <c r="C67">
+        <v>8677.23</v>
+      </c>
+      <c r="D67">
+        <v>368.77</v>
+      </c>
+      <c r="E67">
+        <v>4648.1400000000003</v>
+      </c>
+      <c r="F67">
+        <v>187.24</v>
+      </c>
+      <c r="G67">
+        <v>119.26739999999999</v>
+      </c>
+      <c r="H67">
+        <v>173.59</v>
+      </c>
+      <c r="I67">
+        <v>95.463200000000001</v>
+      </c>
+      <c r="J67">
+        <v>97.436300000000003</v>
+      </c>
+      <c r="K67">
+        <v>130.61969999999999</v>
+      </c>
+      <c r="L67">
+        <v>847.43</v>
+      </c>
+      <c r="M67">
+        <v>1149.8499999999999</v>
+      </c>
+      <c r="N67">
+        <v>282.32010000000002</v>
+      </c>
+      <c r="O67">
+        <v>280.45</v>
+      </c>
+      <c r="P67">
+        <v>357.27</v>
+      </c>
+      <c r="Q67">
+        <v>335.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B68">
+        <v>9637.3670000000002</v>
+      </c>
+      <c r="C68">
+        <v>8749.06</v>
+      </c>
+      <c r="D68">
+        <v>371.95</v>
+      </c>
+      <c r="E68">
+        <v>4651.68</v>
+      </c>
+      <c r="F68">
+        <v>185.68</v>
+      </c>
+      <c r="G68">
+        <v>119.19119999999999</v>
+      </c>
+      <c r="H68">
+        <v>173.45</v>
+      </c>
+      <c r="I68">
+        <v>95.368099999999998</v>
+      </c>
+      <c r="J68">
+        <v>97.367699999999999</v>
+      </c>
+      <c r="K68">
+        <v>130.57820000000001</v>
+      </c>
+      <c r="L68">
+        <v>845.71</v>
+      </c>
+      <c r="M68">
+        <v>1149.56</v>
+      </c>
+      <c r="N68">
+        <v>282.11610000000002</v>
+      </c>
+      <c r="O68">
+        <v>280.42</v>
+      </c>
+      <c r="P68">
+        <v>357.09</v>
+      </c>
+      <c r="Q68">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B69">
+        <v>9517.9380000000001</v>
+      </c>
+      <c r="C69">
+        <v>8675.39</v>
+      </c>
+      <c r="D69">
+        <v>368.37</v>
+      </c>
+      <c r="E69">
+        <v>4573.88</v>
+      </c>
+      <c r="F69">
+        <v>180.41</v>
+      </c>
+      <c r="G69">
+        <v>119.37390000000001</v>
+      </c>
+      <c r="H69">
+        <v>173.77</v>
+      </c>
+      <c r="I69">
+        <v>95.397099999999995</v>
+      </c>
+      <c r="J69">
+        <v>97.377300000000005</v>
+      </c>
+      <c r="K69">
+        <v>130.58709999999999</v>
+      </c>
+      <c r="L69">
+        <v>847.9</v>
+      </c>
+      <c r="M69">
+        <v>1149.47</v>
+      </c>
+      <c r="N69">
+        <v>283.16550000000001</v>
+      </c>
+      <c r="O69">
+        <v>280.02</v>
+      </c>
+      <c r="P69">
+        <v>356.25</v>
+      </c>
+      <c r="Q69">
+        <v>334.72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B70">
+        <v>9425.49</v>
+      </c>
+      <c r="C70">
+        <v>8472.68</v>
+      </c>
+      <c r="D70">
+        <v>363.89</v>
+      </c>
+      <c r="E70">
+        <v>4524.58</v>
+      </c>
+      <c r="F70">
+        <v>178.57</v>
+      </c>
+      <c r="G70">
+        <v>119.121</v>
+      </c>
+      <c r="H70">
+        <v>173.56</v>
+      </c>
+      <c r="I70">
+        <v>95.516199999999998</v>
+      </c>
+      <c r="J70">
+        <v>97.508099999999999</v>
+      </c>
+      <c r="K70">
+        <v>130.65299999999999</v>
+      </c>
+      <c r="L70">
+        <v>850.51</v>
+      </c>
+      <c r="M70">
+        <v>1160.01</v>
+      </c>
+      <c r="N70">
+        <v>282.23349999999999</v>
+      </c>
+      <c r="O70">
+        <v>279.73</v>
+      </c>
+      <c r="P70">
+        <v>355.84</v>
+      </c>
+      <c r="Q70">
+        <v>334.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B71">
+        <v>9466.7610000000004</v>
+      </c>
+      <c r="C71">
+        <v>8422.44</v>
+      </c>
+      <c r="D71">
+        <v>363.56</v>
+      </c>
+      <c r="E71">
+        <v>4495.47</v>
+      </c>
+      <c r="F71">
+        <v>176.66</v>
+      </c>
+      <c r="G71">
+        <v>119.1983</v>
+      </c>
+      <c r="H71">
+        <v>173.51</v>
+      </c>
+      <c r="I71">
+        <v>95.372100000000003</v>
+      </c>
+      <c r="J71">
+        <v>97.3035</v>
+      </c>
+      <c r="K71">
+        <v>130.5643</v>
+      </c>
+      <c r="L71">
+        <v>849.41</v>
+      </c>
+      <c r="M71">
+        <v>1160.97</v>
+      </c>
+      <c r="N71">
+        <v>282.51850000000002</v>
+      </c>
+      <c r="O71">
+        <v>279.97000000000003</v>
+      </c>
+      <c r="P71">
+        <v>356.23</v>
+      </c>
+      <c r="Q71">
+        <v>334.58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B72">
+        <v>9441.8359999999993</v>
+      </c>
+      <c r="C72">
+        <v>8553.94</v>
+      </c>
+      <c r="D72">
+        <v>363.45</v>
+      </c>
+      <c r="E72">
+        <v>4438.4399999999996</v>
+      </c>
+      <c r="F72">
+        <v>174.02</v>
+      </c>
+      <c r="G72">
+        <v>118.92449999999999</v>
+      </c>
+      <c r="H72">
+        <v>173.47</v>
+      </c>
+      <c r="I72">
+        <v>95.195599999999999</v>
+      </c>
+      <c r="J72">
+        <v>97.194900000000004</v>
+      </c>
+      <c r="K72">
+        <v>130.47370000000001</v>
+      </c>
+      <c r="L72">
+        <v>850.31</v>
+      </c>
+      <c r="M72">
+        <v>1161.94</v>
+      </c>
+      <c r="N72">
+        <v>282.53100000000001</v>
+      </c>
+      <c r="O72">
+        <v>280.14</v>
+      </c>
+      <c r="P72">
+        <v>356.61</v>
+      </c>
+      <c r="Q72">
+        <v>335.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B73">
+        <v>9282.4779999999992</v>
+      </c>
+      <c r="C73">
+        <v>8512.3799999999992</v>
+      </c>
+      <c r="D73">
+        <v>358.64</v>
+      </c>
+      <c r="E73">
+        <v>4367.95</v>
+      </c>
+      <c r="F73">
+        <v>170.49</v>
+      </c>
+      <c r="G73">
+        <v>118.4948</v>
+      </c>
+      <c r="H73">
+        <v>173.07</v>
+      </c>
+      <c r="I73">
+        <v>95.306600000000003</v>
+      </c>
+      <c r="J73">
+        <v>97.270099999999999</v>
+      </c>
+      <c r="K73">
+        <v>130.53039999999999</v>
+      </c>
+      <c r="L73">
+        <v>854.93</v>
+      </c>
+      <c r="M73">
+        <v>1162.8599999999999</v>
+      </c>
+      <c r="N73">
+        <v>282.56099999999998</v>
+      </c>
+      <c r="O73">
+        <v>279.64999999999998</v>
+      </c>
+      <c r="P73">
+        <v>356.82</v>
+      </c>
+      <c r="Q73">
+        <v>335.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B74">
+        <v>9251.0669999999991</v>
+      </c>
+      <c r="C74">
+        <v>8494.31</v>
+      </c>
+      <c r="D74">
+        <v>357.25</v>
+      </c>
+      <c r="E74">
+        <v>4367.0200000000004</v>
+      </c>
+      <c r="F74">
+        <v>169.77</v>
+      </c>
+      <c r="G74">
+        <v>118.4353</v>
+      </c>
+      <c r="H74">
+        <v>172.88</v>
+      </c>
+      <c r="I74">
+        <v>95.305099999999996</v>
+      </c>
+      <c r="J74">
+        <v>97.263900000000007</v>
+      </c>
+      <c r="K74">
+        <v>130.51300000000001</v>
+      </c>
+      <c r="L74">
+        <v>856.22</v>
+      </c>
+      <c r="M74">
+        <v>1159.95</v>
+      </c>
+      <c r="N74">
+        <v>282.34649999999999</v>
+      </c>
+      <c r="O74">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="P74">
+        <v>357.43</v>
+      </c>
+      <c r="Q74">
+        <v>335.94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B75">
+        <v>9356.2129999999997</v>
+      </c>
+      <c r="C75">
+        <v>8486.5300000000007</v>
+      </c>
+      <c r="D75">
+        <v>360.32</v>
+      </c>
+      <c r="E75">
+        <v>4367.3</v>
+      </c>
+      <c r="F75">
+        <v>170.01</v>
+      </c>
+      <c r="G75">
+        <v>118.33580000000001</v>
+      </c>
+      <c r="H75">
+        <v>173.06</v>
+      </c>
+      <c r="I75">
+        <v>95.101900000000001</v>
+      </c>
+      <c r="J75">
+        <v>97.267099999999999</v>
+      </c>
+      <c r="K75">
+        <v>130.47489999999999</v>
+      </c>
+      <c r="L75">
+        <v>853.34</v>
+      </c>
+      <c r="M75">
+        <v>1158.95</v>
+      </c>
+      <c r="N75">
+        <v>282.6687</v>
+      </c>
+      <c r="O75">
+        <v>280.27999999999997</v>
+      </c>
+      <c r="P75">
+        <v>357.58</v>
+      </c>
+      <c r="Q75">
+        <v>335.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B76">
+        <v>9242.5810000000001</v>
+      </c>
+      <c r="C76">
+        <v>8532.4599999999991</v>
+      </c>
+      <c r="D76">
+        <v>357.67</v>
+      </c>
+      <c r="E76">
+        <v>4310.87</v>
+      </c>
+      <c r="F76">
+        <v>165.89</v>
+      </c>
+      <c r="G76">
+        <v>117.96510000000001</v>
+      </c>
+      <c r="H76">
+        <v>172.53</v>
+      </c>
+      <c r="I76">
+        <v>95.056799999999996</v>
+      </c>
+      <c r="J76">
+        <v>97.002399999999994</v>
+      </c>
+      <c r="K76">
+        <v>130.4057</v>
+      </c>
+      <c r="L76">
+        <v>856.81</v>
+      </c>
+      <c r="M76">
+        <v>1159.3599999999999</v>
+      </c>
+      <c r="N76">
+        <v>283.78399999999999</v>
+      </c>
+      <c r="O76">
+        <v>280.14999999999998</v>
+      </c>
+      <c r="P76">
+        <v>357.45</v>
+      </c>
+      <c r="Q76">
+        <v>335.05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B77">
+        <v>9242.5810000000001</v>
+      </c>
+      <c r="C77">
+        <v>8532.4599999999991</v>
+      </c>
+      <c r="D77">
+        <v>357.4</v>
+      </c>
+      <c r="E77">
+        <v>4310.87</v>
+      </c>
+      <c r="F77">
+        <v>165.89</v>
+      </c>
+      <c r="G77">
+        <v>117.96510000000001</v>
+      </c>
+      <c r="H77">
+        <v>172.53</v>
+      </c>
+      <c r="I77">
+        <v>95.056799999999996</v>
+      </c>
+      <c r="J77">
+        <v>97.002399999999994</v>
+      </c>
+      <c r="K77">
+        <v>130.4057</v>
+      </c>
+      <c r="L77">
+        <v>856.81</v>
+      </c>
+      <c r="M77">
+        <v>1159.3599999999999</v>
+      </c>
+      <c r="N77">
+        <v>283.78399999999999</v>
+      </c>
+      <c r="O77">
+        <v>280.14999999999998</v>
+      </c>
+      <c r="P77">
+        <v>357.45</v>
+      </c>
+      <c r="Q77">
+        <v>335.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B78">
+        <v>9240.6929999999993</v>
+      </c>
+      <c r="C78">
+        <v>8532.4599999999991</v>
+      </c>
+      <c r="D78">
+        <v>356.59</v>
+      </c>
+      <c r="E78">
+        <v>4277.04</v>
+      </c>
+      <c r="F78">
+        <v>164.74</v>
+      </c>
+      <c r="G78">
+        <v>117.68470000000001</v>
+      </c>
+      <c r="H78">
+        <v>172.56</v>
+      </c>
+      <c r="I78">
+        <v>95.100200000000001</v>
+      </c>
+      <c r="J78">
+        <v>97.061300000000003</v>
+      </c>
+      <c r="K78">
+        <v>130.42500000000001</v>
+      </c>
+      <c r="L78">
+        <v>857.45</v>
+      </c>
+      <c r="M78">
+        <v>1159.18</v>
+      </c>
+      <c r="N78">
+        <v>284.11020000000002</v>
+      </c>
+      <c r="O78">
+        <v>280.68</v>
+      </c>
+      <c r="P78">
+        <v>358.12</v>
+      </c>
+      <c r="Q78">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B79">
+        <v>9389.2129999999997</v>
+      </c>
+      <c r="C79">
+        <v>8502.15</v>
+      </c>
+      <c r="D79">
+        <v>359.53</v>
+      </c>
+      <c r="E79">
+        <v>4236.33</v>
+      </c>
+      <c r="F79">
+        <v>163.47999999999999</v>
+      </c>
+      <c r="G79">
+        <v>117.8335</v>
+      </c>
+      <c r="H79">
+        <v>172.81</v>
+      </c>
+      <c r="I79">
+        <v>94.849800000000002</v>
+      </c>
+      <c r="J79">
+        <v>96.908699999999996</v>
+      </c>
+      <c r="K79">
+        <v>130.33070000000001</v>
+      </c>
+      <c r="L79">
+        <v>852.61</v>
+      </c>
+      <c r="M79">
+        <v>1158.3399999999999</v>
+      </c>
+      <c r="N79">
+        <v>283.81599999999997</v>
+      </c>
+      <c r="O79">
+        <v>280.39</v>
+      </c>
+      <c r="P79">
+        <v>357.71</v>
+      </c>
+      <c r="Q79">
+        <v>335.41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B80">
+        <v>9383.5429999999997</v>
+      </c>
+      <c r="C80">
+        <v>8648.74</v>
+      </c>
+      <c r="D80">
+        <v>360.59</v>
+      </c>
+      <c r="E80">
+        <v>4298.2700000000004</v>
+      </c>
+      <c r="F80">
+        <v>167.74</v>
+      </c>
+      <c r="G80">
+        <v>117.73390000000001</v>
+      </c>
+      <c r="H80">
+        <v>172.64</v>
+      </c>
+      <c r="I80">
+        <v>94.800700000000006</v>
+      </c>
+      <c r="J80">
+        <v>96.807599999999994</v>
+      </c>
+      <c r="K80">
+        <v>130.29849999999999</v>
+      </c>
+      <c r="L80">
+        <v>853</v>
+      </c>
+      <c r="M80">
+        <v>1166.3599999999999</v>
+      </c>
+      <c r="N80">
+        <v>283.2484</v>
+      </c>
+      <c r="O80">
+        <v>280.64999999999998</v>
+      </c>
+      <c r="P80">
+        <v>358.09</v>
+      </c>
+      <c r="Q80">
+        <v>335.96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B81">
+        <v>9245.8610000000008</v>
+      </c>
+      <c r="C81">
+        <v>8718.0400000000009</v>
+      </c>
+      <c r="D81">
+        <v>356.59</v>
+      </c>
+      <c r="E81">
+        <v>4258.9399999999996</v>
+      </c>
+      <c r="F81">
+        <v>166.28</v>
+      </c>
+      <c r="G81">
+        <v>117.5959</v>
+      </c>
+      <c r="H81">
+        <v>172.41</v>
+      </c>
+      <c r="I81">
+        <v>94.895799999999994</v>
+      </c>
+      <c r="J81">
+        <v>96.834500000000006</v>
+      </c>
+      <c r="K81">
+        <v>130.3279</v>
+      </c>
+      <c r="L81">
+        <v>856.05</v>
+      </c>
+      <c r="M81">
+        <v>1168.6500000000001</v>
+      </c>
+      <c r="N81">
+        <v>283.38420000000002</v>
+      </c>
+      <c r="O81">
+        <v>280.01</v>
+      </c>
+      <c r="P81">
+        <v>357.2</v>
+      </c>
+      <c r="Q81">
+        <v>334.63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B82">
+        <v>8989.5139999999992</v>
+      </c>
+      <c r="C82">
+        <v>8522.68</v>
+      </c>
+      <c r="D82">
+        <v>347.88</v>
+      </c>
+      <c r="E82">
+        <v>4219.88</v>
+      </c>
+      <c r="F82">
+        <v>165.03</v>
+      </c>
+      <c r="G82">
+        <v>117.54819999999999</v>
+      </c>
+      <c r="H82">
+        <v>171.16</v>
+      </c>
+      <c r="I82">
+        <v>95.188599999999994</v>
+      </c>
+      <c r="J82">
+        <v>97.088800000000006</v>
+      </c>
+      <c r="K82">
+        <v>130.49520000000001</v>
+      </c>
+      <c r="L82">
+        <v>863.52</v>
+      </c>
+      <c r="M82">
+        <v>1166.95</v>
+      </c>
+      <c r="N82">
+        <v>280.42349999999999</v>
+      </c>
+      <c r="O82">
+        <v>281</v>
+      </c>
+      <c r="P82">
+        <v>357.6</v>
+      </c>
+      <c r="Q82">
+        <v>334.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B83">
+        <v>9040.8590000000004</v>
+      </c>
+      <c r="C83">
+        <v>8340.17</v>
+      </c>
+      <c r="D83">
+        <v>346.33</v>
+      </c>
+      <c r="E83">
+        <v>4254.42</v>
+      </c>
+      <c r="F83">
+        <v>166.9</v>
+      </c>
+      <c r="G83">
+        <v>117.4063</v>
+      </c>
+      <c r="H83">
+        <v>171.52</v>
+      </c>
+      <c r="I83">
+        <v>95.655500000000004</v>
+      </c>
+      <c r="J83">
+        <v>97.665800000000004</v>
+      </c>
+      <c r="K83">
+        <v>130.82409999999999</v>
+      </c>
+      <c r="L83">
+        <v>861.45</v>
+      </c>
+      <c r="M83">
+        <v>1169.8900000000001</v>
+      </c>
+      <c r="N83">
+        <v>281.40460000000002</v>
+      </c>
+      <c r="O83">
+        <v>280.37</v>
+      </c>
+      <c r="P83">
+        <v>356.89</v>
+      </c>
+      <c r="Q83">
+        <v>333.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B84">
+        <v>8786.4740000000002</v>
+      </c>
+      <c r="C84">
+        <v>8266.74</v>
+      </c>
+      <c r="D84">
+        <v>339.32</v>
+      </c>
+      <c r="E84">
+        <v>4286.21</v>
+      </c>
+      <c r="F84">
+        <v>168.83</v>
+      </c>
+      <c r="G84">
+        <v>117.45780000000001</v>
+      </c>
+      <c r="H84">
+        <v>169.94</v>
+      </c>
+      <c r="I84">
+        <v>96.290400000000005</v>
+      </c>
+      <c r="J84">
+        <v>98.019199999999998</v>
+      </c>
+      <c r="K84">
+        <v>131.1233</v>
+      </c>
+      <c r="L84">
+        <v>870.43</v>
+      </c>
+      <c r="M84">
+        <v>1173.1099999999999</v>
+      </c>
+      <c r="N84">
+        <v>282.50830000000002</v>
+      </c>
+      <c r="O84">
+        <v>280.14</v>
+      </c>
+      <c r="P84">
+        <v>355.68</v>
+      </c>
+      <c r="Q84">
+        <v>334.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B85">
+        <v>8804.9979999999996</v>
+      </c>
+      <c r="C85">
+        <v>8302.8700000000008</v>
+      </c>
+      <c r="D85">
+        <v>338.77</v>
+      </c>
+      <c r="E85">
+        <v>4236.96</v>
+      </c>
+      <c r="F85">
+        <v>166.2</v>
+      </c>
+      <c r="G85">
+        <v>117.1725</v>
+      </c>
+      <c r="H85">
+        <v>170.76</v>
+      </c>
+      <c r="I85">
+        <v>96.343000000000004</v>
+      </c>
+      <c r="J85">
+        <v>98.248099999999994</v>
+      </c>
+      <c r="K85">
+        <v>131.15649999999999</v>
+      </c>
+      <c r="L85">
+        <v>869.95</v>
+      </c>
+      <c r="M85">
+        <v>1163.49</v>
+      </c>
+      <c r="N85">
+        <v>281.99349999999998</v>
+      </c>
+      <c r="O85">
+        <v>280.64999999999998</v>
+      </c>
+      <c r="P85">
+        <v>356.24</v>
+      </c>
+      <c r="Q85">
+        <v>334.87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B86">
+        <v>9023.4159999999993</v>
+      </c>
+      <c r="C86">
+        <v>8400.51</v>
+      </c>
+      <c r="D86">
+        <v>344.97</v>
+      </c>
+      <c r="E86">
+        <v>4232.16</v>
+      </c>
+      <c r="F86">
+        <v>166.51</v>
+      </c>
+      <c r="G86">
+        <v>117.8845</v>
+      </c>
+      <c r="H86">
+        <v>172.06</v>
+      </c>
+      <c r="I86">
+        <v>95.664400000000001</v>
+      </c>
+      <c r="J86">
+        <v>97.660700000000006</v>
+      </c>
+      <c r="K86">
+        <v>130.72290000000001</v>
+      </c>
+      <c r="L86">
+        <v>861.15</v>
+      </c>
+      <c r="M86">
+        <v>1163.27</v>
+      </c>
+      <c r="N86">
+        <v>282.06670000000003</v>
+      </c>
+      <c r="O86">
+        <v>280.14999999999998</v>
+      </c>
+      <c r="P86">
+        <v>355.98</v>
+      </c>
+      <c r="Q86">
+        <v>334.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B87">
+        <v>8696.6470000000008</v>
+      </c>
+      <c r="C87">
+        <v>8461.36</v>
+      </c>
+      <c r="D87">
+        <v>338.72</v>
+      </c>
+      <c r="E87">
+        <v>4183.7</v>
+      </c>
+      <c r="F87">
+        <v>163.63</v>
+      </c>
+      <c r="G87">
+        <v>117.0312</v>
+      </c>
+      <c r="H87">
+        <v>169.52</v>
+      </c>
+      <c r="I87">
+        <v>96.478899999999996</v>
+      </c>
+      <c r="J87">
+        <v>98.0505</v>
+      </c>
+      <c r="K87">
+        <v>131.08179999999999</v>
+      </c>
+      <c r="L87">
+        <v>873.16</v>
+      </c>
+      <c r="M87">
+        <v>1163.58</v>
+      </c>
+      <c r="N87">
+        <v>283.61450000000002</v>
+      </c>
+      <c r="O87">
+        <v>281.87</v>
+      </c>
+      <c r="P87">
+        <v>357.1</v>
+      </c>
+      <c r="Q87">
+        <v>335.44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B88">
+        <v>8746.0529999999999</v>
+      </c>
+      <c r="C88">
+        <v>8327.9699999999993</v>
+      </c>
+      <c r="D88">
+        <v>338.72</v>
+      </c>
+      <c r="E88">
+        <v>4125.21</v>
+      </c>
+      <c r="F88">
+        <v>160.26</v>
+      </c>
+      <c r="G88">
+        <v>116.71980000000001</v>
+      </c>
+      <c r="H88">
+        <v>170.46</v>
+      </c>
+      <c r="I88">
+        <v>97.143299999999996</v>
+      </c>
+      <c r="J88">
+        <v>99.435100000000006</v>
+      </c>
+      <c r="K88">
+        <v>132.0376</v>
+      </c>
+      <c r="L88">
+        <v>872.08</v>
+      </c>
+      <c r="M88">
+        <v>1164.83</v>
+      </c>
+      <c r="N88">
+        <v>284.11360000000002</v>
+      </c>
+      <c r="O88">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="P88">
+        <v>356.28</v>
+      </c>
+      <c r="Q88">
+        <v>334.73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B89">
+        <v>8788.3619999999992</v>
+      </c>
+      <c r="C89">
+        <v>8398.2900000000009</v>
+      </c>
+      <c r="D89">
+        <v>340.07</v>
+      </c>
+      <c r="E89">
+        <v>4157.21</v>
+      </c>
+      <c r="F89">
+        <v>161.61000000000001</v>
+      </c>
+      <c r="G89">
+        <v>116.1867</v>
+      </c>
+      <c r="H89">
+        <v>170.1</v>
+      </c>
+      <c r="I89">
+        <v>95.810400000000001</v>
+      </c>
+      <c r="J89">
+        <v>97.680300000000003</v>
+      </c>
+      <c r="K89">
+        <v>130.3905</v>
+      </c>
+      <c r="L89">
+        <v>871.61</v>
+      </c>
+      <c r="M89">
+        <v>1165.05</v>
+      </c>
+      <c r="N89">
+        <v>283.74340000000001</v>
+      </c>
+      <c r="O89">
+        <v>281.43</v>
+      </c>
+      <c r="P89">
+        <v>356.44</v>
+      </c>
+      <c r="Q89">
+        <v>335.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B90">
+        <v>9050.9040000000005</v>
+      </c>
+      <c r="C90">
+        <v>8317.44</v>
+      </c>
+      <c r="D90">
+        <v>345.76</v>
+      </c>
+      <c r="E90">
+        <v>4186.96</v>
+      </c>
+      <c r="F90">
+        <v>162.34</v>
+      </c>
+      <c r="G90">
+        <v>116.9164</v>
+      </c>
+      <c r="H90">
+        <v>171.4</v>
+      </c>
+      <c r="I90">
+        <v>94.697100000000006</v>
+      </c>
+      <c r="J90">
+        <v>97.006299999999996</v>
+      </c>
+      <c r="K90">
+        <v>129.84219999999999</v>
+      </c>
+      <c r="L90">
+        <v>860.64</v>
+      </c>
+      <c r="M90">
+        <v>1161.48</v>
+      </c>
+      <c r="N90">
+        <v>281.64069999999998</v>
+      </c>
+      <c r="O90">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="P90">
+        <v>355.82</v>
+      </c>
+      <c r="Q90">
+        <v>333.39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B91">
+        <v>8729.2109999999993</v>
+      </c>
+      <c r="C91">
+        <v>8263.7099999999991</v>
+      </c>
+      <c r="D91">
+        <v>336.99</v>
+      </c>
+      <c r="E91">
+        <v>4113.7</v>
+      </c>
+      <c r="F91">
+        <v>156.65</v>
+      </c>
+      <c r="G91">
+        <v>117.1763</v>
+      </c>
+      <c r="H91">
+        <v>170.52</v>
+      </c>
+      <c r="I91">
+        <v>95.598600000000005</v>
+      </c>
+      <c r="J91">
+        <v>97.203699999999998</v>
+      </c>
+      <c r="K91">
+        <v>130.23929999999999</v>
+      </c>
+      <c r="L91">
+        <v>870.09</v>
+      </c>
+      <c r="M91">
+        <v>1166.45</v>
+      </c>
+      <c r="N91">
+        <v>290.07159999999999</v>
+      </c>
+      <c r="O91">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="P91">
+        <v>355.85</v>
+      </c>
+      <c r="Q91">
+        <v>333.18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B92">
+        <v>8680.9670000000006</v>
+      </c>
+      <c r="C92">
+        <v>8128.25</v>
+      </c>
+      <c r="D92">
+        <v>333.72</v>
+      </c>
+      <c r="E92">
+        <v>4067.43</v>
+      </c>
+      <c r="F92">
+        <v>153.51</v>
+      </c>
+      <c r="G92">
+        <v>116.59569999999999</v>
+      </c>
+      <c r="H92">
+        <v>169.79</v>
+      </c>
+      <c r="I92">
+        <v>95.873000000000005</v>
+      </c>
+      <c r="J92">
+        <v>98.116500000000002</v>
+      </c>
+      <c r="K92">
+        <v>130.7243</v>
+      </c>
+      <c r="L92">
+        <v>873.9</v>
+      </c>
+      <c r="M92">
+        <v>1166.33</v>
+      </c>
+      <c r="N92">
+        <v>289.13350000000003</v>
+      </c>
+      <c r="O92">
+        <v>280.76</v>
+      </c>
+      <c r="P92">
+        <v>355.71</v>
+      </c>
+      <c r="Q92">
+        <v>332.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B93">
+        <v>8403.4959999999992</v>
+      </c>
+      <c r="C93">
+        <v>7902.89</v>
+      </c>
+      <c r="D93">
+        <v>323.44</v>
+      </c>
+      <c r="E93">
+        <v>4076.74</v>
+      </c>
+      <c r="F93">
+        <v>154.96</v>
+      </c>
+      <c r="G93">
+        <v>116.1816</v>
+      </c>
+      <c r="H93">
+        <v>166.72</v>
+      </c>
+      <c r="I93">
+        <v>96.666700000000006</v>
+      </c>
+      <c r="J93">
+        <v>98.373199999999997</v>
+      </c>
+      <c r="K93">
+        <v>131.1054</v>
+      </c>
+      <c r="L93">
+        <v>883.95</v>
+      </c>
+      <c r="M93">
+        <v>1166.52</v>
+      </c>
+      <c r="N93">
+        <v>289.8621</v>
+      </c>
+      <c r="O93">
+        <v>280.95</v>
+      </c>
+      <c r="P93">
+        <v>356.83</v>
+      </c>
+      <c r="Q93">
+        <v>333.85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B94">
+        <v>8424.1959999999999</v>
+      </c>
+      <c r="C94">
+        <v>7968.33</v>
+      </c>
+      <c r="D94">
+        <v>323.77</v>
+      </c>
+      <c r="E94">
+        <v>4104.7700000000004</v>
+      </c>
+      <c r="F94">
+        <v>156.93</v>
+      </c>
+      <c r="G94">
+        <v>115.6819</v>
+      </c>
+      <c r="H94">
+        <v>166.29</v>
+      </c>
+      <c r="I94">
+        <v>96.578400000000002</v>
+      </c>
+      <c r="J94">
+        <v>98.111999999999995</v>
+      </c>
+      <c r="K94">
+        <v>131.09960000000001</v>
+      </c>
+      <c r="L94">
+        <v>883.76</v>
+      </c>
+      <c r="M94">
+        <v>1167.72</v>
+      </c>
+      <c r="N94">
+        <v>291.56270000000001</v>
+      </c>
+      <c r="O94">
+        <v>280.13</v>
+      </c>
+      <c r="P94">
+        <v>355.48</v>
+      </c>
+      <c r="Q94">
+        <v>332.68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B95">
+        <v>8285.8189999999995</v>
+      </c>
+      <c r="C95">
+        <v>8176.96</v>
+      </c>
+      <c r="D95">
+        <v>321.29000000000002</v>
+      </c>
+      <c r="E95">
+        <v>4155.3999999999996</v>
+      </c>
+      <c r="F95">
+        <v>160.84</v>
+      </c>
+      <c r="G95">
+        <v>114.6378</v>
+      </c>
+      <c r="H95">
+        <v>163.54</v>
+      </c>
+      <c r="I95">
+        <v>96.009100000000004</v>
+      </c>
+      <c r="J95">
+        <v>97.973100000000002</v>
+      </c>
+      <c r="K95">
+        <v>130.5692</v>
+      </c>
+      <c r="L95">
+        <v>889.04</v>
+      </c>
+      <c r="M95">
+        <v>1172.93</v>
+      </c>
+      <c r="N95">
+        <v>292.9932</v>
+      </c>
+      <c r="O95">
+        <v>280.38</v>
+      </c>
+      <c r="P95">
+        <v>355.71</v>
+      </c>
+      <c r="Q95">
+        <v>333.21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B96">
+        <v>8278.0349999999999</v>
+      </c>
+      <c r="C96">
+        <v>8105.7</v>
+      </c>
+      <c r="D96">
+        <v>319.16000000000003</v>
+      </c>
+      <c r="E96">
+        <v>4144.96</v>
+      </c>
+      <c r="F96">
+        <v>160.35</v>
+      </c>
+      <c r="G96">
+        <v>113.9798</v>
+      </c>
+      <c r="H96">
+        <v>162.93</v>
+      </c>
+      <c r="I96">
+        <v>96.151499999999999</v>
+      </c>
+      <c r="J96">
+        <v>98.289199999999994</v>
+      </c>
+      <c r="K96">
+        <v>130.8835</v>
+      </c>
+      <c r="L96">
+        <v>890.01</v>
+      </c>
+      <c r="M96">
+        <v>1175.1300000000001</v>
+      </c>
+      <c r="N96">
+        <v>293.99650000000003</v>
+      </c>
+      <c r="O96">
+        <v>279.76</v>
+      </c>
+      <c r="P96">
+        <v>354.88</v>
+      </c>
+      <c r="Q96">
+        <v>331.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B97">
+        <v>8476.5689999999995</v>
+      </c>
+      <c r="C97">
+        <v>8312.02</v>
+      </c>
+      <c r="D97">
+        <v>326.42</v>
+      </c>
+      <c r="E97">
+        <v>4100.7299999999996</v>
+      </c>
+      <c r="F97">
+        <v>157.24</v>
+      </c>
+      <c r="G97">
+        <v>114.61879999999999</v>
+      </c>
+      <c r="H97">
+        <v>165.68</v>
+      </c>
+      <c r="I97">
+        <v>94.952100000000002</v>
+      </c>
+      <c r="J97">
+        <v>97.019300000000001</v>
+      </c>
+      <c r="K97">
+        <v>129.7799</v>
+      </c>
+      <c r="L97">
+        <v>883.36</v>
+      </c>
+      <c r="M97">
+        <v>1171.94</v>
+      </c>
+      <c r="N97">
+        <v>293.33240000000001</v>
+      </c>
+      <c r="O97">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="P97">
+        <v>354.93</v>
+      </c>
+      <c r="Q97">
+        <v>332.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B98">
+        <v>8443.5480000000007</v>
+      </c>
+      <c r="C98">
+        <v>8274.5</v>
+      </c>
+      <c r="D98">
+        <v>325.76</v>
+      </c>
+      <c r="E98">
+        <v>4099.1899999999996</v>
+      </c>
+      <c r="F98">
+        <v>156.88</v>
+      </c>
+      <c r="G98">
+        <v>114.047</v>
+      </c>
+      <c r="H98">
+        <v>165.32</v>
+      </c>
+      <c r="I98">
+        <v>94.6511</v>
+      </c>
+      <c r="J98">
+        <v>96.534199999999998</v>
+      </c>
+      <c r="K98">
+        <v>129.50399999999999</v>
+      </c>
+      <c r="L98">
+        <v>886.61</v>
+      </c>
+      <c r="M98">
+        <v>1170.32</v>
+      </c>
+      <c r="N98">
+        <v>291.75940000000003</v>
+      </c>
+      <c r="O98">
+        <v>279.99</v>
+      </c>
+      <c r="P98">
+        <v>355.23</v>
+      </c>
+      <c r="Q98">
+        <v>332.41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B99">
+        <v>8614.3119999999999</v>
+      </c>
+      <c r="C99">
+        <v>8404.39</v>
+      </c>
+      <c r="D99">
+        <v>332.31</v>
+      </c>
+      <c r="E99">
+        <v>4061.79</v>
+      </c>
+      <c r="F99">
+        <v>154.57</v>
+      </c>
+      <c r="G99">
+        <v>114.5437</v>
+      </c>
+      <c r="H99">
+        <v>167</v>
+      </c>
+      <c r="I99">
+        <v>94.314300000000003</v>
+      </c>
+      <c r="J99">
+        <v>96.22</v>
+      </c>
+      <c r="K99">
+        <v>129.3099</v>
+      </c>
+      <c r="L99">
+        <v>879.77</v>
+      </c>
+      <c r="M99">
+        <v>1167.1600000000001</v>
+      </c>
+      <c r="N99">
+        <v>289.57589999999999</v>
+      </c>
+      <c r="O99">
+        <v>279.99</v>
+      </c>
+      <c r="P99">
+        <v>355.11</v>
+      </c>
+      <c r="Q99">
+        <v>332.41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B100">
+        <v>8268.3220000000001</v>
+      </c>
+      <c r="C100">
+        <v>8290.34</v>
+      </c>
+      <c r="D100">
+        <v>323.63</v>
+      </c>
+      <c r="E100">
+        <v>4102.28</v>
+      </c>
+      <c r="F100">
+        <v>158.86000000000001</v>
+      </c>
+      <c r="G100">
+        <v>114.6203</v>
+      </c>
+      <c r="H100">
+        <v>164</v>
+      </c>
+      <c r="I100">
+        <v>94.734800000000007</v>
+      </c>
+      <c r="J100">
+        <v>96.452600000000004</v>
+      </c>
+      <c r="K100">
+        <v>129.48920000000001</v>
+      </c>
+      <c r="L100">
+        <v>893.27</v>
+      </c>
+      <c r="M100">
+        <v>1170.96</v>
+      </c>
+      <c r="N100">
+        <v>292.1968</v>
+      </c>
+      <c r="O100">
+        <v>280.52999999999997</v>
+      </c>
+      <c r="P100">
+        <v>355.45</v>
+      </c>
+      <c r="Q100">
+        <v>333.58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B101">
+        <v>8220.9670000000006</v>
+      </c>
+      <c r="C101">
+        <v>8183.55</v>
+      </c>
+      <c r="D101">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="E101">
+        <v>4105.88</v>
+      </c>
+      <c r="F101">
+        <v>159.29</v>
+      </c>
+      <c r="G101">
+        <v>113.4777</v>
+      </c>
+      <c r="H101">
+        <v>162.33000000000001</v>
+      </c>
+      <c r="I101">
+        <v>94.682699999999997</v>
+      </c>
+      <c r="J101">
+        <v>96.815899999999999</v>
+      </c>
+      <c r="K101">
+        <v>129.56370000000001</v>
+      </c>
+      <c r="L101">
+        <v>896.8</v>
+      </c>
+      <c r="M101">
+        <v>1171.98</v>
+      </c>
+      <c r="N101">
+        <v>294.55290000000002</v>
+      </c>
+      <c r="O101">
+        <v>280.86</v>
+      </c>
+      <c r="P101">
+        <v>355.9</v>
+      </c>
+      <c r="Q101">
+        <v>333.58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B102">
+        <v>8222.3119999999999</v>
+      </c>
+      <c r="C102">
+        <v>8220.61</v>
+      </c>
+      <c r="D102">
+        <v>322.82</v>
+      </c>
+      <c r="E102">
+        <v>4139.88</v>
+      </c>
+      <c r="F102">
+        <v>161.74</v>
+      </c>
+      <c r="G102">
+        <v>113.33969999999999</v>
+      </c>
+      <c r="H102">
+        <v>162.47999999999999</v>
+      </c>
+      <c r="I102">
+        <v>94.739800000000002</v>
+      </c>
+      <c r="J102">
+        <v>96.398099999999999</v>
+      </c>
+      <c r="K102">
+        <v>129.5437</v>
+      </c>
+      <c r="L102">
+        <v>895.99</v>
+      </c>
+      <c r="M102">
+        <v>1170.0899999999999</v>
+      </c>
+      <c r="N102">
+        <v>294.04860000000002</v>
+      </c>
+      <c r="O102">
+        <v>280.18</v>
+      </c>
+      <c r="P102">
+        <v>355.01</v>
+      </c>
+      <c r="Q102">
+        <v>332.67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B103">
+        <v>8375.866</v>
+      </c>
+      <c r="C103">
+        <v>8351.23</v>
+      </c>
+      <c r="D103">
+        <v>327.84</v>
+      </c>
+      <c r="E103">
+        <v>4105.8500000000004</v>
+      </c>
+      <c r="F103">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="G103">
+        <v>114.0544</v>
+      </c>
+      <c r="H103">
+        <v>164.8</v>
+      </c>
+      <c r="I103">
+        <v>94.327699999999993</v>
+      </c>
+      <c r="J103">
+        <v>96.070400000000006</v>
+      </c>
+      <c r="K103">
+        <v>129.19370000000001</v>
+      </c>
+      <c r="L103">
+        <v>890.15</v>
+      </c>
+      <c r="M103">
+        <v>1169.77</v>
+      </c>
+      <c r="N103">
+        <v>294.41449999999998</v>
+      </c>
+      <c r="O103">
+        <v>280.62</v>
+      </c>
+      <c r="P103">
+        <v>355.39</v>
+      </c>
+      <c r="Q103">
+        <v>333.18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B104">
+        <v>8307.973</v>
+      </c>
+      <c r="C104">
+        <v>8214.25</v>
+      </c>
+      <c r="D104">
+        <v>324.93</v>
+      </c>
+      <c r="E104">
+        <v>4175.07</v>
+      </c>
+      <c r="F104">
+        <v>162.29</v>
+      </c>
+      <c r="G104">
+        <v>113.8849</v>
+      </c>
+      <c r="H104">
+        <v>163.79</v>
+      </c>
+      <c r="I104">
+        <v>94.417500000000004</v>
+      </c>
+      <c r="J104">
+        <v>96.2256</v>
+      </c>
+      <c r="K104">
+        <v>129.29810000000001</v>
+      </c>
+      <c r="L104">
+        <v>892.45</v>
+      </c>
+      <c r="M104">
+        <v>1170.73</v>
+      </c>
+      <c r="N104">
+        <v>293.70269999999999</v>
+      </c>
+      <c r="O104">
+        <v>280.49</v>
+      </c>
+      <c r="P104">
+        <v>354.91</v>
+      </c>
+      <c r="Q104">
+        <v>333.17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B105">
+        <v>8386.616</v>
+      </c>
+      <c r="C105">
+        <v>8280.7800000000007</v>
+      </c>
+      <c r="D105">
+        <v>327.14999999999998</v>
+      </c>
+      <c r="E105">
+        <v>4218.2</v>
+      </c>
+      <c r="F105">
+        <v>163.01</v>
+      </c>
+      <c r="G105">
+        <v>113.8291</v>
+      </c>
+      <c r="H105">
+        <v>164.59</v>
+      </c>
+      <c r="I105">
+        <v>94.265100000000004</v>
+      </c>
+      <c r="J105">
+        <v>96.066299999999998</v>
+      </c>
+      <c r="K105">
+        <v>129.1808</v>
+      </c>
+      <c r="L105">
+        <v>889.99</v>
+      </c>
+      <c r="M105">
+        <v>1170.8800000000001</v>
+      </c>
+      <c r="N105">
+        <v>293.83170000000001</v>
+      </c>
+      <c r="O105">
+        <v>280.88</v>
+      </c>
+      <c r="P105">
+        <v>355.47</v>
+      </c>
+      <c r="Q105">
+        <v>333.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B106">
+        <v>8553.6810000000005</v>
+      </c>
+      <c r="C106">
+        <v>8423.1299999999992</v>
+      </c>
+      <c r="D106">
+        <v>332.01</v>
+      </c>
+      <c r="E106">
+        <v>4243.8500000000004</v>
+      </c>
+      <c r="F106">
+        <v>161.94</v>
+      </c>
+      <c r="G106">
+        <v>114.7159</v>
+      </c>
+      <c r="H106">
+        <v>166.72</v>
+      </c>
+      <c r="I106">
+        <v>94.097800000000007</v>
+      </c>
+      <c r="J106">
+        <v>95.827600000000004</v>
+      </c>
+      <c r="K106">
+        <v>129.0558</v>
+      </c>
+      <c r="L106">
+        <v>883.58</v>
+      </c>
+      <c r="M106">
+        <v>1167.24</v>
+      </c>
+      <c r="N106">
+        <v>293.7176</v>
+      </c>
+      <c r="O106">
+        <v>280.88</v>
+      </c>
+      <c r="P106">
+        <v>355.58</v>
+      </c>
+      <c r="Q106">
+        <v>333.32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B107">
+        <v>8766.8320000000003</v>
+      </c>
+      <c r="C107">
+        <v>8577.5</v>
+      </c>
+      <c r="D107">
+        <v>339.08</v>
+      </c>
+      <c r="E107">
+        <v>4258.3599999999997</v>
+      </c>
+      <c r="F107">
+        <v>161.96</v>
+      </c>
+      <c r="G107">
+        <v>115.6827</v>
+      </c>
+      <c r="H107">
+        <v>168.45</v>
+      </c>
+      <c r="I107">
+        <v>93.990099999999998</v>
+      </c>
+      <c r="J107">
+        <v>95.73</v>
+      </c>
+      <c r="K107">
+        <v>128.99420000000001</v>
+      </c>
+      <c r="L107">
+        <v>874.52</v>
+      </c>
+      <c r="M107">
+        <v>1166.27</v>
+      </c>
+      <c r="N107">
+        <v>294.44650000000001</v>
+      </c>
+      <c r="O107">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P107">
+        <v>355.71</v>
+      </c>
+      <c r="Q107">
+        <v>333.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B108">
+        <v>8766.8320000000003</v>
+      </c>
+      <c r="C108">
+        <v>8653</v>
+      </c>
+      <c r="D108">
+        <v>341.19</v>
+      </c>
+      <c r="E108">
+        <v>4258.3599999999997</v>
+      </c>
+      <c r="F108">
+        <v>161.96</v>
+      </c>
+      <c r="G108">
+        <v>115.6827</v>
+      </c>
+      <c r="H108">
+        <v>168.45</v>
+      </c>
+      <c r="I108">
+        <v>93.990099999999998</v>
+      </c>
+      <c r="J108">
+        <v>95.73</v>
+      </c>
+      <c r="K108">
+        <v>128.99420000000001</v>
+      </c>
+      <c r="L108">
+        <v>874.52</v>
+      </c>
+      <c r="M108">
+        <v>1166.27</v>
+      </c>
+      <c r="N108">
+        <v>294.44650000000001</v>
+      </c>
+      <c r="O108">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P108">
+        <v>355.71</v>
+      </c>
+      <c r="Q108">
+        <v>333.58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B109">
+        <v>8712.6020000000008</v>
+      </c>
+      <c r="C109">
+        <v>8535.36</v>
+      </c>
+      <c r="D109">
+        <v>339.11</v>
+      </c>
+      <c r="E109">
+        <v>4225.6499999999996</v>
+      </c>
+      <c r="F109">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="G109">
+        <v>115.29559999999999</v>
+      </c>
+      <c r="H109">
+        <v>167.93</v>
+      </c>
+      <c r="I109">
+        <v>93.9011</v>
+      </c>
+      <c r="J109">
+        <v>95.704700000000003</v>
+      </c>
+      <c r="K109">
+        <v>128.9675</v>
+      </c>
+      <c r="L109">
+        <v>877.61</v>
+      </c>
+      <c r="M109">
+        <v>1168.6099999999999</v>
+      </c>
+      <c r="N109">
+        <v>293.06360000000001</v>
+      </c>
+      <c r="O109">
+        <v>280.63</v>
+      </c>
+      <c r="P109">
+        <v>355.75</v>
+      </c>
+      <c r="Q109">
+        <v>333.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4219,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A3573" workbookViewId="0">
+      <selection activeCell="C3611" sqref="C3611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54791,8 +57070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54828,7 +57107,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44681</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -55012,74 +57291,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=86")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=108")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=86")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -58224,7 +60503,7 @@
         <v>44642</v>
       </c>
       <c r="B64">
-        <v>9484.8549999999996</v>
+        <v>9484.8559999999998</v>
       </c>
       <c r="C64">
         <v>8693.7000000000007</v>
@@ -59810,7 +62089,7 @@
         <v>117.0312</v>
       </c>
       <c r="H92">
-        <v>169.62</v>
+        <v>169.52</v>
       </c>
       <c r="I92">
         <v>96.478899999999996</v>
@@ -59844,111 +62123,1277 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B93">
+        <v>8746.0529999999999</v>
+      </c>
+      <c r="C93">
+        <v>8327.9699999999993</v>
+      </c>
+      <c r="D93">
+        <v>338.72</v>
+      </c>
+      <c r="E93">
+        <v>4125.21</v>
+      </c>
+      <c r="F93">
+        <v>160.26</v>
+      </c>
+      <c r="G93">
+        <v>116.71980000000001</v>
+      </c>
+      <c r="H93">
+        <v>170.46</v>
+      </c>
+      <c r="I93">
+        <v>97.143299999999996</v>
+      </c>
+      <c r="J93">
+        <v>99.435100000000006</v>
+      </c>
+      <c r="K93">
+        <v>132.0376</v>
+      </c>
+      <c r="L93">
+        <v>872.08</v>
+      </c>
+      <c r="M93">
+        <v>1164.83</v>
+      </c>
+      <c r="N93">
+        <v>284.11360000000002</v>
+      </c>
+      <c r="O93">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="P93">
+        <v>356.28</v>
+      </c>
+      <c r="Q93">
+        <v>334.73</v>
+      </c>
+      <c r="R93">
+        <v>170.97</v>
+      </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B94">
+        <v>8788.3619999999992</v>
+      </c>
+      <c r="C94">
+        <v>8398.2900000000009</v>
+      </c>
+      <c r="D94">
+        <v>340.07</v>
+      </c>
+      <c r="E94">
+        <v>4157.21</v>
+      </c>
+      <c r="F94">
+        <v>161.61000000000001</v>
+      </c>
+      <c r="G94">
+        <v>116.1867</v>
+      </c>
+      <c r="H94">
+        <v>170.1</v>
+      </c>
+      <c r="I94">
+        <v>95.810400000000001</v>
+      </c>
+      <c r="J94">
+        <v>97.680300000000003</v>
+      </c>
+      <c r="K94">
+        <v>130.3905</v>
+      </c>
+      <c r="L94">
+        <v>871.61</v>
+      </c>
+      <c r="M94">
+        <v>1165.05</v>
+      </c>
+      <c r="N94">
+        <v>283.74340000000001</v>
+      </c>
+      <c r="O94">
+        <v>281.43</v>
+      </c>
+      <c r="P94">
+        <v>356.44</v>
+      </c>
+      <c r="Q94">
+        <v>335.09</v>
+      </c>
+      <c r="R94">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B95">
+        <v>9050.9040000000005</v>
+      </c>
+      <c r="C95">
+        <v>8317.44</v>
+      </c>
+      <c r="D95">
+        <v>345.76</v>
+      </c>
+      <c r="E95">
+        <v>4186.96</v>
+      </c>
+      <c r="F95">
+        <v>162.34</v>
+      </c>
+      <c r="G95">
+        <v>116.9164</v>
+      </c>
+      <c r="H95">
+        <v>171.4</v>
+      </c>
+      <c r="I95">
+        <v>94.697100000000006</v>
+      </c>
+      <c r="J95">
+        <v>97.006299999999996</v>
+      </c>
+      <c r="K95">
+        <v>129.84219999999999</v>
+      </c>
+      <c r="L95">
+        <v>860.64</v>
+      </c>
+      <c r="M95">
+        <v>1161.48</v>
+      </c>
+      <c r="N95">
+        <v>281.64069999999998</v>
+      </c>
+      <c r="O95">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="P95">
+        <v>355.82</v>
+      </c>
+      <c r="Q95">
+        <v>333.39</v>
+      </c>
+      <c r="R95">
+        <v>170.24</v>
+      </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B96">
+        <v>8729.2109999999993</v>
+      </c>
+      <c r="C96">
+        <v>8263.7099999999991</v>
+      </c>
+      <c r="D96">
+        <v>336.99</v>
+      </c>
+      <c r="E96">
+        <v>4113.7</v>
+      </c>
+      <c r="F96">
+        <v>156.65</v>
+      </c>
+      <c r="G96">
+        <v>117.1763</v>
+      </c>
+      <c r="H96">
+        <v>170.52</v>
+      </c>
+      <c r="I96">
+        <v>95.598600000000005</v>
+      </c>
+      <c r="J96">
+        <v>97.203699999999998</v>
+      </c>
+      <c r="K96">
+        <v>130.23929999999999</v>
+      </c>
+      <c r="L96">
+        <v>870.09</v>
+      </c>
+      <c r="M96">
+        <v>1166.45</v>
+      </c>
+      <c r="N96">
+        <v>290.07159999999999</v>
+      </c>
+      <c r="O96">
+        <v>281.14999999999998</v>
+      </c>
+      <c r="P96">
+        <v>355.85</v>
+      </c>
+      <c r="Q96">
+        <v>333.18</v>
+      </c>
+      <c r="R96">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B97">
+        <v>8680.9670000000006</v>
+      </c>
+      <c r="C97">
+        <v>8128.25</v>
+      </c>
+      <c r="D97">
+        <v>333.72</v>
+      </c>
+      <c r="E97">
+        <v>4067.43</v>
+      </c>
+      <c r="F97">
+        <v>153.51</v>
+      </c>
+      <c r="G97">
+        <v>116.59569999999999</v>
+      </c>
+      <c r="H97">
+        <v>169.79</v>
+      </c>
+      <c r="I97">
+        <v>95.873000000000005</v>
+      </c>
+      <c r="J97">
+        <v>98.116500000000002</v>
+      </c>
+      <c r="K97">
+        <v>130.7243</v>
+      </c>
+      <c r="L97">
+        <v>873.9</v>
+      </c>
+      <c r="M97">
+        <v>1166.33</v>
+      </c>
+      <c r="N97">
+        <v>289.13350000000003</v>
+      </c>
+      <c r="O97">
+        <v>280.76</v>
+      </c>
+      <c r="P97">
+        <v>355.71</v>
+      </c>
+      <c r="Q97">
+        <v>332.97</v>
+      </c>
+      <c r="R97">
+        <v>172.05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B98">
+        <v>8403.4959999999992</v>
+      </c>
+      <c r="C98">
+        <v>7902.89</v>
+      </c>
+      <c r="D98">
+        <v>323.44</v>
+      </c>
+      <c r="E98">
+        <v>4076.74</v>
+      </c>
+      <c r="F98">
+        <v>154.96</v>
+      </c>
+      <c r="G98">
+        <v>116.1816</v>
+      </c>
+      <c r="H98">
+        <v>166.72</v>
+      </c>
+      <c r="I98">
+        <v>96.666700000000006</v>
+      </c>
+      <c r="J98">
+        <v>98.373199999999997</v>
+      </c>
+      <c r="K98">
+        <v>131.1054</v>
+      </c>
+      <c r="L98">
+        <v>883.95</v>
+      </c>
+      <c r="M98">
+        <v>1166.52</v>
+      </c>
+      <c r="N98">
+        <v>289.8621</v>
+      </c>
+      <c r="O98">
+        <v>280.95</v>
+      </c>
+      <c r="P98">
+        <v>356.83</v>
+      </c>
+      <c r="Q98">
+        <v>333.85</v>
+      </c>
+      <c r="R98">
+        <v>172.23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B99">
+        <v>8424.1959999999999</v>
+      </c>
+      <c r="C99">
+        <v>7968.33</v>
+      </c>
+      <c r="D99">
+        <v>323.77</v>
+      </c>
+      <c r="E99">
+        <v>4104.7700000000004</v>
+      </c>
+      <c r="F99">
+        <v>156.93</v>
+      </c>
+      <c r="G99">
+        <v>115.6819</v>
+      </c>
+      <c r="H99">
+        <v>166.29</v>
+      </c>
+      <c r="I99">
+        <v>96.578400000000002</v>
+      </c>
+      <c r="J99">
+        <v>98.111999999999995</v>
+      </c>
+      <c r="K99">
+        <v>131.09960000000001</v>
+      </c>
+      <c r="L99">
+        <v>883.76</v>
+      </c>
+      <c r="M99">
+        <v>1167.72</v>
+      </c>
+      <c r="N99">
+        <v>291.56270000000001</v>
+      </c>
+      <c r="O99">
+        <v>280.13</v>
+      </c>
+      <c r="P99">
+        <v>355.48</v>
+      </c>
+      <c r="Q99">
+        <v>332.68</v>
+      </c>
+      <c r="R99">
+        <v>172.44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B100">
+        <v>8285.8189999999995</v>
+      </c>
+      <c r="C100">
+        <v>8176.96</v>
+      </c>
+      <c r="D100">
+        <v>321.29000000000002</v>
+      </c>
+      <c r="E100">
+        <v>4155.3999999999996</v>
+      </c>
+      <c r="F100">
+        <v>160.84</v>
+      </c>
+      <c r="G100">
+        <v>114.6378</v>
+      </c>
+      <c r="H100">
+        <v>163.54</v>
+      </c>
+      <c r="I100">
+        <v>96.009100000000004</v>
+      </c>
+      <c r="J100">
+        <v>97.973100000000002</v>
+      </c>
+      <c r="K100">
+        <v>130.5692</v>
+      </c>
+      <c r="L100">
+        <v>889.04</v>
+      </c>
+      <c r="M100">
+        <v>1172.93</v>
+      </c>
+      <c r="N100">
+        <v>292.9932</v>
+      </c>
+      <c r="O100">
+        <v>280.38</v>
+      </c>
+      <c r="P100">
+        <v>355.71</v>
+      </c>
+      <c r="Q100">
+        <v>333.21</v>
+      </c>
+      <c r="R100">
+        <v>172.41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B101">
+        <v>8278.0349999999999</v>
+      </c>
+      <c r="C101">
+        <v>8105.7</v>
+      </c>
+      <c r="D101">
+        <v>319.16000000000003</v>
+      </c>
+      <c r="E101">
+        <v>4144.96</v>
+      </c>
+      <c r="F101">
+        <v>160.35</v>
+      </c>
+      <c r="G101">
+        <v>113.9798</v>
+      </c>
+      <c r="H101">
+        <v>162.93</v>
+      </c>
+      <c r="I101">
+        <v>96.151499999999999</v>
+      </c>
+      <c r="J101">
+        <v>98.289199999999994</v>
+      </c>
+      <c r="K101">
+        <v>130.8835</v>
+      </c>
+      <c r="L101">
+        <v>890.01</v>
+      </c>
+      <c r="M101">
+        <v>1175.1300000000001</v>
+      </c>
+      <c r="N101">
+        <v>293.99650000000003</v>
+      </c>
+      <c r="O101">
+        <v>279.76</v>
+      </c>
+      <c r="P101">
+        <v>354.88</v>
+      </c>
+      <c r="Q101">
+        <v>331.91</v>
+      </c>
+      <c r="R101">
+        <v>172.52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B102">
+        <v>8476.5689999999995</v>
+      </c>
+      <c r="C102">
+        <v>8312.02</v>
+      </c>
+      <c r="D102">
+        <v>326.42</v>
+      </c>
+      <c r="E102">
+        <v>4100.7299999999996</v>
+      </c>
+      <c r="F102">
+        <v>157.24</v>
+      </c>
+      <c r="G102">
+        <v>114.61879999999999</v>
+      </c>
+      <c r="H102">
+        <v>165.68</v>
+      </c>
+      <c r="I102">
+        <v>94.952100000000002</v>
+      </c>
+      <c r="J102">
+        <v>97.019300000000001</v>
+      </c>
+      <c r="K102">
+        <v>129.7799</v>
+      </c>
+      <c r="L102">
+        <v>883.36</v>
+      </c>
+      <c r="M102">
+        <v>1171.94</v>
+      </c>
+      <c r="N102">
+        <v>293.33240000000001</v>
+      </c>
+      <c r="O102">
+        <v>279.54000000000002</v>
+      </c>
+      <c r="P102">
+        <v>354.93</v>
+      </c>
+      <c r="Q102">
+        <v>332.03</v>
+      </c>
+      <c r="R102">
+        <v>171.89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B103">
+        <v>8443.5480000000007</v>
+      </c>
+      <c r="C103">
+        <v>8274.5</v>
+      </c>
+      <c r="D103">
+        <v>325.76</v>
+      </c>
+      <c r="E103">
+        <v>4099.1899999999996</v>
+      </c>
+      <c r="F103">
+        <v>156.88</v>
+      </c>
+      <c r="G103">
+        <v>114.047</v>
+      </c>
+      <c r="H103">
+        <v>165.32</v>
+      </c>
+      <c r="I103">
+        <v>94.6511</v>
+      </c>
+      <c r="J103">
+        <v>96.534199999999998</v>
+      </c>
+      <c r="K103">
+        <v>129.50399999999999</v>
+      </c>
+      <c r="L103">
+        <v>886.61</v>
+      </c>
+      <c r="M103">
+        <v>1170.32</v>
+      </c>
+      <c r="N103">
+        <v>291.75940000000003</v>
+      </c>
+      <c r="O103">
+        <v>279.99</v>
+      </c>
+      <c r="P103">
+        <v>355.23</v>
+      </c>
+      <c r="Q103">
+        <v>332.41</v>
+      </c>
+      <c r="R103">
+        <v>171.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B104">
+        <v>8614.3119999999999</v>
+      </c>
+      <c r="C104">
+        <v>8404.39</v>
+      </c>
+      <c r="D104">
+        <v>332.31</v>
+      </c>
+      <c r="E104">
+        <v>4061.79</v>
+      </c>
+      <c r="F104">
+        <v>154.57</v>
+      </c>
+      <c r="G104">
+        <v>114.5437</v>
+      </c>
+      <c r="H104">
+        <v>167</v>
+      </c>
+      <c r="I104">
+        <v>94.314300000000003</v>
+      </c>
+      <c r="J104">
+        <v>96.22</v>
+      </c>
+      <c r="K104">
+        <v>129.3099</v>
+      </c>
+      <c r="L104">
+        <v>879.77</v>
+      </c>
+      <c r="M104">
+        <v>1167.1600000000001</v>
+      </c>
+      <c r="N104">
+        <v>289.57589999999999</v>
+      </c>
+      <c r="O104">
+        <v>279.99</v>
+      </c>
+      <c r="P104">
+        <v>355.11</v>
+      </c>
+      <c r="Q104">
+        <v>332.41</v>
+      </c>
+      <c r="R104">
+        <v>170.55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B105">
+        <v>8268.3220000000001</v>
+      </c>
+      <c r="C105">
+        <v>8290.34</v>
+      </c>
+      <c r="D105">
+        <v>323.63</v>
+      </c>
+      <c r="E105">
+        <v>4102.28</v>
+      </c>
+      <c r="F105">
+        <v>158.86000000000001</v>
+      </c>
+      <c r="G105">
+        <v>114.6203</v>
+      </c>
+      <c r="H105">
+        <v>164</v>
+      </c>
+      <c r="I105">
+        <v>94.734800000000007</v>
+      </c>
+      <c r="J105">
+        <v>96.452600000000004</v>
+      </c>
+      <c r="K105">
+        <v>129.48920000000001</v>
+      </c>
+      <c r="L105">
+        <v>893.27</v>
+      </c>
+      <c r="M105">
+        <v>1170.96</v>
+      </c>
+      <c r="N105">
+        <v>292.1968</v>
+      </c>
+      <c r="O105">
+        <v>280.52999999999997</v>
+      </c>
+      <c r="P105">
+        <v>355.45</v>
+      </c>
+      <c r="Q105">
+        <v>333.58</v>
+      </c>
+      <c r="R105">
+        <v>172.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B106">
+        <v>8220.9670000000006</v>
+      </c>
+      <c r="C106">
+        <v>8183.55</v>
+      </c>
+      <c r="D106">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="E106">
+        <v>4105.88</v>
+      </c>
+      <c r="F106">
+        <v>159.29</v>
+      </c>
+      <c r="G106">
+        <v>113.4777</v>
+      </c>
+      <c r="H106">
+        <v>162.33000000000001</v>
+      </c>
+      <c r="I106">
+        <v>94.682699999999997</v>
+      </c>
+      <c r="J106">
+        <v>96.815899999999999</v>
+      </c>
+      <c r="K106">
+        <v>129.56370000000001</v>
+      </c>
+      <c r="L106">
+        <v>896.8</v>
+      </c>
+      <c r="M106">
+        <v>1171.98</v>
+      </c>
+      <c r="N106">
+        <v>294.55290000000002</v>
+      </c>
+      <c r="O106">
+        <v>280.86</v>
+      </c>
+      <c r="P106">
+        <v>355.9</v>
+      </c>
+      <c r="Q106">
+        <v>333.58</v>
+      </c>
+      <c r="R106">
+        <v>171.81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B107">
+        <v>8222.3119999999999</v>
+      </c>
+      <c r="C107">
+        <v>8220.61</v>
+      </c>
+      <c r="D107">
+        <v>322.82</v>
+      </c>
+      <c r="E107">
+        <v>4139.88</v>
+      </c>
+      <c r="F107">
+        <v>161.74</v>
+      </c>
+      <c r="G107">
+        <v>113.33969999999999</v>
+      </c>
+      <c r="H107">
+        <v>162.47999999999999</v>
+      </c>
+      <c r="I107">
+        <v>94.739800000000002</v>
+      </c>
+      <c r="J107">
+        <v>96.398099999999999</v>
+      </c>
+      <c r="K107">
+        <v>129.5437</v>
+      </c>
+      <c r="L107">
+        <v>895.99</v>
+      </c>
+      <c r="M107">
+        <v>1170.0899999999999</v>
+      </c>
+      <c r="N107">
+        <v>294.04860000000002</v>
+      </c>
+      <c r="O107">
+        <v>280.18</v>
+      </c>
+      <c r="P107">
+        <v>355.01</v>
+      </c>
+      <c r="Q107">
+        <v>332.67</v>
+      </c>
+      <c r="R107">
+        <v>171.32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B108">
+        <v>8375.866</v>
+      </c>
+      <c r="C108">
+        <v>8351.23</v>
+      </c>
+      <c r="D108">
+        <v>327.84</v>
+      </c>
+      <c r="E108">
+        <v>4105.8500000000004</v>
+      </c>
+      <c r="F108">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="G108">
+        <v>114.0544</v>
+      </c>
+      <c r="H108">
+        <v>164.8</v>
+      </c>
+      <c r="I108">
+        <v>94.327699999999993</v>
+      </c>
+      <c r="J108">
+        <v>96.070400000000006</v>
+      </c>
+      <c r="K108">
+        <v>129.19370000000001</v>
+      </c>
+      <c r="L108">
+        <v>890.15</v>
+      </c>
+      <c r="M108">
+        <v>1169.77</v>
+      </c>
+      <c r="N108">
+        <v>294.41449999999998</v>
+      </c>
+      <c r="O108">
+        <v>280.62</v>
+      </c>
+      <c r="P108">
+        <v>355.39</v>
+      </c>
+      <c r="Q108">
+        <v>333.18</v>
+      </c>
+      <c r="R108">
+        <v>171.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B109">
+        <v>8307.973</v>
+      </c>
+      <c r="C109">
+        <v>8214.25</v>
+      </c>
+      <c r="D109">
+        <v>324.93</v>
+      </c>
+      <c r="E109">
+        <v>4175.07</v>
+      </c>
+      <c r="F109">
+        <v>162.29</v>
+      </c>
+      <c r="G109">
+        <v>113.8849</v>
+      </c>
+      <c r="H109">
+        <v>163.79</v>
+      </c>
+      <c r="I109">
+        <v>94.417500000000004</v>
+      </c>
+      <c r="J109">
+        <v>96.2256</v>
+      </c>
+      <c r="K109">
+        <v>129.29810000000001</v>
+      </c>
+      <c r="L109">
+        <v>892.45</v>
+      </c>
+      <c r="M109">
+        <v>1170.73</v>
+      </c>
+      <c r="N109">
+        <v>293.70269999999999</v>
+      </c>
+      <c r="O109">
+        <v>280.49</v>
+      </c>
+      <c r="P109">
+        <v>354.91</v>
+      </c>
+      <c r="Q109">
+        <v>333.17</v>
+      </c>
+      <c r="R109">
+        <v>171.28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B110">
+        <v>8386.616</v>
+      </c>
+      <c r="C110">
+        <v>8280.7800000000007</v>
+      </c>
+      <c r="D110">
+        <v>327.14999999999998</v>
+      </c>
+      <c r="E110">
+        <v>4218.2</v>
+      </c>
+      <c r="F110">
+        <v>163.01</v>
+      </c>
+      <c r="G110">
+        <v>113.8291</v>
+      </c>
+      <c r="H110">
+        <v>164.59</v>
+      </c>
+      <c r="I110">
+        <v>94.265100000000004</v>
+      </c>
+      <c r="J110">
+        <v>96.066299999999998</v>
+      </c>
+      <c r="K110">
+        <v>129.1808</v>
+      </c>
+      <c r="L110">
+        <v>889.99</v>
+      </c>
+      <c r="M110">
+        <v>1170.8800000000001</v>
+      </c>
+      <c r="N110">
+        <v>293.83170000000001</v>
+      </c>
+      <c r="O110">
+        <v>280.88</v>
+      </c>
+      <c r="P110">
+        <v>355.47</v>
+      </c>
+      <c r="Q110">
+        <v>333.37</v>
+      </c>
+      <c r="R110">
+        <v>171.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B111">
+        <v>8553.6810000000005</v>
+      </c>
+      <c r="C111">
+        <v>8423.1299999999992</v>
+      </c>
+      <c r="D111">
+        <v>332.01</v>
+      </c>
+      <c r="E111">
+        <v>4243.8500000000004</v>
+      </c>
+      <c r="F111">
+        <v>161.94</v>
+      </c>
+      <c r="G111">
+        <v>114.7159</v>
+      </c>
+      <c r="H111">
+        <v>166.72</v>
+      </c>
+      <c r="I111">
+        <v>94.097800000000007</v>
+      </c>
+      <c r="J111">
+        <v>95.827600000000004</v>
+      </c>
+      <c r="K111">
+        <v>129.0558</v>
+      </c>
+      <c r="L111">
+        <v>883.58</v>
+      </c>
+      <c r="M111">
+        <v>1167.24</v>
+      </c>
+      <c r="N111">
+        <v>293.7176</v>
+      </c>
+      <c r="O111">
+        <v>280.88</v>
+      </c>
+      <c r="P111">
+        <v>355.58</v>
+      </c>
+      <c r="Q111">
+        <v>333.32</v>
+      </c>
+      <c r="R111">
+        <v>170.77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B112">
+        <v>8766.8320000000003</v>
+      </c>
+      <c r="C112">
+        <v>8577.5</v>
+      </c>
+      <c r="D112">
+        <v>339.08</v>
+      </c>
+      <c r="E112">
+        <v>4258.3599999999997</v>
+      </c>
+      <c r="F112">
+        <v>161.96</v>
+      </c>
+      <c r="G112">
+        <v>115.6827</v>
+      </c>
+      <c r="H112">
+        <v>168.45</v>
+      </c>
+      <c r="I112">
+        <v>93.990099999999998</v>
+      </c>
+      <c r="J112">
+        <v>95.73</v>
+      </c>
+      <c r="K112">
+        <v>128.99420000000001</v>
+      </c>
+      <c r="L112">
+        <v>874.52</v>
+      </c>
+      <c r="M112">
+        <v>1166.27</v>
+      </c>
+      <c r="N112">
+        <v>294.44650000000001</v>
+      </c>
+      <c r="O112">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P112">
+        <v>355.71</v>
+      </c>
+      <c r="Q112">
+        <v>333.58</v>
+      </c>
+      <c r="R112">
+        <v>170.64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B113">
+        <v>8766.8320000000003</v>
+      </c>
+      <c r="C113">
+        <v>8653</v>
+      </c>
+      <c r="D113">
+        <v>341.19</v>
+      </c>
+      <c r="E113">
+        <v>4258.3599999999997</v>
+      </c>
+      <c r="F113">
+        <v>161.96</v>
+      </c>
+      <c r="G113">
+        <v>115.6827</v>
+      </c>
+      <c r="H113">
+        <v>168.45</v>
+      </c>
+      <c r="I113">
+        <v>93.990099999999998</v>
+      </c>
+      <c r="J113">
+        <v>95.73</v>
+      </c>
+      <c r="K113">
+        <v>128.99420000000001</v>
+      </c>
+      <c r="L113">
+        <v>874.52</v>
+      </c>
+      <c r="M113">
+        <v>1166.27</v>
+      </c>
+      <c r="N113">
+        <v>294.44650000000001</v>
+      </c>
+      <c r="O113">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="P113">
+        <v>355.71</v>
+      </c>
+      <c r="Q113">
+        <v>333.58</v>
+      </c>
+      <c r="R113">
+        <v>170.64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B114">
+        <v>8712.6020000000008</v>
+      </c>
+      <c r="C114">
+        <v>8535.36</v>
+      </c>
+      <c r="D114">
+        <v>339.11</v>
+      </c>
+      <c r="E114">
+        <v>4225.6499999999996</v>
+      </c>
+      <c r="F114">
+        <v>157.94999999999999</v>
+      </c>
+      <c r="G114">
+        <v>115.29559999999999</v>
+      </c>
+      <c r="H114">
+        <v>167.93</v>
+      </c>
+      <c r="I114">
+        <v>93.9011</v>
+      </c>
+      <c r="J114">
+        <v>95.704700000000003</v>
+      </c>
+      <c r="K114">
+        <v>128.9675</v>
+      </c>
+      <c r="L114">
+        <v>877.61</v>
+      </c>
+      <c r="M114">
+        <v>1168.6099999999999</v>
+      </c>
+      <c r="N114">
+        <v>293.06360000000001</v>
+      </c>
+      <c r="O114">
+        <v>280.63</v>
+      </c>
+      <c r="P114">
+        <v>355.75</v>
+      </c>
+      <c r="Q114">
+        <v>333.63</v>
+      </c>
+      <c r="R114">
+        <v>170.99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -60443,7 +63888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0939DA-E5C9-4493-9B2A-5718BCB7E4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -25,8 +24,9 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
+    <definedName name="SpreadsheetBuilder_4" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,102 +177,84 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2498000376</v>
         <stp/>
-        <stp>BDH|14373309094453461515</stp>
+        <stp>BDH|13443209491875865478</stp>
+        <tr r="O7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4292474235</v>
+        <stp/>
+        <stp>BDH|17104415084249048216</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3114597649</v>
+        <stp/>
+        <stp>BDH|10780736232050436488</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3312458933</v>
+        <stp/>
+        <stp>BDH|11392435143047097029</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3684680868</v>
+        <stp/>
+        <stp>BDH|13681390364586674687</stp>
+        <tr r="R7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3902279735</v>
+        <stp/>
+        <stp>BDH|12813523539692123174</stp>
         <tr r="N7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2648455992</v>
         <stp/>
-        <stp>BDH|15254198816498138559</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12376458535329946451</stp>
+        <stp>BDH|10651658260607967001</stp>
         <tr r="E7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4262317047</v>
         <stp/>
-        <stp>BDH|14047895025460654716</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|15219073193266403418</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17676840938570904020</stp>
-        <tr r="D7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17737690590601603895</stp>
-        <tr r="P7" s="4"/>
+        <stp>BDH|16172402952033261032</stp>
+        <tr r="F7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4166306348</v>
         <stp/>
-        <stp>BDH|4440947643953867604</stp>
-        <tr r="J7" s="4"/>
+        <stp>BDH|7372156945517956837</stp>
+        <tr r="I7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2793532776</v>
         <stp/>
-        <stp>BDH|8374361155286374440</stp>
-        <tr r="H7" s="4"/>
+        <stp>BDH|4044657110195260995</stp>
+        <tr r="K7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3867305555</v>
         <stp/>
-        <stp>BDH|8741188097968377687</stp>
-        <tr r="R7" s="4"/>
+        <stp>BDH|7247267998221805998</stp>
+        <tr r="P7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2967649377</v>
         <stp/>
-        <stp>BDH|7767975377752466408</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6781921016611909505</stp>
-        <tr r="F7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9843400890588627834</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7202116120449006907</stp>
-        <tr r="A7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9968902354943736400</stp>
+        <stp>BDH|5650835060327148944</stp>
         <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3889401973</v>
         <stp/>
-        <stp>BDH|6868970648471322859</stp>
-        <tr r="Q7" s="4"/>
+        <stp>BDH|7940218944212635318</stp>
+        <tr r="A7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -415,10 +397,28 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1056016836</v>
         <stp/>
-        <stp>BDH|906156193663958325</stp>
+        <stp>BDH|842508002716740427</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1414537409</v>
+        <stp/>
+        <stp>BDH|872442251777243102</stp>
         <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4214137878</v>
+        <stp/>
+        <stp>BDH|243377346286374749</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3080481446</v>
+        <stp/>
+        <stp>BDH|777656755506079947</stp>
+        <tr r="Q7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -687,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66:R109"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5800,7 @@
         <v>331.91</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44694</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>332.03</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44697</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>332.41</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44698</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>332.41</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44699</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44700</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44701</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>332.67</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44704</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>333.18</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44705</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44706</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>333.37</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44707</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>333.32</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44708</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44711</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44712</v>
       </c>
@@ -6487,6 +6487,1294 @@
       </c>
       <c r="Q109">
         <v>333.63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B110">
+        <v>8648.2839999999997</v>
+      </c>
+      <c r="C110">
+        <v>8468.5300000000007</v>
+      </c>
+      <c r="D110">
+        <v>336.59</v>
+      </c>
+      <c r="E110">
+        <v>4221.5200000000004</v>
+      </c>
+      <c r="F110">
+        <v>158.27000000000001</v>
+      </c>
+      <c r="G110">
+        <v>114.67310000000001</v>
+      </c>
+      <c r="H110">
+        <v>167.5</v>
+      </c>
+      <c r="I110">
+        <v>93.948700000000002</v>
+      </c>
+      <c r="J110">
+        <v>95.638400000000004</v>
+      </c>
+      <c r="K110">
+        <v>128.96019999999999</v>
+      </c>
+      <c r="L110">
+        <v>880.76</v>
+      </c>
+      <c r="M110">
+        <v>1169.79</v>
+      </c>
+      <c r="N110">
+        <v>293.82600000000002</v>
+      </c>
+      <c r="O110">
+        <v>280.49</v>
+      </c>
+      <c r="P110">
+        <v>355.45</v>
+      </c>
+      <c r="Q110">
+        <v>333.44</v>
+      </c>
+      <c r="R110">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B111">
+        <v>8809.1790000000001</v>
+      </c>
+      <c r="C111">
+        <v>8550.3799999999992</v>
+      </c>
+      <c r="D111">
+        <v>341.08</v>
+      </c>
+      <c r="E111">
+        <v>4222.55</v>
+      </c>
+      <c r="F111">
+        <v>158.16</v>
+      </c>
+      <c r="G111">
+        <v>115.17359999999999</v>
+      </c>
+      <c r="H111">
+        <v>168.74</v>
+      </c>
+      <c r="I111">
+        <v>93.763599999999997</v>
+      </c>
+      <c r="J111">
+        <v>95.5458</v>
+      </c>
+      <c r="K111">
+        <v>128.86750000000001</v>
+      </c>
+      <c r="L111">
+        <v>874.38</v>
+      </c>
+      <c r="M111">
+        <v>1169.43</v>
+      </c>
+      <c r="N111">
+        <v>292.9896</v>
+      </c>
+      <c r="O111">
+        <v>280.70999999999998</v>
+      </c>
+      <c r="P111">
+        <v>355.78</v>
+      </c>
+      <c r="Q111">
+        <v>333.63</v>
+      </c>
+      <c r="R111">
+        <v>171.17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B112">
+        <v>8665.8009999999995</v>
+      </c>
+      <c r="C112">
+        <v>8524.5400000000009</v>
+      </c>
+      <c r="D112">
+        <v>337.31</v>
+      </c>
+      <c r="E112">
+        <v>4209</v>
+      </c>
+      <c r="F112">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="G112">
+        <v>114.6434</v>
+      </c>
+      <c r="H112">
+        <v>167.83</v>
+      </c>
+      <c r="I112">
+        <v>93.801100000000005</v>
+      </c>
+      <c r="J112">
+        <v>95.553799999999995</v>
+      </c>
+      <c r="K112">
+        <v>128.89189999999999</v>
+      </c>
+      <c r="L112">
+        <v>880.41</v>
+      </c>
+      <c r="M112">
+        <v>1171.57</v>
+      </c>
+      <c r="N112">
+        <v>292.38049999999998</v>
+      </c>
+      <c r="O112">
+        <v>280.87</v>
+      </c>
+      <c r="P112">
+        <v>355.98</v>
+      </c>
+      <c r="Q112">
+        <v>333.82</v>
+      </c>
+      <c r="R112">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B113">
+        <v>8693.0570000000007</v>
+      </c>
+      <c r="C113">
+        <v>8647.91</v>
+      </c>
+      <c r="D113">
+        <v>338.87</v>
+      </c>
+      <c r="E113">
+        <v>4159.0600000000004</v>
+      </c>
+      <c r="F113">
+        <v>154.12</v>
+      </c>
+      <c r="G113">
+        <v>114.5215</v>
+      </c>
+      <c r="H113">
+        <v>168.06</v>
+      </c>
+      <c r="I113">
+        <v>93.754999999999995</v>
+      </c>
+      <c r="J113">
+        <v>95.502300000000005</v>
+      </c>
+      <c r="K113">
+        <v>128.86089999999999</v>
+      </c>
+      <c r="L113">
+        <v>879.61</v>
+      </c>
+      <c r="M113">
+        <v>1169.26</v>
+      </c>
+      <c r="N113">
+        <v>292.55739999999997</v>
+      </c>
+      <c r="O113">
+        <v>280.56</v>
+      </c>
+      <c r="P113">
+        <v>355.64</v>
+      </c>
+      <c r="Q113">
+        <v>333.57</v>
+      </c>
+      <c r="R113">
+        <v>171.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B114">
+        <v>8776.0889999999999</v>
+      </c>
+      <c r="C114">
+        <v>8576.5400000000009</v>
+      </c>
+      <c r="D114">
+        <v>340.17</v>
+      </c>
+      <c r="E114">
+        <v>4189.1099999999997</v>
+      </c>
+      <c r="F114">
+        <v>156.15</v>
+      </c>
+      <c r="G114">
+        <v>114.7586</v>
+      </c>
+      <c r="H114">
+        <v>168.58</v>
+      </c>
+      <c r="I114">
+        <v>93.699600000000004</v>
+      </c>
+      <c r="J114">
+        <v>95.497900000000001</v>
+      </c>
+      <c r="K114">
+        <v>128.83879999999999</v>
+      </c>
+      <c r="L114">
+        <v>876.67</v>
+      </c>
+      <c r="M114">
+        <v>1166.43</v>
+      </c>
+      <c r="N114">
+        <v>292.2568</v>
+      </c>
+      <c r="O114">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="P114">
+        <v>355.72</v>
+      </c>
+      <c r="Q114">
+        <v>333.68</v>
+      </c>
+      <c r="R114">
+        <v>171.12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B115">
+        <v>8681.6839999999993</v>
+      </c>
+      <c r="C115">
+        <v>8536.41</v>
+      </c>
+      <c r="D115">
+        <v>338.28</v>
+      </c>
+      <c r="E115">
+        <v>4163.7700000000004</v>
+      </c>
+      <c r="F115">
+        <v>154.5</v>
+      </c>
+      <c r="G115">
+        <v>114.1202</v>
+      </c>
+      <c r="H115">
+        <v>168.04</v>
+      </c>
+      <c r="I115">
+        <v>93.687200000000004</v>
+      </c>
+      <c r="J115">
+        <v>95.4452</v>
+      </c>
+      <c r="K115">
+        <v>128.82140000000001</v>
+      </c>
+      <c r="L115">
+        <v>880.71</v>
+      </c>
+      <c r="M115">
+        <v>1165.82</v>
+      </c>
+      <c r="N115">
+        <v>292.07150000000001</v>
+      </c>
+      <c r="O115">
+        <v>280.81</v>
+      </c>
+      <c r="P115">
+        <v>355.86</v>
+      </c>
+      <c r="Q115">
+        <v>333.78</v>
+      </c>
+      <c r="R115">
+        <v>170.97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B116">
+        <v>8475.9120000000003</v>
+      </c>
+      <c r="C116">
+        <v>8391.15</v>
+      </c>
+      <c r="D116">
+        <v>331.46</v>
+      </c>
+      <c r="E116">
+        <v>4155.17</v>
+      </c>
+      <c r="F116">
+        <v>155.22999999999999</v>
+      </c>
+      <c r="G116">
+        <v>113.5078</v>
+      </c>
+      <c r="H116">
+        <v>166.16</v>
+      </c>
+      <c r="I116">
+        <v>93.726100000000002</v>
+      </c>
+      <c r="J116">
+        <v>95.442700000000002</v>
+      </c>
+      <c r="K116">
+        <v>128.83369999999999</v>
+      </c>
+      <c r="L116">
+        <v>888</v>
+      </c>
+      <c r="M116">
+        <v>1163.27</v>
+      </c>
+      <c r="N116">
+        <v>292.18700000000001</v>
+      </c>
+      <c r="O116">
+        <v>279.95999999999998</v>
+      </c>
+      <c r="P116">
+        <v>354.69</v>
+      </c>
+      <c r="Q116">
+        <v>331.73</v>
+      </c>
+      <c r="R116">
+        <v>170.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B117">
+        <v>8229.4259999999995</v>
+      </c>
+      <c r="C117">
+        <v>8108.95</v>
+      </c>
+      <c r="D117">
+        <v>322.39</v>
+      </c>
+      <c r="E117">
+        <v>4103.08</v>
+      </c>
+      <c r="F117">
+        <v>154.51</v>
+      </c>
+      <c r="G117">
+        <v>112.6748</v>
+      </c>
+      <c r="H117">
+        <v>163.11000000000001</v>
+      </c>
+      <c r="I117">
+        <v>93.967500000000001</v>
+      </c>
+      <c r="J117">
+        <v>95.713200000000001</v>
+      </c>
+      <c r="K117">
+        <v>128.9804</v>
+      </c>
+      <c r="L117">
+        <v>896.63</v>
+      </c>
+      <c r="M117">
+        <v>1163.08</v>
+      </c>
+      <c r="N117">
+        <v>291.24810000000002</v>
+      </c>
+      <c r="O117">
+        <v>279.89999999999998</v>
+      </c>
+      <c r="P117">
+        <v>354.12</v>
+      </c>
+      <c r="Q117">
+        <v>330.55</v>
+      </c>
+      <c r="R117">
+        <v>170.76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B118">
+        <v>7910.4279999999999</v>
+      </c>
+      <c r="C118">
+        <v>7891.09</v>
+      </c>
+      <c r="D118">
+        <v>310.61</v>
+      </c>
+      <c r="E118">
+        <v>3971.49</v>
+      </c>
+      <c r="F118">
+        <v>148.51</v>
+      </c>
+      <c r="G118">
+        <v>112.6353</v>
+      </c>
+      <c r="H118">
+        <v>158.22999999999999</v>
+      </c>
+      <c r="I118">
+        <v>94.820599999999999</v>
+      </c>
+      <c r="J118">
+        <v>96.454300000000003</v>
+      </c>
+      <c r="K118">
+        <v>129.51150000000001</v>
+      </c>
+      <c r="L118">
+        <v>902.34</v>
+      </c>
+      <c r="M118">
+        <v>1155.43</v>
+      </c>
+      <c r="N118">
+        <v>287.24950000000001</v>
+      </c>
+      <c r="O118">
+        <v>277.58999999999997</v>
+      </c>
+      <c r="P118">
+        <v>354.05</v>
+      </c>
+      <c r="Q118">
+        <v>328.14</v>
+      </c>
+      <c r="R118">
+        <v>171.27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B119">
+        <v>7883.3410000000003</v>
+      </c>
+      <c r="C119">
+        <v>7829.55</v>
+      </c>
+      <c r="D119">
+        <v>308.64999999999998</v>
+      </c>
+      <c r="E119">
+        <v>3934.82</v>
+      </c>
+      <c r="F119">
+        <v>146.13</v>
+      </c>
+      <c r="G119">
+        <v>111.511</v>
+      </c>
+      <c r="H119">
+        <v>157.59</v>
+      </c>
+      <c r="I119">
+        <v>94.619900000000001</v>
+      </c>
+      <c r="J119">
+        <v>96.593000000000004</v>
+      </c>
+      <c r="K119">
+        <v>129.4881</v>
+      </c>
+      <c r="L119">
+        <v>904.89</v>
+      </c>
+      <c r="M119">
+        <v>1155.54</v>
+      </c>
+      <c r="N119">
+        <v>287.84039999999999</v>
+      </c>
+      <c r="O119">
+        <v>278.66000000000003</v>
+      </c>
+      <c r="P119">
+        <v>354.4</v>
+      </c>
+      <c r="Q119">
+        <v>330.22</v>
+      </c>
+      <c r="R119">
+        <v>170.85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B120">
+        <v>7998.6189999999997</v>
+      </c>
+      <c r="C120">
+        <v>7958.29</v>
+      </c>
+      <c r="D120">
+        <v>312.06</v>
+      </c>
+      <c r="E120">
+        <v>4009.71</v>
+      </c>
+      <c r="F120">
+        <v>149.38</v>
+      </c>
+      <c r="G120">
+        <v>111.1835</v>
+      </c>
+      <c r="H120">
+        <v>159.43</v>
+      </c>
+      <c r="I120">
+        <v>93.5017</v>
+      </c>
+      <c r="J120">
+        <v>95.749600000000001</v>
+      </c>
+      <c r="K120">
+        <v>128.69110000000001</v>
+      </c>
+      <c r="L120">
+        <v>902.75</v>
+      </c>
+      <c r="M120">
+        <v>1155.08</v>
+      </c>
+      <c r="N120">
+        <v>287.88510000000002</v>
+      </c>
+      <c r="O120">
+        <v>279.43</v>
+      </c>
+      <c r="P120">
+        <v>355.16</v>
+      </c>
+      <c r="Q120">
+        <v>331.32</v>
+      </c>
+      <c r="R120">
+        <v>170.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B121">
+        <v>7739.3879999999999</v>
+      </c>
+      <c r="C121">
+        <v>7723.05</v>
+      </c>
+      <c r="D121">
+        <v>304.55</v>
+      </c>
+      <c r="E121">
+        <v>4008.65</v>
+      </c>
+      <c r="F121">
+        <v>150.53</v>
+      </c>
+      <c r="G121">
+        <v>111.1417</v>
+      </c>
+      <c r="H121">
+        <v>154.57</v>
+      </c>
+      <c r="I121">
+        <v>94.153099999999995</v>
+      </c>
+      <c r="J121">
+        <v>96.234099999999998</v>
+      </c>
+      <c r="K121">
+        <v>129.26</v>
+      </c>
+      <c r="L121">
+        <v>907.41</v>
+      </c>
+      <c r="M121">
+        <v>1154.82</v>
+      </c>
+      <c r="N121">
+        <v>290.25220000000002</v>
+      </c>
+      <c r="O121">
+        <v>279.32</v>
+      </c>
+      <c r="P121">
+        <v>354.68</v>
+      </c>
+      <c r="Q121">
+        <v>329.89</v>
+      </c>
+      <c r="R121">
+        <v>170.73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B122">
+        <v>7756.5950000000003</v>
+      </c>
+      <c r="C122">
+        <v>7746.82</v>
+      </c>
+      <c r="D122">
+        <v>303.92</v>
+      </c>
+      <c r="E122">
+        <v>4024.97</v>
+      </c>
+      <c r="F122">
+        <v>151.54</v>
+      </c>
+      <c r="G122">
+        <v>110.34229999999999</v>
+      </c>
+      <c r="H122">
+        <v>154.12</v>
+      </c>
+      <c r="I122">
+        <v>93.622399999999999</v>
+      </c>
+      <c r="J122">
+        <v>95.996899999999997</v>
+      </c>
+      <c r="K122">
+        <v>128.7765</v>
+      </c>
+      <c r="L122">
+        <v>908.48</v>
+      </c>
+      <c r="M122">
+        <v>1152.6199999999999</v>
+      </c>
+      <c r="N122">
+        <v>291.83569999999997</v>
+      </c>
+      <c r="O122">
+        <v>279.94</v>
+      </c>
+      <c r="P122">
+        <v>355.87</v>
+      </c>
+      <c r="Q122">
+        <v>331.71</v>
+      </c>
+      <c r="R122">
+        <v>170.12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B123">
+        <v>7756.5950000000003</v>
+      </c>
+      <c r="C123">
+        <v>7817.5</v>
+      </c>
+      <c r="D123">
+        <v>304.77</v>
+      </c>
+      <c r="E123">
+        <v>4024.97</v>
+      </c>
+      <c r="F123">
+        <v>151.54</v>
+      </c>
+      <c r="G123">
+        <v>110.34229999999999</v>
+      </c>
+      <c r="H123">
+        <v>154.12</v>
+      </c>
+      <c r="I123">
+        <v>93.622399999999999</v>
+      </c>
+      <c r="J123">
+        <v>95.996899999999997</v>
+      </c>
+      <c r="K123">
+        <v>128.7765</v>
+      </c>
+      <c r="L123">
+        <v>908.48</v>
+      </c>
+      <c r="M123">
+        <v>1152.6199999999999</v>
+      </c>
+      <c r="N123">
+        <v>291.83569999999997</v>
+      </c>
+      <c r="O123">
+        <v>279.94</v>
+      </c>
+      <c r="P123">
+        <v>355.87</v>
+      </c>
+      <c r="Q123">
+        <v>331.71</v>
+      </c>
+      <c r="R123">
+        <v>170.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B124">
+        <v>7946.8860000000004</v>
+      </c>
+      <c r="C124">
+        <v>7875.87</v>
+      </c>
+      <c r="D124">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="E124">
+        <v>3978.55</v>
+      </c>
+      <c r="F124">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="G124">
+        <v>110.9615</v>
+      </c>
+      <c r="H124">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="I124">
+        <v>93.200299999999999</v>
+      </c>
+      <c r="J124">
+        <v>95.279600000000002</v>
+      </c>
+      <c r="K124">
+        <v>128.37100000000001</v>
+      </c>
+      <c r="L124">
+        <v>903.68</v>
+      </c>
+      <c r="M124">
+        <v>1150.4100000000001</v>
+      </c>
+      <c r="N124">
+        <v>290.11020000000002</v>
+      </c>
+      <c r="O124">
+        <v>279.94</v>
+      </c>
+      <c r="P124">
+        <v>355.35</v>
+      </c>
+      <c r="Q124">
+        <v>331.44</v>
+      </c>
+      <c r="R124">
+        <v>169.56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B125">
+        <v>7936.6729999999998</v>
+      </c>
+      <c r="C125">
+        <v>7809.68</v>
+      </c>
+      <c r="D125">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E125">
+        <v>4028.23</v>
+      </c>
+      <c r="F125">
+        <v>153.07</v>
+      </c>
+      <c r="G125">
+        <v>110.6224</v>
+      </c>
+      <c r="H125">
+        <v>157.65</v>
+      </c>
+      <c r="I125">
+        <v>93.122900000000001</v>
+      </c>
+      <c r="J125">
+        <v>95.2881</v>
+      </c>
+      <c r="K125">
+        <v>128.35980000000001</v>
+      </c>
+      <c r="L125">
+        <v>905.27</v>
+      </c>
+      <c r="M125">
+        <v>1151.96</v>
+      </c>
+      <c r="N125">
+        <v>287.1431</v>
+      </c>
+      <c r="O125">
+        <v>280.23</v>
+      </c>
+      <c r="P125">
+        <v>355.7</v>
+      </c>
+      <c r="Q125">
+        <v>331.79</v>
+      </c>
+      <c r="R125">
+        <v>170.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B126">
+        <v>8012.6750000000002</v>
+      </c>
+      <c r="C126">
+        <v>7745.78</v>
+      </c>
+      <c r="D126">
+        <v>310.47000000000003</v>
+      </c>
+      <c r="E126">
+        <v>4050.48</v>
+      </c>
+      <c r="F126">
+        <v>154.78</v>
+      </c>
+      <c r="G126">
+        <v>110.97799999999999</v>
+      </c>
+      <c r="H126">
+        <v>159.47</v>
+      </c>
+      <c r="I126">
+        <v>93.082899999999995</v>
+      </c>
+      <c r="J126">
+        <v>95.198499999999996</v>
+      </c>
+      <c r="K126">
+        <v>128.2911</v>
+      </c>
+      <c r="L126">
+        <v>903</v>
+      </c>
+      <c r="M126">
+        <v>1151.94</v>
+      </c>
+      <c r="N126">
+        <v>286.12720000000002</v>
+      </c>
+      <c r="O126">
+        <v>280.5</v>
+      </c>
+      <c r="P126">
+        <v>356.06</v>
+      </c>
+      <c r="Q126">
+        <v>331.75</v>
+      </c>
+      <c r="R126">
+        <v>169.88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B127">
+        <v>8257.723</v>
+      </c>
+      <c r="C127">
+        <v>7964.15</v>
+      </c>
+      <c r="D127">
+        <v>318.63</v>
+      </c>
+      <c r="E127">
+        <v>4031.65</v>
+      </c>
+      <c r="F127">
+        <v>151.78</v>
+      </c>
+      <c r="G127">
+        <v>112.5175</v>
+      </c>
+      <c r="H127">
+        <v>164.04</v>
+      </c>
+      <c r="I127">
+        <v>92.758200000000002</v>
+      </c>
+      <c r="J127">
+        <v>94.878500000000003</v>
+      </c>
+      <c r="K127">
+        <v>128.0573</v>
+      </c>
+      <c r="L127">
+        <v>895.01</v>
+      </c>
+      <c r="M127">
+        <v>1147.28</v>
+      </c>
+      <c r="N127">
+        <v>287.80189999999999</v>
+      </c>
+      <c r="O127">
+        <v>280.39</v>
+      </c>
+      <c r="P127">
+        <v>356.08</v>
+      </c>
+      <c r="Q127">
+        <v>331.87</v>
+      </c>
+      <c r="R127">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B128">
+        <v>8233.4210000000003</v>
+      </c>
+      <c r="C128">
+        <v>7977.03</v>
+      </c>
+      <c r="D128">
+        <v>319.64</v>
+      </c>
+      <c r="E128">
+        <v>4002.53</v>
+      </c>
+      <c r="F128">
+        <v>150.22999999999999</v>
+      </c>
+      <c r="G128">
+        <v>111.9072</v>
+      </c>
+      <c r="H128">
+        <v>163.54</v>
+      </c>
+      <c r="I128">
+        <v>92.659000000000006</v>
+      </c>
+      <c r="J128">
+        <v>94.802199999999999</v>
+      </c>
+      <c r="K128">
+        <v>127.98569999999999</v>
+      </c>
+      <c r="L128">
+        <v>896.96</v>
+      </c>
+      <c r="M128">
+        <v>1148.3399999999999</v>
+      </c>
+      <c r="N128">
+        <v>284.53309999999999</v>
+      </c>
+      <c r="O128">
+        <v>280.75</v>
+      </c>
+      <c r="P128">
+        <v>356.54</v>
+      </c>
+      <c r="Q128">
+        <v>332.18</v>
+      </c>
+      <c r="R128">
+        <v>169.59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B129">
+        <v>8067.558</v>
+      </c>
+      <c r="C129">
+        <v>8000.5</v>
+      </c>
+      <c r="D129">
+        <v>315.55</v>
+      </c>
+      <c r="E129">
+        <v>4001.91</v>
+      </c>
+      <c r="F129">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="G129">
+        <v>111.3095</v>
+      </c>
+      <c r="H129">
+        <v>160.51</v>
+      </c>
+      <c r="I129">
+        <v>92.689599999999999</v>
+      </c>
+      <c r="J129">
+        <v>94.776899999999998</v>
+      </c>
+      <c r="K129">
+        <v>128.0222</v>
+      </c>
+      <c r="L129">
+        <v>902.32</v>
+      </c>
+      <c r="M129">
+        <v>1152.18</v>
+      </c>
+      <c r="N129">
+        <v>285.69220000000001</v>
+      </c>
+      <c r="O129">
+        <v>280.39</v>
+      </c>
+      <c r="P129">
+        <v>355.77</v>
+      </c>
+      <c r="Q129">
+        <v>332.05</v>
+      </c>
+      <c r="R129">
+        <v>169.78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B130">
+        <v>8062.7160000000003</v>
+      </c>
+      <c r="C130">
+        <v>7921.66</v>
+      </c>
+      <c r="D130">
+        <v>314</v>
+      </c>
+      <c r="E130">
+        <v>4035.07</v>
+      </c>
+      <c r="F130">
+        <v>154.1</v>
+      </c>
+      <c r="G130">
+        <v>111.2119</v>
+      </c>
+      <c r="H130">
+        <v>160.46</v>
+      </c>
+      <c r="I130">
+        <v>92.822100000000006</v>
+      </c>
+      <c r="J130">
+        <v>94.894499999999994</v>
+      </c>
+      <c r="K130">
+        <v>128.09729999999999</v>
+      </c>
+      <c r="L130">
+        <v>902.93</v>
+      </c>
+      <c r="M130">
+        <v>1154.01</v>
+      </c>
+      <c r="N130">
+        <v>285.67520000000002</v>
+      </c>
+      <c r="O130">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="P130">
+        <v>356.26</v>
+      </c>
+      <c r="Q130">
+        <v>332.39</v>
+      </c>
+      <c r="R130">
+        <v>170.05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B131">
+        <v>7993.4309999999996</v>
+      </c>
+      <c r="C131">
+        <v>7787.65</v>
+      </c>
+      <c r="D131">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="E131">
+        <v>4043.14</v>
+      </c>
+      <c r="F131">
+        <v>155.53</v>
+      </c>
+      <c r="G131">
+        <v>111.0522</v>
+      </c>
+      <c r="H131">
+        <v>158.94</v>
+      </c>
+      <c r="I131">
+        <v>92.837500000000006</v>
+      </c>
+      <c r="J131">
+        <v>95.083399999999997</v>
+      </c>
+      <c r="K131">
+        <v>128.1704</v>
+      </c>
+      <c r="L131">
+        <v>903.49</v>
+      </c>
+      <c r="M131">
+        <v>1155.82</v>
+      </c>
+      <c r="N131">
+        <v>285.72050000000002</v>
+      </c>
+      <c r="O131">
+        <v>280.33</v>
+      </c>
+      <c r="P131">
+        <v>355.74</v>
+      </c>
+      <c r="Q131">
+        <v>331.33</v>
+      </c>
+      <c r="R131">
+        <v>169.57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B132">
+        <v>8077.8919999999998</v>
+      </c>
+      <c r="C132">
+        <v>7772.86</v>
+      </c>
+      <c r="D132">
+        <v>311.73</v>
+      </c>
+      <c r="E132">
+        <v>4067.56</v>
+      </c>
+      <c r="F132">
+        <v>156.43</v>
+      </c>
+      <c r="G132">
+        <v>111.1767</v>
+      </c>
+      <c r="H132">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="I132">
+        <v>92.722399999999993</v>
+      </c>
+      <c r="J132">
+        <v>94.889799999999994</v>
+      </c>
+      <c r="K132">
+        <v>128.06899999999999</v>
+      </c>
+      <c r="L132">
+        <v>902.1</v>
+      </c>
+      <c r="M132">
+        <v>1155.33</v>
+      </c>
+      <c r="N132">
+        <v>286.02019999999999</v>
+      </c>
+      <c r="O132">
+        <v>280.37</v>
+      </c>
+      <c r="P132">
+        <v>356.08</v>
+      </c>
+      <c r="Q132">
+        <v>332.06</v>
+      </c>
+      <c r="R132">
+        <v>169.94</v>
       </c>
     </row>
   </sheetData>
@@ -6495,10 +7783,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3611"/>
   <sheetViews>
-    <sheetView topLeftCell="A3573" workbookViewId="0">
+    <sheetView topLeftCell="A3603" workbookViewId="0">
       <selection activeCell="C3611" sqref="C3611"/>
     </sheetView>
   </sheetViews>
@@ -57067,11 +58355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R289"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:R137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57095,7 +58383,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1">
@@ -57103,14 +58391,18 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44712</v>
-      </c>
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -57164,6 +58456,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" t="str">
         <f>_xll.BFieldInfo(B$6)</f>
         <v>Last Price</v>
@@ -57234,7 +58527,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -57291,74 +58584,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=108")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=131")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -63355,93 +64648,1312 @@
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B115">
+        <v>8648.2839999999997</v>
+      </c>
+      <c r="C115">
+        <v>8468.5300000000007</v>
+      </c>
+      <c r="D115">
+        <v>336.59</v>
+      </c>
+      <c r="E115">
+        <v>4221.5200000000004</v>
+      </c>
+      <c r="F115">
+        <v>158.27000000000001</v>
+      </c>
+      <c r="G115">
+        <v>114.67310000000001</v>
+      </c>
+      <c r="H115">
+        <v>167.5</v>
+      </c>
+      <c r="I115">
+        <v>93.948700000000002</v>
+      </c>
+      <c r="J115">
+        <v>95.638400000000004</v>
+      </c>
+      <c r="K115">
+        <v>128.96019999999999</v>
+      </c>
+      <c r="L115">
+        <v>880.76</v>
+      </c>
+      <c r="M115">
+        <v>1169.79</v>
+      </c>
+      <c r="N115">
+        <v>293.82600000000002</v>
+      </c>
+      <c r="O115">
+        <v>280.49</v>
+      </c>
+      <c r="P115">
+        <v>355.45</v>
+      </c>
+      <c r="Q115">
+        <v>333.44</v>
+      </c>
+      <c r="R115">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B116">
+        <v>8809.1790000000001</v>
+      </c>
+      <c r="C116">
+        <v>8550.3799999999992</v>
+      </c>
+      <c r="D116">
+        <v>341.08</v>
+      </c>
+      <c r="E116">
+        <v>4222.55</v>
+      </c>
+      <c r="F116">
+        <v>158.16</v>
+      </c>
+      <c r="G116">
+        <v>115.17359999999999</v>
+      </c>
+      <c r="H116">
+        <v>168.74</v>
+      </c>
+      <c r="I116">
+        <v>93.763599999999997</v>
+      </c>
+      <c r="J116">
+        <v>95.5458</v>
+      </c>
+      <c r="K116">
+        <v>128.86750000000001</v>
+      </c>
+      <c r="L116">
+        <v>874.38</v>
+      </c>
+      <c r="M116">
+        <v>1169.43</v>
+      </c>
+      <c r="N116">
+        <v>292.9896</v>
+      </c>
+      <c r="O116">
+        <v>280.70999999999998</v>
+      </c>
+      <c r="P116">
+        <v>355.78</v>
+      </c>
+      <c r="Q116">
+        <v>333.63</v>
+      </c>
+      <c r="R116">
+        <v>171.17</v>
+      </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B117">
+        <v>8665.8009999999995</v>
+      </c>
+      <c r="C117">
+        <v>8524.5400000000009</v>
+      </c>
+      <c r="D117">
+        <v>337.31</v>
+      </c>
+      <c r="E117">
+        <v>4209</v>
+      </c>
+      <c r="F117">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="G117">
+        <v>114.6434</v>
+      </c>
+      <c r="H117">
+        <v>167.83</v>
+      </c>
+      <c r="I117">
+        <v>93.801100000000005</v>
+      </c>
+      <c r="J117">
+        <v>95.553799999999995</v>
+      </c>
+      <c r="K117">
+        <v>128.89189999999999</v>
+      </c>
+      <c r="L117">
+        <v>880.41</v>
+      </c>
+      <c r="M117">
+        <v>1171.57</v>
+      </c>
+      <c r="N117">
+        <v>292.38049999999998</v>
+      </c>
+      <c r="O117">
+        <v>280.87</v>
+      </c>
+      <c r="P117">
+        <v>355.98</v>
+      </c>
+      <c r="Q117">
+        <v>333.82</v>
+      </c>
+      <c r="R117">
+        <v>171.6</v>
+      </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B118">
+        <v>8693.0570000000007</v>
+      </c>
+      <c r="C118">
+        <v>8647.91</v>
+      </c>
+      <c r="D118">
+        <v>338.87</v>
+      </c>
+      <c r="E118">
+        <v>4159.0600000000004</v>
+      </c>
+      <c r="F118">
+        <v>154.12</v>
+      </c>
+      <c r="G118">
+        <v>114.5215</v>
+      </c>
+      <c r="H118">
+        <v>168.06</v>
+      </c>
+      <c r="I118">
+        <v>93.754999999999995</v>
+      </c>
+      <c r="J118">
+        <v>95.502300000000005</v>
+      </c>
+      <c r="K118">
+        <v>128.86089999999999</v>
+      </c>
+      <c r="L118">
+        <v>879.61</v>
+      </c>
+      <c r="M118">
+        <v>1169.26</v>
+      </c>
+      <c r="N118">
+        <v>292.55739999999997</v>
+      </c>
+      <c r="O118">
+        <v>280.56</v>
+      </c>
+      <c r="P118">
+        <v>355.64</v>
+      </c>
+      <c r="Q118">
+        <v>333.57</v>
+      </c>
+      <c r="R118">
+        <v>171.44</v>
+      </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B119">
+        <v>8776.0889999999999</v>
+      </c>
+      <c r="C119">
+        <v>8576.5400000000009</v>
+      </c>
+      <c r="D119">
+        <v>340.17</v>
+      </c>
+      <c r="E119">
+        <v>4189.1099999999997</v>
+      </c>
+      <c r="F119">
+        <v>156.15</v>
+      </c>
+      <c r="G119">
+        <v>114.7586</v>
+      </c>
+      <c r="H119">
+        <v>168.58</v>
+      </c>
+      <c r="I119">
+        <v>93.699600000000004</v>
+      </c>
+      <c r="J119">
+        <v>95.497900000000001</v>
+      </c>
+      <c r="K119">
+        <v>128.83879999999999</v>
+      </c>
+      <c r="L119">
+        <v>876.67</v>
+      </c>
+      <c r="M119">
+        <v>1166.43</v>
+      </c>
+      <c r="N119">
+        <v>292.2568</v>
+      </c>
+      <c r="O119">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="P119">
+        <v>355.72</v>
+      </c>
+      <c r="Q119">
+        <v>333.68</v>
+      </c>
+      <c r="R119">
+        <v>171.12</v>
+      </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B120">
+        <v>8681.6839999999993</v>
+      </c>
+      <c r="C120">
+        <v>8536.41</v>
+      </c>
+      <c r="D120">
+        <v>338.28</v>
+      </c>
+      <c r="E120">
+        <v>4163.7700000000004</v>
+      </c>
+      <c r="F120">
+        <v>154.5</v>
+      </c>
+      <c r="G120">
+        <v>114.1202</v>
+      </c>
+      <c r="H120">
+        <v>168.04</v>
+      </c>
+      <c r="I120">
+        <v>93.687200000000004</v>
+      </c>
+      <c r="J120">
+        <v>95.4452</v>
+      </c>
+      <c r="K120">
+        <v>128.82140000000001</v>
+      </c>
+      <c r="L120">
+        <v>880.71</v>
+      </c>
+      <c r="M120">
+        <v>1165.82</v>
+      </c>
+      <c r="N120">
+        <v>292.07150000000001</v>
+      </c>
+      <c r="O120">
+        <v>280.81</v>
+      </c>
+      <c r="P120">
+        <v>355.86</v>
+      </c>
+      <c r="Q120">
+        <v>333.78</v>
+      </c>
+      <c r="R120">
+        <v>170.97</v>
+      </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B121">
+        <v>8475.9120000000003</v>
+      </c>
+      <c r="C121">
+        <v>8391.15</v>
+      </c>
+      <c r="D121">
+        <v>331.46</v>
+      </c>
+      <c r="E121">
+        <v>4155.17</v>
+      </c>
+      <c r="F121">
+        <v>155.22999999999999</v>
+      </c>
+      <c r="G121">
+        <v>113.5078</v>
+      </c>
+      <c r="H121">
+        <v>166.16</v>
+      </c>
+      <c r="I121">
+        <v>93.726100000000002</v>
+      </c>
+      <c r="J121">
+        <v>95.442700000000002</v>
+      </c>
+      <c r="K121">
+        <v>128.83369999999999</v>
+      </c>
+      <c r="L121">
+        <v>888</v>
+      </c>
+      <c r="M121">
+        <v>1163.27</v>
+      </c>
+      <c r="N121">
+        <v>292.18700000000001</v>
+      </c>
+      <c r="O121">
+        <v>279.95999999999998</v>
+      </c>
+      <c r="P121">
+        <v>354.69</v>
+      </c>
+      <c r="Q121">
+        <v>331.73</v>
+      </c>
+      <c r="R121">
+        <v>170.95</v>
+      </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B122">
+        <v>8229.4259999999995</v>
+      </c>
+      <c r="C122">
+        <v>8108.95</v>
+      </c>
+      <c r="D122">
+        <v>322.39</v>
+      </c>
+      <c r="E122">
+        <v>4103.08</v>
+      </c>
+      <c r="F122">
+        <v>154.51</v>
+      </c>
+      <c r="G122">
+        <v>112.6748</v>
+      </c>
+      <c r="H122">
+        <v>163.11000000000001</v>
+      </c>
+      <c r="I122">
+        <v>93.967500000000001</v>
+      </c>
+      <c r="J122">
+        <v>95.713200000000001</v>
+      </c>
+      <c r="K122">
+        <v>128.9804</v>
+      </c>
+      <c r="L122">
+        <v>896.63</v>
+      </c>
+      <c r="M122">
+        <v>1163.08</v>
+      </c>
+      <c r="N122">
+        <v>291.24810000000002</v>
+      </c>
+      <c r="O122">
+        <v>279.89999999999998</v>
+      </c>
+      <c r="P122">
+        <v>354.12</v>
+      </c>
+      <c r="Q122">
+        <v>330.55</v>
+      </c>
+      <c r="R122">
+        <v>170.76</v>
+      </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B123">
+        <v>7910.4279999999999</v>
+      </c>
+      <c r="C123">
+        <v>7891.09</v>
+      </c>
+      <c r="D123">
+        <v>310.61</v>
+      </c>
+      <c r="E123">
+        <v>3971.49</v>
+      </c>
+      <c r="F123">
+        <v>148.51</v>
+      </c>
+      <c r="G123">
+        <v>112.6353</v>
+      </c>
+      <c r="H123">
+        <v>158.22999999999999</v>
+      </c>
+      <c r="I123">
+        <v>94.820599999999999</v>
+      </c>
+      <c r="J123">
+        <v>96.454300000000003</v>
+      </c>
+      <c r="K123">
+        <v>129.51150000000001</v>
+      </c>
+      <c r="L123">
+        <v>902.34</v>
+      </c>
+      <c r="M123">
+        <v>1155.43</v>
+      </c>
+      <c r="N123">
+        <v>287.24950000000001</v>
+      </c>
+      <c r="O123">
+        <v>277.58999999999997</v>
+      </c>
+      <c r="P123">
+        <v>354.05</v>
+      </c>
+      <c r="Q123">
+        <v>328.14</v>
+      </c>
+      <c r="R123">
+        <v>171.27</v>
+      </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B124">
+        <v>7883.3410000000003</v>
+      </c>
+      <c r="C124">
+        <v>7829.55</v>
+      </c>
+      <c r="D124">
+        <v>308.64999999999998</v>
+      </c>
+      <c r="E124">
+        <v>3934.82</v>
+      </c>
+      <c r="F124">
+        <v>146.13</v>
+      </c>
+      <c r="G124">
+        <v>111.511</v>
+      </c>
+      <c r="H124">
+        <v>157.59</v>
+      </c>
+      <c r="I124">
+        <v>94.619900000000001</v>
+      </c>
+      <c r="J124">
+        <v>96.593000000000004</v>
+      </c>
+      <c r="K124">
+        <v>129.4881</v>
+      </c>
+      <c r="L124">
+        <v>904.89</v>
+      </c>
+      <c r="M124">
+        <v>1155.54</v>
+      </c>
+      <c r="N124">
+        <v>287.84039999999999</v>
+      </c>
+      <c r="O124">
+        <v>278.66000000000003</v>
+      </c>
+      <c r="P124">
+        <v>354.4</v>
+      </c>
+      <c r="Q124">
+        <v>330.22</v>
+      </c>
+      <c r="R124">
+        <v>170.85</v>
+      </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B125">
+        <v>7998.6189999999997</v>
+      </c>
+      <c r="C125">
+        <v>7958.29</v>
+      </c>
+      <c r="D125">
+        <v>312.06</v>
+      </c>
+      <c r="E125">
+        <v>4009.71</v>
+      </c>
+      <c r="F125">
+        <v>149.38</v>
+      </c>
+      <c r="G125">
+        <v>111.1835</v>
+      </c>
+      <c r="H125">
+        <v>159.43</v>
+      </c>
+      <c r="I125">
+        <v>93.5017</v>
+      </c>
+      <c r="J125">
+        <v>95.749600000000001</v>
+      </c>
+      <c r="K125">
+        <v>128.69110000000001</v>
+      </c>
+      <c r="L125">
+        <v>902.75</v>
+      </c>
+      <c r="M125">
+        <v>1155.08</v>
+      </c>
+      <c r="N125">
+        <v>287.88510000000002</v>
+      </c>
+      <c r="O125">
+        <v>279.43</v>
+      </c>
+      <c r="P125">
+        <v>355.16</v>
+      </c>
+      <c r="Q125">
+        <v>331.32</v>
+      </c>
+      <c r="R125">
+        <v>170.18</v>
+      </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B126">
+        <v>7739.3879999999999</v>
+      </c>
+      <c r="C126">
+        <v>7723.05</v>
+      </c>
+      <c r="D126">
+        <v>304.55</v>
+      </c>
+      <c r="E126">
+        <v>4008.65</v>
+      </c>
+      <c r="F126">
+        <v>150.53</v>
+      </c>
+      <c r="G126">
+        <v>111.1417</v>
+      </c>
+      <c r="H126">
+        <v>154.57</v>
+      </c>
+      <c r="I126">
+        <v>94.153099999999995</v>
+      </c>
+      <c r="J126">
+        <v>96.234099999999998</v>
+      </c>
+      <c r="K126">
+        <v>129.26</v>
+      </c>
+      <c r="L126">
+        <v>907.41</v>
+      </c>
+      <c r="M126">
+        <v>1154.82</v>
+      </c>
+      <c r="N126">
+        <v>290.25220000000002</v>
+      </c>
+      <c r="O126">
+        <v>279.32</v>
+      </c>
+      <c r="P126">
+        <v>354.68</v>
+      </c>
+      <c r="Q126">
+        <v>329.89</v>
+      </c>
+      <c r="R126">
+        <v>170.73</v>
+      </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B127">
+        <v>7756.5950000000003</v>
+      </c>
+      <c r="C127">
+        <v>7746.82</v>
+      </c>
+      <c r="D127">
+        <v>303.92</v>
+      </c>
+      <c r="E127">
+        <v>4024.97</v>
+      </c>
+      <c r="F127">
+        <v>151.54</v>
+      </c>
+      <c r="G127">
+        <v>110.34229999999999</v>
+      </c>
+      <c r="H127">
+        <v>154.12</v>
+      </c>
+      <c r="I127">
+        <v>93.622399999999999</v>
+      </c>
+      <c r="J127">
+        <v>95.996899999999997</v>
+      </c>
+      <c r="K127">
+        <v>128.7765</v>
+      </c>
+      <c r="L127">
+        <v>908.48</v>
+      </c>
+      <c r="M127">
+        <v>1152.6199999999999</v>
+      </c>
+      <c r="N127">
+        <v>291.83569999999997</v>
+      </c>
+      <c r="O127">
+        <v>279.94</v>
+      </c>
+      <c r="P127">
+        <v>355.87</v>
+      </c>
+      <c r="Q127">
+        <v>331.71</v>
+      </c>
+      <c r="R127">
+        <v>170.12</v>
+      </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B128">
+        <v>7756.5950000000003</v>
+      </c>
+      <c r="C128">
+        <v>7817.5</v>
+      </c>
+      <c r="D128">
+        <v>304.77</v>
+      </c>
+      <c r="E128">
+        <v>4024.97</v>
+      </c>
+      <c r="F128">
+        <v>151.54</v>
+      </c>
+      <c r="G128">
+        <v>110.34229999999999</v>
+      </c>
+      <c r="H128">
+        <v>154.12</v>
+      </c>
+      <c r="I128">
+        <v>93.622399999999999</v>
+      </c>
+      <c r="J128">
+        <v>95.996899999999997</v>
+      </c>
+      <c r="K128">
+        <v>128.7765</v>
+      </c>
+      <c r="L128">
+        <v>908.48</v>
+      </c>
+      <c r="M128">
+        <v>1152.6199999999999</v>
+      </c>
+      <c r="N128">
+        <v>291.83569999999997</v>
+      </c>
+      <c r="O128">
+        <v>279.94</v>
+      </c>
+      <c r="P128">
+        <v>355.87</v>
+      </c>
+      <c r="Q128">
+        <v>331.71</v>
+      </c>
+      <c r="R128">
+        <v>170.12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B129">
+        <v>7946.8860000000004</v>
+      </c>
+      <c r="C129">
+        <v>7875.87</v>
+      </c>
+      <c r="D129">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="E129">
+        <v>3978.55</v>
+      </c>
+      <c r="F129">
+        <v>147.91999999999999</v>
+      </c>
+      <c r="G129">
+        <v>110.9615</v>
+      </c>
+      <c r="H129">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="I129">
+        <v>93.200299999999999</v>
+      </c>
+      <c r="J129">
+        <v>95.279600000000002</v>
+      </c>
+      <c r="K129">
+        <v>128.37100000000001</v>
+      </c>
+      <c r="L129">
+        <v>903.68</v>
+      </c>
+      <c r="M129">
+        <v>1150.4100000000001</v>
+      </c>
+      <c r="N129">
+        <v>290.11020000000002</v>
+      </c>
+      <c r="O129">
+        <v>279.94</v>
+      </c>
+      <c r="P129">
+        <v>355.35</v>
+      </c>
+      <c r="Q129">
+        <v>331.44</v>
+      </c>
+      <c r="R129">
+        <v>169.56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B130">
+        <v>7936.6729999999998</v>
+      </c>
+      <c r="C130">
+        <v>7809.68</v>
+      </c>
+      <c r="D130">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E130">
+        <v>4028.23</v>
+      </c>
+      <c r="F130">
+        <v>153.07</v>
+      </c>
+      <c r="G130">
+        <v>110.6224</v>
+      </c>
+      <c r="H130">
+        <v>157.65</v>
+      </c>
+      <c r="I130">
+        <v>93.122900000000001</v>
+      </c>
+      <c r="J130">
+        <v>95.2881</v>
+      </c>
+      <c r="K130">
+        <v>128.35980000000001</v>
+      </c>
+      <c r="L130">
+        <v>905.27</v>
+      </c>
+      <c r="M130">
+        <v>1151.96</v>
+      </c>
+      <c r="N130">
+        <v>287.1431</v>
+      </c>
+      <c r="O130">
+        <v>280.23</v>
+      </c>
+      <c r="P130">
+        <v>355.7</v>
+      </c>
+      <c r="Q130">
+        <v>331.79</v>
+      </c>
+      <c r="R130">
+        <v>170.09</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B131">
+        <v>8012.6750000000002</v>
+      </c>
+      <c r="C131">
+        <v>7745.78</v>
+      </c>
+      <c r="D131">
+        <v>310.47000000000003</v>
+      </c>
+      <c r="E131">
+        <v>4050.48</v>
+      </c>
+      <c r="F131">
+        <v>154.78</v>
+      </c>
+      <c r="G131">
+        <v>110.97799999999999</v>
+      </c>
+      <c r="H131">
+        <v>159.47</v>
+      </c>
+      <c r="I131">
+        <v>93.082899999999995</v>
+      </c>
+      <c r="J131">
+        <v>95.198499999999996</v>
+      </c>
+      <c r="K131">
+        <v>128.2911</v>
+      </c>
+      <c r="L131">
+        <v>903</v>
+      </c>
+      <c r="M131">
+        <v>1151.94</v>
+      </c>
+      <c r="N131">
+        <v>286.12720000000002</v>
+      </c>
+      <c r="O131">
+        <v>280.5</v>
+      </c>
+      <c r="P131">
+        <v>356.06</v>
+      </c>
+      <c r="Q131">
+        <v>331.75</v>
+      </c>
+      <c r="R131">
+        <v>169.88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B132">
+        <v>8257.723</v>
+      </c>
+      <c r="C132">
+        <v>7964.15</v>
+      </c>
+      <c r="D132">
+        <v>318.63</v>
+      </c>
+      <c r="E132">
+        <v>4031.65</v>
+      </c>
+      <c r="F132">
+        <v>151.78</v>
+      </c>
+      <c r="G132">
+        <v>112.5175</v>
+      </c>
+      <c r="H132">
+        <v>164.04</v>
+      </c>
+      <c r="I132">
+        <v>92.758200000000002</v>
+      </c>
+      <c r="J132">
+        <v>94.878500000000003</v>
+      </c>
+      <c r="K132">
+        <v>128.0573</v>
+      </c>
+      <c r="L132">
+        <v>895.01</v>
+      </c>
+      <c r="M132">
+        <v>1147.28</v>
+      </c>
+      <c r="N132">
+        <v>287.80189999999999</v>
+      </c>
+      <c r="O132">
+        <v>280.39</v>
+      </c>
+      <c r="P132">
+        <v>356.08</v>
+      </c>
+      <c r="Q132">
+        <v>331.87</v>
+      </c>
+      <c r="R132">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B133">
+        <v>8233.4210000000003</v>
+      </c>
+      <c r="C133">
+        <v>7977.03</v>
+      </c>
+      <c r="D133">
+        <v>319.64</v>
+      </c>
+      <c r="E133">
+        <v>4002.53</v>
+      </c>
+      <c r="F133">
+        <v>150.22999999999999</v>
+      </c>
+      <c r="G133">
+        <v>111.9072</v>
+      </c>
+      <c r="H133">
+        <v>163.54</v>
+      </c>
+      <c r="I133">
+        <v>92.659000000000006</v>
+      </c>
+      <c r="J133">
+        <v>94.802199999999999</v>
+      </c>
+      <c r="K133">
+        <v>127.98569999999999</v>
+      </c>
+      <c r="L133">
+        <v>896.96</v>
+      </c>
+      <c r="M133">
+        <v>1148.3399999999999</v>
+      </c>
+      <c r="N133">
+        <v>284.53309999999999</v>
+      </c>
+      <c r="O133">
+        <v>280.75</v>
+      </c>
+      <c r="P133">
+        <v>356.54</v>
+      </c>
+      <c r="Q133">
+        <v>332.18</v>
+      </c>
+      <c r="R133">
+        <v>169.59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B134">
+        <v>8067.558</v>
+      </c>
+      <c r="C134">
+        <v>8000.5</v>
+      </c>
+      <c r="D134">
+        <v>315.55</v>
+      </c>
+      <c r="E134">
+        <v>4001.91</v>
+      </c>
+      <c r="F134">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="G134">
+        <v>111.3095</v>
+      </c>
+      <c r="H134">
+        <v>160.51</v>
+      </c>
+      <c r="I134">
+        <v>92.689599999999999</v>
+      </c>
+      <c r="J134">
+        <v>94.776899999999998</v>
+      </c>
+      <c r="K134">
+        <v>128.0222</v>
+      </c>
+      <c r="L134">
+        <v>902.32</v>
+      </c>
+      <c r="M134">
+        <v>1152.18</v>
+      </c>
+      <c r="N134">
+        <v>285.69220000000001</v>
+      </c>
+      <c r="O134">
+        <v>280.39</v>
+      </c>
+      <c r="P134">
+        <v>355.77</v>
+      </c>
+      <c r="Q134">
+        <v>332.05</v>
+      </c>
+      <c r="R134">
+        <v>169.78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B135">
+        <v>8062.7160000000003</v>
+      </c>
+      <c r="C135">
+        <v>7921.66</v>
+      </c>
+      <c r="D135">
+        <v>314</v>
+      </c>
+      <c r="E135">
+        <v>4035.07</v>
+      </c>
+      <c r="F135">
+        <v>154.1</v>
+      </c>
+      <c r="G135">
+        <v>111.2119</v>
+      </c>
+      <c r="H135">
+        <v>160.46</v>
+      </c>
+      <c r="I135">
+        <v>92.822100000000006</v>
+      </c>
+      <c r="J135">
+        <v>94.894499999999994</v>
+      </c>
+      <c r="K135">
+        <v>128.09729999999999</v>
+      </c>
+      <c r="L135">
+        <v>902.93</v>
+      </c>
+      <c r="M135">
+        <v>1154.01</v>
+      </c>
+      <c r="N135">
+        <v>285.67520000000002</v>
+      </c>
+      <c r="O135">
+        <v>280.72000000000003</v>
+      </c>
+      <c r="P135">
+        <v>356.26</v>
+      </c>
+      <c r="Q135">
+        <v>332.39</v>
+      </c>
+      <c r="R135">
+        <v>170.05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B136">
+        <v>7993.4309999999996</v>
+      </c>
+      <c r="C136">
+        <v>7787.65</v>
+      </c>
+      <c r="D136">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="E136">
+        <v>4043.14</v>
+      </c>
+      <c r="F136">
+        <v>155.53</v>
+      </c>
+      <c r="G136">
+        <v>111.0522</v>
+      </c>
+      <c r="H136">
+        <v>158.94</v>
+      </c>
+      <c r="I136">
+        <v>92.837500000000006</v>
+      </c>
+      <c r="J136">
+        <v>95.083399999999997</v>
+      </c>
+      <c r="K136">
+        <v>128.1704</v>
+      </c>
+      <c r="L136">
+        <v>903.49</v>
+      </c>
+      <c r="M136">
+        <v>1155.82</v>
+      </c>
+      <c r="N136">
+        <v>285.72050000000002</v>
+      </c>
+      <c r="O136">
+        <v>280.33</v>
+      </c>
+      <c r="P136">
+        <v>355.74</v>
+      </c>
+      <c r="Q136">
+        <v>331.33</v>
+      </c>
+      <c r="R136">
+        <v>169.57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B137">
+        <v>8077.8919999999998</v>
+      </c>
+      <c r="C137">
+        <v>7772.86</v>
+      </c>
+      <c r="D137">
+        <v>311.73</v>
+      </c>
+      <c r="E137">
+        <v>4067.56</v>
+      </c>
+      <c r="F137">
+        <v>156.43</v>
+      </c>
+      <c r="G137">
+        <v>111.1767</v>
+      </c>
+      <c r="H137">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="I137">
+        <v>92.722399999999993</v>
+      </c>
+      <c r="J137">
+        <v>94.889799999999994</v>
+      </c>
+      <c r="K137">
+        <v>128.06899999999999</v>
+      </c>
+      <c r="L137">
+        <v>902.1</v>
+      </c>
+      <c r="M137">
+        <v>1155.33</v>
+      </c>
+      <c r="N137">
+        <v>286.02019999999999</v>
+      </c>
+      <c r="O137">
+        <v>280.37</v>
+      </c>
+      <c r="P137">
+        <v>356.08</v>
+      </c>
+      <c r="Q137">
+        <v>332.06</v>
+      </c>
+      <c r="R137">
+        <v>169.94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -63860,24 +66372,6 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63885,11 +66379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\GitHub\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0939DA-E5C9-4493-9B2A-5718BCB7E4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -24,9 +25,8 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_4" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,84 +177,102 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2498000376</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13443209491875865478</stp>
+        <stp>BDH|14373309094453461515</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15254198816498138559</stp>
+        <tr r="K7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12376458535329946451</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14047895025460654716</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|15219073193266403418</stp>
         <tr r="O7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4292474235</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17104415084249048216</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|17676840938570904020</stp>
+        <tr r="D7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3114597649</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10780736232050436488</stp>
-        <tr r="H7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3312458933</v>
-        <stp/>
-        <stp>BDH|11392435143047097029</stp>
-        <tr r="J7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3684680868</v>
-        <stp/>
-        <stp>BDH|13681390364586674687</stp>
-        <tr r="R7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3902279735</v>
-        <stp/>
-        <stp>BDH|12813523539692123174</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2648455992</v>
-        <stp/>
-        <stp>BDH|10651658260607967001</stp>
-        <tr r="E7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4262317047</v>
-        <stp/>
-        <stp>BDH|16172402952033261032</stp>
-        <tr r="F7" s="4"/>
+        <stp>BDH|17737690590601603895</stp>
+        <tr r="P7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4166306348</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7372156945517956837</stp>
-        <tr r="I7" s="4"/>
+        <stp>BDH|4440947643953867604</stp>
+        <tr r="J7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2793532776</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4044657110195260995</stp>
-        <tr r="K7" s="4"/>
+        <stp>BDH|8374361155286374440</stp>
+        <tr r="H7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3867305555</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7247267998221805998</stp>
-        <tr r="P7" s="4"/>
+        <stp>BDH|8741188097968377687</stp>
+        <tr r="R7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2967649377</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|5650835060327148944</stp>
+        <stp>BDH|7767975377752466408</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6781921016611909505</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9843400890588627834</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7202116120449006907</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9968902354943736400</stp>
         <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3889401973</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|7940218944212635318</stp>
-        <tr r="A7" s="4"/>
+        <stp>BDH|6868970648471322859</stp>
+        <tr r="Q7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -397,28 +415,10 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1056016836</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|842508002716740427</stp>
-        <tr r="D7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...1414537409</v>
-        <stp/>
-        <stp>BDH|872442251777243102</stp>
+        <stp>BDH|906156193663958325</stp>
         <tr r="G7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4214137878</v>
-        <stp/>
-        <stp>BDH|243377346286374749</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...3080481446</v>
-        <stp/>
-        <stp>BDH|777656755506079947</stp>
-        <tr r="Q7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -687,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:R132"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66:R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5800,7 +5800,7 @@
         <v>331.91</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44694</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>332.03</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44697</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>332.41</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44698</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>332.41</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44699</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44700</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44701</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>332.67</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44704</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>333.18</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44705</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>333.17</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44706</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>333.37</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44707</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>333.32</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44708</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44711</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44712</v>
       </c>
@@ -6487,1294 +6487,6 @@
       </c>
       <c r="Q109">
         <v>333.63</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B110">
-        <v>8648.2839999999997</v>
-      </c>
-      <c r="C110">
-        <v>8468.5300000000007</v>
-      </c>
-      <c r="D110">
-        <v>336.59</v>
-      </c>
-      <c r="E110">
-        <v>4221.5200000000004</v>
-      </c>
-      <c r="F110">
-        <v>158.27000000000001</v>
-      </c>
-      <c r="G110">
-        <v>114.67310000000001</v>
-      </c>
-      <c r="H110">
-        <v>167.5</v>
-      </c>
-      <c r="I110">
-        <v>93.948700000000002</v>
-      </c>
-      <c r="J110">
-        <v>95.638400000000004</v>
-      </c>
-      <c r="K110">
-        <v>128.96019999999999</v>
-      </c>
-      <c r="L110">
-        <v>880.76</v>
-      </c>
-      <c r="M110">
-        <v>1169.79</v>
-      </c>
-      <c r="N110">
-        <v>293.82600000000002</v>
-      </c>
-      <c r="O110">
-        <v>280.49</v>
-      </c>
-      <c r="P110">
-        <v>355.45</v>
-      </c>
-      <c r="Q110">
-        <v>333.44</v>
-      </c>
-      <c r="R110">
-        <v>171.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B111">
-        <v>8809.1790000000001</v>
-      </c>
-      <c r="C111">
-        <v>8550.3799999999992</v>
-      </c>
-      <c r="D111">
-        <v>341.08</v>
-      </c>
-      <c r="E111">
-        <v>4222.55</v>
-      </c>
-      <c r="F111">
-        <v>158.16</v>
-      </c>
-      <c r="G111">
-        <v>115.17359999999999</v>
-      </c>
-      <c r="H111">
-        <v>168.74</v>
-      </c>
-      <c r="I111">
-        <v>93.763599999999997</v>
-      </c>
-      <c r="J111">
-        <v>95.5458</v>
-      </c>
-      <c r="K111">
-        <v>128.86750000000001</v>
-      </c>
-      <c r="L111">
-        <v>874.38</v>
-      </c>
-      <c r="M111">
-        <v>1169.43</v>
-      </c>
-      <c r="N111">
-        <v>292.9896</v>
-      </c>
-      <c r="O111">
-        <v>280.70999999999998</v>
-      </c>
-      <c r="P111">
-        <v>355.78</v>
-      </c>
-      <c r="Q111">
-        <v>333.63</v>
-      </c>
-      <c r="R111">
-        <v>171.17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B112">
-        <v>8665.8009999999995</v>
-      </c>
-      <c r="C112">
-        <v>8524.5400000000009</v>
-      </c>
-      <c r="D112">
-        <v>337.31</v>
-      </c>
-      <c r="E112">
-        <v>4209</v>
-      </c>
-      <c r="F112">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="G112">
-        <v>114.6434</v>
-      </c>
-      <c r="H112">
-        <v>167.83</v>
-      </c>
-      <c r="I112">
-        <v>93.801100000000005</v>
-      </c>
-      <c r="J112">
-        <v>95.553799999999995</v>
-      </c>
-      <c r="K112">
-        <v>128.89189999999999</v>
-      </c>
-      <c r="L112">
-        <v>880.41</v>
-      </c>
-      <c r="M112">
-        <v>1171.57</v>
-      </c>
-      <c r="N112">
-        <v>292.38049999999998</v>
-      </c>
-      <c r="O112">
-        <v>280.87</v>
-      </c>
-      <c r="P112">
-        <v>355.98</v>
-      </c>
-      <c r="Q112">
-        <v>333.82</v>
-      </c>
-      <c r="R112">
-        <v>171.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>44718</v>
-      </c>
-      <c r="B113">
-        <v>8693.0570000000007</v>
-      </c>
-      <c r="C113">
-        <v>8647.91</v>
-      </c>
-      <c r="D113">
-        <v>338.87</v>
-      </c>
-      <c r="E113">
-        <v>4159.0600000000004</v>
-      </c>
-      <c r="F113">
-        <v>154.12</v>
-      </c>
-      <c r="G113">
-        <v>114.5215</v>
-      </c>
-      <c r="H113">
-        <v>168.06</v>
-      </c>
-      <c r="I113">
-        <v>93.754999999999995</v>
-      </c>
-      <c r="J113">
-        <v>95.502300000000005</v>
-      </c>
-      <c r="K113">
-        <v>128.86089999999999</v>
-      </c>
-      <c r="L113">
-        <v>879.61</v>
-      </c>
-      <c r="M113">
-        <v>1169.26</v>
-      </c>
-      <c r="N113">
-        <v>292.55739999999997</v>
-      </c>
-      <c r="O113">
-        <v>280.56</v>
-      </c>
-      <c r="P113">
-        <v>355.64</v>
-      </c>
-      <c r="Q113">
-        <v>333.57</v>
-      </c>
-      <c r="R113">
-        <v>171.44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>44719</v>
-      </c>
-      <c r="B114">
-        <v>8776.0889999999999</v>
-      </c>
-      <c r="C114">
-        <v>8576.5400000000009</v>
-      </c>
-      <c r="D114">
-        <v>340.17</v>
-      </c>
-      <c r="E114">
-        <v>4189.1099999999997</v>
-      </c>
-      <c r="F114">
-        <v>156.15</v>
-      </c>
-      <c r="G114">
-        <v>114.7586</v>
-      </c>
-      <c r="H114">
-        <v>168.58</v>
-      </c>
-      <c r="I114">
-        <v>93.699600000000004</v>
-      </c>
-      <c r="J114">
-        <v>95.497900000000001</v>
-      </c>
-      <c r="K114">
-        <v>128.83879999999999</v>
-      </c>
-      <c r="L114">
-        <v>876.67</v>
-      </c>
-      <c r="M114">
-        <v>1166.43</v>
-      </c>
-      <c r="N114">
-        <v>292.2568</v>
-      </c>
-      <c r="O114">
-        <v>280.72000000000003</v>
-      </c>
-      <c r="P114">
-        <v>355.72</v>
-      </c>
-      <c r="Q114">
-        <v>333.68</v>
-      </c>
-      <c r="R114">
-        <v>171.12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>44720</v>
-      </c>
-      <c r="B115">
-        <v>8681.6839999999993</v>
-      </c>
-      <c r="C115">
-        <v>8536.41</v>
-      </c>
-      <c r="D115">
-        <v>338.28</v>
-      </c>
-      <c r="E115">
-        <v>4163.7700000000004</v>
-      </c>
-      <c r="F115">
-        <v>154.5</v>
-      </c>
-      <c r="G115">
-        <v>114.1202</v>
-      </c>
-      <c r="H115">
-        <v>168.04</v>
-      </c>
-      <c r="I115">
-        <v>93.687200000000004</v>
-      </c>
-      <c r="J115">
-        <v>95.4452</v>
-      </c>
-      <c r="K115">
-        <v>128.82140000000001</v>
-      </c>
-      <c r="L115">
-        <v>880.71</v>
-      </c>
-      <c r="M115">
-        <v>1165.82</v>
-      </c>
-      <c r="N115">
-        <v>292.07150000000001</v>
-      </c>
-      <c r="O115">
-        <v>280.81</v>
-      </c>
-      <c r="P115">
-        <v>355.86</v>
-      </c>
-      <c r="Q115">
-        <v>333.78</v>
-      </c>
-      <c r="R115">
-        <v>170.97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>44721</v>
-      </c>
-      <c r="B116">
-        <v>8475.9120000000003</v>
-      </c>
-      <c r="C116">
-        <v>8391.15</v>
-      </c>
-      <c r="D116">
-        <v>331.46</v>
-      </c>
-      <c r="E116">
-        <v>4155.17</v>
-      </c>
-      <c r="F116">
-        <v>155.22999999999999</v>
-      </c>
-      <c r="G116">
-        <v>113.5078</v>
-      </c>
-      <c r="H116">
-        <v>166.16</v>
-      </c>
-      <c r="I116">
-        <v>93.726100000000002</v>
-      </c>
-      <c r="J116">
-        <v>95.442700000000002</v>
-      </c>
-      <c r="K116">
-        <v>128.83369999999999</v>
-      </c>
-      <c r="L116">
-        <v>888</v>
-      </c>
-      <c r="M116">
-        <v>1163.27</v>
-      </c>
-      <c r="N116">
-        <v>292.18700000000001</v>
-      </c>
-      <c r="O116">
-        <v>279.95999999999998</v>
-      </c>
-      <c r="P116">
-        <v>354.69</v>
-      </c>
-      <c r="Q116">
-        <v>331.73</v>
-      </c>
-      <c r="R116">
-        <v>170.95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>44722</v>
-      </c>
-      <c r="B117">
-        <v>8229.4259999999995</v>
-      </c>
-      <c r="C117">
-        <v>8108.95</v>
-      </c>
-      <c r="D117">
-        <v>322.39</v>
-      </c>
-      <c r="E117">
-        <v>4103.08</v>
-      </c>
-      <c r="F117">
-        <v>154.51</v>
-      </c>
-      <c r="G117">
-        <v>112.6748</v>
-      </c>
-      <c r="H117">
-        <v>163.11000000000001</v>
-      </c>
-      <c r="I117">
-        <v>93.967500000000001</v>
-      </c>
-      <c r="J117">
-        <v>95.713200000000001</v>
-      </c>
-      <c r="K117">
-        <v>128.9804</v>
-      </c>
-      <c r="L117">
-        <v>896.63</v>
-      </c>
-      <c r="M117">
-        <v>1163.08</v>
-      </c>
-      <c r="N117">
-        <v>291.24810000000002</v>
-      </c>
-      <c r="O117">
-        <v>279.89999999999998</v>
-      </c>
-      <c r="P117">
-        <v>354.12</v>
-      </c>
-      <c r="Q117">
-        <v>330.55</v>
-      </c>
-      <c r="R117">
-        <v>170.76</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>44725</v>
-      </c>
-      <c r="B118">
-        <v>7910.4279999999999</v>
-      </c>
-      <c r="C118">
-        <v>7891.09</v>
-      </c>
-      <c r="D118">
-        <v>310.61</v>
-      </c>
-      <c r="E118">
-        <v>3971.49</v>
-      </c>
-      <c r="F118">
-        <v>148.51</v>
-      </c>
-      <c r="G118">
-        <v>112.6353</v>
-      </c>
-      <c r="H118">
-        <v>158.22999999999999</v>
-      </c>
-      <c r="I118">
-        <v>94.820599999999999</v>
-      </c>
-      <c r="J118">
-        <v>96.454300000000003</v>
-      </c>
-      <c r="K118">
-        <v>129.51150000000001</v>
-      </c>
-      <c r="L118">
-        <v>902.34</v>
-      </c>
-      <c r="M118">
-        <v>1155.43</v>
-      </c>
-      <c r="N118">
-        <v>287.24950000000001</v>
-      </c>
-      <c r="O118">
-        <v>277.58999999999997</v>
-      </c>
-      <c r="P118">
-        <v>354.05</v>
-      </c>
-      <c r="Q118">
-        <v>328.14</v>
-      </c>
-      <c r="R118">
-        <v>171.27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>44726</v>
-      </c>
-      <c r="B119">
-        <v>7883.3410000000003</v>
-      </c>
-      <c r="C119">
-        <v>7829.55</v>
-      </c>
-      <c r="D119">
-        <v>308.64999999999998</v>
-      </c>
-      <c r="E119">
-        <v>3934.82</v>
-      </c>
-      <c r="F119">
-        <v>146.13</v>
-      </c>
-      <c r="G119">
-        <v>111.511</v>
-      </c>
-      <c r="H119">
-        <v>157.59</v>
-      </c>
-      <c r="I119">
-        <v>94.619900000000001</v>
-      </c>
-      <c r="J119">
-        <v>96.593000000000004</v>
-      </c>
-      <c r="K119">
-        <v>129.4881</v>
-      </c>
-      <c r="L119">
-        <v>904.89</v>
-      </c>
-      <c r="M119">
-        <v>1155.54</v>
-      </c>
-      <c r="N119">
-        <v>287.84039999999999</v>
-      </c>
-      <c r="O119">
-        <v>278.66000000000003</v>
-      </c>
-      <c r="P119">
-        <v>354.4</v>
-      </c>
-      <c r="Q119">
-        <v>330.22</v>
-      </c>
-      <c r="R119">
-        <v>170.85</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>44727</v>
-      </c>
-      <c r="B120">
-        <v>7998.6189999999997</v>
-      </c>
-      <c r="C120">
-        <v>7958.29</v>
-      </c>
-      <c r="D120">
-        <v>312.06</v>
-      </c>
-      <c r="E120">
-        <v>4009.71</v>
-      </c>
-      <c r="F120">
-        <v>149.38</v>
-      </c>
-      <c r="G120">
-        <v>111.1835</v>
-      </c>
-      <c r="H120">
-        <v>159.43</v>
-      </c>
-      <c r="I120">
-        <v>93.5017</v>
-      </c>
-      <c r="J120">
-        <v>95.749600000000001</v>
-      </c>
-      <c r="K120">
-        <v>128.69110000000001</v>
-      </c>
-      <c r="L120">
-        <v>902.75</v>
-      </c>
-      <c r="M120">
-        <v>1155.08</v>
-      </c>
-      <c r="N120">
-        <v>287.88510000000002</v>
-      </c>
-      <c r="O120">
-        <v>279.43</v>
-      </c>
-      <c r="P120">
-        <v>355.16</v>
-      </c>
-      <c r="Q120">
-        <v>331.32</v>
-      </c>
-      <c r="R120">
-        <v>170.18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>44728</v>
-      </c>
-      <c r="B121">
-        <v>7739.3879999999999</v>
-      </c>
-      <c r="C121">
-        <v>7723.05</v>
-      </c>
-      <c r="D121">
-        <v>304.55</v>
-      </c>
-      <c r="E121">
-        <v>4008.65</v>
-      </c>
-      <c r="F121">
-        <v>150.53</v>
-      </c>
-      <c r="G121">
-        <v>111.1417</v>
-      </c>
-      <c r="H121">
-        <v>154.57</v>
-      </c>
-      <c r="I121">
-        <v>94.153099999999995</v>
-      </c>
-      <c r="J121">
-        <v>96.234099999999998</v>
-      </c>
-      <c r="K121">
-        <v>129.26</v>
-      </c>
-      <c r="L121">
-        <v>907.41</v>
-      </c>
-      <c r="M121">
-        <v>1154.82</v>
-      </c>
-      <c r="N121">
-        <v>290.25220000000002</v>
-      </c>
-      <c r="O121">
-        <v>279.32</v>
-      </c>
-      <c r="P121">
-        <v>354.68</v>
-      </c>
-      <c r="Q121">
-        <v>329.89</v>
-      </c>
-      <c r="R121">
-        <v>170.73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>44729</v>
-      </c>
-      <c r="B122">
-        <v>7756.5950000000003</v>
-      </c>
-      <c r="C122">
-        <v>7746.82</v>
-      </c>
-      <c r="D122">
-        <v>303.92</v>
-      </c>
-      <c r="E122">
-        <v>4024.97</v>
-      </c>
-      <c r="F122">
-        <v>151.54</v>
-      </c>
-      <c r="G122">
-        <v>110.34229999999999</v>
-      </c>
-      <c r="H122">
-        <v>154.12</v>
-      </c>
-      <c r="I122">
-        <v>93.622399999999999</v>
-      </c>
-      <c r="J122">
-        <v>95.996899999999997</v>
-      </c>
-      <c r="K122">
-        <v>128.7765</v>
-      </c>
-      <c r="L122">
-        <v>908.48</v>
-      </c>
-      <c r="M122">
-        <v>1152.6199999999999</v>
-      </c>
-      <c r="N122">
-        <v>291.83569999999997</v>
-      </c>
-      <c r="O122">
-        <v>279.94</v>
-      </c>
-      <c r="P122">
-        <v>355.87</v>
-      </c>
-      <c r="Q122">
-        <v>331.71</v>
-      </c>
-      <c r="R122">
-        <v>170.12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>44732</v>
-      </c>
-      <c r="B123">
-        <v>7756.5950000000003</v>
-      </c>
-      <c r="C123">
-        <v>7817.5</v>
-      </c>
-      <c r="D123">
-        <v>304.77</v>
-      </c>
-      <c r="E123">
-        <v>4024.97</v>
-      </c>
-      <c r="F123">
-        <v>151.54</v>
-      </c>
-      <c r="G123">
-        <v>110.34229999999999</v>
-      </c>
-      <c r="H123">
-        <v>154.12</v>
-      </c>
-      <c r="I123">
-        <v>93.622399999999999</v>
-      </c>
-      <c r="J123">
-        <v>95.996899999999997</v>
-      </c>
-      <c r="K123">
-        <v>128.7765</v>
-      </c>
-      <c r="L123">
-        <v>908.48</v>
-      </c>
-      <c r="M123">
-        <v>1152.6199999999999</v>
-      </c>
-      <c r="N123">
-        <v>291.83569999999997</v>
-      </c>
-      <c r="O123">
-        <v>279.94</v>
-      </c>
-      <c r="P123">
-        <v>355.87</v>
-      </c>
-      <c r="Q123">
-        <v>331.71</v>
-      </c>
-      <c r="R123">
-        <v>170.12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B124">
-        <v>7946.8860000000004</v>
-      </c>
-      <c r="C124">
-        <v>7875.87</v>
-      </c>
-      <c r="D124">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="E124">
-        <v>3978.55</v>
-      </c>
-      <c r="F124">
-        <v>147.91999999999999</v>
-      </c>
-      <c r="G124">
-        <v>110.9615</v>
-      </c>
-      <c r="H124">
-        <v>158.63999999999999</v>
-      </c>
-      <c r="I124">
-        <v>93.200299999999999</v>
-      </c>
-      <c r="J124">
-        <v>95.279600000000002</v>
-      </c>
-      <c r="K124">
-        <v>128.37100000000001</v>
-      </c>
-      <c r="L124">
-        <v>903.68</v>
-      </c>
-      <c r="M124">
-        <v>1150.4100000000001</v>
-      </c>
-      <c r="N124">
-        <v>290.11020000000002</v>
-      </c>
-      <c r="O124">
-        <v>279.94</v>
-      </c>
-      <c r="P124">
-        <v>355.35</v>
-      </c>
-      <c r="Q124">
-        <v>331.44</v>
-      </c>
-      <c r="R124">
-        <v>169.56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>44734</v>
-      </c>
-      <c r="B125">
-        <v>7936.6729999999998</v>
-      </c>
-      <c r="C125">
-        <v>7809.68</v>
-      </c>
-      <c r="D125">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="E125">
-        <v>4028.23</v>
-      </c>
-      <c r="F125">
-        <v>153.07</v>
-      </c>
-      <c r="G125">
-        <v>110.6224</v>
-      </c>
-      <c r="H125">
-        <v>157.65</v>
-      </c>
-      <c r="I125">
-        <v>93.122900000000001</v>
-      </c>
-      <c r="J125">
-        <v>95.2881</v>
-      </c>
-      <c r="K125">
-        <v>128.35980000000001</v>
-      </c>
-      <c r="L125">
-        <v>905.27</v>
-      </c>
-      <c r="M125">
-        <v>1151.96</v>
-      </c>
-      <c r="N125">
-        <v>287.1431</v>
-      </c>
-      <c r="O125">
-        <v>280.23</v>
-      </c>
-      <c r="P125">
-        <v>355.7</v>
-      </c>
-      <c r="Q125">
-        <v>331.79</v>
-      </c>
-      <c r="R125">
-        <v>170.09</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>44735</v>
-      </c>
-      <c r="B126">
-        <v>8012.6750000000002</v>
-      </c>
-      <c r="C126">
-        <v>7745.78</v>
-      </c>
-      <c r="D126">
-        <v>310.47000000000003</v>
-      </c>
-      <c r="E126">
-        <v>4050.48</v>
-      </c>
-      <c r="F126">
-        <v>154.78</v>
-      </c>
-      <c r="G126">
-        <v>110.97799999999999</v>
-      </c>
-      <c r="H126">
-        <v>159.47</v>
-      </c>
-      <c r="I126">
-        <v>93.082899999999995</v>
-      </c>
-      <c r="J126">
-        <v>95.198499999999996</v>
-      </c>
-      <c r="K126">
-        <v>128.2911</v>
-      </c>
-      <c r="L126">
-        <v>903</v>
-      </c>
-      <c r="M126">
-        <v>1151.94</v>
-      </c>
-      <c r="N126">
-        <v>286.12720000000002</v>
-      </c>
-      <c r="O126">
-        <v>280.5</v>
-      </c>
-      <c r="P126">
-        <v>356.06</v>
-      </c>
-      <c r="Q126">
-        <v>331.75</v>
-      </c>
-      <c r="R126">
-        <v>169.88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>44736</v>
-      </c>
-      <c r="B127">
-        <v>8257.723</v>
-      </c>
-      <c r="C127">
-        <v>7964.15</v>
-      </c>
-      <c r="D127">
-        <v>318.63</v>
-      </c>
-      <c r="E127">
-        <v>4031.65</v>
-      </c>
-      <c r="F127">
-        <v>151.78</v>
-      </c>
-      <c r="G127">
-        <v>112.5175</v>
-      </c>
-      <c r="H127">
-        <v>164.04</v>
-      </c>
-      <c r="I127">
-        <v>92.758200000000002</v>
-      </c>
-      <c r="J127">
-        <v>94.878500000000003</v>
-      </c>
-      <c r="K127">
-        <v>128.0573</v>
-      </c>
-      <c r="L127">
-        <v>895.01</v>
-      </c>
-      <c r="M127">
-        <v>1147.28</v>
-      </c>
-      <c r="N127">
-        <v>287.80189999999999</v>
-      </c>
-      <c r="O127">
-        <v>280.39</v>
-      </c>
-      <c r="P127">
-        <v>356.08</v>
-      </c>
-      <c r="Q127">
-        <v>331.87</v>
-      </c>
-      <c r="R127">
-        <v>169.35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>44739</v>
-      </c>
-      <c r="B128">
-        <v>8233.4210000000003</v>
-      </c>
-      <c r="C128">
-        <v>7977.03</v>
-      </c>
-      <c r="D128">
-        <v>319.64</v>
-      </c>
-      <c r="E128">
-        <v>4002.53</v>
-      </c>
-      <c r="F128">
-        <v>150.22999999999999</v>
-      </c>
-      <c r="G128">
-        <v>111.9072</v>
-      </c>
-      <c r="H128">
-        <v>163.54</v>
-      </c>
-      <c r="I128">
-        <v>92.659000000000006</v>
-      </c>
-      <c r="J128">
-        <v>94.802199999999999</v>
-      </c>
-      <c r="K128">
-        <v>127.98569999999999</v>
-      </c>
-      <c r="L128">
-        <v>896.96</v>
-      </c>
-      <c r="M128">
-        <v>1148.3399999999999</v>
-      </c>
-      <c r="N128">
-        <v>284.53309999999999</v>
-      </c>
-      <c r="O128">
-        <v>280.75</v>
-      </c>
-      <c r="P128">
-        <v>356.54</v>
-      </c>
-      <c r="Q128">
-        <v>332.18</v>
-      </c>
-      <c r="R128">
-        <v>169.59</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>44740</v>
-      </c>
-      <c r="B129">
-        <v>8067.558</v>
-      </c>
-      <c r="C129">
-        <v>8000.5</v>
-      </c>
-      <c r="D129">
-        <v>315.55</v>
-      </c>
-      <c r="E129">
-        <v>4001.91</v>
-      </c>
-      <c r="F129">
-        <v>151.11000000000001</v>
-      </c>
-      <c r="G129">
-        <v>111.3095</v>
-      </c>
-      <c r="H129">
-        <v>160.51</v>
-      </c>
-      <c r="I129">
-        <v>92.689599999999999</v>
-      </c>
-      <c r="J129">
-        <v>94.776899999999998</v>
-      </c>
-      <c r="K129">
-        <v>128.0222</v>
-      </c>
-      <c r="L129">
-        <v>902.32</v>
-      </c>
-      <c r="M129">
-        <v>1152.18</v>
-      </c>
-      <c r="N129">
-        <v>285.69220000000001</v>
-      </c>
-      <c r="O129">
-        <v>280.39</v>
-      </c>
-      <c r="P129">
-        <v>355.77</v>
-      </c>
-      <c r="Q129">
-        <v>332.05</v>
-      </c>
-      <c r="R129">
-        <v>169.78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>44741</v>
-      </c>
-      <c r="B130">
-        <v>8062.7160000000003</v>
-      </c>
-      <c r="C130">
-        <v>7921.66</v>
-      </c>
-      <c r="D130">
-        <v>314</v>
-      </c>
-      <c r="E130">
-        <v>4035.07</v>
-      </c>
-      <c r="F130">
-        <v>154.1</v>
-      </c>
-      <c r="G130">
-        <v>111.2119</v>
-      </c>
-      <c r="H130">
-        <v>160.46</v>
-      </c>
-      <c r="I130">
-        <v>92.822100000000006</v>
-      </c>
-      <c r="J130">
-        <v>94.894499999999994</v>
-      </c>
-      <c r="K130">
-        <v>128.09729999999999</v>
-      </c>
-      <c r="L130">
-        <v>902.93</v>
-      </c>
-      <c r="M130">
-        <v>1154.01</v>
-      </c>
-      <c r="N130">
-        <v>285.67520000000002</v>
-      </c>
-      <c r="O130">
-        <v>280.72000000000003</v>
-      </c>
-      <c r="P130">
-        <v>356.26</v>
-      </c>
-      <c r="Q130">
-        <v>332.39</v>
-      </c>
-      <c r="R130">
-        <v>170.05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B131">
-        <v>7993.4309999999996</v>
-      </c>
-      <c r="C131">
-        <v>7787.65</v>
-      </c>
-      <c r="D131">
-        <v>310.52999999999997</v>
-      </c>
-      <c r="E131">
-        <v>4043.14</v>
-      </c>
-      <c r="F131">
-        <v>155.53</v>
-      </c>
-      <c r="G131">
-        <v>111.0522</v>
-      </c>
-      <c r="H131">
-        <v>158.94</v>
-      </c>
-      <c r="I131">
-        <v>92.837500000000006</v>
-      </c>
-      <c r="J131">
-        <v>95.083399999999997</v>
-      </c>
-      <c r="K131">
-        <v>128.1704</v>
-      </c>
-      <c r="L131">
-        <v>903.49</v>
-      </c>
-      <c r="M131">
-        <v>1155.82</v>
-      </c>
-      <c r="N131">
-        <v>285.72050000000002</v>
-      </c>
-      <c r="O131">
-        <v>280.33</v>
-      </c>
-      <c r="P131">
-        <v>355.74</v>
-      </c>
-      <c r="Q131">
-        <v>331.33</v>
-      </c>
-      <c r="R131">
-        <v>169.57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B132">
-        <v>8077.8919999999998</v>
-      </c>
-      <c r="C132">
-        <v>7772.86</v>
-      </c>
-      <c r="D132">
-        <v>311.73</v>
-      </c>
-      <c r="E132">
-        <v>4067.56</v>
-      </c>
-      <c r="F132">
-        <v>156.43</v>
-      </c>
-      <c r="G132">
-        <v>111.1767</v>
-      </c>
-      <c r="H132">
-        <v>160.80000000000001</v>
-      </c>
-      <c r="I132">
-        <v>92.722399999999993</v>
-      </c>
-      <c r="J132">
-        <v>94.889799999999994</v>
-      </c>
-      <c r="K132">
-        <v>128.06899999999999</v>
-      </c>
-      <c r="L132">
-        <v>902.1</v>
-      </c>
-      <c r="M132">
-        <v>1155.33</v>
-      </c>
-      <c r="N132">
-        <v>286.02019999999999</v>
-      </c>
-      <c r="O132">
-        <v>280.37</v>
-      </c>
-      <c r="P132">
-        <v>356.08</v>
-      </c>
-      <c r="Q132">
-        <v>332.06</v>
-      </c>
-      <c r="R132">
-        <v>169.94</v>
       </c>
     </row>
   </sheetData>
@@ -7783,10 +6495,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3611"/>
   <sheetViews>
-    <sheetView topLeftCell="A3603" workbookViewId="0">
+    <sheetView topLeftCell="A3573" workbookViewId="0">
       <selection activeCell="C3611" sqref="C3611"/>
     </sheetView>
   </sheetViews>
@@ -58355,11 +57067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R283"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R289"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:R137"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58383,7 +57095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1">
@@ -58391,18 +57103,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+        <v>44712</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -58456,7 +57164,6 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
       <c r="B5" t="str">
         <f>_xll.BFieldInfo(B$6)</f>
         <v>Last Price</v>
@@ -58527,7 +57234,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -58584,74 +57291,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=131")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=108")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=131")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=108")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -64648,1312 +63355,93 @@
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B115">
-        <v>8648.2839999999997</v>
-      </c>
-      <c r="C115">
-        <v>8468.5300000000007</v>
-      </c>
-      <c r="D115">
-        <v>336.59</v>
-      </c>
-      <c r="E115">
-        <v>4221.5200000000004</v>
-      </c>
-      <c r="F115">
-        <v>158.27000000000001</v>
-      </c>
-      <c r="G115">
-        <v>114.67310000000001</v>
-      </c>
-      <c r="H115">
-        <v>167.5</v>
-      </c>
-      <c r="I115">
-        <v>93.948700000000002</v>
-      </c>
-      <c r="J115">
-        <v>95.638400000000004</v>
-      </c>
-      <c r="K115">
-        <v>128.96019999999999</v>
-      </c>
-      <c r="L115">
-        <v>880.76</v>
-      </c>
-      <c r="M115">
-        <v>1169.79</v>
-      </c>
-      <c r="N115">
-        <v>293.82600000000002</v>
-      </c>
-      <c r="O115">
-        <v>280.49</v>
-      </c>
-      <c r="P115">
-        <v>355.45</v>
-      </c>
-      <c r="Q115">
-        <v>333.44</v>
-      </c>
-      <c r="R115">
-        <v>171.3</v>
-      </c>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B116">
-        <v>8809.1790000000001</v>
-      </c>
-      <c r="C116">
-        <v>8550.3799999999992</v>
-      </c>
-      <c r="D116">
-        <v>341.08</v>
-      </c>
-      <c r="E116">
-        <v>4222.55</v>
-      </c>
-      <c r="F116">
-        <v>158.16</v>
-      </c>
-      <c r="G116">
-        <v>115.17359999999999</v>
-      </c>
-      <c r="H116">
-        <v>168.74</v>
-      </c>
-      <c r="I116">
-        <v>93.763599999999997</v>
-      </c>
-      <c r="J116">
-        <v>95.5458</v>
-      </c>
-      <c r="K116">
-        <v>128.86750000000001</v>
-      </c>
-      <c r="L116">
-        <v>874.38</v>
-      </c>
-      <c r="M116">
-        <v>1169.43</v>
-      </c>
-      <c r="N116">
-        <v>292.9896</v>
-      </c>
-      <c r="O116">
-        <v>280.70999999999998</v>
-      </c>
-      <c r="P116">
-        <v>355.78</v>
-      </c>
-      <c r="Q116">
-        <v>333.63</v>
-      </c>
-      <c r="R116">
-        <v>171.17</v>
-      </c>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>44715</v>
-      </c>
-      <c r="B117">
-        <v>8665.8009999999995</v>
-      </c>
-      <c r="C117">
-        <v>8524.5400000000009</v>
-      </c>
-      <c r="D117">
-        <v>337.31</v>
-      </c>
-      <c r="E117">
-        <v>4209</v>
-      </c>
-      <c r="F117">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="G117">
-        <v>114.6434</v>
-      </c>
-      <c r="H117">
-        <v>167.83</v>
-      </c>
-      <c r="I117">
-        <v>93.801100000000005</v>
-      </c>
-      <c r="J117">
-        <v>95.553799999999995</v>
-      </c>
-      <c r="K117">
-        <v>128.89189999999999</v>
-      </c>
-      <c r="L117">
-        <v>880.41</v>
-      </c>
-      <c r="M117">
-        <v>1171.57</v>
-      </c>
-      <c r="N117">
-        <v>292.38049999999998</v>
-      </c>
-      <c r="O117">
-        <v>280.87</v>
-      </c>
-      <c r="P117">
-        <v>355.98</v>
-      </c>
-      <c r="Q117">
-        <v>333.82</v>
-      </c>
-      <c r="R117">
-        <v>171.6</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>44718</v>
-      </c>
-      <c r="B118">
-        <v>8693.0570000000007</v>
-      </c>
-      <c r="C118">
-        <v>8647.91</v>
-      </c>
-      <c r="D118">
-        <v>338.87</v>
-      </c>
-      <c r="E118">
-        <v>4159.0600000000004</v>
-      </c>
-      <c r="F118">
-        <v>154.12</v>
-      </c>
-      <c r="G118">
-        <v>114.5215</v>
-      </c>
-      <c r="H118">
-        <v>168.06</v>
-      </c>
-      <c r="I118">
-        <v>93.754999999999995</v>
-      </c>
-      <c r="J118">
-        <v>95.502300000000005</v>
-      </c>
-      <c r="K118">
-        <v>128.86089999999999</v>
-      </c>
-      <c r="L118">
-        <v>879.61</v>
-      </c>
-      <c r="M118">
-        <v>1169.26</v>
-      </c>
-      <c r="N118">
-        <v>292.55739999999997</v>
-      </c>
-      <c r="O118">
-        <v>280.56</v>
-      </c>
-      <c r="P118">
-        <v>355.64</v>
-      </c>
-      <c r="Q118">
-        <v>333.57</v>
-      </c>
-      <c r="R118">
-        <v>171.44</v>
-      </c>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>44719</v>
-      </c>
-      <c r="B119">
-        <v>8776.0889999999999</v>
-      </c>
-      <c r="C119">
-        <v>8576.5400000000009</v>
-      </c>
-      <c r="D119">
-        <v>340.17</v>
-      </c>
-      <c r="E119">
-        <v>4189.1099999999997</v>
-      </c>
-      <c r="F119">
-        <v>156.15</v>
-      </c>
-      <c r="G119">
-        <v>114.7586</v>
-      </c>
-      <c r="H119">
-        <v>168.58</v>
-      </c>
-      <c r="I119">
-        <v>93.699600000000004</v>
-      </c>
-      <c r="J119">
-        <v>95.497900000000001</v>
-      </c>
-      <c r="K119">
-        <v>128.83879999999999</v>
-      </c>
-      <c r="L119">
-        <v>876.67</v>
-      </c>
-      <c r="M119">
-        <v>1166.43</v>
-      </c>
-      <c r="N119">
-        <v>292.2568</v>
-      </c>
-      <c r="O119">
-        <v>280.72000000000003</v>
-      </c>
-      <c r="P119">
-        <v>355.72</v>
-      </c>
-      <c r="Q119">
-        <v>333.68</v>
-      </c>
-      <c r="R119">
-        <v>171.12</v>
-      </c>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>44720</v>
-      </c>
-      <c r="B120">
-        <v>8681.6839999999993</v>
-      </c>
-      <c r="C120">
-        <v>8536.41</v>
-      </c>
-      <c r="D120">
-        <v>338.28</v>
-      </c>
-      <c r="E120">
-        <v>4163.7700000000004</v>
-      </c>
-      <c r="F120">
-        <v>154.5</v>
-      </c>
-      <c r="G120">
-        <v>114.1202</v>
-      </c>
-      <c r="H120">
-        <v>168.04</v>
-      </c>
-      <c r="I120">
-        <v>93.687200000000004</v>
-      </c>
-      <c r="J120">
-        <v>95.4452</v>
-      </c>
-      <c r="K120">
-        <v>128.82140000000001</v>
-      </c>
-      <c r="L120">
-        <v>880.71</v>
-      </c>
-      <c r="M120">
-        <v>1165.82</v>
-      </c>
-      <c r="N120">
-        <v>292.07150000000001</v>
-      </c>
-      <c r="O120">
-        <v>280.81</v>
-      </c>
-      <c r="P120">
-        <v>355.86</v>
-      </c>
-      <c r="Q120">
-        <v>333.78</v>
-      </c>
-      <c r="R120">
-        <v>170.97</v>
-      </c>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>44721</v>
-      </c>
-      <c r="B121">
-        <v>8475.9120000000003</v>
-      </c>
-      <c r="C121">
-        <v>8391.15</v>
-      </c>
-      <c r="D121">
-        <v>331.46</v>
-      </c>
-      <c r="E121">
-        <v>4155.17</v>
-      </c>
-      <c r="F121">
-        <v>155.22999999999999</v>
-      </c>
-      <c r="G121">
-        <v>113.5078</v>
-      </c>
-      <c r="H121">
-        <v>166.16</v>
-      </c>
-      <c r="I121">
-        <v>93.726100000000002</v>
-      </c>
-      <c r="J121">
-        <v>95.442700000000002</v>
-      </c>
-      <c r="K121">
-        <v>128.83369999999999</v>
-      </c>
-      <c r="L121">
-        <v>888</v>
-      </c>
-      <c r="M121">
-        <v>1163.27</v>
-      </c>
-      <c r="N121">
-        <v>292.18700000000001</v>
-      </c>
-      <c r="O121">
-        <v>279.95999999999998</v>
-      </c>
-      <c r="P121">
-        <v>354.69</v>
-      </c>
-      <c r="Q121">
-        <v>331.73</v>
-      </c>
-      <c r="R121">
-        <v>170.95</v>
-      </c>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>44722</v>
-      </c>
-      <c r="B122">
-        <v>8229.4259999999995</v>
-      </c>
-      <c r="C122">
-        <v>8108.95</v>
-      </c>
-      <c r="D122">
-        <v>322.39</v>
-      </c>
-      <c r="E122">
-        <v>4103.08</v>
-      </c>
-      <c r="F122">
-        <v>154.51</v>
-      </c>
-      <c r="G122">
-        <v>112.6748</v>
-      </c>
-      <c r="H122">
-        <v>163.11000000000001</v>
-      </c>
-      <c r="I122">
-        <v>93.967500000000001</v>
-      </c>
-      <c r="J122">
-        <v>95.713200000000001</v>
-      </c>
-      <c r="K122">
-        <v>128.9804</v>
-      </c>
-      <c r="L122">
-        <v>896.63</v>
-      </c>
-      <c r="M122">
-        <v>1163.08</v>
-      </c>
-      <c r="N122">
-        <v>291.24810000000002</v>
-      </c>
-      <c r="O122">
-        <v>279.89999999999998</v>
-      </c>
-      <c r="P122">
-        <v>354.12</v>
-      </c>
-      <c r="Q122">
-        <v>330.55</v>
-      </c>
-      <c r="R122">
-        <v>170.76</v>
-      </c>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>44725</v>
-      </c>
-      <c r="B123">
-        <v>7910.4279999999999</v>
-      </c>
-      <c r="C123">
-        <v>7891.09</v>
-      </c>
-      <c r="D123">
-        <v>310.61</v>
-      </c>
-      <c r="E123">
-        <v>3971.49</v>
-      </c>
-      <c r="F123">
-        <v>148.51</v>
-      </c>
-      <c r="G123">
-        <v>112.6353</v>
-      </c>
-      <c r="H123">
-        <v>158.22999999999999</v>
-      </c>
-      <c r="I123">
-        <v>94.820599999999999</v>
-      </c>
-      <c r="J123">
-        <v>96.454300000000003</v>
-      </c>
-      <c r="K123">
-        <v>129.51150000000001</v>
-      </c>
-      <c r="L123">
-        <v>902.34</v>
-      </c>
-      <c r="M123">
-        <v>1155.43</v>
-      </c>
-      <c r="N123">
-        <v>287.24950000000001</v>
-      </c>
-      <c r="O123">
-        <v>277.58999999999997</v>
-      </c>
-      <c r="P123">
-        <v>354.05</v>
-      </c>
-      <c r="Q123">
-        <v>328.14</v>
-      </c>
-      <c r="R123">
-        <v>171.27</v>
-      </c>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>44726</v>
-      </c>
-      <c r="B124">
-        <v>7883.3410000000003</v>
-      </c>
-      <c r="C124">
-        <v>7829.55</v>
-      </c>
-      <c r="D124">
-        <v>308.64999999999998</v>
-      </c>
-      <c r="E124">
-        <v>3934.82</v>
-      </c>
-      <c r="F124">
-        <v>146.13</v>
-      </c>
-      <c r="G124">
-        <v>111.511</v>
-      </c>
-      <c r="H124">
-        <v>157.59</v>
-      </c>
-      <c r="I124">
-        <v>94.619900000000001</v>
-      </c>
-      <c r="J124">
-        <v>96.593000000000004</v>
-      </c>
-      <c r="K124">
-        <v>129.4881</v>
-      </c>
-      <c r="L124">
-        <v>904.89</v>
-      </c>
-      <c r="M124">
-        <v>1155.54</v>
-      </c>
-      <c r="N124">
-        <v>287.84039999999999</v>
-      </c>
-      <c r="O124">
-        <v>278.66000000000003</v>
-      </c>
-      <c r="P124">
-        <v>354.4</v>
-      </c>
-      <c r="Q124">
-        <v>330.22</v>
-      </c>
-      <c r="R124">
-        <v>170.85</v>
-      </c>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>44727</v>
-      </c>
-      <c r="B125">
-        <v>7998.6189999999997</v>
-      </c>
-      <c r="C125">
-        <v>7958.29</v>
-      </c>
-      <c r="D125">
-        <v>312.06</v>
-      </c>
-      <c r="E125">
-        <v>4009.71</v>
-      </c>
-      <c r="F125">
-        <v>149.38</v>
-      </c>
-      <c r="G125">
-        <v>111.1835</v>
-      </c>
-      <c r="H125">
-        <v>159.43</v>
-      </c>
-      <c r="I125">
-        <v>93.5017</v>
-      </c>
-      <c r="J125">
-        <v>95.749600000000001</v>
-      </c>
-      <c r="K125">
-        <v>128.69110000000001</v>
-      </c>
-      <c r="L125">
-        <v>902.75</v>
-      </c>
-      <c r="M125">
-        <v>1155.08</v>
-      </c>
-      <c r="N125">
-        <v>287.88510000000002</v>
-      </c>
-      <c r="O125">
-        <v>279.43</v>
-      </c>
-      <c r="P125">
-        <v>355.16</v>
-      </c>
-      <c r="Q125">
-        <v>331.32</v>
-      </c>
-      <c r="R125">
-        <v>170.18</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>44728</v>
-      </c>
-      <c r="B126">
-        <v>7739.3879999999999</v>
-      </c>
-      <c r="C126">
-        <v>7723.05</v>
-      </c>
-      <c r="D126">
-        <v>304.55</v>
-      </c>
-      <c r="E126">
-        <v>4008.65</v>
-      </c>
-      <c r="F126">
-        <v>150.53</v>
-      </c>
-      <c r="G126">
-        <v>111.1417</v>
-      </c>
-      <c r="H126">
-        <v>154.57</v>
-      </c>
-      <c r="I126">
-        <v>94.153099999999995</v>
-      </c>
-      <c r="J126">
-        <v>96.234099999999998</v>
-      </c>
-      <c r="K126">
-        <v>129.26</v>
-      </c>
-      <c r="L126">
-        <v>907.41</v>
-      </c>
-      <c r="M126">
-        <v>1154.82</v>
-      </c>
-      <c r="N126">
-        <v>290.25220000000002</v>
-      </c>
-      <c r="O126">
-        <v>279.32</v>
-      </c>
-      <c r="P126">
-        <v>354.68</v>
-      </c>
-      <c r="Q126">
-        <v>329.89</v>
-      </c>
-      <c r="R126">
-        <v>170.73</v>
-      </c>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>44729</v>
-      </c>
-      <c r="B127">
-        <v>7756.5950000000003</v>
-      </c>
-      <c r="C127">
-        <v>7746.82</v>
-      </c>
-      <c r="D127">
-        <v>303.92</v>
-      </c>
-      <c r="E127">
-        <v>4024.97</v>
-      </c>
-      <c r="F127">
-        <v>151.54</v>
-      </c>
-      <c r="G127">
-        <v>110.34229999999999</v>
-      </c>
-      <c r="H127">
-        <v>154.12</v>
-      </c>
-      <c r="I127">
-        <v>93.622399999999999</v>
-      </c>
-      <c r="J127">
-        <v>95.996899999999997</v>
-      </c>
-      <c r="K127">
-        <v>128.7765</v>
-      </c>
-      <c r="L127">
-        <v>908.48</v>
-      </c>
-      <c r="M127">
-        <v>1152.6199999999999</v>
-      </c>
-      <c r="N127">
-        <v>291.83569999999997</v>
-      </c>
-      <c r="O127">
-        <v>279.94</v>
-      </c>
-      <c r="P127">
-        <v>355.87</v>
-      </c>
-      <c r="Q127">
-        <v>331.71</v>
-      </c>
-      <c r="R127">
-        <v>170.12</v>
-      </c>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>44732</v>
-      </c>
-      <c r="B128">
-        <v>7756.5950000000003</v>
-      </c>
-      <c r="C128">
-        <v>7817.5</v>
-      </c>
-      <c r="D128">
-        <v>304.77</v>
-      </c>
-      <c r="E128">
-        <v>4024.97</v>
-      </c>
-      <c r="F128">
-        <v>151.54</v>
-      </c>
-      <c r="G128">
-        <v>110.34229999999999</v>
-      </c>
-      <c r="H128">
-        <v>154.12</v>
-      </c>
-      <c r="I128">
-        <v>93.622399999999999</v>
-      </c>
-      <c r="J128">
-        <v>95.996899999999997</v>
-      </c>
-      <c r="K128">
-        <v>128.7765</v>
-      </c>
-      <c r="L128">
-        <v>908.48</v>
-      </c>
-      <c r="M128">
-        <v>1152.6199999999999</v>
-      </c>
-      <c r="N128">
-        <v>291.83569999999997</v>
-      </c>
-      <c r="O128">
-        <v>279.94</v>
-      </c>
-      <c r="P128">
-        <v>355.87</v>
-      </c>
-      <c r="Q128">
-        <v>331.71</v>
-      </c>
-      <c r="R128">
-        <v>170.12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B129">
-        <v>7946.8860000000004</v>
-      </c>
-      <c r="C129">
-        <v>7875.87</v>
-      </c>
-      <c r="D129">
-        <v>310.60000000000002</v>
-      </c>
-      <c r="E129">
-        <v>3978.55</v>
-      </c>
-      <c r="F129">
-        <v>147.91999999999999</v>
-      </c>
-      <c r="G129">
-        <v>110.9615</v>
-      </c>
-      <c r="H129">
-        <v>158.63999999999999</v>
-      </c>
-      <c r="I129">
-        <v>93.200299999999999</v>
-      </c>
-      <c r="J129">
-        <v>95.279600000000002</v>
-      </c>
-      <c r="K129">
-        <v>128.37100000000001</v>
-      </c>
-      <c r="L129">
-        <v>903.68</v>
-      </c>
-      <c r="M129">
-        <v>1150.4100000000001</v>
-      </c>
-      <c r="N129">
-        <v>290.11020000000002</v>
-      </c>
-      <c r="O129">
-        <v>279.94</v>
-      </c>
-      <c r="P129">
-        <v>355.35</v>
-      </c>
-      <c r="Q129">
-        <v>331.44</v>
-      </c>
-      <c r="R129">
-        <v>169.56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>44734</v>
-      </c>
-      <c r="B130">
-        <v>7936.6729999999998</v>
-      </c>
-      <c r="C130">
-        <v>7809.68</v>
-      </c>
-      <c r="D130">
-        <v>309.10000000000002</v>
-      </c>
-      <c r="E130">
-        <v>4028.23</v>
-      </c>
-      <c r="F130">
-        <v>153.07</v>
-      </c>
-      <c r="G130">
-        <v>110.6224</v>
-      </c>
-      <c r="H130">
-        <v>157.65</v>
-      </c>
-      <c r="I130">
-        <v>93.122900000000001</v>
-      </c>
-      <c r="J130">
-        <v>95.2881</v>
-      </c>
-      <c r="K130">
-        <v>128.35980000000001</v>
-      </c>
-      <c r="L130">
-        <v>905.27</v>
-      </c>
-      <c r="M130">
-        <v>1151.96</v>
-      </c>
-      <c r="N130">
-        <v>287.1431</v>
-      </c>
-      <c r="O130">
-        <v>280.23</v>
-      </c>
-      <c r="P130">
-        <v>355.7</v>
-      </c>
-      <c r="Q130">
-        <v>331.79</v>
-      </c>
-      <c r="R130">
-        <v>170.09</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>44735</v>
-      </c>
-      <c r="B131">
-        <v>8012.6750000000002</v>
-      </c>
-      <c r="C131">
-        <v>7745.78</v>
-      </c>
-      <c r="D131">
-        <v>310.47000000000003</v>
-      </c>
-      <c r="E131">
-        <v>4050.48</v>
-      </c>
-      <c r="F131">
-        <v>154.78</v>
-      </c>
-      <c r="G131">
-        <v>110.97799999999999</v>
-      </c>
-      <c r="H131">
-        <v>159.47</v>
-      </c>
-      <c r="I131">
-        <v>93.082899999999995</v>
-      </c>
-      <c r="J131">
-        <v>95.198499999999996</v>
-      </c>
-      <c r="K131">
-        <v>128.2911</v>
-      </c>
-      <c r="L131">
-        <v>903</v>
-      </c>
-      <c r="M131">
-        <v>1151.94</v>
-      </c>
-      <c r="N131">
-        <v>286.12720000000002</v>
-      </c>
-      <c r="O131">
-        <v>280.5</v>
-      </c>
-      <c r="P131">
-        <v>356.06</v>
-      </c>
-      <c r="Q131">
-        <v>331.75</v>
-      </c>
-      <c r="R131">
-        <v>169.88</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>44736</v>
-      </c>
-      <c r="B132">
-        <v>8257.723</v>
-      </c>
-      <c r="C132">
-        <v>7964.15</v>
-      </c>
-      <c r="D132">
-        <v>318.63</v>
-      </c>
-      <c r="E132">
-        <v>4031.65</v>
-      </c>
-      <c r="F132">
-        <v>151.78</v>
-      </c>
-      <c r="G132">
-        <v>112.5175</v>
-      </c>
-      <c r="H132">
-        <v>164.04</v>
-      </c>
-      <c r="I132">
-        <v>92.758200000000002</v>
-      </c>
-      <c r="J132">
-        <v>94.878500000000003</v>
-      </c>
-      <c r="K132">
-        <v>128.0573</v>
-      </c>
-      <c r="L132">
-        <v>895.01</v>
-      </c>
-      <c r="M132">
-        <v>1147.28</v>
-      </c>
-      <c r="N132">
-        <v>287.80189999999999</v>
-      </c>
-      <c r="O132">
-        <v>280.39</v>
-      </c>
-      <c r="P132">
-        <v>356.08</v>
-      </c>
-      <c r="Q132">
-        <v>331.87</v>
-      </c>
-      <c r="R132">
-        <v>169.35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>44739</v>
-      </c>
-      <c r="B133">
-        <v>8233.4210000000003</v>
-      </c>
-      <c r="C133">
-        <v>7977.03</v>
-      </c>
-      <c r="D133">
-        <v>319.64</v>
-      </c>
-      <c r="E133">
-        <v>4002.53</v>
-      </c>
-      <c r="F133">
-        <v>150.22999999999999</v>
-      </c>
-      <c r="G133">
-        <v>111.9072</v>
-      </c>
-      <c r="H133">
-        <v>163.54</v>
-      </c>
-      <c r="I133">
-        <v>92.659000000000006</v>
-      </c>
-      <c r="J133">
-        <v>94.802199999999999</v>
-      </c>
-      <c r="K133">
-        <v>127.98569999999999</v>
-      </c>
-      <c r="L133">
-        <v>896.96</v>
-      </c>
-      <c r="M133">
-        <v>1148.3399999999999</v>
-      </c>
-      <c r="N133">
-        <v>284.53309999999999</v>
-      </c>
-      <c r="O133">
-        <v>280.75</v>
-      </c>
-      <c r="P133">
-        <v>356.54</v>
-      </c>
-      <c r="Q133">
-        <v>332.18</v>
-      </c>
-      <c r="R133">
-        <v>169.59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>44740</v>
-      </c>
-      <c r="B134">
-        <v>8067.558</v>
-      </c>
-      <c r="C134">
-        <v>8000.5</v>
-      </c>
-      <c r="D134">
-        <v>315.55</v>
-      </c>
-      <c r="E134">
-        <v>4001.91</v>
-      </c>
-      <c r="F134">
-        <v>151.11000000000001</v>
-      </c>
-      <c r="G134">
-        <v>111.3095</v>
-      </c>
-      <c r="H134">
-        <v>160.51</v>
-      </c>
-      <c r="I134">
-        <v>92.689599999999999</v>
-      </c>
-      <c r="J134">
-        <v>94.776899999999998</v>
-      </c>
-      <c r="K134">
-        <v>128.0222</v>
-      </c>
-      <c r="L134">
-        <v>902.32</v>
-      </c>
-      <c r="M134">
-        <v>1152.18</v>
-      </c>
-      <c r="N134">
-        <v>285.69220000000001</v>
-      </c>
-      <c r="O134">
-        <v>280.39</v>
-      </c>
-      <c r="P134">
-        <v>355.77</v>
-      </c>
-      <c r="Q134">
-        <v>332.05</v>
-      </c>
-      <c r="R134">
-        <v>169.78</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>44741</v>
-      </c>
-      <c r="B135">
-        <v>8062.7160000000003</v>
-      </c>
-      <c r="C135">
-        <v>7921.66</v>
-      </c>
-      <c r="D135">
-        <v>314</v>
-      </c>
-      <c r="E135">
-        <v>4035.07</v>
-      </c>
-      <c r="F135">
-        <v>154.1</v>
-      </c>
-      <c r="G135">
-        <v>111.2119</v>
-      </c>
-      <c r="H135">
-        <v>160.46</v>
-      </c>
-      <c r="I135">
-        <v>92.822100000000006</v>
-      </c>
-      <c r="J135">
-        <v>94.894499999999994</v>
-      </c>
-      <c r="K135">
-        <v>128.09729999999999</v>
-      </c>
-      <c r="L135">
-        <v>902.93</v>
-      </c>
-      <c r="M135">
-        <v>1154.01</v>
-      </c>
-      <c r="N135">
-        <v>285.67520000000002</v>
-      </c>
-      <c r="O135">
-        <v>280.72000000000003</v>
-      </c>
-      <c r="P135">
-        <v>356.26</v>
-      </c>
-      <c r="Q135">
-        <v>332.39</v>
-      </c>
-      <c r="R135">
-        <v>170.05</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B136">
-        <v>7993.4309999999996</v>
-      </c>
-      <c r="C136">
-        <v>7787.65</v>
-      </c>
-      <c r="D136">
-        <v>310.52999999999997</v>
-      </c>
-      <c r="E136">
-        <v>4043.14</v>
-      </c>
-      <c r="F136">
-        <v>155.53</v>
-      </c>
-      <c r="G136">
-        <v>111.0522</v>
-      </c>
-      <c r="H136">
-        <v>158.94</v>
-      </c>
-      <c r="I136">
-        <v>92.837500000000006</v>
-      </c>
-      <c r="J136">
-        <v>95.083399999999997</v>
-      </c>
-      <c r="K136">
-        <v>128.1704</v>
-      </c>
-      <c r="L136">
-        <v>903.49</v>
-      </c>
-      <c r="M136">
-        <v>1155.82</v>
-      </c>
-      <c r="N136">
-        <v>285.72050000000002</v>
-      </c>
-      <c r="O136">
-        <v>280.33</v>
-      </c>
-      <c r="P136">
-        <v>355.74</v>
-      </c>
-      <c r="Q136">
-        <v>331.33</v>
-      </c>
-      <c r="R136">
-        <v>169.57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>44743</v>
-      </c>
-      <c r="B137">
-        <v>8077.8919999999998</v>
-      </c>
-      <c r="C137">
-        <v>7772.86</v>
-      </c>
-      <c r="D137">
-        <v>311.73</v>
-      </c>
-      <c r="E137">
-        <v>4067.56</v>
-      </c>
-      <c r="F137">
-        <v>156.43</v>
-      </c>
-      <c r="G137">
-        <v>111.1767</v>
-      </c>
-      <c r="H137">
-        <v>160.80000000000001</v>
-      </c>
-      <c r="I137">
-        <v>92.722399999999993</v>
-      </c>
-      <c r="J137">
-        <v>94.889799999999994</v>
-      </c>
-      <c r="K137">
-        <v>128.06899999999999</v>
-      </c>
-      <c r="L137">
-        <v>902.1</v>
-      </c>
-      <c r="M137">
-        <v>1155.33</v>
-      </c>
-      <c r="N137">
-        <v>286.02019999999999</v>
-      </c>
-      <c r="O137">
-        <v>280.37</v>
-      </c>
-      <c r="P137">
-        <v>356.08</v>
-      </c>
-      <c r="Q137">
-        <v>332.06</v>
-      </c>
-      <c r="R137">
-        <v>169.94</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -66372,6 +63860,24 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66379,11 +63885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -24,7 +24,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_5" hidden="1">bbg!$A$1:$R$7</definedName>
+    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -179,106 +179,94 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|15626806081282667938</stp>
-        <tr r="A7" s="4"/>
+        <stp>BDH|10392637733247614934</stp>
+        <tr r="O7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12255615895616781489</stp>
+        <stp>BDH|18235601751692783007</stp>
         <tr r="D7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16010151724685263489</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|18188246218903434165</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11430656411198540119</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17468979122695054421</stp>
+        <tr r="N7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2453924867107387614</stp>
+        <stp>BDH|8854940670218968242</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2134898534232693655</stp>
+        <tr r="M7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9968624828340503099</stp>
+        <tr r="P7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6524104830009952361</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2379303510707076919</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8869210834791755717</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2377856097898302104</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|7445316363007831343</stp>
+        <tr r="Q7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3095106220459993904</stp>
         <tr r="F7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6489341196358427868</stp>
-        <tr r="Q7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6534984326656679794</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2014044650003874960</stp>
-        <tr r="G7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2161572898627493477</stp>
-        <tr r="M7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2863643911463171826</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2113812926573864479</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2543817757927192050</stp>
-        <tr r="E7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6782747862499638726</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|9973572375976835914</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6741422216506906016</stp>
+        <stp>BDH|4741199751841169303</stp>
         <tr r="R7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5900833492997366593</stp>
-        <tr r="P7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|2002253708823001258</stp>
-        <tr r="J7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|7171215792178886629</stp>
-        <tr r="H7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -417,6 +405,20 @@
         <stp>[ups_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|274322730555081536</stp>
+        <tr r="K7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|882341662994038285</stp>
+        <tr r="C7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -686,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,7 +8344,7 @@
         <v>333.27</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44762</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44763</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44764</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44767</v>
       </c>
@@ -8554,7 +8556,7 @@
         <v>333.91</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>334.02</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44769</v>
       </c>
@@ -8660,7 +8662,7 @@
         <v>334.24</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44770</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>334.2</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44771</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>334.43</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44774</v>
       </c>
@@ -8817,6 +8819,1238 @@
       </c>
       <c r="Q153">
         <v>334.82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B154">
+        <v>8647.9089999999997</v>
+      </c>
+      <c r="C154">
+        <v>8314.01</v>
+      </c>
+      <c r="D154">
+        <v>329.93</v>
+      </c>
+      <c r="E154">
+        <v>4220.7</v>
+      </c>
+      <c r="F154">
+        <v>160.71</v>
+      </c>
+      <c r="G154">
+        <v>112.7552</v>
+      </c>
+      <c r="H154">
+        <v>164.11</v>
+      </c>
+      <c r="I154">
+        <v>91.885199999999998</v>
+      </c>
+      <c r="J154">
+        <v>93.963099999999997</v>
+      </c>
+      <c r="K154">
+        <v>127.5134</v>
+      </c>
+      <c r="L154">
+        <v>884.32</v>
+      </c>
+      <c r="M154">
+        <v>1143.08</v>
+      </c>
+      <c r="N154">
+        <v>283.39949999999999</v>
+      </c>
+      <c r="O154">
+        <v>281.45</v>
+      </c>
+      <c r="P154">
+        <v>357.92</v>
+      </c>
+      <c r="Q154">
+        <v>335.23</v>
+      </c>
+      <c r="R154">
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B155">
+        <v>8783.2839999999997</v>
+      </c>
+      <c r="C155">
+        <v>8422.1200000000008</v>
+      </c>
+      <c r="D155">
+        <v>332.9</v>
+      </c>
+      <c r="E155">
+        <v>4277.07</v>
+      </c>
+      <c r="F155">
+        <v>164.16</v>
+      </c>
+      <c r="G155">
+        <v>112.8616</v>
+      </c>
+      <c r="H155">
+        <v>164.17</v>
+      </c>
+      <c r="I155">
+        <v>91.796300000000002</v>
+      </c>
+      <c r="J155">
+        <v>93.831400000000002</v>
+      </c>
+      <c r="K155">
+        <v>127.47369999999999</v>
+      </c>
+      <c r="L155">
+        <v>881.43</v>
+      </c>
+      <c r="M155">
+        <v>1144.95</v>
+      </c>
+      <c r="N155">
+        <v>283.7593</v>
+      </c>
+      <c r="O155">
+        <v>281.41000000000003</v>
+      </c>
+      <c r="P155">
+        <v>358.02</v>
+      </c>
+      <c r="Q155">
+        <v>334.95</v>
+      </c>
+      <c r="R155">
+        <v>169.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B156">
+        <v>8777.2270000000008</v>
+      </c>
+      <c r="C156">
+        <v>8473.32</v>
+      </c>
+      <c r="D156">
+        <v>333.95</v>
+      </c>
+      <c r="E156">
+        <v>4277.0200000000004</v>
+      </c>
+      <c r="F156">
+        <v>163.69</v>
+      </c>
+      <c r="G156">
+        <v>112.8156</v>
+      </c>
+      <c r="H156">
+        <v>164.23</v>
+      </c>
+      <c r="I156">
+        <v>91.813800000000001</v>
+      </c>
+      <c r="J156">
+        <v>93.827100000000002</v>
+      </c>
+      <c r="K156">
+        <v>127.4787</v>
+      </c>
+      <c r="L156">
+        <v>881.65</v>
+      </c>
+      <c r="M156">
+        <v>1146.56</v>
+      </c>
+      <c r="N156">
+        <v>283.81979999999999</v>
+      </c>
+      <c r="O156">
+        <v>281.73</v>
+      </c>
+      <c r="P156">
+        <v>358.45</v>
+      </c>
+      <c r="Q156">
+        <v>335.16</v>
+      </c>
+      <c r="R156">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B157">
+        <v>8764.0820000000003</v>
+      </c>
+      <c r="C157">
+        <v>8407.4</v>
+      </c>
+      <c r="D157">
+        <v>333.24</v>
+      </c>
+      <c r="E157">
+        <v>4197.07</v>
+      </c>
+      <c r="F157">
+        <v>159.1</v>
+      </c>
+      <c r="G157">
+        <v>112.5962</v>
+      </c>
+      <c r="H157">
+        <v>164.17</v>
+      </c>
+      <c r="I157">
+        <v>91.774100000000004</v>
+      </c>
+      <c r="J157">
+        <v>93.788799999999995</v>
+      </c>
+      <c r="K157">
+        <v>127.4599</v>
+      </c>
+      <c r="L157">
+        <v>882.16</v>
+      </c>
+      <c r="M157">
+        <v>1144.69</v>
+      </c>
+      <c r="N157">
+        <v>283.7833</v>
+      </c>
+      <c r="O157">
+        <v>281.98</v>
+      </c>
+      <c r="P157">
+        <v>358.77</v>
+      </c>
+      <c r="Q157">
+        <v>335.51</v>
+      </c>
+      <c r="R157">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B158">
+        <v>8753.393</v>
+      </c>
+      <c r="C158">
+        <v>8480.9599999999991</v>
+      </c>
+      <c r="D158">
+        <v>333.93</v>
+      </c>
+      <c r="E158">
+        <v>4238.93</v>
+      </c>
+      <c r="F158">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="G158">
+        <v>112.59910000000001</v>
+      </c>
+      <c r="H158">
+        <v>164.19</v>
+      </c>
+      <c r="I158">
+        <v>91.7637</v>
+      </c>
+      <c r="J158">
+        <v>93.765199999999993</v>
+      </c>
+      <c r="K158">
+        <v>127.44280000000001</v>
+      </c>
+      <c r="L158">
+        <v>882.2</v>
+      </c>
+      <c r="M158">
+        <v>1143.3399999999999</v>
+      </c>
+      <c r="N158">
+        <v>283.74579999999997</v>
+      </c>
+      <c r="O158">
+        <v>282.18</v>
+      </c>
+      <c r="P158">
+        <v>359.11</v>
+      </c>
+      <c r="Q158">
+        <v>335.75</v>
+      </c>
+      <c r="R158">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B159">
+        <v>8716.7510000000002</v>
+      </c>
+      <c r="C159">
+        <v>8386.49</v>
+      </c>
+      <c r="D159">
+        <v>332.31</v>
+      </c>
+      <c r="E159">
+        <v>4217.03</v>
+      </c>
+      <c r="F159">
+        <v>161.62</v>
+      </c>
+      <c r="G159">
+        <v>112.4363</v>
+      </c>
+      <c r="H159">
+        <v>164.2</v>
+      </c>
+      <c r="I159">
+        <v>91.772300000000001</v>
+      </c>
+      <c r="J159">
+        <v>93.783199999999994</v>
+      </c>
+      <c r="K159">
+        <v>127.4515</v>
+      </c>
+      <c r="L159">
+        <v>882.85</v>
+      </c>
+      <c r="M159">
+        <v>1144.8499999999999</v>
+      </c>
+      <c r="N159">
+        <v>283.67189999999999</v>
+      </c>
+      <c r="O159">
+        <v>282.29000000000002</v>
+      </c>
+      <c r="P159">
+        <v>359.06</v>
+      </c>
+      <c r="Q159">
+        <v>336</v>
+      </c>
+      <c r="R159">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B160">
+        <v>8902.723</v>
+      </c>
+      <c r="C160">
+        <v>8463.18</v>
+      </c>
+      <c r="D160">
+        <v>338.6</v>
+      </c>
+      <c r="E160">
+        <v>4228.0600000000004</v>
+      </c>
+      <c r="F160">
+        <v>160</v>
+      </c>
+      <c r="G160">
+        <v>112.8806</v>
+      </c>
+      <c r="H160">
+        <v>164.25</v>
+      </c>
+      <c r="I160">
+        <v>91.653800000000004</v>
+      </c>
+      <c r="J160">
+        <v>93.670699999999997</v>
+      </c>
+      <c r="K160">
+        <v>127.38979999999999</v>
+      </c>
+      <c r="L160">
+        <v>879.76</v>
+      </c>
+      <c r="M160">
+        <v>1141.68</v>
+      </c>
+      <c r="N160">
+        <v>283.73329999999999</v>
+      </c>
+      <c r="O160">
+        <v>282.02</v>
+      </c>
+      <c r="P160">
+        <v>358.84</v>
+      </c>
+      <c r="Q160">
+        <v>335.55</v>
+      </c>
+      <c r="R160">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B161">
+        <v>8898.8369999999995</v>
+      </c>
+      <c r="C161">
+        <v>8480.57</v>
+      </c>
+      <c r="D161">
+        <v>339.2</v>
+      </c>
+      <c r="E161">
+        <v>4182.1499999999996</v>
+      </c>
+      <c r="F161">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="G161">
+        <v>113.005</v>
+      </c>
+      <c r="H161">
+        <v>164.25</v>
+      </c>
+      <c r="I161">
+        <v>91.656999999999996</v>
+      </c>
+      <c r="J161">
+        <v>93.661299999999997</v>
+      </c>
+      <c r="K161">
+        <v>127.3886</v>
+      </c>
+      <c r="L161">
+        <v>879.67</v>
+      </c>
+      <c r="M161">
+        <v>1143.45</v>
+      </c>
+      <c r="N161">
+        <v>284.00580000000002</v>
+      </c>
+      <c r="O161">
+        <v>281.82</v>
+      </c>
+      <c r="P161">
+        <v>358.55</v>
+      </c>
+      <c r="Q161">
+        <v>335.15</v>
+      </c>
+      <c r="R161">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B162">
+        <v>9054.1380000000008</v>
+      </c>
+      <c r="C162">
+        <v>8526.42</v>
+      </c>
+      <c r="D162">
+        <v>342.89</v>
+      </c>
+      <c r="E162">
+        <v>4227.76</v>
+      </c>
+      <c r="F162">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="G162">
+        <v>113.5121</v>
+      </c>
+      <c r="H162">
+        <v>164.38</v>
+      </c>
+      <c r="I162">
+        <v>91.620500000000007</v>
+      </c>
+      <c r="J162">
+        <v>93.633799999999994</v>
+      </c>
+      <c r="K162">
+        <v>127.36879999999999</v>
+      </c>
+      <c r="L162">
+        <v>877.68</v>
+      </c>
+      <c r="M162">
+        <v>1138.8599999999999</v>
+      </c>
+      <c r="N162">
+        <v>284.35640000000001</v>
+      </c>
+      <c r="O162">
+        <v>281.73</v>
+      </c>
+      <c r="P162">
+        <v>358.53</v>
+      </c>
+      <c r="Q162">
+        <v>335.23</v>
+      </c>
+      <c r="R162">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B163">
+        <v>9090.3610000000008</v>
+      </c>
+      <c r="C163">
+        <v>8555.33</v>
+      </c>
+      <c r="D163">
+        <v>343.69</v>
+      </c>
+      <c r="E163">
+        <v>4237.04</v>
+      </c>
+      <c r="F163">
+        <v>156.78</v>
+      </c>
+      <c r="G163">
+        <v>113.54300000000001</v>
+      </c>
+      <c r="H163">
+        <v>164.28</v>
+      </c>
+      <c r="I163">
+        <v>91.620999999999995</v>
+      </c>
+      <c r="J163">
+        <v>93.638400000000004</v>
+      </c>
+      <c r="K163">
+        <v>127.3695</v>
+      </c>
+      <c r="L163">
+        <v>877.44</v>
+      </c>
+      <c r="M163">
+        <v>1138.67</v>
+      </c>
+      <c r="N163">
+        <v>283.9357</v>
+      </c>
+      <c r="O163">
+        <v>281.91000000000003</v>
+      </c>
+      <c r="P163">
+        <v>358.73</v>
+      </c>
+      <c r="Q163">
+        <v>335.44</v>
+      </c>
+      <c r="R163">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B164">
+        <v>9107.8670000000002</v>
+      </c>
+      <c r="C164">
+        <v>8590.56</v>
+      </c>
+      <c r="D164">
+        <v>343.89</v>
+      </c>
+      <c r="E164">
+        <v>4237.16</v>
+      </c>
+      <c r="F164">
+        <v>157.85</v>
+      </c>
+      <c r="G164">
+        <v>113.5821</v>
+      </c>
+      <c r="H164">
+        <v>164.29</v>
+      </c>
+      <c r="I164">
+        <v>91.624799999999993</v>
+      </c>
+      <c r="J164">
+        <v>93.634299999999996</v>
+      </c>
+      <c r="K164">
+        <v>127.37260000000001</v>
+      </c>
+      <c r="L164">
+        <v>877.33</v>
+      </c>
+      <c r="M164">
+        <v>1137.5899999999999</v>
+      </c>
+      <c r="N164">
+        <v>283.93880000000001</v>
+      </c>
+      <c r="O164">
+        <v>282.08999999999997</v>
+      </c>
+      <c r="P164">
+        <v>358.89</v>
+      </c>
+      <c r="Q164">
+        <v>335.68</v>
+      </c>
+      <c r="R164">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B165">
+        <v>9043.5889999999999</v>
+      </c>
+      <c r="C165">
+        <v>8479.58</v>
+      </c>
+      <c r="D165">
+        <v>341.66</v>
+      </c>
+      <c r="E165">
+        <v>4188.9799999999996</v>
+      </c>
+      <c r="F165">
+        <v>155.69</v>
+      </c>
+      <c r="G165">
+        <v>113.5885</v>
+      </c>
+      <c r="H165">
+        <v>164.08</v>
+      </c>
+      <c r="I165">
+        <v>91.628600000000006</v>
+      </c>
+      <c r="J165">
+        <v>93.632599999999996</v>
+      </c>
+      <c r="K165">
+        <v>127.377</v>
+      </c>
+      <c r="L165">
+        <v>878.03</v>
+      </c>
+      <c r="M165">
+        <v>1138.46</v>
+      </c>
+      <c r="N165">
+        <v>283.50299999999999</v>
+      </c>
+      <c r="O165">
+        <v>282.12</v>
+      </c>
+      <c r="P165">
+        <v>358.88</v>
+      </c>
+      <c r="Q165">
+        <v>335.82</v>
+      </c>
+      <c r="R165">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B166">
+        <v>9065.49</v>
+      </c>
+      <c r="C166">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="D166">
+        <v>341.89</v>
+      </c>
+      <c r="E166">
+        <v>4195.88</v>
+      </c>
+      <c r="F166">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="G166">
+        <v>113.4795</v>
+      </c>
+      <c r="H166">
+        <v>164.13</v>
+      </c>
+      <c r="I166">
+        <v>91.601500000000001</v>
+      </c>
+      <c r="J166">
+        <v>93.622600000000006</v>
+      </c>
+      <c r="K166">
+        <v>127.35680000000001</v>
+      </c>
+      <c r="L166">
+        <v>877.94</v>
+      </c>
+      <c r="M166">
+        <v>1138.22</v>
+      </c>
+      <c r="N166">
+        <v>283.584</v>
+      </c>
+      <c r="O166">
+        <v>282.27999999999997</v>
+      </c>
+      <c r="P166">
+        <v>359.17</v>
+      </c>
+      <c r="Q166">
+        <v>336.14</v>
+      </c>
+      <c r="R166">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B167">
+        <v>8948.8179999999993</v>
+      </c>
+      <c r="C167">
+        <v>8421.4699999999993</v>
+      </c>
+      <c r="D167">
+        <v>337.42</v>
+      </c>
+      <c r="E167">
+        <v>4132.21</v>
+      </c>
+      <c r="F167">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="G167">
+        <v>113.3695</v>
+      </c>
+      <c r="H167">
+        <v>164.09</v>
+      </c>
+      <c r="I167">
+        <v>91.6524</v>
+      </c>
+      <c r="J167">
+        <v>93.679500000000004</v>
+      </c>
+      <c r="K167">
+        <v>127.3942</v>
+      </c>
+      <c r="L167">
+        <v>879.18</v>
+      </c>
+      <c r="M167">
+        <v>1137.3699999999999</v>
+      </c>
+      <c r="N167">
+        <v>283.77629999999999</v>
+      </c>
+      <c r="O167">
+        <v>282.26</v>
+      </c>
+      <c r="P167">
+        <v>359.09</v>
+      </c>
+      <c r="Q167">
+        <v>335.99</v>
+      </c>
+      <c r="R167">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B168">
+        <v>8758.2430000000004</v>
+      </c>
+      <c r="C168">
+        <v>8258.69</v>
+      </c>
+      <c r="D168">
+        <v>331.53</v>
+      </c>
+      <c r="E168">
+        <v>4100.78</v>
+      </c>
+      <c r="F168">
+        <v>152.16</v>
+      </c>
+      <c r="G168">
+        <v>112.8489</v>
+      </c>
+      <c r="H168">
+        <v>163.65</v>
+      </c>
+      <c r="I168">
+        <v>91.783199999999994</v>
+      </c>
+      <c r="J168">
+        <v>93.810299999999998</v>
+      </c>
+      <c r="K168">
+        <v>127.4551</v>
+      </c>
+      <c r="L168">
+        <v>881.66</v>
+      </c>
+      <c r="M168">
+        <v>1137.31</v>
+      </c>
+      <c r="N168">
+        <v>282.39870000000002</v>
+      </c>
+      <c r="O168">
+        <v>281.58</v>
+      </c>
+      <c r="P168">
+        <v>359.12</v>
+      </c>
+      <c r="Q168">
+        <v>335.71</v>
+      </c>
+      <c r="R168">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B169">
+        <v>8738.7630000000008</v>
+      </c>
+      <c r="C169">
+        <v>8245.83</v>
+      </c>
+      <c r="D169">
+        <v>330.83</v>
+      </c>
+      <c r="E169">
+        <v>4090.63</v>
+      </c>
+      <c r="F169">
+        <v>151.13</v>
+      </c>
+      <c r="G169">
+        <v>112.38030000000001</v>
+      </c>
+      <c r="H169">
+        <v>163.33000000000001</v>
+      </c>
+      <c r="I169">
+        <v>91.73</v>
+      </c>
+      <c r="J169">
+        <v>93.707599999999999</v>
+      </c>
+      <c r="K169">
+        <v>127.4281</v>
+      </c>
+      <c r="L169">
+        <v>882.34</v>
+      </c>
+      <c r="M169">
+        <v>1136.7</v>
+      </c>
+      <c r="N169">
+        <v>282.93119999999999</v>
+      </c>
+      <c r="O169">
+        <v>281.99</v>
+      </c>
+      <c r="P169">
+        <v>359.29</v>
+      </c>
+      <c r="Q169">
+        <v>336.35</v>
+      </c>
+      <c r="R169">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B170">
+        <v>8764.42</v>
+      </c>
+      <c r="C170">
+        <v>8279.5499999999993</v>
+      </c>
+      <c r="D170">
+        <v>331.29</v>
+      </c>
+      <c r="E170">
+        <v>4076.99</v>
+      </c>
+      <c r="F170">
+        <v>149.65</v>
+      </c>
+      <c r="G170">
+        <v>112.1097</v>
+      </c>
+      <c r="H170">
+        <v>163.25</v>
+      </c>
+      <c r="I170">
+        <v>91.584100000000007</v>
+      </c>
+      <c r="J170">
+        <v>93.628100000000003</v>
+      </c>
+      <c r="K170">
+        <v>127.3526</v>
+      </c>
+      <c r="L170">
+        <v>882.25</v>
+      </c>
+      <c r="M170">
+        <v>1136.58</v>
+      </c>
+      <c r="N170">
+        <v>283.32589999999999</v>
+      </c>
+      <c r="O170">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="P170">
+        <v>359.77</v>
+      </c>
+      <c r="Q170">
+        <v>336.56</v>
+      </c>
+      <c r="R170">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B171">
+        <v>8888.1280000000006</v>
+      </c>
+      <c r="C171">
+        <v>8295.5400000000009</v>
+      </c>
+      <c r="D171">
+        <v>335.48</v>
+      </c>
+      <c r="E171">
+        <v>4127.1400000000003</v>
+      </c>
+      <c r="F171">
+        <v>152.35</v>
+      </c>
+      <c r="G171">
+        <v>112.3784</v>
+      </c>
+      <c r="H171">
+        <v>163.52000000000001</v>
+      </c>
+      <c r="I171">
+        <v>91.489199999999997</v>
+      </c>
+      <c r="J171">
+        <v>93.480199999999996</v>
+      </c>
+      <c r="K171">
+        <v>127.29259999999999</v>
+      </c>
+      <c r="L171">
+        <v>879.89</v>
+      </c>
+      <c r="M171">
+        <v>1134.26</v>
+      </c>
+      <c r="N171">
+        <v>282.47680000000003</v>
+      </c>
+      <c r="O171">
+        <v>281.86</v>
+      </c>
+      <c r="P171">
+        <v>359.18</v>
+      </c>
+      <c r="Q171">
+        <v>335.96</v>
+      </c>
+      <c r="R171">
+        <v>169.53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B172">
+        <v>8588.9459999999999</v>
+      </c>
+      <c r="C172">
+        <v>8135.58</v>
+      </c>
+      <c r="D172">
+        <v>327.63</v>
+      </c>
+      <c r="E172">
+        <v>4131.16</v>
+      </c>
+      <c r="F172">
+        <v>154.22</v>
+      </c>
+      <c r="G172">
+        <v>112.1219</v>
+      </c>
+      <c r="H172">
+        <v>162.63</v>
+      </c>
+      <c r="I172">
+        <v>91.706000000000003</v>
+      </c>
+      <c r="J172">
+        <v>93.591999999999999</v>
+      </c>
+      <c r="K172">
+        <v>127.38809999999999</v>
+      </c>
+      <c r="L172">
+        <v>885.23</v>
+      </c>
+      <c r="M172">
+        <v>1135.52</v>
+      </c>
+      <c r="N172">
+        <v>284.0487</v>
+      </c>
+      <c r="O172">
+        <v>282.58</v>
+      </c>
+      <c r="P172">
+        <v>359.94</v>
+      </c>
+      <c r="Q172">
+        <v>336.02</v>
+      </c>
+      <c r="R172">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B173">
+        <v>8532.1020000000008</v>
+      </c>
+      <c r="C173">
+        <v>8060.68</v>
+      </c>
+      <c r="D173">
+        <v>324.31</v>
+      </c>
+      <c r="E173">
+        <v>4088.08</v>
+      </c>
+      <c r="F173">
+        <v>152.58000000000001</v>
+      </c>
+      <c r="G173">
+        <v>111.52509999999999</v>
+      </c>
+      <c r="H173">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="I173">
+        <v>91.723500000000001</v>
+      </c>
+      <c r="J173">
+        <v>93.755799999999994</v>
+      </c>
+      <c r="K173">
+        <v>127.4524</v>
+      </c>
+      <c r="L173">
+        <v>887.12</v>
+      </c>
+      <c r="M173">
+        <v>1133.95</v>
+      </c>
+      <c r="N173">
+        <v>284.16669999999999</v>
+      </c>
+      <c r="O173">
+        <v>283.06</v>
+      </c>
+      <c r="P173">
+        <v>360.56</v>
+      </c>
+      <c r="Q173">
+        <v>337.07</v>
+      </c>
+      <c r="R173">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B174">
+        <v>8438.6869999999999</v>
+      </c>
+      <c r="C174">
+        <v>8041.3</v>
+      </c>
+      <c r="D174">
+        <v>321.83999999999997</v>
+      </c>
+      <c r="E174">
+        <v>4090.08</v>
+      </c>
+      <c r="F174">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="G174">
+        <v>110.976</v>
+      </c>
+      <c r="H174">
+        <v>161.75</v>
+      </c>
+      <c r="I174">
+        <v>91.882199999999997</v>
+      </c>
+      <c r="J174">
+        <v>93.805899999999994</v>
+      </c>
+      <c r="K174">
+        <v>127.5065</v>
+      </c>
+      <c r="L174">
+        <v>889.74</v>
+      </c>
+      <c r="M174">
+        <v>1133.72</v>
+      </c>
+      <c r="N174">
+        <v>284.59399999999999</v>
+      </c>
+      <c r="O174">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="P174">
+        <v>360.03</v>
+      </c>
+      <c r="Q174">
+        <v>336.89</v>
+      </c>
+      <c r="R174">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B175">
+        <v>8374.4159999999993</v>
+      </c>
+      <c r="C175">
+        <v>7940.45</v>
+      </c>
+      <c r="D175">
+        <v>319.98</v>
+      </c>
+      <c r="E175">
+        <v>4046.99</v>
+      </c>
+      <c r="F175">
+        <v>151.47</v>
+      </c>
+      <c r="G175">
+        <v>110.51479999999999</v>
+      </c>
+      <c r="H175">
+        <v>161.09</v>
+      </c>
+      <c r="I175">
+        <v>91.6631</v>
+      </c>
+      <c r="J175">
+        <v>93.6631</v>
+      </c>
+      <c r="K175">
+        <v>127.4104</v>
+      </c>
+      <c r="L175">
+        <v>892.53</v>
+      </c>
+      <c r="M175">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="N175">
+        <v>285.5609</v>
+      </c>
+      <c r="O175">
+        <v>283.08999999999997</v>
+      </c>
+      <c r="P175">
+        <v>360.47</v>
+      </c>
+      <c r="Q175">
+        <v>337.21</v>
+      </c>
+      <c r="R175">
+        <v>169.7</v>
       </c>
     </row>
   </sheetData>
@@ -59400,8 +60634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159:R180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59437,7 +60671,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44774</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -59621,74 +60855,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=152")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=174")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -68149,105 +69383,1271 @@
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B159">
+        <v>8647.9089999999997</v>
+      </c>
+      <c r="C159">
+        <v>8314.01</v>
+      </c>
+      <c r="D159">
+        <v>329.93</v>
+      </c>
+      <c r="E159">
+        <v>4220.7</v>
+      </c>
+      <c r="F159">
+        <v>160.71</v>
+      </c>
+      <c r="G159">
+        <v>112.7552</v>
+      </c>
+      <c r="H159">
+        <v>164.11</v>
+      </c>
+      <c r="I159">
+        <v>91.885199999999998</v>
+      </c>
+      <c r="J159">
+        <v>93.963099999999997</v>
+      </c>
+      <c r="K159">
+        <v>127.5134</v>
+      </c>
+      <c r="L159">
+        <v>884.32</v>
+      </c>
+      <c r="M159">
+        <v>1143.08</v>
+      </c>
+      <c r="N159">
+        <v>283.39949999999999</v>
+      </c>
+      <c r="O159">
+        <v>281.45</v>
+      </c>
+      <c r="P159">
+        <v>357.92</v>
+      </c>
+      <c r="Q159">
+        <v>335.23</v>
+      </c>
+      <c r="R159">
+        <v>168.75</v>
+      </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B160">
+        <v>8783.2839999999997</v>
+      </c>
+      <c r="C160">
+        <v>8422.1200000000008</v>
+      </c>
+      <c r="D160">
+        <v>332.9</v>
+      </c>
+      <c r="E160">
+        <v>4277.07</v>
+      </c>
+      <c r="F160">
+        <v>164.16</v>
+      </c>
+      <c r="G160">
+        <v>112.8616</v>
+      </c>
+      <c r="H160">
+        <v>164.17</v>
+      </c>
+      <c r="I160">
+        <v>91.796300000000002</v>
+      </c>
+      <c r="J160">
+        <v>93.831400000000002</v>
+      </c>
+      <c r="K160">
+        <v>127.47369999999999</v>
+      </c>
+      <c r="L160">
+        <v>881.43</v>
+      </c>
+      <c r="M160">
+        <v>1144.95</v>
+      </c>
+      <c r="N160">
+        <v>283.7593</v>
+      </c>
+      <c r="O160">
+        <v>281.41000000000003</v>
+      </c>
+      <c r="P160">
+        <v>358.02</v>
+      </c>
+      <c r="Q160">
+        <v>334.95</v>
+      </c>
+      <c r="R160">
+        <v>169.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B161">
+        <v>8777.2270000000008</v>
+      </c>
+      <c r="C161">
+        <v>8473.32</v>
+      </c>
+      <c r="D161">
+        <v>333.95</v>
+      </c>
+      <c r="E161">
+        <v>4277.0200000000004</v>
+      </c>
+      <c r="F161">
+        <v>163.69</v>
+      </c>
+      <c r="G161">
+        <v>112.8156</v>
+      </c>
+      <c r="H161">
+        <v>164.23</v>
+      </c>
+      <c r="I161">
+        <v>91.813800000000001</v>
+      </c>
+      <c r="J161">
+        <v>93.827100000000002</v>
+      </c>
+      <c r="K161">
+        <v>127.4787</v>
+      </c>
+      <c r="L161">
+        <v>881.65</v>
+      </c>
+      <c r="M161">
+        <v>1146.56</v>
+      </c>
+      <c r="N161">
+        <v>283.81979999999999</v>
+      </c>
+      <c r="O161">
+        <v>281.73</v>
+      </c>
+      <c r="P161">
+        <v>358.45</v>
+      </c>
+      <c r="Q161">
+        <v>335.16</v>
+      </c>
+      <c r="R161">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B162">
+        <v>8764.0820000000003</v>
+      </c>
+      <c r="C162">
+        <v>8407.4</v>
+      </c>
+      <c r="D162">
+        <v>333.24</v>
+      </c>
+      <c r="E162">
+        <v>4197.07</v>
+      </c>
+      <c r="F162">
+        <v>159.1</v>
+      </c>
+      <c r="G162">
+        <v>112.5962</v>
+      </c>
+      <c r="H162">
+        <v>164.17</v>
+      </c>
+      <c r="I162">
+        <v>91.774100000000004</v>
+      </c>
+      <c r="J162">
+        <v>93.788799999999995</v>
+      </c>
+      <c r="K162">
+        <v>127.4599</v>
+      </c>
+      <c r="L162">
+        <v>882.16</v>
+      </c>
+      <c r="M162">
+        <v>1144.69</v>
+      </c>
+      <c r="N162">
+        <v>283.7833</v>
+      </c>
+      <c r="O162">
+        <v>281.98</v>
+      </c>
+      <c r="P162">
+        <v>358.77</v>
+      </c>
+      <c r="Q162">
+        <v>335.51</v>
+      </c>
+      <c r="R162">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B163">
+        <v>8753.393</v>
+      </c>
+      <c r="C163">
+        <v>8480.9599999999991</v>
+      </c>
+      <c r="D163">
+        <v>333.93</v>
+      </c>
+      <c r="E163">
+        <v>4238.93</v>
+      </c>
+      <c r="F163">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="G163">
+        <v>112.59910000000001</v>
+      </c>
+      <c r="H163">
+        <v>164.19</v>
+      </c>
+      <c r="I163">
+        <v>91.7637</v>
+      </c>
+      <c r="J163">
+        <v>93.765199999999993</v>
+      </c>
+      <c r="K163">
+        <v>127.44280000000001</v>
+      </c>
+      <c r="L163">
+        <v>882.2</v>
+      </c>
+      <c r="M163">
+        <v>1143.3399999999999</v>
+      </c>
+      <c r="N163">
+        <v>283.74579999999997</v>
+      </c>
+      <c r="O163">
+        <v>282.18</v>
+      </c>
+      <c r="P163">
+        <v>359.11</v>
+      </c>
+      <c r="Q163">
+        <v>335.75</v>
+      </c>
+      <c r="R163">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B164">
+        <v>8716.7510000000002</v>
+      </c>
+      <c r="C164">
+        <v>8386.49</v>
+      </c>
+      <c r="D164">
+        <v>332.31</v>
+      </c>
+      <c r="E164">
+        <v>4217.03</v>
+      </c>
+      <c r="F164">
+        <v>161.62</v>
+      </c>
+      <c r="G164">
+        <v>112.4363</v>
+      </c>
+      <c r="H164">
+        <v>164.2</v>
+      </c>
+      <c r="I164">
+        <v>91.772300000000001</v>
+      </c>
+      <c r="J164">
+        <v>93.783199999999994</v>
+      </c>
+      <c r="K164">
+        <v>127.4515</v>
+      </c>
+      <c r="L164">
+        <v>882.85</v>
+      </c>
+      <c r="M164">
+        <v>1144.8499999999999</v>
+      </c>
+      <c r="N164">
+        <v>283.67189999999999</v>
+      </c>
+      <c r="O164">
+        <v>282.29000000000002</v>
+      </c>
+      <c r="P164">
+        <v>359.06</v>
+      </c>
+      <c r="Q164">
+        <v>336</v>
+      </c>
+      <c r="R164">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B165">
+        <v>8902.723</v>
+      </c>
+      <c r="C165">
+        <v>8463.18</v>
+      </c>
+      <c r="D165">
+        <v>338.6</v>
+      </c>
+      <c r="E165">
+        <v>4228.0600000000004</v>
+      </c>
+      <c r="F165">
+        <v>160</v>
+      </c>
+      <c r="G165">
+        <v>112.8806</v>
+      </c>
+      <c r="H165">
+        <v>164.25</v>
+      </c>
+      <c r="I165">
+        <v>91.653800000000004</v>
+      </c>
+      <c r="J165">
+        <v>93.670699999999997</v>
+      </c>
+      <c r="K165">
+        <v>127.38979999999999</v>
+      </c>
+      <c r="L165">
+        <v>879.76</v>
+      </c>
+      <c r="M165">
+        <v>1141.68</v>
+      </c>
+      <c r="N165">
+        <v>283.73329999999999</v>
+      </c>
+      <c r="O165">
+        <v>282.02</v>
+      </c>
+      <c r="P165">
+        <v>358.84</v>
+      </c>
+      <c r="Q165">
+        <v>335.55</v>
+      </c>
+      <c r="R165">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B166">
+        <v>8898.8369999999995</v>
+      </c>
+      <c r="C166">
+        <v>8480.57</v>
+      </c>
+      <c r="D166">
+        <v>339.2</v>
+      </c>
+      <c r="E166">
+        <v>4182.1499999999996</v>
+      </c>
+      <c r="F166">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="G166">
+        <v>113.005</v>
+      </c>
+      <c r="H166">
+        <v>164.25</v>
+      </c>
+      <c r="I166">
+        <v>91.656999999999996</v>
+      </c>
+      <c r="J166">
+        <v>93.661299999999997</v>
+      </c>
+      <c r="K166">
+        <v>127.3886</v>
+      </c>
+      <c r="L166">
+        <v>879.67</v>
+      </c>
+      <c r="M166">
+        <v>1143.45</v>
+      </c>
+      <c r="N166">
+        <v>284.00580000000002</v>
+      </c>
+      <c r="O166">
+        <v>281.82</v>
+      </c>
+      <c r="P166">
+        <v>358.55</v>
+      </c>
+      <c r="Q166">
+        <v>335.15</v>
+      </c>
+      <c r="R166">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B167">
+        <v>9054.1380000000008</v>
+      </c>
+      <c r="C167">
+        <v>8526.42</v>
+      </c>
+      <c r="D167">
+        <v>342.89</v>
+      </c>
+      <c r="E167">
+        <v>4227.76</v>
+      </c>
+      <c r="F167">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="G167">
+        <v>113.5121</v>
+      </c>
+      <c r="H167">
+        <v>164.38</v>
+      </c>
+      <c r="I167">
+        <v>91.620500000000007</v>
+      </c>
+      <c r="J167">
+        <v>93.633799999999994</v>
+      </c>
+      <c r="K167">
+        <v>127.36879999999999</v>
+      </c>
+      <c r="L167">
+        <v>877.68</v>
+      </c>
+      <c r="M167">
+        <v>1138.8599999999999</v>
+      </c>
+      <c r="N167">
+        <v>284.35640000000001</v>
+      </c>
+      <c r="O167">
+        <v>281.73</v>
+      </c>
+      <c r="P167">
+        <v>358.53</v>
+      </c>
+      <c r="Q167">
+        <v>335.23</v>
+      </c>
+      <c r="R167">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B168">
+        <v>9090.3610000000008</v>
+      </c>
+      <c r="C168">
+        <v>8555.33</v>
+      </c>
+      <c r="D168">
+        <v>343.69</v>
+      </c>
+      <c r="E168">
+        <v>4237.04</v>
+      </c>
+      <c r="F168">
+        <v>156.78</v>
+      </c>
+      <c r="G168">
+        <v>113.54300000000001</v>
+      </c>
+      <c r="H168">
+        <v>164.28</v>
+      </c>
+      <c r="I168">
+        <v>91.620999999999995</v>
+      </c>
+      <c r="J168">
+        <v>93.638400000000004</v>
+      </c>
+      <c r="K168">
+        <v>127.3695</v>
+      </c>
+      <c r="L168">
+        <v>877.44</v>
+      </c>
+      <c r="M168">
+        <v>1138.67</v>
+      </c>
+      <c r="N168">
+        <v>283.9357</v>
+      </c>
+      <c r="O168">
+        <v>281.91000000000003</v>
+      </c>
+      <c r="P168">
+        <v>358.73</v>
+      </c>
+      <c r="Q168">
+        <v>335.44</v>
+      </c>
+      <c r="R168">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B169">
+        <v>9107.8670000000002</v>
+      </c>
+      <c r="C169">
+        <v>8590.56</v>
+      </c>
+      <c r="D169">
+        <v>343.89</v>
+      </c>
+      <c r="E169">
+        <v>4237.16</v>
+      </c>
+      <c r="F169">
+        <v>157.85</v>
+      </c>
+      <c r="G169">
+        <v>113.5821</v>
+      </c>
+      <c r="H169">
+        <v>164.29</v>
+      </c>
+      <c r="I169">
+        <v>91.624799999999993</v>
+      </c>
+      <c r="J169">
+        <v>93.634299999999996</v>
+      </c>
+      <c r="K169">
+        <v>127.37260000000001</v>
+      </c>
+      <c r="L169">
+        <v>877.33</v>
+      </c>
+      <c r="M169">
+        <v>1137.5899999999999</v>
+      </c>
+      <c r="N169">
+        <v>283.93880000000001</v>
+      </c>
+      <c r="O169">
+        <v>282.08999999999997</v>
+      </c>
+      <c r="P169">
+        <v>358.89</v>
+      </c>
+      <c r="Q169">
+        <v>335.68</v>
+      </c>
+      <c r="R169">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B170">
+        <v>9043.5889999999999</v>
+      </c>
+      <c r="C170">
+        <v>8479.58</v>
+      </c>
+      <c r="D170">
+        <v>341.66</v>
+      </c>
+      <c r="E170">
+        <v>4188.9799999999996</v>
+      </c>
+      <c r="F170">
+        <v>155.69</v>
+      </c>
+      <c r="G170">
+        <v>113.5885</v>
+      </c>
+      <c r="H170">
+        <v>164.08</v>
+      </c>
+      <c r="I170">
+        <v>91.628600000000006</v>
+      </c>
+      <c r="J170">
+        <v>93.632599999999996</v>
+      </c>
+      <c r="K170">
+        <v>127.377</v>
+      </c>
+      <c r="L170">
+        <v>878.03</v>
+      </c>
+      <c r="M170">
+        <v>1138.46</v>
+      </c>
+      <c r="N170">
+        <v>283.50299999999999</v>
+      </c>
+      <c r="O170">
+        <v>282.12</v>
+      </c>
+      <c r="P170">
+        <v>358.88</v>
+      </c>
+      <c r="Q170">
+        <v>335.82</v>
+      </c>
+      <c r="R170">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B171">
+        <v>9065.49</v>
+      </c>
+      <c r="C171">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="D171">
+        <v>341.89</v>
+      </c>
+      <c r="E171">
+        <v>4195.88</v>
+      </c>
+      <c r="F171">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="G171">
+        <v>113.4795</v>
+      </c>
+      <c r="H171">
+        <v>164.13</v>
+      </c>
+      <c r="I171">
+        <v>91.601500000000001</v>
+      </c>
+      <c r="J171">
+        <v>93.622600000000006</v>
+      </c>
+      <c r="K171">
+        <v>127.35680000000001</v>
+      </c>
+      <c r="L171">
+        <v>877.94</v>
+      </c>
+      <c r="M171">
+        <v>1138.22</v>
+      </c>
+      <c r="N171">
+        <v>283.584</v>
+      </c>
+      <c r="O171">
+        <v>282.27999999999997</v>
+      </c>
+      <c r="P171">
+        <v>359.17</v>
+      </c>
+      <c r="Q171">
+        <v>336.14</v>
+      </c>
+      <c r="R171">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B172">
+        <v>8948.8179999999993</v>
+      </c>
+      <c r="C172">
+        <v>8421.4699999999993</v>
+      </c>
+      <c r="D172">
+        <v>337.42</v>
+      </c>
+      <c r="E172">
+        <v>4132.21</v>
+      </c>
+      <c r="F172">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="G172">
+        <v>113.3695</v>
+      </c>
+      <c r="H172">
+        <v>164.09</v>
+      </c>
+      <c r="I172">
+        <v>91.6524</v>
+      </c>
+      <c r="J172">
+        <v>93.679500000000004</v>
+      </c>
+      <c r="K172">
+        <v>127.3942</v>
+      </c>
+      <c r="L172">
+        <v>879.18</v>
+      </c>
+      <c r="M172">
+        <v>1137.3699999999999</v>
+      </c>
+      <c r="N172">
+        <v>283.77629999999999</v>
+      </c>
+      <c r="O172">
+        <v>282.26</v>
+      </c>
+      <c r="P172">
+        <v>359.09</v>
+      </c>
+      <c r="Q172">
+        <v>335.99</v>
+      </c>
+      <c r="R172">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B173">
+        <v>8758.2430000000004</v>
+      </c>
+      <c r="C173">
+        <v>8258.69</v>
+      </c>
+      <c r="D173">
+        <v>331.53</v>
+      </c>
+      <c r="E173">
+        <v>4100.78</v>
+      </c>
+      <c r="F173">
+        <v>152.16</v>
+      </c>
+      <c r="G173">
+        <v>112.8489</v>
+      </c>
+      <c r="H173">
+        <v>163.65</v>
+      </c>
+      <c r="I173">
+        <v>91.783199999999994</v>
+      </c>
+      <c r="J173">
+        <v>93.810299999999998</v>
+      </c>
+      <c r="K173">
+        <v>127.4551</v>
+      </c>
+      <c r="L173">
+        <v>881.66</v>
+      </c>
+      <c r="M173">
+        <v>1137.31</v>
+      </c>
+      <c r="N173">
+        <v>282.39870000000002</v>
+      </c>
+      <c r="O173">
+        <v>281.58</v>
+      </c>
+      <c r="P173">
+        <v>359.12</v>
+      </c>
+      <c r="Q173">
+        <v>335.71</v>
+      </c>
+      <c r="R173">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B174">
+        <v>8738.7630000000008</v>
+      </c>
+      <c r="C174">
+        <v>8245.83</v>
+      </c>
+      <c r="D174">
+        <v>330.83</v>
+      </c>
+      <c r="E174">
+        <v>4090.63</v>
+      </c>
+      <c r="F174">
+        <v>151.13</v>
+      </c>
+      <c r="G174">
+        <v>112.38030000000001</v>
+      </c>
+      <c r="H174">
+        <v>163.33000000000001</v>
+      </c>
+      <c r="I174">
+        <v>91.73</v>
+      </c>
+      <c r="J174">
+        <v>93.707599999999999</v>
+      </c>
+      <c r="K174">
+        <v>127.4281</v>
+      </c>
+      <c r="L174">
+        <v>882.34</v>
+      </c>
+      <c r="M174">
+        <v>1136.7</v>
+      </c>
+      <c r="N174">
+        <v>282.93119999999999</v>
+      </c>
+      <c r="O174">
+        <v>281.99</v>
+      </c>
+      <c r="P174">
+        <v>359.29</v>
+      </c>
+      <c r="Q174">
+        <v>336.35</v>
+      </c>
+      <c r="R174">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B175">
+        <v>8764.42</v>
+      </c>
+      <c r="C175">
+        <v>8279.5499999999993</v>
+      </c>
+      <c r="D175">
+        <v>331.29</v>
+      </c>
+      <c r="E175">
+        <v>4076.99</v>
+      </c>
+      <c r="F175">
+        <v>149.65</v>
+      </c>
+      <c r="G175">
+        <v>112.1097</v>
+      </c>
+      <c r="H175">
+        <v>163.25</v>
+      </c>
+      <c r="I175">
+        <v>91.584100000000007</v>
+      </c>
+      <c r="J175">
+        <v>93.628100000000003</v>
+      </c>
+      <c r="K175">
+        <v>127.3526</v>
+      </c>
+      <c r="L175">
+        <v>882.25</v>
+      </c>
+      <c r="M175">
+        <v>1136.58</v>
+      </c>
+      <c r="N175">
+        <v>283.32589999999999</v>
+      </c>
+      <c r="O175">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="P175">
+        <v>359.77</v>
+      </c>
+      <c r="Q175">
+        <v>336.56</v>
+      </c>
+      <c r="R175">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B176">
+        <v>8888.1280000000006</v>
+      </c>
+      <c r="C176">
+        <v>8295.5400000000009</v>
+      </c>
+      <c r="D176">
+        <v>335.48</v>
+      </c>
+      <c r="E176">
+        <v>4127.1400000000003</v>
+      </c>
+      <c r="F176">
+        <v>152.35</v>
+      </c>
+      <c r="G176">
+        <v>112.3784</v>
+      </c>
+      <c r="H176">
+        <v>163.52000000000001</v>
+      </c>
+      <c r="I176">
+        <v>91.489199999999997</v>
+      </c>
+      <c r="J176">
+        <v>93.480199999999996</v>
+      </c>
+      <c r="K176">
+        <v>127.29259999999999</v>
+      </c>
+      <c r="L176">
+        <v>879.89</v>
+      </c>
+      <c r="M176">
+        <v>1134.26</v>
+      </c>
+      <c r="N176">
+        <v>282.47680000000003</v>
+      </c>
+      <c r="O176">
+        <v>281.86</v>
+      </c>
+      <c r="P176">
+        <v>359.18</v>
+      </c>
+      <c r="Q176">
+        <v>335.96</v>
+      </c>
+      <c r="R176">
+        <v>169.53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B177">
+        <v>8588.9459999999999</v>
+      </c>
+      <c r="C177">
+        <v>8135.58</v>
+      </c>
+      <c r="D177">
+        <v>327.63</v>
+      </c>
+      <c r="E177">
+        <v>4131.16</v>
+      </c>
+      <c r="F177">
+        <v>154.22</v>
+      </c>
+      <c r="G177">
+        <v>112.1219</v>
+      </c>
+      <c r="H177">
+        <v>162.63</v>
+      </c>
+      <c r="I177">
+        <v>91.706000000000003</v>
+      </c>
+      <c r="J177">
+        <v>93.591999999999999</v>
+      </c>
+      <c r="K177">
+        <v>127.38809999999999</v>
+      </c>
+      <c r="L177">
+        <v>885.23</v>
+      </c>
+      <c r="M177">
+        <v>1135.52</v>
+      </c>
+      <c r="N177">
+        <v>284.0487</v>
+      </c>
+      <c r="O177">
+        <v>282.58</v>
+      </c>
+      <c r="P177">
+        <v>359.94</v>
+      </c>
+      <c r="Q177">
+        <v>336.02</v>
+      </c>
+      <c r="R177">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B178">
+        <v>8532.1020000000008</v>
+      </c>
+      <c r="C178">
+        <v>8060.68</v>
+      </c>
+      <c r="D178">
+        <v>324.31</v>
+      </c>
+      <c r="E178">
+        <v>4088.08</v>
+      </c>
+      <c r="F178">
+        <v>152.58000000000001</v>
+      </c>
+      <c r="G178">
+        <v>111.52509999999999</v>
+      </c>
+      <c r="H178">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="I178">
+        <v>91.723500000000001</v>
+      </c>
+      <c r="J178">
+        <v>93.755799999999994</v>
+      </c>
+      <c r="K178">
+        <v>127.4524</v>
+      </c>
+      <c r="L178">
+        <v>887.12</v>
+      </c>
+      <c r="M178">
+        <v>1133.95</v>
+      </c>
+      <c r="N178">
+        <v>284.16669999999999</v>
+      </c>
+      <c r="O178">
+        <v>283.06</v>
+      </c>
+      <c r="P178">
+        <v>360.56</v>
+      </c>
+      <c r="Q178">
+        <v>337.07</v>
+      </c>
+      <c r="R178">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B179">
+        <v>8438.6869999999999</v>
+      </c>
+      <c r="C179">
+        <v>8041.3</v>
+      </c>
+      <c r="D179">
+        <v>321.83999999999997</v>
+      </c>
+      <c r="E179">
+        <v>4090.08</v>
+      </c>
+      <c r="F179">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="G179">
+        <v>110.976</v>
+      </c>
+      <c r="H179">
+        <v>161.75</v>
+      </c>
+      <c r="I179">
+        <v>91.882199999999997</v>
+      </c>
+      <c r="J179">
+        <v>93.805899999999994</v>
+      </c>
+      <c r="K179">
+        <v>127.5065</v>
+      </c>
+      <c r="L179">
+        <v>889.74</v>
+      </c>
+      <c r="M179">
+        <v>1133.72</v>
+      </c>
+      <c r="N179">
+        <v>284.59399999999999</v>
+      </c>
+      <c r="O179">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="P179">
+        <v>360.03</v>
+      </c>
+      <c r="Q179">
+        <v>336.89</v>
+      </c>
+      <c r="R179">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B180">
+        <v>8374.4159999999993</v>
+      </c>
+      <c r="C180">
+        <v>7940.45</v>
+      </c>
+      <c r="D180">
+        <v>319.98</v>
+      </c>
+      <c r="E180">
+        <v>4046.99</v>
+      </c>
+      <c r="F180">
+        <v>151.47</v>
+      </c>
+      <c r="G180">
+        <v>110.51479999999999</v>
+      </c>
+      <c r="H180">
+        <v>161.09</v>
+      </c>
+      <c r="I180">
+        <v>91.6631</v>
+      </c>
+      <c r="J180">
+        <v>93.6631</v>
+      </c>
+      <c r="K180">
+        <v>127.4104</v>
+      </c>
+      <c r="L180">
+        <v>892.53</v>
+      </c>
+      <c r="M180">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="N180">
+        <v>285.5609</v>
+      </c>
+      <c r="O180">
+        <v>283.08999999999997</v>
+      </c>
+      <c r="P180">
+        <v>360.47</v>
+      </c>
+      <c r="Q180">
+        <v>337.21</v>
+      </c>
+      <c r="R180">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643D30D-9FB0-48F9-A594-8C0065B30B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27DECF7-23E3-47CA-9EBA-D3F71AD177AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$R$7</definedName>
+    <definedName name="SpreadsheetBuilder_5" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,259 +171,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Requesting Data...4289900897</v>
-        <stp/>
-        <stp>BDH|10392637733247614934</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4210468981</v>
-        <stp/>
-        <stp>BDH|18235601751692783007</stp>
-        <tr r="D7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4243158146</v>
-        <stp/>
-        <stp>BDH|18188246218903434165</stp>
-        <tr r="G7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4262598056</v>
-        <stp/>
-        <stp>BDH|11430656411198540119</stp>
-        <tr r="J7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4203105617</v>
-        <stp/>
-        <stp>BDH|17468979122695054421</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Requesting Data...4279992330</v>
-        <stp/>
-        <stp>BDH|8854940670218968242</stp>
-        <tr r="E7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4246880534</v>
-        <stp/>
-        <stp>BDH|2134898534232693655</stp>
-        <tr r="M7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4194138881</v>
-        <stp/>
-        <stp>BDH|9968624828340503099</stp>
-        <tr r="P7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4263258258</v>
-        <stp/>
-        <stp>BDH|6524104830009952361</stp>
-        <tr r="A7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4276869603</v>
-        <stp/>
-        <stp>BDH|2379303510707076919</stp>
-        <tr r="H7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4225196147</v>
-        <stp/>
-        <stp>BDH|8869210834791755717</stp>
-        <tr r="I7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4287235548</v>
-        <stp/>
-        <stp>BDH|2377856097898302104</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4285226797</v>
-        <stp/>
-        <stp>BDH|7445316363007831343</stp>
-        <tr r="Q7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4264218600</v>
-        <stp/>
-        <stp>BDH|3095106220459993904</stp>
-        <tr r="F7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4227452786</v>
-        <stp/>
-        <stp>BDH|4741199751841169303</stp>
-        <tr r="R7" s="4"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C13</stp>
-        <stp>PX_LAST</stp>
-        <tr r="M5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C12</stp>
-        <stp>PX_LAST</stp>
-        <tr r="L5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C11</stp>
-        <stp>PX_LAST</stp>
-        <tr r="K5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C10</stp>
-        <stp>PX_LAST</stp>
-        <tr r="J5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C17</stp>
-        <stp>PX_LAST</stp>
-        <tr r="Q5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C16</stp>
-        <stp>PX_LAST</stp>
-        <tr r="P5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C15</stp>
-        <stp>PX_LAST</stp>
-        <tr r="O5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C14</stp>
-        <stp>PX_LAST</stp>
-        <tr r="N5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C18</stp>
-        <stp>PX_LAST</stp>
-        <tr r="R5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C9</stp>
-        <stp>PX_LAST</stp>
-        <tr r="I5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C8</stp>
-        <stp>PX_LAST</stp>
-        <tr r="H5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C3</stp>
-        <stp>PX_LAST</stp>
-        <tr r="C5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C7</stp>
-        <stp>PX_LAST</stp>
-        <tr r="G5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C6</stp>
-        <stp>PX_LAST</stp>
-        <tr r="F5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C5</stp>
-        <stp>PX_LAST</stp>
-        <tr r="E5" s="4"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[ups_data.xlsx]bbg!R5C4</stp>
-        <stp>PX_LAST</stp>
-        <tr r="D5" s="4"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A Requesting Data...1334743677</v>
-        <stp/>
-        <stp>BDH|274322730555081536</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2240291399</v>
-        <stp/>
-        <stp>BDH|882341662994038285</stp>
-        <tr r="C7" s="4"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q175"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="R154" sqref="R154:R175"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8769,1225 +8516,6 @@
         <v>334.43</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
-        <v>44774</v>
-      </c>
-      <c r="B153">
-        <v>8705.8739999999998</v>
-      </c>
-      <c r="C153">
-        <v>8363.6200000000008</v>
-      </c>
-      <c r="D153">
-        <v>332.58</v>
-      </c>
-      <c r="E153">
-        <v>4296.6899999999996</v>
-      </c>
-      <c r="F153">
-        <v>164.74</v>
-      </c>
-      <c r="G153">
-        <v>112.66970000000001</v>
-      </c>
-      <c r="H153">
-        <v>164.17</v>
-      </c>
-      <c r="I153">
-        <v>91.878799999999998</v>
-      </c>
-      <c r="J153">
-        <v>93.916300000000007</v>
-      </c>
-      <c r="K153">
-        <v>127.5063</v>
-      </c>
-      <c r="L153">
-        <v>883.27</v>
-      </c>
-      <c r="M153">
-        <v>1142.3699999999999</v>
-      </c>
-      <c r="N153">
-        <v>283.7835</v>
-      </c>
-      <c r="O153">
-        <v>281.25</v>
-      </c>
-      <c r="P153">
-        <v>357.93</v>
-      </c>
-      <c r="Q153">
-        <v>334.82</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
-        <v>44775</v>
-      </c>
-      <c r="B154">
-        <v>8647.9089999999997</v>
-      </c>
-      <c r="C154">
-        <v>8314.01</v>
-      </c>
-      <c r="D154">
-        <v>329.93</v>
-      </c>
-      <c r="E154">
-        <v>4220.7</v>
-      </c>
-      <c r="F154">
-        <v>160.71</v>
-      </c>
-      <c r="G154">
-        <v>112.7552</v>
-      </c>
-      <c r="H154">
-        <v>164.11</v>
-      </c>
-      <c r="I154">
-        <v>91.885199999999998</v>
-      </c>
-      <c r="J154">
-        <v>93.963099999999997</v>
-      </c>
-      <c r="K154">
-        <v>127.5134</v>
-      </c>
-      <c r="L154">
-        <v>884.32</v>
-      </c>
-      <c r="M154">
-        <v>1143.08</v>
-      </c>
-      <c r="N154">
-        <v>283.39949999999999</v>
-      </c>
-      <c r="O154">
-        <v>281.45</v>
-      </c>
-      <c r="P154">
-        <v>357.92</v>
-      </c>
-      <c r="Q154">
-        <v>335.23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
-        <v>44776</v>
-      </c>
-      <c r="B155">
-        <v>8783.2839999999997</v>
-      </c>
-      <c r="C155">
-        <v>8422.1200000000008</v>
-      </c>
-      <c r="D155">
-        <v>332.9</v>
-      </c>
-      <c r="E155">
-        <v>4277.07</v>
-      </c>
-      <c r="F155">
-        <v>164.16</v>
-      </c>
-      <c r="G155">
-        <v>112.8616</v>
-      </c>
-      <c r="H155">
-        <v>164.17</v>
-      </c>
-      <c r="I155">
-        <v>91.796300000000002</v>
-      </c>
-      <c r="J155">
-        <v>93.831400000000002</v>
-      </c>
-      <c r="K155">
-        <v>127.47369999999999</v>
-      </c>
-      <c r="L155">
-        <v>881.43</v>
-      </c>
-      <c r="M155">
-        <v>1144.95</v>
-      </c>
-      <c r="N155">
-        <v>283.7593</v>
-      </c>
-      <c r="O155">
-        <v>281.41000000000003</v>
-      </c>
-      <c r="P155">
-        <v>358.02</v>
-      </c>
-      <c r="Q155">
-        <v>334.95</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
-        <v>44777</v>
-      </c>
-      <c r="B156">
-        <v>8777.2270000000008</v>
-      </c>
-      <c r="C156">
-        <v>8473.32</v>
-      </c>
-      <c r="D156">
-        <v>333.95</v>
-      </c>
-      <c r="E156">
-        <v>4277.0200000000004</v>
-      </c>
-      <c r="F156">
-        <v>163.69</v>
-      </c>
-      <c r="G156">
-        <v>112.8156</v>
-      </c>
-      <c r="H156">
-        <v>164.23</v>
-      </c>
-      <c r="I156">
-        <v>91.813800000000001</v>
-      </c>
-      <c r="J156">
-        <v>93.827100000000002</v>
-      </c>
-      <c r="K156">
-        <v>127.4787</v>
-      </c>
-      <c r="L156">
-        <v>881.65</v>
-      </c>
-      <c r="M156">
-        <v>1146.56</v>
-      </c>
-      <c r="N156">
-        <v>283.81979999999999</v>
-      </c>
-      <c r="O156">
-        <v>281.73</v>
-      </c>
-      <c r="P156">
-        <v>358.45</v>
-      </c>
-      <c r="Q156">
-        <v>335.16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
-        <v>44778</v>
-      </c>
-      <c r="B157">
-        <v>8764.0820000000003</v>
-      </c>
-      <c r="C157">
-        <v>8407.4</v>
-      </c>
-      <c r="D157">
-        <v>333.24</v>
-      </c>
-      <c r="E157">
-        <v>4197.07</v>
-      </c>
-      <c r="F157">
-        <v>159.1</v>
-      </c>
-      <c r="G157">
-        <v>112.5962</v>
-      </c>
-      <c r="H157">
-        <v>164.17</v>
-      </c>
-      <c r="I157">
-        <v>91.774100000000004</v>
-      </c>
-      <c r="J157">
-        <v>93.788799999999995</v>
-      </c>
-      <c r="K157">
-        <v>127.4599</v>
-      </c>
-      <c r="L157">
-        <v>882.16</v>
-      </c>
-      <c r="M157">
-        <v>1144.69</v>
-      </c>
-      <c r="N157">
-        <v>283.7833</v>
-      </c>
-      <c r="O157">
-        <v>281.98</v>
-      </c>
-      <c r="P157">
-        <v>358.77</v>
-      </c>
-      <c r="Q157">
-        <v>335.51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>44781</v>
-      </c>
-      <c r="B158">
-        <v>8753.393</v>
-      </c>
-      <c r="C158">
-        <v>8480.9599999999991</v>
-      </c>
-      <c r="D158">
-        <v>333.93</v>
-      </c>
-      <c r="E158">
-        <v>4238.93</v>
-      </c>
-      <c r="F158">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="G158">
-        <v>112.59910000000001</v>
-      </c>
-      <c r="H158">
-        <v>164.19</v>
-      </c>
-      <c r="I158">
-        <v>91.7637</v>
-      </c>
-      <c r="J158">
-        <v>93.765199999999993</v>
-      </c>
-      <c r="K158">
-        <v>127.44280000000001</v>
-      </c>
-      <c r="L158">
-        <v>882.2</v>
-      </c>
-      <c r="M158">
-        <v>1143.3399999999999</v>
-      </c>
-      <c r="N158">
-        <v>283.74579999999997</v>
-      </c>
-      <c r="O158">
-        <v>282.18</v>
-      </c>
-      <c r="P158">
-        <v>359.11</v>
-      </c>
-      <c r="Q158">
-        <v>335.75</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>44782</v>
-      </c>
-      <c r="B159">
-        <v>8716.7510000000002</v>
-      </c>
-      <c r="C159">
-        <v>8386.49</v>
-      </c>
-      <c r="D159">
-        <v>332.31</v>
-      </c>
-      <c r="E159">
-        <v>4217.03</v>
-      </c>
-      <c r="F159">
-        <v>161.62</v>
-      </c>
-      <c r="G159">
-        <v>112.4363</v>
-      </c>
-      <c r="H159">
-        <v>164.2</v>
-      </c>
-      <c r="I159">
-        <v>91.772300000000001</v>
-      </c>
-      <c r="J159">
-        <v>93.783199999999994</v>
-      </c>
-      <c r="K159">
-        <v>127.4515</v>
-      </c>
-      <c r="L159">
-        <v>882.85</v>
-      </c>
-      <c r="M159">
-        <v>1144.8499999999999</v>
-      </c>
-      <c r="N159">
-        <v>283.67189999999999</v>
-      </c>
-      <c r="O159">
-        <v>282.29000000000002</v>
-      </c>
-      <c r="P159">
-        <v>359.06</v>
-      </c>
-      <c r="Q159">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>44783</v>
-      </c>
-      <c r="B160">
-        <v>8902.723</v>
-      </c>
-      <c r="C160">
-        <v>8463.18</v>
-      </c>
-      <c r="D160">
-        <v>338.6</v>
-      </c>
-      <c r="E160">
-        <v>4228.0600000000004</v>
-      </c>
-      <c r="F160">
-        <v>160</v>
-      </c>
-      <c r="G160">
-        <v>112.8806</v>
-      </c>
-      <c r="H160">
-        <v>164.25</v>
-      </c>
-      <c r="I160">
-        <v>91.653800000000004</v>
-      </c>
-      <c r="J160">
-        <v>93.670699999999997</v>
-      </c>
-      <c r="K160">
-        <v>127.38979999999999</v>
-      </c>
-      <c r="L160">
-        <v>879.76</v>
-      </c>
-      <c r="M160">
-        <v>1141.68</v>
-      </c>
-      <c r="N160">
-        <v>283.73329999999999</v>
-      </c>
-      <c r="O160">
-        <v>282.02</v>
-      </c>
-      <c r="P160">
-        <v>358.84</v>
-      </c>
-      <c r="Q160">
-        <v>335.55</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>44784</v>
-      </c>
-      <c r="B161">
-        <v>8898.8369999999995</v>
-      </c>
-      <c r="C161">
-        <v>8480.57</v>
-      </c>
-      <c r="D161">
-        <v>339.2</v>
-      </c>
-      <c r="E161">
-        <v>4182.1499999999996</v>
-      </c>
-      <c r="F161">
-        <v>155.05000000000001</v>
-      </c>
-      <c r="G161">
-        <v>113.005</v>
-      </c>
-      <c r="H161">
-        <v>164.25</v>
-      </c>
-      <c r="I161">
-        <v>91.656999999999996</v>
-      </c>
-      <c r="J161">
-        <v>93.661299999999997</v>
-      </c>
-      <c r="K161">
-        <v>127.3886</v>
-      </c>
-      <c r="L161">
-        <v>879.67</v>
-      </c>
-      <c r="M161">
-        <v>1143.45</v>
-      </c>
-      <c r="N161">
-        <v>284.00580000000002</v>
-      </c>
-      <c r="O161">
-        <v>281.82</v>
-      </c>
-      <c r="P161">
-        <v>358.55</v>
-      </c>
-      <c r="Q161">
-        <v>335.15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B162">
-        <v>9054.1380000000008</v>
-      </c>
-      <c r="C162">
-        <v>8526.42</v>
-      </c>
-      <c r="D162">
-        <v>342.89</v>
-      </c>
-      <c r="E162">
-        <v>4227.76</v>
-      </c>
-      <c r="F162">
-        <v>157.05000000000001</v>
-      </c>
-      <c r="G162">
-        <v>113.5121</v>
-      </c>
-      <c r="H162">
-        <v>164.38</v>
-      </c>
-      <c r="I162">
-        <v>91.620500000000007</v>
-      </c>
-      <c r="J162">
-        <v>93.633799999999994</v>
-      </c>
-      <c r="K162">
-        <v>127.36879999999999</v>
-      </c>
-      <c r="L162">
-        <v>877.68</v>
-      </c>
-      <c r="M162">
-        <v>1138.8599999999999</v>
-      </c>
-      <c r="N162">
-        <v>284.35640000000001</v>
-      </c>
-      <c r="O162">
-        <v>281.73</v>
-      </c>
-      <c r="P162">
-        <v>358.53</v>
-      </c>
-      <c r="Q162">
-        <v>335.23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>44788</v>
-      </c>
-      <c r="B163">
-        <v>9090.3610000000008</v>
-      </c>
-      <c r="C163">
-        <v>8555.33</v>
-      </c>
-      <c r="D163">
-        <v>343.69</v>
-      </c>
-      <c r="E163">
-        <v>4237.04</v>
-      </c>
-      <c r="F163">
-        <v>156.78</v>
-      </c>
-      <c r="G163">
-        <v>113.54300000000001</v>
-      </c>
-      <c r="H163">
-        <v>164.28</v>
-      </c>
-      <c r="I163">
-        <v>91.620999999999995</v>
-      </c>
-      <c r="J163">
-        <v>93.638400000000004</v>
-      </c>
-      <c r="K163">
-        <v>127.3695</v>
-      </c>
-      <c r="L163">
-        <v>877.44</v>
-      </c>
-      <c r="M163">
-        <v>1138.67</v>
-      </c>
-      <c r="N163">
-        <v>283.9357</v>
-      </c>
-      <c r="O163">
-        <v>281.91000000000003</v>
-      </c>
-      <c r="P163">
-        <v>358.73</v>
-      </c>
-      <c r="Q163">
-        <v>335.44</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>44789</v>
-      </c>
-      <c r="B164">
-        <v>9107.8670000000002</v>
-      </c>
-      <c r="C164">
-        <v>8590.56</v>
-      </c>
-      <c r="D164">
-        <v>343.89</v>
-      </c>
-      <c r="E164">
-        <v>4237.16</v>
-      </c>
-      <c r="F164">
-        <v>157.85</v>
-      </c>
-      <c r="G164">
-        <v>113.5821</v>
-      </c>
-      <c r="H164">
-        <v>164.29</v>
-      </c>
-      <c r="I164">
-        <v>91.624799999999993</v>
-      </c>
-      <c r="J164">
-        <v>93.634299999999996</v>
-      </c>
-      <c r="K164">
-        <v>127.37260000000001</v>
-      </c>
-      <c r="L164">
-        <v>877.33</v>
-      </c>
-      <c r="M164">
-        <v>1137.5899999999999</v>
-      </c>
-      <c r="N164">
-        <v>283.93880000000001</v>
-      </c>
-      <c r="O164">
-        <v>282.08999999999997</v>
-      </c>
-      <c r="P164">
-        <v>358.89</v>
-      </c>
-      <c r="Q164">
-        <v>335.68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>44790</v>
-      </c>
-      <c r="B165">
-        <v>9043.5889999999999</v>
-      </c>
-      <c r="C165">
-        <v>8479.58</v>
-      </c>
-      <c r="D165">
-        <v>341.66</v>
-      </c>
-      <c r="E165">
-        <v>4188.9799999999996</v>
-      </c>
-      <c r="F165">
-        <v>155.69</v>
-      </c>
-      <c r="G165">
-        <v>113.5885</v>
-      </c>
-      <c r="H165">
-        <v>164.08</v>
-      </c>
-      <c r="I165">
-        <v>91.628600000000006</v>
-      </c>
-      <c r="J165">
-        <v>93.632599999999996</v>
-      </c>
-      <c r="K165">
-        <v>127.377</v>
-      </c>
-      <c r="L165">
-        <v>878.03</v>
-      </c>
-      <c r="M165">
-        <v>1138.46</v>
-      </c>
-      <c r="N165">
-        <v>283.50299999999999</v>
-      </c>
-      <c r="O165">
-        <v>282.12</v>
-      </c>
-      <c r="P165">
-        <v>358.88</v>
-      </c>
-      <c r="Q165">
-        <v>335.82</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>44791</v>
-      </c>
-      <c r="B166">
-        <v>9065.49</v>
-      </c>
-      <c r="C166">
-        <v>8527.7000000000007</v>
-      </c>
-      <c r="D166">
-        <v>341.89</v>
-      </c>
-      <c r="E166">
-        <v>4195.88</v>
-      </c>
-      <c r="F166">
-        <v>155.88999999999999</v>
-      </c>
-      <c r="G166">
-        <v>113.4795</v>
-      </c>
-      <c r="H166">
-        <v>164.13</v>
-      </c>
-      <c r="I166">
-        <v>91.601500000000001</v>
-      </c>
-      <c r="J166">
-        <v>93.622600000000006</v>
-      </c>
-      <c r="K166">
-        <v>127.35680000000001</v>
-      </c>
-      <c r="L166">
-        <v>877.94</v>
-      </c>
-      <c r="M166">
-        <v>1138.22</v>
-      </c>
-      <c r="N166">
-        <v>283.584</v>
-      </c>
-      <c r="O166">
-        <v>282.27999999999997</v>
-      </c>
-      <c r="P166">
-        <v>359.17</v>
-      </c>
-      <c r="Q166">
-        <v>336.14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>44792</v>
-      </c>
-      <c r="B167">
-        <v>8948.8179999999993</v>
-      </c>
-      <c r="C167">
-        <v>8421.4699999999993</v>
-      </c>
-      <c r="D167">
-        <v>337.42</v>
-      </c>
-      <c r="E167">
-        <v>4132.21</v>
-      </c>
-      <c r="F167">
-        <v>152.77000000000001</v>
-      </c>
-      <c r="G167">
-        <v>113.3695</v>
-      </c>
-      <c r="H167">
-        <v>164.09</v>
-      </c>
-      <c r="I167">
-        <v>91.6524</v>
-      </c>
-      <c r="J167">
-        <v>93.679500000000004</v>
-      </c>
-      <c r="K167">
-        <v>127.3942</v>
-      </c>
-      <c r="L167">
-        <v>879.18</v>
-      </c>
-      <c r="M167">
-        <v>1137.3699999999999</v>
-      </c>
-      <c r="N167">
-        <v>283.77629999999999</v>
-      </c>
-      <c r="O167">
-        <v>282.26</v>
-      </c>
-      <c r="P167">
-        <v>359.09</v>
-      </c>
-      <c r="Q167">
-        <v>335.99</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>44795</v>
-      </c>
-      <c r="B168">
-        <v>8758.2430000000004</v>
-      </c>
-      <c r="C168">
-        <v>8258.69</v>
-      </c>
-      <c r="D168">
-        <v>331.53</v>
-      </c>
-      <c r="E168">
-        <v>4100.78</v>
-      </c>
-      <c r="F168">
-        <v>152.16</v>
-      </c>
-      <c r="G168">
-        <v>112.8489</v>
-      </c>
-      <c r="H168">
-        <v>163.65</v>
-      </c>
-      <c r="I168">
-        <v>91.783199999999994</v>
-      </c>
-      <c r="J168">
-        <v>93.810299999999998</v>
-      </c>
-      <c r="K168">
-        <v>127.4551</v>
-      </c>
-      <c r="L168">
-        <v>881.66</v>
-      </c>
-      <c r="M168">
-        <v>1137.31</v>
-      </c>
-      <c r="N168">
-        <v>282.39870000000002</v>
-      </c>
-      <c r="O168">
-        <v>281.58</v>
-      </c>
-      <c r="P168">
-        <v>359.12</v>
-      </c>
-      <c r="Q168">
-        <v>335.71</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>44796</v>
-      </c>
-      <c r="B169">
-        <v>8738.7630000000008</v>
-      </c>
-      <c r="C169">
-        <v>8245.83</v>
-      </c>
-      <c r="D169">
-        <v>330.83</v>
-      </c>
-      <c r="E169">
-        <v>4090.63</v>
-      </c>
-      <c r="F169">
-        <v>151.13</v>
-      </c>
-      <c r="G169">
-        <v>112.38030000000001</v>
-      </c>
-      <c r="H169">
-        <v>163.33000000000001</v>
-      </c>
-      <c r="I169">
-        <v>91.73</v>
-      </c>
-      <c r="J169">
-        <v>93.707599999999999</v>
-      </c>
-      <c r="K169">
-        <v>127.4281</v>
-      </c>
-      <c r="L169">
-        <v>882.34</v>
-      </c>
-      <c r="M169">
-        <v>1136.7</v>
-      </c>
-      <c r="N169">
-        <v>282.93119999999999</v>
-      </c>
-      <c r="O169">
-        <v>281.99</v>
-      </c>
-      <c r="P169">
-        <v>359.29</v>
-      </c>
-      <c r="Q169">
-        <v>336.35</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>44797</v>
-      </c>
-      <c r="B170">
-        <v>8764.42</v>
-      </c>
-      <c r="C170">
-        <v>8279.5499999999993</v>
-      </c>
-      <c r="D170">
-        <v>331.29</v>
-      </c>
-      <c r="E170">
-        <v>4076.99</v>
-      </c>
-      <c r="F170">
-        <v>149.65</v>
-      </c>
-      <c r="G170">
-        <v>112.1097</v>
-      </c>
-      <c r="H170">
-        <v>163.25</v>
-      </c>
-      <c r="I170">
-        <v>91.584100000000007</v>
-      </c>
-      <c r="J170">
-        <v>93.628100000000003</v>
-      </c>
-      <c r="K170">
-        <v>127.3526</v>
-      </c>
-      <c r="L170">
-        <v>882.25</v>
-      </c>
-      <c r="M170">
-        <v>1136.58</v>
-      </c>
-      <c r="N170">
-        <v>283.32589999999999</v>
-      </c>
-      <c r="O170">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="P170">
-        <v>359.77</v>
-      </c>
-      <c r="Q170">
-        <v>336.56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>44798</v>
-      </c>
-      <c r="B171">
-        <v>8888.1280000000006</v>
-      </c>
-      <c r="C171">
-        <v>8295.5400000000009</v>
-      </c>
-      <c r="D171">
-        <v>335.48</v>
-      </c>
-      <c r="E171">
-        <v>4127.1400000000003</v>
-      </c>
-      <c r="F171">
-        <v>152.35</v>
-      </c>
-      <c r="G171">
-        <v>112.3784</v>
-      </c>
-      <c r="H171">
-        <v>163.52000000000001</v>
-      </c>
-      <c r="I171">
-        <v>91.489199999999997</v>
-      </c>
-      <c r="J171">
-        <v>93.480199999999996</v>
-      </c>
-      <c r="K171">
-        <v>127.29259999999999</v>
-      </c>
-      <c r="L171">
-        <v>879.89</v>
-      </c>
-      <c r="M171">
-        <v>1134.26</v>
-      </c>
-      <c r="N171">
-        <v>282.47680000000003</v>
-      </c>
-      <c r="O171">
-        <v>281.86</v>
-      </c>
-      <c r="P171">
-        <v>359.18</v>
-      </c>
-      <c r="Q171">
-        <v>335.96</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B172">
-        <v>8588.9459999999999</v>
-      </c>
-      <c r="C172">
-        <v>8135.58</v>
-      </c>
-      <c r="D172">
-        <v>327.63</v>
-      </c>
-      <c r="E172">
-        <v>4131.16</v>
-      </c>
-      <c r="F172">
-        <v>154.22</v>
-      </c>
-      <c r="G172">
-        <v>112.1219</v>
-      </c>
-      <c r="H172">
-        <v>162.63</v>
-      </c>
-      <c r="I172">
-        <v>91.706000000000003</v>
-      </c>
-      <c r="J172">
-        <v>93.591999999999999</v>
-      </c>
-      <c r="K172">
-        <v>127.38809999999999</v>
-      </c>
-      <c r="L172">
-        <v>885.23</v>
-      </c>
-      <c r="M172">
-        <v>1135.52</v>
-      </c>
-      <c r="N172">
-        <v>284.0487</v>
-      </c>
-      <c r="O172">
-        <v>282.58</v>
-      </c>
-      <c r="P172">
-        <v>359.94</v>
-      </c>
-      <c r="Q172">
-        <v>336.02</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>44802</v>
-      </c>
-      <c r="B173">
-        <v>8532.1020000000008</v>
-      </c>
-      <c r="C173">
-        <v>8060.68</v>
-      </c>
-      <c r="D173">
-        <v>324.31</v>
-      </c>
-      <c r="E173">
-        <v>4088.08</v>
-      </c>
-      <c r="F173">
-        <v>152.58000000000001</v>
-      </c>
-      <c r="G173">
-        <v>111.52509999999999</v>
-      </c>
-      <c r="H173">
-        <v>162.13999999999999</v>
-      </c>
-      <c r="I173">
-        <v>91.723500000000001</v>
-      </c>
-      <c r="J173">
-        <v>93.755799999999994</v>
-      </c>
-      <c r="K173">
-        <v>127.4524</v>
-      </c>
-      <c r="L173">
-        <v>887.12</v>
-      </c>
-      <c r="M173">
-        <v>1133.95</v>
-      </c>
-      <c r="N173">
-        <v>284.16669999999999</v>
-      </c>
-      <c r="O173">
-        <v>283.06</v>
-      </c>
-      <c r="P173">
-        <v>360.56</v>
-      </c>
-      <c r="Q173">
-        <v>337.07</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>44803</v>
-      </c>
-      <c r="B174">
-        <v>8438.6869999999999</v>
-      </c>
-      <c r="C174">
-        <v>8041.3</v>
-      </c>
-      <c r="D174">
-        <v>321.83999999999997</v>
-      </c>
-      <c r="E174">
-        <v>4090.08</v>
-      </c>
-      <c r="F174">
-        <v>153.38999999999999</v>
-      </c>
-      <c r="G174">
-        <v>110.976</v>
-      </c>
-      <c r="H174">
-        <v>161.75</v>
-      </c>
-      <c r="I174">
-        <v>91.882199999999997</v>
-      </c>
-      <c r="J174">
-        <v>93.805899999999994</v>
-      </c>
-      <c r="K174">
-        <v>127.5065</v>
-      </c>
-      <c r="L174">
-        <v>889.74</v>
-      </c>
-      <c r="M174">
-        <v>1133.72</v>
-      </c>
-      <c r="N174">
-        <v>284.59399999999999</v>
-      </c>
-      <c r="O174">
-        <v>282.89999999999998</v>
-      </c>
-      <c r="P174">
-        <v>360.03</v>
-      </c>
-      <c r="Q174">
-        <v>336.89</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B175">
-        <v>8374.4159999999993</v>
-      </c>
-      <c r="C175">
-        <v>7940.45</v>
-      </c>
-      <c r="D175">
-        <v>319.98</v>
-      </c>
-      <c r="E175">
-        <v>4046.99</v>
-      </c>
-      <c r="F175">
-        <v>151.47</v>
-      </c>
-      <c r="G175">
-        <v>110.51479999999999</v>
-      </c>
-      <c r="H175">
-        <v>161.09</v>
-      </c>
-      <c r="I175">
-        <v>91.6631</v>
-      </c>
-      <c r="J175">
-        <v>93.6631</v>
-      </c>
-      <c r="K175">
-        <v>127.4104</v>
-      </c>
-      <c r="L175">
-        <v>892.53</v>
-      </c>
-      <c r="M175">
-        <v>1134.3499999999999</v>
-      </c>
-      <c r="N175">
-        <v>285.5609</v>
-      </c>
-      <c r="O175">
-        <v>283.08999999999997</v>
-      </c>
-      <c r="P175">
-        <v>360.47</v>
-      </c>
-      <c r="Q175">
-        <v>337.21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60569,8 +59097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="M145" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:Q180"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60606,7 +59134,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44804</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -60664,72 +59192,72 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" t="e">
-        <f>_xll.BFieldInfo(B$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(B$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C5" t="e">
-        <f>_xll.BFieldInfo(C$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(C$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" t="e">
-        <f>_xll.BFieldInfo(D$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(D$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E5" t="e">
-        <f>_xll.BFieldInfo(E$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(E$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F5" t="e">
-        <f>_xll.BFieldInfo(F$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(F$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" t="e">
-        <f>_xll.BFieldInfo(G$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(G$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H5" t="e">
-        <f>_xll.BFieldInfo(H$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(H$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5" t="e">
-        <f>_xll.BFieldInfo(I$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(I$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="J5" t="e">
-        <f>_xll.BFieldInfo(J$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(J$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K5" t="e">
-        <f>_xll.BFieldInfo(K$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(K$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L5" t="e">
-        <f>_xll.BFieldInfo(L$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(L$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M5" t="e">
-        <f>_xll.BFieldInfo(M$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(M$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N5" t="e">
-        <f>_xll.BFieldInfo(N$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(N$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O5" t="e">
-        <f>_xll.BFieldInfo(O$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(O$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" t="e">
-        <f>_xll.BFieldInfo(P$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(P$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q5" t="e">
-        <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(Q$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R5" t="e">
-        <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.BFieldInfo(R$6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -60789,76 +59317,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="str">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
+      <c r="A7" s="1" t="e">
+        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=152")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
-      <c r="C7" t="str">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="H7" t="str">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="I7" t="str">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="J7" t="str">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="K7" t="str">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="L7" t="str">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="M7" t="str">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="N7" t="str">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="O7" t="str">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="P7" t="str">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="Q7" t="str">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="R7" t="str">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
+      <c r="C7" t="e">
+        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" t="e">
+        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" t="e">
+        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" t="e">
+        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" t="e">
+        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" t="e">
+        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" t="e">
+        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" t="e">
+        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" t="e">
+        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" t="e">
+        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P7" t="e">
+        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" t="e">
+        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R7" t="e">
+        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -69318,1271 +67846,105 @@
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>44775</v>
-      </c>
-      <c r="B159">
-        <v>8647.9089999999997</v>
-      </c>
-      <c r="C159">
-        <v>8314.01</v>
-      </c>
-      <c r="D159">
-        <v>329.93</v>
-      </c>
-      <c r="E159">
-        <v>4220.7</v>
-      </c>
-      <c r="F159">
-        <v>160.71</v>
-      </c>
-      <c r="G159">
-        <v>112.7552</v>
-      </c>
-      <c r="H159">
-        <v>164.11</v>
-      </c>
-      <c r="I159">
-        <v>91.885199999999998</v>
-      </c>
-      <c r="J159">
-        <v>93.963099999999997</v>
-      </c>
-      <c r="K159">
-        <v>127.5134</v>
-      </c>
-      <c r="L159">
-        <v>884.32</v>
-      </c>
-      <c r="M159">
-        <v>1143.08</v>
-      </c>
-      <c r="N159">
-        <v>283.39949999999999</v>
-      </c>
-      <c r="O159">
-        <v>281.45</v>
-      </c>
-      <c r="P159">
-        <v>357.92</v>
-      </c>
-      <c r="Q159">
-        <v>335.23</v>
-      </c>
-      <c r="R159">
-        <v>168.75</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>44776</v>
-      </c>
-      <c r="B160">
-        <v>8783.2839999999997</v>
-      </c>
-      <c r="C160">
-        <v>8422.1200000000008</v>
-      </c>
-      <c r="D160">
-        <v>332.9</v>
-      </c>
-      <c r="E160">
-        <v>4277.07</v>
-      </c>
-      <c r="F160">
-        <v>164.16</v>
-      </c>
-      <c r="G160">
-        <v>112.8616</v>
-      </c>
-      <c r="H160">
-        <v>164.17</v>
-      </c>
-      <c r="I160">
-        <v>91.796300000000002</v>
-      </c>
-      <c r="J160">
-        <v>93.831400000000002</v>
-      </c>
-      <c r="K160">
-        <v>127.47369999999999</v>
-      </c>
-      <c r="L160">
-        <v>881.43</v>
-      </c>
-      <c r="M160">
-        <v>1144.95</v>
-      </c>
-      <c r="N160">
-        <v>283.7593</v>
-      </c>
-      <c r="O160">
-        <v>281.41000000000003</v>
-      </c>
-      <c r="P160">
-        <v>358.02</v>
-      </c>
-      <c r="Q160">
-        <v>334.95</v>
-      </c>
-      <c r="R160">
-        <v>169.23</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>44777</v>
-      </c>
-      <c r="B161">
-        <v>8777.2270000000008</v>
-      </c>
-      <c r="C161">
-        <v>8473.32</v>
-      </c>
-      <c r="D161">
-        <v>333.95</v>
-      </c>
-      <c r="E161">
-        <v>4277.0200000000004</v>
-      </c>
-      <c r="F161">
-        <v>163.69</v>
-      </c>
-      <c r="G161">
-        <v>112.8156</v>
-      </c>
-      <c r="H161">
-        <v>164.23</v>
-      </c>
-      <c r="I161">
-        <v>91.813800000000001</v>
-      </c>
-      <c r="J161">
-        <v>93.827100000000002</v>
-      </c>
-      <c r="K161">
-        <v>127.4787</v>
-      </c>
-      <c r="L161">
-        <v>881.65</v>
-      </c>
-      <c r="M161">
-        <v>1146.56</v>
-      </c>
-      <c r="N161">
-        <v>283.81979999999999</v>
-      </c>
-      <c r="O161">
-        <v>281.73</v>
-      </c>
-      <c r="P161">
-        <v>358.45</v>
-      </c>
-      <c r="Q161">
-        <v>335.16</v>
-      </c>
-      <c r="R161">
-        <v>169.34</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>44778</v>
-      </c>
-      <c r="B162">
-        <v>8764.0820000000003</v>
-      </c>
-      <c r="C162">
-        <v>8407.4</v>
-      </c>
-      <c r="D162">
-        <v>333.24</v>
-      </c>
-      <c r="E162">
-        <v>4197.07</v>
-      </c>
-      <c r="F162">
-        <v>159.1</v>
-      </c>
-      <c r="G162">
-        <v>112.5962</v>
-      </c>
-      <c r="H162">
-        <v>164.17</v>
-      </c>
-      <c r="I162">
-        <v>91.774100000000004</v>
-      </c>
-      <c r="J162">
-        <v>93.788799999999995</v>
-      </c>
-      <c r="K162">
-        <v>127.4599</v>
-      </c>
-      <c r="L162">
-        <v>882.16</v>
-      </c>
-      <c r="M162">
-        <v>1144.69</v>
-      </c>
-      <c r="N162">
-        <v>283.7833</v>
-      </c>
-      <c r="O162">
-        <v>281.98</v>
-      </c>
-      <c r="P162">
-        <v>358.77</v>
-      </c>
-      <c r="Q162">
-        <v>335.51</v>
-      </c>
-      <c r="R162">
-        <v>169.48</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>44781</v>
-      </c>
-      <c r="B163">
-        <v>8753.393</v>
-      </c>
-      <c r="C163">
-        <v>8480.9599999999991</v>
-      </c>
-      <c r="D163">
-        <v>333.93</v>
-      </c>
-      <c r="E163">
-        <v>4238.93</v>
-      </c>
-      <c r="F163">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="G163">
-        <v>112.59910000000001</v>
-      </c>
-      <c r="H163">
-        <v>164.19</v>
-      </c>
-      <c r="I163">
-        <v>91.7637</v>
-      </c>
-      <c r="J163">
-        <v>93.765199999999993</v>
-      </c>
-      <c r="K163">
-        <v>127.44280000000001</v>
-      </c>
-      <c r="L163">
-        <v>882.2</v>
-      </c>
-      <c r="M163">
-        <v>1143.3399999999999</v>
-      </c>
-      <c r="N163">
-        <v>283.74579999999997</v>
-      </c>
-      <c r="O163">
-        <v>282.18</v>
-      </c>
-      <c r="P163">
-        <v>359.11</v>
-      </c>
-      <c r="Q163">
-        <v>335.75</v>
-      </c>
-      <c r="R163">
-        <v>169.45</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>44782</v>
-      </c>
-      <c r="B164">
-        <v>8716.7510000000002</v>
-      </c>
-      <c r="C164">
-        <v>8386.49</v>
-      </c>
-      <c r="D164">
-        <v>332.31</v>
-      </c>
-      <c r="E164">
-        <v>4217.03</v>
-      </c>
-      <c r="F164">
-        <v>161.62</v>
-      </c>
-      <c r="G164">
-        <v>112.4363</v>
-      </c>
-      <c r="H164">
-        <v>164.2</v>
-      </c>
-      <c r="I164">
-        <v>91.772300000000001</v>
-      </c>
-      <c r="J164">
-        <v>93.783199999999994</v>
-      </c>
-      <c r="K164">
-        <v>127.4515</v>
-      </c>
-      <c r="L164">
-        <v>882.85</v>
-      </c>
-      <c r="M164">
-        <v>1144.8499999999999</v>
-      </c>
-      <c r="N164">
-        <v>283.67189999999999</v>
-      </c>
-      <c r="O164">
-        <v>282.29000000000002</v>
-      </c>
-      <c r="P164">
-        <v>359.06</v>
-      </c>
-      <c r="Q164">
-        <v>336</v>
-      </c>
-      <c r="R164">
-        <v>169.45</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>44783</v>
-      </c>
-      <c r="B165">
-        <v>8902.723</v>
-      </c>
-      <c r="C165">
-        <v>8463.18</v>
-      </c>
-      <c r="D165">
-        <v>338.6</v>
-      </c>
-      <c r="E165">
-        <v>4228.0600000000004</v>
-      </c>
-      <c r="F165">
-        <v>160</v>
-      </c>
-      <c r="G165">
-        <v>112.8806</v>
-      </c>
-      <c r="H165">
-        <v>164.25</v>
-      </c>
-      <c r="I165">
-        <v>91.653800000000004</v>
-      </c>
-      <c r="J165">
-        <v>93.670699999999997</v>
-      </c>
-      <c r="K165">
-        <v>127.38979999999999</v>
-      </c>
-      <c r="L165">
-        <v>879.76</v>
-      </c>
-      <c r="M165">
-        <v>1141.68</v>
-      </c>
-      <c r="N165">
-        <v>283.73329999999999</v>
-      </c>
-      <c r="O165">
-        <v>282.02</v>
-      </c>
-      <c r="P165">
-        <v>358.84</v>
-      </c>
-      <c r="Q165">
-        <v>335.55</v>
-      </c>
-      <c r="R165">
-        <v>169.36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>44784</v>
-      </c>
-      <c r="B166">
-        <v>8898.8369999999995</v>
-      </c>
-      <c r="C166">
-        <v>8480.57</v>
-      </c>
-      <c r="D166">
-        <v>339.2</v>
-      </c>
-      <c r="E166">
-        <v>4182.1499999999996</v>
-      </c>
-      <c r="F166">
-        <v>155.05000000000001</v>
-      </c>
-      <c r="G166">
-        <v>113.005</v>
-      </c>
-      <c r="H166">
-        <v>164.25</v>
-      </c>
-      <c r="I166">
-        <v>91.656999999999996</v>
-      </c>
-      <c r="J166">
-        <v>93.661299999999997</v>
-      </c>
-      <c r="K166">
-        <v>127.3886</v>
-      </c>
-      <c r="L166">
-        <v>879.67</v>
-      </c>
-      <c r="M166">
-        <v>1143.45</v>
-      </c>
-      <c r="N166">
-        <v>284.00580000000002</v>
-      </c>
-      <c r="O166">
-        <v>281.82</v>
-      </c>
-      <c r="P166">
-        <v>358.55</v>
-      </c>
-      <c r="Q166">
-        <v>335.15</v>
-      </c>
-      <c r="R166">
-        <v>169.25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>44785</v>
-      </c>
-      <c r="B167">
-        <v>9054.1380000000008</v>
-      </c>
-      <c r="C167">
-        <v>8526.42</v>
-      </c>
-      <c r="D167">
-        <v>342.89</v>
-      </c>
-      <c r="E167">
-        <v>4227.76</v>
-      </c>
-      <c r="F167">
-        <v>157.05000000000001</v>
-      </c>
-      <c r="G167">
-        <v>113.5121</v>
-      </c>
-      <c r="H167">
-        <v>164.38</v>
-      </c>
-      <c r="I167">
-        <v>91.620500000000007</v>
-      </c>
-      <c r="J167">
-        <v>93.633799999999994</v>
-      </c>
-      <c r="K167">
-        <v>127.36879999999999</v>
-      </c>
-      <c r="L167">
-        <v>877.68</v>
-      </c>
-      <c r="M167">
-        <v>1138.8599999999999</v>
-      </c>
-      <c r="N167">
-        <v>284.35640000000001</v>
-      </c>
-      <c r="O167">
-        <v>281.73</v>
-      </c>
-      <c r="P167">
-        <v>358.53</v>
-      </c>
-      <c r="Q167">
-        <v>335.23</v>
-      </c>
-      <c r="R167">
-        <v>169.25</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>44788</v>
-      </c>
-      <c r="B168">
-        <v>9090.3610000000008</v>
-      </c>
-      <c r="C168">
-        <v>8555.33</v>
-      </c>
-      <c r="D168">
-        <v>343.69</v>
-      </c>
-      <c r="E168">
-        <v>4237.04</v>
-      </c>
-      <c r="F168">
-        <v>156.78</v>
-      </c>
-      <c r="G168">
-        <v>113.54300000000001</v>
-      </c>
-      <c r="H168">
-        <v>164.28</v>
-      </c>
-      <c r="I168">
-        <v>91.620999999999995</v>
-      </c>
-      <c r="J168">
-        <v>93.638400000000004</v>
-      </c>
-      <c r="K168">
-        <v>127.3695</v>
-      </c>
-      <c r="L168">
-        <v>877.44</v>
-      </c>
-      <c r="M168">
-        <v>1138.67</v>
-      </c>
-      <c r="N168">
-        <v>283.9357</v>
-      </c>
-      <c r="O168">
-        <v>281.91000000000003</v>
-      </c>
-      <c r="P168">
-        <v>358.73</v>
-      </c>
-      <c r="Q168">
-        <v>335.44</v>
-      </c>
-      <c r="R168">
-        <v>169.24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>44789</v>
-      </c>
-      <c r="B169">
-        <v>9107.8670000000002</v>
-      </c>
-      <c r="C169">
-        <v>8590.56</v>
-      </c>
-      <c r="D169">
-        <v>343.89</v>
-      </c>
-      <c r="E169">
-        <v>4237.16</v>
-      </c>
-      <c r="F169">
-        <v>157.85</v>
-      </c>
-      <c r="G169">
-        <v>113.5821</v>
-      </c>
-      <c r="H169">
-        <v>164.29</v>
-      </c>
-      <c r="I169">
-        <v>91.624799999999993</v>
-      </c>
-      <c r="J169">
-        <v>93.634299999999996</v>
-      </c>
-      <c r="K169">
-        <v>127.37260000000001</v>
-      </c>
-      <c r="L169">
-        <v>877.33</v>
-      </c>
-      <c r="M169">
-        <v>1137.5899999999999</v>
-      </c>
-      <c r="N169">
-        <v>283.93880000000001</v>
-      </c>
-      <c r="O169">
-        <v>282.08999999999997</v>
-      </c>
-      <c r="P169">
-        <v>358.89</v>
-      </c>
-      <c r="Q169">
-        <v>335.68</v>
-      </c>
-      <c r="R169">
-        <v>169.29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>44790</v>
-      </c>
-      <c r="B170">
-        <v>9043.5889999999999</v>
-      </c>
-      <c r="C170">
-        <v>8479.58</v>
-      </c>
-      <c r="D170">
-        <v>341.66</v>
-      </c>
-      <c r="E170">
-        <v>4188.9799999999996</v>
-      </c>
-      <c r="F170">
-        <v>155.69</v>
-      </c>
-      <c r="G170">
-        <v>113.5885</v>
-      </c>
-      <c r="H170">
-        <v>164.08</v>
-      </c>
-      <c r="I170">
-        <v>91.628600000000006</v>
-      </c>
-      <c r="J170">
-        <v>93.632599999999996</v>
-      </c>
-      <c r="K170">
-        <v>127.377</v>
-      </c>
-      <c r="L170">
-        <v>878.03</v>
-      </c>
-      <c r="M170">
-        <v>1138.46</v>
-      </c>
-      <c r="N170">
-        <v>283.50299999999999</v>
-      </c>
-      <c r="O170">
-        <v>282.12</v>
-      </c>
-      <c r="P170">
-        <v>358.88</v>
-      </c>
-      <c r="Q170">
-        <v>335.82</v>
-      </c>
-      <c r="R170">
-        <v>169.37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A171" s="1">
-        <v>44791</v>
-      </c>
-      <c r="B171">
-        <v>9065.49</v>
-      </c>
-      <c r="C171">
-        <v>8527.7000000000007</v>
-      </c>
-      <c r="D171">
-        <v>341.89</v>
-      </c>
-      <c r="E171">
-        <v>4195.88</v>
-      </c>
-      <c r="F171">
-        <v>155.88999999999999</v>
-      </c>
-      <c r="G171">
-        <v>113.4795</v>
-      </c>
-      <c r="H171">
-        <v>164.13</v>
-      </c>
-      <c r="I171">
-        <v>91.601500000000001</v>
-      </c>
-      <c r="J171">
-        <v>93.622600000000006</v>
-      </c>
-      <c r="K171">
-        <v>127.35680000000001</v>
-      </c>
-      <c r="L171">
-        <v>877.94</v>
-      </c>
-      <c r="M171">
-        <v>1138.22</v>
-      </c>
-      <c r="N171">
-        <v>283.584</v>
-      </c>
-      <c r="O171">
-        <v>282.27999999999997</v>
-      </c>
-      <c r="P171">
-        <v>359.17</v>
-      </c>
-      <c r="Q171">
-        <v>336.14</v>
-      </c>
-      <c r="R171">
-        <v>169.45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A172" s="1">
-        <v>44792</v>
-      </c>
-      <c r="B172">
-        <v>8948.8179999999993</v>
-      </c>
-      <c r="C172">
-        <v>8421.4699999999993</v>
-      </c>
-      <c r="D172">
-        <v>337.42</v>
-      </c>
-      <c r="E172">
-        <v>4132.21</v>
-      </c>
-      <c r="F172">
-        <v>152.77000000000001</v>
-      </c>
-      <c r="G172">
-        <v>113.3695</v>
-      </c>
-      <c r="H172">
-        <v>164.09</v>
-      </c>
-      <c r="I172">
-        <v>91.6524</v>
-      </c>
-      <c r="J172">
-        <v>93.679500000000004</v>
-      </c>
-      <c r="K172">
-        <v>127.3942</v>
-      </c>
-      <c r="L172">
-        <v>879.18</v>
-      </c>
-      <c r="M172">
-        <v>1137.3699999999999</v>
-      </c>
-      <c r="N172">
-        <v>283.77629999999999</v>
-      </c>
-      <c r="O172">
-        <v>282.26</v>
-      </c>
-      <c r="P172">
-        <v>359.09</v>
-      </c>
-      <c r="Q172">
-        <v>335.99</v>
-      </c>
-      <c r="R172">
-        <v>169.49</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A173" s="1">
-        <v>44795</v>
-      </c>
-      <c r="B173">
-        <v>8758.2430000000004</v>
-      </c>
-      <c r="C173">
-        <v>8258.69</v>
-      </c>
-      <c r="D173">
-        <v>331.53</v>
-      </c>
-      <c r="E173">
-        <v>4100.78</v>
-      </c>
-      <c r="F173">
-        <v>152.16</v>
-      </c>
-      <c r="G173">
-        <v>112.8489</v>
-      </c>
-      <c r="H173">
-        <v>163.65</v>
-      </c>
-      <c r="I173">
-        <v>91.783199999999994</v>
-      </c>
-      <c r="J173">
-        <v>93.810299999999998</v>
-      </c>
-      <c r="K173">
-        <v>127.4551</v>
-      </c>
-      <c r="L173">
-        <v>881.66</v>
-      </c>
-      <c r="M173">
-        <v>1137.31</v>
-      </c>
-      <c r="N173">
-        <v>282.39870000000002</v>
-      </c>
-      <c r="O173">
-        <v>281.58</v>
-      </c>
-      <c r="P173">
-        <v>359.12</v>
-      </c>
-      <c r="Q173">
-        <v>335.71</v>
-      </c>
-      <c r="R173">
-        <v>169.18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A174" s="1">
-        <v>44796</v>
-      </c>
-      <c r="B174">
-        <v>8738.7630000000008</v>
-      </c>
-      <c r="C174">
-        <v>8245.83</v>
-      </c>
-      <c r="D174">
-        <v>330.83</v>
-      </c>
-      <c r="E174">
-        <v>4090.63</v>
-      </c>
-      <c r="F174">
-        <v>151.13</v>
-      </c>
-      <c r="G174">
-        <v>112.38030000000001</v>
-      </c>
-      <c r="H174">
-        <v>163.33000000000001</v>
-      </c>
-      <c r="I174">
-        <v>91.73</v>
-      </c>
-      <c r="J174">
-        <v>93.707599999999999</v>
-      </c>
-      <c r="K174">
-        <v>127.4281</v>
-      </c>
-      <c r="L174">
-        <v>882.34</v>
-      </c>
-      <c r="M174">
-        <v>1136.7</v>
-      </c>
-      <c r="N174">
-        <v>282.93119999999999</v>
-      </c>
-      <c r="O174">
-        <v>281.99</v>
-      </c>
-      <c r="P174">
-        <v>359.29</v>
-      </c>
-      <c r="Q174">
-        <v>336.35</v>
-      </c>
-      <c r="R174">
-        <v>169.35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A175" s="1">
-        <v>44797</v>
-      </c>
-      <c r="B175">
-        <v>8764.42</v>
-      </c>
-      <c r="C175">
-        <v>8279.5499999999993</v>
-      </c>
-      <c r="D175">
-        <v>331.29</v>
-      </c>
-      <c r="E175">
-        <v>4076.99</v>
-      </c>
-      <c r="F175">
-        <v>149.65</v>
-      </c>
-      <c r="G175">
-        <v>112.1097</v>
-      </c>
-      <c r="H175">
-        <v>163.25</v>
-      </c>
-      <c r="I175">
-        <v>91.584100000000007</v>
-      </c>
-      <c r="J175">
-        <v>93.628100000000003</v>
-      </c>
-      <c r="K175">
-        <v>127.3526</v>
-      </c>
-      <c r="L175">
-        <v>882.25</v>
-      </c>
-      <c r="M175">
-        <v>1136.58</v>
-      </c>
-      <c r="N175">
-        <v>283.32589999999999</v>
-      </c>
-      <c r="O175">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="P175">
-        <v>359.77</v>
-      </c>
-      <c r="Q175">
-        <v>336.56</v>
-      </c>
-      <c r="R175">
-        <v>169.55</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A176" s="1">
-        <v>44798</v>
-      </c>
-      <c r="B176">
-        <v>8888.1280000000006</v>
-      </c>
-      <c r="C176">
-        <v>8295.5400000000009</v>
-      </c>
-      <c r="D176">
-        <v>335.48</v>
-      </c>
-      <c r="E176">
-        <v>4127.1400000000003</v>
-      </c>
-      <c r="F176">
-        <v>152.35</v>
-      </c>
-      <c r="G176">
-        <v>112.3784</v>
-      </c>
-      <c r="H176">
-        <v>163.52000000000001</v>
-      </c>
-      <c r="I176">
-        <v>91.489199999999997</v>
-      </c>
-      <c r="J176">
-        <v>93.480199999999996</v>
-      </c>
-      <c r="K176">
-        <v>127.29259999999999</v>
-      </c>
-      <c r="L176">
-        <v>879.89</v>
-      </c>
-      <c r="M176">
-        <v>1134.26</v>
-      </c>
-      <c r="N176">
-        <v>282.47680000000003</v>
-      </c>
-      <c r="O176">
-        <v>281.86</v>
-      </c>
-      <c r="P176">
-        <v>359.18</v>
-      </c>
-      <c r="Q176">
-        <v>335.96</v>
-      </c>
-      <c r="R176">
-        <v>169.53</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A177" s="1">
-        <v>44799</v>
-      </c>
-      <c r="B177">
-        <v>8588.9459999999999</v>
-      </c>
-      <c r="C177">
-        <v>8135.58</v>
-      </c>
-      <c r="D177">
-        <v>327.63</v>
-      </c>
-      <c r="E177">
-        <v>4131.16</v>
-      </c>
-      <c r="F177">
-        <v>154.22</v>
-      </c>
-      <c r="G177">
-        <v>112.1219</v>
-      </c>
-      <c r="H177">
-        <v>162.63</v>
-      </c>
-      <c r="I177">
-        <v>91.706000000000003</v>
-      </c>
-      <c r="J177">
-        <v>93.591999999999999</v>
-      </c>
-      <c r="K177">
-        <v>127.38809999999999</v>
-      </c>
-      <c r="L177">
-        <v>885.23</v>
-      </c>
-      <c r="M177">
-        <v>1135.52</v>
-      </c>
-      <c r="N177">
-        <v>284.0487</v>
-      </c>
-      <c r="O177">
-        <v>282.58</v>
-      </c>
-      <c r="P177">
-        <v>359.94</v>
-      </c>
-      <c r="Q177">
-        <v>336.02</v>
-      </c>
-      <c r="R177">
-        <v>169.43</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A178" s="1">
-        <v>44802</v>
-      </c>
-      <c r="B178">
-        <v>8532.1020000000008</v>
-      </c>
-      <c r="C178">
-        <v>8060.68</v>
-      </c>
-      <c r="D178">
-        <v>324.31</v>
-      </c>
-      <c r="E178">
-        <v>4088.08</v>
-      </c>
-      <c r="F178">
-        <v>152.58000000000001</v>
-      </c>
-      <c r="G178">
-        <v>111.52509999999999</v>
-      </c>
-      <c r="H178">
-        <v>162.13999999999999</v>
-      </c>
-      <c r="I178">
-        <v>91.723500000000001</v>
-      </c>
-      <c r="J178">
-        <v>93.755799999999994</v>
-      </c>
-      <c r="K178">
-        <v>127.4524</v>
-      </c>
-      <c r="L178">
-        <v>887.12</v>
-      </c>
-      <c r="M178">
-        <v>1133.95</v>
-      </c>
-      <c r="N178">
-        <v>284.16669999999999</v>
-      </c>
-      <c r="O178">
-        <v>283.06</v>
-      </c>
-      <c r="P178">
-        <v>360.56</v>
-      </c>
-      <c r="Q178">
-        <v>337.07</v>
-      </c>
-      <c r="R178">
-        <v>169.42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A179" s="1">
-        <v>44803</v>
-      </c>
-      <c r="B179">
-        <v>8438.6869999999999</v>
-      </c>
-      <c r="C179">
-        <v>8041.3</v>
-      </c>
-      <c r="D179">
-        <v>321.83999999999997</v>
-      </c>
-      <c r="E179">
-        <v>4090.08</v>
-      </c>
-      <c r="F179">
-        <v>153.38999999999999</v>
-      </c>
-      <c r="G179">
-        <v>110.976</v>
-      </c>
-      <c r="H179">
-        <v>161.75</v>
-      </c>
-      <c r="I179">
-        <v>91.882199999999997</v>
-      </c>
-      <c r="J179">
-        <v>93.805899999999994</v>
-      </c>
-      <c r="K179">
-        <v>127.5065</v>
-      </c>
-      <c r="L179">
-        <v>889.74</v>
-      </c>
-      <c r="M179">
-        <v>1133.72</v>
-      </c>
-      <c r="N179">
-        <v>284.59399999999999</v>
-      </c>
-      <c r="O179">
-        <v>282.89999999999998</v>
-      </c>
-      <c r="P179">
-        <v>360.03</v>
-      </c>
-      <c r="Q179">
-        <v>336.89</v>
-      </c>
-      <c r="R179">
-        <v>169.49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A180" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B180">
-        <v>8374.4159999999993</v>
-      </c>
-      <c r="C180">
-        <v>7940.45</v>
-      </c>
-      <c r="D180">
-        <v>319.98</v>
-      </c>
-      <c r="E180">
-        <v>4046.99</v>
-      </c>
-      <c r="F180">
-        <v>151.47</v>
-      </c>
-      <c r="G180">
-        <v>110.51479999999999</v>
-      </c>
-      <c r="H180">
-        <v>161.09</v>
-      </c>
-      <c r="I180">
-        <v>91.6631</v>
-      </c>
-      <c r="J180">
-        <v>93.6631</v>
-      </c>
-      <c r="K180">
-        <v>127.4104</v>
-      </c>
-      <c r="L180">
-        <v>892.53</v>
-      </c>
-      <c r="M180">
-        <v>1134.3499999999999</v>
-      </c>
-      <c r="N180">
-        <v>285.5609</v>
-      </c>
-      <c r="O180">
-        <v>283.08999999999997</v>
-      </c>
-      <c r="P180">
-        <v>360.47</v>
-      </c>
-      <c r="Q180">
-        <v>337.21</v>
-      </c>
-      <c r="R180">
-        <v>169.7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643D30D-9FB0-48F9-A594-8C0065B30B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0245A813-3EED-4C29-9AEE-C965252CD140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="850" windowWidth="10420" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$R$7</definedName>
+    <definedName name="SpreadsheetBuilder_7" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,229 +178,235 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4289900897</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|10392637733247614934</stp>
-        <tr r="O7" s="4"/>
+        <stp>BDH|16727583087644445504</stp>
+        <tr r="M7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4210468981</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|18235601751692783007</stp>
-        <tr r="D7" s="4"/>
+        <stp>BDH|14234006623429924125</stp>
+        <tr r="F7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4243158146</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|18188246218903434165</stp>
-        <tr r="G7" s="4"/>
+        <stp>BDH|11664350796143255550</stp>
+        <tr r="E7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4262598056</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11430656411198540119</stp>
-        <tr r="J7" s="4"/>
+        <stp>BDH|12131352925380315342</stp>
+        <tr r="P7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4203105617</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|17468979122695054421</stp>
-        <tr r="N7" s="4"/>
+        <stp>BDH|12059809901744298878</stp>
+        <tr r="Q7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17414422510344432232</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12559626127843371028</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13464868775189878053</stp>
+        <tr r="H7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4279992330</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8854940670218968242</stp>
-        <tr r="E7" s="4"/>
+        <stp>BDH|4101088581556967483</stp>
+        <tr r="R7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4246880534</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2134898534232693655</stp>
-        <tr r="M7" s="4"/>
+        <stp>BDH|2635583659919476254</stp>
+        <tr r="L7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4194138881</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|9968624828340503099</stp>
-        <tr r="P7" s="4"/>
+        <stp>BDH|6875801268774536502</stp>
+        <tr r="G7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263258258</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6524104830009952361</stp>
+        <stp>BDH|8640915654669239780</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6570479873420035104</stp>
         <tr r="A7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4276869603</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2379303510707076919</stp>
-        <tr r="H7" s="4"/>
+        <stp>BDH|3029848534948596642</stp>
+        <tr r="K7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4225196147</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8869210834791755717</stp>
-        <tr r="I7" s="4"/>
+        <stp>BDH|6553308138291344783</stp>
+        <tr r="O7" s="4"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4287235548</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2377856097898302104</stp>
-        <tr r="L7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4285226797</v>
-        <stp/>
-        <stp>BDH|7445316363007831343</stp>
-        <tr r="Q7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4264218600</v>
-        <stp/>
-        <stp>BDH|3095106220459993904</stp>
-        <tr r="F7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...4227452786</v>
-        <stp/>
-        <stp>BDH|4741199751841169303</stp>
-        <tr r="R7" s="4"/>
+        <stp>BDH|6835677029197799680</stp>
+        <tr r="D7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C13</stp>
         <stp>PX_LAST</stp>
         <tr r="M5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C12</stp>
         <stp>PX_LAST</stp>
         <tr r="L5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C11</stp>
         <stp>PX_LAST</stp>
         <tr r="K5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C10</stp>
         <stp>PX_LAST</stp>
         <tr r="J5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C17</stp>
         <stp>PX_LAST</stp>
         <tr r="Q5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C16</stp>
         <stp>PX_LAST</stp>
         <tr r="P5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C15</stp>
         <stp>PX_LAST</stp>
         <tr r="O5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C14</stp>
         <stp>PX_LAST</stp>
         <tr r="N5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C18</stp>
         <stp>PX_LAST</stp>
         <tr r="R5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C9</stp>
         <stp>PX_LAST</stp>
         <tr r="I5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C8</stp>
         <stp>PX_LAST</stp>
         <tr r="H5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C7</stp>
         <stp>PX_LAST</stp>
         <tr r="G5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="4"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[ups_data.xlsx]bbg!R5C4</stp>
@@ -410,16 +416,10 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1334743677</v>
+        <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|274322730555081536</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Requesting Data...2240291399</v>
-        <stp/>
-        <stp>BDH|882341662994038285</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|932440353916099480</stp>
+        <tr r="J7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -689,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q175"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="R154" sqref="R154:R175"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9193,7 +9193,7 @@
         <v>335.55</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44784</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>335.15</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44785</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>335.23</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44788</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>335.44</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44789</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>335.68</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44790</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>335.82</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44791</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>336.14</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44792</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>335.99</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44795</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>335.71</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44796</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>336.35</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44797</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>336.56</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44798</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>335.96</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44799</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>336.02</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44802</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>337.07</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44803</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>336.89</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44804</v>
       </c>
@@ -9986,6 +9986,1241 @@
       </c>
       <c r="Q175">
         <v>337.21</v>
+      </c>
+      <c r="R175">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B176">
+        <v>8400.9599999999991</v>
+      </c>
+      <c r="C176">
+        <v>7805.84</v>
+      </c>
+      <c r="D176">
+        <v>317.58</v>
+      </c>
+      <c r="E176">
+        <v>3979.63</v>
+      </c>
+      <c r="F176">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="G176">
+        <v>110.19110000000001</v>
+      </c>
+      <c r="H176">
+        <v>161.29</v>
+      </c>
+      <c r="I176">
+        <v>91.844499999999996</v>
+      </c>
+      <c r="J176">
+        <v>93.816599999999994</v>
+      </c>
+      <c r="K176">
+        <v>127.4842</v>
+      </c>
+      <c r="L176">
+        <v>891.44</v>
+      </c>
+      <c r="M176">
+        <v>1137.79</v>
+      </c>
+      <c r="N176">
+        <v>285.4076</v>
+      </c>
+      <c r="O176">
+        <v>282.81</v>
+      </c>
+      <c r="P176">
+        <v>360.13</v>
+      </c>
+      <c r="Q176">
+        <v>336.69</v>
+      </c>
+      <c r="R176">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B177">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C177">
+        <v>8003.84</v>
+      </c>
+      <c r="D177">
+        <v>316.89999999999998</v>
+      </c>
+      <c r="E177">
+        <v>4001.25</v>
+      </c>
+      <c r="F177">
+        <v>148.54</v>
+      </c>
+      <c r="G177">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H177">
+        <v>160.74</v>
+      </c>
+      <c r="I177">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J177">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K177">
+        <v>127.209</v>
+      </c>
+      <c r="L177">
+        <v>893.77</v>
+      </c>
+      <c r="M177">
+        <v>1136.71</v>
+      </c>
+      <c r="N177">
+        <v>285.5324</v>
+      </c>
+      <c r="O177">
+        <v>282.26</v>
+      </c>
+      <c r="P177">
+        <v>359.31</v>
+      </c>
+      <c r="Q177">
+        <v>335.87</v>
+      </c>
+      <c r="R177">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B178">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C178">
+        <v>7881.07</v>
+      </c>
+      <c r="D178">
+        <v>315.83999999999997</v>
+      </c>
+      <c r="E178">
+        <v>4001.25</v>
+      </c>
+      <c r="F178">
+        <v>148.54</v>
+      </c>
+      <c r="G178">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H178">
+        <v>160.74</v>
+      </c>
+      <c r="I178">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J178">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K178">
+        <v>127.209</v>
+      </c>
+      <c r="L178">
+        <v>893.77</v>
+      </c>
+      <c r="M178">
+        <v>1136.71</v>
+      </c>
+      <c r="N178">
+        <v>285.5324</v>
+      </c>
+      <c r="O178">
+        <v>282.26</v>
+      </c>
+      <c r="P178">
+        <v>359.31</v>
+      </c>
+      <c r="Q178">
+        <v>335.87</v>
+      </c>
+      <c r="R178">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B179">
+        <v>8277.8140000000003</v>
+      </c>
+      <c r="C179">
+        <v>7903.95</v>
+      </c>
+      <c r="D179">
+        <v>314.49</v>
+      </c>
+      <c r="E179">
+        <v>3920.23</v>
+      </c>
+      <c r="F179">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G179">
+        <v>109.58159999999999</v>
+      </c>
+      <c r="H179">
+        <v>160.82</v>
+      </c>
+      <c r="I179">
+        <v>91.688800000000001</v>
+      </c>
+      <c r="J179">
+        <v>93.632300000000001</v>
+      </c>
+      <c r="K179">
+        <v>127.2985</v>
+      </c>
+      <c r="L179">
+        <v>895.44</v>
+      </c>
+      <c r="M179">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N179">
+        <v>285.00920000000002</v>
+      </c>
+      <c r="O179">
+        <v>282.81</v>
+      </c>
+      <c r="P179">
+        <v>360.14</v>
+      </c>
+      <c r="Q179">
+        <v>336.69</v>
+      </c>
+      <c r="R179">
+        <v>169.02</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B180">
+        <v>8429.8649999999998</v>
+      </c>
+      <c r="C180">
+        <v>7908.35</v>
+      </c>
+      <c r="D180">
+        <v>317.33</v>
+      </c>
+      <c r="E180">
+        <v>3972.78</v>
+      </c>
+      <c r="F180">
+        <v>146.69</v>
+      </c>
+      <c r="G180">
+        <v>109.8719</v>
+      </c>
+      <c r="H180">
+        <v>161.46</v>
+      </c>
+      <c r="I180">
+        <v>91.374600000000001</v>
+      </c>
+      <c r="J180">
+        <v>93.393699999999995</v>
+      </c>
+      <c r="K180">
+        <v>127.1468</v>
+      </c>
+      <c r="L180">
+        <v>890.33</v>
+      </c>
+      <c r="M180">
+        <v>1131.72</v>
+      </c>
+      <c r="N180">
+        <v>285.5324</v>
+      </c>
+      <c r="O180">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="P180">
+        <v>359.86</v>
+      </c>
+      <c r="Q180">
+        <v>336.11</v>
+      </c>
+      <c r="R180">
+        <v>169.08</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B181">
+        <v>8486.6309999999994</v>
+      </c>
+      <c r="C181">
+        <v>7932.01</v>
+      </c>
+      <c r="D181">
+        <v>319.77</v>
+      </c>
+      <c r="E181">
+        <v>3957.22</v>
+      </c>
+      <c r="F181">
+        <v>144.87</v>
+      </c>
+      <c r="G181">
+        <v>109.86360000000001</v>
+      </c>
+      <c r="H181">
+        <v>161.78</v>
+      </c>
+      <c r="I181">
+        <v>91.246200000000002</v>
+      </c>
+      <c r="J181">
+        <v>93.178399999999996</v>
+      </c>
+      <c r="K181">
+        <v>127.0478</v>
+      </c>
+      <c r="L181">
+        <v>889.17</v>
+      </c>
+      <c r="M181">
+        <v>1132.24</v>
+      </c>
+      <c r="N181">
+        <v>284.96690000000001</v>
+      </c>
+      <c r="O181">
+        <v>282.91000000000003</v>
+      </c>
+      <c r="P181">
+        <v>360.29</v>
+      </c>
+      <c r="Q181">
+        <v>336.37</v>
+      </c>
+      <c r="R181">
+        <v>169.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B182">
+        <v>8616.9779999999992</v>
+      </c>
+      <c r="C182">
+        <v>8062.21</v>
+      </c>
+      <c r="D182">
+        <v>325.32</v>
+      </c>
+      <c r="E182">
+        <v>3975.95</v>
+      </c>
+      <c r="F182">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="G182">
+        <v>110.4819</v>
+      </c>
+      <c r="H182">
+        <v>162.38999999999999</v>
+      </c>
+      <c r="I182">
+        <v>91.119900000000001</v>
+      </c>
+      <c r="J182">
+        <v>93.009600000000006</v>
+      </c>
+      <c r="K182">
+        <v>126.9734</v>
+      </c>
+      <c r="L182">
+        <v>885.57</v>
+      </c>
+      <c r="M182">
+        <v>1128.1500000000001</v>
+      </c>
+      <c r="N182">
+        <v>284.89499999999998</v>
+      </c>
+      <c r="O182">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="P182">
+        <v>360.2</v>
+      </c>
+      <c r="Q182">
+        <v>336.41</v>
+      </c>
+      <c r="R182">
+        <v>168.83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B183">
+        <v>8708.1730000000007</v>
+      </c>
+      <c r="C183">
+        <v>8234.92</v>
+      </c>
+      <c r="D183">
+        <v>329.54</v>
+      </c>
+      <c r="E183">
+        <v>3964.18</v>
+      </c>
+      <c r="F183">
+        <v>143.62</v>
+      </c>
+      <c r="G183">
+        <v>110.7728</v>
+      </c>
+      <c r="H183">
+        <v>162.52000000000001</v>
+      </c>
+      <c r="I183">
+        <v>91.120699999999999</v>
+      </c>
+      <c r="J183">
+        <v>92.989599999999996</v>
+      </c>
+      <c r="K183">
+        <v>126.97539999999999</v>
+      </c>
+      <c r="L183">
+        <v>883.38</v>
+      </c>
+      <c r="M183">
+        <v>1127.58</v>
+      </c>
+      <c r="N183">
+        <v>285.52080000000001</v>
+      </c>
+      <c r="O183">
+        <v>282.35000000000002</v>
+      </c>
+      <c r="P183">
+        <v>360.3</v>
+      </c>
+      <c r="Q183">
+        <v>336.14</v>
+      </c>
+      <c r="R183">
+        <v>168.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B184">
+        <v>8331.9009999999998</v>
+      </c>
+      <c r="C184">
+        <v>8098.67</v>
+      </c>
+      <c r="D184">
+        <v>318.83999999999997</v>
+      </c>
+      <c r="E184">
+        <v>3947.59</v>
+      </c>
+      <c r="F184">
+        <v>144.56</v>
+      </c>
+      <c r="G184">
+        <v>110.3005</v>
+      </c>
+      <c r="H184">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="I184">
+        <v>91.393299999999996</v>
+      </c>
+      <c r="J184">
+        <v>93.2059</v>
+      </c>
+      <c r="K184">
+        <v>127.09829999999999</v>
+      </c>
+      <c r="L184">
+        <v>890.99</v>
+      </c>
+      <c r="M184">
+        <v>1132.08</v>
+      </c>
+      <c r="N184">
+        <v>285.0505</v>
+      </c>
+      <c r="O184">
+        <v>281.73</v>
+      </c>
+      <c r="P184">
+        <v>358.76</v>
+      </c>
+      <c r="Q184">
+        <v>335.74</v>
+      </c>
+      <c r="R184">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B185">
+        <v>8362.4</v>
+      </c>
+      <c r="C185">
+        <v>8056.61</v>
+      </c>
+      <c r="D185">
+        <v>318.07</v>
+      </c>
+      <c r="E185">
+        <v>3959.22</v>
+      </c>
+      <c r="F185">
+        <v>145.18</v>
+      </c>
+      <c r="G185">
+        <v>110.009</v>
+      </c>
+      <c r="H185">
+        <v>160.68</v>
+      </c>
+      <c r="I185">
+        <v>91.496300000000005</v>
+      </c>
+      <c r="J185">
+        <v>93.426699999999997</v>
+      </c>
+      <c r="K185">
+        <v>127.2028</v>
+      </c>
+      <c r="L185">
+        <v>890.35</v>
+      </c>
+      <c r="M185">
+        <v>1132.33</v>
+      </c>
+      <c r="N185">
+        <v>285.14960000000002</v>
+      </c>
+      <c r="O185">
+        <v>282.42</v>
+      </c>
+      <c r="P185">
+        <v>359.77</v>
+      </c>
+      <c r="Q185">
+        <v>336.41</v>
+      </c>
+      <c r="R185">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B186">
+        <v>8268.6029999999992</v>
+      </c>
+      <c r="C186">
+        <v>7998.43</v>
+      </c>
+      <c r="D186">
+        <v>315.16000000000003</v>
+      </c>
+      <c r="E186">
+        <v>3947.61</v>
+      </c>
+      <c r="F186">
+        <v>145.13999999999999</v>
+      </c>
+      <c r="G186">
+        <v>109.5166</v>
+      </c>
+      <c r="H186">
+        <v>159.63</v>
+      </c>
+      <c r="I186">
+        <v>91.467399999999998</v>
+      </c>
+      <c r="J186">
+        <v>93.252200000000002</v>
+      </c>
+      <c r="K186">
+        <v>127.1632</v>
+      </c>
+      <c r="L186">
+        <v>893.85</v>
+      </c>
+      <c r="M186">
+        <v>1134.53</v>
+      </c>
+      <c r="N186">
+        <v>285.19600000000003</v>
+      </c>
+      <c r="O186">
+        <v>282.68</v>
+      </c>
+      <c r="P186">
+        <v>360.13</v>
+      </c>
+      <c r="Q186">
+        <v>336.35</v>
+      </c>
+      <c r="R186">
+        <v>168.66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B187">
+        <v>8209.3459999999995</v>
+      </c>
+      <c r="C187">
+        <v>7904.97</v>
+      </c>
+      <c r="D187">
+        <v>312.18</v>
+      </c>
+      <c r="E187">
+        <v>3918.88</v>
+      </c>
+      <c r="F187">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="G187">
+        <v>108.9646</v>
+      </c>
+      <c r="H187">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="I187">
+        <v>91.574100000000001</v>
+      </c>
+      <c r="J187">
+        <v>93.543499999999995</v>
+      </c>
+      <c r="K187">
+        <v>127.2907</v>
+      </c>
+      <c r="L187">
+        <v>896.18</v>
+      </c>
+      <c r="M187">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N187">
+        <v>285.95569999999998</v>
+      </c>
+      <c r="O187">
+        <v>282.48</v>
+      </c>
+      <c r="P187">
+        <v>359.85</v>
+      </c>
+      <c r="Q187">
+        <v>335.97</v>
+      </c>
+      <c r="R187">
+        <v>168.73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B188">
+        <v>8265.7270000000008</v>
+      </c>
+      <c r="C188">
+        <v>7904.11</v>
+      </c>
+      <c r="D188">
+        <v>313.2</v>
+      </c>
+      <c r="E188">
+        <v>3923.61</v>
+      </c>
+      <c r="F188">
+        <v>144.07</v>
+      </c>
+      <c r="G188">
+        <v>108.76860000000001</v>
+      </c>
+      <c r="H188">
+        <v>159.25</v>
+      </c>
+      <c r="I188">
+        <v>91.1995</v>
+      </c>
+      <c r="J188">
+        <v>93.130200000000002</v>
+      </c>
+      <c r="K188">
+        <v>127.0296</v>
+      </c>
+      <c r="L188">
+        <v>894.57</v>
+      </c>
+      <c r="M188">
+        <v>1131.6400000000001</v>
+      </c>
+      <c r="N188">
+        <v>286.09620000000001</v>
+      </c>
+      <c r="O188">
+        <v>282.62</v>
+      </c>
+      <c r="P188">
+        <v>360.34</v>
+      </c>
+      <c r="Q188">
+        <v>336.25</v>
+      </c>
+      <c r="R188">
+        <v>168.28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B189">
+        <v>8172.643</v>
+      </c>
+      <c r="C189">
+        <v>7830.92</v>
+      </c>
+      <c r="D189">
+        <v>310.62</v>
+      </c>
+      <c r="E189">
+        <v>3890.53</v>
+      </c>
+      <c r="F189">
+        <v>142.22</v>
+      </c>
+      <c r="G189">
+        <v>108.66289999999999</v>
+      </c>
+      <c r="H189">
+        <v>158.22</v>
+      </c>
+      <c r="I189">
+        <v>91.352000000000004</v>
+      </c>
+      <c r="J189">
+        <v>93.195099999999996</v>
+      </c>
+      <c r="K189">
+        <v>127.0783</v>
+      </c>
+      <c r="L189">
+        <v>897.07</v>
+      </c>
+      <c r="M189">
+        <v>1131.21</v>
+      </c>
+      <c r="N189">
+        <v>286.5521</v>
+      </c>
+      <c r="O189">
+        <v>282.24</v>
+      </c>
+      <c r="P189">
+        <v>359.47</v>
+      </c>
+      <c r="Q189">
+        <v>336.38</v>
+      </c>
+      <c r="R189">
+        <v>168.22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B190">
+        <v>8033.2939999999999</v>
+      </c>
+      <c r="C190">
+        <v>7890.99</v>
+      </c>
+      <c r="D190">
+        <v>306.08999999999997</v>
+      </c>
+      <c r="E190">
+        <v>3931.3</v>
+      </c>
+      <c r="F190">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="G190">
+        <v>108.06780000000001</v>
+      </c>
+      <c r="H190">
+        <v>156.44</v>
+      </c>
+      <c r="I190">
+        <v>91.332899999999995</v>
+      </c>
+      <c r="J190">
+        <v>93.135999999999996</v>
+      </c>
+      <c r="K190">
+        <v>127.0128</v>
+      </c>
+      <c r="L190">
+        <v>902.74</v>
+      </c>
+      <c r="M190">
+        <v>1130.18</v>
+      </c>
+      <c r="N190">
+        <v>285.80799999999999</v>
+      </c>
+      <c r="O190">
+        <v>282.69</v>
+      </c>
+      <c r="P190">
+        <v>359.84</v>
+      </c>
+      <c r="Q190">
+        <v>337.09</v>
+      </c>
+      <c r="R190">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B191">
+        <v>7965.96</v>
+      </c>
+      <c r="C191">
+        <v>7744.71</v>
+      </c>
+      <c r="D191">
+        <v>302.81</v>
+      </c>
+      <c r="E191">
+        <v>3842.44</v>
+      </c>
+      <c r="F191">
+        <v>140.78</v>
+      </c>
+      <c r="G191">
+        <v>107.33750000000001</v>
+      </c>
+      <c r="H191">
+        <v>155.44</v>
+      </c>
+      <c r="I191">
+        <v>91.504099999999994</v>
+      </c>
+      <c r="J191">
+        <v>93.396699999999996</v>
+      </c>
+      <c r="K191">
+        <v>127.2375</v>
+      </c>
+      <c r="L191">
+        <v>906.41</v>
+      </c>
+      <c r="M191">
+        <v>1131.96</v>
+      </c>
+      <c r="N191">
+        <v>286.42809999999997</v>
+      </c>
+      <c r="O191">
+        <v>283.31</v>
+      </c>
+      <c r="P191">
+        <v>360.72</v>
+      </c>
+      <c r="Q191">
+        <v>338.06</v>
+      </c>
+      <c r="R191">
+        <v>167.95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B192">
+        <v>7828.866</v>
+      </c>
+      <c r="C192">
+        <v>7567.24</v>
+      </c>
+      <c r="D192">
+        <v>296.7</v>
+      </c>
+      <c r="E192">
+        <v>3836.24</v>
+      </c>
+      <c r="F192">
+        <v>141.72</v>
+      </c>
+      <c r="G192">
+        <v>107.34010000000001</v>
+      </c>
+      <c r="H192">
+        <v>154.5</v>
+      </c>
+      <c r="I192">
+        <v>92.056200000000004</v>
+      </c>
+      <c r="J192">
+        <v>93.855400000000003</v>
+      </c>
+      <c r="K192">
+        <v>127.67400000000001</v>
+      </c>
+      <c r="L192">
+        <v>910.47</v>
+      </c>
+      <c r="M192">
+        <v>1132.49</v>
+      </c>
+      <c r="N192">
+        <v>286.17750000000001</v>
+      </c>
+      <c r="O192">
+        <v>283.38</v>
+      </c>
+      <c r="P192">
+        <v>360.6</v>
+      </c>
+      <c r="Q192">
+        <v>337.7</v>
+      </c>
+      <c r="R192">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B193">
+        <v>7747.9309999999996</v>
+      </c>
+      <c r="C193">
+        <v>7553.59</v>
+      </c>
+      <c r="D193">
+        <v>292.82</v>
+      </c>
+      <c r="E193">
+        <v>3758.66</v>
+      </c>
+      <c r="F193">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="G193">
+        <v>107.5706</v>
+      </c>
+      <c r="H193">
+        <v>153.94999999999999</v>
+      </c>
+      <c r="I193">
+        <v>92.269300000000001</v>
+      </c>
+      <c r="J193">
+        <v>93.961200000000005</v>
+      </c>
+      <c r="K193">
+        <v>127.8017</v>
+      </c>
+      <c r="L193">
+        <v>914.76</v>
+      </c>
+      <c r="M193">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="N193">
+        <v>285.2475</v>
+      </c>
+      <c r="O193">
+        <v>283.33999999999997</v>
+      </c>
+      <c r="P193">
+        <v>361.39</v>
+      </c>
+      <c r="Q193">
+        <v>338.23</v>
+      </c>
+      <c r="R193">
+        <v>167.84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B194">
+        <v>7731.9939999999997</v>
+      </c>
+      <c r="C194">
+        <v>7522.15</v>
+      </c>
+      <c r="D194">
+        <v>292.45999999999998</v>
+      </c>
+      <c r="E194">
+        <v>3668.47</v>
+      </c>
+      <c r="F194">
+        <v>133.34</v>
+      </c>
+      <c r="G194">
+        <v>107.82250000000001</v>
+      </c>
+      <c r="H194">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="I194">
+        <v>92.750299999999996</v>
+      </c>
+      <c r="J194">
+        <v>94.456299999999999</v>
+      </c>
+      <c r="K194">
+        <v>128.10919999999999</v>
+      </c>
+      <c r="L194">
+        <v>914.53</v>
+      </c>
+      <c r="M194">
+        <v>1131.75</v>
+      </c>
+      <c r="N194">
+        <v>285.14409999999998</v>
+      </c>
+      <c r="O194">
+        <v>283.43</v>
+      </c>
+      <c r="P194">
+        <v>361.06</v>
+      </c>
+      <c r="Q194">
+        <v>338.47</v>
+      </c>
+      <c r="R194">
+        <v>168.03</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B195">
+        <v>7884.5469999999996</v>
+      </c>
+      <c r="C195">
+        <v>7537.16</v>
+      </c>
+      <c r="D195">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="E195">
+        <v>3738.92</v>
+      </c>
+      <c r="F195">
+        <v>139.07</v>
+      </c>
+      <c r="G195">
+        <v>108.4552</v>
+      </c>
+      <c r="H195">
+        <v>156.34</v>
+      </c>
+      <c r="I195">
+        <v>91.985399999999998</v>
+      </c>
+      <c r="J195">
+        <v>94.079400000000007</v>
+      </c>
+      <c r="K195">
+        <v>127.6219</v>
+      </c>
+      <c r="L195">
+        <v>908.33</v>
+      </c>
+      <c r="M195">
+        <v>1129.32</v>
+      </c>
+      <c r="N195">
+        <v>285.27710000000002</v>
+      </c>
+      <c r="O195">
+        <v>283.86</v>
+      </c>
+      <c r="P195">
+        <v>361.71</v>
+      </c>
+      <c r="Q195">
+        <v>338.71</v>
+      </c>
+      <c r="R195">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B196">
+        <v>7719.0910000000003</v>
+      </c>
+      <c r="C196">
+        <v>7410.04</v>
+      </c>
+      <c r="D196">
+        <v>291.7</v>
+      </c>
+      <c r="E196">
+        <v>3695.78</v>
+      </c>
+      <c r="F196">
+        <v>138.12</v>
+      </c>
+      <c r="G196">
+        <v>107.75709999999999</v>
+      </c>
+      <c r="H196">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="I196">
+        <v>92.455699999999993</v>
+      </c>
+      <c r="J196">
+        <v>94.661299999999997</v>
+      </c>
+      <c r="K196">
+        <v>128.1037</v>
+      </c>
+      <c r="L196">
+        <v>915.35</v>
+      </c>
+      <c r="M196">
+        <v>1134.58</v>
+      </c>
+      <c r="N196">
+        <v>285.97019999999998</v>
+      </c>
+      <c r="O196">
+        <v>283.37</v>
+      </c>
+      <c r="P196">
+        <v>360.98</v>
+      </c>
+      <c r="Q196">
+        <v>337.82</v>
+      </c>
+      <c r="R196">
+        <v>168.41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B197">
+        <v>7603.1440000000002</v>
+      </c>
+      <c r="C197">
+        <v>7498.52</v>
+      </c>
+      <c r="D197">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="E197">
+        <v>3693.33</v>
+      </c>
+      <c r="F197">
+        <v>135.82</v>
+      </c>
+      <c r="G197">
+        <v>107.012</v>
+      </c>
+      <c r="H197">
+        <v>151.76</v>
+      </c>
+      <c r="I197">
+        <v>92.274500000000003</v>
+      </c>
+      <c r="J197">
+        <v>94.137600000000006</v>
+      </c>
+      <c r="K197">
+        <v>127.62649999999999</v>
+      </c>
+      <c r="L197">
+        <v>921.04</v>
+      </c>
+      <c r="M197">
+        <v>1132.99</v>
+      </c>
+      <c r="N197">
+        <v>285.87400000000002</v>
+      </c>
+      <c r="O197">
+        <v>283.79000000000002</v>
+      </c>
+      <c r="P197">
+        <v>361.58</v>
+      </c>
+      <c r="Q197">
+        <v>338.31</v>
+      </c>
+      <c r="R197">
+        <v>167.83</v>
       </c>
     </row>
   </sheetData>
@@ -60569,8 +61804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="M145" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:Q180"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="R202" sqref="A180:R202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60606,7 +61841,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44804</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -60663,73 +61898,73 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" t="e">
+      <c r="B5" t="str">
         <f>_xll.BFieldInfo(B$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="C5" t="str">
         <f>_xll.BFieldInfo(C$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="D5" t="str">
         <f>_xll.BFieldInfo(D$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="E5" t="str">
         <f>_xll.BFieldInfo(E$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="F5" t="str">
         <f>_xll.BFieldInfo(F$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="G5" t="str">
         <f>_xll.BFieldInfo(G$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="H5" t="str">
         <f>_xll.BFieldInfo(H$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="I5" t="str">
         <f>_xll.BFieldInfo(I$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="J5" t="str">
         <f>_xll.BFieldInfo(J$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="K5" t="str">
         <f>_xll.BFieldInfo(K$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="L5" t="str">
         <f>_xll.BFieldInfo(L$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="M5" t="str">
         <f>_xll.BFieldInfo(M$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="N5" t="str">
         <f>_xll.BFieldInfo(N$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="O5" t="str">
         <f>_xll.BFieldInfo(O$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="P5" t="str">
         <f>_xll.BFieldInfo(P$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="Q5" t="str">
         <f>_xll.BFieldInfo(Q$6)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R5" t="e">
+        <v>Last Price</v>
+      </c>
+      <c r="R5" t="str">
         <f>_xll.BFieldInfo(R$6)</f>
-        <v>#N/A</v>
+        <v>Last Price</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -60789,76 +62024,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="str">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=196")</f>
+        <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
-      <c r="C7" t="str">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D7" t="str">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E7" t="str">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G7" t="str">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="H7" t="str">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="I7" t="str">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="J7" t="str">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="K7" t="str">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="L7" t="str">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="M7" t="str">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="N7" t="str">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="O7" t="str">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="P7" t="str">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="Q7" t="str">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="R7" t="str">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=174")</f>
-        <v>#N/A Requesting Data...</v>
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>9491.1</v>
+      </c>
+      <c r="D7">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>389.04</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>214.08</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>122.8967</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>175.14</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>98.672499999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>101.2684</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>135.21369999999999</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>835.24</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>1088</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>297.6395</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>287.23</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>368.34</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>345.76</v>
+      </c>
+      <c r="R7">
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>169.35</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -70345,7 +71580,7 @@
         <v>154.22</v>
       </c>
       <c r="G177">
-        <v>112.1219</v>
+        <v>112.12179999999999</v>
       </c>
       <c r="H177">
         <v>162.63</v>
@@ -70550,87 +71785,1253 @@
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B181">
+        <v>8400.9599999999991</v>
+      </c>
+      <c r="C181">
+        <v>7805.84</v>
+      </c>
+      <c r="D181">
+        <v>317.58</v>
+      </c>
+      <c r="E181">
+        <v>3979.63</v>
+      </c>
+      <c r="F181">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="G181">
+        <v>110.19110000000001</v>
+      </c>
+      <c r="H181">
+        <v>161.29</v>
+      </c>
+      <c r="I181">
+        <v>91.844499999999996</v>
+      </c>
+      <c r="J181">
+        <v>93.816599999999994</v>
+      </c>
+      <c r="K181">
+        <v>127.4842</v>
+      </c>
+      <c r="L181">
+        <v>891.44</v>
+      </c>
+      <c r="M181">
+        <v>1137.79</v>
+      </c>
+      <c r="N181">
+        <v>285.4076</v>
+      </c>
+      <c r="O181">
+        <v>282.81</v>
+      </c>
+      <c r="P181">
+        <v>360.13</v>
+      </c>
+      <c r="Q181">
+        <v>336.69</v>
+      </c>
+      <c r="R181">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B182">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C182">
+        <v>8003.84</v>
+      </c>
+      <c r="D182">
+        <v>316.89999999999998</v>
+      </c>
+      <c r="E182">
+        <v>4001.25</v>
+      </c>
+      <c r="F182">
+        <v>148.54</v>
+      </c>
+      <c r="G182">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H182">
+        <v>160.74</v>
+      </c>
+      <c r="I182">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J182">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K182">
+        <v>127.209</v>
+      </c>
+      <c r="L182">
+        <v>893.77</v>
+      </c>
+      <c r="M182">
+        <v>1136.71</v>
+      </c>
+      <c r="N182">
+        <v>285.5324</v>
+      </c>
+      <c r="O182">
+        <v>282.26</v>
+      </c>
+      <c r="P182">
+        <v>359.31</v>
+      </c>
+      <c r="Q182">
+        <v>335.87</v>
+      </c>
+      <c r="R182">
+        <v>168.87</v>
+      </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B183">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C183">
+        <v>7881.07</v>
+      </c>
+      <c r="D183">
+        <v>315.83999999999997</v>
+      </c>
+      <c r="E183">
+        <v>4001.25</v>
+      </c>
+      <c r="F183">
+        <v>148.54</v>
+      </c>
+      <c r="G183">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H183">
+        <v>160.74</v>
+      </c>
+      <c r="I183">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J183">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K183">
+        <v>127.209</v>
+      </c>
+      <c r="L183">
+        <v>893.77</v>
+      </c>
+      <c r="M183">
+        <v>1136.71</v>
+      </c>
+      <c r="N183">
+        <v>285.5324</v>
+      </c>
+      <c r="O183">
+        <v>282.26</v>
+      </c>
+      <c r="P183">
+        <v>359.31</v>
+      </c>
+      <c r="Q183">
+        <v>335.87</v>
+      </c>
+      <c r="R183">
+        <v>168.87</v>
+      </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B184">
+        <v>8277.8140000000003</v>
+      </c>
+      <c r="C184">
+        <v>7903.95</v>
+      </c>
+      <c r="D184">
+        <v>314.49</v>
+      </c>
+      <c r="E184">
+        <v>3920.23</v>
+      </c>
+      <c r="F184">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G184">
+        <v>109.58159999999999</v>
+      </c>
+      <c r="H184">
+        <v>160.82</v>
+      </c>
+      <c r="I184">
+        <v>91.688800000000001</v>
+      </c>
+      <c r="J184">
+        <v>93.632300000000001</v>
+      </c>
+      <c r="K184">
+        <v>127.2985</v>
+      </c>
+      <c r="L184">
+        <v>895.44</v>
+      </c>
+      <c r="M184">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N184">
+        <v>285.00920000000002</v>
+      </c>
+      <c r="O184">
+        <v>282.81</v>
+      </c>
+      <c r="P184">
+        <v>360.14</v>
+      </c>
+      <c r="Q184">
+        <v>336.69</v>
+      </c>
+      <c r="R184">
+        <v>169.02</v>
+      </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B185">
+        <v>8429.8649999999998</v>
+      </c>
+      <c r="C185">
+        <v>7908.35</v>
+      </c>
+      <c r="D185">
+        <v>317.33</v>
+      </c>
+      <c r="E185">
+        <v>3972.78</v>
+      </c>
+      <c r="F185">
+        <v>146.69</v>
+      </c>
+      <c r="G185">
+        <v>109.8719</v>
+      </c>
+      <c r="H185">
+        <v>161.46</v>
+      </c>
+      <c r="I185">
+        <v>91.374600000000001</v>
+      </c>
+      <c r="J185">
+        <v>93.393699999999995</v>
+      </c>
+      <c r="K185">
+        <v>127.1468</v>
+      </c>
+      <c r="L185">
+        <v>890.33</v>
+      </c>
+      <c r="M185">
+        <v>1131.72</v>
+      </c>
+      <c r="N185">
+        <v>285.5324</v>
+      </c>
+      <c r="O185">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="P185">
+        <v>359.86</v>
+      </c>
+      <c r="Q185">
+        <v>336.11</v>
+      </c>
+      <c r="R185">
+        <v>169.08</v>
+      </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B186">
+        <v>8486.6309999999994</v>
+      </c>
+      <c r="C186">
+        <v>7932.01</v>
+      </c>
+      <c r="D186">
+        <v>319.77</v>
+      </c>
+      <c r="E186">
+        <v>3957.22</v>
+      </c>
+      <c r="F186">
+        <v>144.87</v>
+      </c>
+      <c r="G186">
+        <v>109.86360000000001</v>
+      </c>
+      <c r="H186">
+        <v>161.78</v>
+      </c>
+      <c r="I186">
+        <v>91.246200000000002</v>
+      </c>
+      <c r="J186">
+        <v>93.178399999999996</v>
+      </c>
+      <c r="K186">
+        <v>127.0478</v>
+      </c>
+      <c r="L186">
+        <v>889.17</v>
+      </c>
+      <c r="M186">
+        <v>1132.24</v>
+      </c>
+      <c r="N186">
+        <v>284.96690000000001</v>
+      </c>
+      <c r="O186">
+        <v>282.91000000000003</v>
+      </c>
+      <c r="P186">
+        <v>360.29</v>
+      </c>
+      <c r="Q186">
+        <v>336.37</v>
+      </c>
+      <c r="R186">
+        <v>169.17</v>
+      </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B187">
+        <v>8616.9779999999992</v>
+      </c>
+      <c r="C187">
+        <v>8062.21</v>
+      </c>
+      <c r="D187">
+        <v>325.32</v>
+      </c>
+      <c r="E187">
+        <v>3975.95</v>
+      </c>
+      <c r="F187">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="G187">
+        <v>110.4819</v>
+      </c>
+      <c r="H187">
+        <v>162.38999999999999</v>
+      </c>
+      <c r="I187">
+        <v>91.119900000000001</v>
+      </c>
+      <c r="J187">
+        <v>93.009600000000006</v>
+      </c>
+      <c r="K187">
+        <v>126.9734</v>
+      </c>
+      <c r="L187">
+        <v>885.57</v>
+      </c>
+      <c r="M187">
+        <v>1128.1500000000001</v>
+      </c>
+      <c r="N187">
+        <v>284.89499999999998</v>
+      </c>
+      <c r="O187">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="P187">
+        <v>360.2</v>
+      </c>
+      <c r="Q187">
+        <v>336.41</v>
+      </c>
+      <c r="R187">
+        <v>168.83</v>
+      </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B188">
+        <v>8708.1730000000007</v>
+      </c>
+      <c r="C188">
+        <v>8234.92</v>
+      </c>
+      <c r="D188">
+        <v>329.54</v>
+      </c>
+      <c r="E188">
+        <v>3964.18</v>
+      </c>
+      <c r="F188">
+        <v>143.62</v>
+      </c>
+      <c r="G188">
+        <v>110.7728</v>
+      </c>
+      <c r="H188">
+        <v>162.52000000000001</v>
+      </c>
+      <c r="I188">
+        <v>91.120699999999999</v>
+      </c>
+      <c r="J188">
+        <v>92.989599999999996</v>
+      </c>
+      <c r="K188">
+        <v>126.97539999999999</v>
+      </c>
+      <c r="L188">
+        <v>883.38</v>
+      </c>
+      <c r="M188">
+        <v>1127.58</v>
+      </c>
+      <c r="N188">
+        <v>285.52080000000001</v>
+      </c>
+      <c r="O188">
+        <v>282.35000000000002</v>
+      </c>
+      <c r="P188">
+        <v>360.3</v>
+      </c>
+      <c r="Q188">
+        <v>336.14</v>
+      </c>
+      <c r="R188">
+        <v>168.55</v>
+      </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B189">
+        <v>8331.9009999999998</v>
+      </c>
+      <c r="C189">
+        <v>8098.67</v>
+      </c>
+      <c r="D189">
+        <v>318.83999999999997</v>
+      </c>
+      <c r="E189">
+        <v>3947.59</v>
+      </c>
+      <c r="F189">
+        <v>144.56</v>
+      </c>
+      <c r="G189">
+        <v>110.3005</v>
+      </c>
+      <c r="H189">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="I189">
+        <v>91.393299999999996</v>
+      </c>
+      <c r="J189">
+        <v>93.2059</v>
+      </c>
+      <c r="K189">
+        <v>127.09829999999999</v>
+      </c>
+      <c r="L189">
+        <v>890.99</v>
+      </c>
+      <c r="M189">
+        <v>1132.08</v>
+      </c>
+      <c r="N189">
+        <v>285.0505</v>
+      </c>
+      <c r="O189">
+        <v>281.73</v>
+      </c>
+      <c r="P189">
+        <v>358.76</v>
+      </c>
+      <c r="Q189">
+        <v>335.74</v>
+      </c>
+      <c r="R189">
+        <v>168.29</v>
+      </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B190">
+        <v>8362.4</v>
+      </c>
+      <c r="C190">
+        <v>8056.61</v>
+      </c>
+      <c r="D190">
+        <v>318.07</v>
+      </c>
+      <c r="E190">
+        <v>3959.22</v>
+      </c>
+      <c r="F190">
+        <v>145.18</v>
+      </c>
+      <c r="G190">
+        <v>110.009</v>
+      </c>
+      <c r="H190">
+        <v>160.68</v>
+      </c>
+      <c r="I190">
+        <v>91.496300000000005</v>
+      </c>
+      <c r="J190">
+        <v>93.426699999999997</v>
+      </c>
+      <c r="K190">
+        <v>127.2028</v>
+      </c>
+      <c r="L190">
+        <v>890.35</v>
+      </c>
+      <c r="M190">
+        <v>1132.33</v>
+      </c>
+      <c r="N190">
+        <v>285.14960000000002</v>
+      </c>
+      <c r="O190">
+        <v>282.42</v>
+      </c>
+      <c r="P190">
+        <v>359.77</v>
+      </c>
+      <c r="Q190">
+        <v>336.41</v>
+      </c>
+      <c r="R190">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B191">
+        <v>8268.6029999999992</v>
+      </c>
+      <c r="C191">
+        <v>7998.43</v>
+      </c>
+      <c r="D191">
+        <v>315.16000000000003</v>
+      </c>
+      <c r="E191">
+        <v>3947.61</v>
+      </c>
+      <c r="F191">
+        <v>145.13999999999999</v>
+      </c>
+      <c r="G191">
+        <v>109.5166</v>
+      </c>
+      <c r="H191">
+        <v>159.63</v>
+      </c>
+      <c r="I191">
+        <v>91.467399999999998</v>
+      </c>
+      <c r="J191">
+        <v>93.252200000000002</v>
+      </c>
+      <c r="K191">
+        <v>127.1632</v>
+      </c>
+      <c r="L191">
+        <v>893.85</v>
+      </c>
+      <c r="M191">
+        <v>1134.53</v>
+      </c>
+      <c r="N191">
+        <v>285.19600000000003</v>
+      </c>
+      <c r="O191">
+        <v>282.68</v>
+      </c>
+      <c r="P191">
+        <v>360.13</v>
+      </c>
+      <c r="Q191">
+        <v>336.35</v>
+      </c>
+      <c r="R191">
+        <v>168.66</v>
+      </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B192">
+        <v>8209.3459999999995</v>
+      </c>
+      <c r="C192">
+        <v>7904.97</v>
+      </c>
+      <c r="D192">
+        <v>312.18</v>
+      </c>
+      <c r="E192">
+        <v>3918.88</v>
+      </c>
+      <c r="F192">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="G192">
+        <v>108.9646</v>
+      </c>
+      <c r="H192">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="I192">
+        <v>91.574100000000001</v>
+      </c>
+      <c r="J192">
+        <v>93.543499999999995</v>
+      </c>
+      <c r="K192">
+        <v>127.2907</v>
+      </c>
+      <c r="L192">
+        <v>896.18</v>
+      </c>
+      <c r="M192">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N192">
+        <v>285.95569999999998</v>
+      </c>
+      <c r="O192">
+        <v>282.48</v>
+      </c>
+      <c r="P192">
+        <v>359.85</v>
+      </c>
+      <c r="Q192">
+        <v>335.97</v>
+      </c>
+      <c r="R192">
+        <v>168.73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B193">
+        <v>8265.7270000000008</v>
+      </c>
+      <c r="C193">
+        <v>7904.11</v>
+      </c>
+      <c r="D193">
+        <v>313.2</v>
+      </c>
+      <c r="E193">
+        <v>3923.61</v>
+      </c>
+      <c r="F193">
+        <v>144.07</v>
+      </c>
+      <c r="G193">
+        <v>108.76860000000001</v>
+      </c>
+      <c r="H193">
+        <v>159.25</v>
+      </c>
+      <c r="I193">
+        <v>91.1995</v>
+      </c>
+      <c r="J193">
+        <v>93.130200000000002</v>
+      </c>
+      <c r="K193">
+        <v>127.0296</v>
+      </c>
+      <c r="L193">
+        <v>894.57</v>
+      </c>
+      <c r="M193">
+        <v>1131.6400000000001</v>
+      </c>
+      <c r="N193">
+        <v>286.09620000000001</v>
+      </c>
+      <c r="O193">
+        <v>282.62</v>
+      </c>
+      <c r="P193">
+        <v>360.34</v>
+      </c>
+      <c r="Q193">
+        <v>336.25</v>
+      </c>
+      <c r="R193">
+        <v>168.28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B194">
+        <v>8172.643</v>
+      </c>
+      <c r="C194">
+        <v>7830.92</v>
+      </c>
+      <c r="D194">
+        <v>310.62</v>
+      </c>
+      <c r="E194">
+        <v>3890.53</v>
+      </c>
+      <c r="F194">
+        <v>142.22</v>
+      </c>
+      <c r="G194">
+        <v>108.66289999999999</v>
+      </c>
+      <c r="H194">
+        <v>158.22</v>
+      </c>
+      <c r="I194">
+        <v>91.352000000000004</v>
+      </c>
+      <c r="J194">
+        <v>93.195099999999996</v>
+      </c>
+      <c r="K194">
+        <v>127.0783</v>
+      </c>
+      <c r="L194">
+        <v>897.07</v>
+      </c>
+      <c r="M194">
+        <v>1131.21</v>
+      </c>
+      <c r="N194">
+        <v>286.5521</v>
+      </c>
+      <c r="O194">
+        <v>282.24</v>
+      </c>
+      <c r="P194">
+        <v>359.47</v>
+      </c>
+      <c r="Q194">
+        <v>336.38</v>
+      </c>
+      <c r="R194">
+        <v>168.22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B195">
+        <v>8033.2939999999999</v>
+      </c>
+      <c r="C195">
+        <v>7890.99</v>
+      </c>
+      <c r="D195">
+        <v>306.08999999999997</v>
+      </c>
+      <c r="E195">
+        <v>3931.3</v>
+      </c>
+      <c r="F195">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="G195">
+        <v>108.06780000000001</v>
+      </c>
+      <c r="H195">
+        <v>156.44</v>
+      </c>
+      <c r="I195">
+        <v>91.332899999999995</v>
+      </c>
+      <c r="J195">
+        <v>93.135999999999996</v>
+      </c>
+      <c r="K195">
+        <v>127.0128</v>
+      </c>
+      <c r="L195">
+        <v>902.74</v>
+      </c>
+      <c r="M195">
+        <v>1130.18</v>
+      </c>
+      <c r="N195">
+        <v>285.80799999999999</v>
+      </c>
+      <c r="O195">
+        <v>282.69</v>
+      </c>
+      <c r="P195">
+        <v>359.84</v>
+      </c>
+      <c r="Q195">
+        <v>337.09</v>
+      </c>
+      <c r="R195">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B196">
+        <v>7965.96</v>
+      </c>
+      <c r="C196">
+        <v>7744.71</v>
+      </c>
+      <c r="D196">
+        <v>302.81</v>
+      </c>
+      <c r="E196">
+        <v>3842.44</v>
+      </c>
+      <c r="F196">
+        <v>140.78</v>
+      </c>
+      <c r="G196">
+        <v>107.33750000000001</v>
+      </c>
+      <c r="H196">
+        <v>155.44</v>
+      </c>
+      <c r="I196">
+        <v>91.504099999999994</v>
+      </c>
+      <c r="J196">
+        <v>93.396699999999996</v>
+      </c>
+      <c r="K196">
+        <v>127.2375</v>
+      </c>
+      <c r="L196">
+        <v>906.41</v>
+      </c>
+      <c r="M196">
+        <v>1131.96</v>
+      </c>
+      <c r="N196">
+        <v>286.42809999999997</v>
+      </c>
+      <c r="O196">
+        <v>283.31</v>
+      </c>
+      <c r="P196">
+        <v>360.72</v>
+      </c>
+      <c r="Q196">
+        <v>338.06</v>
+      </c>
+      <c r="R196">
+        <v>167.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B197">
+        <v>7828.866</v>
+      </c>
+      <c r="C197">
+        <v>7567.24</v>
+      </c>
+      <c r="D197">
+        <v>296.7</v>
+      </c>
+      <c r="E197">
+        <v>3836.24</v>
+      </c>
+      <c r="F197">
+        <v>141.72</v>
+      </c>
+      <c r="G197">
+        <v>107.34010000000001</v>
+      </c>
+      <c r="H197">
+        <v>154.5</v>
+      </c>
+      <c r="I197">
+        <v>92.056200000000004</v>
+      </c>
+      <c r="J197">
+        <v>93.855400000000003</v>
+      </c>
+      <c r="K197">
+        <v>127.67400000000001</v>
+      </c>
+      <c r="L197">
+        <v>910.47</v>
+      </c>
+      <c r="M197">
+        <v>1132.49</v>
+      </c>
+      <c r="N197">
+        <v>286.17750000000001</v>
+      </c>
+      <c r="O197">
+        <v>283.38</v>
+      </c>
+      <c r="P197">
+        <v>360.6</v>
+      </c>
+      <c r="Q197">
+        <v>337.7</v>
+      </c>
+      <c r="R197">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B198">
+        <v>7747.9309999999996</v>
+      </c>
+      <c r="C198">
+        <v>7553.59</v>
+      </c>
+      <c r="D198">
+        <v>292.82</v>
+      </c>
+      <c r="E198">
+        <v>3758.66</v>
+      </c>
+      <c r="F198">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="G198">
+        <v>107.5706</v>
+      </c>
+      <c r="H198">
+        <v>153.94999999999999</v>
+      </c>
+      <c r="I198">
+        <v>92.269300000000001</v>
+      </c>
+      <c r="J198">
+        <v>93.961200000000005</v>
+      </c>
+      <c r="K198">
+        <v>127.8017</v>
+      </c>
+      <c r="L198">
+        <v>914.76</v>
+      </c>
+      <c r="M198">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="N198">
+        <v>285.2475</v>
+      </c>
+      <c r="O198">
+        <v>283.33999999999997</v>
+      </c>
+      <c r="P198">
+        <v>361.39</v>
+      </c>
+      <c r="Q198">
+        <v>338.23</v>
+      </c>
+      <c r="R198">
+        <v>167.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B199">
+        <v>7731.9939999999997</v>
+      </c>
+      <c r="C199">
+        <v>7522.15</v>
+      </c>
+      <c r="D199">
+        <v>292.45999999999998</v>
+      </c>
+      <c r="E199">
+        <v>3668.47</v>
+      </c>
+      <c r="F199">
+        <v>133.34</v>
+      </c>
+      <c r="G199">
+        <v>107.82250000000001</v>
+      </c>
+      <c r="H199">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="I199">
+        <v>92.750299999999996</v>
+      </c>
+      <c r="J199">
+        <v>94.456299999999999</v>
+      </c>
+      <c r="K199">
+        <v>128.10919999999999</v>
+      </c>
+      <c r="L199">
+        <v>914.53</v>
+      </c>
+      <c r="M199">
+        <v>1131.75</v>
+      </c>
+      <c r="N199">
+        <v>285.14409999999998</v>
+      </c>
+      <c r="O199">
+        <v>283.43</v>
+      </c>
+      <c r="P199">
+        <v>361.06</v>
+      </c>
+      <c r="Q199">
+        <v>338.47</v>
+      </c>
+      <c r="R199">
+        <v>168.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B200">
+        <v>7884.5469999999996</v>
+      </c>
+      <c r="C200">
+        <v>7537.16</v>
+      </c>
+      <c r="D200">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="E200">
+        <v>3738.92</v>
+      </c>
+      <c r="F200">
+        <v>139.07</v>
+      </c>
+      <c r="G200">
+        <v>108.4552</v>
+      </c>
+      <c r="H200">
+        <v>156.34</v>
+      </c>
+      <c r="I200">
+        <v>91.985399999999998</v>
+      </c>
+      <c r="J200">
+        <v>94.079400000000007</v>
+      </c>
+      <c r="K200">
+        <v>127.6219</v>
+      </c>
+      <c r="L200">
+        <v>908.33</v>
+      </c>
+      <c r="M200">
+        <v>1129.32</v>
+      </c>
+      <c r="N200">
+        <v>285.27710000000002</v>
+      </c>
+      <c r="O200">
+        <v>283.86</v>
+      </c>
+      <c r="P200">
+        <v>361.71</v>
+      </c>
+      <c r="Q200">
+        <v>338.71</v>
+      </c>
+      <c r="R200">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B201">
+        <v>7719.0910000000003</v>
+      </c>
+      <c r="C201">
+        <v>7410.04</v>
+      </c>
+      <c r="D201">
+        <v>291.7</v>
+      </c>
+      <c r="E201">
+        <v>3695.78</v>
+      </c>
+      <c r="F201">
+        <v>138.12</v>
+      </c>
+      <c r="G201">
+        <v>107.75709999999999</v>
+      </c>
+      <c r="H201">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="I201">
+        <v>92.455699999999993</v>
+      </c>
+      <c r="J201">
+        <v>94.661299999999997</v>
+      </c>
+      <c r="K201">
+        <v>128.1037</v>
+      </c>
+      <c r="L201">
+        <v>915.35</v>
+      </c>
+      <c r="M201">
+        <v>1134.58</v>
+      </c>
+      <c r="N201">
+        <v>285.97019999999998</v>
+      </c>
+      <c r="O201">
+        <v>283.37</v>
+      </c>
+      <c r="P201">
+        <v>360.98</v>
+      </c>
+      <c r="Q201">
+        <v>337.82</v>
+      </c>
+      <c r="R201">
+        <v>168.41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B202">
+        <v>7603.1440000000002</v>
+      </c>
+      <c r="C202">
+        <v>7498.52</v>
+      </c>
+      <c r="D202">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="E202">
+        <v>3693.33</v>
+      </c>
+      <c r="F202">
+        <v>135.82</v>
+      </c>
+      <c r="G202">
+        <v>107.012</v>
+      </c>
+      <c r="H202">
+        <v>151.76</v>
+      </c>
+      <c r="I202">
+        <v>92.274500000000003</v>
+      </c>
+      <c r="J202">
+        <v>94.137600000000006</v>
+      </c>
+      <c r="K202">
+        <v>127.62649999999999</v>
+      </c>
+      <c r="L202">
+        <v>921.04</v>
+      </c>
+      <c r="M202">
+        <v>1132.99</v>
+      </c>
+      <c r="N202">
+        <v>285.87400000000002</v>
+      </c>
+      <c r="O202">
+        <v>283.79000000000002</v>
+      </c>
+      <c r="P202">
+        <v>361.58</v>
+      </c>
+      <c r="Q202">
+        <v>338.31</v>
+      </c>
+      <c r="R202">
+        <v>167.83</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\RMP\EquityHedging\data\update_strats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27DECF7-23E3-47CA-9EBA-D3F71AD177AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1835E671-548A-42FF-9F50-F320FBDECD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="780" windowWidth="10420" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_5" hidden="1">bbg!$A$1:$R$7</definedName>
+    <definedName name="SpreadsheetBuilder_6" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,6 +171,259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|16727583087644445504</stp>
+        <tr r="M7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|14234006623429924125</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|11664350796143255550</stp>
+        <tr r="E7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12131352925380315342</stp>
+        <tr r="P7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12059809901744298878</stp>
+        <tr r="Q7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|17414422510344432232</stp>
+        <tr r="I7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|12559626127843371028</stp>
+        <tr r="C7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|13464868775189878053</stp>
+        <tr r="H7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4101088581556967483</stp>
+        <tr r="R7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|2635583659919476254</stp>
+        <tr r="L7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6875801268774536502</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8640915654669239780</stp>
+        <tr r="N7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6570479873420035104</stp>
+        <tr r="A7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|3029848534948596642</stp>
+        <tr r="K7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6553308138291344783</stp>
+        <tr r="O7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|6835677029197799680</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C13</stp>
+        <stp>PX_LAST</stp>
+        <tr r="M5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C12</stp>
+        <stp>PX_LAST</stp>
+        <tr r="L5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C11</stp>
+        <stp>PX_LAST</stp>
+        <tr r="K5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C10</stp>
+        <stp>PX_LAST</stp>
+        <tr r="J5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C17</stp>
+        <stp>PX_LAST</stp>
+        <tr r="Q5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C16</stp>
+        <stp>PX_LAST</stp>
+        <tr r="P5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C15</stp>
+        <stp>PX_LAST</stp>
+        <tr r="O5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C14</stp>
+        <stp>PX_LAST</stp>
+        <tr r="N5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C18</stp>
+        <stp>PX_LAST</stp>
+        <tr r="R5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C9</stp>
+        <stp>PX_LAST</stp>
+        <tr r="I5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C8</stp>
+        <stp>PX_LAST</stp>
+        <tr r="H5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C3</stp>
+        <stp>PX_LAST</stp>
+        <tr r="C5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C7</stp>
+        <stp>PX_LAST</stp>
+        <tr r="G5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C6</stp>
+        <stp>PX_LAST</stp>
+        <tr r="F5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C5</stp>
+        <stp>PX_LAST</stp>
+        <tr r="E5" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[ups_data.xlsx]bbg!R5C4</stp>
+        <stp>PX_LAST</stp>
+        <tr r="D5" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|932440353916099480</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q152"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8092,7 +8345,7 @@
         <v>333.27</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44762</v>
       </c>
@@ -8145,7 +8398,7 @@
         <v>333.58</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44763</v>
       </c>
@@ -8198,7 +8451,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44764</v>
       </c>
@@ -8251,7 +8504,7 @@
         <v>333.66</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44767</v>
       </c>
@@ -8304,7 +8557,7 @@
         <v>333.91</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44768</v>
       </c>
@@ -8357,7 +8610,7 @@
         <v>334.02</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44769</v>
       </c>
@@ -8410,7 +8663,7 @@
         <v>334.24</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44770</v>
       </c>
@@ -8463,7 +8716,7 @@
         <v>334.2</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44771</v>
       </c>
@@ -8514,6 +8767,2526 @@
       </c>
       <c r="Q152">
         <v>334.43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B153">
+        <v>8705.8739999999998</v>
+      </c>
+      <c r="C153">
+        <v>8363.6200000000008</v>
+      </c>
+      <c r="D153">
+        <v>332.58</v>
+      </c>
+      <c r="E153">
+        <v>4296.6899999999996</v>
+      </c>
+      <c r="F153">
+        <v>164.74</v>
+      </c>
+      <c r="G153">
+        <v>112.66970000000001</v>
+      </c>
+      <c r="H153">
+        <v>164.17</v>
+      </c>
+      <c r="I153">
+        <v>91.878799999999998</v>
+      </c>
+      <c r="J153">
+        <v>93.916300000000007</v>
+      </c>
+      <c r="K153">
+        <v>127.5063</v>
+      </c>
+      <c r="L153">
+        <v>883.27</v>
+      </c>
+      <c r="M153">
+        <v>1142.3699999999999</v>
+      </c>
+      <c r="N153">
+        <v>283.7835</v>
+      </c>
+      <c r="O153">
+        <v>281.25</v>
+      </c>
+      <c r="P153">
+        <v>357.93</v>
+      </c>
+      <c r="Q153">
+        <v>334.82</v>
+      </c>
+      <c r="R153">
+        <v>168.94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B154">
+        <v>8647.9089999999997</v>
+      </c>
+      <c r="C154">
+        <v>8314.01</v>
+      </c>
+      <c r="D154">
+        <v>329.93</v>
+      </c>
+      <c r="E154">
+        <v>4220.7</v>
+      </c>
+      <c r="F154">
+        <v>160.71</v>
+      </c>
+      <c r="G154">
+        <v>112.7552</v>
+      </c>
+      <c r="H154">
+        <v>164.11</v>
+      </c>
+      <c r="I154">
+        <v>91.885199999999998</v>
+      </c>
+      <c r="J154">
+        <v>93.963099999999997</v>
+      </c>
+      <c r="K154">
+        <v>127.5134</v>
+      </c>
+      <c r="L154">
+        <v>884.32</v>
+      </c>
+      <c r="M154">
+        <v>1143.08</v>
+      </c>
+      <c r="N154">
+        <v>283.39949999999999</v>
+      </c>
+      <c r="O154">
+        <v>281.45</v>
+      </c>
+      <c r="P154">
+        <v>357.92</v>
+      </c>
+      <c r="Q154">
+        <v>335.23</v>
+      </c>
+      <c r="R154">
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B155">
+        <v>8783.2839999999997</v>
+      </c>
+      <c r="C155">
+        <v>8422.1200000000008</v>
+      </c>
+      <c r="D155">
+        <v>332.9</v>
+      </c>
+      <c r="E155">
+        <v>4277.07</v>
+      </c>
+      <c r="F155">
+        <v>164.16</v>
+      </c>
+      <c r="G155">
+        <v>112.8616</v>
+      </c>
+      <c r="H155">
+        <v>164.17</v>
+      </c>
+      <c r="I155">
+        <v>91.796300000000002</v>
+      </c>
+      <c r="J155">
+        <v>93.831400000000002</v>
+      </c>
+      <c r="K155">
+        <v>127.47369999999999</v>
+      </c>
+      <c r="L155">
+        <v>881.43</v>
+      </c>
+      <c r="M155">
+        <v>1144.95</v>
+      </c>
+      <c r="N155">
+        <v>283.7593</v>
+      </c>
+      <c r="O155">
+        <v>281.41000000000003</v>
+      </c>
+      <c r="P155">
+        <v>358.02</v>
+      </c>
+      <c r="Q155">
+        <v>334.95</v>
+      </c>
+      <c r="R155">
+        <v>169.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B156">
+        <v>8777.2270000000008</v>
+      </c>
+      <c r="C156">
+        <v>8473.32</v>
+      </c>
+      <c r="D156">
+        <v>333.95</v>
+      </c>
+      <c r="E156">
+        <v>4277.0200000000004</v>
+      </c>
+      <c r="F156">
+        <v>163.69</v>
+      </c>
+      <c r="G156">
+        <v>112.8156</v>
+      </c>
+      <c r="H156">
+        <v>164.23</v>
+      </c>
+      <c r="I156">
+        <v>91.813800000000001</v>
+      </c>
+      <c r="J156">
+        <v>93.827100000000002</v>
+      </c>
+      <c r="K156">
+        <v>127.4787</v>
+      </c>
+      <c r="L156">
+        <v>881.65</v>
+      </c>
+      <c r="M156">
+        <v>1146.56</v>
+      </c>
+      <c r="N156">
+        <v>283.81979999999999</v>
+      </c>
+      <c r="O156">
+        <v>281.73</v>
+      </c>
+      <c r="P156">
+        <v>358.45</v>
+      </c>
+      <c r="Q156">
+        <v>335.16</v>
+      </c>
+      <c r="R156">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B157">
+        <v>8764.0820000000003</v>
+      </c>
+      <c r="C157">
+        <v>8407.4</v>
+      </c>
+      <c r="D157">
+        <v>333.24</v>
+      </c>
+      <c r="E157">
+        <v>4197.07</v>
+      </c>
+      <c r="F157">
+        <v>159.1</v>
+      </c>
+      <c r="G157">
+        <v>112.5962</v>
+      </c>
+      <c r="H157">
+        <v>164.17</v>
+      </c>
+      <c r="I157">
+        <v>91.774100000000004</v>
+      </c>
+      <c r="J157">
+        <v>93.788799999999995</v>
+      </c>
+      <c r="K157">
+        <v>127.4599</v>
+      </c>
+      <c r="L157">
+        <v>882.16</v>
+      </c>
+      <c r="M157">
+        <v>1144.69</v>
+      </c>
+      <c r="N157">
+        <v>283.7833</v>
+      </c>
+      <c r="O157">
+        <v>281.98</v>
+      </c>
+      <c r="P157">
+        <v>358.77</v>
+      </c>
+      <c r="Q157">
+        <v>335.51</v>
+      </c>
+      <c r="R157">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B158">
+        <v>8753.393</v>
+      </c>
+      <c r="C158">
+        <v>8480.9599999999991</v>
+      </c>
+      <c r="D158">
+        <v>333.93</v>
+      </c>
+      <c r="E158">
+        <v>4238.93</v>
+      </c>
+      <c r="F158">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="G158">
+        <v>112.59910000000001</v>
+      </c>
+      <c r="H158">
+        <v>164.19</v>
+      </c>
+      <c r="I158">
+        <v>91.7637</v>
+      </c>
+      <c r="J158">
+        <v>93.765199999999993</v>
+      </c>
+      <c r="K158">
+        <v>127.44280000000001</v>
+      </c>
+      <c r="L158">
+        <v>882.2</v>
+      </c>
+      <c r="M158">
+        <v>1143.3399999999999</v>
+      </c>
+      <c r="N158">
+        <v>283.74579999999997</v>
+      </c>
+      <c r="O158">
+        <v>282.18</v>
+      </c>
+      <c r="P158">
+        <v>359.11</v>
+      </c>
+      <c r="Q158">
+        <v>335.75</v>
+      </c>
+      <c r="R158">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B159">
+        <v>8716.7510000000002</v>
+      </c>
+      <c r="C159">
+        <v>8386.49</v>
+      </c>
+      <c r="D159">
+        <v>332.31</v>
+      </c>
+      <c r="E159">
+        <v>4217.03</v>
+      </c>
+      <c r="F159">
+        <v>161.62</v>
+      </c>
+      <c r="G159">
+        <v>112.4363</v>
+      </c>
+      <c r="H159">
+        <v>164.2</v>
+      </c>
+      <c r="I159">
+        <v>91.772300000000001</v>
+      </c>
+      <c r="J159">
+        <v>93.783199999999994</v>
+      </c>
+      <c r="K159">
+        <v>127.4515</v>
+      </c>
+      <c r="L159">
+        <v>882.85</v>
+      </c>
+      <c r="M159">
+        <v>1144.8499999999999</v>
+      </c>
+      <c r="N159">
+        <v>283.67189999999999</v>
+      </c>
+      <c r="O159">
+        <v>282.29000000000002</v>
+      </c>
+      <c r="P159">
+        <v>359.06</v>
+      </c>
+      <c r="Q159">
+        <v>336</v>
+      </c>
+      <c r="R159">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B160">
+        <v>8902.723</v>
+      </c>
+      <c r="C160">
+        <v>8463.18</v>
+      </c>
+      <c r="D160">
+        <v>338.6</v>
+      </c>
+      <c r="E160">
+        <v>4228.0600000000004</v>
+      </c>
+      <c r="F160">
+        <v>160</v>
+      </c>
+      <c r="G160">
+        <v>112.8806</v>
+      </c>
+      <c r="H160">
+        <v>164.25</v>
+      </c>
+      <c r="I160">
+        <v>91.653800000000004</v>
+      </c>
+      <c r="J160">
+        <v>93.670699999999997</v>
+      </c>
+      <c r="K160">
+        <v>127.38979999999999</v>
+      </c>
+      <c r="L160">
+        <v>879.76</v>
+      </c>
+      <c r="M160">
+        <v>1141.68</v>
+      </c>
+      <c r="N160">
+        <v>283.73329999999999</v>
+      </c>
+      <c r="O160">
+        <v>282.02</v>
+      </c>
+      <c r="P160">
+        <v>358.84</v>
+      </c>
+      <c r="Q160">
+        <v>335.55</v>
+      </c>
+      <c r="R160">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B161">
+        <v>8898.8369999999995</v>
+      </c>
+      <c r="C161">
+        <v>8480.57</v>
+      </c>
+      <c r="D161">
+        <v>339.2</v>
+      </c>
+      <c r="E161">
+        <v>4182.1499999999996</v>
+      </c>
+      <c r="F161">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="G161">
+        <v>113.005</v>
+      </c>
+      <c r="H161">
+        <v>164.25</v>
+      </c>
+      <c r="I161">
+        <v>91.656999999999996</v>
+      </c>
+      <c r="J161">
+        <v>93.661299999999997</v>
+      </c>
+      <c r="K161">
+        <v>127.3886</v>
+      </c>
+      <c r="L161">
+        <v>879.67</v>
+      </c>
+      <c r="M161">
+        <v>1143.45</v>
+      </c>
+      <c r="N161">
+        <v>284.00580000000002</v>
+      </c>
+      <c r="O161">
+        <v>281.82</v>
+      </c>
+      <c r="P161">
+        <v>358.55</v>
+      </c>
+      <c r="Q161">
+        <v>335.15</v>
+      </c>
+      <c r="R161">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B162">
+        <v>9054.1380000000008</v>
+      </c>
+      <c r="C162">
+        <v>8526.42</v>
+      </c>
+      <c r="D162">
+        <v>342.89</v>
+      </c>
+      <c r="E162">
+        <v>4227.76</v>
+      </c>
+      <c r="F162">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="G162">
+        <v>113.5121</v>
+      </c>
+      <c r="H162">
+        <v>164.38</v>
+      </c>
+      <c r="I162">
+        <v>91.620500000000007</v>
+      </c>
+      <c r="J162">
+        <v>93.633799999999994</v>
+      </c>
+      <c r="K162">
+        <v>127.36879999999999</v>
+      </c>
+      <c r="L162">
+        <v>877.68</v>
+      </c>
+      <c r="M162">
+        <v>1138.8599999999999</v>
+      </c>
+      <c r="N162">
+        <v>284.35640000000001</v>
+      </c>
+      <c r="O162">
+        <v>281.73</v>
+      </c>
+      <c r="P162">
+        <v>358.53</v>
+      </c>
+      <c r="Q162">
+        <v>335.23</v>
+      </c>
+      <c r="R162">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B163">
+        <v>9090.3610000000008</v>
+      </c>
+      <c r="C163">
+        <v>8555.33</v>
+      </c>
+      <c r="D163">
+        <v>343.69</v>
+      </c>
+      <c r="E163">
+        <v>4237.04</v>
+      </c>
+      <c r="F163">
+        <v>156.78</v>
+      </c>
+      <c r="G163">
+        <v>113.54300000000001</v>
+      </c>
+      <c r="H163">
+        <v>164.28</v>
+      </c>
+      <c r="I163">
+        <v>91.620999999999995</v>
+      </c>
+      <c r="J163">
+        <v>93.638400000000004</v>
+      </c>
+      <c r="K163">
+        <v>127.3695</v>
+      </c>
+      <c r="L163">
+        <v>877.44</v>
+      </c>
+      <c r="M163">
+        <v>1138.67</v>
+      </c>
+      <c r="N163">
+        <v>283.9357</v>
+      </c>
+      <c r="O163">
+        <v>281.91000000000003</v>
+      </c>
+      <c r="P163">
+        <v>358.73</v>
+      </c>
+      <c r="Q163">
+        <v>335.44</v>
+      </c>
+      <c r="R163">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B164">
+        <v>9107.8670000000002</v>
+      </c>
+      <c r="C164">
+        <v>8590.56</v>
+      </c>
+      <c r="D164">
+        <v>343.89</v>
+      </c>
+      <c r="E164">
+        <v>4237.16</v>
+      </c>
+      <c r="F164">
+        <v>157.85</v>
+      </c>
+      <c r="G164">
+        <v>113.5821</v>
+      </c>
+      <c r="H164">
+        <v>164.29</v>
+      </c>
+      <c r="I164">
+        <v>91.624799999999993</v>
+      </c>
+      <c r="J164">
+        <v>93.634299999999996</v>
+      </c>
+      <c r="K164">
+        <v>127.37260000000001</v>
+      </c>
+      <c r="L164">
+        <v>877.33</v>
+      </c>
+      <c r="M164">
+        <v>1137.5899999999999</v>
+      </c>
+      <c r="N164">
+        <v>283.93880000000001</v>
+      </c>
+      <c r="O164">
+        <v>282.08999999999997</v>
+      </c>
+      <c r="P164">
+        <v>358.89</v>
+      </c>
+      <c r="Q164">
+        <v>335.68</v>
+      </c>
+      <c r="R164">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B165">
+        <v>9043.5889999999999</v>
+      </c>
+      <c r="C165">
+        <v>8479.58</v>
+      </c>
+      <c r="D165">
+        <v>341.66</v>
+      </c>
+      <c r="E165">
+        <v>4188.9799999999996</v>
+      </c>
+      <c r="F165">
+        <v>155.69</v>
+      </c>
+      <c r="G165">
+        <v>113.5885</v>
+      </c>
+      <c r="H165">
+        <v>164.08</v>
+      </c>
+      <c r="I165">
+        <v>91.628600000000006</v>
+      </c>
+      <c r="J165">
+        <v>93.632599999999996</v>
+      </c>
+      <c r="K165">
+        <v>127.377</v>
+      </c>
+      <c r="L165">
+        <v>878.03</v>
+      </c>
+      <c r="M165">
+        <v>1138.46</v>
+      </c>
+      <c r="N165">
+        <v>283.50299999999999</v>
+      </c>
+      <c r="O165">
+        <v>282.12</v>
+      </c>
+      <c r="P165">
+        <v>358.88</v>
+      </c>
+      <c r="Q165">
+        <v>335.82</v>
+      </c>
+      <c r="R165">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B166">
+        <v>9065.49</v>
+      </c>
+      <c r="C166">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="D166">
+        <v>341.89</v>
+      </c>
+      <c r="E166">
+        <v>4195.88</v>
+      </c>
+      <c r="F166">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="G166">
+        <v>113.4795</v>
+      </c>
+      <c r="H166">
+        <v>164.13</v>
+      </c>
+      <c r="I166">
+        <v>91.601500000000001</v>
+      </c>
+      <c r="J166">
+        <v>93.622600000000006</v>
+      </c>
+      <c r="K166">
+        <v>127.35680000000001</v>
+      </c>
+      <c r="L166">
+        <v>877.94</v>
+      </c>
+      <c r="M166">
+        <v>1138.22</v>
+      </c>
+      <c r="N166">
+        <v>283.584</v>
+      </c>
+      <c r="O166">
+        <v>282.27999999999997</v>
+      </c>
+      <c r="P166">
+        <v>359.17</v>
+      </c>
+      <c r="Q166">
+        <v>336.14</v>
+      </c>
+      <c r="R166">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B167">
+        <v>8948.8179999999993</v>
+      </c>
+      <c r="C167">
+        <v>8421.4699999999993</v>
+      </c>
+      <c r="D167">
+        <v>337.42</v>
+      </c>
+      <c r="E167">
+        <v>4132.21</v>
+      </c>
+      <c r="F167">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="G167">
+        <v>113.3695</v>
+      </c>
+      <c r="H167">
+        <v>164.09</v>
+      </c>
+      <c r="I167">
+        <v>91.6524</v>
+      </c>
+      <c r="J167">
+        <v>93.679500000000004</v>
+      </c>
+      <c r="K167">
+        <v>127.3942</v>
+      </c>
+      <c r="L167">
+        <v>879.18</v>
+      </c>
+      <c r="M167">
+        <v>1137.3699999999999</v>
+      </c>
+      <c r="N167">
+        <v>283.77629999999999</v>
+      </c>
+      <c r="O167">
+        <v>282.26</v>
+      </c>
+      <c r="P167">
+        <v>359.09</v>
+      </c>
+      <c r="Q167">
+        <v>335.99</v>
+      </c>
+      <c r="R167">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B168">
+        <v>8758.2430000000004</v>
+      </c>
+      <c r="C168">
+        <v>8258.69</v>
+      </c>
+      <c r="D168">
+        <v>331.53</v>
+      </c>
+      <c r="E168">
+        <v>4100.78</v>
+      </c>
+      <c r="F168">
+        <v>152.16</v>
+      </c>
+      <c r="G168">
+        <v>112.8489</v>
+      </c>
+      <c r="H168">
+        <v>163.65</v>
+      </c>
+      <c r="I168">
+        <v>91.783199999999994</v>
+      </c>
+      <c r="J168">
+        <v>93.810299999999998</v>
+      </c>
+      <c r="K168">
+        <v>127.4551</v>
+      </c>
+      <c r="L168">
+        <v>881.66</v>
+      </c>
+      <c r="M168">
+        <v>1137.31</v>
+      </c>
+      <c r="N168">
+        <v>282.39870000000002</v>
+      </c>
+      <c r="O168">
+        <v>281.58</v>
+      </c>
+      <c r="P168">
+        <v>359.12</v>
+      </c>
+      <c r="Q168">
+        <v>335.71</v>
+      </c>
+      <c r="R168">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B169">
+        <v>8738.7630000000008</v>
+      </c>
+      <c r="C169">
+        <v>8245.83</v>
+      </c>
+      <c r="D169">
+        <v>330.83</v>
+      </c>
+      <c r="E169">
+        <v>4090.63</v>
+      </c>
+      <c r="F169">
+        <v>151.13</v>
+      </c>
+      <c r="G169">
+        <v>112.38030000000001</v>
+      </c>
+      <c r="H169">
+        <v>163.33000000000001</v>
+      </c>
+      <c r="I169">
+        <v>91.73</v>
+      </c>
+      <c r="J169">
+        <v>93.707599999999999</v>
+      </c>
+      <c r="K169">
+        <v>127.4281</v>
+      </c>
+      <c r="L169">
+        <v>882.34</v>
+      </c>
+      <c r="M169">
+        <v>1136.7</v>
+      </c>
+      <c r="N169">
+        <v>282.93119999999999</v>
+      </c>
+      <c r="O169">
+        <v>281.99</v>
+      </c>
+      <c r="P169">
+        <v>359.29</v>
+      </c>
+      <c r="Q169">
+        <v>336.35</v>
+      </c>
+      <c r="R169">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B170">
+        <v>8764.42</v>
+      </c>
+      <c r="C170">
+        <v>8279.5499999999993</v>
+      </c>
+      <c r="D170">
+        <v>331.29</v>
+      </c>
+      <c r="E170">
+        <v>4076.99</v>
+      </c>
+      <c r="F170">
+        <v>149.65</v>
+      </c>
+      <c r="G170">
+        <v>112.1097</v>
+      </c>
+      <c r="H170">
+        <v>163.25</v>
+      </c>
+      <c r="I170">
+        <v>91.584100000000007</v>
+      </c>
+      <c r="J170">
+        <v>93.628100000000003</v>
+      </c>
+      <c r="K170">
+        <v>127.3526</v>
+      </c>
+      <c r="L170">
+        <v>882.25</v>
+      </c>
+      <c r="M170">
+        <v>1136.58</v>
+      </c>
+      <c r="N170">
+        <v>283.32589999999999</v>
+      </c>
+      <c r="O170">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="P170">
+        <v>359.77</v>
+      </c>
+      <c r="Q170">
+        <v>336.56</v>
+      </c>
+      <c r="R170">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B171">
+        <v>8888.1280000000006</v>
+      </c>
+      <c r="C171">
+        <v>8295.5400000000009</v>
+      </c>
+      <c r="D171">
+        <v>335.48</v>
+      </c>
+      <c r="E171">
+        <v>4127.1400000000003</v>
+      </c>
+      <c r="F171">
+        <v>152.35</v>
+      </c>
+      <c r="G171">
+        <v>112.3784</v>
+      </c>
+      <c r="H171">
+        <v>163.52000000000001</v>
+      </c>
+      <c r="I171">
+        <v>91.489199999999997</v>
+      </c>
+      <c r="J171">
+        <v>93.480199999999996</v>
+      </c>
+      <c r="K171">
+        <v>127.29259999999999</v>
+      </c>
+      <c r="L171">
+        <v>879.89</v>
+      </c>
+      <c r="M171">
+        <v>1134.26</v>
+      </c>
+      <c r="N171">
+        <v>282.47680000000003</v>
+      </c>
+      <c r="O171">
+        <v>281.86</v>
+      </c>
+      <c r="P171">
+        <v>359.18</v>
+      </c>
+      <c r="Q171">
+        <v>335.96</v>
+      </c>
+      <c r="R171">
+        <v>169.53</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B172">
+        <v>8588.9459999999999</v>
+      </c>
+      <c r="C172">
+        <v>8135.58</v>
+      </c>
+      <c r="D172">
+        <v>327.63</v>
+      </c>
+      <c r="E172">
+        <v>4131.16</v>
+      </c>
+      <c r="F172">
+        <v>154.22</v>
+      </c>
+      <c r="G172">
+        <v>112.12179999999999</v>
+      </c>
+      <c r="H172">
+        <v>162.63</v>
+      </c>
+      <c r="I172">
+        <v>91.706000000000003</v>
+      </c>
+      <c r="J172">
+        <v>93.591999999999999</v>
+      </c>
+      <c r="K172">
+        <v>127.38809999999999</v>
+      </c>
+      <c r="L172">
+        <v>885.23</v>
+      </c>
+      <c r="M172">
+        <v>1135.52</v>
+      </c>
+      <c r="N172">
+        <v>284.0487</v>
+      </c>
+      <c r="O172">
+        <v>282.58</v>
+      </c>
+      <c r="P172">
+        <v>359.94</v>
+      </c>
+      <c r="Q172">
+        <v>336.02</v>
+      </c>
+      <c r="R172">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B173">
+        <v>8532.1020000000008</v>
+      </c>
+      <c r="C173">
+        <v>8060.68</v>
+      </c>
+      <c r="D173">
+        <v>324.31</v>
+      </c>
+      <c r="E173">
+        <v>4088.08</v>
+      </c>
+      <c r="F173">
+        <v>152.58000000000001</v>
+      </c>
+      <c r="G173">
+        <v>111.52509999999999</v>
+      </c>
+      <c r="H173">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="I173">
+        <v>91.723500000000001</v>
+      </c>
+      <c r="J173">
+        <v>93.755799999999994</v>
+      </c>
+      <c r="K173">
+        <v>127.4524</v>
+      </c>
+      <c r="L173">
+        <v>887.12</v>
+      </c>
+      <c r="M173">
+        <v>1133.95</v>
+      </c>
+      <c r="N173">
+        <v>284.16669999999999</v>
+      </c>
+      <c r="O173">
+        <v>283.06</v>
+      </c>
+      <c r="P173">
+        <v>360.56</v>
+      </c>
+      <c r="Q173">
+        <v>337.07</v>
+      </c>
+      <c r="R173">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B174">
+        <v>8438.6869999999999</v>
+      </c>
+      <c r="C174">
+        <v>8041.3</v>
+      </c>
+      <c r="D174">
+        <v>321.83999999999997</v>
+      </c>
+      <c r="E174">
+        <v>4090.08</v>
+      </c>
+      <c r="F174">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="G174">
+        <v>110.976</v>
+      </c>
+      <c r="H174">
+        <v>161.75</v>
+      </c>
+      <c r="I174">
+        <v>91.882199999999997</v>
+      </c>
+      <c r="J174">
+        <v>93.805899999999994</v>
+      </c>
+      <c r="K174">
+        <v>127.5065</v>
+      </c>
+      <c r="L174">
+        <v>889.74</v>
+      </c>
+      <c r="M174">
+        <v>1133.72</v>
+      </c>
+      <c r="N174">
+        <v>284.59399999999999</v>
+      </c>
+      <c r="O174">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="P174">
+        <v>360.03</v>
+      </c>
+      <c r="Q174">
+        <v>336.89</v>
+      </c>
+      <c r="R174">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B175">
+        <v>8374.4159999999993</v>
+      </c>
+      <c r="C175">
+        <v>7940.45</v>
+      </c>
+      <c r="D175">
+        <v>319.98</v>
+      </c>
+      <c r="E175">
+        <v>4046.99</v>
+      </c>
+      <c r="F175">
+        <v>151.47</v>
+      </c>
+      <c r="G175">
+        <v>110.51479999999999</v>
+      </c>
+      <c r="H175">
+        <v>161.09</v>
+      </c>
+      <c r="I175">
+        <v>91.6631</v>
+      </c>
+      <c r="J175">
+        <v>93.6631</v>
+      </c>
+      <c r="K175">
+        <v>127.4104</v>
+      </c>
+      <c r="L175">
+        <v>892.53</v>
+      </c>
+      <c r="M175">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="N175">
+        <v>285.5609</v>
+      </c>
+      <c r="O175">
+        <v>283.08999999999997</v>
+      </c>
+      <c r="P175">
+        <v>360.47</v>
+      </c>
+      <c r="Q175">
+        <v>337.21</v>
+      </c>
+      <c r="R175">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B176">
+        <v>8400.9599999999991</v>
+      </c>
+      <c r="C176">
+        <v>7805.84</v>
+      </c>
+      <c r="D176">
+        <v>317.58</v>
+      </c>
+      <c r="E176">
+        <v>3979.63</v>
+      </c>
+      <c r="F176">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="G176">
+        <v>110.19110000000001</v>
+      </c>
+      <c r="H176">
+        <v>161.29</v>
+      </c>
+      <c r="I176">
+        <v>91.844499999999996</v>
+      </c>
+      <c r="J176">
+        <v>93.816599999999994</v>
+      </c>
+      <c r="K176">
+        <v>127.4842</v>
+      </c>
+      <c r="L176">
+        <v>891.44</v>
+      </c>
+      <c r="M176">
+        <v>1137.79</v>
+      </c>
+      <c r="N176">
+        <v>285.4076</v>
+      </c>
+      <c r="O176">
+        <v>282.81</v>
+      </c>
+      <c r="P176">
+        <v>360.13</v>
+      </c>
+      <c r="Q176">
+        <v>336.69</v>
+      </c>
+      <c r="R176">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B177">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C177">
+        <v>8003.84</v>
+      </c>
+      <c r="D177">
+        <v>316.89999999999998</v>
+      </c>
+      <c r="E177">
+        <v>4001.25</v>
+      </c>
+      <c r="F177">
+        <v>148.54</v>
+      </c>
+      <c r="G177">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H177">
+        <v>160.74</v>
+      </c>
+      <c r="I177">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J177">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K177">
+        <v>127.209</v>
+      </c>
+      <c r="L177">
+        <v>893.77</v>
+      </c>
+      <c r="M177">
+        <v>1136.71</v>
+      </c>
+      <c r="N177">
+        <v>285.5324</v>
+      </c>
+      <c r="O177">
+        <v>282.26</v>
+      </c>
+      <c r="P177">
+        <v>359.31</v>
+      </c>
+      <c r="Q177">
+        <v>335.87</v>
+      </c>
+      <c r="R177">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B178">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C178">
+        <v>7881.07</v>
+      </c>
+      <c r="D178">
+        <v>315.83999999999997</v>
+      </c>
+      <c r="E178">
+        <v>4001.25</v>
+      </c>
+      <c r="F178">
+        <v>148.54</v>
+      </c>
+      <c r="G178">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H178">
+        <v>160.74</v>
+      </c>
+      <c r="I178">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J178">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K178">
+        <v>127.209</v>
+      </c>
+      <c r="L178">
+        <v>893.77</v>
+      </c>
+      <c r="M178">
+        <v>1136.71</v>
+      </c>
+      <c r="N178">
+        <v>285.5324</v>
+      </c>
+      <c r="O178">
+        <v>282.26</v>
+      </c>
+      <c r="P178">
+        <v>359.31</v>
+      </c>
+      <c r="Q178">
+        <v>335.87</v>
+      </c>
+      <c r="R178">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B179">
+        <v>8277.8140000000003</v>
+      </c>
+      <c r="C179">
+        <v>7903.95</v>
+      </c>
+      <c r="D179">
+        <v>314.49</v>
+      </c>
+      <c r="E179">
+        <v>3920.23</v>
+      </c>
+      <c r="F179">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G179">
+        <v>109.58159999999999</v>
+      </c>
+      <c r="H179">
+        <v>160.82</v>
+      </c>
+      <c r="I179">
+        <v>91.688800000000001</v>
+      </c>
+      <c r="J179">
+        <v>93.632300000000001</v>
+      </c>
+      <c r="K179">
+        <v>127.2985</v>
+      </c>
+      <c r="L179">
+        <v>895.44</v>
+      </c>
+      <c r="M179">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N179">
+        <v>285.00920000000002</v>
+      </c>
+      <c r="O179">
+        <v>282.81</v>
+      </c>
+      <c r="P179">
+        <v>360.14</v>
+      </c>
+      <c r="Q179">
+        <v>336.69</v>
+      </c>
+      <c r="R179">
+        <v>169.02</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B180">
+        <v>8429.8649999999998</v>
+      </c>
+      <c r="C180">
+        <v>7908.35</v>
+      </c>
+      <c r="D180">
+        <v>317.33</v>
+      </c>
+      <c r="E180">
+        <v>3972.78</v>
+      </c>
+      <c r="F180">
+        <v>146.69</v>
+      </c>
+      <c r="G180">
+        <v>109.8719</v>
+      </c>
+      <c r="H180">
+        <v>161.46</v>
+      </c>
+      <c r="I180">
+        <v>91.374600000000001</v>
+      </c>
+      <c r="J180">
+        <v>93.393699999999995</v>
+      </c>
+      <c r="K180">
+        <v>127.1468</v>
+      </c>
+      <c r="L180">
+        <v>890.33</v>
+      </c>
+      <c r="M180">
+        <v>1131.72</v>
+      </c>
+      <c r="N180">
+        <v>285.5324</v>
+      </c>
+      <c r="O180">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="P180">
+        <v>359.86</v>
+      </c>
+      <c r="Q180">
+        <v>336.11</v>
+      </c>
+      <c r="R180">
+        <v>169.08</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B181">
+        <v>8486.6309999999994</v>
+      </c>
+      <c r="C181">
+        <v>7932.01</v>
+      </c>
+      <c r="D181">
+        <v>319.77</v>
+      </c>
+      <c r="E181">
+        <v>3957.22</v>
+      </c>
+      <c r="F181">
+        <v>144.87</v>
+      </c>
+      <c r="G181">
+        <v>109.86360000000001</v>
+      </c>
+      <c r="H181">
+        <v>161.78</v>
+      </c>
+      <c r="I181">
+        <v>91.246200000000002</v>
+      </c>
+      <c r="J181">
+        <v>93.178399999999996</v>
+      </c>
+      <c r="K181">
+        <v>127.0478</v>
+      </c>
+      <c r="L181">
+        <v>889.17</v>
+      </c>
+      <c r="M181">
+        <v>1132.24</v>
+      </c>
+      <c r="N181">
+        <v>284.96690000000001</v>
+      </c>
+      <c r="O181">
+        <v>282.91000000000003</v>
+      </c>
+      <c r="P181">
+        <v>360.29</v>
+      </c>
+      <c r="Q181">
+        <v>336.37</v>
+      </c>
+      <c r="R181">
+        <v>169.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B182">
+        <v>8616.9779999999992</v>
+      </c>
+      <c r="C182">
+        <v>8062.21</v>
+      </c>
+      <c r="D182">
+        <v>325.32</v>
+      </c>
+      <c r="E182">
+        <v>3975.95</v>
+      </c>
+      <c r="F182">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="G182">
+        <v>110.4819</v>
+      </c>
+      <c r="H182">
+        <v>162.38999999999999</v>
+      </c>
+      <c r="I182">
+        <v>91.119900000000001</v>
+      </c>
+      <c r="J182">
+        <v>93.009600000000006</v>
+      </c>
+      <c r="K182">
+        <v>126.9734</v>
+      </c>
+      <c r="L182">
+        <v>885.57</v>
+      </c>
+      <c r="M182">
+        <v>1128.1500000000001</v>
+      </c>
+      <c r="N182">
+        <v>284.89499999999998</v>
+      </c>
+      <c r="O182">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="P182">
+        <v>360.2</v>
+      </c>
+      <c r="Q182">
+        <v>336.41</v>
+      </c>
+      <c r="R182">
+        <v>168.83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B183">
+        <v>8708.1730000000007</v>
+      </c>
+      <c r="C183">
+        <v>8234.92</v>
+      </c>
+      <c r="D183">
+        <v>329.54</v>
+      </c>
+      <c r="E183">
+        <v>3964.18</v>
+      </c>
+      <c r="F183">
+        <v>143.62</v>
+      </c>
+      <c r="G183">
+        <v>110.7728</v>
+      </c>
+      <c r="H183">
+        <v>162.52000000000001</v>
+      </c>
+      <c r="I183">
+        <v>91.120699999999999</v>
+      </c>
+      <c r="J183">
+        <v>92.989599999999996</v>
+      </c>
+      <c r="K183">
+        <v>126.97539999999999</v>
+      </c>
+      <c r="L183">
+        <v>883.38</v>
+      </c>
+      <c r="M183">
+        <v>1127.58</v>
+      </c>
+      <c r="N183">
+        <v>285.52080000000001</v>
+      </c>
+      <c r="O183">
+        <v>282.35000000000002</v>
+      </c>
+      <c r="P183">
+        <v>360.3</v>
+      </c>
+      <c r="Q183">
+        <v>336.14</v>
+      </c>
+      <c r="R183">
+        <v>168.55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B184">
+        <v>8331.9009999999998</v>
+      </c>
+      <c r="C184">
+        <v>8098.67</v>
+      </c>
+      <c r="D184">
+        <v>318.83999999999997</v>
+      </c>
+      <c r="E184">
+        <v>3947.59</v>
+      </c>
+      <c r="F184">
+        <v>144.56</v>
+      </c>
+      <c r="G184">
+        <v>110.3005</v>
+      </c>
+      <c r="H184">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="I184">
+        <v>91.393299999999996</v>
+      </c>
+      <c r="J184">
+        <v>93.2059</v>
+      </c>
+      <c r="K184">
+        <v>127.09829999999999</v>
+      </c>
+      <c r="L184">
+        <v>890.99</v>
+      </c>
+      <c r="M184">
+        <v>1132.08</v>
+      </c>
+      <c r="N184">
+        <v>285.0505</v>
+      </c>
+      <c r="O184">
+        <v>281.73</v>
+      </c>
+      <c r="P184">
+        <v>358.76</v>
+      </c>
+      <c r="Q184">
+        <v>335.74</v>
+      </c>
+      <c r="R184">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B185">
+        <v>8362.4</v>
+      </c>
+      <c r="C185">
+        <v>8056.61</v>
+      </c>
+      <c r="D185">
+        <v>318.07</v>
+      </c>
+      <c r="E185">
+        <v>3959.22</v>
+      </c>
+      <c r="F185">
+        <v>145.18</v>
+      </c>
+      <c r="G185">
+        <v>110.009</v>
+      </c>
+      <c r="H185">
+        <v>160.68</v>
+      </c>
+      <c r="I185">
+        <v>91.496300000000005</v>
+      </c>
+      <c r="J185">
+        <v>93.426699999999997</v>
+      </c>
+      <c r="K185">
+        <v>127.2028</v>
+      </c>
+      <c r="L185">
+        <v>890.35</v>
+      </c>
+      <c r="M185">
+        <v>1132.33</v>
+      </c>
+      <c r="N185">
+        <v>285.14960000000002</v>
+      </c>
+      <c r="O185">
+        <v>282.42</v>
+      </c>
+      <c r="P185">
+        <v>359.77</v>
+      </c>
+      <c r="Q185">
+        <v>336.41</v>
+      </c>
+      <c r="R185">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B186">
+        <v>8268.6029999999992</v>
+      </c>
+      <c r="C186">
+        <v>7998.43</v>
+      </c>
+      <c r="D186">
+        <v>315.16000000000003</v>
+      </c>
+      <c r="E186">
+        <v>3947.61</v>
+      </c>
+      <c r="F186">
+        <v>145.13999999999999</v>
+      </c>
+      <c r="G186">
+        <v>109.5166</v>
+      </c>
+      <c r="H186">
+        <v>159.63</v>
+      </c>
+      <c r="I186">
+        <v>91.467399999999998</v>
+      </c>
+      <c r="J186">
+        <v>93.252200000000002</v>
+      </c>
+      <c r="K186">
+        <v>127.1632</v>
+      </c>
+      <c r="L186">
+        <v>893.85</v>
+      </c>
+      <c r="M186">
+        <v>1134.53</v>
+      </c>
+      <c r="N186">
+        <v>285.19600000000003</v>
+      </c>
+      <c r="O186">
+        <v>282.68</v>
+      </c>
+      <c r="P186">
+        <v>360.13</v>
+      </c>
+      <c r="Q186">
+        <v>336.35</v>
+      </c>
+      <c r="R186">
+        <v>168.66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B187">
+        <v>8209.3459999999995</v>
+      </c>
+      <c r="C187">
+        <v>7904.97</v>
+      </c>
+      <c r="D187">
+        <v>312.18</v>
+      </c>
+      <c r="E187">
+        <v>3918.88</v>
+      </c>
+      <c r="F187">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="G187">
+        <v>108.9646</v>
+      </c>
+      <c r="H187">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="I187">
+        <v>91.574100000000001</v>
+      </c>
+      <c r="J187">
+        <v>93.543499999999995</v>
+      </c>
+      <c r="K187">
+        <v>127.2907</v>
+      </c>
+      <c r="L187">
+        <v>896.18</v>
+      </c>
+      <c r="M187">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N187">
+        <v>285.95569999999998</v>
+      </c>
+      <c r="O187">
+        <v>282.48</v>
+      </c>
+      <c r="P187">
+        <v>359.85</v>
+      </c>
+      <c r="Q187">
+        <v>335.97</v>
+      </c>
+      <c r="R187">
+        <v>168.73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B188">
+        <v>8265.7270000000008</v>
+      </c>
+      <c r="C188">
+        <v>7904.11</v>
+      </c>
+      <c r="D188">
+        <v>313.2</v>
+      </c>
+      <c r="E188">
+        <v>3923.61</v>
+      </c>
+      <c r="F188">
+        <v>144.07</v>
+      </c>
+      <c r="G188">
+        <v>108.76860000000001</v>
+      </c>
+      <c r="H188">
+        <v>159.25</v>
+      </c>
+      <c r="I188">
+        <v>91.1995</v>
+      </c>
+      <c r="J188">
+        <v>93.130200000000002</v>
+      </c>
+      <c r="K188">
+        <v>127.0296</v>
+      </c>
+      <c r="L188">
+        <v>894.57</v>
+      </c>
+      <c r="M188">
+        <v>1131.6400000000001</v>
+      </c>
+      <c r="N188">
+        <v>286.09620000000001</v>
+      </c>
+      <c r="O188">
+        <v>282.62</v>
+      </c>
+      <c r="P188">
+        <v>360.34</v>
+      </c>
+      <c r="Q188">
+        <v>336.25</v>
+      </c>
+      <c r="R188">
+        <v>168.28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B189">
+        <v>8172.643</v>
+      </c>
+      <c r="C189">
+        <v>7830.92</v>
+      </c>
+      <c r="D189">
+        <v>310.62</v>
+      </c>
+      <c r="E189">
+        <v>3890.53</v>
+      </c>
+      <c r="F189">
+        <v>142.22</v>
+      </c>
+      <c r="G189">
+        <v>108.66289999999999</v>
+      </c>
+      <c r="H189">
+        <v>158.22</v>
+      </c>
+      <c r="I189">
+        <v>91.352000000000004</v>
+      </c>
+      <c r="J189">
+        <v>93.195099999999996</v>
+      </c>
+      <c r="K189">
+        <v>127.0783</v>
+      </c>
+      <c r="L189">
+        <v>897.07</v>
+      </c>
+      <c r="M189">
+        <v>1131.21</v>
+      </c>
+      <c r="N189">
+        <v>286.5521</v>
+      </c>
+      <c r="O189">
+        <v>282.24</v>
+      </c>
+      <c r="P189">
+        <v>359.47</v>
+      </c>
+      <c r="Q189">
+        <v>336.38</v>
+      </c>
+      <c r="R189">
+        <v>168.22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B190">
+        <v>8033.2939999999999</v>
+      </c>
+      <c r="C190">
+        <v>7890.99</v>
+      </c>
+      <c r="D190">
+        <v>306.08999999999997</v>
+      </c>
+      <c r="E190">
+        <v>3931.3</v>
+      </c>
+      <c r="F190">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="G190">
+        <v>108.06780000000001</v>
+      </c>
+      <c r="H190">
+        <v>156.44</v>
+      </c>
+      <c r="I190">
+        <v>91.332899999999995</v>
+      </c>
+      <c r="J190">
+        <v>93.135999999999996</v>
+      </c>
+      <c r="K190">
+        <v>127.0128</v>
+      </c>
+      <c r="L190">
+        <v>902.74</v>
+      </c>
+      <c r="M190">
+        <v>1130.18</v>
+      </c>
+      <c r="N190">
+        <v>285.80799999999999</v>
+      </c>
+      <c r="O190">
+        <v>282.69</v>
+      </c>
+      <c r="P190">
+        <v>359.84</v>
+      </c>
+      <c r="Q190">
+        <v>337.09</v>
+      </c>
+      <c r="R190">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B191">
+        <v>7965.96</v>
+      </c>
+      <c r="C191">
+        <v>7744.71</v>
+      </c>
+      <c r="D191">
+        <v>302.81</v>
+      </c>
+      <c r="E191">
+        <v>3842.44</v>
+      </c>
+      <c r="F191">
+        <v>140.78</v>
+      </c>
+      <c r="G191">
+        <v>107.33750000000001</v>
+      </c>
+      <c r="H191">
+        <v>155.44</v>
+      </c>
+      <c r="I191">
+        <v>91.504099999999994</v>
+      </c>
+      <c r="J191">
+        <v>93.396699999999996</v>
+      </c>
+      <c r="K191">
+        <v>127.2375</v>
+      </c>
+      <c r="L191">
+        <v>906.41</v>
+      </c>
+      <c r="M191">
+        <v>1131.96</v>
+      </c>
+      <c r="N191">
+        <v>286.42809999999997</v>
+      </c>
+      <c r="O191">
+        <v>283.31</v>
+      </c>
+      <c r="P191">
+        <v>360.72</v>
+      </c>
+      <c r="Q191">
+        <v>338.06</v>
+      </c>
+      <c r="R191">
+        <v>167.95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B192">
+        <v>7828.866</v>
+      </c>
+      <c r="C192">
+        <v>7567.24</v>
+      </c>
+      <c r="D192">
+        <v>296.7</v>
+      </c>
+      <c r="E192">
+        <v>3836.24</v>
+      </c>
+      <c r="F192">
+        <v>141.72</v>
+      </c>
+      <c r="G192">
+        <v>107.34010000000001</v>
+      </c>
+      <c r="H192">
+        <v>154.5</v>
+      </c>
+      <c r="I192">
+        <v>92.056200000000004</v>
+      </c>
+      <c r="J192">
+        <v>93.855400000000003</v>
+      </c>
+      <c r="K192">
+        <v>127.67400000000001</v>
+      </c>
+      <c r="L192">
+        <v>910.47</v>
+      </c>
+      <c r="M192">
+        <v>1132.49</v>
+      </c>
+      <c r="N192">
+        <v>286.17750000000001</v>
+      </c>
+      <c r="O192">
+        <v>283.38</v>
+      </c>
+      <c r="P192">
+        <v>360.6</v>
+      </c>
+      <c r="Q192">
+        <v>337.7</v>
+      </c>
+      <c r="R192">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B193">
+        <v>7747.9309999999996</v>
+      </c>
+      <c r="C193">
+        <v>7553.59</v>
+      </c>
+      <c r="D193">
+        <v>292.82</v>
+      </c>
+      <c r="E193">
+        <v>3758.66</v>
+      </c>
+      <c r="F193">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="G193">
+        <v>107.5706</v>
+      </c>
+      <c r="H193">
+        <v>153.94999999999999</v>
+      </c>
+      <c r="I193">
+        <v>92.269300000000001</v>
+      </c>
+      <c r="J193">
+        <v>93.961200000000005</v>
+      </c>
+      <c r="K193">
+        <v>127.8017</v>
+      </c>
+      <c r="L193">
+        <v>914.76</v>
+      </c>
+      <c r="M193">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="N193">
+        <v>285.2475</v>
+      </c>
+      <c r="O193">
+        <v>283.33999999999997</v>
+      </c>
+      <c r="P193">
+        <v>361.39</v>
+      </c>
+      <c r="Q193">
+        <v>338.23</v>
+      </c>
+      <c r="R193">
+        <v>167.84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B194">
+        <v>7731.9939999999997</v>
+      </c>
+      <c r="C194">
+        <v>7522.15</v>
+      </c>
+      <c r="D194">
+        <v>292.45999999999998</v>
+      </c>
+      <c r="E194">
+        <v>3668.47</v>
+      </c>
+      <c r="F194">
+        <v>133.34</v>
+      </c>
+      <c r="G194">
+        <v>107.82250000000001</v>
+      </c>
+      <c r="H194">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="I194">
+        <v>92.750299999999996</v>
+      </c>
+      <c r="J194">
+        <v>94.456299999999999</v>
+      </c>
+      <c r="K194">
+        <v>128.10919999999999</v>
+      </c>
+      <c r="L194">
+        <v>914.53</v>
+      </c>
+      <c r="M194">
+        <v>1131.75</v>
+      </c>
+      <c r="N194">
+        <v>285.14409999999998</v>
+      </c>
+      <c r="O194">
+        <v>283.43</v>
+      </c>
+      <c r="P194">
+        <v>361.06</v>
+      </c>
+      <c r="Q194">
+        <v>338.47</v>
+      </c>
+      <c r="R194">
+        <v>168.03</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B195">
+        <v>7884.5469999999996</v>
+      </c>
+      <c r="C195">
+        <v>7537.16</v>
+      </c>
+      <c r="D195">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="E195">
+        <v>3738.92</v>
+      </c>
+      <c r="F195">
+        <v>139.07</v>
+      </c>
+      <c r="G195">
+        <v>108.4552</v>
+      </c>
+      <c r="H195">
+        <v>156.34</v>
+      </c>
+      <c r="I195">
+        <v>91.985399999999998</v>
+      </c>
+      <c r="J195">
+        <v>94.079400000000007</v>
+      </c>
+      <c r="K195">
+        <v>127.6219</v>
+      </c>
+      <c r="L195">
+        <v>908.33</v>
+      </c>
+      <c r="M195">
+        <v>1129.32</v>
+      </c>
+      <c r="N195">
+        <v>285.27710000000002</v>
+      </c>
+      <c r="O195">
+        <v>283.86</v>
+      </c>
+      <c r="P195">
+        <v>361.71</v>
+      </c>
+      <c r="Q195">
+        <v>338.71</v>
+      </c>
+      <c r="R195">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B196">
+        <v>7719.0910000000003</v>
+      </c>
+      <c r="C196">
+        <v>7410.04</v>
+      </c>
+      <c r="D196">
+        <v>291.7</v>
+      </c>
+      <c r="E196">
+        <v>3695.78</v>
+      </c>
+      <c r="F196">
+        <v>138.12</v>
+      </c>
+      <c r="G196">
+        <v>107.75709999999999</v>
+      </c>
+      <c r="H196">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="I196">
+        <v>92.455699999999993</v>
+      </c>
+      <c r="J196">
+        <v>94.661299999999997</v>
+      </c>
+      <c r="K196">
+        <v>128.1037</v>
+      </c>
+      <c r="L196">
+        <v>915.35</v>
+      </c>
+      <c r="M196">
+        <v>1134.58</v>
+      </c>
+      <c r="N196">
+        <v>285.97019999999998</v>
+      </c>
+      <c r="O196">
+        <v>283.37</v>
+      </c>
+      <c r="P196">
+        <v>360.98</v>
+      </c>
+      <c r="Q196">
+        <v>337.82</v>
+      </c>
+      <c r="R196">
+        <v>168.41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B197">
+        <v>7603.1440000000002</v>
+      </c>
+      <c r="C197">
+        <v>7498.52</v>
+      </c>
+      <c r="D197">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="E197">
+        <v>3693.33</v>
+      </c>
+      <c r="F197">
+        <v>135.82</v>
+      </c>
+      <c r="G197">
+        <v>107.012</v>
+      </c>
+      <c r="H197">
+        <v>151.76</v>
+      </c>
+      <c r="I197">
+        <v>92.274500000000003</v>
+      </c>
+      <c r="J197">
+        <v>94.137600000000006</v>
+      </c>
+      <c r="K197">
+        <v>127.62649999999999</v>
+      </c>
+      <c r="L197">
+        <v>921.04</v>
+      </c>
+      <c r="M197">
+        <v>1132.99</v>
+      </c>
+      <c r="N197">
+        <v>285.87400000000002</v>
+      </c>
+      <c r="O197">
+        <v>283.79000000000002</v>
+      </c>
+      <c r="P197">
+        <v>361.58</v>
+      </c>
+      <c r="Q197">
+        <v>338.31</v>
+      </c>
+      <c r="R197">
+        <v>167.83</v>
       </c>
     </row>
   </sheetData>
@@ -59097,8 +61870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59134,7 +61907,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44774</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -59191,73 +61964,73 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" t="e">
-        <f ca="1">_xll.BFieldInfo(B$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" t="e">
-        <f ca="1">_xll.BFieldInfo(C$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" t="e">
-        <f ca="1">_xll.BFieldInfo(D$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" t="e">
-        <f ca="1">_xll.BFieldInfo(E$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" t="e">
-        <f ca="1">_xll.BFieldInfo(F$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G5" t="e">
-        <f ca="1">_xll.BFieldInfo(G$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H5" t="e">
-        <f ca="1">_xll.BFieldInfo(H$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" t="e">
-        <f ca="1">_xll.BFieldInfo(I$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" t="e">
-        <f ca="1">_xll.BFieldInfo(J$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" t="e">
-        <f ca="1">_xll.BFieldInfo(K$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L5" t="e">
-        <f ca="1">_xll.BFieldInfo(L$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M5" t="e">
-        <f ca="1">_xll.BFieldInfo(M$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N5" t="e">
-        <f ca="1">_xll.BFieldInfo(N$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O5" t="e">
-        <f ca="1">_xll.BFieldInfo(O$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P5" t="e">
-        <f ca="1">_xll.BFieldInfo(P$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q5" t="e">
-        <f ca="1">_xll.BFieldInfo(Q$6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R5" t="e">
-        <f ca="1">_xll.BFieldInfo(R$6)</f>
-        <v>#NAME?</v>
+      <c r="B5" t="str">
+        <f>_xll.BFieldInfo(B$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xll.BFieldInfo(C$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xll.BFieldInfo(D$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xll.BFieldInfo(E$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xll.BFieldInfo(F$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.BFieldInfo(G$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xll.BFieldInfo(H$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xll.BFieldInfo(I$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xll.BFieldInfo(J$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="K5" t="str">
+        <f>_xll.BFieldInfo(K$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="L5" t="str">
+        <f>_xll.BFieldInfo(L$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="M5" t="str">
+        <f>_xll.BFieldInfo(M$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="N5" t="str">
+        <f>_xll.BFieldInfo(N$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xll.BFieldInfo(O$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xll.BFieldInfo(P$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>_xll.BFieldInfo(Q$6)</f>
+        <v>Last Price</v>
+      </c>
+      <c r="R5" t="str">
+        <f>_xll.BFieldInfo(R$6)</f>
+        <v>Last Price</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -59317,76 +62090,76 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=152")</f>
-        <v>#NAME?</v>
+      <c r="A7" s="1">
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=196")</f>
+        <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
-      <c r="C7" t="e">
-        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" t="e">
-        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" t="e">
-        <f ca="1">_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" t="e">
-        <f ca="1">_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" t="e">
-        <f ca="1">_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" t="e">
-        <f ca="1">_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" t="e">
-        <f ca="1">_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" t="e">
-        <f ca="1">_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" t="e">
-        <f ca="1">_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" t="e">
-        <f ca="1">_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" t="e">
-        <f ca="1">_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O7" t="e">
-        <f ca="1">_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P7" t="e">
-        <f ca="1">_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q7" t="e">
-        <f ca="1">_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R7" t="e">
-        <f ca="1">_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=152")</f>
-        <v>#NAME?</v>
+      <c r="C7">
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>9491.1</v>
+      </c>
+      <c r="D7">
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>389.04</v>
+      </c>
+      <c r="E7">
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>5233.6899999999996</v>
+      </c>
+      <c r="F7">
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>214.08</v>
+      </c>
+      <c r="G7">
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>122.8967</v>
+      </c>
+      <c r="H7">
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>175.14</v>
+      </c>
+      <c r="I7">
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>98.672499999999999</v>
+      </c>
+      <c r="J7">
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>101.2684</v>
+      </c>
+      <c r="K7">
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>135.21369999999999</v>
+      </c>
+      <c r="L7">
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>835.24</v>
+      </c>
+      <c r="M7">
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>1088</v>
+      </c>
+      <c r="N7">
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>297.6395</v>
+      </c>
+      <c r="O7">
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>287.23</v>
+      </c>
+      <c r="P7">
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>368.34</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>345.76</v>
+      </c>
+      <c r="R7">
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <v>169.35</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -67846,153 +70619,2485 @@
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B159">
+        <v>8647.9089999999997</v>
+      </c>
+      <c r="C159">
+        <v>8314.01</v>
+      </c>
+      <c r="D159">
+        <v>329.93</v>
+      </c>
+      <c r="E159">
+        <v>4220.7</v>
+      </c>
+      <c r="F159">
+        <v>160.71</v>
+      </c>
+      <c r="G159">
+        <v>112.7552</v>
+      </c>
+      <c r="H159">
+        <v>164.11</v>
+      </c>
+      <c r="I159">
+        <v>91.885199999999998</v>
+      </c>
+      <c r="J159">
+        <v>93.963099999999997</v>
+      </c>
+      <c r="K159">
+        <v>127.5134</v>
+      </c>
+      <c r="L159">
+        <v>884.32</v>
+      </c>
+      <c r="M159">
+        <v>1143.08</v>
+      </c>
+      <c r="N159">
+        <v>283.39949999999999</v>
+      </c>
+      <c r="O159">
+        <v>281.45</v>
+      </c>
+      <c r="P159">
+        <v>357.92</v>
+      </c>
+      <c r="Q159">
+        <v>335.23</v>
+      </c>
+      <c r="R159">
+        <v>168.75</v>
+      </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B160">
+        <v>8783.2839999999997</v>
+      </c>
+      <c r="C160">
+        <v>8422.1200000000008</v>
+      </c>
+      <c r="D160">
+        <v>332.9</v>
+      </c>
+      <c r="E160">
+        <v>4277.07</v>
+      </c>
+      <c r="F160">
+        <v>164.16</v>
+      </c>
+      <c r="G160">
+        <v>112.8616</v>
+      </c>
+      <c r="H160">
+        <v>164.17</v>
+      </c>
+      <c r="I160">
+        <v>91.796300000000002</v>
+      </c>
+      <c r="J160">
+        <v>93.831400000000002</v>
+      </c>
+      <c r="K160">
+        <v>127.47369999999999</v>
+      </c>
+      <c r="L160">
+        <v>881.43</v>
+      </c>
+      <c r="M160">
+        <v>1144.95</v>
+      </c>
+      <c r="N160">
+        <v>283.7593</v>
+      </c>
+      <c r="O160">
+        <v>281.41000000000003</v>
+      </c>
+      <c r="P160">
+        <v>358.02</v>
+      </c>
+      <c r="Q160">
+        <v>334.95</v>
+      </c>
+      <c r="R160">
+        <v>169.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B161">
+        <v>8777.2270000000008</v>
+      </c>
+      <c r="C161">
+        <v>8473.32</v>
+      </c>
+      <c r="D161">
+        <v>333.95</v>
+      </c>
+      <c r="E161">
+        <v>4277.0200000000004</v>
+      </c>
+      <c r="F161">
+        <v>163.69</v>
+      </c>
+      <c r="G161">
+        <v>112.8156</v>
+      </c>
+      <c r="H161">
+        <v>164.23</v>
+      </c>
+      <c r="I161">
+        <v>91.813800000000001</v>
+      </c>
+      <c r="J161">
+        <v>93.827100000000002</v>
+      </c>
+      <c r="K161">
+        <v>127.4787</v>
+      </c>
+      <c r="L161">
+        <v>881.65</v>
+      </c>
+      <c r="M161">
+        <v>1146.56</v>
+      </c>
+      <c r="N161">
+        <v>283.81979999999999</v>
+      </c>
+      <c r="O161">
+        <v>281.73</v>
+      </c>
+      <c r="P161">
+        <v>358.45</v>
+      </c>
+      <c r="Q161">
+        <v>335.16</v>
+      </c>
+      <c r="R161">
+        <v>169.34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B162">
+        <v>8764.0820000000003</v>
+      </c>
+      <c r="C162">
+        <v>8407.4</v>
+      </c>
+      <c r="D162">
+        <v>333.24</v>
+      </c>
+      <c r="E162">
+        <v>4197.07</v>
+      </c>
+      <c r="F162">
+        <v>159.1</v>
+      </c>
+      <c r="G162">
+        <v>112.5962</v>
+      </c>
+      <c r="H162">
+        <v>164.17</v>
+      </c>
+      <c r="I162">
+        <v>91.774100000000004</v>
+      </c>
+      <c r="J162">
+        <v>93.788799999999995</v>
+      </c>
+      <c r="K162">
+        <v>127.4599</v>
+      </c>
+      <c r="L162">
+        <v>882.16</v>
+      </c>
+      <c r="M162">
+        <v>1144.69</v>
+      </c>
+      <c r="N162">
+        <v>283.7833</v>
+      </c>
+      <c r="O162">
+        <v>281.98</v>
+      </c>
+      <c r="P162">
+        <v>358.77</v>
+      </c>
+      <c r="Q162">
+        <v>335.51</v>
+      </c>
+      <c r="R162">
+        <v>169.48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B163">
+        <v>8753.393</v>
+      </c>
+      <c r="C163">
+        <v>8480.9599999999991</v>
+      </c>
+      <c r="D163">
+        <v>333.93</v>
+      </c>
+      <c r="E163">
+        <v>4238.93</v>
+      </c>
+      <c r="F163">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="G163">
+        <v>112.59910000000001</v>
+      </c>
+      <c r="H163">
+        <v>164.19</v>
+      </c>
+      <c r="I163">
+        <v>91.7637</v>
+      </c>
+      <c r="J163">
+        <v>93.765199999999993</v>
+      </c>
+      <c r="K163">
+        <v>127.44280000000001</v>
+      </c>
+      <c r="L163">
+        <v>882.2</v>
+      </c>
+      <c r="M163">
+        <v>1143.3399999999999</v>
+      </c>
+      <c r="N163">
+        <v>283.74579999999997</v>
+      </c>
+      <c r="O163">
+        <v>282.18</v>
+      </c>
+      <c r="P163">
+        <v>359.11</v>
+      </c>
+      <c r="Q163">
+        <v>335.75</v>
+      </c>
+      <c r="R163">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B164">
+        <v>8716.7510000000002</v>
+      </c>
+      <c r="C164">
+        <v>8386.49</v>
+      </c>
+      <c r="D164">
+        <v>332.31</v>
+      </c>
+      <c r="E164">
+        <v>4217.03</v>
+      </c>
+      <c r="F164">
+        <v>161.62</v>
+      </c>
+      <c r="G164">
+        <v>112.4363</v>
+      </c>
+      <c r="H164">
+        <v>164.2</v>
+      </c>
+      <c r="I164">
+        <v>91.772300000000001</v>
+      </c>
+      <c r="J164">
+        <v>93.783199999999994</v>
+      </c>
+      <c r="K164">
+        <v>127.4515</v>
+      </c>
+      <c r="L164">
+        <v>882.85</v>
+      </c>
+      <c r="M164">
+        <v>1144.8499999999999</v>
+      </c>
+      <c r="N164">
+        <v>283.67189999999999</v>
+      </c>
+      <c r="O164">
+        <v>282.29000000000002</v>
+      </c>
+      <c r="P164">
+        <v>359.06</v>
+      </c>
+      <c r="Q164">
+        <v>336</v>
+      </c>
+      <c r="R164">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B165">
+        <v>8902.723</v>
+      </c>
+      <c r="C165">
+        <v>8463.18</v>
+      </c>
+      <c r="D165">
+        <v>338.6</v>
+      </c>
+      <c r="E165">
+        <v>4228.0600000000004</v>
+      </c>
+      <c r="F165">
+        <v>160</v>
+      </c>
+      <c r="G165">
+        <v>112.8806</v>
+      </c>
+      <c r="H165">
+        <v>164.25</v>
+      </c>
+      <c r="I165">
+        <v>91.653800000000004</v>
+      </c>
+      <c r="J165">
+        <v>93.670699999999997</v>
+      </c>
+      <c r="K165">
+        <v>127.38979999999999</v>
+      </c>
+      <c r="L165">
+        <v>879.76</v>
+      </c>
+      <c r="M165">
+        <v>1141.68</v>
+      </c>
+      <c r="N165">
+        <v>283.73329999999999</v>
+      </c>
+      <c r="O165">
+        <v>282.02</v>
+      </c>
+      <c r="P165">
+        <v>358.84</v>
+      </c>
+      <c r="Q165">
+        <v>335.55</v>
+      </c>
+      <c r="R165">
+        <v>169.36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B166">
+        <v>8898.8369999999995</v>
+      </c>
+      <c r="C166">
+        <v>8480.57</v>
+      </c>
+      <c r="D166">
+        <v>339.2</v>
+      </c>
+      <c r="E166">
+        <v>4182.1499999999996</v>
+      </c>
+      <c r="F166">
+        <v>155.05000000000001</v>
+      </c>
+      <c r="G166">
+        <v>113.005</v>
+      </c>
+      <c r="H166">
+        <v>164.25</v>
+      </c>
+      <c r="I166">
+        <v>91.656999999999996</v>
+      </c>
+      <c r="J166">
+        <v>93.661299999999997</v>
+      </c>
+      <c r="K166">
+        <v>127.3886</v>
+      </c>
+      <c r="L166">
+        <v>879.67</v>
+      </c>
+      <c r="M166">
+        <v>1143.45</v>
+      </c>
+      <c r="N166">
+        <v>284.00580000000002</v>
+      </c>
+      <c r="O166">
+        <v>281.82</v>
+      </c>
+      <c r="P166">
+        <v>358.55</v>
+      </c>
+      <c r="Q166">
+        <v>335.15</v>
+      </c>
+      <c r="R166">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B167">
+        <v>9054.1380000000008</v>
+      </c>
+      <c r="C167">
+        <v>8526.42</v>
+      </c>
+      <c r="D167">
+        <v>342.89</v>
+      </c>
+      <c r="E167">
+        <v>4227.76</v>
+      </c>
+      <c r="F167">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="G167">
+        <v>113.5121</v>
+      </c>
+      <c r="H167">
+        <v>164.38</v>
+      </c>
+      <c r="I167">
+        <v>91.620500000000007</v>
+      </c>
+      <c r="J167">
+        <v>93.633799999999994</v>
+      </c>
+      <c r="K167">
+        <v>127.36879999999999</v>
+      </c>
+      <c r="L167">
+        <v>877.68</v>
+      </c>
+      <c r="M167">
+        <v>1138.8599999999999</v>
+      </c>
+      <c r="N167">
+        <v>284.35640000000001</v>
+      </c>
+      <c r="O167">
+        <v>281.73</v>
+      </c>
+      <c r="P167">
+        <v>358.53</v>
+      </c>
+      <c r="Q167">
+        <v>335.23</v>
+      </c>
+      <c r="R167">
+        <v>169.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B168">
+        <v>9090.3610000000008</v>
+      </c>
+      <c r="C168">
+        <v>8555.33</v>
+      </c>
+      <c r="D168">
+        <v>343.69</v>
+      </c>
+      <c r="E168">
+        <v>4237.04</v>
+      </c>
+      <c r="F168">
+        <v>156.78</v>
+      </c>
+      <c r="G168">
+        <v>113.54300000000001</v>
+      </c>
+      <c r="H168">
+        <v>164.28</v>
+      </c>
+      <c r="I168">
+        <v>91.620999999999995</v>
+      </c>
+      <c r="J168">
+        <v>93.638400000000004</v>
+      </c>
+      <c r="K168">
+        <v>127.3695</v>
+      </c>
+      <c r="L168">
+        <v>877.44</v>
+      </c>
+      <c r="M168">
+        <v>1138.67</v>
+      </c>
+      <c r="N168">
+        <v>283.9357</v>
+      </c>
+      <c r="O168">
+        <v>281.91000000000003</v>
+      </c>
+      <c r="P168">
+        <v>358.73</v>
+      </c>
+      <c r="Q168">
+        <v>335.44</v>
+      </c>
+      <c r="R168">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B169">
+        <v>9107.8670000000002</v>
+      </c>
+      <c r="C169">
+        <v>8590.56</v>
+      </c>
+      <c r="D169">
+        <v>343.89</v>
+      </c>
+      <c r="E169">
+        <v>4237.16</v>
+      </c>
+      <c r="F169">
+        <v>157.85</v>
+      </c>
+      <c r="G169">
+        <v>113.5821</v>
+      </c>
+      <c r="H169">
+        <v>164.29</v>
+      </c>
+      <c r="I169">
+        <v>91.624799999999993</v>
+      </c>
+      <c r="J169">
+        <v>93.634299999999996</v>
+      </c>
+      <c r="K169">
+        <v>127.37260000000001</v>
+      </c>
+      <c r="L169">
+        <v>877.33</v>
+      </c>
+      <c r="M169">
+        <v>1137.5899999999999</v>
+      </c>
+      <c r="N169">
+        <v>283.93880000000001</v>
+      </c>
+      <c r="O169">
+        <v>282.08999999999997</v>
+      </c>
+      <c r="P169">
+        <v>358.89</v>
+      </c>
+      <c r="Q169">
+        <v>335.68</v>
+      </c>
+      <c r="R169">
+        <v>169.29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B170">
+        <v>9043.5889999999999</v>
+      </c>
+      <c r="C170">
+        <v>8479.58</v>
+      </c>
+      <c r="D170">
+        <v>341.66</v>
+      </c>
+      <c r="E170">
+        <v>4188.9799999999996</v>
+      </c>
+      <c r="F170">
+        <v>155.69</v>
+      </c>
+      <c r="G170">
+        <v>113.5885</v>
+      </c>
+      <c r="H170">
+        <v>164.08</v>
+      </c>
+      <c r="I170">
+        <v>91.628600000000006</v>
+      </c>
+      <c r="J170">
+        <v>93.632599999999996</v>
+      </c>
+      <c r="K170">
+        <v>127.377</v>
+      </c>
+      <c r="L170">
+        <v>878.03</v>
+      </c>
+      <c r="M170">
+        <v>1138.46</v>
+      </c>
+      <c r="N170">
+        <v>283.50299999999999</v>
+      </c>
+      <c r="O170">
+        <v>282.12</v>
+      </c>
+      <c r="P170">
+        <v>358.88</v>
+      </c>
+      <c r="Q170">
+        <v>335.82</v>
+      </c>
+      <c r="R170">
+        <v>169.37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B171">
+        <v>9065.49</v>
+      </c>
+      <c r="C171">
+        <v>8527.7000000000007</v>
+      </c>
+      <c r="D171">
+        <v>341.89</v>
+      </c>
+      <c r="E171">
+        <v>4195.88</v>
+      </c>
+      <c r="F171">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="G171">
+        <v>113.4795</v>
+      </c>
+      <c r="H171">
+        <v>164.13</v>
+      </c>
+      <c r="I171">
+        <v>91.601500000000001</v>
+      </c>
+      <c r="J171">
+        <v>93.622600000000006</v>
+      </c>
+      <c r="K171">
+        <v>127.35680000000001</v>
+      </c>
+      <c r="L171">
+        <v>877.94</v>
+      </c>
+      <c r="M171">
+        <v>1138.22</v>
+      </c>
+      <c r="N171">
+        <v>283.584</v>
+      </c>
+      <c r="O171">
+        <v>282.27999999999997</v>
+      </c>
+      <c r="P171">
+        <v>359.17</v>
+      </c>
+      <c r="Q171">
+        <v>336.14</v>
+      </c>
+      <c r="R171">
+        <v>169.45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B172">
+        <v>8948.8179999999993</v>
+      </c>
+      <c r="C172">
+        <v>8421.4699999999993</v>
+      </c>
+      <c r="D172">
+        <v>337.42</v>
+      </c>
+      <c r="E172">
+        <v>4132.21</v>
+      </c>
+      <c r="F172">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="G172">
+        <v>113.3695</v>
+      </c>
+      <c r="H172">
+        <v>164.09</v>
+      </c>
+      <c r="I172">
+        <v>91.6524</v>
+      </c>
+      <c r="J172">
+        <v>93.679500000000004</v>
+      </c>
+      <c r="K172">
+        <v>127.3942</v>
+      </c>
+      <c r="L172">
+        <v>879.18</v>
+      </c>
+      <c r="M172">
+        <v>1137.3699999999999</v>
+      </c>
+      <c r="N172">
+        <v>283.77629999999999</v>
+      </c>
+      <c r="O172">
+        <v>282.26</v>
+      </c>
+      <c r="P172">
+        <v>359.09</v>
+      </c>
+      <c r="Q172">
+        <v>335.99</v>
+      </c>
+      <c r="R172">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B173">
+        <v>8758.2430000000004</v>
+      </c>
+      <c r="C173">
+        <v>8258.69</v>
+      </c>
+      <c r="D173">
+        <v>331.53</v>
+      </c>
+      <c r="E173">
+        <v>4100.78</v>
+      </c>
+      <c r="F173">
+        <v>152.16</v>
+      </c>
+      <c r="G173">
+        <v>112.8489</v>
+      </c>
+      <c r="H173">
+        <v>163.65</v>
+      </c>
+      <c r="I173">
+        <v>91.783199999999994</v>
+      </c>
+      <c r="J173">
+        <v>93.810299999999998</v>
+      </c>
+      <c r="K173">
+        <v>127.4551</v>
+      </c>
+      <c r="L173">
+        <v>881.66</v>
+      </c>
+      <c r="M173">
+        <v>1137.31</v>
+      </c>
+      <c r="N173">
+        <v>282.39870000000002</v>
+      </c>
+      <c r="O173">
+        <v>281.58</v>
+      </c>
+      <c r="P173">
+        <v>359.12</v>
+      </c>
+      <c r="Q173">
+        <v>335.71</v>
+      </c>
+      <c r="R173">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B174">
+        <v>8738.7630000000008</v>
+      </c>
+      <c r="C174">
+        <v>8245.83</v>
+      </c>
+      <c r="D174">
+        <v>330.83</v>
+      </c>
+      <c r="E174">
+        <v>4090.63</v>
+      </c>
+      <c r="F174">
+        <v>151.13</v>
+      </c>
+      <c r="G174">
+        <v>112.38030000000001</v>
+      </c>
+      <c r="H174">
+        <v>163.33000000000001</v>
+      </c>
+      <c r="I174">
+        <v>91.73</v>
+      </c>
+      <c r="J174">
+        <v>93.707599999999999</v>
+      </c>
+      <c r="K174">
+        <v>127.4281</v>
+      </c>
+      <c r="L174">
+        <v>882.34</v>
+      </c>
+      <c r="M174">
+        <v>1136.7</v>
+      </c>
+      <c r="N174">
+        <v>282.93119999999999</v>
+      </c>
+      <c r="O174">
+        <v>281.99</v>
+      </c>
+      <c r="P174">
+        <v>359.29</v>
+      </c>
+      <c r="Q174">
+        <v>336.35</v>
+      </c>
+      <c r="R174">
+        <v>169.35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B175">
+        <v>8764.42</v>
+      </c>
+      <c r="C175">
+        <v>8279.5499999999993</v>
+      </c>
+      <c r="D175">
+        <v>331.29</v>
+      </c>
+      <c r="E175">
+        <v>4076.99</v>
+      </c>
+      <c r="F175">
+        <v>149.65</v>
+      </c>
+      <c r="G175">
+        <v>112.1097</v>
+      </c>
+      <c r="H175">
+        <v>163.25</v>
+      </c>
+      <c r="I175">
+        <v>91.584100000000007</v>
+      </c>
+      <c r="J175">
+        <v>93.628100000000003</v>
+      </c>
+      <c r="K175">
+        <v>127.3526</v>
+      </c>
+      <c r="L175">
+        <v>882.25</v>
+      </c>
+      <c r="M175">
+        <v>1136.58</v>
+      </c>
+      <c r="N175">
+        <v>283.32589999999999</v>
+      </c>
+      <c r="O175">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="P175">
+        <v>359.77</v>
+      </c>
+      <c r="Q175">
+        <v>336.56</v>
+      </c>
+      <c r="R175">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B176">
+        <v>8888.1280000000006</v>
+      </c>
+      <c r="C176">
+        <v>8295.5400000000009</v>
+      </c>
+      <c r="D176">
+        <v>335.48</v>
+      </c>
+      <c r="E176">
+        <v>4127.1400000000003</v>
+      </c>
+      <c r="F176">
+        <v>152.35</v>
+      </c>
+      <c r="G176">
+        <v>112.3784</v>
+      </c>
+      <c r="H176">
+        <v>163.52000000000001</v>
+      </c>
+      <c r="I176">
+        <v>91.489199999999997</v>
+      </c>
+      <c r="J176">
+        <v>93.480199999999996</v>
+      </c>
+      <c r="K176">
+        <v>127.29259999999999</v>
+      </c>
+      <c r="L176">
+        <v>879.89</v>
+      </c>
+      <c r="M176">
+        <v>1134.26</v>
+      </c>
+      <c r="N176">
+        <v>282.47680000000003</v>
+      </c>
+      <c r="O176">
+        <v>281.86</v>
+      </c>
+      <c r="P176">
+        <v>359.18</v>
+      </c>
+      <c r="Q176">
+        <v>335.96</v>
+      </c>
+      <c r="R176">
+        <v>169.53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B177">
+        <v>8588.9459999999999</v>
+      </c>
+      <c r="C177">
+        <v>8135.58</v>
+      </c>
+      <c r="D177">
+        <v>327.63</v>
+      </c>
+      <c r="E177">
+        <v>4131.16</v>
+      </c>
+      <c r="F177">
+        <v>154.22</v>
+      </c>
+      <c r="G177">
+        <v>112.12179999999999</v>
+      </c>
+      <c r="H177">
+        <v>162.63</v>
+      </c>
+      <c r="I177">
+        <v>91.706000000000003</v>
+      </c>
+      <c r="J177">
+        <v>93.591999999999999</v>
+      </c>
+      <c r="K177">
+        <v>127.38809999999999</v>
+      </c>
+      <c r="L177">
+        <v>885.23</v>
+      </c>
+      <c r="M177">
+        <v>1135.52</v>
+      </c>
+      <c r="N177">
+        <v>284.0487</v>
+      </c>
+      <c r="O177">
+        <v>282.58</v>
+      </c>
+      <c r="P177">
+        <v>359.94</v>
+      </c>
+      <c r="Q177">
+        <v>336.02</v>
+      </c>
+      <c r="R177">
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B178">
+        <v>8532.1020000000008</v>
+      </c>
+      <c r="C178">
+        <v>8060.68</v>
+      </c>
+      <c r="D178">
+        <v>324.31</v>
+      </c>
+      <c r="E178">
+        <v>4088.08</v>
+      </c>
+      <c r="F178">
+        <v>152.58000000000001</v>
+      </c>
+      <c r="G178">
+        <v>111.52509999999999</v>
+      </c>
+      <c r="H178">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="I178">
+        <v>91.723500000000001</v>
+      </c>
+      <c r="J178">
+        <v>93.755799999999994</v>
+      </c>
+      <c r="K178">
+        <v>127.4524</v>
+      </c>
+      <c r="L178">
+        <v>887.12</v>
+      </c>
+      <c r="M178">
+        <v>1133.95</v>
+      </c>
+      <c r="N178">
+        <v>284.16669999999999</v>
+      </c>
+      <c r="O178">
+        <v>283.06</v>
+      </c>
+      <c r="P178">
+        <v>360.56</v>
+      </c>
+      <c r="Q178">
+        <v>337.07</v>
+      </c>
+      <c r="R178">
+        <v>169.42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B179">
+        <v>8438.6869999999999</v>
+      </c>
+      <c r="C179">
+        <v>8041.3</v>
+      </c>
+      <c r="D179">
+        <v>321.83999999999997</v>
+      </c>
+      <c r="E179">
+        <v>4090.08</v>
+      </c>
+      <c r="F179">
+        <v>153.38999999999999</v>
+      </c>
+      <c r="G179">
+        <v>110.976</v>
+      </c>
+      <c r="H179">
+        <v>161.75</v>
+      </c>
+      <c r="I179">
+        <v>91.882199999999997</v>
+      </c>
+      <c r="J179">
+        <v>93.805899999999994</v>
+      </c>
+      <c r="K179">
+        <v>127.5065</v>
+      </c>
+      <c r="L179">
+        <v>889.74</v>
+      </c>
+      <c r="M179">
+        <v>1133.72</v>
+      </c>
+      <c r="N179">
+        <v>284.59399999999999</v>
+      </c>
+      <c r="O179">
+        <v>282.89999999999998</v>
+      </c>
+      <c r="P179">
+        <v>360.03</v>
+      </c>
+      <c r="Q179">
+        <v>336.89</v>
+      </c>
+      <c r="R179">
+        <v>169.49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B180">
+        <v>8374.4159999999993</v>
+      </c>
+      <c r="C180">
+        <v>7940.45</v>
+      </c>
+      <c r="D180">
+        <v>319.98</v>
+      </c>
+      <c r="E180">
+        <v>4046.99</v>
+      </c>
+      <c r="F180">
+        <v>151.47</v>
+      </c>
+      <c r="G180">
+        <v>110.51479999999999</v>
+      </c>
+      <c r="H180">
+        <v>161.09</v>
+      </c>
+      <c r="I180">
+        <v>91.6631</v>
+      </c>
+      <c r="J180">
+        <v>93.6631</v>
+      </c>
+      <c r="K180">
+        <v>127.4104</v>
+      </c>
+      <c r="L180">
+        <v>892.53</v>
+      </c>
+      <c r="M180">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="N180">
+        <v>285.5609</v>
+      </c>
+      <c r="O180">
+        <v>283.08999999999997</v>
+      </c>
+      <c r="P180">
+        <v>360.47</v>
+      </c>
+      <c r="Q180">
+        <v>337.21</v>
+      </c>
+      <c r="R180">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B181">
+        <v>8400.9599999999991</v>
+      </c>
+      <c r="C181">
+        <v>7805.84</v>
+      </c>
+      <c r="D181">
+        <v>317.58</v>
+      </c>
+      <c r="E181">
+        <v>3979.63</v>
+      </c>
+      <c r="F181">
+        <v>147.55000000000001</v>
+      </c>
+      <c r="G181">
+        <v>110.19110000000001</v>
+      </c>
+      <c r="H181">
+        <v>161.29</v>
+      </c>
+      <c r="I181">
+        <v>91.844499999999996</v>
+      </c>
+      <c r="J181">
+        <v>93.816599999999994</v>
+      </c>
+      <c r="K181">
+        <v>127.4842</v>
+      </c>
+      <c r="L181">
+        <v>891.44</v>
+      </c>
+      <c r="M181">
+        <v>1137.79</v>
+      </c>
+      <c r="N181">
+        <v>285.4076</v>
+      </c>
+      <c r="O181">
+        <v>282.81</v>
+      </c>
+      <c r="P181">
+        <v>360.13</v>
+      </c>
+      <c r="Q181">
+        <v>336.69</v>
+      </c>
+      <c r="R181">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B182">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C182">
+        <v>8003.84</v>
+      </c>
+      <c r="D182">
+        <v>316.89999999999998</v>
+      </c>
+      <c r="E182">
+        <v>4001.25</v>
+      </c>
+      <c r="F182">
+        <v>148.54</v>
+      </c>
+      <c r="G182">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H182">
+        <v>160.74</v>
+      </c>
+      <c r="I182">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J182">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K182">
+        <v>127.209</v>
+      </c>
+      <c r="L182">
+        <v>893.77</v>
+      </c>
+      <c r="M182">
+        <v>1136.71</v>
+      </c>
+      <c r="N182">
+        <v>285.5324</v>
+      </c>
+      <c r="O182">
+        <v>282.26</v>
+      </c>
+      <c r="P182">
+        <v>359.31</v>
+      </c>
+      <c r="Q182">
+        <v>335.87</v>
+      </c>
+      <c r="R182">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B183">
+        <v>8311.4220000000005</v>
+      </c>
+      <c r="C183">
+        <v>7881.07</v>
+      </c>
+      <c r="D183">
+        <v>315.83999999999997</v>
+      </c>
+      <c r="E183">
+        <v>4001.25</v>
+      </c>
+      <c r="F183">
+        <v>148.54</v>
+      </c>
+      <c r="G183">
+        <v>109.81950000000001</v>
+      </c>
+      <c r="H183">
+        <v>160.74</v>
+      </c>
+      <c r="I183">
+        <v>91.584400000000002</v>
+      </c>
+      <c r="J183">
+        <v>93.446200000000005</v>
+      </c>
+      <c r="K183">
+        <v>127.209</v>
+      </c>
+      <c r="L183">
+        <v>893.77</v>
+      </c>
+      <c r="M183">
+        <v>1136.71</v>
+      </c>
+      <c r="N183">
+        <v>285.5324</v>
+      </c>
+      <c r="O183">
+        <v>282.26</v>
+      </c>
+      <c r="P183">
+        <v>359.31</v>
+      </c>
+      <c r="Q183">
+        <v>335.87</v>
+      </c>
+      <c r="R183">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B184">
+        <v>8277.8140000000003</v>
+      </c>
+      <c r="C184">
+        <v>7903.95</v>
+      </c>
+      <c r="D184">
+        <v>314.49</v>
+      </c>
+      <c r="E184">
+        <v>3920.23</v>
+      </c>
+      <c r="F184">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="G184">
+        <v>109.58159999999999</v>
+      </c>
+      <c r="H184">
+        <v>160.82</v>
+      </c>
+      <c r="I184">
+        <v>91.688800000000001</v>
+      </c>
+      <c r="J184">
+        <v>93.632300000000001</v>
+      </c>
+      <c r="K184">
+        <v>127.2985</v>
+      </c>
+      <c r="L184">
+        <v>895.44</v>
+      </c>
+      <c r="M184">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N184">
+        <v>285.00920000000002</v>
+      </c>
+      <c r="O184">
+        <v>282.81</v>
+      </c>
+      <c r="P184">
+        <v>360.14</v>
+      </c>
+      <c r="Q184">
+        <v>336.69</v>
+      </c>
+      <c r="R184">
+        <v>169.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B185">
+        <v>8429.8649999999998</v>
+      </c>
+      <c r="C185">
+        <v>7908.35</v>
+      </c>
+      <c r="D185">
+        <v>317.33</v>
+      </c>
+      <c r="E185">
+        <v>3972.78</v>
+      </c>
+      <c r="F185">
+        <v>146.69</v>
+      </c>
+      <c r="G185">
+        <v>109.8719</v>
+      </c>
+      <c r="H185">
+        <v>161.46</v>
+      </c>
+      <c r="I185">
+        <v>91.374600000000001</v>
+      </c>
+      <c r="J185">
+        <v>93.393699999999995</v>
+      </c>
+      <c r="K185">
+        <v>127.1468</v>
+      </c>
+      <c r="L185">
+        <v>890.33</v>
+      </c>
+      <c r="M185">
+        <v>1131.72</v>
+      </c>
+      <c r="N185">
+        <v>285.5324</v>
+      </c>
+      <c r="O185">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="P185">
+        <v>359.86</v>
+      </c>
+      <c r="Q185">
+        <v>336.11</v>
+      </c>
+      <c r="R185">
+        <v>169.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B186">
+        <v>8486.6309999999994</v>
+      </c>
+      <c r="C186">
+        <v>7932.01</v>
+      </c>
+      <c r="D186">
+        <v>319.77</v>
+      </c>
+      <c r="E186">
+        <v>3957.22</v>
+      </c>
+      <c r="F186">
+        <v>144.87</v>
+      </c>
+      <c r="G186">
+        <v>109.86360000000001</v>
+      </c>
+      <c r="H186">
+        <v>161.78</v>
+      </c>
+      <c r="I186">
+        <v>91.246200000000002</v>
+      </c>
+      <c r="J186">
+        <v>93.178399999999996</v>
+      </c>
+      <c r="K186">
+        <v>127.0478</v>
+      </c>
+      <c r="L186">
+        <v>889.17</v>
+      </c>
+      <c r="M186">
+        <v>1132.24</v>
+      </c>
+      <c r="N186">
+        <v>284.96690000000001</v>
+      </c>
+      <c r="O186">
+        <v>282.91000000000003</v>
+      </c>
+      <c r="P186">
+        <v>360.29</v>
+      </c>
+      <c r="Q186">
+        <v>336.37</v>
+      </c>
+      <c r="R186">
+        <v>169.17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B187">
+        <v>8616.9779999999992</v>
+      </c>
+      <c r="C187">
+        <v>8062.21</v>
+      </c>
+      <c r="D187">
+        <v>325.32</v>
+      </c>
+      <c r="E187">
+        <v>3975.95</v>
+      </c>
+      <c r="F187">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="G187">
+        <v>110.4819</v>
+      </c>
+      <c r="H187">
+        <v>162.38999999999999</v>
+      </c>
+      <c r="I187">
+        <v>91.119900000000001</v>
+      </c>
+      <c r="J187">
+        <v>93.009600000000006</v>
+      </c>
+      <c r="K187">
+        <v>126.9734</v>
+      </c>
+      <c r="L187">
+        <v>885.57</v>
+      </c>
+      <c r="M187">
+        <v>1128.1500000000001</v>
+      </c>
+      <c r="N187">
+        <v>284.89499999999998</v>
+      </c>
+      <c r="O187">
+        <v>282.72000000000003</v>
+      </c>
+      <c r="P187">
+        <v>360.2</v>
+      </c>
+      <c r="Q187">
+        <v>336.41</v>
+      </c>
+      <c r="R187">
+        <v>168.83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B188">
+        <v>8708.1730000000007</v>
+      </c>
+      <c r="C188">
+        <v>8234.92</v>
+      </c>
+      <c r="D188">
+        <v>329.54</v>
+      </c>
+      <c r="E188">
+        <v>3964.18</v>
+      </c>
+      <c r="F188">
+        <v>143.62</v>
+      </c>
+      <c r="G188">
+        <v>110.7728</v>
+      </c>
+      <c r="H188">
+        <v>162.52000000000001</v>
+      </c>
+      <c r="I188">
+        <v>91.120699999999999</v>
+      </c>
+      <c r="J188">
+        <v>92.989599999999996</v>
+      </c>
+      <c r="K188">
+        <v>126.97539999999999</v>
+      </c>
+      <c r="L188">
+        <v>883.38</v>
+      </c>
+      <c r="M188">
+        <v>1127.58</v>
+      </c>
+      <c r="N188">
+        <v>285.52080000000001</v>
+      </c>
+      <c r="O188">
+        <v>282.35000000000002</v>
+      </c>
+      <c r="P188">
+        <v>360.3</v>
+      </c>
+      <c r="Q188">
+        <v>336.14</v>
+      </c>
+      <c r="R188">
+        <v>168.55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B189">
+        <v>8331.9009999999998</v>
+      </c>
+      <c r="C189">
+        <v>8098.67</v>
+      </c>
+      <c r="D189">
+        <v>318.83999999999997</v>
+      </c>
+      <c r="E189">
+        <v>3947.59</v>
+      </c>
+      <c r="F189">
+        <v>144.56</v>
+      </c>
+      <c r="G189">
+        <v>110.3005</v>
+      </c>
+      <c r="H189">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="I189">
+        <v>91.393299999999996</v>
+      </c>
+      <c r="J189">
+        <v>93.2059</v>
+      </c>
+      <c r="K189">
+        <v>127.09829999999999</v>
+      </c>
+      <c r="L189">
+        <v>890.99</v>
+      </c>
+      <c r="M189">
+        <v>1132.08</v>
+      </c>
+      <c r="N189">
+        <v>285.0505</v>
+      </c>
+      <c r="O189">
+        <v>281.73</v>
+      </c>
+      <c r="P189">
+        <v>358.76</v>
+      </c>
+      <c r="Q189">
+        <v>335.74</v>
+      </c>
+      <c r="R189">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B190">
+        <v>8362.4</v>
+      </c>
+      <c r="C190">
+        <v>8056.61</v>
+      </c>
+      <c r="D190">
+        <v>318.07</v>
+      </c>
+      <c r="E190">
+        <v>3959.22</v>
+      </c>
+      <c r="F190">
+        <v>145.18</v>
+      </c>
+      <c r="G190">
+        <v>110.009</v>
+      </c>
+      <c r="H190">
+        <v>160.68</v>
+      </c>
+      <c r="I190">
+        <v>91.496300000000005</v>
+      </c>
+      <c r="J190">
+        <v>93.426699999999997</v>
+      </c>
+      <c r="K190">
+        <v>127.2028</v>
+      </c>
+      <c r="L190">
+        <v>890.35</v>
+      </c>
+      <c r="M190">
+        <v>1132.33</v>
+      </c>
+      <c r="N190">
+        <v>285.14960000000002</v>
+      </c>
+      <c r="O190">
+        <v>282.42</v>
+      </c>
+      <c r="P190">
+        <v>359.77</v>
+      </c>
+      <c r="Q190">
+        <v>336.41</v>
+      </c>
+      <c r="R190">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B191">
+        <v>8268.6029999999992</v>
+      </c>
+      <c r="C191">
+        <v>7998.43</v>
+      </c>
+      <c r="D191">
+        <v>315.16000000000003</v>
+      </c>
+      <c r="E191">
+        <v>3947.61</v>
+      </c>
+      <c r="F191">
+        <v>145.13999999999999</v>
+      </c>
+      <c r="G191">
+        <v>109.5166</v>
+      </c>
+      <c r="H191">
+        <v>159.63</v>
+      </c>
+      <c r="I191">
+        <v>91.467399999999998</v>
+      </c>
+      <c r="J191">
+        <v>93.252200000000002</v>
+      </c>
+      <c r="K191">
+        <v>127.1632</v>
+      </c>
+      <c r="L191">
+        <v>893.85</v>
+      </c>
+      <c r="M191">
+        <v>1134.53</v>
+      </c>
+      <c r="N191">
+        <v>285.19600000000003</v>
+      </c>
+      <c r="O191">
+        <v>282.68</v>
+      </c>
+      <c r="P191">
+        <v>360.13</v>
+      </c>
+      <c r="Q191">
+        <v>336.35</v>
+      </c>
+      <c r="R191">
+        <v>168.66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B192">
+        <v>8209.3459999999995</v>
+      </c>
+      <c r="C192">
+        <v>7904.97</v>
+      </c>
+      <c r="D192">
+        <v>312.18</v>
+      </c>
+      <c r="E192">
+        <v>3918.88</v>
+      </c>
+      <c r="F192">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="G192">
+        <v>108.9646</v>
+      </c>
+      <c r="H192">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="I192">
+        <v>91.574100000000001</v>
+      </c>
+      <c r="J192">
+        <v>93.543499999999995</v>
+      </c>
+      <c r="K192">
+        <v>127.2907</v>
+      </c>
+      <c r="L192">
+        <v>896.18</v>
+      </c>
+      <c r="M192">
+        <v>1134.4100000000001</v>
+      </c>
+      <c r="N192">
+        <v>285.95569999999998</v>
+      </c>
+      <c r="O192">
+        <v>282.48</v>
+      </c>
+      <c r="P192">
+        <v>359.85</v>
+      </c>
+      <c r="Q192">
+        <v>335.97</v>
+      </c>
+      <c r="R192">
+        <v>168.73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B193">
+        <v>8265.7270000000008</v>
+      </c>
+      <c r="C193">
+        <v>7904.11</v>
+      </c>
+      <c r="D193">
+        <v>313.2</v>
+      </c>
+      <c r="E193">
+        <v>3923.61</v>
+      </c>
+      <c r="F193">
+        <v>144.07</v>
+      </c>
+      <c r="G193">
+        <v>108.76860000000001</v>
+      </c>
+      <c r="H193">
+        <v>159.25</v>
+      </c>
+      <c r="I193">
+        <v>91.1995</v>
+      </c>
+      <c r="J193">
+        <v>93.130200000000002</v>
+      </c>
+      <c r="K193">
+        <v>127.0296</v>
+      </c>
+      <c r="L193">
+        <v>894.57</v>
+      </c>
+      <c r="M193">
+        <v>1131.6400000000001</v>
+      </c>
+      <c r="N193">
+        <v>286.09620000000001</v>
+      </c>
+      <c r="O193">
+        <v>282.62</v>
+      </c>
+      <c r="P193">
+        <v>360.34</v>
+      </c>
+      <c r="Q193">
+        <v>336.25</v>
+      </c>
+      <c r="R193">
+        <v>168.28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B194">
+        <v>8172.643</v>
+      </c>
+      <c r="C194">
+        <v>7830.92</v>
+      </c>
+      <c r="D194">
+        <v>310.62</v>
+      </c>
+      <c r="E194">
+        <v>3890.53</v>
+      </c>
+      <c r="F194">
+        <v>142.22</v>
+      </c>
+      <c r="G194">
+        <v>108.66289999999999</v>
+      </c>
+      <c r="H194">
+        <v>158.22</v>
+      </c>
+      <c r="I194">
+        <v>91.352000000000004</v>
+      </c>
+      <c r="J194">
+        <v>93.195099999999996</v>
+      </c>
+      <c r="K194">
+        <v>127.0783</v>
+      </c>
+      <c r="L194">
+        <v>897.07</v>
+      </c>
+      <c r="M194">
+        <v>1131.21</v>
+      </c>
+      <c r="N194">
+        <v>286.5521</v>
+      </c>
+      <c r="O194">
+        <v>282.24</v>
+      </c>
+      <c r="P194">
+        <v>359.47</v>
+      </c>
+      <c r="Q194">
+        <v>336.38</v>
+      </c>
+      <c r="R194">
+        <v>168.22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B195">
+        <v>8033.2939999999999</v>
+      </c>
+      <c r="C195">
+        <v>7890.99</v>
+      </c>
+      <c r="D195">
+        <v>306.08999999999997</v>
+      </c>
+      <c r="E195">
+        <v>3931.3</v>
+      </c>
+      <c r="F195">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="G195">
+        <v>108.06780000000001</v>
+      </c>
+      <c r="H195">
+        <v>156.44</v>
+      </c>
+      <c r="I195">
+        <v>91.332899999999995</v>
+      </c>
+      <c r="J195">
+        <v>93.135999999999996</v>
+      </c>
+      <c r="K195">
+        <v>127.0128</v>
+      </c>
+      <c r="L195">
+        <v>902.74</v>
+      </c>
+      <c r="M195">
+        <v>1130.18</v>
+      </c>
+      <c r="N195">
+        <v>285.80799999999999</v>
+      </c>
+      <c r="O195">
+        <v>282.69</v>
+      </c>
+      <c r="P195">
+        <v>359.84</v>
+      </c>
+      <c r="Q195">
+        <v>337.09</v>
+      </c>
+      <c r="R195">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B196">
+        <v>7965.96</v>
+      </c>
+      <c r="C196">
+        <v>7744.71</v>
+      </c>
+      <c r="D196">
+        <v>302.81</v>
+      </c>
+      <c r="E196">
+        <v>3842.44</v>
+      </c>
+      <c r="F196">
+        <v>140.78</v>
+      </c>
+      <c r="G196">
+        <v>107.33750000000001</v>
+      </c>
+      <c r="H196">
+        <v>155.44</v>
+      </c>
+      <c r="I196">
+        <v>91.504099999999994</v>
+      </c>
+      <c r="J196">
+        <v>93.396699999999996</v>
+      </c>
+      <c r="K196">
+        <v>127.2375</v>
+      </c>
+      <c r="L196">
+        <v>906.41</v>
+      </c>
+      <c r="M196">
+        <v>1131.96</v>
+      </c>
+      <c r="N196">
+        <v>286.42809999999997</v>
+      </c>
+      <c r="O196">
+        <v>283.31</v>
+      </c>
+      <c r="P196">
+        <v>360.72</v>
+      </c>
+      <c r="Q196">
+        <v>338.06</v>
+      </c>
+      <c r="R196">
+        <v>167.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B197">
+        <v>7828.866</v>
+      </c>
+      <c r="C197">
+        <v>7567.24</v>
+      </c>
+      <c r="D197">
+        <v>296.7</v>
+      </c>
+      <c r="E197">
+        <v>3836.24</v>
+      </c>
+      <c r="F197">
+        <v>141.72</v>
+      </c>
+      <c r="G197">
+        <v>107.34010000000001</v>
+      </c>
+      <c r="H197">
+        <v>154.5</v>
+      </c>
+      <c r="I197">
+        <v>92.056200000000004</v>
+      </c>
+      <c r="J197">
+        <v>93.855400000000003</v>
+      </c>
+      <c r="K197">
+        <v>127.67400000000001</v>
+      </c>
+      <c r="L197">
+        <v>910.47</v>
+      </c>
+      <c r="M197">
+        <v>1132.49</v>
+      </c>
+      <c r="N197">
+        <v>286.17750000000001</v>
+      </c>
+      <c r="O197">
+        <v>283.38</v>
+      </c>
+      <c r="P197">
+        <v>360.6</v>
+      </c>
+      <c r="Q197">
+        <v>337.7</v>
+      </c>
+      <c r="R197">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B198">
+        <v>7747.9309999999996</v>
+      </c>
+      <c r="C198">
+        <v>7553.59</v>
+      </c>
+      <c r="D198">
+        <v>292.82</v>
+      </c>
+      <c r="E198">
+        <v>3758.66</v>
+      </c>
+      <c r="F198">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="G198">
+        <v>107.5706</v>
+      </c>
+      <c r="H198">
+        <v>153.94999999999999</v>
+      </c>
+      <c r="I198">
+        <v>92.269300000000001</v>
+      </c>
+      <c r="J198">
+        <v>93.961200000000005</v>
+      </c>
+      <c r="K198">
+        <v>127.8017</v>
+      </c>
+      <c r="L198">
+        <v>914.76</v>
+      </c>
+      <c r="M198">
+        <v>1130.3499999999999</v>
+      </c>
+      <c r="N198">
+        <v>285.2475</v>
+      </c>
+      <c r="O198">
+        <v>283.33999999999997</v>
+      </c>
+      <c r="P198">
+        <v>361.39</v>
+      </c>
+      <c r="Q198">
+        <v>338.23</v>
+      </c>
+      <c r="R198">
+        <v>167.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B199">
+        <v>7731.9939999999997</v>
+      </c>
+      <c r="C199">
+        <v>7522.15</v>
+      </c>
+      <c r="D199">
+        <v>292.45999999999998</v>
+      </c>
+      <c r="E199">
+        <v>3668.47</v>
+      </c>
+      <c r="F199">
+        <v>133.34</v>
+      </c>
+      <c r="G199">
+        <v>107.82250000000001</v>
+      </c>
+      <c r="H199">
+        <v>154.38999999999999</v>
+      </c>
+      <c r="I199">
+        <v>92.750299999999996</v>
+      </c>
+      <c r="J199">
+        <v>94.456299999999999</v>
+      </c>
+      <c r="K199">
+        <v>128.10919999999999</v>
+      </c>
+      <c r="L199">
+        <v>914.53</v>
+      </c>
+      <c r="M199">
+        <v>1131.75</v>
+      </c>
+      <c r="N199">
+        <v>285.14409999999998</v>
+      </c>
+      <c r="O199">
+        <v>283.43</v>
+      </c>
+      <c r="P199">
+        <v>361.06</v>
+      </c>
+      <c r="Q199">
+        <v>338.47</v>
+      </c>
+      <c r="R199">
+        <v>168.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B200">
+        <v>7884.5469999999996</v>
+      </c>
+      <c r="C200">
+        <v>7537.16</v>
+      </c>
+      <c r="D200">
+        <v>295.66000000000003</v>
+      </c>
+      <c r="E200">
+        <v>3738.92</v>
+      </c>
+      <c r="F200">
+        <v>139.07</v>
+      </c>
+      <c r="G200">
+        <v>108.4552</v>
+      </c>
+      <c r="H200">
+        <v>156.34</v>
+      </c>
+      <c r="I200">
+        <v>91.985399999999998</v>
+      </c>
+      <c r="J200">
+        <v>94.079400000000007</v>
+      </c>
+      <c r="K200">
+        <v>127.6219</v>
+      </c>
+      <c r="L200">
+        <v>908.33</v>
+      </c>
+      <c r="M200">
+        <v>1129.32</v>
+      </c>
+      <c r="N200">
+        <v>285.27710000000002</v>
+      </c>
+      <c r="O200">
+        <v>283.86</v>
+      </c>
+      <c r="P200">
+        <v>361.71</v>
+      </c>
+      <c r="Q200">
+        <v>338.71</v>
+      </c>
+      <c r="R200">
+        <v>168.29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B201">
+        <v>7719.0910000000003</v>
+      </c>
+      <c r="C201">
+        <v>7410.04</v>
+      </c>
+      <c r="D201">
+        <v>291.7</v>
+      </c>
+      <c r="E201">
+        <v>3695.78</v>
+      </c>
+      <c r="F201">
+        <v>138.12</v>
+      </c>
+      <c r="G201">
+        <v>107.75709999999999</v>
+      </c>
+      <c r="H201">
+        <v>153.88999999999999</v>
+      </c>
+      <c r="I201">
+        <v>92.455699999999993</v>
+      </c>
+      <c r="J201">
+        <v>94.661299999999997</v>
+      </c>
+      <c r="K201">
+        <v>128.1037</v>
+      </c>
+      <c r="L201">
+        <v>915.35</v>
+      </c>
+      <c r="M201">
+        <v>1134.58</v>
+      </c>
+      <c r="N201">
+        <v>285.97019999999998</v>
+      </c>
+      <c r="O201">
+        <v>283.37</v>
+      </c>
+      <c r="P201">
+        <v>360.98</v>
+      </c>
+      <c r="Q201">
+        <v>337.82</v>
+      </c>
+      <c r="R201">
+        <v>168.41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B202">
+        <v>7603.1440000000002</v>
+      </c>
+      <c r="C202">
+        <v>7498.52</v>
+      </c>
+      <c r="D202">
+        <v>289.35000000000002</v>
+      </c>
+      <c r="E202">
+        <v>3693.33</v>
+      </c>
+      <c r="F202">
+        <v>135.82</v>
+      </c>
+      <c r="G202">
+        <v>107.012</v>
+      </c>
+      <c r="H202">
+        <v>151.76</v>
+      </c>
+      <c r="I202">
+        <v>92.274500000000003</v>
+      </c>
+      <c r="J202">
+        <v>94.137600000000006</v>
+      </c>
+      <c r="K202">
+        <v>127.62649999999999</v>
+      </c>
+      <c r="L202">
+        <v>921.04</v>
+      </c>
+      <c r="M202">
+        <v>1132.99</v>
+      </c>
+      <c r="N202">
+        <v>285.87400000000002</v>
+      </c>
+      <c r="O202">
+        <v>283.79000000000002</v>
+      </c>
+      <c r="P202">
+        <v>361.58</v>
+      </c>
+      <c r="Q202">
+        <v>338.31</v>
+      </c>
+      <c r="R202">
+        <v>167.83</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">

--- a/EquityHedging/data/update_strats/ups_data.xlsx
+++ b/EquityHedging/data/update_strats/ups_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\RMP\EquityHedging\data\update_strats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0245A813-3EED-4C29-9AEE-C965252CD140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C71BE9-6D50-453D-B1B1-63B1FBDB2913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="850" windowWidth="10420" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7790" yWindow="80" windowWidth="10420" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="SpreadsheetBuilder_2" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_3" localSheetId="3" hidden="1">data_original!$A$1:$Q$1</definedName>
     <definedName name="SpreadsheetBuilder_3" hidden="1">data!$A$1:$Q$1</definedName>
-    <definedName name="SpreadsheetBuilder_7" hidden="1">bbg!$A$1:$R$7</definedName>
+    <definedName name="SpreadsheetBuilder_8" hidden="1">bbg!$A$1:$R$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,100 +180,108 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|16727583087644445504</stp>
-        <tr r="M7" s="4"/>
+        <stp>BDH|13293675286086157145</stp>
+        <tr r="L7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|14234006623429924125</stp>
-        <tr r="F7" s="4"/>
+        <stp>BDH|15788701446229380587</stp>
+        <tr r="C7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|11664350796143255550</stp>
-        <tr r="E7" s="4"/>
+        <stp>BDH|14280945124953536224</stp>
+        <tr r="K7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12131352925380315342</stp>
-        <tr r="P7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12059809901744298878</stp>
-        <tr r="Q7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|17414422510344432232</stp>
+        <stp>BDH|13347777784543565070</stp>
         <tr r="I7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|12559626127843371028</stp>
-        <tr r="C7" s="4"/>
+        <stp>BDH|16394412001637310856</stp>
+        <tr r="N7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|13464868775189878053</stp>
-        <tr r="H7" s="4"/>
+        <stp>BDH|15504497475315608268</stp>
+        <tr r="O7" s="4"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|4101088581556967483</stp>
+        <stp>BDH|1917867544945112410</stp>
+        <tr r="G7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8563230619231295451</stp>
+        <tr r="M7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9581376854922930221</stp>
+        <tr r="Q7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|8482114415071448600</stp>
+        <tr r="J7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|4571599057655611840</stp>
+        <tr r="D7" s="4"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5607615982440028195</stp>
+        <tr r="F7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|9292105084307128386</stp>
+        <tr r="P7" s="4"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDH|5756576771104393674</stp>
         <tr r="R7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|2635583659919476254</stp>
-        <tr r="L7" s="4"/>
+        <stp>BDH|4748537713371872184</stp>
+        <tr r="H7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|6875801268774536502</stp>
-        <tr r="G7" s="4"/>
+        <stp>BDH|1798201725663483214</stp>
+        <tr r="E7" s="4"/>
       </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|8640915654669239780</stp>
-        <tr r="N7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6570479873420035104</stp>
+        <stp>BDH|4121516891908523273</stp>
         <tr r="A7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|3029848534948596642</stp>
-        <tr r="K7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6553308138291344783</stp>
-        <tr r="O7" s="4"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6835677029197799680</stp>
-        <tr r="D7" s="4"/>
       </tp>
     </main>
     <main first="bloomberg.rtd">
@@ -412,14 +420,6 @@
         <stp>[ups_data.xlsx]bbg!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="4"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|932440353916099480</stp>
-        <tr r="J7" s="4"/>
       </tp>
     </main>
   </volType>
@@ -689,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11223,6 +11223,1182 @@
         <v>167.83</v>
       </c>
     </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B198">
+        <v>7799.9989999999998</v>
+      </c>
+      <c r="C198">
+        <v>7552.7</v>
+      </c>
+      <c r="D198">
+        <v>294.91000000000003</v>
+      </c>
+      <c r="E198">
+        <v>3768.34</v>
+      </c>
+      <c r="F198">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="G198">
+        <v>107.4717</v>
+      </c>
+      <c r="H198">
+        <v>155.1</v>
+      </c>
+      <c r="I198">
+        <v>91.95</v>
+      </c>
+      <c r="J198">
+        <v>93.663799999999995</v>
+      </c>
+      <c r="K198">
+        <v>127.3352</v>
+      </c>
+      <c r="L198">
+        <v>912.89</v>
+      </c>
+      <c r="M198">
+        <v>1129.33</v>
+      </c>
+      <c r="N198">
+        <v>285.77569999999997</v>
+      </c>
+      <c r="O198">
+        <v>283.67</v>
+      </c>
+      <c r="P198">
+        <v>360.89</v>
+      </c>
+      <c r="Q198">
+        <v>337.97</v>
+      </c>
+      <c r="R198">
+        <v>168.15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B199">
+        <v>8039.2479999999996</v>
+      </c>
+      <c r="C199">
+        <v>7874.3</v>
+      </c>
+      <c r="D199">
+        <v>304.41000000000003</v>
+      </c>
+      <c r="E199">
+        <v>3787.21</v>
+      </c>
+      <c r="F199">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G199">
+        <v>108.80970000000001</v>
+      </c>
+      <c r="H199">
+        <v>158.22</v>
+      </c>
+      <c r="I199">
+        <v>91.649699999999996</v>
+      </c>
+      <c r="J199">
+        <v>93.378299999999996</v>
+      </c>
+      <c r="K199">
+        <v>127.1418</v>
+      </c>
+      <c r="L199">
+        <v>901.17</v>
+      </c>
+      <c r="M199">
+        <v>1124.07</v>
+      </c>
+      <c r="N199">
+        <v>285.27210000000002</v>
+      </c>
+      <c r="O199">
+        <v>282.93</v>
+      </c>
+      <c r="P199">
+        <v>359.86</v>
+      </c>
+      <c r="Q199">
+        <v>337.21</v>
+      </c>
+      <c r="R199">
+        <v>167.52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B200">
+        <v>8023.8059999999996</v>
+      </c>
+      <c r="C200">
+        <v>7791.22</v>
+      </c>
+      <c r="D200">
+        <v>303.75</v>
+      </c>
+      <c r="E200">
+        <v>3749.77</v>
+      </c>
+      <c r="F200">
+        <v>136.03</v>
+      </c>
+      <c r="G200">
+        <v>108.8232</v>
+      </c>
+      <c r="H200">
+        <v>157.88</v>
+      </c>
+      <c r="I200">
+        <v>91.686599999999999</v>
+      </c>
+      <c r="J200">
+        <v>93.567899999999995</v>
+      </c>
+      <c r="K200">
+        <v>127.23180000000001</v>
+      </c>
+      <c r="L200">
+        <v>901.78</v>
+      </c>
+      <c r="M200">
+        <v>1127.03</v>
+      </c>
+      <c r="N200">
+        <v>285.2944</v>
+      </c>
+      <c r="O200">
+        <v>282.56</v>
+      </c>
+      <c r="P200">
+        <v>359.35</v>
+      </c>
+      <c r="Q200">
+        <v>336.62</v>
+      </c>
+      <c r="R200">
+        <v>167.56</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B201">
+        <v>7943.6319999999996</v>
+      </c>
+      <c r="C201">
+        <v>7758.96</v>
+      </c>
+      <c r="D201">
+        <v>301.49</v>
+      </c>
+      <c r="E201">
+        <v>3748.44</v>
+      </c>
+      <c r="F201">
+        <v>135.25</v>
+      </c>
+      <c r="G201">
+        <v>108.6734</v>
+      </c>
+      <c r="H201">
+        <v>157.12</v>
+      </c>
+      <c r="I201">
+        <v>91.7727</v>
+      </c>
+      <c r="J201">
+        <v>93.487499999999997</v>
+      </c>
+      <c r="K201">
+        <v>127.2026</v>
+      </c>
+      <c r="L201">
+        <v>905.09</v>
+      </c>
+      <c r="M201">
+        <v>1127.3399999999999</v>
+      </c>
+      <c r="N201">
+        <v>285.14319999999998</v>
+      </c>
+      <c r="O201">
+        <v>282.74</v>
+      </c>
+      <c r="P201">
+        <v>359.45</v>
+      </c>
+      <c r="Q201">
+        <v>336.46</v>
+      </c>
+      <c r="R201">
+        <v>167.64</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B202">
+        <v>7721.44</v>
+      </c>
+      <c r="C202">
+        <v>7629.67</v>
+      </c>
+      <c r="D202">
+        <v>294.45999999999998</v>
+      </c>
+      <c r="E202">
+        <v>3707.28</v>
+      </c>
+      <c r="F202">
+        <v>133.49</v>
+      </c>
+      <c r="G202">
+        <v>107.8449</v>
+      </c>
+      <c r="H202">
+        <v>154.28</v>
+      </c>
+      <c r="I202">
+        <v>92.298199999999994</v>
+      </c>
+      <c r="J202">
+        <v>93.977900000000005</v>
+      </c>
+      <c r="K202">
+        <v>127.58329999999999</v>
+      </c>
+      <c r="L202">
+        <v>915.5</v>
+      </c>
+      <c r="M202">
+        <v>1130.76</v>
+      </c>
+      <c r="N202">
+        <v>284.07690000000002</v>
+      </c>
+      <c r="O202">
+        <v>282.94</v>
+      </c>
+      <c r="P202">
+        <v>359.78</v>
+      </c>
+      <c r="Q202">
+        <v>336.72</v>
+      </c>
+      <c r="R202">
+        <v>167.57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B203">
+        <v>7663.5820000000003</v>
+      </c>
+      <c r="C203">
+        <v>7587.66</v>
+      </c>
+      <c r="D203">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="E203">
+        <v>3707.28</v>
+      </c>
+      <c r="F203">
+        <v>133.49</v>
+      </c>
+      <c r="G203">
+        <v>107.6786</v>
+      </c>
+      <c r="H203">
+        <v>153.43</v>
+      </c>
+      <c r="I203">
+        <v>92.628900000000002</v>
+      </c>
+      <c r="J203">
+        <v>94.2744</v>
+      </c>
+      <c r="K203">
+        <v>127.9342</v>
+      </c>
+      <c r="L203">
+        <v>917.96</v>
+      </c>
+      <c r="M203">
+        <v>1129.47</v>
+      </c>
+      <c r="N203">
+        <v>283.1961</v>
+      </c>
+      <c r="O203">
+        <v>282.94</v>
+      </c>
+      <c r="P203">
+        <v>359.96</v>
+      </c>
+      <c r="Q203">
+        <v>337.03</v>
+      </c>
+      <c r="R203">
+        <v>167.35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B204">
+        <v>7613.7529999999997</v>
+      </c>
+      <c r="C204">
+        <v>7550.3</v>
+      </c>
+      <c r="D204">
+        <v>288.77</v>
+      </c>
+      <c r="E204">
+        <v>3651.3</v>
+      </c>
+      <c r="F204">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="G204">
+        <v>107.4308</v>
+      </c>
+      <c r="H204">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="I204">
+        <v>92.529499999999999</v>
+      </c>
+      <c r="J204">
+        <v>94.415599999999998</v>
+      </c>
+      <c r="K204">
+        <v>127.8561</v>
+      </c>
+      <c r="L204">
+        <v>919.72</v>
+      </c>
+      <c r="M204">
+        <v>1129.6400000000001</v>
+      </c>
+      <c r="N204">
+        <v>283.03289999999998</v>
+      </c>
+      <c r="O204">
+        <v>282.97000000000003</v>
+      </c>
+      <c r="P204">
+        <v>359.52</v>
+      </c>
+      <c r="Q204">
+        <v>337.51</v>
+      </c>
+      <c r="R204">
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B205">
+        <v>7588.9009999999998</v>
+      </c>
+      <c r="C205">
+        <v>7530.36</v>
+      </c>
+      <c r="D205">
+        <v>287.87</v>
+      </c>
+      <c r="E205">
+        <v>3645.6</v>
+      </c>
+      <c r="F205">
+        <v>132.33000000000001</v>
+      </c>
+      <c r="G205">
+        <v>107.0826</v>
+      </c>
+      <c r="H205">
+        <v>151.38999999999999</v>
+      </c>
+      <c r="I205">
+        <v>92.517899999999997</v>
+      </c>
+      <c r="J205">
+        <v>94.445899999999995</v>
+      </c>
+      <c r="K205">
+        <v>127.8738</v>
+      </c>
+      <c r="L205">
+        <v>921.38</v>
+      </c>
+      <c r="M205">
+        <v>1130.51</v>
+      </c>
+      <c r="N205">
+        <v>283.2722</v>
+      </c>
+      <c r="O205">
+        <v>283.23</v>
+      </c>
+      <c r="P205">
+        <v>359.81</v>
+      </c>
+      <c r="Q205">
+        <v>338.05</v>
+      </c>
+      <c r="R205">
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B206">
+        <v>7786.9560000000001</v>
+      </c>
+      <c r="C206">
+        <v>7600.13</v>
+      </c>
+      <c r="D206">
+        <v>292.25</v>
+      </c>
+      <c r="E206">
+        <v>3626.85</v>
+      </c>
+      <c r="F206">
+        <v>130.62</v>
+      </c>
+      <c r="G206">
+        <v>107.8008</v>
+      </c>
+      <c r="H206">
+        <v>154.27000000000001</v>
+      </c>
+      <c r="I206">
+        <v>92.213899999999995</v>
+      </c>
+      <c r="J206">
+        <v>94.251300000000001</v>
+      </c>
+      <c r="K206">
+        <v>127.62309999999999</v>
+      </c>
+      <c r="L206">
+        <v>913.3</v>
+      </c>
+      <c r="M206">
+        <v>1128.18</v>
+      </c>
+      <c r="N206">
+        <v>282.20999999999998</v>
+      </c>
+      <c r="O206">
+        <v>282.43</v>
+      </c>
+      <c r="P206">
+        <v>358.52</v>
+      </c>
+      <c r="Q206">
+        <v>335.61</v>
+      </c>
+      <c r="R206">
+        <v>167.18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B207">
+        <v>7602.9880000000003</v>
+      </c>
+      <c r="C207">
+        <v>7643.82</v>
+      </c>
+      <c r="D207">
+        <v>288.79000000000002</v>
+      </c>
+      <c r="E207">
+        <v>3601.78</v>
+      </c>
+      <c r="F207">
+        <v>129.24</v>
+      </c>
+      <c r="G207">
+        <v>106.96559999999999</v>
+      </c>
+      <c r="H207">
+        <v>151.13999999999999</v>
+      </c>
+      <c r="I207">
+        <v>92.507999999999996</v>
+      </c>
+      <c r="J207">
+        <v>94.310100000000006</v>
+      </c>
+      <c r="K207">
+        <v>127.8613</v>
+      </c>
+      <c r="L207">
+        <v>920.98</v>
+      </c>
+      <c r="M207">
+        <v>1126.3</v>
+      </c>
+      <c r="N207">
+        <v>280.7312</v>
+      </c>
+      <c r="O207">
+        <v>282.77</v>
+      </c>
+      <c r="P207">
+        <v>359.24</v>
+      </c>
+      <c r="Q207">
+        <v>336.79</v>
+      </c>
+      <c r="R207">
+        <v>167.06</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B208">
+        <v>7804.326</v>
+      </c>
+      <c r="C208">
+        <v>7779.25</v>
+      </c>
+      <c r="D208">
+        <v>294.85000000000002</v>
+      </c>
+      <c r="E208">
+        <v>3603.71</v>
+      </c>
+      <c r="F208">
+        <v>128.24</v>
+      </c>
+      <c r="G208">
+        <v>107.6793</v>
+      </c>
+      <c r="H208">
+        <v>154.51</v>
+      </c>
+      <c r="I208">
+        <v>92.000799999999998</v>
+      </c>
+      <c r="J208">
+        <v>93.8352</v>
+      </c>
+      <c r="K208">
+        <v>127.3467</v>
+      </c>
+      <c r="L208">
+        <v>913.51</v>
+      </c>
+      <c r="M208">
+        <v>1127.1099999999999</v>
+      </c>
+      <c r="N208">
+        <v>279.83269999999999</v>
+      </c>
+      <c r="O208">
+        <v>282.45999999999998</v>
+      </c>
+      <c r="P208">
+        <v>358.5</v>
+      </c>
+      <c r="Q208">
+        <v>336.22</v>
+      </c>
+      <c r="R208">
+        <v>167.46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B209">
+        <v>7893.6769999999997</v>
+      </c>
+      <c r="C209">
+        <v>7829.4</v>
+      </c>
+      <c r="D209">
+        <v>298.16000000000003</v>
+      </c>
+      <c r="E209">
+        <v>3624.94</v>
+      </c>
+      <c r="F209">
+        <v>128.65</v>
+      </c>
+      <c r="G209">
+        <v>107.91079999999999</v>
+      </c>
+      <c r="H209">
+        <v>155.69</v>
+      </c>
+      <c r="I209">
+        <v>91.972399999999993</v>
+      </c>
+      <c r="J209">
+        <v>93.803299999999993</v>
+      </c>
+      <c r="K209">
+        <v>127.3798</v>
+      </c>
+      <c r="L209">
+        <v>909.8</v>
+      </c>
+      <c r="M209">
+        <v>1125.47</v>
+      </c>
+      <c r="N209">
+        <v>279.613</v>
+      </c>
+      <c r="O209">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="P209">
+        <v>357.71</v>
+      </c>
+      <c r="Q209">
+        <v>335.1</v>
+      </c>
+      <c r="R209">
+        <v>167.24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B210">
+        <v>7840.9939999999997</v>
+      </c>
+      <c r="C210">
+        <v>7846.16</v>
+      </c>
+      <c r="D210">
+        <v>295.67</v>
+      </c>
+      <c r="E210">
+        <v>3569.45</v>
+      </c>
+      <c r="F210">
+        <v>125.47</v>
+      </c>
+      <c r="G210">
+        <v>107.7871</v>
+      </c>
+      <c r="H210">
+        <v>154.51</v>
+      </c>
+      <c r="I210">
+        <v>91.997100000000003</v>
+      </c>
+      <c r="J210">
+        <v>93.832899999999995</v>
+      </c>
+      <c r="K210">
+        <v>127.3573</v>
+      </c>
+      <c r="L210">
+        <v>912.84</v>
+      </c>
+      <c r="M210">
+        <v>1127.3</v>
+      </c>
+      <c r="N210">
+        <v>279.58870000000002</v>
+      </c>
+      <c r="O210">
+        <v>282.04000000000002</v>
+      </c>
+      <c r="P210">
+        <v>357.83</v>
+      </c>
+      <c r="Q210">
+        <v>335.49</v>
+      </c>
+      <c r="R210">
+        <v>167.45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B211">
+        <v>7779.5249999999996</v>
+      </c>
+      <c r="C211">
+        <v>7894.99</v>
+      </c>
+      <c r="D211">
+        <v>294.56</v>
+      </c>
+      <c r="E211">
+        <v>3530.66</v>
+      </c>
+      <c r="F211">
+        <v>122.79</v>
+      </c>
+      <c r="G211">
+        <v>107.1893</v>
+      </c>
+      <c r="H211">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="I211">
+        <v>91.853200000000001</v>
+      </c>
+      <c r="J211">
+        <v>93.733999999999995</v>
+      </c>
+      <c r="K211">
+        <v>127.2277</v>
+      </c>
+      <c r="L211">
+        <v>916.29</v>
+      </c>
+      <c r="M211">
+        <v>1126.33</v>
+      </c>
+      <c r="N211">
+        <v>279.94369999999998</v>
+      </c>
+      <c r="O211">
+        <v>282.23</v>
+      </c>
+      <c r="P211">
+        <v>358.14</v>
+      </c>
+      <c r="Q211">
+        <v>335.54</v>
+      </c>
+      <c r="R211">
+        <v>167.43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B212">
+        <v>7964.2479999999996</v>
+      </c>
+      <c r="C212">
+        <v>7858.34</v>
+      </c>
+      <c r="D212">
+        <v>298.16000000000003</v>
+      </c>
+      <c r="E212">
+        <v>3496.25</v>
+      </c>
+      <c r="F212">
+        <v>119.14</v>
+      </c>
+      <c r="G212">
+        <v>108.43380000000001</v>
+      </c>
+      <c r="H212">
+        <v>156.51</v>
+      </c>
+      <c r="I212">
+        <v>91.776399999999995</v>
+      </c>
+      <c r="J212">
+        <v>93.625900000000001</v>
+      </c>
+      <c r="K212">
+        <v>127.1782</v>
+      </c>
+      <c r="L212">
+        <v>908.08</v>
+      </c>
+      <c r="M212">
+        <v>1122.72</v>
+      </c>
+      <c r="N212">
+        <v>277.82429999999999</v>
+      </c>
+      <c r="O212">
+        <v>282.33</v>
+      </c>
+      <c r="P212">
+        <v>358.21</v>
+      </c>
+      <c r="Q212">
+        <v>335.55</v>
+      </c>
+      <c r="R212">
+        <v>167.08</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B213">
+        <v>8058.8789999999999</v>
+      </c>
+      <c r="C213">
+        <v>7974.19</v>
+      </c>
+      <c r="D213">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="E213">
+        <v>3496.08</v>
+      </c>
+      <c r="F213">
+        <v>117.85</v>
+      </c>
+      <c r="G213">
+        <v>108.6968</v>
+      </c>
+      <c r="H213">
+        <v>157.82</v>
+      </c>
+      <c r="I213">
+        <v>91.783000000000001</v>
+      </c>
+      <c r="J213">
+        <v>93.701599999999999</v>
+      </c>
+      <c r="K213">
+        <v>127.2093</v>
+      </c>
+      <c r="L213">
+        <v>904.57</v>
+      </c>
+      <c r="M213">
+        <v>1123.1199999999999</v>
+      </c>
+      <c r="N213">
+        <v>278.11470000000003</v>
+      </c>
+      <c r="O213">
+        <v>282.42</v>
+      </c>
+      <c r="P213">
+        <v>358.28</v>
+      </c>
+      <c r="Q213">
+        <v>335.66</v>
+      </c>
+      <c r="R213">
+        <v>166.92</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B214">
+        <v>8190.018</v>
+      </c>
+      <c r="C214">
+        <v>8104.81</v>
+      </c>
+      <c r="D214">
+        <v>305.52999999999997</v>
+      </c>
+      <c r="E214">
+        <v>3571.48</v>
+      </c>
+      <c r="F214">
+        <v>122.56</v>
+      </c>
+      <c r="G214">
+        <v>108.93219999999999</v>
+      </c>
+      <c r="H214">
+        <v>159.36000000000001</v>
+      </c>
+      <c r="I214">
+        <v>91.517799999999994</v>
+      </c>
+      <c r="J214">
+        <v>93.432900000000004</v>
+      </c>
+      <c r="K214">
+        <v>126.99250000000001</v>
+      </c>
+      <c r="L214">
+        <v>899.98</v>
+      </c>
+      <c r="M214">
+        <v>1121.57</v>
+      </c>
+      <c r="N214">
+        <v>277.6687</v>
+      </c>
+      <c r="O214">
+        <v>282.5</v>
+      </c>
+      <c r="P214">
+        <v>358.21</v>
+      </c>
+      <c r="Q214">
+        <v>335.6</v>
+      </c>
+      <c r="R214">
+        <v>166.88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B215">
+        <v>8129.6229999999996</v>
+      </c>
+      <c r="C215">
+        <v>8149.42</v>
+      </c>
+      <c r="D215">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="E215">
+        <v>3607.71</v>
+      </c>
+      <c r="F215">
+        <v>125.04</v>
+      </c>
+      <c r="G215">
+        <v>108.39</v>
+      </c>
+      <c r="H215">
+        <v>158.46</v>
+      </c>
+      <c r="I215">
+        <v>91.381600000000006</v>
+      </c>
+      <c r="J215">
+        <v>93.253</v>
+      </c>
+      <c r="K215">
+        <v>126.8927</v>
+      </c>
+      <c r="L215">
+        <v>903.32</v>
+      </c>
+      <c r="M215">
+        <v>1125.82</v>
+      </c>
+      <c r="N215">
+        <v>277.39920000000001</v>
+      </c>
+      <c r="O215">
+        <v>282.8</v>
+      </c>
+      <c r="P215">
+        <v>358.71</v>
+      </c>
+      <c r="Q215">
+        <v>335.66</v>
+      </c>
+      <c r="R215">
+        <v>166.87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B216">
+        <v>8080.32</v>
+      </c>
+      <c r="C216">
+        <v>8147.6</v>
+      </c>
+      <c r="D216">
+        <v>304.58999999999997</v>
+      </c>
+      <c r="E216">
+        <v>3636.54</v>
+      </c>
+      <c r="F216">
+        <v>126.73</v>
+      </c>
+      <c r="G216">
+        <v>107.7576</v>
+      </c>
+      <c r="H216">
+        <v>157.78</v>
+      </c>
+      <c r="I216">
+        <v>91.307299999999998</v>
+      </c>
+      <c r="J216">
+        <v>93.159300000000002</v>
+      </c>
+      <c r="K216">
+        <v>126.8373</v>
+      </c>
+      <c r="L216">
+        <v>906</v>
+      </c>
+      <c r="M216">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="N216">
+        <v>278.57459999999998</v>
+      </c>
+      <c r="O216">
+        <v>282.94</v>
+      </c>
+      <c r="P216">
+        <v>358.95</v>
+      </c>
+      <c r="Q216">
+        <v>335.91</v>
+      </c>
+      <c r="R216">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B217">
+        <v>8280.1059999999998</v>
+      </c>
+      <c r="C217">
+        <v>8166.85</v>
+      </c>
+      <c r="D217">
+        <v>308.14</v>
+      </c>
+      <c r="E217">
+        <v>3625.9</v>
+      </c>
+      <c r="F217">
+        <v>125.73</v>
+      </c>
+      <c r="G217">
+        <v>108.592</v>
+      </c>
+      <c r="H217">
+        <v>160.18</v>
+      </c>
+      <c r="I217">
+        <v>91.210499999999996</v>
+      </c>
+      <c r="J217">
+        <v>93.089299999999994</v>
+      </c>
+      <c r="K217">
+        <v>126.7839</v>
+      </c>
+      <c r="L217">
+        <v>897.8</v>
+      </c>
+      <c r="M217">
+        <v>1127.23</v>
+      </c>
+      <c r="N217">
+        <v>277.21319999999997</v>
+      </c>
+      <c r="O217">
+        <v>282.98</v>
+      </c>
+      <c r="P217">
+        <v>359.13</v>
+      </c>
+      <c r="Q217">
+        <v>336.09</v>
+      </c>
+      <c r="R217">
+        <v>167.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B218">
+        <v>8218.7049999999999</v>
+      </c>
+      <c r="C218">
+        <v>8179.88</v>
+      </c>
+      <c r="D218">
+        <v>306.81</v>
+      </c>
+      <c r="E218">
+        <v>3610.31</v>
+      </c>
+      <c r="F218">
+        <v>124.25</v>
+      </c>
+      <c r="G218">
+        <v>108.08839999999999</v>
+      </c>
+      <c r="H218">
+        <v>159.6</v>
+      </c>
+      <c r="I218">
+        <v>91.190600000000003</v>
+      </c>
+      <c r="J218">
+        <v>93.060400000000001</v>
+      </c>
+      <c r="K218">
+        <v>126.7722</v>
+      </c>
+      <c r="L218">
+        <v>901.15</v>
+      </c>
+      <c r="M218">
+        <v>1128.26</v>
+      </c>
+      <c r="N218">
+        <v>275.762</v>
+      </c>
+      <c r="O218">
+        <v>283.58</v>
+      </c>
+      <c r="P218">
+        <v>359.44</v>
+      </c>
+      <c r="Q218">
+        <v>336.89</v>
+      </c>
+      <c r="R218">
+        <v>167.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -61804,8 +62980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="R202" sqref="A180:R202"/>
+    <sheetView topLeftCell="K201" workbookViewId="0">
+      <selection activeCell="A223" sqref="A202:R223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61841,7 +63017,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>44834</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -62025,74 +63201,74 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=196")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=217")</f>
         <v>44561</v>
       </c>
       <c r="B7">
         <v>9986.6980000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>9491.1</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>389.04</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>5233.6899999999996</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>214.08</v>
       </c>
       <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(G$4,G$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>122.8967</v>
       </c>
       <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(H$4,H$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>175.14</v>
       </c>
       <c r="I7">
-        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(I$4,I$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>98.672499999999999</v>
       </c>
       <c r="J7">
-        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(J$4,J$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>101.2684</v>
       </c>
       <c r="K7">
-        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(K$4,K$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>135.21369999999999</v>
       </c>
       <c r="L7">
-        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(L$4,L$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>835.24</v>
       </c>
       <c r="M7">
-        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(M$4,M$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>1088</v>
       </c>
       <c r="N7">
-        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(N$4,N$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>297.6395</v>
       </c>
       <c r="O7">
-        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(O$4,O$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>287.23</v>
       </c>
       <c r="P7">
-        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(P$4,P$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>368.34</v>
       </c>
       <c r="Q7">
-        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(Q$4,Q$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>345.76</v>
       </c>
       <c r="R7">
-        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=196")</f>
+        <f>_xll.BDH(R$4,R$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=217")</f>
         <v>169.35</v>
       </c>
     </row>
@@ -73017,69 +74193,1182 @@
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B203">
+        <v>7799.9989999999998</v>
+      </c>
+      <c r="C203">
+        <v>7552.7</v>
+      </c>
+      <c r="D203">
+        <v>294.91000000000003</v>
+      </c>
+      <c r="E203">
+        <v>3768.34</v>
+      </c>
+      <c r="F203">
+        <v>138.41999999999999</v>
+      </c>
+      <c r="G203">
+        <v>107.4717</v>
+      </c>
+      <c r="H203">
+        <v>155.1</v>
+      </c>
+      <c r="I203">
+        <v>91.95</v>
+      </c>
+      <c r="J203">
+        <v>93.663799999999995</v>
+      </c>
+      <c r="K203">
+        <v>127.3352</v>
+      </c>
+      <c r="L203">
+        <v>912.89</v>
+      </c>
+      <c r="M203">
+        <v>1129.33</v>
+      </c>
+      <c r="N203">
+        <v>285.77569999999997</v>
+      </c>
+      <c r="O203">
+        <v>283.67</v>
+      </c>
+      <c r="P203">
+        <v>360.89</v>
+      </c>
+      <c r="Q203">
+        <v>337.97</v>
+      </c>
+      <c r="R203">
+        <v>168.15</v>
+      </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B204">
+        <v>8039.2479999999996</v>
+      </c>
+      <c r="C204">
+        <v>7874.3</v>
+      </c>
+      <c r="D204">
+        <v>304.41000000000003</v>
+      </c>
+      <c r="E204">
+        <v>3787.21</v>
+      </c>
+      <c r="F204">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G204">
+        <v>108.80970000000001</v>
+      </c>
+      <c r="H204">
+        <v>158.22</v>
+      </c>
+      <c r="I204">
+        <v>91.649699999999996</v>
+      </c>
+      <c r="J204">
+        <v>93.378299999999996</v>
+      </c>
+      <c r="K204">
+        <v>127.1418</v>
+      </c>
+      <c r="L204">
+        <v>901.17</v>
+      </c>
+      <c r="M204">
+        <v>1124.07</v>
+      </c>
+      <c r="N204">
+        <v>285.27210000000002</v>
+      </c>
+      <c r="O204">
+        <v>282.93</v>
+      </c>
+      <c r="P204">
+        <v>359.86</v>
+      </c>
+      <c r="Q204">
+        <v>337.21</v>
+      </c>
+      <c r="R204">
+        <v>167.52</v>
+      </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B205">
+        <v>8023.8059999999996</v>
+      </c>
+      <c r="C205">
+        <v>7791.22</v>
+      </c>
+      <c r="D205">
+        <v>303.75</v>
+      </c>
+      <c r="E205">
+        <v>3749.77</v>
+      </c>
+      <c r="F205">
+        <v>136.03</v>
+      </c>
+      <c r="G205">
+        <v>108.8232</v>
+      </c>
+      <c r="H205">
+        <v>157.88</v>
+      </c>
+      <c r="I205">
+        <v>91.686599999999999</v>
+      </c>
+      <c r="J205">
+        <v>93.567899999999995</v>
+      </c>
+      <c r="K205">
+        <v>127.23180000000001</v>
+      </c>
+      <c r="L205">
+        <v>901.78</v>
+      </c>
+      <c r="M205">
+        <v>1127.03</v>
+      </c>
+      <c r="N205">
+        <v>285.2944</v>
+      </c>
+      <c r="O205">
+        <v>282.56</v>
+      </c>
+      <c r="P205">
+        <v>359.35</v>
+      </c>
+      <c r="Q205">
+        <v>336.62</v>
+      </c>
+      <c r="R205">
+        <v>167.56</v>
+      </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B206">
+        <v>7943.6319999999996</v>
+      </c>
+      <c r="C206">
+        <v>7758.96</v>
+      </c>
+      <c r="D206">
+        <v>301.49</v>
+      </c>
+      <c r="E206">
+        <v>3748.44</v>
+      </c>
+      <c r="F206">
+        <v>135.25</v>
+      </c>
+      <c r="G206">
+        <v>108.6734</v>
+      </c>
+      <c r="H206">
+        <v>157.12</v>
+      </c>
+      <c r="I206">
+        <v>91.7727</v>
+      </c>
+      <c r="J206">
+        <v>93.487499999999997</v>
+      </c>
+      <c r="K206">
+        <v>127.2026</v>
+      </c>
+      <c r="L206">
+        <v>905.09</v>
+      </c>
+      <c r="M206">
+        <v>1127.3399999999999</v>
+      </c>
+      <c r="N206">
+        <v>285.14319999999998</v>
+      </c>
+      <c r="O206">
+        <v>282.74</v>
+      </c>
+      <c r="P206">
+        <v>359.45</v>
+      </c>
+      <c r="Q206">
+        <v>336.46</v>
+      </c>
+      <c r="R206">
+        <v>167.64</v>
+      </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B207">
+        <v>7721.44</v>
+      </c>
+      <c r="C207">
+        <v>7629.67</v>
+      </c>
+      <c r="D207">
+        <v>294.45999999999998</v>
+      </c>
+      <c r="E207">
+        <v>3707.28</v>
+      </c>
+      <c r="F207">
+        <v>133.49</v>
+      </c>
+      <c r="G207">
+        <v>107.8449</v>
+      </c>
+      <c r="H207">
+        <v>154.28</v>
+      </c>
+      <c r="I207">
+        <v>92.298199999999994</v>
+      </c>
+      <c r="J207">
+        <v>93.977900000000005</v>
+      </c>
+      <c r="K207">
+        <v>127.58329999999999</v>
+      </c>
+      <c r="L207">
+        <v>915.5</v>
+      </c>
+      <c r="M207">
+        <v>1130.76</v>
+      </c>
+      <c r="N207">
+        <v>284.07690000000002</v>
+      </c>
+      <c r="O207">
+        <v>282.94</v>
+      </c>
+      <c r="P207">
+        <v>359.78</v>
+      </c>
+      <c r="Q207">
+        <v>336.72</v>
+      </c>
+      <c r="R207">
+        <v>167.57</v>
+      </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B208">
+        <v>7663.5820000000003</v>
+      </c>
+      <c r="C208">
+        <v>7587.66</v>
+      </c>
+      <c r="D208">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="E208">
+        <v>3707.28</v>
+      </c>
+      <c r="F208">
+        <v>133.49</v>
+      </c>
+      <c r="G208">
+        <v>107.6786</v>
+      </c>
+      <c r="H208">
+        <v>153.43</v>
+      </c>
+      <c r="I208">
+        <v>92.628900000000002</v>
+      </c>
+      <c r="J208">
+        <v>94.2744</v>
+      </c>
+      <c r="K208">
+        <v>127.9342</v>
+      </c>
+      <c r="L208">
+        <v>917.96</v>
+      </c>
+      <c r="M208">
+        <v>1129.47</v>
+      </c>
+      <c r="N208">
+        <v>283.1961</v>
+      </c>
+      <c r="O208">
+        <v>282.94</v>
+      </c>
+      <c r="P208">
+        <v>359.96</v>
+      </c>
+      <c r="Q208">
+        <v>337.03</v>
+      </c>
+      <c r="R208">
+        <v>167.35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B209">
+        <v>7613.7529999999997</v>
+      </c>
+      <c r="C209">
+        <v>7550.3</v>
+      </c>
+      <c r="D209">
+        <v>288.77</v>
+      </c>
+      <c r="E209">
+        <v>3651.3</v>
+      </c>
+      <c r="F209">
+        <v>131.44999999999999</v>
+      </c>
+      <c r="G209">
+        <v>107.4308</v>
+      </c>
+      <c r="H209">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="I209">
+        <v>92.529499999999999</v>
+      </c>
+      <c r="J209">
+        <v>94.415599999999998</v>
+      </c>
+      <c r="K209">
+        <v>127.8561</v>
+      </c>
+      <c r="L209">
+        <v>919.72</v>
+      </c>
+      <c r="M209">
+        <v>1129.6400000000001</v>
+      </c>
+      <c r="N209">
+        <v>283.03289999999998</v>
+      </c>
+      <c r="O209">
+        <v>282.97000000000003</v>
+      </c>
+      <c r="P209">
+        <v>359.52</v>
+      </c>
+      <c r="Q209">
+        <v>337.51</v>
+      </c>
+      <c r="R209">
+        <v>167.32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B210">
+        <v>7588.9009999999998</v>
+      </c>
+      <c r="C210">
+        <v>7530.36</v>
+      </c>
+      <c r="D210">
+        <v>287.87</v>
+      </c>
+      <c r="E210">
+        <v>3645.6</v>
+      </c>
+      <c r="F210">
+        <v>132.33000000000001</v>
+      </c>
+      <c r="G210">
+        <v>107.0826</v>
+      </c>
+      <c r="H210">
+        <v>151.38999999999999</v>
+      </c>
+      <c r="I210">
+        <v>92.517899999999997</v>
+      </c>
+      <c r="J210">
+        <v>94.445899999999995</v>
+      </c>
+      <c r="K210">
+        <v>127.8738</v>
+      </c>
+      <c r="L210">
+        <v>921.38</v>
+      </c>
+      <c r="M210">
+        <v>1130.51</v>
+      </c>
+      <c r="N210">
+        <v>283.2722</v>
+      </c>
+      <c r="O210">
+        <v>283.23</v>
+      </c>
+      <c r="P210">
+        <v>359.81</v>
+      </c>
+      <c r="Q210">
+        <v>338.05</v>
+      </c>
+      <c r="R210">
+        <v>167.47</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B211">
+        <v>7786.9560000000001</v>
+      </c>
+      <c r="C211">
+        <v>7600.13</v>
+      </c>
+      <c r="D211">
+        <v>292.25</v>
+      </c>
+      <c r="E211">
+        <v>3626.85</v>
+      </c>
+      <c r="F211">
+        <v>130.62</v>
+      </c>
+      <c r="G211">
+        <v>107.8008</v>
+      </c>
+      <c r="H211">
+        <v>154.27000000000001</v>
+      </c>
+      <c r="I211">
+        <v>92.213899999999995</v>
+      </c>
+      <c r="J211">
+        <v>94.251300000000001</v>
+      </c>
+      <c r="K211">
+        <v>127.62309999999999</v>
+      </c>
+      <c r="L211">
+        <v>913.3</v>
+      </c>
+      <c r="M211">
+        <v>1128.18</v>
+      </c>
+      <c r="N211">
+        <v>282.20999999999998</v>
+      </c>
+      <c r="O211">
+        <v>282.43</v>
+      </c>
+      <c r="P211">
+        <v>358.52</v>
+      </c>
+      <c r="Q211">
+        <v>335.61</v>
+      </c>
+      <c r="R211">
+        <v>167.18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B212">
+        <v>7602.9880000000003</v>
+      </c>
+      <c r="C212">
+        <v>7643.82</v>
+      </c>
+      <c r="D212">
+        <v>288.79000000000002</v>
+      </c>
+      <c r="E212">
+        <v>3601.78</v>
+      </c>
+      <c r="F212">
+        <v>129.24</v>
+      </c>
+      <c r="G212">
+        <v>106.96559999999999</v>
+      </c>
+      <c r="H212">
+        <v>151.13999999999999</v>
+      </c>
+      <c r="I212">
+        <v>92.507999999999996</v>
+      </c>
+      <c r="J212">
+        <v>94.310100000000006</v>
+      </c>
+      <c r="K212">
+        <v>127.8613</v>
+      </c>
+      <c r="L212">
+        <v>920.98</v>
+      </c>
+      <c r="M212">
+        <v>1126.3</v>
+      </c>
+      <c r="N212">
+        <v>280.7312</v>
+      </c>
+      <c r="O212">
+        <v>282.77</v>
+      </c>
+      <c r="P212">
+        <v>359.24</v>
+      </c>
+      <c r="Q212">
+        <v>336.79</v>
+      </c>
+      <c r="R212">
+        <v>167.06</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B213">
+        <v>7804.326</v>
+      </c>
+      <c r="C213">
+        <v>7779.25</v>
+      </c>
+      <c r="D213">
+        <v>294.85000000000002</v>
+      </c>
+      <c r="E213">
+        <v>3603.71</v>
+      </c>
+      <c r="F213">
+        <v>128.24</v>
+      </c>
+      <c r="G213">
+        <v>107.6793</v>
+      </c>
+      <c r="H213">
+        <v>154.51</v>
+      </c>
+      <c r="I213">
+        <v>92.000799999999998</v>
+      </c>
+      <c r="J213">
+        <v>93.8352</v>
+      </c>
+      <c r="K213">
+        <v>127.3467</v>
+      </c>
+      <c r="L213">
+        <v>913.51</v>
+      </c>
+      <c r="M213">
+        <v>1127.1099999999999</v>
+      </c>
+      <c r="N213">
+        <v>279.83269999999999</v>
+      </c>
+      <c r="O213">
+        <v>282.45999999999998</v>
+      </c>
+      <c r="P213">
+        <v>358.5</v>
+      </c>
+      <c r="Q213">
+        <v>336.22</v>
+      </c>
+      <c r="R213">
+        <v>167.46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B214">
+        <v>7893.6769999999997</v>
+      </c>
+      <c r="C214">
+        <v>7829.4</v>
+      </c>
+      <c r="D214">
+        <v>298.16000000000003</v>
+      </c>
+      <c r="E214">
+        <v>3624.94</v>
+      </c>
+      <c r="F214">
+        <v>128.65</v>
+      </c>
+      <c r="G214">
+        <v>107.91079999999999</v>
+      </c>
+      <c r="H214">
+        <v>155.69</v>
+      </c>
+      <c r="I214">
+        <v>91.972399999999993</v>
+      </c>
+      <c r="J214">
+        <v>93.803299999999993</v>
+      </c>
+      <c r="K214">
+        <v>127.3798</v>
+      </c>
+      <c r="L214">
+        <v>909.8</v>
+      </c>
+      <c r="M214">
+        <v>1125.47</v>
+      </c>
+      <c r="N214">
+        <v>279.613</v>
+      </c>
+      <c r="O214">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="P214">
+        <v>357.71</v>
+      </c>
+      <c r="Q214">
+        <v>335.1</v>
+      </c>
+      <c r="R214">
+        <v>167.24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B215">
+        <v>7840.9939999999997</v>
+      </c>
+      <c r="C215">
+        <v>7846.16</v>
+      </c>
+      <c r="D215">
+        <v>295.67</v>
+      </c>
+      <c r="E215">
+        <v>3569.45</v>
+      </c>
+      <c r="F215">
+        <v>125.47</v>
+      </c>
+      <c r="G215">
+        <v>107.7871</v>
+      </c>
+      <c r="H215">
+        <v>154.51</v>
+      </c>
+      <c r="I215">
+        <v>91.997100000000003</v>
+      </c>
+      <c r="J215">
+        <v>93.832899999999995</v>
+      </c>
+      <c r="K215">
+        <v>127.3573</v>
+      </c>
+      <c r="L215">
+        <v>912.84</v>
+      </c>
+      <c r="M215">
+        <v>1127.3</v>
+      </c>
+      <c r="N215">
+        <v>279.58870000000002</v>
+      </c>
+      <c r="O215">
+        <v>282.04000000000002</v>
+      </c>
+      <c r="P215">
+        <v>357.83</v>
+      </c>
+      <c r="Q215">
+        <v>335.49</v>
+      </c>
+      <c r="R215">
+        <v>167.45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B216">
+        <v>7779.5249999999996</v>
+      </c>
+      <c r="C216">
+        <v>7894.99</v>
+      </c>
+      <c r="D216">
+        <v>294.56</v>
+      </c>
+      <c r="E216">
+        <v>3530.66</v>
+      </c>
+      <c r="F216">
+        <v>122.79</v>
+      </c>
+      <c r="G216">
+        <v>107.1893</v>
+      </c>
+      <c r="H216">
+        <v>152.91999999999999</v>
+      </c>
+      <c r="I216">
+        <v>91.853200000000001</v>
+      </c>
+      <c r="J216">
+        <v>93.733999999999995</v>
+      </c>
+      <c r="K216">
+        <v>127.2277</v>
+      </c>
+      <c r="L216">
+        <v>916.29</v>
+      </c>
+      <c r="M216">
+        <v>1126.33</v>
+      </c>
+      <c r="N216">
+        <v>279.94369999999998</v>
+      </c>
+      <c r="O216">
+        <v>282.23</v>
+      </c>
+      <c r="P216">
+        <v>358.14</v>
+      </c>
+      <c r="Q216">
+        <v>335.54</v>
+      </c>
+      <c r="R216">
+        <v>167.43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B217">
+        <v>7964.2479999999996</v>
+      </c>
+      <c r="C217">
+        <v>7858.34</v>
+      </c>
+      <c r="D217">
+        <v>298.16000000000003</v>
+      </c>
+      <c r="E217">
+        <v>3496.25</v>
+      </c>
+      <c r="F217">
+        <v>119.14</v>
+      </c>
+      <c r="G217">
+        <v>108.43380000000001</v>
+      </c>
+      <c r="H217">
+        <v>156.51</v>
+      </c>
+      <c r="I217">
+        <v>91.776399999999995</v>
+      </c>
+      <c r="J217">
+        <v>93.625900000000001</v>
+      </c>
+      <c r="K217">
+        <v>127.1782</v>
+      </c>
+      <c r="L217">
+        <v>908.08</v>
+      </c>
+      <c r="M217">
+        <v>1122.72</v>
+      </c>
+      <c r="N217">
+        <v>277.82429999999999</v>
+      </c>
+      <c r="O217">
+        <v>282.33</v>
+      </c>
+      <c r="P217">
+        <v>358.21</v>
+      </c>
+      <c r="Q217">
+        <v>335.55</v>
+      </c>
+      <c r="R217">
+        <v>167.08</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B218">
+        <v>8058.8789999999999</v>
+      </c>
+      <c r="C218">
+        <v>7974.19</v>
+      </c>
+      <c r="D218">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="E218">
+        <v>3496.08</v>
+      </c>
+      <c r="F218">
+        <v>117.85</v>
+      </c>
+      <c r="G218">
+        <v>108.6968</v>
+      </c>
+      <c r="H218">
+        <v>157.82</v>
+      </c>
+      <c r="I218">
+        <v>91.783000000000001</v>
+      </c>
+      <c r="J218">
+        <v>93.701599999999999</v>
+      </c>
+      <c r="K218">
+        <v>127.2093</v>
+      </c>
+      <c r="L218">
+        <v>904.57</v>
+      </c>
+      <c r="M218">
+        <v>1123.1199999999999</v>
+      </c>
+      <c r="N218">
+        <v>278.11470000000003</v>
+      </c>
+      <c r="O218">
+        <v>282.42</v>
+      </c>
+      <c r="P218">
+        <v>358.28</v>
+      </c>
+      <c r="Q218">
+        <v>335.66</v>
+      </c>
+      <c r="R218">
+        <v>166.92</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B219">
+        <v>8190.018</v>
+      </c>
+      <c r="C219">
+        <v>8104.81</v>
+      </c>
+      <c r="D219">
+        <v>305.52999999999997</v>
+      </c>
+      <c r="E219">
+        <v>3571.48</v>
+      </c>
+      <c r="F219">
+        <v>122.56</v>
+      </c>
+      <c r="G219">
+        <v>108.93219999999999</v>
+      </c>
+      <c r="H219">
+        <v>159.36000000000001</v>
+      </c>
+      <c r="I219">
+        <v>91.517799999999994</v>
+      </c>
+      <c r="J219">
+        <v>93.432900000000004</v>
+      </c>
+      <c r="K219">
+        <v>126.99250000000001</v>
+      </c>
+      <c r="L219">
+        <v>899.98</v>
+      </c>
+      <c r="M219">
+        <v>1121.57</v>
+      </c>
+      <c r="N219">
+        <v>277.6687</v>
+      </c>
+      <c r="O219">
+        <v>282.5</v>
+      </c>
+      <c r="P219">
+        <v>358.21</v>
+      </c>
+      <c r="Q219">
+        <v>335.6</v>
+      </c>
+      <c r="R219">
+        <v>166.88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B220">
+        <v>8129.6229999999996</v>
+      </c>
+      <c r="C220">
+        <v>8149.42</v>
+      </c>
+      <c r="D220">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="E220">
+        <v>3607.71</v>
+      </c>
+      <c r="F220">
+        <v>125.04</v>
+      </c>
+      <c r="G220">
+        <v>108.39</v>
+      </c>
+      <c r="H220">
+        <v>158.46</v>
+      </c>
+      <c r="I220">
+        <v>91.381600000000006</v>
+      </c>
+      <c r="J220">
+        <v>93.253</v>
+      </c>
+      <c r="K220">
+        <v>126.8927</v>
+      </c>
+      <c r="L220">
+        <v>903.32</v>
+      </c>
+      <c r="M220">
+        <v>1125.82</v>
+      </c>
+      <c r="N220">
+        <v>277.39920000000001</v>
+      </c>
+      <c r="O220">
+        <v>282.8</v>
+      </c>
+      <c r="P220">
+        <v>358.71</v>
+      </c>
+      <c r="Q220">
+        <v>335.66</v>
+      </c>
+      <c r="R220">
+        <v>166.87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B221">
+        <v>8080.32</v>
+      </c>
+      <c r="C221">
+        <v>8147.6</v>
+      </c>
+      <c r="D221">
+        <v>304.58999999999997</v>
+      </c>
+      <c r="E221">
+        <v>3636.54</v>
+      </c>
+      <c r="F221">
+        <v>126.73</v>
+      </c>
+      <c r="G221">
+        <v>107.7576</v>
+      </c>
+      <c r="H221">
+        <v>157.78</v>
+      </c>
+      <c r="I221">
+        <v>91.307299999999998</v>
+      </c>
+      <c r="J221">
+        <v>93.159300000000002</v>
+      </c>
+      <c r="K221">
+        <v>126.8373</v>
+      </c>
+      <c r="L221">
+        <v>906</v>
+      </c>
+      <c r="M221">
+        <v>1132.9000000000001</v>
+      </c>
+      <c r="N221">
+        <v>278.57459999999998</v>
+      </c>
+      <c r="O221">
+        <v>282.94</v>
+      </c>
+      <c r="P221">
+        <v>358.95</v>
+      </c>
+      <c r="Q221">
+        <v>335.91</v>
+      </c>
+      <c r="R221">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B222">
+        <v>8280.1059999999998</v>
+      </c>
+      <c r="C222">
+        <v>8166.85</v>
+      </c>
+      <c r="D222">
+        <v>308.14</v>
+      </c>
+      <c r="E222">
+        <v>3625.9</v>
+      </c>
+      <c r="F222">
+        <v>125.73</v>
+      </c>
+      <c r="G222">
+        <v>108.592</v>
+      </c>
+      <c r="H222">
+        <v>160.18</v>
+      </c>
+      <c r="I222">
+        <v>91.210499999999996</v>
+      </c>
+      <c r="J222">
+        <v>93.089299999999994</v>
+      </c>
+      <c r="K222">
+        <v>126.7839</v>
+      </c>
+      <c r="L222">
+        <v>897.8</v>
+      </c>
+      <c r="M222">
+        <v>1127.23</v>
+      </c>
+      <c r="N222">
+        <v>277.21319999999997</v>
+      </c>
+      <c r="O222">
+        <v>282.98</v>
+      </c>
+      <c r="P222">
+        <v>359.13</v>
+      </c>
+      <c r="Q222">
+        <v>336.09</v>
+      </c>
+      <c r="R222">
+        <v>167.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B223">
+        <v>8218.7049999999999</v>
+      </c>
+      <c r="C223">
+        <v>8179.88</v>
+      </c>
+      <c r="D223">
+        <v>306.81</v>
+      </c>
+      <c r="E223">
+        <v>3610.31</v>
+      </c>
+      <c r="F223">
+        <v>124.25</v>
+      </c>
+      <c r="G223">
+        <v>108.08839999999999</v>
+      </c>
+      <c r="H223">
+        <v>159.6</v>
+      </c>
+      <c r="I223">
+        <v>91.190600000000003</v>
+      </c>
+      <c r="J223">
+        <v>93.060400000000001</v>
+      </c>
+      <c r="K223">
+        <v>126.7722</v>
+      </c>
+      <c r="L223">
+        <v>901.15</v>
+      </c>
+      <c r="M223">
+        <v>1128.26</v>
+      </c>
+      <c r="N223">
+        <v>275.762</v>
+      </c>
+      <c r="O223">
+        <v>283.58</v>
+      </c>
+      <c r="P223">
+        <v>359.44</v>
+      </c>
+      <c r="Q223">
+        <v>336.89</v>
+      </c>
+      <c r="R223">
+        <v>167.37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
